--- a/backtest_portfolio_PL.xlsx
+++ b/backtest_portfolio_PL.xlsx
@@ -12,6 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-10-24_PnL" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-10-27_Allocations" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-10-27_PnL" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-10-28_Allocations" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-10-28_PnL" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -10922,4 +10924,4682 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Allocation_Percent</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Target_Value</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Actual_Shares</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04020818056104079</v>
+      </c>
+      <c r="C2" t="n">
+        <v>29.22999954223633</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4939.573247802832</v>
+      </c>
+      <c r="E2" t="n">
+        <v>168.9898503304908</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.03699170257737974</v>
+      </c>
+      <c r="C3" t="n">
+        <v>527.0700073242188</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4544.429066232145</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.622059694314405</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03144947619076791</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13.26000022888184</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3863.566793665138</v>
+      </c>
+      <c r="E4" t="n">
+        <v>291.3700397417668</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GLW</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02977911455044821</v>
+      </c>
+      <c r="C5" t="n">
+        <v>89.37000274658203</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3658.36293819216</v>
+      </c>
+      <c r="E5" t="n">
+        <v>40.93502098870725</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.02927841242864678</v>
+      </c>
+      <c r="C6" t="n">
+        <v>74.70999908447266</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3596.851704123417</v>
+      </c>
+      <c r="E6" t="n">
+        <v>48.14418080846917</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02604182738691457</v>
+      </c>
+      <c r="C7" t="n">
+        <v>220.1000061035156</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3199.237371335875</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14.53538065706021</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02402653838389583</v>
+      </c>
+      <c r="C8" t="n">
+        <v>86.02999877929688</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2951.65920423154</v>
+      </c>
+      <c r="E8" t="n">
+        <v>34.30965065806623</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02360596933929827</v>
+      </c>
+      <c r="C9" t="n">
+        <v>269.9299926757812</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2899.992315241269</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10.74349792142036</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.02220262472437933</v>
+      </c>
+      <c r="C10" t="n">
+        <v>269.2699890136719</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2727.591489822712</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10.12957849411218</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02180000765177594</v>
+      </c>
+      <c r="C11" t="n">
+        <v>156.8999938964844</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2678.129999817682</v>
+      </c>
+      <c r="E11" t="n">
+        <v>17.06902551943114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02145014928924827</v>
+      </c>
+      <c r="C12" t="n">
+        <v>287.2200012207031</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2635.149915070046</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.174674130877001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.02130739172327973</v>
+      </c>
+      <c r="C13" t="n">
+        <v>48.06999969482422</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2617.612154247739</v>
+      </c>
+      <c r="E13" t="n">
+        <v>54.4541745551453</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.02116076158769948</v>
+      </c>
+      <c r="C14" t="n">
+        <v>126.6699981689453</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2599.598648415653</v>
+      </c>
+      <c r="E14" t="n">
+        <v>20.52260745238549</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.02081535326012632</v>
+      </c>
+      <c r="C15" t="n">
+        <v>811.4400024414062</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2557.165250270254</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.151391652588518</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.02073848347931497</v>
+      </c>
+      <c r="C16" t="n">
+        <v>96.23000335693359</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2547.721801012864</v>
+      </c>
+      <c r="E16" t="n">
+        <v>26.47533733905138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01916403375377504</v>
+      </c>
+      <c r="C17" t="n">
+        <v>93.16999816894531</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2354.300720134036</v>
+      </c>
+      <c r="E17" t="n">
+        <v>25.2688715938899</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0178424365123029</v>
+      </c>
+      <c r="C18" t="n">
+        <v>230.3200073242188</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2191.942556017774</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9.516943757874245</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01736709183933136</v>
+      </c>
+      <c r="C19" t="n">
+        <v>231.3300018310547</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2133.546483444152</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9.222956238085914</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01556115476645614</v>
+      </c>
+      <c r="C20" t="n">
+        <v>529.7000122070312</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1911.687191928901</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.608999712806737</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.01543110679019397</v>
+      </c>
+      <c r="C21" t="n">
+        <v>313.0899963378906</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1895.710803653875</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.054843098876914</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01522798894460948</v>
+      </c>
+      <c r="C22" t="n">
+        <v>96.41999816894531</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1870.757785084002</v>
+      </c>
+      <c r="E22" t="n">
+        <v>19.40217611087376</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CVS</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01516827196578593</v>
+      </c>
+      <c r="C23" t="n">
+        <v>82.44999694824219</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1863.421556811036</v>
+      </c>
+      <c r="E23" t="n">
+        <v>22.60062614654546</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01494303082228358</v>
+      </c>
+      <c r="C24" t="n">
+        <v>146.5899963378906</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1835.7506920461</v>
+      </c>
+      <c r="E24" t="n">
+        <v>12.52302843240876</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01487721323564412</v>
+      </c>
+      <c r="C25" t="n">
+        <v>39.54000091552734</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1827.66500436606</v>
+      </c>
+      <c r="E25" t="n">
+        <v>46.22319074475126</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01476750784005551</v>
+      </c>
+      <c r="C26" t="n">
+        <v>336.0499877929688</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1814.187701249435</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.398564996726341</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.01456943352338175</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1215.130004882812</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1789.854279988724</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.472973486619926</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01403818065852259</v>
+      </c>
+      <c r="C28" t="n">
+        <v>167.7700042724609</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1724.589888452948</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10.2794888510117</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.01399696965600965</v>
+      </c>
+      <c r="C29" t="n">
+        <v>259.6700134277344</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1719.527118571606</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6.621970307134236</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TGT</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0134102813004168</v>
+      </c>
+      <c r="C30" t="n">
+        <v>97.76999664306641</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1647.452479390048</v>
+      </c>
+      <c r="E30" t="n">
+        <v>16.85028675417144</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01244139823227411</v>
+      </c>
+      <c r="C31" t="n">
+        <v>162.1900024414062</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1528.425236255253</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9.423671084827943</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01235739838632038</v>
+      </c>
+      <c r="C32" t="n">
+        <v>391.1499938964844</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1518.10585880263</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.881134813987466</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PWR</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.01224588098496259</v>
+      </c>
+      <c r="C33" t="n">
+        <v>441.8200073242188</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1504.405950855411</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.405019976271557</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.01158792961781742</v>
+      </c>
+      <c r="C34" t="n">
+        <v>221.0099945068359</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1423.576653778124</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6.441232021903388</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HWM</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.01125452049079201</v>
+      </c>
+      <c r="C35" t="n">
+        <v>201.8399963378906</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1382.617356902508</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6.850066299981173</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MPC</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.01119513372031912</v>
+      </c>
+      <c r="C36" t="n">
+        <v>196.2299957275391</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1375.32169471118</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7.008723052824112</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AVY</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.01091195488835044</v>
+      </c>
+      <c r="C37" t="n">
+        <v>180.4700012207031</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1340.533187416923</v>
+      </c>
+      <c r="E37" t="n">
+        <v>7.428011183850649</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.01067851274023258</v>
+      </c>
+      <c r="C38" t="n">
+        <v>135.9100036621094</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1311.854829588669</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9.652378737698493</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>RL</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.01052807678364361</v>
+      </c>
+      <c r="C39" t="n">
+        <v>337.5700073242188</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1293.373778809799</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.831423855045214</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>LW</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.01050573026912814</v>
+      </c>
+      <c r="C40" t="n">
+        <v>66.56999969482422</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1290.628510465348</v>
+      </c>
+      <c r="E40" t="n">
+        <v>19.38753967826282</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.01039341823895537</v>
+      </c>
+      <c r="C41" t="n">
+        <v>268.8099975585938</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1276.830982402479</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.749938596030687</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.01010872867784686</v>
+      </c>
+      <c r="C42" t="n">
+        <v>351.75</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1241.85688209855</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.530509970429423</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TECH</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.009798516248532771</v>
+      </c>
+      <c r="C43" t="n">
+        <v>64.25</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1203.747298536331</v>
+      </c>
+      <c r="E43" t="n">
+        <v>18.73536651418413</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.009025874080746885</v>
+      </c>
+      <c r="C44" t="n">
+        <v>643.0999755859375</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1108.82824154678</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.724192635113244</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>IRM</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.008592591436386052</v>
+      </c>
+      <c r="C45" t="n">
+        <v>106.4599990844727</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1055.59948737391</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9.915456476158006</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.008505130656886413</v>
+      </c>
+      <c r="C46" t="n">
+        <v>21.04000091552734</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1044.854934384437</v>
+      </c>
+      <c r="E46" t="n">
+        <v>49.66040346573097</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.00848660933045137</v>
+      </c>
+      <c r="C47" t="n">
+        <v>563.780029296875</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1042.57959023069</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.849266621825813</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.008366228458142166</v>
+      </c>
+      <c r="C48" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1027.790805259358</v>
+      </c>
+      <c r="E48" t="n">
+        <v>6.968073255995649</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.00813286338781887</v>
+      </c>
+      <c r="C49" t="n">
+        <v>174.3500061035156</v>
+      </c>
+      <c r="D49" t="n">
+        <v>999.1219164348413</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5.730552804464139</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>RVTY</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.007938494680745029</v>
+      </c>
+      <c r="C50" t="n">
+        <v>97.16000366210938</v>
+      </c>
+      <c r="D50" t="n">
+        <v>975.2437291536628</v>
+      </c>
+      <c r="E50" t="n">
+        <v>10.03750198018971</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.007574292223989477</v>
+      </c>
+      <c r="C51" t="n">
+        <v>157.6199951171875</v>
+      </c>
+      <c r="D51" t="n">
+        <v>930.5014730487717</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5.903448178366973</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MPWR</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.00734190414239466</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1105.050048828125</v>
+      </c>
+      <c r="D52" t="n">
+        <v>901.9526072474124</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.8162097347571797</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.00717505138731106</v>
+      </c>
+      <c r="C53" t="n">
+        <v>69.68000030517578</v>
+      </c>
+      <c r="D53" t="n">
+        <v>881.4547534815116</v>
+      </c>
+      <c r="E53" t="n">
+        <v>12.65003946069211</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.006961546419545933</v>
+      </c>
+      <c r="C54" t="n">
+        <v>172.5899963378906</v>
+      </c>
+      <c r="D54" t="n">
+        <v>855.2256773997281</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.955244774009945</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.006757588433656873</v>
+      </c>
+      <c r="C55" t="n">
+        <v>59.43999862670898</v>
+      </c>
+      <c r="D55" t="n">
+        <v>830.1694476296717</v>
+      </c>
+      <c r="E55" t="n">
+        <v>13.96651189114665</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.006539158556114822</v>
+      </c>
+      <c r="C56" t="n">
+        <v>452.4200134277344</v>
+      </c>
+      <c r="D56" t="n">
+        <v>803.3353465941975</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.77564060552444</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>HOOD</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.006473811695690953</v>
+      </c>
+      <c r="C57" t="n">
+        <v>145.8600006103516</v>
+      </c>
+      <c r="D57" t="n">
+        <v>795.3074876094413</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5.452539999187406</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CRL</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.006175988794448524</v>
+      </c>
+      <c r="C58" t="n">
+        <v>195.2799987792969</v>
+      </c>
+      <c r="D58" t="n">
+        <v>758.7199570364825</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.885292717017982</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.006161823394781034</v>
+      </c>
+      <c r="C59" t="n">
+        <v>362.0499877929688</v>
+      </c>
+      <c r="D59" t="n">
+        <v>756.9797382982646</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.090815533271413</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.006103752050067547</v>
+      </c>
+      <c r="C60" t="n">
+        <v>220.2899932861328</v>
+      </c>
+      <c r="D60" t="n">
+        <v>749.8456761047464</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.403902578229135</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.005771743727202069</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1685.089965820312</v>
+      </c>
+      <c r="D61" t="n">
+        <v>709.0584679597641</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.4207837458782742</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PCG</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.005756343885729223</v>
+      </c>
+      <c r="C62" t="n">
+        <v>16.43000030517578</v>
+      </c>
+      <c r="D62" t="n">
+        <v>707.1665980989981</v>
+      </c>
+      <c r="E62" t="n">
+        <v>43.04117985172687</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.005586486414523865</v>
+      </c>
+      <c r="C63" t="n">
+        <v>214.0299987792969</v>
+      </c>
+      <c r="D63" t="n">
+        <v>686.2996150871284</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.206558047943671</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.005427581909854098</v>
+      </c>
+      <c r="C64" t="n">
+        <v>26.79999923706055</v>
+      </c>
+      <c r="D64" t="n">
+        <v>666.7782035417704</v>
+      </c>
+      <c r="E64" t="n">
+        <v>24.87978442252013</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>HOLX</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.00533043297098047</v>
+      </c>
+      <c r="C65" t="n">
+        <v>73.94999694824219</v>
+      </c>
+      <c r="D65" t="n">
+        <v>654.8434605910393</v>
+      </c>
+      <c r="E65" t="n">
+        <v>8.855219575591951</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>EIX</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.0053064565475773</v>
+      </c>
+      <c r="C66" t="n">
+        <v>56.90999984741211</v>
+      </c>
+      <c r="D66" t="n">
+        <v>651.8979580100284</v>
+      </c>
+      <c r="E66" t="n">
+        <v>11.45489298467592</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.004799519907067081</v>
+      </c>
+      <c r="C67" t="n">
+        <v>217.4299926757812</v>
+      </c>
+      <c r="D67" t="n">
+        <v>589.6208135867967</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.711773138244108</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>IBKR</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.00416271397814654</v>
+      </c>
+      <c r="C68" t="n">
+        <v>69.48999786376953</v>
+      </c>
+      <c r="D68" t="n">
+        <v>511.3892326834325</v>
+      </c>
+      <c r="E68" t="n">
+        <v>7.359177556545283</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.004017244901179865</v>
+      </c>
+      <c r="C69" t="n">
+        <v>236.7400054931641</v>
+      </c>
+      <c r="D69" t="n">
+        <v>493.5183628519486</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.08464286305932</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.003921073186576856</v>
+      </c>
+      <c r="C70" t="n">
+        <v>189.1799926757812</v>
+      </c>
+      <c r="D70" t="n">
+        <v>481.7036718607168</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.546271754467534</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.003881152950818273</v>
+      </c>
+      <c r="C71" t="n">
+        <v>200.5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>476.7994726194772</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.378052232516096</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.003843855260646561</v>
+      </c>
+      <c r="C72" t="n">
+        <v>102.5899963378906</v>
+      </c>
+      <c r="D72" t="n">
+        <v>472.2174529904783</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4.602958084092156</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.003792737082996114</v>
+      </c>
+      <c r="C73" t="n">
+        <v>25.72999954223633</v>
+      </c>
+      <c r="D73" t="n">
+        <v>465.9375870707743</v>
+      </c>
+      <c r="E73" t="n">
+        <v>18.10872892966547</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>EBAY</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.003575965864842386</v>
+      </c>
+      <c r="C74" t="n">
+        <v>98.01000213623047</v>
+      </c>
+      <c r="D74" t="n">
+        <v>439.3072522696198</v>
+      </c>
+      <c r="E74" t="n">
+        <v>4.482269591821844</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ETR</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.003565955923113377</v>
+      </c>
+      <c r="C75" t="n">
+        <v>97.36000061035156</v>
+      </c>
+      <c r="D75" t="n">
+        <v>438.0775313599255</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4.499563769654989</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.003424816566738904</v>
+      </c>
+      <c r="C76" t="n">
+        <v>127.0800018310547</v>
+      </c>
+      <c r="D76" t="n">
+        <v>420.738567516459</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3.310816504990344</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.003417530089413494</v>
+      </c>
+      <c r="C77" t="n">
+        <v>100.4599990844727</v>
+      </c>
+      <c r="D77" t="n">
+        <v>419.8434240912877</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4.179209913572254</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.003041140225678993</v>
+      </c>
+      <c r="C78" t="n">
+        <v>150.4299926757812</v>
+      </c>
+      <c r="D78" t="n">
+        <v>373.603945564658</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2.483573514291655</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.003010902022918742</v>
+      </c>
+      <c r="C79" t="n">
+        <v>365.9800109863281</v>
+      </c>
+      <c r="D79" t="n">
+        <v>369.8891836596914</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.010681383015504</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.002984209961902182</v>
+      </c>
+      <c r="C80" t="n">
+        <v>162.4499969482422</v>
+      </c>
+      <c r="D80" t="n">
+        <v>366.6100651149972</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2.256756368126015</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.002902159691958224</v>
+      </c>
+      <c r="C81" t="n">
+        <v>247.6900024414062</v>
+      </c>
+      <c r="D81" t="n">
+        <v>356.5301929910922</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.439421008021643</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.002873854897504302</v>
+      </c>
+      <c r="C82" t="n">
+        <v>826.4099731445312</v>
+      </c>
+      <c r="D82" t="n">
+        <v>353.0529502131729</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.4272128382838711</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SMCI</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.00281819383098073</v>
+      </c>
+      <c r="C83" t="n">
+        <v>51.56999969482422</v>
+      </c>
+      <c r="D83" t="n">
+        <v>346.214990591334</v>
+      </c>
+      <c r="E83" t="n">
+        <v>6.713496076015714</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.002704927755747278</v>
+      </c>
+      <c r="C84" t="n">
+        <v>88</v>
+      </c>
+      <c r="D84" t="n">
+        <v>332.3002581339073</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3.77613929697622</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>CSX</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.002701196382192164</v>
+      </c>
+      <c r="C85" t="n">
+        <v>36</v>
+      </c>
+      <c r="D85" t="n">
+        <v>331.8418590535904</v>
+      </c>
+      <c r="E85" t="n">
+        <v>9.217829418155288</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.002558722426686623</v>
+      </c>
+      <c r="C86" t="n">
+        <v>312.8399963378906</v>
+      </c>
+      <c r="D86" t="n">
+        <v>314.3389397644315</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.004791405971383</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.002432837716225912</v>
+      </c>
+      <c r="C87" t="n">
+        <v>152.6300048828125</v>
+      </c>
+      <c r="D87" t="n">
+        <v>298.8740085135598</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.958160249965475</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.002398921229679384</v>
+      </c>
+      <c r="C88" t="n">
+        <v>361.4299926757812</v>
+      </c>
+      <c r="D88" t="n">
+        <v>294.7073696040882</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.8153926779077623</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.002341058248556187</v>
+      </c>
+      <c r="C89" t="n">
+        <v>161</v>
+      </c>
+      <c r="D89" t="n">
+        <v>287.5989048686507</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.786328601668638</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>BBY</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.002050062794829059</v>
+      </c>
+      <c r="C90" t="n">
+        <v>82.87999725341797</v>
+      </c>
+      <c r="D90" t="n">
+        <v>251.8501259284885</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.038732315089479</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.002049343158034631</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1419.7099609375</v>
+      </c>
+      <c r="D91" t="n">
+        <v>251.76171857933</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.1773332057296267</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.001666925177712811</v>
+      </c>
+      <c r="C92" t="n">
+        <v>156.8099975585938</v>
+      </c>
+      <c r="D92" t="n">
+        <v>204.7816861899321</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.305922386188503</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.001598056654367175</v>
+      </c>
+      <c r="C93" t="n">
+        <v>52.68000030517578</v>
+      </c>
+      <c r="D93" t="n">
+        <v>196.3211910671212</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3.726674068523737</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>EVRG</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.001499571246272733</v>
+      </c>
+      <c r="C94" t="n">
+        <v>78.30999755859375</v>
+      </c>
+      <c r="D94" t="n">
+        <v>184.2222629302531</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.352474379690956</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.001151955158845679</v>
+      </c>
+      <c r="C95" t="n">
+        <v>420.1700134277344</v>
+      </c>
+      <c r="D95" t="n">
+        <v>141.5176415820216</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.3368104268734576</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>GNRC</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.001038059358002893</v>
+      </c>
+      <c r="C96" t="n">
+        <v>190.4100036621094</v>
+      </c>
+      <c r="D96" t="n">
+        <v>127.5255473606475</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.6697418460583983</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.0005557356892212246</v>
+      </c>
+      <c r="C97" t="n">
+        <v>191.4900054931641</v>
+      </c>
+      <c r="D97" t="n">
+        <v>68.27210545274603</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.3565309075892384</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>GEHC</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.0005116701161881563</v>
+      </c>
+      <c r="C98" t="n">
+        <v>78.34999847412109</v>
+      </c>
+      <c r="D98" t="n">
+        <v>62.85865170611842</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.8022801905590408</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>IVZ</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.0004475787607457365</v>
+      </c>
+      <c r="C99" t="n">
+        <v>23.45999908447266</v>
+      </c>
+      <c r="D99" t="n">
+        <v>54.98503145418518</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.343778073315349</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.0003673802839316077</v>
+      </c>
+      <c r="C100" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="D100" t="n">
+        <v>45.13265203641447</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.5584342020147868</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>TPR</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.0003564172724159082</v>
+      </c>
+      <c r="C101" t="n">
+        <v>114.9700012207031</v>
+      </c>
+      <c r="D101" t="n">
+        <v>43.78584654452971</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.3808458387373228</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>AES</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.0003119279857211589</v>
+      </c>
+      <c r="C102" t="n">
+        <v>14.48999977111816</v>
+      </c>
+      <c r="D102" t="n">
+        <v>38.32033959283875</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.644605948802002</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>HUM</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.0002971661300699692</v>
+      </c>
+      <c r="C103" t="n">
+        <v>292.3399963378906</v>
+      </c>
+      <c r="D103" t="n">
+        <v>36.5068462627477</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.1248780417324511</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>DLR</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.0001932479919362369</v>
+      </c>
+      <c r="C104" t="n">
+        <v>178.1399993896484</v>
+      </c>
+      <c r="D104" t="n">
+        <v>23.7405074748586</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.1332688197833133</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1.456351292947831e-05</v>
+      </c>
+      <c r="C105" t="n">
+        <v>36.15999984741211</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.789126935283033</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.04947806810931379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Shares</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Exit_Price</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Sale_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Transaction_Cost</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Gain_Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>168.9898503304908</v>
+      </c>
+      <c r="C2" t="n">
+        <v>29.22999954223633</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.85000038146973</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4875.357246499172</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-64.21600130366005</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8.622059694314405</v>
+      </c>
+      <c r="C3" t="n">
+        <v>527.0700073242188</v>
+      </c>
+      <c r="D3" t="n">
+        <v>524.469970703125</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4522.011395277671</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-22.41767095447358</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>291.3700397417668</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13.26000022888184</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.13000011444092</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3825.688655154053</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-37.87813851108467</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GLW</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>40.93502098870725</v>
+      </c>
+      <c r="C5" t="n">
+        <v>89.37000274658203</v>
+      </c>
+      <c r="D5" t="n">
+        <v>86.43000030517578</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3538.013876546345</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-120.3490616458153</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>48.14418080846917</v>
+      </c>
+      <c r="C6" t="n">
+        <v>74.70999908447266</v>
+      </c>
+      <c r="D6" t="n">
+        <v>74.87999725341797</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3605.036126706229</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8.184422582812203</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>14.53538065706021</v>
+      </c>
+      <c r="C7" t="n">
+        <v>220.1000061035156</v>
+      </c>
+      <c r="D7" t="n">
+        <v>221.9100036621094</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3225.546374838385</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>26.30900350250977</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>34.30965065806623</v>
+      </c>
+      <c r="C8" t="n">
+        <v>86.02999877929688</v>
+      </c>
+      <c r="D8" t="n">
+        <v>83.56999969482422</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2867.257495024121</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-84.40170920741957</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10.74349792142036</v>
+      </c>
+      <c r="C9" t="n">
+        <v>269.9299926757812</v>
+      </c>
+      <c r="D9" t="n">
+        <v>268.4299926757812</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2883.877068359138</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-16.11524688213058</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10.12957849411218</v>
+      </c>
+      <c r="C10" t="n">
+        <v>269.2699890136719</v>
+      </c>
+      <c r="D10" t="n">
+        <v>267.4700012207031</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2709.358372185392</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-18.2331176373209</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>17.06902551943114</v>
+      </c>
+      <c r="C11" t="n">
+        <v>156.8999938964844</v>
+      </c>
+      <c r="D11" t="n">
+        <v>155.6199951171875</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2656.281667989023</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-21.84833182865896</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9.174674130877001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>287.2200012207031</v>
+      </c>
+      <c r="D12" t="n">
+        <v>283.489990234375</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2600.928279765894</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-34.22163530415173</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>54.4541745551453</v>
+      </c>
+      <c r="C13" t="n">
+        <v>48.06999969482422</v>
+      </c>
+      <c r="D13" t="n">
+        <v>47.70000076293945</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2597.464167825669</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-20.14798642207052</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20.52260745238549</v>
+      </c>
+      <c r="C14" t="n">
+        <v>126.6699981689453</v>
+      </c>
+      <c r="D14" t="n">
+        <v>124.9199981689453</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2563.684085373978</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-35.91456304167468</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3.151391652588518</v>
+      </c>
+      <c r="C15" t="n">
+        <v>811.4400024414062</v>
+      </c>
+      <c r="D15" t="n">
+        <v>804.5900268554688</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2535.578294388295</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-21.5869558819586</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>26.47533733905138</v>
+      </c>
+      <c r="C16" t="n">
+        <v>96.23000335693359</v>
+      </c>
+      <c r="D16" t="n">
+        <v>96.68000030517578</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2559.635622019119</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>11.9138210062556</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>25.2688715938899</v>
+      </c>
+      <c r="C17" t="n">
+        <v>93.16999816894531</v>
+      </c>
+      <c r="D17" t="n">
+        <v>92.55000305175781</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2338.634143128987</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-15.66657700504948</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9.516943757874245</v>
+      </c>
+      <c r="C18" t="n">
+        <v>230.3200073242188</v>
+      </c>
+      <c r="D18" t="n">
+        <v>223</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2122.278458005957</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-69.66409801181726</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9.222956238085914</v>
+      </c>
+      <c r="C19" t="n">
+        <v>231.3300018310547</v>
+      </c>
+      <c r="D19" t="n">
+        <v>227.6399993896484</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2099.513752408632</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-34.0327310355201</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3.608999712806737</v>
+      </c>
+      <c r="C20" t="n">
+        <v>529.7000122070312</v>
+      </c>
+      <c r="D20" t="n">
+        <v>546.9400024414062</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1973.906311733551</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>62.21911980465029</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6.054843098876914</v>
+      </c>
+      <c r="C21" t="n">
+        <v>313.0899963378906</v>
+      </c>
+      <c r="D21" t="n">
+        <v>312.5700073242188</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1892.562351762952</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-3.14845189092307</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>19.40217611087376</v>
+      </c>
+      <c r="C22" t="n">
+        <v>96.41999816894531</v>
+      </c>
+      <c r="D22" t="n">
+        <v>96.37000274658203</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1869.787765094572</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.9700199894298294</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CVS</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22.60062614654546</v>
+      </c>
+      <c r="C23" t="n">
+        <v>82.44999694824219</v>
+      </c>
+      <c r="D23" t="n">
+        <v>82.19999694824219</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1857.771400274399</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-5.650156536636359</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>12.52302843240876</v>
+      </c>
+      <c r="C24" t="n">
+        <v>146.5899963378906</v>
+      </c>
+      <c r="D24" t="n">
+        <v>145.8500061035156</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1826.483773301317</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-9.26691874478297</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>46.22319074475126</v>
+      </c>
+      <c r="C25" t="n">
+        <v>39.54000091552734</v>
+      </c>
+      <c r="D25" t="n">
+        <v>41.52999877929688</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1919.649055204726</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>91.98405083866646</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5.398564996726341</v>
+      </c>
+      <c r="C26" t="n">
+        <v>336.0499877929688</v>
+      </c>
+      <c r="D26" t="n">
+        <v>335.6400146484375</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1811.974434581771</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-2.213266667664357</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1.472973486619926</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1215.130004882812</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1206.0400390625</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1776.465001341122</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-13.38927864760171</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10.2794888510117</v>
+      </c>
+      <c r="C28" t="n">
+        <v>167.7700042724609</v>
+      </c>
+      <c r="D28" t="n">
+        <v>166.5599975585938</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1712.151637928101</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-12.43825052484704</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>6.621970307134236</v>
+      </c>
+      <c r="C29" t="n">
+        <v>259.6700134277344</v>
+      </c>
+      <c r="D29" t="n">
+        <v>258.010009765625</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1708.534623611383</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-10.99249496022253</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TGT</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>16.85028675417144</v>
+      </c>
+      <c r="C30" t="n">
+        <v>97.76999664306641</v>
+      </c>
+      <c r="D30" t="n">
+        <v>97.11000061035156</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1636.331356982188</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-11.12112240786064</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>9.423671084827943</v>
+      </c>
+      <c r="C31" t="n">
+        <v>162.1900024414062</v>
+      </c>
+      <c r="D31" t="n">
+        <v>164.8800048828125</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1553.77493448045</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>25.34969822519656</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3.881134813987466</v>
+      </c>
+      <c r="C32" t="n">
+        <v>391.1499938964844</v>
+      </c>
+      <c r="D32" t="n">
+        <v>384.9500122070312</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1494.042894021609</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-24.06296478102126</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PWR</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3.405019976271557</v>
+      </c>
+      <c r="C33" t="n">
+        <v>441.8200073242188</v>
+      </c>
+      <c r="D33" t="n">
+        <v>439.5700073242188</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1496.7446559088</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-7.661294946610951</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6.441232021903388</v>
+      </c>
+      <c r="C34" t="n">
+        <v>221.0099945068359</v>
+      </c>
+      <c r="D34" t="n">
+        <v>216.8999938964844</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1397.103186236684</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-26.47346754143905</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HWM</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>6.850066299981173</v>
+      </c>
+      <c r="C35" t="n">
+        <v>201.8399963378906</v>
+      </c>
+      <c r="D35" t="n">
+        <v>201.0399932861328</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1377.13728295778</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-5.480073944728247</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MPC</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>7.008723052824112</v>
+      </c>
+      <c r="C36" t="n">
+        <v>196.2299957275391</v>
+      </c>
+      <c r="D36" t="n">
+        <v>192.2100067138672</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1347.146705038958</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-28.17498967222173</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AVY</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>7.428011183850649</v>
+      </c>
+      <c r="C37" t="n">
+        <v>180.4700012207031</v>
+      </c>
+      <c r="D37" t="n">
+        <v>179.1699981689453</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1330.876750209426</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-9.656437207496992</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>9.652378737698493</v>
+      </c>
+      <c r="C38" t="n">
+        <v>135.9100036621094</v>
+      </c>
+      <c r="D38" t="n">
+        <v>137.2899932861328</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1325.175012093837</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>13.3201825051683</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>RL</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3.831423855045214</v>
+      </c>
+      <c r="C39" t="n">
+        <v>337.5700073242188</v>
+      </c>
+      <c r="D39" t="n">
+        <v>331.2000122070312</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1268.967627561286</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-24.40615124851365</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>LW</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>19.38753967826282</v>
+      </c>
+      <c r="C40" t="n">
+        <v>66.56999969482422</v>
+      </c>
+      <c r="D40" t="n">
+        <v>65.56999969482422</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1271.240970787085</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-19.38753967826278</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>4.749938596030687</v>
+      </c>
+      <c r="C41" t="n">
+        <v>268.8099975585938</v>
+      </c>
+      <c r="D41" t="n">
+        <v>269</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1277.733482332255</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9024999297755585</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3.530509970429423</v>
+      </c>
+      <c r="C42" t="n">
+        <v>351.75</v>
+      </c>
+      <c r="D42" t="n">
+        <v>345.9500122070312</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1221.379967367105</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-20.47691473144505</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TECH</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>18.73536651418413</v>
+      </c>
+      <c r="C43" t="n">
+        <v>64.25</v>
+      </c>
+      <c r="D43" t="n">
+        <v>63.93999862670898</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1197.939309187823</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-5.80798934850759</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.724192635113244</v>
+      </c>
+      <c r="C44" t="n">
+        <v>643.0999755859375</v>
+      </c>
+      <c r="D44" t="n">
+        <v>626.8200073242188</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1080.758440170048</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-28.06980137673281</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>IRM</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>9.915456476158006</v>
+      </c>
+      <c r="C45" t="n">
+        <v>106.4599990844727</v>
+      </c>
+      <c r="D45" t="n">
+        <v>104.0500030517578</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1031.703276603812</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-23.89621077009747</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>49.66040346573097</v>
+      </c>
+      <c r="C46" t="n">
+        <v>21.04000091552734</v>
+      </c>
+      <c r="D46" t="n">
+        <v>20.98999977111816</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1042.371857379329</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-2.483077005108044</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1.849266621825813</v>
+      </c>
+      <c r="C47" t="n">
+        <v>563.780029296875</v>
+      </c>
+      <c r="D47" t="n">
+        <v>557.6300048828125</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1031.20655535835</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-11.37303487233953</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>6.968073255995649</v>
+      </c>
+      <c r="C48" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>144.3800048828125</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1006.050450724447</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-21.74035453491115</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>5.730552804464139</v>
+      </c>
+      <c r="C49" t="n">
+        <v>174.3500061035156</v>
+      </c>
+      <c r="D49" t="n">
+        <v>169.3399963378906</v>
+      </c>
+      <c r="E49" t="n">
+        <v>970.4117909220462</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-28.71012551279512</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>RVTY</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>10.03750198018971</v>
+      </c>
+      <c r="C50" t="n">
+        <v>97.16000366210938</v>
+      </c>
+      <c r="D50" t="n">
+        <v>96.44999694824219</v>
+      </c>
+      <c r="E50" t="n">
+        <v>968.1170353572729</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-7.126693796389873</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5.903448178366973</v>
+      </c>
+      <c r="C51" t="n">
+        <v>157.6199951171875</v>
+      </c>
+      <c r="D51" t="n">
+        <v>157.2700042724609</v>
+      </c>
+      <c r="E51" t="n">
+        <v>928.4353202340255</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-2.066152814746147</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MPWR</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.8162097347571797</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1105.050048828125</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1086.359985351562</v>
+      </c>
+      <c r="E52" t="n">
+        <v>886.6975954946125</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-15.25501175279987</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>12.65003946069211</v>
+      </c>
+      <c r="C53" t="n">
+        <v>69.68000030517578</v>
+      </c>
+      <c r="D53" t="n">
+        <v>69.31999969482422</v>
+      </c>
+      <c r="E53" t="n">
+        <v>876.9007315546911</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-4.554021926820496</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4.955244774009945</v>
+      </c>
+      <c r="C54" t="n">
+        <v>172.5899963378906</v>
+      </c>
+      <c r="D54" t="n">
+        <v>172.7599945068359</v>
+      </c>
+      <c r="E54" t="n">
+        <v>856.0680599379855</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.8423825382575387</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>13.96651189114665</v>
+      </c>
+      <c r="C55" t="n">
+        <v>59.43999862670898</v>
+      </c>
+      <c r="D55" t="n">
+        <v>58.20000076293945</v>
+      </c>
+      <c r="E55" t="n">
+        <v>812.8510027203381</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-17.31844490933361</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1.77564060552444</v>
+      </c>
+      <c r="C56" t="n">
+        <v>452.4200134277344</v>
+      </c>
+      <c r="D56" t="n">
+        <v>460.5499877929688</v>
+      </c>
+      <c r="E56" t="n">
+        <v>817.7712591989805</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>14.43591260478297</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>HOOD</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>5.452539999187406</v>
+      </c>
+      <c r="C57" t="n">
+        <v>145.8600006103516</v>
+      </c>
+      <c r="D57" t="n">
+        <v>146.25</v>
+      </c>
+      <c r="E57" t="n">
+        <v>797.4339748811581</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.126487271716769</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CRL</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3.885292717017982</v>
+      </c>
+      <c r="C58" t="n">
+        <v>195.2799987792969</v>
+      </c>
+      <c r="D58" t="n">
+        <v>187.9299926757812</v>
+      </c>
+      <c r="E58" t="n">
+        <v>730.1630318524556</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-28.55692518402691</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2.090815533271413</v>
+      </c>
+      <c r="C59" t="n">
+        <v>362.0499877929688</v>
+      </c>
+      <c r="D59" t="n">
+        <v>372.9700012207031</v>
+      </c>
+      <c r="E59" t="n">
+        <v>779.8114719965041</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>22.83173369823942</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3.403902578229135</v>
+      </c>
+      <c r="C60" t="n">
+        <v>220.2899932861328</v>
+      </c>
+      <c r="D60" t="n">
+        <v>221.3800048828125</v>
+      </c>
+      <c r="E60" t="n">
+        <v>753.5559693889841</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3.71029328423765</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.4207837458782742</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1685.089965820312</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1666.640014648438</v>
+      </c>
+      <c r="E61" t="n">
+        <v>701.2950283943914</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-7.763439565372778</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PCG</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>43.04117985172687</v>
+      </c>
+      <c r="C62" t="n">
+        <v>16.43000030517578</v>
+      </c>
+      <c r="D62" t="n">
+        <v>16.1200008392334</v>
+      </c>
+      <c r="E62" t="n">
+        <v>693.8238553314327</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-13.34274276756537</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>3.206558047943671</v>
+      </c>
+      <c r="C63" t="n">
+        <v>214.0299987792969</v>
+      </c>
+      <c r="D63" t="n">
+        <v>219.3200073242188</v>
+      </c>
+      <c r="E63" t="n">
+        <v>703.2623345605384</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>16.96271947341006</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>24.87978442252013</v>
+      </c>
+      <c r="C64" t="n">
+        <v>26.79999923706055</v>
+      </c>
+      <c r="D64" t="n">
+        <v>26.6200008392334</v>
+      </c>
+      <c r="E64" t="n">
+        <v>662.2998822074319</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-4.478321334338489</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>HOLX</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>8.855219575591951</v>
+      </c>
+      <c r="C65" t="n">
+        <v>73.94999694824219</v>
+      </c>
+      <c r="D65" t="n">
+        <v>74.01000213623047</v>
+      </c>
+      <c r="E65" t="n">
+        <v>655.3748197063502</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.5313591153109201</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>EIX</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>11.45489298467592</v>
+      </c>
+      <c r="C66" t="n">
+        <v>56.90999984741211</v>
+      </c>
+      <c r="D66" t="n">
+        <v>56.04999923706055</v>
+      </c>
+      <c r="E66" t="n">
+        <v>642.0467430516953</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-9.851214958333117</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2.711773138244108</v>
+      </c>
+      <c r="C67" t="n">
+        <v>217.4299926757812</v>
+      </c>
+      <c r="D67" t="n">
+        <v>218.1300048828125</v>
+      </c>
+      <c r="E67" t="n">
+        <v>591.519087886267</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.898274299470359</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>IBKR</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>7.359177556545283</v>
+      </c>
+      <c r="C68" t="n">
+        <v>69.48999786376953</v>
+      </c>
+      <c r="D68" t="n">
+        <v>68.65000152587891</v>
+      </c>
+      <c r="E68" t="n">
+        <v>505.2075504860475</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-6.18168219738493</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2.08464286305932</v>
+      </c>
+      <c r="C69" t="n">
+        <v>236.7400054931641</v>
+      </c>
+      <c r="D69" t="n">
+        <v>236.5399932861328</v>
+      </c>
+      <c r="E69" t="n">
+        <v>493.1014088320362</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-0.4169540199124526</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2.546271754467534</v>
+      </c>
+      <c r="C70" t="n">
+        <v>189.1799926757812</v>
+      </c>
+      <c r="D70" t="n">
+        <v>189.6000061035156</v>
+      </c>
+      <c r="E70" t="n">
+        <v>482.7731401882539</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.069468327537152</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2.378052232516096</v>
+      </c>
+      <c r="C71" t="n">
+        <v>200.5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>200.3000030517578</v>
+      </c>
+      <c r="E71" t="n">
+        <v>476.3238694302135</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-0.4756031892637225</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>4.602958084092156</v>
+      </c>
+      <c r="C72" t="n">
+        <v>102.5899963378906</v>
+      </c>
+      <c r="D72" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="E72" t="n">
+        <v>472.7237811891511</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.5063281986727475</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>18.10872892966547</v>
+      </c>
+      <c r="C73" t="n">
+        <v>25.72999954223633</v>
+      </c>
+      <c r="D73" t="n">
+        <v>25.3799991607666</v>
+      </c>
+      <c r="E73" t="n">
+        <v>459.5995250374596</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-6.33806203331477</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>EBAY</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>4.482269591821844</v>
+      </c>
+      <c r="C74" t="n">
+        <v>98.01000213623047</v>
+      </c>
+      <c r="D74" t="n">
+        <v>99.58000183105469</v>
+      </c>
+      <c r="E74" t="n">
+        <v>446.3444141609</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>7.037161891280221</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ETR</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>4.499563769654989</v>
+      </c>
+      <c r="C75" t="n">
+        <v>97.36000061035156</v>
+      </c>
+      <c r="D75" t="n">
+        <v>95.01999664306641</v>
+      </c>
+      <c r="E75" t="n">
+        <v>427.5485342878803</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-10.52899707204523</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>3.310816504990344</v>
+      </c>
+      <c r="C76" t="n">
+        <v>127.0800018310547</v>
+      </c>
+      <c r="D76" t="n">
+        <v>125.7200012207031</v>
+      </c>
+      <c r="E76" t="n">
+        <v>416.2358550489101</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-4.502712467548861</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4.179209913572254</v>
+      </c>
+      <c r="C77" t="n">
+        <v>100.4599990844727</v>
+      </c>
+      <c r="D77" t="n">
+        <v>98.76000213623047</v>
+      </c>
+      <c r="E77" t="n">
+        <v>412.7387799921514</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-7.104644099136294</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2.483573514291655</v>
+      </c>
+      <c r="C78" t="n">
+        <v>150.4299926757812</v>
+      </c>
+      <c r="D78" t="n">
+        <v>149.1300048828125</v>
+      </c>
+      <c r="E78" t="n">
+        <v>370.3753303131384</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-3.22861525151967</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1.010681383015504</v>
+      </c>
+      <c r="C79" t="n">
+        <v>365.9800109863281</v>
+      </c>
+      <c r="D79" t="n">
+        <v>367.8399963378906</v>
+      </c>
+      <c r="E79" t="n">
+        <v>371.7690362271971</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.879852567505736</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2.256756368126015</v>
+      </c>
+      <c r="C80" t="n">
+        <v>162.4499969482422</v>
+      </c>
+      <c r="D80" t="n">
+        <v>161.8999938964844</v>
+      </c>
+      <c r="E80" t="n">
+        <v>365.368842225454</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-1.241222889543167</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1.439421008021643</v>
+      </c>
+      <c r="C81" t="n">
+        <v>247.6900024414062</v>
+      </c>
+      <c r="D81" t="n">
+        <v>239.6000061035156</v>
+      </c>
+      <c r="E81" t="n">
+        <v>344.8852823075143</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-11.6449106835779</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.4272128382838711</v>
+      </c>
+      <c r="C82" t="n">
+        <v>826.4099731445312</v>
+      </c>
+      <c r="D82" t="n">
+        <v>820.0999755859375</v>
+      </c>
+      <c r="E82" t="n">
+        <v>350.3572382466018</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-2.695711966571139</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SMCI</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>6.713496076015714</v>
+      </c>
+      <c r="C83" t="n">
+        <v>51.56999969482422</v>
+      </c>
+      <c r="D83" t="n">
+        <v>52.36000061035156</v>
+      </c>
+      <c r="E83" t="n">
+        <v>351.5186586377756</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5.303668046441658</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>3.77613929697622</v>
+      </c>
+      <c r="C84" t="n">
+        <v>88</v>
+      </c>
+      <c r="D84" t="n">
+        <v>87.02999877929688</v>
+      </c>
+      <c r="E84" t="n">
+        <v>328.6373984062953</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-3.662859727611988</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>CSX</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>9.217829418155288</v>
+      </c>
+      <c r="C85" t="n">
+        <v>36</v>
+      </c>
+      <c r="D85" t="n">
+        <v>35.68000030517578</v>
+      </c>
+      <c r="E85" t="n">
+        <v>328.892156452839</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-2.94970260075138</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1.004791405971383</v>
+      </c>
+      <c r="C86" t="n">
+        <v>312.8399963378906</v>
+      </c>
+      <c r="D86" t="n">
+        <v>309.7900085449219</v>
+      </c>
+      <c r="E86" t="n">
+        <v>311.2743382417389</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-3.064601522692612</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1.958160249965475</v>
+      </c>
+      <c r="C87" t="n">
+        <v>152.6300048828125</v>
+      </c>
+      <c r="D87" t="n">
+        <v>150.1199951171875</v>
+      </c>
+      <c r="E87" t="n">
+        <v>293.9590071634878</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-4.915001350072032</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.8153926779077623</v>
+      </c>
+      <c r="C88" t="n">
+        <v>361.4299926757812</v>
+      </c>
+      <c r="D88" t="n">
+        <v>355.2200012207031</v>
+      </c>
+      <c r="E88" t="n">
+        <v>289.6437880417477</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-5.06358156234046</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.786328601668638</v>
+      </c>
+      <c r="C89" t="n">
+        <v>161</v>
+      </c>
+      <c r="D89" t="n">
+        <v>158.3099975585938</v>
+      </c>
+      <c r="E89" t="n">
+        <v>282.7936765690082</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-4.805228299642465</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>BBY</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3.038732315089479</v>
+      </c>
+      <c r="C90" t="n">
+        <v>82.87999725341797</v>
+      </c>
+      <c r="D90" t="n">
+        <v>83.86000061035156</v>
+      </c>
+      <c r="E90" t="n">
+        <v>254.8280937980988</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2.977967869610296</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.1773332057296267</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1419.7099609375</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1404.579956054688</v>
+      </c>
+      <c r="E91" t="n">
+        <v>249.0786663107559</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-2.683052268574045</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1.305922386188503</v>
+      </c>
+      <c r="C92" t="n">
+        <v>156.8099975585938</v>
+      </c>
+      <c r="D92" t="n">
+        <v>156.7700042724609</v>
+      </c>
+      <c r="E92" t="n">
+        <v>204.729458062274</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-0.05222812765808271</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>3.726674068523737</v>
+      </c>
+      <c r="C93" t="n">
+        <v>52.68000030517578</v>
+      </c>
+      <c r="D93" t="n">
+        <v>51.79999923706055</v>
+      </c>
+      <c r="E93" t="n">
+        <v>193.0417139063029</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-3.279477160818232</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>EVRG</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2.352474379690956</v>
+      </c>
+      <c r="C94" t="n">
+        <v>78.30999755859375</v>
+      </c>
+      <c r="D94" t="n">
+        <v>77.68000030517578</v>
+      </c>
+      <c r="E94" t="n">
+        <v>182.7402105323117</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-1.48205239794143</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.3368104268734576</v>
+      </c>
+      <c r="C95" t="n">
+        <v>420.1700134277344</v>
+      </c>
+      <c r="D95" t="n">
+        <v>422.3900146484375</v>
+      </c>
+      <c r="E95" t="n">
+        <v>142.2653611408262</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.7477195588046186</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>GNRC</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.6697418460583983</v>
+      </c>
+      <c r="C96" t="n">
+        <v>190.4100036621094</v>
+      </c>
+      <c r="D96" t="n">
+        <v>190.1499938964844</v>
+      </c>
+      <c r="E96" t="n">
+        <v>127.3514079402246</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-0.1741394204229039</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.3565309075892384</v>
+      </c>
+      <c r="C97" t="n">
+        <v>191.4900054931641</v>
+      </c>
+      <c r="D97" t="n">
+        <v>201.0299987792969</v>
+      </c>
+      <c r="E97" t="n">
+        <v>71.6734079174462</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3.401302464700166</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>GEHC</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.8022801905590408</v>
+      </c>
+      <c r="C98" t="n">
+        <v>78.34999847412109</v>
+      </c>
+      <c r="D98" t="n">
+        <v>79.40000152587891</v>
+      </c>
+      <c r="E98" t="n">
+        <v>63.70104835457025</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.8423966484518317</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>IVZ</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2.343778073315349</v>
+      </c>
+      <c r="C99" t="n">
+        <v>23.45999908447266</v>
+      </c>
+      <c r="D99" t="n">
+        <v>23.95999908447266</v>
+      </c>
+      <c r="E99" t="n">
+        <v>56.15692049084286</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1.171889036657674</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.5584342020147868</v>
+      </c>
+      <c r="C100" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="D100" t="n">
+        <v>82.19000244140625</v>
+      </c>
+      <c r="E100" t="n">
+        <v>45.89770842696008</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.7650563905456096</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>TPR</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.3808458387373228</v>
+      </c>
+      <c r="C101" t="n">
+        <v>114.9700012207031</v>
+      </c>
+      <c r="D101" t="n">
+        <v>113.1100006103516</v>
+      </c>
+      <c r="E101" t="n">
+        <v>43.07747305202844</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.7083734925012735</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>AES</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2.644605948802002</v>
+      </c>
+      <c r="C102" t="n">
+        <v>14.48999977111816</v>
+      </c>
+      <c r="D102" t="n">
+        <v>14.46000003814697</v>
+      </c>
+      <c r="E102" t="n">
+        <v>38.24100212056067</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-0.07933747227808396</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>HUM</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.1248780417324511</v>
+      </c>
+      <c r="C103" t="n">
+        <v>292.3399963378906</v>
+      </c>
+      <c r="D103" t="n">
+        <v>294.7999877929688</v>
+      </c>
+      <c r="E103" t="n">
+        <v>36.81404517833642</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.3071989155887209</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>DLR</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.1332688197833133</v>
+      </c>
+      <c r="C104" t="n">
+        <v>178.1399993896484</v>
+      </c>
+      <c r="D104" t="n">
+        <v>174.0599975585938</v>
+      </c>
+      <c r="E104" t="n">
+        <v>23.19677044612019</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-0.5437370287384127</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.04947806810931379</v>
+      </c>
+      <c r="C105" t="n">
+        <v>36.15999984741211</v>
+      </c>
+      <c r="D105" t="n">
+        <v>35.86000061035156</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.774283552599009</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-0.01484338268402396</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backtest_portfolio_PL.xlsx
+++ b/backtest_portfolio_PL.xlsx
@@ -20,6 +20,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-10-31_Allocations" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-10-30_PnL" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-10-31_PnL" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-03_Allocations" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-04_Allocations" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-03_PnL" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-04_PnL" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -13804,6 +13808,6652 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Allocation_Percent</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Target_Value</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Actual_Shares</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1290496082713692</v>
+      </c>
+      <c r="C2" t="n">
+        <v>534.280029296875</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15515.09596232538</v>
+      </c>
+      <c r="E2" t="n">
+        <v>29.03925865008207</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1114867516918242</v>
+      </c>
+      <c r="C3" t="n">
+        <v>139.3399963378906</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13403.58699415246</v>
+      </c>
+      <c r="E3" t="n">
+        <v>96.19339275458005</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ABBV</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1109360860006363</v>
+      </c>
+      <c r="C4" t="n">
+        <v>218.0399932861328</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13337.38275567096</v>
+      </c>
+      <c r="E4" t="n">
+        <v>61.16943297722626</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.09940666930961349</v>
+      </c>
+      <c r="C5" t="n">
+        <v>157.4600067138672</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11951.24909167177</v>
+      </c>
+      <c r="E5" t="n">
+        <v>75.90021962458891</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.08634781024879348</v>
+      </c>
+      <c r="C6" t="n">
+        <v>223.7700042724609</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10381.23695292081</v>
+      </c>
+      <c r="E6" t="n">
+        <v>46.39244203740858</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.08197899582139272</v>
+      </c>
+      <c r="C7" t="n">
+        <v>150.2100067138672</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9855.992622537577</v>
+      </c>
+      <c r="E7" t="n">
+        <v>65.61475389127777</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.07516723943560365</v>
+      </c>
+      <c r="C8" t="n">
+        <v>307.4100036621094</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9037.04357330635</v>
+      </c>
+      <c r="E8" t="n">
+        <v>29.3973633442308</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.07468403970778587</v>
+      </c>
+      <c r="C9" t="n">
+        <v>56.38000106811523</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8978.950486109234</v>
+      </c>
+      <c r="E9" t="n">
+        <v>159.2577211068399</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AVY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.07027317198141338</v>
+      </c>
+      <c r="C10" t="n">
+        <v>174.8899993896484</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8448.65026305171</v>
+      </c>
+      <c r="E10" t="n">
+        <v>48.30836693085252</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0690971922426496</v>
+      </c>
+      <c r="C11" t="n">
+        <v>577.260009765625</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8307.267125659278</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14.39085851284266</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.06637301454768124</v>
+      </c>
+      <c r="C12" t="n">
+        <v>255.8800048828125</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7979.750607616214</v>
+      </c>
+      <c r="E12" t="n">
+        <v>31.18551842794738</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.06484627206605513</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1208.739990234375</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7796.196729154397</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.506429206769877</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.06217816714137928</v>
+      </c>
+      <c r="C14" t="n">
+        <v>124.0899963378906</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7475.421606328373</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.06157151625087846</v>
+      </c>
+      <c r="C15" t="n">
+        <v>282.0700073242188</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7402.486500923342</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GLW</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.06133934642099089</v>
+      </c>
+      <c r="C16" t="n">
+        <v>89.08000183105469</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7374.573690969763</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0611947735142589</v>
+      </c>
+      <c r="C17" t="n">
+        <v>811.3400268554688</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7357.192293602153</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.06080309800468753</v>
+      </c>
+      <c r="C18" t="n">
+        <v>256.1199951171875</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7310.102781293725</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.06011084138517656</v>
+      </c>
+      <c r="C19" t="n">
+        <v>233.1000061035156</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7226.875656266872</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>JBL</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.05910684374720296</v>
+      </c>
+      <c r="C20" t="n">
+        <v>220.8899993896484</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7106.169209282914</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FTV</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.05469564574970519</v>
+      </c>
+      <c r="C21" t="n">
+        <v>50.34000015258789</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6575.829279106006</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.05435961624256636</v>
+      </c>
+      <c r="C22" t="n">
+        <v>22.45000076293945</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6535.42985349544</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.05403320111026719</v>
+      </c>
+      <c r="C23" t="n">
+        <v>459.6799926757812</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6496.186324057309</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.05091213564961294</v>
+      </c>
+      <c r="C24" t="n">
+        <v>94.59999847412109</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6120.953645900522</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PWR</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.05057773889459934</v>
+      </c>
+      <c r="C25" t="n">
+        <v>449.1300048828125</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6080.75051926556</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.04988971275256419</v>
+      </c>
+      <c r="C26" t="n">
+        <v>168.8600006103516</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5998.032006894591</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.04800162331518026</v>
+      </c>
+      <c r="C27" t="n">
+        <v>120.2600021362305</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5771.034891608007</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0477626466459957</v>
+      </c>
+      <c r="C28" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5742.303723766268</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MPWR</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.04775106210914953</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5740.910963235997</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.04416448684754843</v>
+      </c>
+      <c r="C30" t="n">
+        <v>567.3900146484375</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5309.711983981219</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.04248323941076224</v>
+      </c>
+      <c r="C31" t="n">
+        <v>69.08999633789062</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5107.582619409265</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0422934409676361</v>
+      </c>
+      <c r="C32" t="n">
+        <v>146.3600006103516</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5084.763944497757</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.04203260440309662</v>
+      </c>
+      <c r="C33" t="n">
+        <v>162.0099945068359</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5053.404652644631</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.04122718881817694</v>
+      </c>
+      <c r="C34" t="n">
+        <v>39.9900016784668</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4956.572897345505</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.04098693821163228</v>
+      </c>
+      <c r="C35" t="n">
+        <v>543.010009765625</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4927.688569330275</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.04019160407764702</v>
+      </c>
+      <c r="C36" t="n">
+        <v>217.0099945068359</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4832.068864813652</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.03839327528907439</v>
+      </c>
+      <c r="C37" t="n">
+        <v>337.8099975585938</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4615.863297820802</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0377523798226694</v>
+      </c>
+      <c r="C38" t="n">
+        <v>281.8200073242188</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4538.811109935169</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.03636421345553072</v>
+      </c>
+      <c r="C39" t="n">
+        <v>26.84000015258789</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4371.917659530116</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.03571433980547056</v>
+      </c>
+      <c r="C40" t="n">
+        <v>180.8999938964844</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4293.786062083748</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>HOOD</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.03458946998859024</v>
+      </c>
+      <c r="C41" t="n">
+        <v>146.7799987792969</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4158.54765735088</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.03403182374539889</v>
+      </c>
+      <c r="C42" t="n">
+        <v>862.8599853515625</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4091.504176227323</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.03388093805381273</v>
+      </c>
+      <c r="C43" t="n">
+        <v>349.6000061035156</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4073.363819075844</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.03343072444532548</v>
+      </c>
+      <c r="C44" t="n">
+        <v>156.8000030517578</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4019.2365153762</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.03329720108507582</v>
+      </c>
+      <c r="C45" t="n">
+        <v>82.44999694824219</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4003.183558879584</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CMG</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.0332125224843662</v>
+      </c>
+      <c r="C46" t="n">
+        <v>31.69000053405762</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3993.003004025032</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.03196000686210775</v>
+      </c>
+      <c r="C47" t="n">
+        <v>270.3699951171875</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3842.418276694535</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.03146862617222267</v>
+      </c>
+      <c r="C48" t="n">
+        <v>281.1900024414062</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3783.341626561905</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.03137741233857663</v>
+      </c>
+      <c r="C49" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3772.375367918687</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.03054916851779508</v>
+      </c>
+      <c r="C50" t="n">
+        <v>59.10963821411133</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3672.799069069279</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.02906166885137371</v>
+      </c>
+      <c r="C51" t="n">
+        <v>377</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3493.963190544766</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.02800652292902853</v>
+      </c>
+      <c r="C52" t="n">
+        <v>13.13000011444092</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3367.107398739362</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.02798804147647354</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1416.2900390625</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3364.885450809766</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.02514214616064004</v>
+      </c>
+      <c r="C54" t="n">
+        <v>91.94000244140625</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3022.735331058608</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.02505835473006329</v>
+      </c>
+      <c r="C55" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3012.661436967546</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TECH</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.02487301394931147</v>
+      </c>
+      <c r="C56" t="n">
+        <v>62.56999969482422</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2990.378688204372</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0245160663949044</v>
+      </c>
+      <c r="C57" t="n">
+        <v>369.6300048828125</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2947.464373048162</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.02431237742724487</v>
+      </c>
+      <c r="C58" t="n">
+        <v>162.8099975585938</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2922.975698328134</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.02399081014313946</v>
+      </c>
+      <c r="C59" t="n">
+        <v>437.6799926757812</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2884.315005451419</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.02389795010389714</v>
+      </c>
+      <c r="C60" t="n">
+        <v>216.4600067138672</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2873.150830377905</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.02362626881876031</v>
+      </c>
+      <c r="C61" t="n">
+        <v>456.5599975585938</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2840.487723015332</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.02279126766401766</v>
+      </c>
+      <c r="C62" t="n">
+        <v>200.4700012207031</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2740.099018097745</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>HOLX</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.02148388192576885</v>
+      </c>
+      <c r="C63" t="n">
+        <v>73.91000366210938</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2582.917485659058</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.02092452157109253</v>
+      </c>
+      <c r="C64" t="n">
+        <v>215.3800048828125</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2515.667924063536</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>BBY</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.02064909281994232</v>
+      </c>
+      <c r="C65" t="n">
+        <v>82.13999938964844</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2482.554274497914</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.01949193361232032</v>
+      </c>
+      <c r="C66" t="n">
+        <v>154.2700042724609</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2343.433851038815</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.01686111461549128</v>
+      </c>
+      <c r="C67" t="n">
+        <v>98.23000335693359</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2027.141459747869</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.01679216035110051</v>
+      </c>
+      <c r="C68" t="n">
+        <v>72.87999725341797</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2018.851376241498</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>IBKR</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.01580343218431027</v>
+      </c>
+      <c r="C69" t="n">
+        <v>70.36000061035156</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1899.980714068336</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.01574456744949762</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1659.530029296875</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1892.903652606092</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SBAC</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.01447540363909092</v>
+      </c>
+      <c r="C71" t="n">
+        <v>191.4799957275391</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1740.3173830766</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.01384335847349934</v>
+      </c>
+      <c r="C72" t="n">
+        <v>202.4900054931641</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1664.329229931212</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>CI</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.01198774030681538</v>
+      </c>
+      <c r="C73" t="n">
+        <v>244.4100036621094</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1441.236000039376</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.01169012144289831</v>
+      </c>
+      <c r="C74" t="n">
+        <v>150.0500030517578</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1405.454525800712</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.01043597685607671</v>
+      </c>
+      <c r="C75" t="n">
+        <v>64.65000152587891</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1254.673954857399</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.009716628478558332</v>
+      </c>
+      <c r="C76" t="n">
+        <v>308.9500122070312</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1168.189700801613</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.009663281993959136</v>
+      </c>
+      <c r="C77" t="n">
+        <v>163.5399932861328</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1161.77607553846</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.009268560164833333</v>
+      </c>
+      <c r="C78" t="n">
+        <v>171.4199981689453</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1114.320316940314</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MSI</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.009090298579578238</v>
+      </c>
+      <c r="C79" t="n">
+        <v>406.7099914550781</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1092.888670314831</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>DOV</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.009066254767023496</v>
+      </c>
+      <c r="C80" t="n">
+        <v>181.4600067138672</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1089.997983050577</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.008488336723762995</v>
+      </c>
+      <c r="C81" t="n">
+        <v>247.0099945068359</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1020.517307985751</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.007614908375492203</v>
+      </c>
+      <c r="C82" t="n">
+        <v>637.3300170898438</v>
+      </c>
+      <c r="D82" t="n">
+        <v>915.508661921979</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.00648639437750769</v>
+      </c>
+      <c r="C83" t="n">
+        <v>157.6900024414062</v>
+      </c>
+      <c r="D83" t="n">
+        <v>779.8321324997529</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MRNA</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.006220379990526786</v>
+      </c>
+      <c r="C84" t="n">
+        <v>27.15999984741211</v>
+      </c>
+      <c r="D84" t="n">
+        <v>747.8503326581833</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>HWM</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.004582292732854118</v>
+      </c>
+      <c r="C85" t="n">
+        <v>205.9499969482422</v>
+      </c>
+      <c r="D85" t="n">
+        <v>550.909936341673</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.004504494968107388</v>
+      </c>
+      <c r="C86" t="n">
+        <v>96.69000244140625</v>
+      </c>
+      <c r="D86" t="n">
+        <v>541.5566356856824</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.004105681353325587</v>
+      </c>
+      <c r="C87" t="n">
+        <v>58.40999984741211</v>
+      </c>
+      <c r="D87" t="n">
+        <v>493.6089387704777</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.003744037268641964</v>
+      </c>
+      <c r="C88" t="n">
+        <v>425.5700073242188</v>
+      </c>
+      <c r="D88" t="n">
+        <v>450.1299793746855</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CRL</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.003204771267566141</v>
+      </c>
+      <c r="C89" t="n">
+        <v>180.0700073242188</v>
+      </c>
+      <c r="D89" t="n">
+        <v>385.2962780718735</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MSCI</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.003044592936336595</v>
+      </c>
+      <c r="C90" t="n">
+        <v>588.5499877929688</v>
+      </c>
+      <c r="D90" t="n">
+        <v>366.0387056282157</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>EBAY</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.001702894841558171</v>
+      </c>
+      <c r="C91" t="n">
+        <v>81.30999755859375</v>
+      </c>
+      <c r="D91" t="n">
+        <v>204.7319417271376</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>EME</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.001611996967580883</v>
+      </c>
+      <c r="C92" t="n">
+        <v>675.780029296875</v>
+      </c>
+      <c r="D92" t="n">
+        <v>193.8036695965986</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>CVS</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.0008740589461782145</v>
+      </c>
+      <c r="C93" t="n">
+        <v>78.15000152587891</v>
+      </c>
+      <c r="D93" t="n">
+        <v>105.0844602191066</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.0006379544154787296</v>
+      </c>
+      <c r="C94" t="n">
+        <v>266.9400024414062</v>
+      </c>
+      <c r="D94" t="n">
+        <v>76.69859760386134</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>RVTY</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.000217028585185351</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93.58999633789062</v>
+      </c>
+      <c r="D95" t="n">
+        <v>26.09244127760345</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Allocation_Percent</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Target_Value</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Actual_Shares</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.03690337418849062</v>
+      </c>
+      <c r="C2" t="n">
+        <v>141.5500030517578</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4495.952138581046</v>
+      </c>
+      <c r="E2" t="n">
+        <v>31.76228923808005</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0338388381466025</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13.01000022888184</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4122.598544925572</v>
+      </c>
+      <c r="E3" t="n">
+        <v>316.8792061796831</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03364929561387722</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161.2400054931641</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4099.506505942751</v>
+      </c>
+      <c r="E4" t="n">
+        <v>25.42487203100817</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0324722153593636</v>
+      </c>
+      <c r="C5" t="n">
+        <v>570.5900268554688</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3956.102370035511</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.933353518002511</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.03074222529394616</v>
+      </c>
+      <c r="C6" t="n">
+        <v>94.08999633789062</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3745.337021192064</v>
+      </c>
+      <c r="E6" t="n">
+        <v>39.80590038224705</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02895599623474374</v>
+      </c>
+      <c r="C7" t="n">
+        <v>234.6999969482422</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3527.720054307194</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15.03076310258817</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02790700367654163</v>
+      </c>
+      <c r="C8" t="n">
+        <v>304.7300109863281</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3399.92089124651</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11.15715803718147</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02615569580810493</v>
+      </c>
+      <c r="C9" t="n">
+        <v>544.2100219726562</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3186.558386338558</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.855383505779439</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.02556115681001335</v>
+      </c>
+      <c r="C10" t="n">
+        <v>177.0399932861328</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3114.125473665403</v>
+      </c>
+      <c r="E10" t="n">
+        <v>17.58995476594003</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AVY</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02355438572984225</v>
+      </c>
+      <c r="C11" t="n">
+        <v>174.2700042724609</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2869.639788333363</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16.4666306190413</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PWR</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02243781194603029</v>
+      </c>
+      <c r="C12" t="n">
+        <v>450.8200073242188</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2733.607178806331</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.063633233651912</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0209622651576037</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1219.140014648438</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2553.840751348542</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.094788720461276</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.02062939722707917</v>
+      </c>
+      <c r="C14" t="n">
+        <v>237.7100067138672</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2513.287324540931</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10.57291343887844</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.02039342651525401</v>
+      </c>
+      <c r="C15" t="n">
+        <v>551.9199829101562</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2484.538922807962</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.501628858784056</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.01931104737049654</v>
+      </c>
+      <c r="C16" t="n">
+        <v>461.5599975585938</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2352.672259186033</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.097218718325711</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SBAC</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01748224825735208</v>
+      </c>
+      <c r="C17" t="n">
+        <v>193.5200042724609</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2129.868966409048</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11.00593695425079</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.01738664628105573</v>
+      </c>
+      <c r="C18" t="n">
+        <v>160.1100006103516</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2118.221741209889</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13.22979035122769</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01731370526343716</v>
+      </c>
+      <c r="C19" t="n">
+        <v>158.0200042724609</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2109.335309240891</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13.34853342747629</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01725071351880691</v>
+      </c>
+      <c r="C20" t="n">
+        <v>259.6499938964844</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2101.661000991006</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8.094207781221375</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.01719285690796441</v>
+      </c>
+      <c r="C21" t="n">
+        <v>68.22000122070312</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2094.61230804711</v>
+      </c>
+      <c r="E21" t="n">
+        <v>30.70378584823956</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01640340979371521</v>
+      </c>
+      <c r="C22" t="n">
+        <v>279.7799987792969</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1998.433665317137</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.142875380786573</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01566292405105917</v>
+      </c>
+      <c r="C23" t="n">
+        <v>124.2200012207031</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1908.220005143985</v>
+      </c>
+      <c r="E23" t="n">
+        <v>15.36161637733064</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01549440109905388</v>
+      </c>
+      <c r="C24" t="n">
+        <v>169.75</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1887.688789689315</v>
+      </c>
+      <c r="E24" t="n">
+        <v>11.12040524117417</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01458390918777599</v>
+      </c>
+      <c r="C25" t="n">
+        <v>155.9700012207031</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1776.763213215952</v>
+      </c>
+      <c r="E25" t="n">
+        <v>11.39169839911567</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01404026085701046</v>
+      </c>
+      <c r="C26" t="n">
+        <v>74.36000061035156</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1710.53032993387</v>
+      </c>
+      <c r="E26" t="n">
+        <v>23.00336627076022</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.01401721277706694</v>
+      </c>
+      <c r="C27" t="n">
+        <v>94.01999664306641</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1707.722373572401</v>
+      </c>
+      <c r="E27" t="n">
+        <v>18.16339538976509</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01360919714569231</v>
+      </c>
+      <c r="C28" t="n">
+        <v>22.29000091552734</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1658.013673736889</v>
+      </c>
+      <c r="E28" t="n">
+        <v>74.38374184102912</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.01293620344558681</v>
+      </c>
+      <c r="C29" t="n">
+        <v>564.8800048828125</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1576.022594823987</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.790013066847606</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.01275525279356422</v>
+      </c>
+      <c r="C30" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1553.977307940916</v>
+      </c>
+      <c r="E30" t="n">
+        <v>39.34119766939028</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01214744755395142</v>
+      </c>
+      <c r="C31" t="n">
+        <v>57.31999969482422</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1479.928164008429</v>
+      </c>
+      <c r="E31" t="n">
+        <v>25.81870502246463</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01155163218777621</v>
+      </c>
+      <c r="C32" t="n">
+        <v>284.1199951171875</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1407.339750925315</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.953328787524604</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>GLW</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.01148617706954485</v>
+      </c>
+      <c r="C33" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1399.365328930994</v>
+      </c>
+      <c r="E33" t="n">
+        <v>15.99274661635421</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>EQIX</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.01082169557020038</v>
+      </c>
+      <c r="C34" t="n">
+        <v>832.8400268554688</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1318.411294680191</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.583030656749388</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.01073026978755107</v>
+      </c>
+      <c r="C35" t="n">
+        <v>283.7200012207031</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1307.272856744295</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.607616139573397</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MPWR</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.01068803369175622</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1003.929992675781</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1302.127217100498</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.297029899096778</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0105661010440906</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1406.880004882812</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1287.272116175714</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9149835890111596</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HOLX</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.01031750853257253</v>
+      </c>
+      <c r="C38" t="n">
+        <v>74.05999755859375</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1256.985995776906</v>
+      </c>
+      <c r="E38" t="n">
+        <v>16.9725362842798</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>IBKR</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.009983676327804589</v>
+      </c>
+      <c r="C39" t="n">
+        <v>73.08000183105469</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1216.315091070806</v>
+      </c>
+      <c r="E39" t="n">
+        <v>16.64361057191359</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>JBL</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.009977503519713158</v>
+      </c>
+      <c r="C40" t="n">
+        <v>220.3099975585938</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1215.563055509018</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5.517512001177914</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.009774484166405041</v>
+      </c>
+      <c r="C41" t="n">
+        <v>361.6199951171875</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1190.829130339551</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.293040059783331</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.009721859624503552</v>
+      </c>
+      <c r="C42" t="n">
+        <v>162.0800018310547</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1184.417862348299</v>
+      </c>
+      <c r="E42" t="n">
+        <v>7.307612592347366</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HOOD</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.009683596668519336</v>
+      </c>
+      <c r="C43" t="n">
+        <v>147.0800018310547</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1179.756271841507</v>
+      </c>
+      <c r="E43" t="n">
+        <v>8.021187497649404</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.009229279313097142</v>
+      </c>
+      <c r="C44" t="n">
+        <v>220.6999969482422</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1124.406615323054</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5.094728730724659</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.008993181785742089</v>
+      </c>
+      <c r="C45" t="n">
+        <v>63.61999893188477</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1095.642763605758</v>
+      </c>
+      <c r="E45" t="n">
+        <v>17.22167214713122</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.008806704650665888</v>
+      </c>
+      <c r="C46" t="n">
+        <v>345.5899963378906</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1072.924183186524</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.104615858549051</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.00862716771667432</v>
+      </c>
+      <c r="C47" t="n">
+        <v>265.5499877929688</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1051.051130109837</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.958016111562657</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.008518804668602633</v>
+      </c>
+      <c r="C48" t="n">
+        <v>27.18000030517578</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1037.849218673972</v>
+      </c>
+      <c r="E48" t="n">
+        <v>38.18429753572659</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.008369526166728177</v>
+      </c>
+      <c r="C49" t="n">
+        <v>246.8699951171875</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1019.662561911405</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4.130362466396041</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.008341418533895957</v>
+      </c>
+      <c r="C50" t="n">
+        <v>180.7200012207031</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1016.238198293677</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5.623274631636389</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.008094906746313824</v>
+      </c>
+      <c r="C51" t="n">
+        <v>92.58000183105469</v>
+      </c>
+      <c r="D51" t="n">
+        <v>986.205573284797</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10.65246871656453</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.007908499014621893</v>
+      </c>
+      <c r="C52" t="n">
+        <v>468.3699951171875</v>
+      </c>
+      <c r="D52" t="n">
+        <v>963.4954483063131</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.057124620173937</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.007591626573185609</v>
+      </c>
+      <c r="C53" t="n">
+        <v>61.47999954223633</v>
+      </c>
+      <c r="D53" t="n">
+        <v>924.8907580290436</v>
+      </c>
+      <c r="E53" t="n">
+        <v>15.04376650806007</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.007002583166462942</v>
+      </c>
+      <c r="C54" t="n">
+        <v>896.530029296875</v>
+      </c>
+      <c r="D54" t="n">
+        <v>853.1273753463352</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.9515881760429381</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BBY</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.006838177557717283</v>
+      </c>
+      <c r="C55" t="n">
+        <v>81.51999664306641</v>
+      </c>
+      <c r="D55" t="n">
+        <v>833.0977773898076</v>
+      </c>
+      <c r="E55" t="n">
+        <v>10.21955117389797</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.006720044156312483</v>
+      </c>
+      <c r="C56" t="n">
+        <v>820.2899780273438</v>
+      </c>
+      <c r="D56" t="n">
+        <v>818.7055400845962</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.998068441666741</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.006694748277904202</v>
+      </c>
+      <c r="C57" t="n">
+        <v>144.6900024414062</v>
+      </c>
+      <c r="D57" t="n">
+        <v>815.6237335796923</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5.637042779856111</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.006526854662968549</v>
+      </c>
+      <c r="C58" t="n">
+        <v>269.0499877929688</v>
+      </c>
+      <c r="D58" t="n">
+        <v>795.1691905000118</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.955470085774122</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.005661474091252067</v>
+      </c>
+      <c r="C59" t="n">
+        <v>213.8800048828125</v>
+      </c>
+      <c r="D59" t="n">
+        <v>689.7395457140715</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.224890265417697</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.005654846885137149</v>
+      </c>
+      <c r="C60" t="n">
+        <v>183.0700073242188</v>
+      </c>
+      <c r="D60" t="n">
+        <v>688.9321506679438</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.763216928526355</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.005358499945875636</v>
+      </c>
+      <c r="C61" t="n">
+        <v>219.2299957275391</v>
+      </c>
+      <c r="D61" t="n">
+        <v>652.8280901414057</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.977822847530162</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.005285549337103109</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1650.510009765625</v>
+      </c>
+      <c r="D62" t="n">
+        <v>643.940489678467</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.3901463704360736</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.005204772284144905</v>
+      </c>
+      <c r="C63" t="n">
+        <v>83.06999969482422</v>
+      </c>
+      <c r="D63" t="n">
+        <v>634.0993905382974</v>
+      </c>
+      <c r="E63" t="n">
+        <v>7.633313986611291</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.005164129940838486</v>
+      </c>
+      <c r="C64" t="n">
+        <v>37.02000045776367</v>
+      </c>
+      <c r="D64" t="n">
+        <v>629.1479183674294</v>
+      </c>
+      <c r="E64" t="n">
+        <v>16.99481119902275</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.005085271000594692</v>
+      </c>
+      <c r="C65" t="n">
+        <v>642.25</v>
+      </c>
+      <c r="D65" t="n">
+        <v>619.5405036301099</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.9646407218841727</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.004996174023615057</v>
+      </c>
+      <c r="C66" t="n">
+        <v>207.1799926757812</v>
+      </c>
+      <c r="D66" t="n">
+        <v>608.6857849762903</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.937956397791899</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.004941840799226941</v>
+      </c>
+      <c r="C67" t="n">
+        <v>362.5499877929688</v>
+      </c>
+      <c r="D67" t="n">
+        <v>602.0663475466381</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.660643684507426</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CRL</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.004845783456382775</v>
+      </c>
+      <c r="C68" t="n">
+        <v>178.8600006103516</v>
+      </c>
+      <c r="D68" t="n">
+        <v>590.3636448674524</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.30070246479293</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.004457446115360488</v>
+      </c>
+      <c r="C69" t="n">
+        <v>96.52999877929688</v>
+      </c>
+      <c r="D69" t="n">
+        <v>543.0523586435344</v>
+      </c>
+      <c r="E69" t="n">
+        <v>5.625736719267469</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>HUBB</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.00445701523263574</v>
+      </c>
+      <c r="C70" t="n">
+        <v>467.6099853515625</v>
+      </c>
+      <c r="D70" t="n">
+        <v>542.9998640370002</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.161223842619095</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.003994687801673398</v>
+      </c>
+      <c r="C71" t="n">
+        <v>110.0800018310547</v>
+      </c>
+      <c r="D71" t="n">
+        <v>486.6743369634327</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4.421096737537816</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.003724259753805033</v>
+      </c>
+      <c r="C72" t="n">
+        <v>377.7099914550781</v>
+      </c>
+      <c r="D72" t="n">
+        <v>453.72798485113</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.201260213168316</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.003704707980121033</v>
+      </c>
+      <c r="C73" t="n">
+        <v>55.86000061035156</v>
+      </c>
+      <c r="D73" t="n">
+        <v>451.3459848134465</v>
+      </c>
+      <c r="E73" t="n">
+        <v>8.079949514533418</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.003611240011698481</v>
+      </c>
+      <c r="C74" t="n">
+        <v>340.9299926757812</v>
+      </c>
+      <c r="D74" t="n">
+        <v>439.9587466066688</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.290466535823565</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.003573768035788819</v>
+      </c>
+      <c r="C75" t="n">
+        <v>36.93000030517578</v>
+      </c>
+      <c r="D75" t="n">
+        <v>435.3935215037445</v>
+      </c>
+      <c r="E75" t="n">
+        <v>11.78969720838924</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.00338951163284251</v>
+      </c>
+      <c r="C76" t="n">
+        <v>162.1900024414062</v>
+      </c>
+      <c r="D76" t="n">
+        <v>412.945493726055</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2.546060099328491</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.003350518961057318</v>
+      </c>
+      <c r="C77" t="n">
+        <v>174.4799957275391</v>
+      </c>
+      <c r="D77" t="n">
+        <v>408.1950016651882</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.339494564767236</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.003202868156410119</v>
+      </c>
+      <c r="C78" t="n">
+        <v>87.51999664306641</v>
+      </c>
+      <c r="D78" t="n">
+        <v>390.2066478760156</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4.458485635773033</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.002980050078368864</v>
+      </c>
+      <c r="C79" t="n">
+        <v>122.0500030517578</v>
+      </c>
+      <c r="D79" t="n">
+        <v>363.0606365284535</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2.974687648098544</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.002964178309855145</v>
+      </c>
+      <c r="C80" t="n">
+        <v>171.6000061035156</v>
+      </c>
+      <c r="D80" t="n">
+        <v>361.1269729228483</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2.104469464325093</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.002720361104450109</v>
+      </c>
+      <c r="C81" t="n">
+        <v>72.73000335693359</v>
+      </c>
+      <c r="D81" t="n">
+        <v>331.4226298873135</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4.55689006723685</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.002706712022049462</v>
+      </c>
+      <c r="C82" t="n">
+        <v>632.1400146484375</v>
+      </c>
+      <c r="D82" t="n">
+        <v>329.7597569777681</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.521656198526149</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.002365643601197404</v>
+      </c>
+      <c r="C83" t="n">
+        <v>119.9199981689453</v>
+      </c>
+      <c r="D83" t="n">
+        <v>288.2072613089434</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2.403329433869004</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>JCI</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.002315747853882755</v>
+      </c>
+      <c r="C84" t="n">
+        <v>113.1800003051758</v>
+      </c>
+      <c r="D84" t="n">
+        <v>282.1284434019522</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.492741143675808</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.002158365581398609</v>
+      </c>
+      <c r="C85" t="n">
+        <v>100.8499984741211</v>
+      </c>
+      <c r="D85" t="n">
+        <v>262.9545011782484</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.607382302000972</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.001955189515628908</v>
+      </c>
+      <c r="C86" t="n">
+        <v>317.5400085449219</v>
+      </c>
+      <c r="D86" t="n">
+        <v>238.2014836698747</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.7501463666307635</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.001788701369543461</v>
+      </c>
+      <c r="C87" t="n">
+        <v>198.7100067138672</v>
+      </c>
+      <c r="D87" t="n">
+        <v>217.918169395737</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.09666429486628</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.001586259384926342</v>
+      </c>
+      <c r="C88" t="n">
+        <v>265.7099914550781</v>
+      </c>
+      <c r="D88" t="n">
+        <v>193.2545852738876</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.7273139569031218</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>TECH</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.001583417050708056</v>
+      </c>
+      <c r="C89" t="n">
+        <v>61.2599983215332</v>
+      </c>
+      <c r="D89" t="n">
+        <v>192.9083026130665</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3.149009270299934</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.001522807434039736</v>
+      </c>
+      <c r="C90" t="n">
+        <v>157.5899963378906</v>
+      </c>
+      <c r="D90" t="n">
+        <v>185.5242099204395</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.177258799617298</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>HWM</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.001516037157566298</v>
+      </c>
+      <c r="C91" t="n">
+        <v>206.7400054931641</v>
+      </c>
+      <c r="D91" t="n">
+        <v>184.6993845580197</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.8933896664916496</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.001409733110951892</v>
+      </c>
+      <c r="C92" t="n">
+        <v>426</v>
+      </c>
+      <c r="D92" t="n">
+        <v>171.7483220542306</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.4031650752446727</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.001169069211021044</v>
+      </c>
+      <c r="C93" t="n">
+        <v>87.30000305175781</v>
+      </c>
+      <c r="D93" t="n">
+        <v>142.428147426112</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.631479294928205</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.0009687097684406095</v>
+      </c>
+      <c r="C94" t="n">
+        <v>364.5400085449219</v>
+      </c>
+      <c r="D94" t="n">
+        <v>118.0182801940974</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.3237457547257234</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.0007690182621489838</v>
+      </c>
+      <c r="C95" t="n">
+        <v>151.4400024414062</v>
+      </c>
+      <c r="D95" t="n">
+        <v>93.68978789465041</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.6186594452208886</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.0007537486167792332</v>
+      </c>
+      <c r="C96" t="n">
+        <v>437.7099914550781</v>
+      </c>
+      <c r="D96" t="n">
+        <v>91.82948118110021</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.2097952593584435</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>EME</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.0005833011378382331</v>
+      </c>
+      <c r="C97" t="n">
+        <v>673.52001953125</v>
+      </c>
+      <c r="D97" t="n">
+        <v>71.06379987655605</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.1055110431995984</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.0005575806370654834</v>
+      </c>
+      <c r="C98" t="n">
+        <v>214.0599975585938</v>
+      </c>
+      <c r="D98" t="n">
+        <v>67.93026146719605</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.3173421575350704</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.0005454821344188936</v>
+      </c>
+      <c r="C99" t="n">
+        <v>161.1999969482422</v>
+      </c>
+      <c r="D99" t="n">
+        <v>66.45629627990084</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.412259910285473</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>RVTY</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>9.893601974340728e-05</v>
+      </c>
+      <c r="C100" t="n">
+        <v>92.97000122070312</v>
+      </c>
+      <c r="D100" t="n">
+        <v>12.05341298267506</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.1296484115780664</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Shares</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Exit_Price</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Sale_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Transaction_Cost</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Gain_Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>29.03925865008207</v>
+      </c>
+      <c r="C2" t="n">
+        <v>534.280029296875</v>
+      </c>
+      <c r="D2" t="n">
+        <v>544.2100219726562</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15803.45558803081</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>288.3596257054323</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>96.19339275458005</v>
+      </c>
+      <c r="C3" t="n">
+        <v>139.3399963378906</v>
+      </c>
+      <c r="D3" t="n">
+        <v>141.5500030517578</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13616.17503796974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>212.5880438172862</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ABBV</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>61.16943297722626</v>
+      </c>
+      <c r="C4" t="n">
+        <v>218.0399932861328</v>
+      </c>
+      <c r="D4" t="n">
+        <v>211.9600067138672</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12965.47342453633</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-371.9093311346369</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>75.90021962458891</v>
+      </c>
+      <c r="C5" t="n">
+        <v>157.4600067138672</v>
+      </c>
+      <c r="D5" t="n">
+        <v>161.2400054931641</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12238.15182920108</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>286.9027375293099</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>46.39244203740858</v>
+      </c>
+      <c r="C6" t="n">
+        <v>223.7700042724609</v>
+      </c>
+      <c r="D6" t="n">
+        <v>234.6999969482422</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10888.3060046013</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>507.0690516804825</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>65.61475389127777</v>
+      </c>
+      <c r="C7" t="n">
+        <v>150.2100067138672</v>
+      </c>
+      <c r="D7" t="n">
+        <v>158.0200042724609</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10368.44369023619</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>512.4510676986101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>29.3973633442308</v>
+      </c>
+      <c r="C8" t="n">
+        <v>307.4100036621094</v>
+      </c>
+      <c r="D8" t="n">
+        <v>304.7300109863281</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8958.258854856531</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-78.78471844981868</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>159.2577211068399</v>
+      </c>
+      <c r="C9" t="n">
+        <v>56.38000106811523</v>
+      </c>
+      <c r="D9" t="n">
+        <v>56.66999816894531</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9025.134763515023</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>46.18427740578954</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AVY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>48.30836693085252</v>
+      </c>
+      <c r="C10" t="n">
+        <v>174.8899993896484</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.2700042724609</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8418.699311435279</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-29.95095161643076</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>14.39085851284266</v>
+      </c>
+      <c r="C11" t="n">
+        <v>577.260009765625</v>
+      </c>
+      <c r="D11" t="n">
+        <v>570.5900268554688</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8211.280345316141</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-95.98678034313707</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>31.18551842794738</v>
+      </c>
+      <c r="C12" t="n">
+        <v>255.8800048828125</v>
+      </c>
+      <c r="D12" t="n">
+        <v>265.5499877929688</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8281.314037858827</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>301.5634302426133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.506429206769877</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1208.739990234375</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1219.140014648438</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3055.6881398567</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>26.06692494252593</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Shares</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Exit_Price</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Sale_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Transaction_Cost</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Gain_Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>31.76228923808005</v>
+      </c>
+      <c r="C2" t="n">
+        <v>141.5500030517578</v>
+      </c>
+      <c r="D2" t="n">
+        <v>136.6999969482422</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4341.904841914729</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-154.0472966663165</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>316.8792061796831</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13.01000022888184</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.78999996185303</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4052.885034950165</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-69.71350997540731</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>25.42487203100817</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161.2400054931641</v>
+      </c>
+      <c r="D4" t="n">
+        <v>155.7799987792969</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3960.686533954232</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-138.8199719885188</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.933353518002511</v>
+      </c>
+      <c r="C5" t="n">
+        <v>570.5900268554688</v>
+      </c>
+      <c r="D5" t="n">
+        <v>547.5800170898438</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3796.565837877743</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-159.5365321577683</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>39.80590038224705</v>
+      </c>
+      <c r="C6" t="n">
+        <v>94.08999633789062</v>
+      </c>
+      <c r="D6" t="n">
+        <v>93.25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3711.900210644537</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-33.43681054752687</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>15.03076310258817</v>
+      </c>
+      <c r="C7" t="n">
+        <v>234.6999969482422</v>
+      </c>
+      <c r="D7" t="n">
+        <v>218.0299987792969</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3277.157260909199</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-250.5627933979954</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11.15715803718147</v>
+      </c>
+      <c r="C8" t="n">
+        <v>304.7300109863281</v>
+      </c>
+      <c r="D8" t="n">
+        <v>300.8500061035156</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3356.631063583935</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-43.28982766257514</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.855383505779439</v>
+      </c>
+      <c r="C9" t="n">
+        <v>544.2100219726562</v>
+      </c>
+      <c r="D9" t="n">
+        <v>538.8200073242188</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3154.997783470187</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-31.56060286837055</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>17.58995476594003</v>
+      </c>
+      <c r="C10" t="n">
+        <v>177.0399932861328</v>
+      </c>
+      <c r="D10" t="n">
+        <v>175.6100006103516</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3088.971967182785</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-25.15350648261801</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AVY</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>16.4666306190413</v>
+      </c>
+      <c r="C11" t="n">
+        <v>174.2700042724609</v>
+      </c>
+      <c r="D11" t="n">
+        <v>174.3899993896484</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2871.615703604179</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.975915270815221</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PWR</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.063633233651912</v>
+      </c>
+      <c r="C12" t="n">
+        <v>450.8200073242188</v>
+      </c>
+      <c r="D12" t="n">
+        <v>438.6600036621094</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2659.873376479436</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-73.73380232689533</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.094788720461276</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1219.140014648438</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1193.489990234375</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2500.109369526408</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-53.73138182213461</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10.57291343887844</v>
+      </c>
+      <c r="C14" t="n">
+        <v>237.7100067138672</v>
+      </c>
+      <c r="D14" t="n">
+        <v>230.1900024414062</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2433.778970308206</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-79.50835423272565</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.501628858784056</v>
+      </c>
+      <c r="C15" t="n">
+        <v>551.9199829101562</v>
+      </c>
+      <c r="D15" t="n">
+        <v>533.9199829101562</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2403.509603349849</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-81.02931945811315</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.097218718325711</v>
+      </c>
+      <c r="C16" t="n">
+        <v>461.5599975585938</v>
+      </c>
+      <c r="D16" t="n">
+        <v>471.6799926757812</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2404.256087726726</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>51.58382854069305</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SBAC</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>11.00593695425079</v>
+      </c>
+      <c r="C17" t="n">
+        <v>193.5200042724609</v>
+      </c>
+      <c r="D17" t="n">
+        <v>196.1999969482422</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2159.36479683655</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>29.49583042750237</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>13.22979035122769</v>
+      </c>
+      <c r="C18" t="n">
+        <v>160.1100006103516</v>
+      </c>
+      <c r="D18" t="n">
+        <v>154.6399993896484</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2045.854771839027</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-72.36696937086185</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>13.34853342747629</v>
+      </c>
+      <c r="C19" t="n">
+        <v>158.0200042724609</v>
+      </c>
+      <c r="D19" t="n">
+        <v>152.1799926757812</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2031.379719225763</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-77.95559001512811</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8.094207781221375</v>
+      </c>
+      <c r="C20" t="n">
+        <v>259.6499938964844</v>
+      </c>
+      <c r="D20" t="n">
+        <v>250.0500030517578</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2023.956680395966</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-77.70432059503992</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>30.70378584823956</v>
+      </c>
+      <c r="C21" t="n">
+        <v>68.22000122070312</v>
+      </c>
+      <c r="D21" t="n">
+        <v>66.87000274658203</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2053.162244002246</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-41.45006404486412</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7.142875380786573</v>
+      </c>
+      <c r="C22" t="n">
+        <v>279.7799987792969</v>
+      </c>
+      <c r="D22" t="n">
+        <v>286.9400024414062</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2049.57667920156</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>51.14301388442254</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>15.36161637733064</v>
+      </c>
+      <c r="C23" t="n">
+        <v>124.2200012207031</v>
+      </c>
+      <c r="D23" t="n">
+        <v>124</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1904.840430788999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-3.379574354985834</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>11.12040524117417</v>
+      </c>
+      <c r="C24" t="n">
+        <v>169.75</v>
+      </c>
+      <c r="D24" t="n">
+        <v>172.6399993896484</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1919.826754048952</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>32.13796435963673</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>11.39169839911567</v>
+      </c>
+      <c r="C25" t="n">
+        <v>155.9700012207031</v>
+      </c>
+      <c r="D25" t="n">
+        <v>151.6199951171875</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1727.20925565039</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-49.55395756556231</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>23.00336627076022</v>
+      </c>
+      <c r="C26" t="n">
+        <v>74.36000061035156</v>
+      </c>
+      <c r="D26" t="n">
+        <v>73.81999969482422</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1698.108491087449</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-12.42183884642145</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>18.16339538976509</v>
+      </c>
+      <c r="C27" t="n">
+        <v>94.01999664306641</v>
+      </c>
+      <c r="D27" t="n">
+        <v>93.90000152587891</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1705.542854814084</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-2.179518758317727</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>74.38374184102912</v>
+      </c>
+      <c r="C28" t="n">
+        <v>22.29000091552734</v>
+      </c>
+      <c r="D28" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1681.072593982404</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>23.05892024551508</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2.790013066847606</v>
+      </c>
+      <c r="C29" t="n">
+        <v>564.8800048828125</v>
+      </c>
+      <c r="D29" t="n">
+        <v>565.239990234375</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1577.02695865872</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.004363834733113</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>39.34119766939028</v>
+      </c>
+      <c r="C30" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>37.02999877929688</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1456.804501673599</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-97.1728062673169</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>25.81870502246463</v>
+      </c>
+      <c r="C31" t="n">
+        <v>57.31999969482422</v>
+      </c>
+      <c r="D31" t="n">
+        <v>58.15000152587891</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1501.357736452536</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>21.4295724441065</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.953328787524604</v>
+      </c>
+      <c r="C32" t="n">
+        <v>284.1199951171875</v>
+      </c>
+      <c r="D32" t="n">
+        <v>278.0599975585938</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1377.322590566004</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-30.01716035931122</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>GLW</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>15.99274661635421</v>
+      </c>
+      <c r="C33" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>85.20999908447266</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1362.741924537746</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-36.62340439324794</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>EQIX</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.583030656749388</v>
+      </c>
+      <c r="C34" t="n">
+        <v>832.8400268554688</v>
+      </c>
+      <c r="D34" t="n">
+        <v>829.9099731445312</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1313.772929829854</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-4.638364850336529</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4.607616139573397</v>
+      </c>
+      <c r="C35" t="n">
+        <v>283.7200012207031</v>
+      </c>
+      <c r="D35" t="n">
+        <v>277.5400085449219</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1278.79782274892</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-28.47503399537504</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MPWR</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.297029899096778</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1003.929992675781</v>
+      </c>
+      <c r="D36" t="n">
+        <v>957.8699951171875</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1242.386023114677</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-59.7411939858207</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9149835890111596</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1406.880004882812</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1420.349975585938</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1299.596918313534</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>12.32480213782037</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HOLX</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>16.9725362842798</v>
+      </c>
+      <c r="C38" t="n">
+        <v>74.05999755859375</v>
+      </c>
+      <c r="D38" t="n">
+        <v>74.11000061035156</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1257.83467438719</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.8486786102841961</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>IBKR</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>16.64361057191359</v>
+      </c>
+      <c r="C39" t="n">
+        <v>73.08000183105469</v>
+      </c>
+      <c r="D39" t="n">
+        <v>70.69000244140625</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1176.536871962386</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-39.77821910841976</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>JBL</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>5.517512001177914</v>
+      </c>
+      <c r="C40" t="n">
+        <v>220.3099975585938</v>
+      </c>
+      <c r="D40" t="n">
+        <v>209.2200012207031</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1154.373867621687</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-61.18918788733072</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3.293040059783331</v>
+      </c>
+      <c r="C41" t="n">
+        <v>361.6199951171875</v>
+      </c>
+      <c r="D41" t="n">
+        <v>360.489990234375</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1187.107978992698</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-3.721151346852366</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>7.307612592347366</v>
+      </c>
+      <c r="C42" t="n">
+        <v>162.0800018310547</v>
+      </c>
+      <c r="D42" t="n">
+        <v>157.5099945068359</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1151.022019278719</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-33.39584306958068</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HOOD</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>8.021187497649404</v>
+      </c>
+      <c r="C43" t="n">
+        <v>147.0800018310547</v>
+      </c>
+      <c r="D43" t="n">
+        <v>136.8000030517578</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1097.29847415716</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-82.45779768434727</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>5.094728730724659</v>
+      </c>
+      <c r="C44" t="n">
+        <v>220.6999969482422</v>
+      </c>
+      <c r="D44" t="n">
+        <v>224.1900024414062</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1142.187246579464</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>17.78063125640983</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>17.22167214713122</v>
+      </c>
+      <c r="C45" t="n">
+        <v>63.61999893188477</v>
+      </c>
+      <c r="D45" t="n">
+        <v>64.52999877929688</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1111.314482631828</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>15.6717190260706</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3.104615858549051</v>
+      </c>
+      <c r="C46" t="n">
+        <v>345.5899963378906</v>
+      </c>
+      <c r="D46" t="n">
+        <v>367.3399963378906</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1140.449578109966</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>67.52539492344204</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>3.958016111562657</v>
+      </c>
+      <c r="C47" t="n">
+        <v>265.5499877929688</v>
+      </c>
+      <c r="D47" t="n">
+        <v>250.3800048828125</v>
+      </c>
+      <c r="E47" t="n">
+        <v>991.0080933393086</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-60.0430367705286</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>38.18429753572659</v>
+      </c>
+      <c r="C48" t="n">
+        <v>27.18000030517578</v>
+      </c>
+      <c r="D48" t="n">
+        <v>26.80999946594238</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1023.720996540215</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-14.12822213375659</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4.130362466396041</v>
+      </c>
+      <c r="C49" t="n">
+        <v>246.8699951171875</v>
+      </c>
+      <c r="D49" t="n">
+        <v>243.5500030517578</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1005.949791295622</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-13.71277061578337</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>5.623274631636389</v>
+      </c>
+      <c r="C50" t="n">
+        <v>180.7200012207031</v>
+      </c>
+      <c r="D50" t="n">
+        <v>172.8399963378906</v>
+      </c>
+      <c r="E50" t="n">
+        <v>971.9267667389867</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-44.31143155469044</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>10.65246871656453</v>
+      </c>
+      <c r="C51" t="n">
+        <v>92.58000183105469</v>
+      </c>
+      <c r="D51" t="n">
+        <v>92.48000335693359</v>
+      </c>
+      <c r="E51" t="n">
+        <v>985.1403426675178</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1.065230617279099</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2.057124620173937</v>
+      </c>
+      <c r="C52" t="n">
+        <v>468.3699951171875</v>
+      </c>
+      <c r="D52" t="n">
+        <v>444.260009765625</v>
+      </c>
+      <c r="E52" t="n">
+        <v>913.8982038475809</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-49.59724445873212</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>15.04376650806007</v>
+      </c>
+      <c r="C53" t="n">
+        <v>61.47999954223633</v>
+      </c>
+      <c r="D53" t="n">
+        <v>61.27999877929688</v>
+      </c>
+      <c r="E53" t="n">
+        <v>921.8819932499486</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-3.008764779095031</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9515881760429381</v>
+      </c>
+      <c r="C54" t="n">
+        <v>896.530029296875</v>
+      </c>
+      <c r="D54" t="n">
+        <v>906.8599853515625</v>
+      </c>
+      <c r="E54" t="n">
+        <v>862.9572393870189</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>9.829864040683788</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BBY</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>10.21955117389797</v>
+      </c>
+      <c r="C55" t="n">
+        <v>81.51999664306641</v>
+      </c>
+      <c r="D55" t="n">
+        <v>79.37000274658203</v>
+      </c>
+      <c r="E55" t="n">
+        <v>811.1258047411171</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-21.97197264869033</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.998068441666741</v>
+      </c>
+      <c r="C56" t="n">
+        <v>820.2899780273438</v>
+      </c>
+      <c r="D56" t="n">
+        <v>841.6699829101562</v>
+      </c>
+      <c r="E56" t="n">
+        <v>840.0442482408122</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>21.33870815621594</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>5.637042779856111</v>
+      </c>
+      <c r="C57" t="n">
+        <v>144.6900024414062</v>
+      </c>
+      <c r="D57" t="n">
+        <v>146.0800018310547</v>
+      </c>
+      <c r="E57" t="n">
+        <v>823.4592196031143</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>7.83548602342205</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2.955470085774122</v>
+      </c>
+      <c r="C58" t="n">
+        <v>269.0499877929688</v>
+      </c>
+      <c r="D58" t="n">
+        <v>270.0400085449219</v>
+      </c>
+      <c r="E58" t="n">
+        <v>798.0951672167049</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.925976716693071</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3.224890265417697</v>
+      </c>
+      <c r="C59" t="n">
+        <v>213.8800048828125</v>
+      </c>
+      <c r="D59" t="n">
+        <v>210.9600067138672</v>
+      </c>
+      <c r="E59" t="n">
+        <v>680.3228720440023</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-9.416673670069144</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3.763216928526355</v>
+      </c>
+      <c r="C60" t="n">
+        <v>183.0700073242188</v>
+      </c>
+      <c r="D60" t="n">
+        <v>175.6499938964844</v>
+      </c>
+      <c r="E60" t="n">
+        <v>661.0090305268009</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-27.92312014114293</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2.977822847530162</v>
+      </c>
+      <c r="C61" t="n">
+        <v>219.2299957275391</v>
+      </c>
+      <c r="D61" t="n">
+        <v>214.5200042724609</v>
+      </c>
+      <c r="E61" t="n">
+        <v>638.8025699748022</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-14.02552016660354</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.3901463704360736</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1650.510009765625</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1606.099975585938</v>
+      </c>
+      <c r="E62" t="n">
+        <v>626.6140760323199</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-17.3264136461471</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>7.633313986611291</v>
+      </c>
+      <c r="C63" t="n">
+        <v>83.06999969482422</v>
+      </c>
+      <c r="D63" t="n">
+        <v>84.15000152587891</v>
+      </c>
+      <c r="E63" t="n">
+        <v>642.3433836208529</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>8.243993082555562</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>16.99481119902275</v>
+      </c>
+      <c r="C64" t="n">
+        <v>37.02000045776367</v>
+      </c>
+      <c r="D64" t="n">
+        <v>36.11999893188477</v>
+      </c>
+      <c r="E64" t="n">
+        <v>613.8525623562849</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-15.29535601114446</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9646407218841727</v>
+      </c>
+      <c r="C65" t="n">
+        <v>642.25</v>
+      </c>
+      <c r="D65" t="n">
+        <v>628</v>
+      </c>
+      <c r="E65" t="n">
+        <v>605.7943733432604</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-13.74613028684951</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2.937956397791899</v>
+      </c>
+      <c r="C66" t="n">
+        <v>207.1799926757812</v>
+      </c>
+      <c r="D66" t="n">
+        <v>190.7400054931641</v>
+      </c>
+      <c r="E66" t="n">
+        <v>560.3858194535032</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-48.29996552278703</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1.660643684507426</v>
+      </c>
+      <c r="C67" t="n">
+        <v>362.5499877929688</v>
+      </c>
+      <c r="D67" t="n">
+        <v>351.9400024414062</v>
+      </c>
+      <c r="E67" t="n">
+        <v>584.4469423798495</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-17.61940516678862</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CRL</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3.30070246479293</v>
+      </c>
+      <c r="C68" t="n">
+        <v>178.8600006103516</v>
+      </c>
+      <c r="D68" t="n">
+        <v>177.8500061035156</v>
+      </c>
+      <c r="E68" t="n">
+        <v>587.0299535093117</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-3.333691358140754</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>5.625736719267469</v>
+      </c>
+      <c r="C69" t="n">
+        <v>96.52999877929688</v>
+      </c>
+      <c r="D69" t="n">
+        <v>88.44999694824219</v>
+      </c>
+      <c r="E69" t="n">
+        <v>497.5963956508216</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-45.45596299271278</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>HUBB</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1.161223842619095</v>
+      </c>
+      <c r="C70" t="n">
+        <v>467.6099853515625</v>
+      </c>
+      <c r="D70" t="n">
+        <v>459.4400024414062</v>
+      </c>
+      <c r="E70" t="n">
+        <v>533.5126850879362</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-9.487178949063946</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>4.421096737537816</v>
+      </c>
+      <c r="C71" t="n">
+        <v>110.0800018310547</v>
+      </c>
+      <c r="D71" t="n">
+        <v>110.0500030517578</v>
+      </c>
+      <c r="E71" t="n">
+        <v>486.5417094581532</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-0.1326275052795722</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1.201260213168316</v>
+      </c>
+      <c r="C72" t="n">
+        <v>377.7099914550781</v>
+      </c>
+      <c r="D72" t="n">
+        <v>362.8200073242188</v>
+      </c>
+      <c r="E72" t="n">
+        <v>435.841239340021</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-17.88674551110893</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>8.079949514533418</v>
+      </c>
+      <c r="C73" t="n">
+        <v>55.86000061035156</v>
+      </c>
+      <c r="D73" t="n">
+        <v>55.84999847412109</v>
+      </c>
+      <c r="E73" t="n">
+        <v>451.2651680576669</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-0.08081675577966507</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1.290466535823565</v>
+      </c>
+      <c r="C74" t="n">
+        <v>340.9299926757812</v>
+      </c>
+      <c r="D74" t="n">
+        <v>344.5299987792969</v>
+      </c>
+      <c r="E74" t="n">
+        <v>444.6044340120163</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4.64568740534753</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>11.78969720838924</v>
+      </c>
+      <c r="C75" t="n">
+        <v>36.93000030517578</v>
+      </c>
+      <c r="D75" t="n">
+        <v>36.56000137329102</v>
+      </c>
+      <c r="E75" t="n">
+        <v>431.0313461293957</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-4.362175374348851</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2.546060099328491</v>
+      </c>
+      <c r="C76" t="n">
+        <v>162.1900024414062</v>
+      </c>
+      <c r="D76" t="n">
+        <v>160.5899963378906</v>
+      </c>
+      <c r="E76" t="n">
+        <v>408.8717820272118</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-4.073711698843169</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2.339494564767236</v>
+      </c>
+      <c r="C77" t="n">
+        <v>174.4799957275391</v>
+      </c>
+      <c r="D77" t="n">
+        <v>167.9900054931641</v>
+      </c>
+      <c r="E77" t="n">
+        <v>393.0117047864755</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-15.18329687871272</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4.458485635773033</v>
+      </c>
+      <c r="C78" t="n">
+        <v>87.51999664306641</v>
+      </c>
+      <c r="D78" t="n">
+        <v>85.22000122070312</v>
+      </c>
+      <c r="E78" t="n">
+        <v>379.9521513230652</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-10.2544965529504</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2.974687648098544</v>
+      </c>
+      <c r="C79" t="n">
+        <v>122.0500030517578</v>
+      </c>
+      <c r="D79" t="n">
+        <v>123</v>
+      </c>
+      <c r="E79" t="n">
+        <v>365.8865807161209</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2.825944187667346</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2.104469464325093</v>
+      </c>
+      <c r="C80" t="n">
+        <v>171.6000061035156</v>
+      </c>
+      <c r="D80" t="n">
+        <v>169.1100006103516</v>
+      </c>
+      <c r="E80" t="n">
+        <v>355.8868323964828</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-5.240140526365508</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>4.55689006723685</v>
+      </c>
+      <c r="C81" t="n">
+        <v>72.73000335693359</v>
+      </c>
+      <c r="D81" t="n">
+        <v>72.80999755859375</v>
+      </c>
+      <c r="E81" t="n">
+        <v>331.7871546702951</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.3645247829816753</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.521656198526149</v>
+      </c>
+      <c r="C82" t="n">
+        <v>632.1400146484375</v>
+      </c>
+      <c r="D82" t="n">
+        <v>608.6799926757812</v>
+      </c>
+      <c r="E82" t="n">
+        <v>317.5216910981723</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-12.23806587959575</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2.403329433869004</v>
+      </c>
+      <c r="C83" t="n">
+        <v>119.9199981689453</v>
+      </c>
+      <c r="D83" t="n">
+        <v>120.3000030517578</v>
+      </c>
+      <c r="E83" t="n">
+        <v>289.1205382288206</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.9132769198772053</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>JCI</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2.492741143675808</v>
+      </c>
+      <c r="C84" t="n">
+        <v>113.1800003051758</v>
+      </c>
+      <c r="D84" t="n">
+        <v>111.0400009155273</v>
+      </c>
+      <c r="E84" t="n">
+        <v>276.7939788759344</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-5.334464526017769</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2.607382302000972</v>
+      </c>
+      <c r="C85" t="n">
+        <v>100.8499984741211</v>
+      </c>
+      <c r="D85" t="n">
+        <v>102.0699996948242</v>
+      </c>
+      <c r="E85" t="n">
+        <v>266.1355107695293</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3.181009591280883</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.7501463666307635</v>
+      </c>
+      <c r="C86" t="n">
+        <v>317.5400085449219</v>
+      </c>
+      <c r="D86" t="n">
+        <v>315.8999938964844</v>
+      </c>
+      <c r="E86" t="n">
+        <v>236.9712326401281</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-1.230251029746597</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1.09666429486628</v>
+      </c>
+      <c r="C87" t="n">
+        <v>198.7100067138672</v>
+      </c>
+      <c r="D87" t="n">
+        <v>198.0599975585938</v>
+      </c>
+      <c r="E87" t="n">
+        <v>217.2053275638124</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-0.7128418319245782</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.7273139569031218</v>
+      </c>
+      <c r="C88" t="n">
+        <v>265.7099914550781</v>
+      </c>
+      <c r="D88" t="n">
+        <v>262.7000122070312</v>
+      </c>
+      <c r="E88" t="n">
+        <v>191.0653853567943</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-2.189199917093248</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>TECH</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3.149009270299934</v>
+      </c>
+      <c r="C89" t="n">
+        <v>61.2599983215332</v>
+      </c>
+      <c r="D89" t="n">
+        <v>61.09999847412109</v>
+      </c>
+      <c r="E89" t="n">
+        <v>192.4044616103192</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-0.5038410027472935</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1.177258799617298</v>
+      </c>
+      <c r="C90" t="n">
+        <v>157.5899963378906</v>
+      </c>
+      <c r="D90" t="n">
+        <v>153.5500030517578</v>
+      </c>
+      <c r="E90" t="n">
+        <v>180.7680922739449</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-4.756117646494658</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>HWM</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.8933896664916496</v>
+      </c>
+      <c r="C91" t="n">
+        <v>206.7400054931641</v>
+      </c>
+      <c r="D91" t="n">
+        <v>205.0200042724609</v>
+      </c>
+      <c r="E91" t="n">
+        <v>183.1627532410905</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-1.536631316929203</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.4031650752446727</v>
+      </c>
+      <c r="C92" t="n">
+        <v>426</v>
+      </c>
+      <c r="D92" t="n">
+        <v>421.6700134277344</v>
+      </c>
+      <c r="E92" t="n">
+        <v>170.0026226920147</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-1.745699362215902</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1.631479294928205</v>
+      </c>
+      <c r="C93" t="n">
+        <v>87.30000305175781</v>
+      </c>
+      <c r="D93" t="n">
+        <v>87.12999725341797</v>
+      </c>
+      <c r="E93" t="n">
+        <v>142.1507864861028</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-0.2773609400091743</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.3237457547257234</v>
+      </c>
+      <c r="C94" t="n">
+        <v>364.5400085449219</v>
+      </c>
+      <c r="D94" t="n">
+        <v>359.8500061035156</v>
+      </c>
+      <c r="E94" t="n">
+        <v>116.4999118140388</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-1.518368380058561</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.6186594452208886</v>
+      </c>
+      <c r="C95" t="n">
+        <v>151.4400024414062</v>
+      </c>
+      <c r="D95" t="n">
+        <v>149.3300018310547</v>
+      </c>
+      <c r="E95" t="n">
+        <v>92.38441608763456</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-1.305371807015831</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.2097952593584435</v>
+      </c>
+      <c r="C96" t="n">
+        <v>437.7099914550781</v>
+      </c>
+      <c r="D96" t="n">
+        <v>428.739990234375</v>
+      </c>
+      <c r="E96" t="n">
+        <v>89.94761744855724</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-1.881863732542968</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>EME</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.1055110431995984</v>
+      </c>
+      <c r="C97" t="n">
+        <v>673.52001953125</v>
+      </c>
+      <c r="D97" t="n">
+        <v>654.5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>69.05697777413712</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-2.006822102418923</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.3173421575350704</v>
+      </c>
+      <c r="C98" t="n">
+        <v>214.0599975585938</v>
+      </c>
+      <c r="D98" t="n">
+        <v>213.8300018310547</v>
+      </c>
+      <c r="E98" t="n">
+        <v>67.85727412679496</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-0.07298734040108457</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.412259910285473</v>
+      </c>
+      <c r="C99" t="n">
+        <v>161.1999969482422</v>
+      </c>
+      <c r="D99" t="n">
+        <v>162.2299957275391</v>
+      </c>
+      <c r="E99" t="n">
+        <v>66.88092348424792</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.4246272043470753</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>RVTY</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.1296484115780664</v>
+      </c>
+      <c r="C100" t="n">
+        <v>92.97000122070312</v>
+      </c>
+      <c r="D100" t="n">
+        <v>91.69000244140625</v>
+      </c>
+      <c r="E100" t="n">
+        <v>11.88746317411736</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-0.1659498085577038</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/backtest_portfolio_PL.xlsx
+++ b/backtest_portfolio_PL.xlsx
@@ -24,6 +24,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-04_Allocations" sheetId="16" state="visible" r:id="rId16"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-03_PnL" sheetId="17" state="visible" r:id="rId17"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-04_PnL" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-05_Allocations" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-06_Allocations" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-05_PnL" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-06_PnL" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -20454,6 +20458,1705 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Allocation_Percent</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Target_Value</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Actual_Shares</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04606078993020687</v>
+      </c>
+      <c r="C2" t="n">
+        <v>136.6999969482422</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5512.835716194711</v>
+      </c>
+      <c r="E2" t="n">
+        <v>40.32798711972173</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.04473921365512199</v>
+      </c>
+      <c r="C3" t="n">
+        <v>72.31999969482422</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5354.661423005146</v>
+      </c>
+      <c r="E3" t="n">
+        <v>74.04122574116062</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0395002808787793</v>
+      </c>
+      <c r="C4" t="n">
+        <v>547.5800170898438</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4727.634058343635</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.633686239079744</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KEYS</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03674916605358939</v>
+      </c>
+      <c r="C5" t="n">
+        <v>179.1000061035156</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4398.363889711258</v>
+      </c>
+      <c r="E5" t="n">
+        <v>24.55814483428385</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.03339453630367072</v>
+      </c>
+      <c r="C6" t="n">
+        <v>198.6900024414062</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3996.8613812223</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20.1160668987408</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0272439453446208</v>
+      </c>
+      <c r="C7" t="n">
+        <v>538.8200073242188</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3260.721215885748</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.051596398727835</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02589928125002791</v>
+      </c>
+      <c r="C8" t="n">
+        <v>218.0299987792969</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3099.783631919242</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14.21723455154916</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02470387443924972</v>
+      </c>
+      <c r="C9" t="n">
+        <v>432.989990234375</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2956.710068226001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.82858757687574</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.02399295207682867</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.78999996185303</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2871.62255242493</v>
+      </c>
+      <c r="E10" t="n">
+        <v>224.5209195457172</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02322374893996109</v>
+      </c>
+      <c r="C11" t="n">
+        <v>344.5299987792969</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2779.559638776293</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.067685393505768</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02322199025680554</v>
+      </c>
+      <c r="C12" t="n">
+        <v>300.8500061035156</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2779.34914887093</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.238321730047161</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.02121741433369788</v>
+      </c>
+      <c r="C13" t="n">
+        <v>155.7799987792969</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2539.429300308266</v>
+      </c>
+      <c r="E13" t="n">
+        <v>16.30138220700613</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.02075995913572406</v>
+      </c>
+      <c r="C14" t="n">
+        <v>278.0599975585938</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2484.678277632141</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8.935763142659747</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.02045011437308281</v>
+      </c>
+      <c r="C15" t="n">
+        <v>841.6699829101562</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2447.594170378385</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.908021219808254</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.02035108389368477</v>
+      </c>
+      <c r="C16" t="n">
+        <v>277.5400085449219</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2435.741599794062</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8.776181900995438</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HUBB</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01878836550406968</v>
+      </c>
+      <c r="C17" t="n">
+        <v>459.4400024414062</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2248.705950477623</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.894449631134171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AVY</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.01871847398411456</v>
+      </c>
+      <c r="C18" t="n">
+        <v>174.3899993896484</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2240.340907931641</v>
+      </c>
+      <c r="E18" t="n">
+        <v>12.84672811384059</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01864021133991481</v>
+      </c>
+      <c r="C19" t="n">
+        <v>190.7400054931641</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2230.973958280062</v>
+      </c>
+      <c r="E19" t="n">
+        <v>11.69641341108181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01817723547851771</v>
+      </c>
+      <c r="C20" t="n">
+        <v>93.25</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2175.562189000523</v>
+      </c>
+      <c r="E20" t="n">
+        <v>23.33042561930856</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.01814561369097434</v>
+      </c>
+      <c r="C21" t="n">
+        <v>84.15000152587891</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2171.77750098186</v>
+      </c>
+      <c r="E21" t="n">
+        <v>25.80840714915455</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01590705070193847</v>
+      </c>
+      <c r="C22" t="n">
+        <v>175.6100006103516</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1903.852656062616</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10.84136808522049</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01571558502667632</v>
+      </c>
+      <c r="C23" t="n">
+        <v>250.3800048828125</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1880.936878573566</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7.512328628054451</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01538474728815223</v>
+      </c>
+      <c r="C24" t="n">
+        <v>172.6399993896484</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1841.340204179482</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10.66577971900693</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0148903156381754</v>
+      </c>
+      <c r="C25" t="n">
+        <v>286.9400024414062</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1782.163614647702</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6.21092771828363</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01463660974819545</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1193.489990234375</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1751.798549397852</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.467794923905342</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.01462858168679495</v>
+      </c>
+      <c r="C27" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1750.837702141702</v>
+      </c>
+      <c r="E27" t="n">
+        <v>77.47069347738842</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01384025306737733</v>
+      </c>
+      <c r="C28" t="n">
+        <v>250.0500030517578</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1656.485734322457</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6.624617932836344</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0138018977281112</v>
+      </c>
+      <c r="C29" t="n">
+        <v>533.9199829101562</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1651.895133845707</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.093900184896572</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0134443222494309</v>
+      </c>
+      <c r="C30" t="n">
+        <v>230.1900024414062</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1609.098323954016</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6.990304995385732</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01333600122256251</v>
+      </c>
+      <c r="C31" t="n">
+        <v>172.8399963378906</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1596.133804095807</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9.234747962939503</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01282514184119033</v>
+      </c>
+      <c r="C32" t="n">
+        <v>66.87000274658203</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1534.991043673134</v>
+      </c>
+      <c r="E32" t="n">
+        <v>22.95485240953715</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.01280060290145055</v>
+      </c>
+      <c r="C33" t="n">
+        <v>152.1799926757812</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1532.054073993717</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10.06738170409661</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.01155534889021429</v>
+      </c>
+      <c r="C34" t="n">
+        <v>471.6799926757812</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1383.014493923989</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.932103365415867</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.01137860624944039</v>
+      </c>
+      <c r="C35" t="n">
+        <v>73.81999969482422</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1361.860858823304</v>
+      </c>
+      <c r="E35" t="n">
+        <v>18.44839968102558</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0111432469040087</v>
+      </c>
+      <c r="C36" t="n">
+        <v>367.3399963378906</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1333.691619702524</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.630673580330069</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.01084856397235355</v>
+      </c>
+      <c r="C37" t="n">
+        <v>93.90000152587891</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1298.422172673</v>
+      </c>
+      <c r="E37" t="n">
+        <v>13.82771194434064</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.01078347926444619</v>
+      </c>
+      <c r="C38" t="n">
+        <v>175.6499938964844</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1290.632438652513</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7.347751115853271</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>EMR</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.01075230937299503</v>
+      </c>
+      <c r="C39" t="n">
+        <v>137.7400054931641</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1286.901836308909</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9.342977965633791</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.01053546526183145</v>
+      </c>
+      <c r="C40" t="n">
+        <v>154.6399993896484</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1260.948613129706</v>
+      </c>
+      <c r="E40" t="n">
+        <v>8.154090908604294</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.01040408495558352</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1420.349975585938</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1245.224218350857</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.8767023900832358</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.01013874691387103</v>
+      </c>
+      <c r="C42" t="n">
+        <v>61.27999877929688</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1213.466946375405</v>
+      </c>
+      <c r="E42" t="n">
+        <v>19.80200669953943</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.01004510140857432</v>
+      </c>
+      <c r="C43" t="n">
+        <v>26.80999946594238</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1202.258882270489</v>
+      </c>
+      <c r="E43" t="n">
+        <v>44.84367423422584</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.009861694129058258</v>
+      </c>
+      <c r="C44" t="n">
+        <v>565.239990234375</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1180.307582636716</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.088153002315539</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>IBKR</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.00941892400172905</v>
+      </c>
+      <c r="C45" t="n">
+        <v>70.69000244140625</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1127.314158605059</v>
+      </c>
+      <c r="E45" t="n">
+        <v>15.94729268172639</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.009335958088117817</v>
+      </c>
+      <c r="C46" t="n">
+        <v>906.8599853515625</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1117.384293040969</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.232146429537072</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.008967032646792156</v>
+      </c>
+      <c r="C47" t="n">
+        <v>628</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1073.229050531348</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.708963456260108</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.008833807111789568</v>
+      </c>
+      <c r="C48" t="n">
+        <v>124</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1057.283807543021</v>
+      </c>
+      <c r="E48" t="n">
+        <v>8.526482318895333</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PWR</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.008666983778044523</v>
+      </c>
+      <c r="C49" t="n">
+        <v>438.6600036621094</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1037.317375487517</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2.364741181843741</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.008471609785239569</v>
+      </c>
+      <c r="C50" t="n">
+        <v>146.0800018310547</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1013.933826764563</v>
+      </c>
+      <c r="E50" t="n">
+        <v>6.940948891397221</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.008110505237724865</v>
+      </c>
+      <c r="C51" t="n">
+        <v>151.6199951171875</v>
+      </c>
+      <c r="D51" t="n">
+        <v>970.7146364329209</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6.402286424575156</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.00755629095558904</v>
+      </c>
+      <c r="C52" t="n">
+        <v>315.8999938964844</v>
+      </c>
+      <c r="D52" t="n">
+        <v>904.3828975805676</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.862877223976522</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>HWM</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.007334978194205984</v>
+      </c>
+      <c r="C53" t="n">
+        <v>205.0200042724609</v>
+      </c>
+      <c r="D53" t="n">
+        <v>877.894839141907</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.281996004522711</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.007151793272487376</v>
+      </c>
+      <c r="C54" t="n">
+        <v>110.0500030517578</v>
+      </c>
+      <c r="D54" t="n">
+        <v>855.9701526428508</v>
+      </c>
+      <c r="E54" t="n">
+        <v>7.778011166799132</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.006649381032258421</v>
+      </c>
+      <c r="C55" t="n">
+        <v>71.61000061035156</v>
+      </c>
+      <c r="D55" t="n">
+        <v>795.8383974909229</v>
+      </c>
+      <c r="E55" t="n">
+        <v>11.11350915665096</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.00619267355989451</v>
+      </c>
+      <c r="C56" t="n">
+        <v>270.0400085449219</v>
+      </c>
+      <c r="D56" t="n">
+        <v>741.1768671672838</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.74469280000777</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.005877966452809179</v>
+      </c>
+      <c r="C57" t="n">
+        <v>72.80999755859375</v>
+      </c>
+      <c r="D57" t="n">
+        <v>703.5108049328072</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9.662283045218588</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.00586590428477614</v>
+      </c>
+      <c r="C58" t="n">
+        <v>120.3000030517578</v>
+      </c>
+      <c r="D58" t="n">
+        <v>702.0671312388033</v>
+      </c>
+      <c r="E58" t="n">
+        <v>5.835969355185687</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>HOLX</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.005608746792142957</v>
+      </c>
+      <c r="C59" t="n">
+        <v>74.11000061035156</v>
+      </c>
+      <c r="D59" t="n">
+        <v>671.2889571731089</v>
+      </c>
+      <c r="E59" t="n">
+        <v>9.058007713460258</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.005418863927941165</v>
+      </c>
+      <c r="C60" t="n">
+        <v>360.489990234375</v>
+      </c>
+      <c r="D60" t="n">
+        <v>648.5626201465158</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.79911408836858</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.005383089165938435</v>
+      </c>
+      <c r="C61" t="n">
+        <v>243.5500030517578</v>
+      </c>
+      <c r="D61" t="n">
+        <v>644.2808788649213</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.645374135873045</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.005269744461320685</v>
+      </c>
+      <c r="C62" t="n">
+        <v>37.02999877929688</v>
+      </c>
+      <c r="D62" t="n">
+        <v>630.7150946739627</v>
+      </c>
+      <c r="E62" t="n">
+        <v>17.03254430098954</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.005184929878154099</v>
+      </c>
+      <c r="C63" t="n">
+        <v>102.0699996948242</v>
+      </c>
+      <c r="D63" t="n">
+        <v>620.5639690844232</v>
+      </c>
+      <c r="E63" t="n">
+        <v>6.079788095814904</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.00504370364283482</v>
+      </c>
+      <c r="C64" t="n">
+        <v>444.260009765625</v>
+      </c>
+      <c r="D64" t="n">
+        <v>603.6611535810082</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.358801468310139</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.004073376266238348</v>
+      </c>
+      <c r="C65" t="n">
+        <v>92.48000335693359</v>
+      </c>
+      <c r="D65" t="n">
+        <v>487.5264666551446</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5.271696031124688</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>CRL</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.004069582146149666</v>
+      </c>
+      <c r="C66" t="n">
+        <v>177.8500061035156</v>
+      </c>
+      <c r="D66" t="n">
+        <v>487.072363267684</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.73866936492647</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.003829543939389845</v>
+      </c>
+      <c r="C67" t="n">
+        <v>210.9600067138672</v>
+      </c>
+      <c r="D67" t="n">
+        <v>458.3431295423837</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.172654128533715</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.003585945154216205</v>
+      </c>
+      <c r="C68" t="n">
+        <v>123</v>
+      </c>
+      <c r="D68" t="n">
+        <v>429.1877441188656</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.489331252998907</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.003326886226428542</v>
+      </c>
+      <c r="C69" t="n">
+        <v>157.5099945068359</v>
+      </c>
+      <c r="D69" t="n">
+        <v>398.1819947196276</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.527979230564613</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>GLW</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.003194063604269389</v>
+      </c>
+      <c r="C70" t="n">
+        <v>85.20999908447266</v>
+      </c>
+      <c r="D70" t="n">
+        <v>382.2849747929804</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.48638632672679</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.003083258041314643</v>
+      </c>
+      <c r="C71" t="n">
+        <v>55.68499755859375</v>
+      </c>
+      <c r="D71" t="n">
+        <v>369.0230905322985</v>
+      </c>
+      <c r="E71" t="n">
+        <v>6.626975068895336</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.002464994334386607</v>
+      </c>
+      <c r="C72" t="n">
+        <v>153.5500030517578</v>
+      </c>
+      <c r="D72" t="n">
+        <v>295.0255266445679</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.921364511761829</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.002431034398489438</v>
+      </c>
+      <c r="C73" t="n">
+        <v>249.3200073242188</v>
+      </c>
+      <c r="D73" t="n">
+        <v>290.9609947983431</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.167018234601501</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.002020643946104266</v>
+      </c>
+      <c r="C74" t="n">
+        <v>162.2299957275391</v>
+      </c>
+      <c r="D74" t="n">
+        <v>241.8429673628089</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.490741377870574</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.002007442987811089</v>
+      </c>
+      <c r="C75" t="n">
+        <v>359.8500061035156</v>
+      </c>
+      <c r="D75" t="n">
+        <v>240.2629963185239</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.6676753987588069</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.001846443993987855</v>
+      </c>
+      <c r="C76" t="n">
+        <v>262.7000122070312</v>
+      </c>
+      <c r="D76" t="n">
+        <v>220.9936567182911</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.8412396134345369</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.001725452101753509</v>
+      </c>
+      <c r="C77" t="n">
+        <v>227.1699981689453</v>
+      </c>
+      <c r="D77" t="n">
+        <v>206.512610564064</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.9090663918150034</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.001176315149973764</v>
+      </c>
+      <c r="C78" t="n">
+        <v>224.1900024414062</v>
+      </c>
+      <c r="D78" t="n">
+        <v>140.7885575150226</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.6279876710908138</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.001072973653842264</v>
+      </c>
+      <c r="C79" t="n">
+        <v>251.8800048828125</v>
+      </c>
+      <c r="D79" t="n">
+        <v>128.4200182063835</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.5098460207912539</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>HOOD</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.001021649721889967</v>
+      </c>
+      <c r="C80" t="n">
+        <v>136.8000030517578</v>
+      </c>
+      <c r="D80" t="n">
+        <v>122.2772576156318</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.8938395825135222</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.0009946078299427326</v>
+      </c>
+      <c r="C81" t="n">
+        <v>198.0599975585938</v>
+      </c>
+      <c r="D81" t="n">
+        <v>119.0407193802676</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.6010336304535739</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.000980121626556237</v>
+      </c>
+      <c r="C82" t="n">
+        <v>58.15000152587891</v>
+      </c>
+      <c r="D82" t="n">
+        <v>117.3069223797789</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.017315895126382</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.0009418647454198867</v>
+      </c>
+      <c r="C83" t="n">
+        <v>167.9900054931641</v>
+      </c>
+      <c r="D83" t="n">
+        <v>112.728105971327</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.6710405517304072</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.0008060305678100783</v>
+      </c>
+      <c r="C84" t="n">
+        <v>214.5200042724609</v>
+      </c>
+      <c r="D84" t="n">
+        <v>96.47064475665941</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.4497046561407507</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.0008020047455213352</v>
+      </c>
+      <c r="C85" t="n">
+        <v>36.11999893188477</v>
+      </c>
+      <c r="D85" t="n">
+        <v>95.98880983949746</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.657497582447705</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.0007724184766220951</v>
+      </c>
+      <c r="C86" t="n">
+        <v>164.0099945068359</v>
+      </c>
+      <c r="D86" t="n">
+        <v>92.44774508260089</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.5636714113708946</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>CNC</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.0005967837675395875</v>
+      </c>
+      <c r="C87" t="n">
+        <v>36.11000061035156</v>
+      </c>
+      <c r="D87" t="n">
+        <v>71.42671399084934</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.97803137035599</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0001976690194774553</v>
+      </c>
+      <c r="C88" t="n">
+        <v>36.56000137329102</v>
+      </c>
+      <c r="D88" t="n">
+        <v>23.65823148521086</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.6471069637996786</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -22302,6 +24005,6343 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Allocation_Percent</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Target_Value</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Actual_Shares</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04073935353099648</v>
+      </c>
+      <c r="C2" t="n">
+        <v>306.6799926757812</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4955.624915965714</v>
+      </c>
+      <c r="E2" t="n">
+        <v>16.15894428823972</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.03838991240783678</v>
+      </c>
+      <c r="C3" t="n">
+        <v>138.8699951171875</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4669.833710180718</v>
+      </c>
+      <c r="E3" t="n">
+        <v>33.62737721881541</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03372559730521694</v>
+      </c>
+      <c r="C4" t="n">
+        <v>569.1500244140625</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4102.456122294565</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.208039965416897</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03083576118161251</v>
+      </c>
+      <c r="C5" t="n">
+        <v>548.5499877929688</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3750.930075463807</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.837900207700789</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.02784023304872186</v>
+      </c>
+      <c r="C6" t="n">
+        <v>306.7699890136719</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3386.547419255612</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11.03937001837778</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02737827094558176</v>
+      </c>
+      <c r="C7" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3330.35332901775</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14.02254033270632</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02468640655852799</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3002.909001342426</v>
+      </c>
+      <c r="E8" t="n">
+        <v>229.054849731668</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02356554656027375</v>
+      </c>
+      <c r="C9" t="n">
+        <v>195.2100067138672</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2866.565116296931</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14.68451932640243</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.02339834630945372</v>
+      </c>
+      <c r="C10" t="n">
+        <v>72.09999847412109</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2846.226508609182</v>
+      </c>
+      <c r="E10" t="n">
+        <v>39.47609665526942</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02272135734425086</v>
+      </c>
+      <c r="C11" t="n">
+        <v>844.260009765625</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2763.876076090891</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.273726155592956</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02220889302047772</v>
+      </c>
+      <c r="C12" t="n">
+        <v>165.0500030517578</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2701.538784226368</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16.36800202529651</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.02180993393596187</v>
+      </c>
+      <c r="C13" t="n">
+        <v>354</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2653.008520284567</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.494374351086348</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.021615929877029</v>
+      </c>
+      <c r="C14" t="n">
+        <v>473.2000122070312</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2629.409438195187</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.556655474143956</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.01974736589107169</v>
+      </c>
+      <c r="C15" t="n">
+        <v>240.8899993896484</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2402.113189155771</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9.971826124961975</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PWR</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.01951570599036043</v>
+      </c>
+      <c r="C16" t="n">
+        <v>453.4500122070312</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2373.933567328404</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.23527070993779</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01938015444333153</v>
+      </c>
+      <c r="C17" t="n">
+        <v>22.76000022888184</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2357.444777850116</v>
+      </c>
+      <c r="E17" t="n">
+        <v>103.578416262869</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.01909963259088017</v>
+      </c>
+      <c r="C18" t="n">
+        <v>256.3299865722656</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2323.32148032594</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9.063791214575435</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01844851415536203</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1227.099975585938</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2244.117996160604</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.828798012231271</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01809624397552289</v>
+      </c>
+      <c r="C20" t="n">
+        <v>174</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2201.267073672736</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12.65096019352147</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.017717026344234</v>
+      </c>
+      <c r="C21" t="n">
+        <v>160.1000061035156</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2155.138203690572</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13.46120000955608</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0165588245033689</v>
+      </c>
+      <c r="C22" t="n">
+        <v>82.83999633789062</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2014.251974459138</v>
+      </c>
+      <c r="E22" t="n">
+        <v>24.31496938077276</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AVY</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01650993754530347</v>
+      </c>
+      <c r="C23" t="n">
+        <v>174.5200042724609</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2008.3052569377</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11.50759344357069</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01626273300702766</v>
+      </c>
+      <c r="C24" t="n">
+        <v>68.76999664306641</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1978.234751074436</v>
+      </c>
+      <c r="E24" t="n">
+        <v>28.76595677824404</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01598942083749017</v>
+      </c>
+      <c r="C25" t="n">
+        <v>371.9700012207031</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1944.988455298876</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.228885256649622</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01434654719757673</v>
+      </c>
+      <c r="C26" t="n">
+        <v>283.5400085449219</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1745.145678276313</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6.154848083810456</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.01422010507838149</v>
+      </c>
+      <c r="C27" t="n">
+        <v>170.25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1729.764979713319</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10.16014672371994</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01413059174351465</v>
+      </c>
+      <c r="C28" t="n">
+        <v>179.7200012207031</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1718.876380014756</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9.564190787556859</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.01407133685788662</v>
+      </c>
+      <c r="C29" t="n">
+        <v>284.75</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1711.668484892229</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6.011127251596943</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.01395850591523664</v>
+      </c>
+      <c r="C30" t="n">
+        <v>249</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1697.943479897668</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6.819050120070956</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01370100559516712</v>
+      </c>
+      <c r="C31" t="n">
+        <v>227.9499969482422</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1666.62057240394</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7.311342815162919</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01324742026490674</v>
+      </c>
+      <c r="C32" t="n">
+        <v>284.3099975585938</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1611.445451315074</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5.667916939793751</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.01313179168484686</v>
+      </c>
+      <c r="C33" t="n">
+        <v>95.56999969482422</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1597.380135528791</v>
+      </c>
+      <c r="E33" t="n">
+        <v>16.71424234204848</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.01229340550852626</v>
+      </c>
+      <c r="C34" t="n">
+        <v>27.10000038146973</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1495.396989885244</v>
+      </c>
+      <c r="E34" t="n">
+        <v>55.18069995702868</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.01224797572848331</v>
+      </c>
+      <c r="C35" t="n">
+        <v>62.54000091552734</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1489.870811131906</v>
+      </c>
+      <c r="E35" t="n">
+        <v>23.82268611003495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>GLW</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.01212342318314015</v>
+      </c>
+      <c r="C36" t="n">
+        <v>87.09999847412109</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1474.719964504458</v>
+      </c>
+      <c r="E36" t="n">
+        <v>16.93134317267092</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.01149278604754874</v>
+      </c>
+      <c r="C37" t="n">
+        <v>270.1400146484375</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1398.007870884901</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5.175123251193573</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.01144948315058721</v>
+      </c>
+      <c r="C38" t="n">
+        <v>92.91000366210938</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1392.740410885744</v>
+      </c>
+      <c r="E38" t="n">
+        <v>14.99020940684487</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>LDOS</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.01142724697336244</v>
+      </c>
+      <c r="C39" t="n">
+        <v>195.0700073242188</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1390.035553190664</v>
+      </c>
+      <c r="E39" t="n">
+        <v>7.125829194645677</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.01098484157553222</v>
+      </c>
+      <c r="C40" t="n">
+        <v>187.8999938964844</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1336.220383767881</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7.111338090324878</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.009989153264765963</v>
+      </c>
+      <c r="C41" t="n">
+        <v>567.6400146484375</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1215.102659167396</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.140621922011538</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HUBB</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.00968104775939</v>
+      </c>
+      <c r="C42" t="n">
+        <v>468.0599975585938</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1177.62402519679</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.515968105241401</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.009459313559484568</v>
+      </c>
+      <c r="C43" t="n">
+        <v>72.01000213623047</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1150.651787531383</v>
+      </c>
+      <c r="E43" t="n">
+        <v>15.97905503952838</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.009312225621997284</v>
+      </c>
+      <c r="C44" t="n">
+        <v>534.1400146484375</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1132.759686045398</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.120716768974821</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.009263038213684915</v>
+      </c>
+      <c r="C45" t="n">
+        <v>38.38000106811523</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1126.776421092529</v>
+      </c>
+      <c r="E45" t="n">
+        <v>29.35842599620497</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.009133522068028064</v>
+      </c>
+      <c r="C46" t="n">
+        <v>187.5899963378906</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1111.021791163299</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5.922606817274549</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.008999413256966881</v>
+      </c>
+      <c r="C47" t="n">
+        <v>154.1300048828125</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1094.708499273684</v>
+      </c>
+      <c r="E47" t="n">
+        <v>7.102500905686784</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.008738655556194005</v>
+      </c>
+      <c r="C48" t="n">
+        <v>152.4100036621094</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1062.989356798907</v>
+      </c>
+      <c r="E48" t="n">
+        <v>6.974537965077004</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.00823696017671074</v>
+      </c>
+      <c r="C49" t="n">
+        <v>146.7700042724609</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1001.962023095624</v>
+      </c>
+      <c r="E49" t="n">
+        <v>6.826749294328571</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.008190254114136892</v>
+      </c>
+      <c r="C50" t="n">
+        <v>925.8099975585938</v>
+      </c>
+      <c r="D50" t="n">
+        <v>996.2805945171978</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.076117774861406</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.008141427244073693</v>
+      </c>
+      <c r="C51" t="n">
+        <v>110.0500030517578</v>
+      </c>
+      <c r="D51" t="n">
+        <v>990.341186233026</v>
+      </c>
+      <c r="E51" t="n">
+        <v>8.999010983827569</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.007279496532469526</v>
+      </c>
+      <c r="C52" t="n">
+        <v>462.0700073242188</v>
+      </c>
+      <c r="D52" t="n">
+        <v>885.4940313312728</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.916363359004931</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.007196484364868946</v>
+      </c>
+      <c r="C53" t="n">
+        <v>74.66000366210938</v>
+      </c>
+      <c r="D53" t="n">
+        <v>875.3962479735483</v>
+      </c>
+      <c r="E53" t="n">
+        <v>11.72510320164664</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.007099763226813005</v>
+      </c>
+      <c r="C54" t="n">
+        <v>644.1900024414062</v>
+      </c>
+      <c r="D54" t="n">
+        <v>863.6308751802393</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.340646194301646</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.006854626282013416</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1439.72998046875</v>
+      </c>
+      <c r="D55" t="n">
+        <v>833.8118759526676</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.5791446224389892</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CINF</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.006720815603835069</v>
+      </c>
+      <c r="C56" t="n">
+        <v>160.0399932861328</v>
+      </c>
+      <c r="D56" t="n">
+        <v>817.5348496051986</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5.108315945399609</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.005941130776785132</v>
+      </c>
+      <c r="C57" t="n">
+        <v>436.1600036621094</v>
+      </c>
+      <c r="D57" t="n">
+        <v>722.6922656994598</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.656943001723114</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.005861619565733507</v>
+      </c>
+      <c r="C58" t="n">
+        <v>275.7699890136719</v>
+      </c>
+      <c r="D58" t="n">
+        <v>713.0203464264589</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.585561790014465</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.005804890148599483</v>
+      </c>
+      <c r="C59" t="n">
+        <v>72.91000366210938</v>
+      </c>
+      <c r="D59" t="n">
+        <v>706.1196548677752</v>
+      </c>
+      <c r="E59" t="n">
+        <v>9.684811677423339</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>HOLX</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.005610355344643197</v>
+      </c>
+      <c r="C60" t="n">
+        <v>74.23000335693359</v>
+      </c>
+      <c r="D60" t="n">
+        <v>682.4560117818635</v>
+      </c>
+      <c r="E60" t="n">
+        <v>9.193802787537088</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>IBKR</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.005292802634367602</v>
+      </c>
+      <c r="C61" t="n">
+        <v>71.62000274658203</v>
+      </c>
+      <c r="D61" t="n">
+        <v>643.8281989478465</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8.989502572709304</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>JBL</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.005269482423582278</v>
+      </c>
+      <c r="C62" t="n">
+        <v>218.1499938964844</v>
+      </c>
+      <c r="D62" t="n">
+        <v>640.9914770169157</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.938306188177462</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.005123287015764276</v>
+      </c>
+      <c r="C63" t="n">
+        <v>123.8199996948242</v>
+      </c>
+      <c r="D63" t="n">
+        <v>623.2079448106073</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5.033176759381448</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.004723263124736483</v>
+      </c>
+      <c r="C64" t="n">
+        <v>256.1000061035156</v>
+      </c>
+      <c r="D64" t="n">
+        <v>574.5481554536013</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2.24345233018608</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.004652660264682442</v>
+      </c>
+      <c r="C65" t="n">
+        <v>164.3200073242188</v>
+      </c>
+      <c r="D65" t="n">
+        <v>565.9598676655773</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.444254153110434</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.00456586555914341</v>
+      </c>
+      <c r="C66" t="n">
+        <v>165.1799926757812</v>
+      </c>
+      <c r="D66" t="n">
+        <v>555.4019680411792</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.362404605086367</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MPWR</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.0045257532999074</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1000.150024414062</v>
+      </c>
+      <c r="D67" t="n">
+        <v>550.5226242598792</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.5504400448146793</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.00441247922217951</v>
+      </c>
+      <c r="C68" t="n">
+        <v>153.1300048828125</v>
+      </c>
+      <c r="D68" t="n">
+        <v>536.7437153359988</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.50515051407958</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.003926631559229095</v>
+      </c>
+      <c r="C69" t="n">
+        <v>122.5800018310547</v>
+      </c>
+      <c r="D69" t="n">
+        <v>477.6441328635153</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3.896591007738979</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>VTRS</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.003845703816241527</v>
+      </c>
+      <c r="C70" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="D70" t="n">
+        <v>467.7999035181251</v>
+      </c>
+      <c r="E70" t="n">
+        <v>43.51627009470931</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.003240782478558161</v>
+      </c>
+      <c r="C71" t="n">
+        <v>162.2299957275391</v>
+      </c>
+      <c r="D71" t="n">
+        <v>394.2159363365606</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.429981795713264</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.003208883694379953</v>
+      </c>
+      <c r="C72" t="n">
+        <v>153.4299926757812</v>
+      </c>
+      <c r="D72" t="n">
+        <v>390.3356977966371</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.54406384950738</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.003122878473827109</v>
+      </c>
+      <c r="C73" t="n">
+        <v>119.7600021362305</v>
+      </c>
+      <c r="D73" t="n">
+        <v>379.8738328691409</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3.17195913571397</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.003057683590625586</v>
+      </c>
+      <c r="C74" t="n">
+        <v>173.1900024414062</v>
+      </c>
+      <c r="D74" t="n">
+        <v>371.9433833262652</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.147603083798681</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.002942202780771563</v>
+      </c>
+      <c r="C75" t="n">
+        <v>55.9900016784668</v>
+      </c>
+      <c r="D75" t="n">
+        <v>357.8960426340994</v>
+      </c>
+      <c r="E75" t="n">
+        <v>6.392142023666748</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.00271153960901471</v>
+      </c>
+      <c r="C76" t="n">
+        <v>358.9800109863281</v>
+      </c>
+      <c r="D76" t="n">
+        <v>329.8376651175237</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.9188190289795432</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>HOOD</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.002671702591444087</v>
+      </c>
+      <c r="C77" t="n">
+        <v>142.4799957275391</v>
+      </c>
+      <c r="D77" t="n">
+        <v>324.9918023401348</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.280964430695299</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>EME</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.002671460482945355</v>
+      </c>
+      <c r="C78" t="n">
+        <v>675.4199829101562</v>
+      </c>
+      <c r="D78" t="n">
+        <v>324.9623517277738</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.4811263509374136</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.002556938750603319</v>
+      </c>
+      <c r="C79" t="n">
+        <v>365.7999877929688</v>
+      </c>
+      <c r="D79" t="n">
+        <v>311.0316753418083</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.8502779817418759</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>CNC</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.002511195007163253</v>
+      </c>
+      <c r="C80" t="n">
+        <v>36.84000015258789</v>
+      </c>
+      <c r="D80" t="n">
+        <v>305.4673053876151</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8.291729210705691</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.002399629791107386</v>
+      </c>
+      <c r="C81" t="n">
+        <v>92.38999938964844</v>
+      </c>
+      <c r="D81" t="n">
+        <v>291.8962661706845</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3.159392446141624</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>PYPL</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.002258272503928871</v>
+      </c>
+      <c r="C82" t="n">
+        <v>68.05999755859375</v>
+      </c>
+      <c r="D82" t="n">
+        <v>274.7012536415293</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4.03616314274821</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>BBY</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.002132536708380705</v>
+      </c>
+      <c r="C83" t="n">
+        <v>80.87999725341797</v>
+      </c>
+      <c r="D83" t="n">
+        <v>259.4064738465288</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3.207300725218142</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.002080235628689523</v>
+      </c>
+      <c r="C84" t="n">
+        <v>104.9199981689453</v>
+      </c>
+      <c r="D84" t="n">
+        <v>253.0444550321574</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.411784783151613</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>HWM</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.002023013576819205</v>
+      </c>
+      <c r="C85" t="n">
+        <v>206.3099975585938</v>
+      </c>
+      <c r="D85" t="n">
+        <v>246.0838382964137</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.192786783037617</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.001787080985536097</v>
+      </c>
+      <c r="C86" t="n">
+        <v>200.7400054931641</v>
+      </c>
+      <c r="D86" t="n">
+        <v>217.3844769537909</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.082915567426313</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>AES</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.001698857370678553</v>
+      </c>
+      <c r="C87" t="n">
+        <v>14.22000026702881</v>
+      </c>
+      <c r="D87" t="n">
+        <v>206.6527616448585</v>
+      </c>
+      <c r="E87" t="n">
+        <v>14.53254274010203</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.001237638565060084</v>
+      </c>
+      <c r="C88" t="n">
+        <v>210.1199951171875</v>
+      </c>
+      <c r="D88" t="n">
+        <v>150.5490877587273</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.7164910111232562</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ZTS</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.001084381697196657</v>
+      </c>
+      <c r="C89" t="n">
+        <v>120.4899978637695</v>
+      </c>
+      <c r="D89" t="n">
+        <v>131.9065839607961</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.094751317947027</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.001018245103594162</v>
+      </c>
+      <c r="C90" t="n">
+        <v>277.3900146484375</v>
+      </c>
+      <c r="D90" t="n">
+        <v>123.8615826854504</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.446525023052585</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.0005939237804165433</v>
+      </c>
+      <c r="C91" t="n">
+        <v>36.54999923706055</v>
+      </c>
+      <c r="D91" t="n">
+        <v>72.24620003303178</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.976640261042096</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>7.122741363933956e-05</v>
+      </c>
+      <c r="C92" t="n">
+        <v>91.95999908447266</v>
+      </c>
+      <c r="D92" t="n">
+        <v>8.664259865153376</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.09421770282065414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Shares</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Exit_Price</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Sale_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Transaction_Cost</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Gain_Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>40.32798711972173</v>
+      </c>
+      <c r="C2" t="n">
+        <v>136.6999969482422</v>
+      </c>
+      <c r="D2" t="n">
+        <v>138.8699951171875</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5600.347374401757</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>87.51165820704591</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>74.04122574116062</v>
+      </c>
+      <c r="C3" t="n">
+        <v>72.31999969482422</v>
+      </c>
+      <c r="D3" t="n">
+        <v>72.09999847412109</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5338.372262959736</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-16.28916004541134</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.633686239079744</v>
+      </c>
+      <c r="C4" t="n">
+        <v>547.5800170898438</v>
+      </c>
+      <c r="D4" t="n">
+        <v>569.1500244140625</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4913.862733755592</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>186.2286754119568</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KEYS</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>24.55814483428385</v>
+      </c>
+      <c r="C5" t="n">
+        <v>179.1000061035156</v>
+      </c>
+      <c r="D5" t="n">
+        <v>185.8500061035156</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4564.131367342674</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>165.7674776314161</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>20.1160668987408</v>
+      </c>
+      <c r="C6" t="n">
+        <v>198.6900024414062</v>
+      </c>
+      <c r="D6" t="n">
+        <v>195.2100067138672</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3926.857554359793</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-70.00382686250805</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.051596398727835</v>
+      </c>
+      <c r="C7" t="n">
+        <v>538.8200073242188</v>
+      </c>
+      <c r="D7" t="n">
+        <v>548.5499877929688</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3319.603130650127</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>58.88191476437942</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>14.21723455154916</v>
+      </c>
+      <c r="C8" t="n">
+        <v>218.0299987792969</v>
+      </c>
+      <c r="D8" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3376.593205992926</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>276.8095740736849</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.82858757687574</v>
+      </c>
+      <c r="C9" t="n">
+        <v>432.989990234375</v>
+      </c>
+      <c r="D9" t="n">
+        <v>436.1600036621094</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2978.356782537157</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>21.6467143111563</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>224.5209195457172</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.78999996185303</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2943.469178161213</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>71.84662573628248</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8.067685393505768</v>
+      </c>
+      <c r="C11" t="n">
+        <v>344.5299987792969</v>
+      </c>
+      <c r="D11" t="n">
+        <v>354</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2855.960629301042</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>76.40099052474807</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9.238321730047161</v>
+      </c>
+      <c r="C12" t="n">
+        <v>300.8500061035156</v>
+      </c>
+      <c r="D12" t="n">
+        <v>306.7699890136719</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2834.039855631334</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>54.69070676040428</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>16.30138220700613</v>
+      </c>
+      <c r="C13" t="n">
+        <v>155.7799987792969</v>
+      </c>
+      <c r="D13" t="n">
+        <v>165.0500030517578</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2690.543183014232</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>151.1138827059654</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8.935763142659747</v>
+      </c>
+      <c r="C14" t="n">
+        <v>278.0599975585938</v>
+      </c>
+      <c r="D14" t="n">
+        <v>284.75</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2544.458554872363</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>59.78027724022195</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2.908021219808254</v>
+      </c>
+      <c r="C15" t="n">
+        <v>841.6699829101562</v>
+      </c>
+      <c r="D15" t="n">
+        <v>844.260009765625</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2455.126023433961</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.531853055575993</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8.776181900995438</v>
+      </c>
+      <c r="C16" t="n">
+        <v>277.5400085449219</v>
+      </c>
+      <c r="D16" t="n">
+        <v>284.3099975585938</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2495.156254845787</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>59.41465505172482</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HUBB</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.894449631134171</v>
+      </c>
+      <c r="C17" t="n">
+        <v>459.4400024414062</v>
+      </c>
+      <c r="D17" t="n">
+        <v>468.0599975585938</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2290.89608239932</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>42.19013192169677</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AVY</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>12.84672811384059</v>
+      </c>
+      <c r="C18" t="n">
+        <v>174.3899993896484</v>
+      </c>
+      <c r="D18" t="n">
+        <v>174.5200042724609</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2242.011045314604</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.67013738296373</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>11.69641341108181</v>
+      </c>
+      <c r="C19" t="n">
+        <v>190.7400054931641</v>
+      </c>
+      <c r="D19" t="n">
+        <v>187.8999938964844</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2197.75600855303</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-33.21794972703219</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>23.33042561930856</v>
+      </c>
+      <c r="C20" t="n">
+        <v>93.25</v>
+      </c>
+      <c r="D20" t="n">
+        <v>92.91000366210938</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2167.629929728528</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-7.932259271994553</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>25.80840714915455</v>
+      </c>
+      <c r="C21" t="n">
+        <v>84.15000152587891</v>
+      </c>
+      <c r="D21" t="n">
+        <v>82.83999633789062</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2137.968353722753</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-33.80914725910634</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>10.84136808522049</v>
+      </c>
+      <c r="C22" t="n">
+        <v>175.6100006103516</v>
+      </c>
+      <c r="D22" t="n">
+        <v>174</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1886.398046828365</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-17.45460923425094</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>7.512328628054451</v>
+      </c>
+      <c r="C23" t="n">
+        <v>250.3800048828125</v>
+      </c>
+      <c r="D23" t="n">
+        <v>275.7699890136719</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2071.674783225669</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>190.7379046521032</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>10.66577971900693</v>
+      </c>
+      <c r="C24" t="n">
+        <v>172.6399993896484</v>
+      </c>
+      <c r="D24" t="n">
+        <v>170.25</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1815.848997160931</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-25.49120701855122</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6.21092771828363</v>
+      </c>
+      <c r="C25" t="n">
+        <v>286.9400024414062</v>
+      </c>
+      <c r="D25" t="n">
+        <v>283.5400085449219</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1761.046498314033</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-21.11711633366986</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.467794923905342</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1193.489990234375</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1227.099975585938</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1801.131115289408</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>49.33256589155621</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>77.47069347738842</v>
+      </c>
+      <c r="C27" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="D27" t="n">
+        <v>22.76000022888184</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1763.233001276995</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>12.39529913529236</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6.624617932836344</v>
+      </c>
+      <c r="C28" t="n">
+        <v>250.0500030517578</v>
+      </c>
+      <c r="D28" t="n">
+        <v>256.3299865722656</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1698.08822577033</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>41.60249144787281</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3.093900184896572</v>
+      </c>
+      <c r="C29" t="n">
+        <v>533.9199829101562</v>
+      </c>
+      <c r="D29" t="n">
+        <v>534.1400146484375</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1652.575890081459</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.6807562357514598</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>6.990304995385732</v>
+      </c>
+      <c r="C30" t="n">
+        <v>230.1900024414062</v>
+      </c>
+      <c r="D30" t="n">
+        <v>240.8899993896484</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1683.894566071926</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>74.79624211790951</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>9.234747962939503</v>
+      </c>
+      <c r="C31" t="n">
+        <v>172.8399963378906</v>
+      </c>
+      <c r="D31" t="n">
+        <v>179.7200012207031</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1659.668915172373</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>63.53511107656641</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>22.95485240953715</v>
+      </c>
+      <c r="C32" t="n">
+        <v>66.87000274658203</v>
+      </c>
+      <c r="D32" t="n">
+        <v>68.76999664306641</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1578.605123145955</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>43.61407947282032</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>10.06738170409661</v>
+      </c>
+      <c r="C33" t="n">
+        <v>152.1799926757812</v>
+      </c>
+      <c r="D33" t="n">
+        <v>160.1000061035156</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1611.78787227229</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>79.73379827857252</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2.932103365415867</v>
+      </c>
+      <c r="C34" t="n">
+        <v>471.6799926757812</v>
+      </c>
+      <c r="D34" t="n">
+        <v>473.2000122070312</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1387.471348307065</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.456854383076006</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>18.44839968102558</v>
+      </c>
+      <c r="C35" t="n">
+        <v>73.81999969482422</v>
+      </c>
+      <c r="D35" t="n">
+        <v>72.91000366210938</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1345.072888303632</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-16.78797051967126</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3.630673580330069</v>
+      </c>
+      <c r="C36" t="n">
+        <v>367.3399963378906</v>
+      </c>
+      <c r="D36" t="n">
+        <v>371.9700012207031</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1350.50165610735</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>16.81003640482663</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>13.82771194434064</v>
+      </c>
+      <c r="C37" t="n">
+        <v>93.90000152587891</v>
+      </c>
+      <c r="D37" t="n">
+        <v>95.56999969482422</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1321.514426300752</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>23.09225362775214</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>7.347751115853271</v>
+      </c>
+      <c r="C38" t="n">
+        <v>175.6499938964844</v>
+      </c>
+      <c r="D38" t="n">
+        <v>187.5899963378906</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1378.364604914647</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>87.73216626213366</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>EMR</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>9.342977965633791</v>
+      </c>
+      <c r="C39" t="n">
+        <v>137.7400054931641</v>
+      </c>
+      <c r="D39" t="n">
+        <v>132.4499969482422</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1237.47740303569</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-49.42443327321962</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>8.154090908604294</v>
+      </c>
+      <c r="C40" t="n">
+        <v>154.6399993896484</v>
+      </c>
+      <c r="D40" t="n">
+        <v>152.4100036621094</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1242.765025241553</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-18.18358788815272</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.8767023900832358</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1420.349975585938</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1439.72998046875</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1262.214714951444</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>16.99049660058654</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>19.80200669953943</v>
+      </c>
+      <c r="C42" t="n">
+        <v>61.27999877929688</v>
+      </c>
+      <c r="D42" t="n">
+        <v>62.54000091552734</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1238.417517118475</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>24.95057074306965</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>44.84367423422584</v>
+      </c>
+      <c r="C43" t="n">
+        <v>26.80999946594238</v>
+      </c>
+      <c r="D43" t="n">
+        <v>27.10000038146973</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1215.263588854024</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>13.00470658353538</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2.088153002315539</v>
+      </c>
+      <c r="C44" t="n">
+        <v>565.239990234375</v>
+      </c>
+      <c r="D44" t="n">
+        <v>567.6400146484375</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1185.319200822571</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5.011618185855241</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>IBKR</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>15.94729268172639</v>
+      </c>
+      <c r="C45" t="n">
+        <v>70.69000244140625</v>
+      </c>
+      <c r="D45" t="n">
+        <v>71.62000274658203</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1142.145145665792</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>14.83098706073315</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1.232146429537072</v>
+      </c>
+      <c r="C46" t="n">
+        <v>906.8599853515625</v>
+      </c>
+      <c r="D46" t="n">
+        <v>925.8099975585938</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1140.733482921547</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>23.34918988057757</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1.708963456260108</v>
+      </c>
+      <c r="C47" t="n">
+        <v>628</v>
+      </c>
+      <c r="D47" t="n">
+        <v>644.1900024414062</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1100.897173060473</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>27.66812252912518</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>8.526482318895333</v>
+      </c>
+      <c r="C48" t="n">
+        <v>124</v>
+      </c>
+      <c r="D48" t="n">
+        <v>123.8199996948242</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1055.749038123544</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-1.534769419477016</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PWR</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2.364741181843741</v>
+      </c>
+      <c r="C49" t="n">
+        <v>438.6600036621094</v>
+      </c>
+      <c r="D49" t="n">
+        <v>453.4500122070312</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1072.291917773514</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>34.97454228599759</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>6.940948891397221</v>
+      </c>
+      <c r="C50" t="n">
+        <v>146.0800018310547</v>
+      </c>
+      <c r="D50" t="n">
+        <v>146.7700042724609</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1018.723098445303</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4.789271680740057</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>6.402286424575156</v>
+      </c>
+      <c r="C51" t="n">
+        <v>151.6199951171875</v>
+      </c>
+      <c r="D51" t="n">
+        <v>154.1300048828125</v>
+      </c>
+      <c r="E51" t="n">
+        <v>986.784437880933</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>16.06980144801207</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2.862877223976522</v>
+      </c>
+      <c r="C52" t="n">
+        <v>315.8999938964844</v>
+      </c>
+      <c r="D52" t="n">
+        <v>306.6799926757812</v>
+      </c>
+      <c r="E52" t="n">
+        <v>877.9871660807809</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-26.39573149978662</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>HWM</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>4.281996004522711</v>
+      </c>
+      <c r="C53" t="n">
+        <v>205.0200042724609</v>
+      </c>
+      <c r="D53" t="n">
+        <v>206.3099975585938</v>
+      </c>
+      <c r="E53" t="n">
+        <v>883.4185852389888</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5.523746097081926</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>7.778011166799132</v>
+      </c>
+      <c r="C54" t="n">
+        <v>110.0500030517578</v>
+      </c>
+      <c r="D54" t="n">
+        <v>110.0500030517578</v>
+      </c>
+      <c r="E54" t="n">
+        <v>855.9701526428508</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>11.11350915665096</v>
+      </c>
+      <c r="C55" t="n">
+        <v>71.61000061035156</v>
+      </c>
+      <c r="D55" t="n">
+        <v>72.01000213623047</v>
+      </c>
+      <c r="E55" t="n">
+        <v>800.2838181114524</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4.445420620529603</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2.74469280000777</v>
+      </c>
+      <c r="C56" t="n">
+        <v>270.0400085449219</v>
+      </c>
+      <c r="D56" t="n">
+        <v>270.1400146484375</v>
+      </c>
+      <c r="E56" t="n">
+        <v>741.45135319956</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.2744860322761724</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>9.662283045218588</v>
+      </c>
+      <c r="C57" t="n">
+        <v>72.80999755859375</v>
+      </c>
+      <c r="D57" t="n">
+        <v>74.66000366210938</v>
+      </c>
+      <c r="E57" t="n">
+        <v>721.3860875403572</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>17.87528260754993</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>5.835969355185687</v>
+      </c>
+      <c r="C58" t="n">
+        <v>120.3000030517578</v>
+      </c>
+      <c r="D58" t="n">
+        <v>119.7600021362305</v>
+      </c>
+      <c r="E58" t="n">
+        <v>698.9157024440135</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-3.151428794789808</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>HOLX</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>9.058007713460258</v>
+      </c>
+      <c r="C59" t="n">
+        <v>74.11000061035156</v>
+      </c>
+      <c r="D59" t="n">
+        <v>74.23000335693359</v>
+      </c>
+      <c r="E59" t="n">
+        <v>672.3759429772854</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.086985804176493</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1.79911408836858</v>
+      </c>
+      <c r="C60" t="n">
+        <v>360.489990234375</v>
+      </c>
+      <c r="D60" t="n">
+        <v>365.7999877929688</v>
+      </c>
+      <c r="E60" t="n">
+        <v>658.1159115633845</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>9.553291416868774</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2.645374135873045</v>
+      </c>
+      <c r="C61" t="n">
+        <v>243.5500030517578</v>
+      </c>
+      <c r="D61" t="n">
+        <v>249</v>
+      </c>
+      <c r="E61" t="n">
+        <v>658.6981598323882</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>14.41728096746692</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>17.03254430098954</v>
+      </c>
+      <c r="C62" t="n">
+        <v>37.02999877929688</v>
+      </c>
+      <c r="D62" t="n">
+        <v>38.38000106811523</v>
+      </c>
+      <c r="E62" t="n">
+        <v>653.7090684646987</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>22.99397379073605</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>6.079788095814904</v>
+      </c>
+      <c r="C63" t="n">
+        <v>102.0699996948242</v>
+      </c>
+      <c r="D63" t="n">
+        <v>104.9199981689453</v>
+      </c>
+      <c r="E63" t="n">
+        <v>637.8913558804752</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>17.327386796052</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1.358801468310139</v>
+      </c>
+      <c r="C64" t="n">
+        <v>444.260009765625</v>
+      </c>
+      <c r="D64" t="n">
+        <v>462.0700073242188</v>
+      </c>
+      <c r="E64" t="n">
+        <v>627.8614044142254</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>24.20025083321718</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>5.271696031124688</v>
+      </c>
+      <c r="C65" t="n">
+        <v>92.48000335693359</v>
+      </c>
+      <c r="D65" t="n">
+        <v>92.38999938964844</v>
+      </c>
+      <c r="E65" t="n">
+        <v>487.051993098022</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.4744735571226215</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>CRL</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2.73866936492647</v>
+      </c>
+      <c r="C66" t="n">
+        <v>177.8500061035156</v>
+      </c>
+      <c r="D66" t="n">
+        <v>167.6999969482422</v>
+      </c>
+      <c r="E66" t="n">
+        <v>459.2748441404134</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-27.79751912727056</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2.172654128533715</v>
+      </c>
+      <c r="C67" t="n">
+        <v>210.9600067138672</v>
+      </c>
+      <c r="D67" t="n">
+        <v>210.1199951171875</v>
+      </c>
+      <c r="E67" t="n">
+        <v>456.5180748788414</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1.825054663542289</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3.489331252998907</v>
+      </c>
+      <c r="C68" t="n">
+        <v>123</v>
+      </c>
+      <c r="D68" t="n">
+        <v>122.5800018310547</v>
+      </c>
+      <c r="E68" t="n">
+        <v>427.7222313817624</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-1.465512737103211</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2.527979230564613</v>
+      </c>
+      <c r="C69" t="n">
+        <v>157.5099945068359</v>
+      </c>
+      <c r="D69" t="n">
+        <v>154.9799957275391</v>
+      </c>
+      <c r="E69" t="n">
+        <v>391.7862103522112</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-6.395784367416354</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>GLW</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>4.48638632672679</v>
+      </c>
+      <c r="C70" t="n">
+        <v>85.20999908447266</v>
+      </c>
+      <c r="D70" t="n">
+        <v>87.09999847412109</v>
+      </c>
+      <c r="E70" t="n">
+        <v>390.7642422122212</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>8.479267419240728</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>6.626975068895336</v>
+      </c>
+      <c r="C71" t="n">
+        <v>55.68499755859375</v>
+      </c>
+      <c r="D71" t="n">
+        <v>55.9900016784668</v>
+      </c>
+      <c r="E71" t="n">
+        <v>371.0443452306075</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2.021254698309065</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1.921364511761829</v>
+      </c>
+      <c r="C72" t="n">
+        <v>153.5500030517578</v>
+      </c>
+      <c r="D72" t="n">
+        <v>140.4199981689453</v>
+      </c>
+      <c r="E72" t="n">
+        <v>269.7980012234725</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-25.22752542109549</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1.167018234601501</v>
+      </c>
+      <c r="C73" t="n">
+        <v>249.3200073242188</v>
+      </c>
+      <c r="D73" t="n">
+        <v>250.1999969482422</v>
+      </c>
+      <c r="E73" t="n">
+        <v>291.9879587358386</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.026963937495509</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1.490741377870574</v>
+      </c>
+      <c r="C74" t="n">
+        <v>162.2299957275391</v>
+      </c>
+      <c r="D74" t="n">
+        <v>162.2299957275391</v>
+      </c>
+      <c r="E74" t="n">
+        <v>241.8429673628089</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.6676753987588069</v>
+      </c>
+      <c r="C75" t="n">
+        <v>359.8500061035156</v>
+      </c>
+      <c r="D75" t="n">
+        <v>362.6000061035156</v>
+      </c>
+      <c r="E75" t="n">
+        <v>242.0991036651106</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.836107346586715</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.8412396134345369</v>
+      </c>
+      <c r="C76" t="n">
+        <v>262.7000122070312</v>
+      </c>
+      <c r="D76" t="n">
+        <v>277.3900146484375</v>
+      </c>
+      <c r="E76" t="n">
+        <v>233.3514686934521</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>12.35781197516098</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.9090663918150034</v>
+      </c>
+      <c r="C77" t="n">
+        <v>227.1699981689453</v>
+      </c>
+      <c r="D77" t="n">
+        <v>237.1199951171875</v>
+      </c>
+      <c r="E77" t="n">
+        <v>215.5578183883729</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>9.045207824308818</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.6279876710908138</v>
+      </c>
+      <c r="C78" t="n">
+        <v>224.1900024414062</v>
+      </c>
+      <c r="D78" t="n">
+        <v>227.9499969482422</v>
+      </c>
+      <c r="E78" t="n">
+        <v>143.1497877086847</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2.361230193662152</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5098460207912539</v>
+      </c>
+      <c r="C79" t="n">
+        <v>251.8800048828125</v>
+      </c>
+      <c r="D79" t="n">
+        <v>256.1000061035156</v>
+      </c>
+      <c r="E79" t="n">
+        <v>130.5715690364933</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2.151550830109727</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>HOOD</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.8938395825135222</v>
+      </c>
+      <c r="C80" t="n">
+        <v>136.8000030517578</v>
+      </c>
+      <c r="D80" t="n">
+        <v>142.4799957275391</v>
+      </c>
+      <c r="E80" t="n">
+        <v>127.3542598976319</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5.07700228200018</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.6010336304535739</v>
+      </c>
+      <c r="C81" t="n">
+        <v>198.0599975585938</v>
+      </c>
+      <c r="D81" t="n">
+        <v>198.0599975585938</v>
+      </c>
+      <c r="E81" t="n">
+        <v>119.0407193802676</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2.017315895126382</v>
+      </c>
+      <c r="C82" t="n">
+        <v>58.15000152587891</v>
+      </c>
+      <c r="D82" t="n">
+        <v>58.36000061035156</v>
+      </c>
+      <c r="E82" t="n">
+        <v>117.7305568708476</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.4236344910686682</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.6710405517304072</v>
+      </c>
+      <c r="C83" t="n">
+        <v>167.9900054931641</v>
+      </c>
+      <c r="D83" t="n">
+        <v>173.1900024414062</v>
+      </c>
+      <c r="E83" t="n">
+        <v>116.2175147924718</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>3.489408821144863</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.4497046561407507</v>
+      </c>
+      <c r="C84" t="n">
+        <v>214.5200042724609</v>
+      </c>
+      <c r="D84" t="n">
+        <v>213.1799926757812</v>
+      </c>
+      <c r="E84" t="n">
+        <v>95.86803530234995</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-0.6026094543094587</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2.657497582447705</v>
+      </c>
+      <c r="C85" t="n">
+        <v>36.11999893188477</v>
+      </c>
+      <c r="D85" t="n">
+        <v>36.54999923706055</v>
+      </c>
+      <c r="E85" t="n">
+        <v>97.13153461095388</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.142724771456415</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5636714113708946</v>
+      </c>
+      <c r="C86" t="n">
+        <v>164.0099945068359</v>
+      </c>
+      <c r="D86" t="n">
+        <v>165.1799926757812</v>
+      </c>
+      <c r="E86" t="n">
+        <v>93.10723960179165</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.6594945191907584</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>CNC</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1.97803137035599</v>
+      </c>
+      <c r="C87" t="n">
+        <v>36.11000061035156</v>
+      </c>
+      <c r="D87" t="n">
+        <v>36.84000015258789</v>
+      </c>
+      <c r="E87" t="n">
+        <v>72.8706759857383</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.443961994888966</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.6471069637996786</v>
+      </c>
+      <c r="C88" t="n">
+        <v>36.56000137329102</v>
+      </c>
+      <c r="D88" t="n">
+        <v>36.31999969482422</v>
+      </c>
+      <c r="E88" t="n">
+        <v>23.50292472772295</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-0.1553067574594778</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Shares</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Exit_Price</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Sale_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Transaction_Cost</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Gain_Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16.15894428823972</v>
+      </c>
+      <c r="C2" t="n">
+        <v>306.6799926757812</v>
+      </c>
+      <c r="D2" t="n">
+        <v>305.4299926757812</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4935.426235605414</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-20.19868036029948</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>33.62737721881541</v>
+      </c>
+      <c r="C3" t="n">
+        <v>138.8699951171875</v>
+      </c>
+      <c r="D3" t="n">
+        <v>138.1100006103516</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4644.277088215119</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-25.55662196559933</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.208039965416897</v>
+      </c>
+      <c r="C4" t="n">
+        <v>569.1500244140625</v>
+      </c>
+      <c r="D4" t="n">
+        <v>569.780029296875</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4106.997222668286</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.541100373720838</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.837900207700789</v>
+      </c>
+      <c r="C5" t="n">
+        <v>548.5499877929688</v>
+      </c>
+      <c r="D5" t="n">
+        <v>547.780029296875</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3745.665176103446</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-5.264899360360687</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11.03937001837778</v>
+      </c>
+      <c r="C6" t="n">
+        <v>306.7699890136719</v>
+      </c>
+      <c r="D6" t="n">
+        <v>312.4200134277344</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3448.920129375316</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>62.37271011970415</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>14.02254033270632</v>
+      </c>
+      <c r="C7" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>238.3300018310547</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3341.992063169934</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>11.6387341521845</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>229.054849731668</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.11999988555908</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3005.199602266237</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.290600923811326</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>14.68451932640243</v>
+      </c>
+      <c r="C9" t="n">
+        <v>195.2100067138672</v>
+      </c>
+      <c r="D9" t="n">
+        <v>188.0800018310547</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2761.864421797927</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-104.7006944990039</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>39.47609665526942</v>
+      </c>
+      <c r="C10" t="n">
+        <v>72.09999847412109</v>
+      </c>
+      <c r="D10" t="n">
+        <v>71.04000091552734</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2804.381942531786</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-41.84456607739639</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.273726155592956</v>
+      </c>
+      <c r="C11" t="n">
+        <v>844.260009765625</v>
+      </c>
+      <c r="D11" t="n">
+        <v>858.6099853515625</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2810.853966498695</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>46.9778904078039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>16.36800202529651</v>
+      </c>
+      <c r="C12" t="n">
+        <v>165.0500030517578</v>
+      </c>
+      <c r="D12" t="n">
+        <v>162.1900024414062</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2654.726288443784</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-46.81249578258348</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7.494374351086348</v>
+      </c>
+      <c r="C13" t="n">
+        <v>354</v>
+      </c>
+      <c r="D13" t="n">
+        <v>360.239990234375</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2699.773343048097</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>46.76482276352954</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.556655474143956</v>
+      </c>
+      <c r="C14" t="n">
+        <v>473.2000122070312</v>
+      </c>
+      <c r="D14" t="n">
+        <v>471.3599853515625</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2619.185042896175</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-10.22439529901249</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.971826124961975</v>
+      </c>
+      <c r="C15" t="n">
+        <v>240.8899993896484</v>
+      </c>
+      <c r="D15" t="n">
+        <v>233.5299987792969</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2328.720542789731</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-73.39264636604003</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PWR</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.23527070993779</v>
+      </c>
+      <c r="C16" t="n">
+        <v>453.4500122070312</v>
+      </c>
+      <c r="D16" t="n">
+        <v>442.8999938964844</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2318.701365477891</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-55.23220185051332</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>103.578416262869</v>
+      </c>
+      <c r="C17" t="n">
+        <v>22.76000022888184</v>
+      </c>
+      <c r="D17" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2322.228100515929</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-35.21667733418735</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9.063791214575435</v>
+      </c>
+      <c r="C18" t="n">
+        <v>256.3299865722656</v>
+      </c>
+      <c r="D18" t="n">
+        <v>237.6999969482422</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2154.463144044085</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-168.8583362818549</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.828798012231271</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1227.099975585938</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1206.400024414062</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2206.261966604194</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-37.85602955640934</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>12.65096019352147</v>
+      </c>
+      <c r="C20" t="n">
+        <v>174</v>
+      </c>
+      <c r="D20" t="n">
+        <v>175.1000061035156</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2215.183207100943</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13.9161334282071</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13.46120000955608</v>
+      </c>
+      <c r="C21" t="n">
+        <v>160.1000061035156</v>
+      </c>
+      <c r="D21" t="n">
+        <v>163.6000061035156</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2202.252403724019</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>47.1142000334462</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>24.31496938077276</v>
+      </c>
+      <c r="C22" t="n">
+        <v>82.83999633789062</v>
+      </c>
+      <c r="D22" t="n">
+        <v>82.44000244140625</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2004.526135113624</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-9.725839345513577</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AVY</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>11.50759344357069</v>
+      </c>
+      <c r="C23" t="n">
+        <v>174.5200042724609</v>
+      </c>
+      <c r="D23" t="n">
+        <v>171.9499969482422</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1978.730657503592</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-29.57459943410822</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>28.76595677824404</v>
+      </c>
+      <c r="C24" t="n">
+        <v>68.76999664306641</v>
+      </c>
+      <c r="D24" t="n">
+        <v>68.83999633789062</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1980.24835927024</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.013608195803727</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5.228885256649622</v>
+      </c>
+      <c r="C25" t="n">
+        <v>371.9700012207031</v>
+      </c>
+      <c r="D25" t="n">
+        <v>371.1600036621094</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1940.753071006823</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-4.235384292052913</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6.154848083810456</v>
+      </c>
+      <c r="C26" t="n">
+        <v>283.5400085449219</v>
+      </c>
+      <c r="D26" t="n">
+        <v>275.3399963378906</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1694.675848856644</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-50.46982941966871</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10.16014672371994</v>
+      </c>
+      <c r="C27" t="n">
+        <v>170.25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>169.0299987792969</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1717.369588307858</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-12.39539140546117</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>9.564190787556859</v>
+      </c>
+      <c r="C28" t="n">
+        <v>179.7200012207031</v>
+      </c>
+      <c r="D28" t="n">
+        <v>173.1999969482422</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1656.517815217254</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-62.35856479750237</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>6.011127251596943</v>
+      </c>
+      <c r="C29" t="n">
+        <v>284.75</v>
+      </c>
+      <c r="D29" t="n">
+        <v>285.3399963378906</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1715.215027957266</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.546543065036758</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>6.819050120070956</v>
+      </c>
+      <c r="C30" t="n">
+        <v>249</v>
+      </c>
+      <c r="D30" t="n">
+        <v>242.5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1653.619654117207</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-44.32382578046122</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>7.311342815162919</v>
+      </c>
+      <c r="C31" t="n">
+        <v>227.9499969482422</v>
+      </c>
+      <c r="D31" t="n">
+        <v>226.3899993896484</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1655.214895462244</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-11.40567694169613</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5.667916939793751</v>
+      </c>
+      <c r="C32" t="n">
+        <v>284.3099975585938</v>
+      </c>
+      <c r="D32" t="n">
+        <v>284.75</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1613.939348606271</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.493897291197072</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>16.71424234204848</v>
+      </c>
+      <c r="C33" t="n">
+        <v>95.56999969482422</v>
+      </c>
+      <c r="D33" t="n">
+        <v>94.76999664306641</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1584.008690647333</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-13.3714448814585</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>55.18069995702868</v>
+      </c>
+      <c r="C34" t="n">
+        <v>27.10000038146973</v>
+      </c>
+      <c r="D34" t="n">
+        <v>27.32999992370605</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1508.08852561564</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>12.69153573039671</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>23.82268611003495</v>
+      </c>
+      <c r="C35" t="n">
+        <v>62.54000091552734</v>
+      </c>
+      <c r="D35" t="n">
+        <v>62.79000091552734</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1495.826482659415</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.955671527508912</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>GLW</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>16.93134317267092</v>
+      </c>
+      <c r="C36" t="n">
+        <v>87.09999847412109</v>
+      </c>
+      <c r="D36" t="n">
+        <v>87.86000061035156</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1487.587821484939</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>12.86785698048106</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>5.175123251193573</v>
+      </c>
+      <c r="C37" t="n">
+        <v>270.1400146484375</v>
+      </c>
+      <c r="D37" t="n">
+        <v>269.7699890136719</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1396.092942618888</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-1.914928266013249</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>14.99020940684487</v>
+      </c>
+      <c r="C38" t="n">
+        <v>92.91000366210938</v>
+      </c>
+      <c r="D38" t="n">
+        <v>93.59999847412109</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1403.083577607436</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>10.34316672169211</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>LDOS</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>7.125829194645677</v>
+      </c>
+      <c r="C39" t="n">
+        <v>195.0700073242188</v>
+      </c>
+      <c r="D39" t="n">
+        <v>194.7599945068359</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1387.826454805843</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-2.209098384820663</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>7.111338090324878</v>
+      </c>
+      <c r="C40" t="n">
+        <v>187.8999938964844</v>
+      </c>
+      <c r="D40" t="n">
+        <v>175.0500030517578</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1244.839754413452</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-91.38062935442986</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2.140621922011538</v>
+      </c>
+      <c r="C41" t="n">
+        <v>567.6400146484375</v>
+      </c>
+      <c r="D41" t="n">
+        <v>565.97998046875</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1211.549153611069</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-3.553505556327536</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HUBB</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2.515968105241401</v>
+      </c>
+      <c r="C42" t="n">
+        <v>468.0599975585938</v>
+      </c>
+      <c r="D42" t="n">
+        <v>461.4700012207031</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1161.043804597</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-16.58022059979044</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>15.97905503952838</v>
+      </c>
+      <c r="C43" t="n">
+        <v>72.01000213623047</v>
+      </c>
+      <c r="D43" t="n">
+        <v>70.05999755859375</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1119.492557057993</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-31.15923047338947</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2.120716768974821</v>
+      </c>
+      <c r="C44" t="n">
+        <v>534.1400146484375</v>
+      </c>
+      <c r="D44" t="n">
+        <v>532.52001953125</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1129.324135234721</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-3.435550810676887</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>29.35842599620497</v>
+      </c>
+      <c r="C45" t="n">
+        <v>38.38000106811523</v>
+      </c>
+      <c r="D45" t="n">
+        <v>37.2400016784668</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1093.307833375816</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-33.46858771671259</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>5.922606817274549</v>
+      </c>
+      <c r="C46" t="n">
+        <v>187.5899963378906</v>
+      </c>
+      <c r="D46" t="n">
+        <v>185.0200042724609</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1095.800738636243</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-15.22105252705524</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>7.102500905686784</v>
+      </c>
+      <c r="C47" t="n">
+        <v>154.1300048828125</v>
+      </c>
+      <c r="D47" t="n">
+        <v>152.9199981689453</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1086.114425492555</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-8.594073781128827</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>6.974537965077004</v>
+      </c>
+      <c r="C48" t="n">
+        <v>152.4100036621094</v>
+      </c>
+      <c r="D48" t="n">
+        <v>149.1799926757812</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1040.461522547146</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-22.52783425176131</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>6.826749294328571</v>
+      </c>
+      <c r="C49" t="n">
+        <v>146.7700042724609</v>
+      </c>
+      <c r="D49" t="n">
+        <v>147.4900054931641</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1006.877290920975</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4.915267825350838</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.076117774861406</v>
+      </c>
+      <c r="C50" t="n">
+        <v>925.8099975585938</v>
+      </c>
+      <c r="D50" t="n">
+        <v>937.4400024414062</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1008.795849493317</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>12.51525497611942</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>8.999010983827569</v>
+      </c>
+      <c r="C51" t="n">
+        <v>110.0500030517578</v>
+      </c>
+      <c r="D51" t="n">
+        <v>110.620002746582</v>
+      </c>
+      <c r="E51" t="n">
+        <v>995.4706197475275</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.129433514501443</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1.916363359004931</v>
+      </c>
+      <c r="C52" t="n">
+        <v>462.0700073242188</v>
+      </c>
+      <c r="D52" t="n">
+        <v>445.9100036621094</v>
+      </c>
+      <c r="E52" t="n">
+        <v>854.5255924318209</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-30.96843889945194</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>11.72510320164664</v>
+      </c>
+      <c r="C53" t="n">
+        <v>74.66000366210938</v>
+      </c>
+      <c r="D53" t="n">
+        <v>72.83000183105469</v>
+      </c>
+      <c r="E53" t="n">
+        <v>853.9392876452297</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-21.45696032831847</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.340646194301646</v>
+      </c>
+      <c r="C54" t="n">
+        <v>644.1900024414062</v>
+      </c>
+      <c r="D54" t="n">
+        <v>646.8699951171875</v>
+      </c>
+      <c r="E54" t="n">
+        <v>867.2237971617817</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.592921981542418</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5791446224389892</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1439.72998046875</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1439.619995117188</v>
+      </c>
+      <c r="E55" t="n">
+        <v>833.7481785277631</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.06369742490448971</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CINF</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>5.108315945399609</v>
+      </c>
+      <c r="C56" t="n">
+        <v>160.0399932861328</v>
+      </c>
+      <c r="D56" t="n">
+        <v>161.3800048828125</v>
+      </c>
+      <c r="E56" t="n">
+        <v>824.3800522115378</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>6.845202606339171</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1.656943001723114</v>
+      </c>
+      <c r="C57" t="n">
+        <v>436.1600036621094</v>
+      </c>
+      <c r="D57" t="n">
+        <v>435.6000061035156</v>
+      </c>
+      <c r="E57" t="n">
+        <v>721.7643816637658</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.9278840356939781</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2.585561790014465</v>
+      </c>
+      <c r="C58" t="n">
+        <v>275.7699890136719</v>
+      </c>
+      <c r="D58" t="n">
+        <v>278.4700012207031</v>
+      </c>
+      <c r="E58" t="n">
+        <v>720.0013948215314</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>6.981048395072548</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>9.684811677423339</v>
+      </c>
+      <c r="C59" t="n">
+        <v>72.91000366210938</v>
+      </c>
+      <c r="D59" t="n">
+        <v>71.54000091552734</v>
+      </c>
+      <c r="E59" t="n">
+        <v>692.8514362695755</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-13.26821859819972</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>HOLX</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>9.193802787537088</v>
+      </c>
+      <c r="C60" t="n">
+        <v>74.23000335693359</v>
+      </c>
+      <c r="D60" t="n">
+        <v>74.15000152587891</v>
+      </c>
+      <c r="E60" t="n">
+        <v>681.7204907245048</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.7355210573587101</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>IBKR</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>8.989502572709304</v>
+      </c>
+      <c r="C61" t="n">
+        <v>71.62000274658203</v>
+      </c>
+      <c r="D61" t="n">
+        <v>69.86000061035156</v>
+      </c>
+      <c r="E61" t="n">
+        <v>628.0066552162289</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-15.82154373161768</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>JBL</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2.938306188177462</v>
+      </c>
+      <c r="C62" t="n">
+        <v>218.1499938964844</v>
+      </c>
+      <c r="D62" t="n">
+        <v>215.0599975585938</v>
+      </c>
+      <c r="E62" t="n">
+        <v>631.9121216558459</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-9.079355361069815</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>5.033176759381448</v>
+      </c>
+      <c r="C63" t="n">
+        <v>123.8199996948242</v>
+      </c>
+      <c r="D63" t="n">
+        <v>124</v>
+      </c>
+      <c r="E63" t="n">
+        <v>624.1139181632996</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.9059733526922855</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2.24345233018608</v>
+      </c>
+      <c r="C64" t="n">
+        <v>256.1000061035156</v>
+      </c>
+      <c r="D64" t="n">
+        <v>258.8599853515625</v>
+      </c>
+      <c r="E64" t="n">
+        <v>580.7400373288974</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>6.191881875296076</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3.444254153110434</v>
+      </c>
+      <c r="C65" t="n">
+        <v>164.3200073242188</v>
+      </c>
+      <c r="D65" t="n">
+        <v>163.8500061035156</v>
+      </c>
+      <c r="E65" t="n">
+        <v>564.3410640092037</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-1.618803656373643</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3.362404605086367</v>
+      </c>
+      <c r="C66" t="n">
+        <v>165.1799926757812</v>
+      </c>
+      <c r="D66" t="n">
+        <v>163.4199981689453</v>
+      </c>
+      <c r="E66" t="n">
+        <v>549.4841544064673</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-5.917813634711933</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MPWR</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5504400448146793</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1000.150024414062</v>
+      </c>
+      <c r="D67" t="n">
+        <v>958.0700073242188</v>
+      </c>
+      <c r="E67" t="n">
+        <v>527.3600977671431</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-23.16252649273611</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3.50515051407958</v>
+      </c>
+      <c r="C68" t="n">
+        <v>153.1300048828125</v>
+      </c>
+      <c r="D68" t="n">
+        <v>148.2299957275391</v>
+      </c>
+      <c r="E68" t="n">
+        <v>519.5684457263975</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-17.17526960960129</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>3.896591007738979</v>
+      </c>
+      <c r="C69" t="n">
+        <v>122.5800018310547</v>
+      </c>
+      <c r="D69" t="n">
+        <v>123.4000015258789</v>
+      </c>
+      <c r="E69" t="n">
+        <v>480.8393363007161</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>3.195203437200803</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>VTRS</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>43.51627009470931</v>
+      </c>
+      <c r="C70" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="D70" t="n">
+        <v>10.10999965667725</v>
+      </c>
+      <c r="E70" t="n">
+        <v>439.9494757173854</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-27.85042780073968</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2.429981795713264</v>
+      </c>
+      <c r="C71" t="n">
+        <v>162.2299957275391</v>
+      </c>
+      <c r="D71" t="n">
+        <v>160.2299957275391</v>
+      </c>
+      <c r="E71" t="n">
+        <v>389.3559727451341</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-4.859963591426492</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2.54406384950738</v>
+      </c>
+      <c r="C72" t="n">
+        <v>153.4299926757812</v>
+      </c>
+      <c r="D72" t="n">
+        <v>156.7400054931641</v>
+      </c>
+      <c r="E72" t="n">
+        <v>398.7565817467468</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>8.420883950109726</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>3.17195913571397</v>
+      </c>
+      <c r="C73" t="n">
+        <v>119.7600021362305</v>
+      </c>
+      <c r="D73" t="n">
+        <v>119.5299987792969</v>
+      </c>
+      <c r="E73" t="n">
+        <v>379.1442716198704</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-0.7295612492704322</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2.147603083798681</v>
+      </c>
+      <c r="C74" t="n">
+        <v>173.1900024414062</v>
+      </c>
+      <c r="D74" t="n">
+        <v>170.1000061035156</v>
+      </c>
+      <c r="E74" t="n">
+        <v>365.3072976620846</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-6.636085664180541</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>6.392142023666748</v>
+      </c>
+      <c r="C75" t="n">
+        <v>55.9900016784668</v>
+      </c>
+      <c r="D75" t="n">
+        <v>56.27999877929688</v>
+      </c>
+      <c r="E75" t="n">
+        <v>359.7497452890569</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.853702654957488</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9188190289795432</v>
+      </c>
+      <c r="C76" t="n">
+        <v>358.9800109863281</v>
+      </c>
+      <c r="D76" t="n">
+        <v>355.5899963378906</v>
+      </c>
+      <c r="E76" t="n">
+        <v>326.72285515002</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-3.114809967503732</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>HOOD</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2.280964430695299</v>
+      </c>
+      <c r="C77" t="n">
+        <v>142.4799957275391</v>
+      </c>
+      <c r="D77" t="n">
+        <v>127.0800018310547</v>
+      </c>
+      <c r="E77" t="n">
+        <v>289.8649640293293</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-35.12683831080557</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>EME</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.4811263509374136</v>
+      </c>
+      <c r="C78" t="n">
+        <v>675.4199829101562</v>
+      </c>
+      <c r="D78" t="n">
+        <v>653.75</v>
+      </c>
+      <c r="E78" t="n">
+        <v>314.5363519253341</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-10.42599980243961</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.8502779817418759</v>
+      </c>
+      <c r="C79" t="n">
+        <v>365.7999877929688</v>
+      </c>
+      <c r="D79" t="n">
+        <v>365.7300109863281</v>
+      </c>
+      <c r="E79" t="n">
+        <v>310.9721756038892</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-0.05949973791911134</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>CNC</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>8.291729210705691</v>
+      </c>
+      <c r="C80" t="n">
+        <v>36.84000015258789</v>
+      </c>
+      <c r="D80" t="n">
+        <v>37.09999847412109</v>
+      </c>
+      <c r="E80" t="n">
+        <v>307.6231410650065</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2.155835677391337</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>3.159392446141624</v>
+      </c>
+      <c r="C81" t="n">
+        <v>92.38999938964844</v>
+      </c>
+      <c r="D81" t="n">
+        <v>92.77999877929688</v>
+      </c>
+      <c r="E81" t="n">
+        <v>293.1284272963396</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.232161125655125</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>PYPL</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>4.03616314274821</v>
+      </c>
+      <c r="C82" t="n">
+        <v>68.05999755859375</v>
+      </c>
+      <c r="D82" t="n">
+        <v>66.26000213623047</v>
+      </c>
+      <c r="E82" t="n">
+        <v>267.436178460671</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-7.265075180858219</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>BBY</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>3.207300725218142</v>
+      </c>
+      <c r="C83" t="n">
+        <v>80.87999725341797</v>
+      </c>
+      <c r="D83" t="n">
+        <v>78.66999816894531</v>
+      </c>
+      <c r="E83" t="n">
+        <v>252.3183421801682</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-7.088131666360596</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2.411784783151613</v>
+      </c>
+      <c r="C84" t="n">
+        <v>104.9199981689453</v>
+      </c>
+      <c r="D84" t="n">
+        <v>101.9700012207031</v>
+      </c>
+      <c r="E84" t="n">
+        <v>245.9296972820432</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-7.114757750114194</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>HWM</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1.192786783037617</v>
+      </c>
+      <c r="C85" t="n">
+        <v>206.3099975585938</v>
+      </c>
+      <c r="D85" t="n">
+        <v>205.7200012207031</v>
+      </c>
+      <c r="E85" t="n">
+        <v>245.3800984625371</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-0.7037398338765399</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1.082915567426313</v>
+      </c>
+      <c r="C86" t="n">
+        <v>200.7400054931641</v>
+      </c>
+      <c r="D86" t="n">
+        <v>200.3800048828125</v>
+      </c>
+      <c r="E86" t="n">
+        <v>216.9946266885582</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-0.3898502652326954</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>AES</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>14.53254274010203</v>
+      </c>
+      <c r="C87" t="n">
+        <v>14.22000026702881</v>
+      </c>
+      <c r="D87" t="n">
+        <v>14.1899995803833</v>
+      </c>
+      <c r="E87" t="n">
+        <v>206.2167753839502</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-0.4359862609082654</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.7164910111232562</v>
+      </c>
+      <c r="C88" t="n">
+        <v>210.1199951171875</v>
+      </c>
+      <c r="D88" t="n">
+        <v>210.8600006103516</v>
+      </c>
+      <c r="E88" t="n">
+        <v>151.0792950427612</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.5302072840338781</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ZTS</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.094751317947027</v>
+      </c>
+      <c r="C89" t="n">
+        <v>120.4899978637695</v>
+      </c>
+      <c r="D89" t="n">
+        <v>119.5599975585938</v>
+      </c>
+      <c r="E89" t="n">
+        <v>130.8884649010138</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1.018119059782322</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.446525023052585</v>
+      </c>
+      <c r="C90" t="n">
+        <v>277.3900146484375</v>
+      </c>
+      <c r="D90" t="n">
+        <v>271.9800109863281</v>
+      </c>
+      <c r="E90" t="n">
+        <v>121.4458806755125</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-2.415702009937959</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1.976640261042096</v>
+      </c>
+      <c r="C91" t="n">
+        <v>36.54999923706055</v>
+      </c>
+      <c r="D91" t="n">
+        <v>36.36000061035156</v>
+      </c>
+      <c r="E91" t="n">
+        <v>71.8706410979361</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-0.3755589350956825</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.09421770282065414</v>
+      </c>
+      <c r="C92" t="n">
+        <v>91.95999908447266</v>
+      </c>
+      <c r="D92" t="n">
+        <v>91.26000213623047</v>
+      </c>
+      <c r="E92" t="n">
+        <v>8.598307760683625</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-0.06595210444484678</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 

--- a/backtest_portfolio_PL.xlsx
+++ b/backtest_portfolio_PL.xlsx
@@ -28,6 +28,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-06_Allocations" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-05_PnL" sheetId="21" state="visible" r:id="rId21"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-06_PnL" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-07_Allocations" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-07_PnL" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -30345,6 +30347,3804 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Allocation_Percent</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Target_Value</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Actual_Shares</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.07932298484724096</v>
+      </c>
+      <c r="C2" t="n">
+        <v>162.1900024414062</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9569.783944975063</v>
+      </c>
+      <c r="E2" t="n">
+        <v>59.00353783170021</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.07603565413088466</v>
+      </c>
+      <c r="C3" t="n">
+        <v>233.5299987792969</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9173.189631589185</v>
+      </c>
+      <c r="E3" t="n">
+        <v>39.28056215278161</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.05777423973410276</v>
+      </c>
+      <c r="C4" t="n">
+        <v>156.7400054931641</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6970.072960634279</v>
+      </c>
+      <c r="E4" t="n">
+        <v>44.46901056755588</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HOOD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.05367543781681008</v>
+      </c>
+      <c r="C5" t="n">
+        <v>127.0800018310547</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6475.580111464789</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50.95672031917098</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.04124713959308426</v>
+      </c>
+      <c r="C6" t="n">
+        <v>242.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4976.189625418168</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20.52036958935327</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.04094277542387142</v>
+      </c>
+      <c r="C7" t="n">
+        <v>243.0399932861328</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4939.470138051828</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20.32369270285715</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0376588710060428</v>
+      </c>
+      <c r="C8" t="n">
+        <v>71.04000091552734</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4543.289184509935</v>
+      </c>
+      <c r="E8" t="n">
+        <v>63.95395729108021</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02838121864529531</v>
+      </c>
+      <c r="C9" t="n">
+        <v>351.2999877929688</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3424.002904752278</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.746663887646196</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.02652111834191165</v>
+      </c>
+      <c r="C10" t="n">
+        <v>547.780029296875</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3199.594329436502</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.841020406573547</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02623679059447917</v>
+      </c>
+      <c r="C11" t="n">
+        <v>110.620002746582</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3165.29210142869</v>
+      </c>
+      <c r="E11" t="n">
+        <v>28.61410253876072</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02620143993861553</v>
+      </c>
+      <c r="C12" t="n">
+        <v>87.77999877929688</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3161.027282857129</v>
+      </c>
+      <c r="E12" t="n">
+        <v>36.01079205759416</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.02410465021873586</v>
+      </c>
+      <c r="C13" t="n">
+        <v>371.1600036621094</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2908.063723354978</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.83506761144009</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.02346324739518281</v>
+      </c>
+      <c r="C14" t="n">
+        <v>68.83999633789062</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2830.682792028197</v>
+      </c>
+      <c r="E14" t="n">
+        <v>41.11974059577549</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.02235746075466328</v>
+      </c>
+      <c r="C15" t="n">
+        <v>131.8300018310547</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2697.277080437911</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20.46026733652463</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0171095492070544</v>
+      </c>
+      <c r="C16" t="n">
+        <v>271.9800109863281</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2064.151892704843</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.589351457187063</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01645211583538099</v>
+      </c>
+      <c r="C17" t="n">
+        <v>101.9700012207031</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1984.836983700257</v>
+      </c>
+      <c r="E17" t="n">
+        <v>19.46491085553966</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GLW</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.01640701427047315</v>
+      </c>
+      <c r="C18" t="n">
+        <v>87.86000061035156</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1979.395783617085</v>
+      </c>
+      <c r="E18" t="n">
+        <v>22.52897530009663</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CVS</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01581036187815402</v>
+      </c>
+      <c r="C19" t="n">
+        <v>78.66000366210938</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1907.413690460323</v>
+      </c>
+      <c r="E19" t="n">
+        <v>24.24883805820526</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01446769364626673</v>
+      </c>
+      <c r="C20" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1745.429810079528</v>
+      </c>
+      <c r="E20" t="n">
+        <v>28.85007950544675</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.01431044697378068</v>
+      </c>
+      <c r="C21" t="n">
+        <v>360.239990234375</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1726.459057974628</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.792524719011291</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01426431698389305</v>
+      </c>
+      <c r="C22" t="n">
+        <v>858.6099853515625</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1720.893785343263</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.004278793285445</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01407159559638884</v>
+      </c>
+      <c r="C23" t="n">
+        <v>134.0200042724609</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1697.643247765249</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12.66708844684083</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0137593338650512</v>
+      </c>
+      <c r="C24" t="n">
+        <v>72.83000183105469</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1659.970972712314</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22.79240602743611</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DLR</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01310862026768213</v>
+      </c>
+      <c r="C25" t="n">
+        <v>168.3500061035156</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1581.466759225242</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9.393921603144014</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01310399971079962</v>
+      </c>
+      <c r="C26" t="n">
+        <v>175.1000061035156</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1580.909320153121</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9.028608024253975</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BMY</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.01309010563502742</v>
+      </c>
+      <c r="C27" t="n">
+        <v>46.63000106811523</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1579.23309347669</v>
+      </c>
+      <c r="E27" t="n">
+        <v>33.86731840665862</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01302269742393049</v>
+      </c>
+      <c r="C28" t="n">
+        <v>70.05999755859375</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1571.100746748221</v>
+      </c>
+      <c r="E28" t="n">
+        <v>22.42507567080989</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.01199770199447174</v>
+      </c>
+      <c r="C29" t="n">
+        <v>93.59999847412109</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1447.441950708244</v>
+      </c>
+      <c r="E29" t="n">
+        <v>15.46412365710068</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0119095215105411</v>
+      </c>
+      <c r="C30" t="n">
+        <v>163.6000061035156</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1436.803569147027</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8.782417576671175</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01153169167723523</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1206.400024414062</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1391.220944140338</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.153200361394257</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AES</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0110542293712846</v>
+      </c>
+      <c r="C32" t="n">
+        <v>14.1899995803833</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1333.618332254054</v>
+      </c>
+      <c r="E32" t="n">
+        <v>93.9829719302945</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.01058413141179475</v>
+      </c>
+      <c r="C33" t="n">
+        <v>96.98999786376953</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1276.904179175283</v>
+      </c>
+      <c r="E33" t="n">
+        <v>13.16531814928793</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>GEHC</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.008557405959917865</v>
+      </c>
+      <c r="C34" t="n">
+        <v>74.16999816894531</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1032.393401780875</v>
+      </c>
+      <c r="E34" t="n">
+        <v>13.919285793014</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.008397108705004578</v>
+      </c>
+      <c r="C35" t="n">
+        <v>85.59000396728516</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1013.054617449361</v>
+      </c>
+      <c r="E35" t="n">
+        <v>11.83613238102639</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.008360355644881825</v>
+      </c>
+      <c r="C36" t="n">
+        <v>63.43000030517578</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1008.620608248008</v>
+      </c>
+      <c r="E36" t="n">
+        <v>15.90131804186207</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.007981764578775573</v>
+      </c>
+      <c r="C37" t="n">
+        <v>565.97998046875</v>
+      </c>
+      <c r="D37" t="n">
+        <v>962.9461456302465</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.701378456589092</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CBRE</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.007619803472343422</v>
+      </c>
+      <c r="C38" t="n">
+        <v>149.9900054931641</v>
+      </c>
+      <c r="D38" t="n">
+        <v>919.2779756576904</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6.128928208483781</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.007260345205738991</v>
+      </c>
+      <c r="C39" t="n">
+        <v>365.7300109863281</v>
+      </c>
+      <c r="D39" t="n">
+        <v>875.9117564557247</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.394968228320941</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>DVA</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.006670974553374436</v>
+      </c>
+      <c r="C40" t="n">
+        <v>121.5299987792969</v>
+      </c>
+      <c r="D40" t="n">
+        <v>804.8081561877883</v>
+      </c>
+      <c r="E40" t="n">
+        <v>6.622300372514203</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AXON</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.006562314583510837</v>
+      </c>
+      <c r="C41" t="n">
+        <v>587.1400146484375</v>
+      </c>
+      <c r="D41" t="n">
+        <v>791.6990625617142</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.348399091885708</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HWM</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.006374120170996832</v>
+      </c>
+      <c r="C42" t="n">
+        <v>205.6000061035156</v>
+      </c>
+      <c r="D42" t="n">
+        <v>768.9946740307122</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.740246357986674</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.006324318836795549</v>
+      </c>
+      <c r="C43" t="n">
+        <v>58.02000045776367</v>
+      </c>
+      <c r="D43" t="n">
+        <v>762.9864784314723</v>
+      </c>
+      <c r="E43" t="n">
+        <v>13.15040455725086</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>UNP</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.006132148954450109</v>
+      </c>
+      <c r="C44" t="n">
+        <v>217.9900054931641</v>
+      </c>
+      <c r="D44" t="n">
+        <v>739.8024762369165</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.393744931393728</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SWK</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.006109981707425258</v>
+      </c>
+      <c r="C45" t="n">
+        <v>67.47000122070312</v>
+      </c>
+      <c r="D45" t="n">
+        <v>737.1281471620432</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10.92527247407039</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.005477678446207911</v>
+      </c>
+      <c r="C46" t="n">
+        <v>284.75</v>
+      </c>
+      <c r="D46" t="n">
+        <v>660.8450167527919</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.320790225646328</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.005411273058061387</v>
+      </c>
+      <c r="C47" t="n">
+        <v>355.5899963378906</v>
+      </c>
+      <c r="D47" t="n">
+        <v>652.8336538600787</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.835916815949287</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CNC</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.005222425044578849</v>
+      </c>
+      <c r="C48" t="n">
+        <v>37.09999847412109</v>
+      </c>
+      <c r="D48" t="n">
+        <v>630.050412773703</v>
+      </c>
+      <c r="E48" t="n">
+        <v>16.98249160881209</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.004828013223446304</v>
+      </c>
+      <c r="C49" t="n">
+        <v>269.7699890136719</v>
+      </c>
+      <c r="D49" t="n">
+        <v>582.4672826021472</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2.159125574834152</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.004666330507795211</v>
+      </c>
+      <c r="C50" t="n">
+        <v>475.3800048828125</v>
+      </c>
+      <c r="D50" t="n">
+        <v>562.9613517625866</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.184234393496134</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CTRA</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.004636741454939017</v>
+      </c>
+      <c r="C51" t="n">
+        <v>26.3700008392334</v>
+      </c>
+      <c r="D51" t="n">
+        <v>559.3916317940865</v>
+      </c>
+      <c r="E51" t="n">
+        <v>21.21318217638512</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.004617317128190202</v>
+      </c>
+      <c r="C52" t="n">
+        <v>108.4199981689453</v>
+      </c>
+      <c r="D52" t="n">
+        <v>557.0482175791432</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5.13787333505691</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.004599557749323312</v>
+      </c>
+      <c r="C53" t="n">
+        <v>275.3399963378906</v>
+      </c>
+      <c r="D53" t="n">
+        <v>554.905668114062</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.015347118088485</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.004542133349911796</v>
+      </c>
+      <c r="C54" t="n">
+        <v>471.3599853515625</v>
+      </c>
+      <c r="D54" t="n">
+        <v>547.9778010324532</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.162546287470171</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>EBAY</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.004536014304875768</v>
+      </c>
+      <c r="C55" t="n">
+        <v>80.84999847412109</v>
+      </c>
+      <c r="D55" t="n">
+        <v>547.2395794557294</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6.768578723361298</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.004009099855122677</v>
+      </c>
+      <c r="C56" t="n">
+        <v>295.2200012207031</v>
+      </c>
+      <c r="D56" t="n">
+        <v>483.6708994403066</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.638340550912469</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>LKQ</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.003996152513895684</v>
+      </c>
+      <c r="C57" t="n">
+        <v>30.02000045776367</v>
+      </c>
+      <c r="D57" t="n">
+        <v>482.1088899112552</v>
+      </c>
+      <c r="E57" t="n">
+        <v>16.05958969219715</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.003744251009570338</v>
+      </c>
+      <c r="C58" t="n">
+        <v>163.8500061035156</v>
+      </c>
+      <c r="D58" t="n">
+        <v>451.7186697695126</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.756903588298495</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TDY</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.003708774963529094</v>
+      </c>
+      <c r="C59" t="n">
+        <v>506.6799926757812</v>
+      </c>
+      <c r="D59" t="n">
+        <v>447.4387237174258</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.8830795180099735</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.003273802945045344</v>
+      </c>
+      <c r="C60" t="n">
+        <v>176.0099945068359</v>
+      </c>
+      <c r="D60" t="n">
+        <v>394.9622788759282</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2.24397642862598</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>UAL</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.003182191444030683</v>
+      </c>
+      <c r="C61" t="n">
+        <v>95.72000122070312</v>
+      </c>
+      <c r="D61" t="n">
+        <v>383.9099682086795</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4.010760168331927</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.003089216179219811</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1439.619995117188</v>
+      </c>
+      <c r="D62" t="n">
+        <v>372.693128623276</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.2588829898774351</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.003058950283708984</v>
+      </c>
+      <c r="C63" t="n">
+        <v>57.81000137329102</v>
+      </c>
+      <c r="D63" t="n">
+        <v>369.0417521464884</v>
+      </c>
+      <c r="E63" t="n">
+        <v>6.383700802280045</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>AVB</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.003058708953217904</v>
+      </c>
+      <c r="C64" t="n">
+        <v>175.2400054931641</v>
+      </c>
+      <c r="D64" t="n">
+        <v>369.0126372479073</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2.105755681811492</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.003018121629956755</v>
+      </c>
+      <c r="C65" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="D65" t="n">
+        <v>364.116050019602</v>
+      </c>
+      <c r="E65" t="n">
+        <v>16.24068014186157</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.002406987417346244</v>
+      </c>
+      <c r="C66" t="n">
+        <v>937.4400024414062</v>
+      </c>
+      <c r="D66" t="n">
+        <v>290.3868227681584</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.3097657684885372</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.002287662708046509</v>
+      </c>
+      <c r="C67" t="n">
+        <v>285.3399963378906</v>
+      </c>
+      <c r="D67" t="n">
+        <v>275.9911001476028</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.9672359419980606</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.001948240983821493</v>
+      </c>
+      <c r="C68" t="n">
+        <v>210.6699981689453</v>
+      </c>
+      <c r="D68" t="n">
+        <v>235.0421548536298</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.115688787660877</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.001639085976657081</v>
+      </c>
+      <c r="C69" t="n">
+        <v>124</v>
+      </c>
+      <c r="D69" t="n">
+        <v>197.7446851508928</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.594715202829781</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.00150605008169869</v>
+      </c>
+      <c r="C70" t="n">
+        <v>23.63999938964844</v>
+      </c>
+      <c r="D70" t="n">
+        <v>181.6948003144867</v>
+      </c>
+      <c r="E70" t="n">
+        <v>7.685905457089304</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>APD</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.001378096196451538</v>
+      </c>
+      <c r="C71" t="n">
+        <v>258.7900085449219</v>
+      </c>
+      <c r="D71" t="n">
+        <v>166.2580257264719</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.642443758401948</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PSKY</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.001228229191631706</v>
+      </c>
+      <c r="C72" t="n">
+        <v>14.80000019073486</v>
+      </c>
+      <c r="D72" t="n">
+        <v>148.1775808293431</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10.0119985756558</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.00121430744204888</v>
+      </c>
+      <c r="C73" t="n">
+        <v>123.4000015258789</v>
+      </c>
+      <c r="D73" t="n">
+        <v>146.4980154940211</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.18718001363475</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.001012962749056649</v>
+      </c>
+      <c r="C74" t="n">
+        <v>163.4199981689453</v>
+      </c>
+      <c r="D74" t="n">
+        <v>122.2071341799401</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.7478101551170073</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>TRMB</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0009909054374054613</v>
+      </c>
+      <c r="C75" t="n">
+        <v>78.81999969482422</v>
+      </c>
+      <c r="D75" t="n">
+        <v>119.5460680675723</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.516697139437092</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0009101940143863123</v>
+      </c>
+      <c r="C76" t="n">
+        <v>163.0800018310547</v>
+      </c>
+      <c r="D76" t="n">
+        <v>109.8087784071769</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.6733430045023855</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.000830419451282133</v>
+      </c>
+      <c r="C77" t="n">
+        <v>170.1000061035156</v>
+      </c>
+      <c r="D77" t="n">
+        <v>100.1845145865205</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.5889741974821122</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ROL</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0007492526422755881</v>
+      </c>
+      <c r="C78" t="n">
+        <v>58.65000152587891</v>
+      </c>
+      <c r="D78" t="n">
+        <v>90.39228567340609</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.541215401904485</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0006800956462985395</v>
+      </c>
+      <c r="C79" t="n">
+        <v>445.9100036621094</v>
+      </c>
+      <c r="D79" t="n">
+        <v>82.04895982581748</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.1840034068578343</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SYK</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0006013042667715897</v>
+      </c>
+      <c r="C80" t="n">
+        <v>353.8099975585938</v>
+      </c>
+      <c r="D80" t="n">
+        <v>72.543310482799</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.2050346541459311</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.000596404968009304</v>
+      </c>
+      <c r="C81" t="n">
+        <v>258.8599853515625</v>
+      </c>
+      <c r="D81" t="n">
+        <v>71.95224307998696</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.2779581517099574</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>IBKR</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.0005780429331686965</v>
+      </c>
+      <c r="C82" t="n">
+        <v>69.86000061035156</v>
+      </c>
+      <c r="D82" t="n">
+        <v>69.73698723008268</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.9982391443001124</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.0001874957331702002</v>
+      </c>
+      <c r="C83" t="n">
+        <v>70.93000030517578</v>
+      </c>
+      <c r="D83" t="n">
+        <v>22.62009757321833</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.3189073378809466</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.0001859591957377702</v>
+      </c>
+      <c r="C84" t="n">
+        <v>217.4900054931641</v>
+      </c>
+      <c r="D84" t="n">
+        <v>22.43472467934603</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.1031528995020931</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>AVY</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>6.275084676266554e-05</v>
+      </c>
+      <c r="C85" t="n">
+        <v>171.9499969482422</v>
+      </c>
+      <c r="D85" t="n">
+        <v>7.570467085163328</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.04402714288760398</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Shares</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Exit_Price</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Sale_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Transaction_Cost</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Gain_Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>59.00353783170021</v>
+      </c>
+      <c r="C2" t="n">
+        <v>162.1900024414062</v>
+      </c>
+      <c r="D2" t="n">
+        <v>159.3500061035156</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9402.214113610444</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-167.5698313646189</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>39.28056215278161</v>
+      </c>
+      <c r="C3" t="n">
+        <v>233.5299987792969</v>
+      </c>
+      <c r="D3" t="n">
+        <v>230.0700073242188</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9037.279222189896</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-135.9104093992883</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>44.46901056755588</v>
+      </c>
+      <c r="C4" t="n">
+        <v>156.7400054931641</v>
+      </c>
+      <c r="D4" t="n">
+        <v>155.5099945068359</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6915.375589085043</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-54.69737154923587</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HOOD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>50.95672031917098</v>
+      </c>
+      <c r="C5" t="n">
+        <v>127.0800018310547</v>
+      </c>
+      <c r="D5" t="n">
+        <v>130.3600006103516</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6642.718091908642</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>167.1379804438529</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>20.52036958935327</v>
+      </c>
+      <c r="C6" t="n">
+        <v>242.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>242.4199981689453</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4974.547958277101</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1.641667141067046</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20.32369270285715</v>
+      </c>
+      <c r="C7" t="n">
+        <v>243.0399932861328</v>
+      </c>
+      <c r="D7" t="n">
+        <v>244.4100036621094</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4967.313807932902</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>27.84366988107377</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>63.95395729108021</v>
+      </c>
+      <c r="C8" t="n">
+        <v>71.04000091552734</v>
+      </c>
+      <c r="D8" t="n">
+        <v>71.06999969482422</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4545.207725159871</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.918540649936403</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9.746663887646196</v>
+      </c>
+      <c r="C9" t="n">
+        <v>351.2999877929688</v>
+      </c>
+      <c r="D9" t="n">
+        <v>358.3900146484375</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3493.107013466917</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>69.1041087146391</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.841020406573547</v>
+      </c>
+      <c r="C10" t="n">
+        <v>547.780029296875</v>
+      </c>
+      <c r="D10" t="n">
+        <v>560</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3270.971427681186</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>71.37709824468402</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>28.61410253876072</v>
+      </c>
+      <c r="C11" t="n">
+        <v>110.620002746582</v>
+      </c>
+      <c r="D11" t="n">
+        <v>112.4499969482422</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3217.655743160331</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>52.36364173164111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>36.01079205759416</v>
+      </c>
+      <c r="C12" t="n">
+        <v>87.77999877929688</v>
+      </c>
+      <c r="D12" t="n">
+        <v>87.75</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3159.947003053887</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1.08027980324141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7.83506761144009</v>
+      </c>
+      <c r="C13" t="n">
+        <v>371.1600036621094</v>
+      </c>
+      <c r="D13" t="n">
+        <v>371.6900024414062</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2912.21629962475</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.152576269771998</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>41.11974059577549</v>
+      </c>
+      <c r="C14" t="n">
+        <v>68.83999633789062</v>
+      </c>
+      <c r="D14" t="n">
+        <v>70.75</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2909.221647151116</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>78.5388551229189</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>20.46026733652463</v>
+      </c>
+      <c r="C15" t="n">
+        <v>131.8300018310547</v>
+      </c>
+      <c r="D15" t="n">
+        <v>132.2400054931641</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2705.665864973622</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8.388784535711693</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7.589351457187063</v>
+      </c>
+      <c r="C16" t="n">
+        <v>271.9800109863281</v>
+      </c>
+      <c r="D16" t="n">
+        <v>267.6400146484375</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2031.214135173686</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-32.93775753115665</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>19.46491085553966</v>
+      </c>
+      <c r="C17" t="n">
+        <v>101.9700012207031</v>
+      </c>
+      <c r="D17" t="n">
+        <v>105.7399978637695</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2058.219632283228</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>73.38264858297134</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GLW</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>22.52897530009663</v>
+      </c>
+      <c r="C18" t="n">
+        <v>87.86000061035156</v>
+      </c>
+      <c r="D18" t="n">
+        <v>85.48000335693359</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1925.776884280534</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-53.61889933655107</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CVS</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>24.24883805820526</v>
+      </c>
+      <c r="C19" t="n">
+        <v>78.66000366210938</v>
+      </c>
+      <c r="D19" t="n">
+        <v>78.98999786376953</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1915.415666416527</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8.001975956203751</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>28.85007950544675</v>
+      </c>
+      <c r="C20" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>61.58000183105469</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1776.587948771484</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>31.15813869195586</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4.792524719011291</v>
+      </c>
+      <c r="C21" t="n">
+        <v>360.239990234375</v>
+      </c>
+      <c r="D21" t="n">
+        <v>360.7000122070312</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1728.663724649871</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.204666675243288</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2.004278793285445</v>
+      </c>
+      <c r="C22" t="n">
+        <v>858.6099853515625</v>
+      </c>
+      <c r="D22" t="n">
+        <v>851.989990234375</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1707.625469518231</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-13.268315825032</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>12.66708844684083</v>
+      </c>
+      <c r="C23" t="n">
+        <v>134.0200042724609</v>
+      </c>
+      <c r="D23" t="n">
+        <v>134.6499938964844</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1705.623382053345</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.980134288096906</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>22.79240602743611</v>
+      </c>
+      <c r="C24" t="n">
+        <v>72.83000183105469</v>
+      </c>
+      <c r="D24" t="n">
+        <v>73.19999694824219</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1668.40405165142</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8.433078939106281</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DLR</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9.393921603144014</v>
+      </c>
+      <c r="C25" t="n">
+        <v>168.3500061035156</v>
+      </c>
+      <c r="D25" t="n">
+        <v>169.8899993896484</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1595.933335424542</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>14.46657619929988</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>9.028608024253975</v>
+      </c>
+      <c r="C26" t="n">
+        <v>175.1000061035156</v>
+      </c>
+      <c r="D26" t="n">
+        <v>176.9700012207031</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1597.792773073476</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>16.88345292035478</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BMY</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>33.86731840665862</v>
+      </c>
+      <c r="C27" t="n">
+        <v>46.63000106811523</v>
+      </c>
+      <c r="D27" t="n">
+        <v>46.68999862670898</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1581.265049897207</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.031956420516735</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>22.42507567080989</v>
+      </c>
+      <c r="C28" t="n">
+        <v>70.05999755859375</v>
+      </c>
+      <c r="D28" t="n">
+        <v>71.90000152587891</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1612.362974949181</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>41.26222820095995</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>15.46412365710068</v>
+      </c>
+      <c r="C29" t="n">
+        <v>93.59999847412109</v>
+      </c>
+      <c r="D29" t="n">
+        <v>95.94999694824219</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1483.78261770605</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>36.34066699780647</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>8.782417576671175</v>
+      </c>
+      <c r="C30" t="n">
+        <v>163.6000061035156</v>
+      </c>
+      <c r="D30" t="n">
+        <v>162.9600067138672</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1431.18282725832</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-5.620741888707244</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.153200361394257</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1206.400024414062</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1193.369995117188</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1376.194709646204</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-15.02623449413409</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AES</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>93.9829719302945</v>
+      </c>
+      <c r="C32" t="n">
+        <v>14.1899995803833</v>
+      </c>
+      <c r="D32" t="n">
+        <v>14.13000011444092</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1327.979404130559</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-5.638928123495589</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>13.16531814928793</v>
+      </c>
+      <c r="C33" t="n">
+        <v>96.98999786376953</v>
+      </c>
+      <c r="D33" t="n">
+        <v>98.51999664306641</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1297.047099872748</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>20.14292069746534</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>GEHC</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>13.919285793014</v>
+      </c>
+      <c r="C34" t="n">
+        <v>74.16999816894531</v>
+      </c>
+      <c r="D34" t="n">
+        <v>73.05000305175781</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1016.803869657962</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-15.58953212291306</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>11.83613238102639</v>
+      </c>
+      <c r="C35" t="n">
+        <v>85.59000396728516</v>
+      </c>
+      <c r="D35" t="n">
+        <v>86.04000091552734</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1018.380840899813</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.326223450452403</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>15.90131804186207</v>
+      </c>
+      <c r="C36" t="n">
+        <v>63.43000030517578</v>
+      </c>
+      <c r="D36" t="n">
+        <v>64.91000366210938</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1032.154612329633</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>23.53400408162463</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1.701378456589092</v>
+      </c>
+      <c r="C37" t="n">
+        <v>565.97998046875</v>
+      </c>
+      <c r="D37" t="n">
+        <v>572.4099731445312</v>
+      </c>
+      <c r="E37" t="n">
+        <v>973.8859966448464</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>10.93985101459987</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CBRE</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>6.128928208483781</v>
+      </c>
+      <c r="C38" t="n">
+        <v>149.9900054931641</v>
+      </c>
+      <c r="D38" t="n">
+        <v>152.6499938964844</v>
+      </c>
+      <c r="E38" t="n">
+        <v>935.58085361704</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>16.30287795934964</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2.394968228320941</v>
+      </c>
+      <c r="C39" t="n">
+        <v>365.7300109863281</v>
+      </c>
+      <c r="D39" t="n">
+        <v>368.5400085449219</v>
+      </c>
+      <c r="E39" t="n">
+        <v>882.6416113302161</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6.729854874491366</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>DVA</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>6.622300372514203</v>
+      </c>
+      <c r="C40" t="n">
+        <v>121.5299987792969</v>
+      </c>
+      <c r="D40" t="n">
+        <v>123.6900024414062</v>
+      </c>
+      <c r="E40" t="n">
+        <v>819.1123492440072</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>14.30419305621888</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AXON</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1.348399091885708</v>
+      </c>
+      <c r="C41" t="n">
+        <v>587.1400146484375</v>
+      </c>
+      <c r="D41" t="n">
+        <v>602.510009765625</v>
+      </c>
+      <c r="E41" t="n">
+        <v>812.4239500200176</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>20.72488745830344</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HWM</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3.740246357986674</v>
+      </c>
+      <c r="C42" t="n">
+        <v>205.6000061035156</v>
+      </c>
+      <c r="D42" t="n">
+        <v>206.6600036621094</v>
+      </c>
+      <c r="E42" t="n">
+        <v>772.9593260387172</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.964652008005032</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>13.15040455725086</v>
+      </c>
+      <c r="C43" t="n">
+        <v>58.02000045776367</v>
+      </c>
+      <c r="D43" t="n">
+        <v>55</v>
+      </c>
+      <c r="E43" t="n">
+        <v>723.2722506487972</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-39.71422778267504</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>UNP</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3.393744931393728</v>
+      </c>
+      <c r="C44" t="n">
+        <v>217.9900054931641</v>
+      </c>
+      <c r="D44" t="n">
+        <v>221.4799957275391</v>
+      </c>
+      <c r="E44" t="n">
+        <v>751.6466129054403</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>11.84413666852379</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SWK</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>10.92527247407039</v>
+      </c>
+      <c r="C45" t="n">
+        <v>67.47000122070312</v>
+      </c>
+      <c r="D45" t="n">
+        <v>68.26999664306641</v>
+      </c>
+      <c r="E45" t="n">
+        <v>745.8683151293711</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>8.74016796732792</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2.320790225646328</v>
+      </c>
+      <c r="C46" t="n">
+        <v>284.75</v>
+      </c>
+      <c r="D46" t="n">
+        <v>278.8299865722656</v>
+      </c>
+      <c r="E46" t="n">
+        <v>647.1059074540109</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-13.73910929878105</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1.835916815949287</v>
+      </c>
+      <c r="C47" t="n">
+        <v>355.5899963378906</v>
+      </c>
+      <c r="D47" t="n">
+        <v>349.4299926757812</v>
+      </c>
+      <c r="E47" t="n">
+        <v>641.5243995505028</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-11.30925430957586</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CNC</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>16.98249160881209</v>
+      </c>
+      <c r="C48" t="n">
+        <v>37.09999847412109</v>
+      </c>
+      <c r="D48" t="n">
+        <v>37.56000137329102</v>
+      </c>
+      <c r="E48" t="n">
+        <v>637.8624081488854</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7.811995375182391</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2.159125574834152</v>
+      </c>
+      <c r="C49" t="n">
+        <v>269.7699890136719</v>
+      </c>
+      <c r="D49" t="n">
+        <v>268.4700012207031</v>
+      </c>
+      <c r="E49" t="n">
+        <v>579.6604457113762</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-2.806836890771024</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.184234393496134</v>
+      </c>
+      <c r="C50" t="n">
+        <v>475.3800048828125</v>
+      </c>
+      <c r="D50" t="n">
+        <v>467.7900085449219</v>
+      </c>
+      <c r="E50" t="n">
+        <v>553.9730170527467</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-8.988334709839819</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CTRA</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>21.21318217638512</v>
+      </c>
+      <c r="C51" t="n">
+        <v>26.3700008392334</v>
+      </c>
+      <c r="D51" t="n">
+        <v>26.56999969482422</v>
+      </c>
+      <c r="E51" t="n">
+        <v>563.6342439528031</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4.242612158716611</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>5.13787333505691</v>
+      </c>
+      <c r="C52" t="n">
+        <v>108.4199981689453</v>
+      </c>
+      <c r="D52" t="n">
+        <v>109.6399993896484</v>
+      </c>
+      <c r="E52" t="n">
+        <v>563.3164293197306</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>6.26821174058739</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.015347118088485</v>
+      </c>
+      <c r="C53" t="n">
+        <v>275.3399963378906</v>
+      </c>
+      <c r="D53" t="n">
+        <v>271.0400085449219</v>
+      </c>
+      <c r="E53" t="n">
+        <v>546.2397001076868</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-8.665968006375238</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.162546287470171</v>
+      </c>
+      <c r="C54" t="n">
+        <v>471.3599853515625</v>
+      </c>
+      <c r="D54" t="n">
+        <v>476.6099853515625</v>
+      </c>
+      <c r="E54" t="n">
+        <v>554.0811690416716</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6.103368009218457</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>EBAY</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>6.768578723361298</v>
+      </c>
+      <c r="C55" t="n">
+        <v>80.84999847412109</v>
+      </c>
+      <c r="D55" t="n">
+        <v>83.80000305175781</v>
+      </c>
+      <c r="E55" t="n">
+        <v>567.2069176737398</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>19.96733821801035</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1.638340550912469</v>
+      </c>
+      <c r="C56" t="n">
+        <v>295.2200012207031</v>
+      </c>
+      <c r="D56" t="n">
+        <v>309.1400146484375</v>
+      </c>
+      <c r="E56" t="n">
+        <v>506.4766219082098</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>22.80572246790325</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>LKQ</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>16.05958969219715</v>
+      </c>
+      <c r="C57" t="n">
+        <v>30.02000045776367</v>
+      </c>
+      <c r="D57" t="n">
+        <v>30.3700008392334</v>
+      </c>
+      <c r="E57" t="n">
+        <v>487.7297524297715</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5.620862518516333</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2.756903588298495</v>
+      </c>
+      <c r="C58" t="n">
+        <v>163.8500061035156</v>
+      </c>
+      <c r="D58" t="n">
+        <v>164.8399963378906</v>
+      </c>
+      <c r="E58" t="n">
+        <v>454.4479773990415</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.729307629528932</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TDY</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.8830795180099735</v>
+      </c>
+      <c r="C59" t="n">
+        <v>506.6799926757812</v>
+      </c>
+      <c r="D59" t="n">
+        <v>513.1699829101562</v>
+      </c>
+      <c r="E59" t="n">
+        <v>453.1699011654871</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5.731177448061317</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2.24397642862598</v>
+      </c>
+      <c r="C60" t="n">
+        <v>176.0099945068359</v>
+      </c>
+      <c r="D60" t="n">
+        <v>175.6199951171875</v>
+      </c>
+      <c r="E60" t="n">
+        <v>394.0871294383786</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.8751494375495668</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>UAL</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>4.010760168331927</v>
+      </c>
+      <c r="C61" t="n">
+        <v>95.72000122070312</v>
+      </c>
+      <c r="D61" t="n">
+        <v>97.43000030517578</v>
+      </c>
+      <c r="E61" t="n">
+        <v>390.7683644245665</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>6.858396215887012</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.2588829898774351</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1439.619995117188</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1439.349975585938</v>
+      </c>
+      <c r="E62" t="n">
+        <v>372.6232251597008</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-0.06990346357525823</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>6.383700802280045</v>
+      </c>
+      <c r="C63" t="n">
+        <v>57.81000137329102</v>
+      </c>
+      <c r="D63" t="n">
+        <v>58.88000106811523</v>
+      </c>
+      <c r="E63" t="n">
+        <v>375.8723100567772</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>6.830557910288803</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>AVB</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2.105755681811492</v>
+      </c>
+      <c r="C64" t="n">
+        <v>175.2400054931641</v>
+      </c>
+      <c r="D64" t="n">
+        <v>177.3800048828125</v>
+      </c>
+      <c r="E64" t="n">
+        <v>373.5189531217326</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4.506315873825372</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>16.24068014186157</v>
+      </c>
+      <c r="C65" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="D65" t="n">
+        <v>22.67000007629395</v>
+      </c>
+      <c r="E65" t="n">
+        <v>368.1762200550675</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4.060170035465376</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.3097657684885372</v>
+      </c>
+      <c r="C66" t="n">
+        <v>937.4400024414062</v>
+      </c>
+      <c r="D66" t="n">
+        <v>924.3699951171875</v>
+      </c>
+      <c r="E66" t="n">
+        <v>286.3381819052209</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-4.048640862937475</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9672359419980606</v>
+      </c>
+      <c r="C67" t="n">
+        <v>285.3399963378906</v>
+      </c>
+      <c r="D67" t="n">
+        <v>279.7000122070312</v>
+      </c>
+      <c r="E67" t="n">
+        <v>270.5359047839369</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-5.455195363665894</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1.115688787660877</v>
+      </c>
+      <c r="C68" t="n">
+        <v>210.6699981689453</v>
+      </c>
+      <c r="D68" t="n">
+        <v>209.9400024414062</v>
+      </c>
+      <c r="E68" t="n">
+        <v>234.2277068053741</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-0.8144480482556844</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1.594715202829781</v>
+      </c>
+      <c r="C69" t="n">
+        <v>124</v>
+      </c>
+      <c r="D69" t="n">
+        <v>125.5999984741211</v>
+      </c>
+      <c r="E69" t="n">
+        <v>200.2962270420782</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2.551541891185366</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>7.685905457089304</v>
+      </c>
+      <c r="C70" t="n">
+        <v>23.63999938964844</v>
+      </c>
+      <c r="D70" t="n">
+        <v>23.82999992370605</v>
+      </c>
+      <c r="E70" t="n">
+        <v>183.1551264560501</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.460326141563314</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>APD</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.642443758401948</v>
+      </c>
+      <c r="C71" t="n">
+        <v>258.7900085449219</v>
+      </c>
+      <c r="D71" t="n">
+        <v>259.739990234375</v>
+      </c>
+      <c r="E71" t="n">
+        <v>166.8683355334572</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.610309806985299</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PSKY</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>10.0119985756558</v>
+      </c>
+      <c r="C72" t="n">
+        <v>14.80000019073486</v>
+      </c>
+      <c r="D72" t="n">
+        <v>15.10000038146973</v>
+      </c>
+      <c r="E72" t="n">
+        <v>151.181182311677</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3.00360148233392</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1.18718001363475</v>
+      </c>
+      <c r="C73" t="n">
+        <v>123.4000015258789</v>
+      </c>
+      <c r="D73" t="n">
+        <v>118.8399963378906</v>
+      </c>
+      <c r="E73" t="n">
+        <v>141.0844684727706</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-5.413547021250452</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.7478101551170073</v>
+      </c>
+      <c r="C74" t="n">
+        <v>163.4199981689453</v>
+      </c>
+      <c r="D74" t="n">
+        <v>162.3600006103516</v>
+      </c>
+      <c r="E74" t="n">
+        <v>121.4144572412244</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-0.7926769387156298</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>TRMB</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1.516697139437092</v>
+      </c>
+      <c r="C75" t="n">
+        <v>78.81999969482422</v>
+      </c>
+      <c r="D75" t="n">
+        <v>78.90000152587891</v>
+      </c>
+      <c r="E75" t="n">
+        <v>119.6674066158827</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.1213385483103764</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.6733430045023855</v>
+      </c>
+      <c r="C76" t="n">
+        <v>163.0800018310547</v>
+      </c>
+      <c r="D76" t="n">
+        <v>160.8000030517578</v>
+      </c>
+      <c r="E76" t="n">
+        <v>108.2735571788634</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-1.535221228313532</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5889741974821122</v>
+      </c>
+      <c r="C77" t="n">
+        <v>170.1000061035156</v>
+      </c>
+      <c r="D77" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>101.5980490656644</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.413534479143848</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ROL</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1.541215401904485</v>
+      </c>
+      <c r="C78" t="n">
+        <v>58.65000152587891</v>
+      </c>
+      <c r="D78" t="n">
+        <v>58.61000061035156</v>
+      </c>
+      <c r="E78" t="n">
+        <v>90.33063564630507</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-0.06165002710102385</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.1840034068578343</v>
+      </c>
+      <c r="C79" t="n">
+        <v>445.9100036621094</v>
+      </c>
+      <c r="D79" t="n">
+        <v>429.5199890136719</v>
+      </c>
+      <c r="E79" t="n">
+        <v>79.03314129205516</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-3.015818533762314</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SYK</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.2050346541459311</v>
+      </c>
+      <c r="C80" t="n">
+        <v>353.8099975585938</v>
+      </c>
+      <c r="D80" t="n">
+        <v>356.0299987792969</v>
+      </c>
+      <c r="E80" t="n">
+        <v>72.99848766528942</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.4551771824904165</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.2779581517099574</v>
+      </c>
+      <c r="C81" t="n">
+        <v>258.8599853515625</v>
+      </c>
+      <c r="D81" t="n">
+        <v>262.0899963378906</v>
+      </c>
+      <c r="E81" t="n">
+        <v>72.85005096374958</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.8978078837626242</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>IBKR</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9982391443001124</v>
+      </c>
+      <c r="C82" t="n">
+        <v>69.86000061035156</v>
+      </c>
+      <c r="D82" t="n">
+        <v>70.54000091552734</v>
+      </c>
+      <c r="E82" t="n">
+        <v>70.41579015284516</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.6788029227624861</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.3189073378809466</v>
+      </c>
+      <c r="C83" t="n">
+        <v>70.93000030517578</v>
+      </c>
+      <c r="D83" t="n">
+        <v>65.44999694824219</v>
+      </c>
+      <c r="E83" t="n">
+        <v>20.87248429107999</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-1.747613282138342</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.1031528995020931</v>
+      </c>
+      <c r="C84" t="n">
+        <v>217.4900054931641</v>
+      </c>
+      <c r="D84" t="n">
+        <v>221.7200012207031</v>
+      </c>
+      <c r="E84" t="n">
+        <v>22.87106100352315</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.4363363241771196</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>AVY</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.04402714288760398</v>
+      </c>
+      <c r="C85" t="n">
+        <v>171.9499969482422</v>
+      </c>
+      <c r="D85" t="n">
+        <v>174.0700073242188</v>
+      </c>
+      <c r="E85" t="n">
+        <v>7.663805084909651</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.09333799974632306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/backtest_portfolio_PL.xlsx
+++ b/backtest_portfolio_PL.xlsx
@@ -36,6 +36,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-07-2025_PnL" sheetId="28" state="visible" r:id="rId28"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-10-2025_PnL" sheetId="29" state="visible" r:id="rId29"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-11-2025_PnL" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-12-2025_Allocations" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-12-2025_PnL" sheetId="32" state="visible" r:id="rId32"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -46668,6 +46670,5124 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E115"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Allocation_Percent</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Target_Value</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Actual_Shares</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.03370698630894211</v>
+      </c>
+      <c r="C2" t="n">
+        <v>122.7300033569336</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4151.462251170705</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33.82597684037437</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.02703898669396116</v>
+      </c>
+      <c r="C3" t="n">
+        <v>567.9299926757812</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3330.209694246906</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.863767959421804</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.02686554415862149</v>
+      </c>
+      <c r="C4" t="n">
+        <v>365.0799865722656</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3308.847946518691</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.063350685381167</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0254615256715623</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25.51000022888184</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3135.924455360251</v>
+      </c>
+      <c r="E5" t="n">
+        <v>122.9292209809481</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.02393462735053923</v>
+      </c>
+      <c r="C6" t="n">
+        <v>143.4700012207031</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2947.86668350832</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20.54692032081013</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02350522435847371</v>
+      </c>
+      <c r="C7" t="n">
+        <v>856.4400024414062</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2894.980012010582</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.380248474800362</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CAH</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02270024273518289</v>
+      </c>
+      <c r="C8" t="n">
+        <v>204.8099975585938</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2795.835852655955</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13.65087586535467</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02268906521257276</v>
+      </c>
+      <c r="C9" t="n">
+        <v>572.1699829101562</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2794.459192554924</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.883966786132012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.02173411182707578</v>
+      </c>
+      <c r="C10" t="n">
+        <v>85.16000366210938</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2676.844022358985</v>
+      </c>
+      <c r="E10" t="n">
+        <v>31.43311304893714</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VTR</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02112017360997921</v>
+      </c>
+      <c r="C11" t="n">
+        <v>76.16999816894531</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2601.22939133066</v>
+      </c>
+      <c r="E11" t="n">
+        <v>34.15031447895173</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02104149667396772</v>
+      </c>
+      <c r="C12" t="n">
+        <v>291.739990234375</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2591.539283562028</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8.883044389903711</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.02067379476896449</v>
+      </c>
+      <c r="C13" t="n">
+        <v>241.1100006103516</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2546.251918969024</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10.56054046917748</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.02019951769301536</v>
+      </c>
+      <c r="C14" t="n">
+        <v>71.22000122070312</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2487.838409100416</v>
+      </c>
+      <c r="E14" t="n">
+        <v>34.93173780481795</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.02016033221676825</v>
+      </c>
+      <c r="C15" t="n">
+        <v>291.3099975585938</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2483.01219817954</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8.523607905630186</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0191940879464882</v>
+      </c>
+      <c r="C16" t="n">
+        <v>159.1799926757812</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2364.006405828016</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14.85115287473997</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01766329444267657</v>
+      </c>
+      <c r="C17" t="n">
+        <v>462.3099975585938</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2175.468890573341</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.705649676757464</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.01707570201195592</v>
+      </c>
+      <c r="C18" t="n">
+        <v>586.489990234375</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2103.099092429646</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.585907905417446</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01649677399592541</v>
+      </c>
+      <c r="C19" t="n">
+        <v>370.1600036621094</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2031.796431827852</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5.488968045511808</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01449529005672111</v>
+      </c>
+      <c r="C20" t="n">
+        <v>177.2299957275391</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1785.287149040777</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10.07327874557618</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.01414464343799784</v>
+      </c>
+      <c r="C21" t="n">
+        <v>169.9900054931641</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1742.100369072135</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10.24825173702457</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01369643743094228</v>
+      </c>
+      <c r="C22" t="n">
+        <v>313.7200012207031</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1686.897856988001</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.37708099714453</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01362772814641441</v>
+      </c>
+      <c r="C23" t="n">
+        <v>275.25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1678.435397650699</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6.097857938785466</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01350492094295368</v>
+      </c>
+      <c r="C24" t="n">
+        <v>386.1400146484375</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1663.310062366607</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.307530945429142</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DOV</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01323691089616907</v>
+      </c>
+      <c r="C25" t="n">
+        <v>183.9700012207031</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1630.301071827882</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8.861776708214835</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01323672445888978</v>
+      </c>
+      <c r="C26" t="n">
+        <v>224.4100036621094</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1630.278109605152</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7.264730105614349</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.01308070315574711</v>
+      </c>
+      <c r="C27" t="n">
+        <v>149.4199981689453</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1611.062017592695</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10.78210438586078</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01300492097843984</v>
+      </c>
+      <c r="C28" t="n">
+        <v>23.04999923706055</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1601.728437737198</v>
+      </c>
+      <c r="E28" t="n">
+        <v>69.48930545567598</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.01274959049939397</v>
+      </c>
+      <c r="C29" t="n">
+        <v>66.98999786376953</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1570.281104071209</v>
+      </c>
+      <c r="E29" t="n">
+        <v>23.44053073810397</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.01241972470764097</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1445.06005859375</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1529.653758456159</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.058539919748893</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01206810170912684</v>
+      </c>
+      <c r="C31" t="n">
+        <v>28.05999946594238</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1486.34672437143</v>
+      </c>
+      <c r="E31" t="n">
+        <v>52.97030479902441</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01196963539525591</v>
+      </c>
+      <c r="C32" t="n">
+        <v>324.1900024414062</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1474.219292351836</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.547392829050255</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.01194772890332306</v>
+      </c>
+      <c r="C33" t="n">
+        <v>179.2200012207031</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1471.521217434035</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8.210697508153167</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.01149407205419579</v>
+      </c>
+      <c r="C34" t="n">
+        <v>95.02999877929688</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1415.647361881506</v>
+      </c>
+      <c r="E34" t="n">
+        <v>14.89684710161143</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.01133559758261262</v>
+      </c>
+      <c r="C35" t="n">
+        <v>150.6999969482422</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1396.129129651494</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9.264294345878413</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TRGP</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.01124915307570714</v>
+      </c>
+      <c r="C36" t="n">
+        <v>173.2299957275391</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1385.482342544812</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7.997935558019277</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.01097834592135229</v>
+      </c>
+      <c r="C37" t="n">
+        <v>165.7299957275391</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1352.12885112476</v>
+      </c>
+      <c r="E37" t="n">
+        <v>8.15862478719704</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.01096779643286028</v>
+      </c>
+      <c r="C38" t="n">
+        <v>556.72998046875</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1350.829541751851</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.426363927113271</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.01036490444975335</v>
+      </c>
+      <c r="C39" t="n">
+        <v>193.1600036621094</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1276.57540089032</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6.608901308178716</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0100899853978618</v>
+      </c>
+      <c r="C40" t="n">
+        <v>59.9900016784668</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1242.715474773085</v>
+      </c>
+      <c r="E40" t="n">
+        <v>20.71537656281069</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.009855266021338337</v>
+      </c>
+      <c r="C41" t="n">
+        <v>13.30000019073486</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1213.806671644727</v>
+      </c>
+      <c r="E41" t="n">
+        <v>91.26365821335081</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.009526160142704566</v>
+      </c>
+      <c r="C42" t="n">
+        <v>228.6699981689453</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1173.272919405239</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5.130856381685914</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.009400611088225054</v>
+      </c>
+      <c r="C43" t="n">
+        <v>190.9600067138672</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1157.809888816723</v>
+      </c>
+      <c r="E43" t="n">
+        <v>6.063101424957401</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.009194181410449422</v>
+      </c>
+      <c r="C44" t="n">
+        <v>237.5200042724609</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1132.385337153986</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.767536699161636</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.008999788019640464</v>
+      </c>
+      <c r="C45" t="n">
+        <v>105.9800033569336</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1108.443213808288</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10.45898451309843</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.008993233361612927</v>
+      </c>
+      <c r="C46" t="n">
+        <v>249.1000061035156</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1107.63592077054</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.446551158695085</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PWR</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.00892073226962143</v>
+      </c>
+      <c r="C47" t="n">
+        <v>448.9100036621094</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1098.70645007231</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.447498253790968</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.008763260999714443</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1190.900024414062</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1079.311775429168</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9062992302483179</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.008663468818802316</v>
+      </c>
+      <c r="C49" t="n">
+        <v>108.1600036621094</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1067.021045305105</v>
+      </c>
+      <c r="E49" t="n">
+        <v>9.865209034556495</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.008608411756956699</v>
+      </c>
+      <c r="C50" t="n">
+        <v>73.22000122070312</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1060.240038192291</v>
+      </c>
+      <c r="E50" t="n">
+        <v>14.48019694777751</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HST</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.008555307422002252</v>
+      </c>
+      <c r="C51" t="n">
+        <v>17.95000076293945</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1053.699535285378</v>
+      </c>
+      <c r="E51" t="n">
+        <v>58.70192147628782</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.008500438305203377</v>
+      </c>
+      <c r="C52" t="n">
+        <v>168.0299987792969</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1046.941676096846</v>
+      </c>
+      <c r="E52" t="n">
+        <v>6.230683114340658</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>HOLX</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.008498297180869819</v>
+      </c>
+      <c r="C53" t="n">
+        <v>74.59999847412109</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1046.677968248142</v>
+      </c>
+      <c r="E53" t="n">
+        <v>14.03053605438393</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.008003861871364827</v>
+      </c>
+      <c r="C54" t="n">
+        <v>288</v>
+      </c>
+      <c r="D54" t="n">
+        <v>985.7817046592689</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.422853141178017</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.007801998632516617</v>
+      </c>
+      <c r="C55" t="n">
+        <v>66.44000244140625</v>
+      </c>
+      <c r="D55" t="n">
+        <v>960.9195704922913</v>
+      </c>
+      <c r="E55" t="n">
+        <v>14.46296711592885</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.00741752459860133</v>
+      </c>
+      <c r="C56" t="n">
+        <v>247.1600036621094</v>
+      </c>
+      <c r="D56" t="n">
+        <v>913.566495858882</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.696255390527555</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.007394904010139486</v>
+      </c>
+      <c r="C57" t="n">
+        <v>85.76000213623047</v>
+      </c>
+      <c r="D57" t="n">
+        <v>910.7804704860442</v>
+      </c>
+      <c r="E57" t="n">
+        <v>10.62010783347769</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.0069559602175657</v>
+      </c>
+      <c r="C58" t="n">
+        <v>71.91000366210938</v>
+      </c>
+      <c r="D58" t="n">
+        <v>856.7187229137804</v>
+      </c>
+      <c r="E58" t="n">
+        <v>11.91376274905129</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.006823942024838748</v>
+      </c>
+      <c r="C59" t="n">
+        <v>93.52999877929688</v>
+      </c>
+      <c r="D59" t="n">
+        <v>840.4589321822571</v>
+      </c>
+      <c r="E59" t="n">
+        <v>8.985982499213877</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NEM</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.00655877851713554</v>
+      </c>
+      <c r="C60" t="n">
+        <v>89.94999694824219</v>
+      </c>
+      <c r="D60" t="n">
+        <v>807.800530670822</v>
+      </c>
+      <c r="E60" t="n">
+        <v>8.980550951387309</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.006521963788030937</v>
+      </c>
+      <c r="C61" t="n">
+        <v>96.44999694824219</v>
+      </c>
+      <c r="D61" t="n">
+        <v>803.2663086919116</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8.328318653270328</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.006487073876917627</v>
+      </c>
+      <c r="C62" t="n">
+        <v>988.6199951171875</v>
+      </c>
+      <c r="D62" t="n">
+        <v>798.9691535678659</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.8081660875907724</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>KEYS</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.006321883702042425</v>
+      </c>
+      <c r="C63" t="n">
+        <v>182.4600067138672</v>
+      </c>
+      <c r="D63" t="n">
+        <v>778.6237934406464</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.267366901184434</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.005947496256116826</v>
+      </c>
+      <c r="C64" t="n">
+        <v>180.8600006103516</v>
+      </c>
+      <c r="D64" t="n">
+        <v>732.5130158461507</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.050165948104199</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>GLW</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.005929620266442989</v>
+      </c>
+      <c r="C65" t="n">
+        <v>87.93000030517578</v>
+      </c>
+      <c r="D65" t="n">
+        <v>730.3113507179467</v>
+      </c>
+      <c r="E65" t="n">
+        <v>8.305599319723404</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.005846835898027708</v>
+      </c>
+      <c r="C66" t="n">
+        <v>103.879997253418</v>
+      </c>
+      <c r="D66" t="n">
+        <v>720.1153581924484</v>
+      </c>
+      <c r="E66" t="n">
+        <v>6.932184994534686</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.005846372479949755</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1797.68994140625</v>
+      </c>
+      <c r="D67" t="n">
+        <v>720.0582821121516</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.4005464265705815</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.005737228164400224</v>
+      </c>
+      <c r="C68" t="n">
+        <v>37.61000061035156</v>
+      </c>
+      <c r="D68" t="n">
+        <v>706.6157126168912</v>
+      </c>
+      <c r="E68" t="n">
+        <v>18.78797397366716</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.005715047207359329</v>
+      </c>
+      <c r="C69" t="n">
+        <v>674.5499877929688</v>
+      </c>
+      <c r="D69" t="n">
+        <v>703.8838336821766</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.043486541279445</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.005700242900639542</v>
+      </c>
+      <c r="C70" t="n">
+        <v>218.5299987792969</v>
+      </c>
+      <c r="D70" t="n">
+        <v>702.0604870341364</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.212650395624531</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.005644136640351031</v>
+      </c>
+      <c r="C71" t="n">
+        <v>264.1499938964844</v>
+      </c>
+      <c r="D71" t="n">
+        <v>695.1502572228072</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.631649719042674</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.005293147688074907</v>
+      </c>
+      <c r="C72" t="n">
+        <v>277.1900024414062</v>
+      </c>
+      <c r="D72" t="n">
+        <v>651.9213143384733</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.351893317206776</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.005281429252020802</v>
+      </c>
+      <c r="C73" t="n">
+        <v>90.94999694824219</v>
+      </c>
+      <c r="D73" t="n">
+        <v>650.478033575385</v>
+      </c>
+      <c r="E73" t="n">
+        <v>7.152040191332375</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.005280685377941599</v>
+      </c>
+      <c r="C74" t="n">
+        <v>37.88000106811523</v>
+      </c>
+      <c r="D74" t="n">
+        <v>650.3864156202487</v>
+      </c>
+      <c r="E74" t="n">
+        <v>17.16965145937388</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.005151388161607638</v>
+      </c>
+      <c r="C75" t="n">
+        <v>126.2600021362305</v>
+      </c>
+      <c r="D75" t="n">
+        <v>634.4617492062272</v>
+      </c>
+      <c r="E75" t="n">
+        <v>5.0250414895579</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.005133265274955057</v>
+      </c>
+      <c r="C76" t="n">
+        <v>712.469970703125</v>
+      </c>
+      <c r="D76" t="n">
+        <v>632.2296754417306</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.8873772950988986</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.004861515009464886</v>
+      </c>
+      <c r="C77" t="n">
+        <v>180.1600036621094</v>
+      </c>
+      <c r="D77" t="n">
+        <v>598.7600273815962</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.323490315334209</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.00459649190068176</v>
+      </c>
+      <c r="C78" t="n">
+        <v>192.3099975585938</v>
+      </c>
+      <c r="D78" t="n">
+        <v>566.1189178585779</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2.943783084839833</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.004459938546770233</v>
+      </c>
+      <c r="C79" t="n">
+        <v>168.6699981689453</v>
+      </c>
+      <c r="D79" t="n">
+        <v>549.3005619000073</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3.256658373528944</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.004351384925847987</v>
+      </c>
+      <c r="C80" t="n">
+        <v>139.5099945068359</v>
+      </c>
+      <c r="D80" t="n">
+        <v>535.9307442795266</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3.841522223364909</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.003831107778539314</v>
+      </c>
+      <c r="C81" t="n">
+        <v>152.3800048828125</v>
+      </c>
+      <c r="D81" t="n">
+        <v>471.8517157540444</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3.096546138825241</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MPC</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.003561052240798817</v>
+      </c>
+      <c r="C82" t="n">
+        <v>200.1300048828125</v>
+      </c>
+      <c r="D82" t="n">
+        <v>438.5907958849828</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.191529431790114</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.003464451365238058</v>
+      </c>
+      <c r="C83" t="n">
+        <v>197.6399993896484</v>
+      </c>
+      <c r="D83" t="n">
+        <v>426.6931173252671</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2.158941098173346</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.003410878561434978</v>
+      </c>
+      <c r="C84" t="n">
+        <v>429.2200012207031</v>
+      </c>
+      <c r="D84" t="n">
+        <v>420.094916268685</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.9787403081728104</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.003302832754162472</v>
+      </c>
+      <c r="C85" t="n">
+        <v>40.40000152587891</v>
+      </c>
+      <c r="D85" t="n">
+        <v>406.787642631763</v>
+      </c>
+      <c r="E85" t="n">
+        <v>10.06900067494275</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>RVTY</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.003227837467815698</v>
+      </c>
+      <c r="C86" t="n">
+        <v>94.30999755859375</v>
+      </c>
+      <c r="D86" t="n">
+        <v>397.5509788306514</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4.215364109024152</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.003159465181094402</v>
+      </c>
+      <c r="C87" t="n">
+        <v>173.9799957275391</v>
+      </c>
+      <c r="D87" t="n">
+        <v>389.1300252411466</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.236636594994189</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PCG</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.003030896622348087</v>
+      </c>
+      <c r="C88" t="n">
+        <v>16.59000015258789</v>
+      </c>
+      <c r="D88" t="n">
+        <v>373.2951026695861</v>
+      </c>
+      <c r="E88" t="n">
+        <v>22.50121152719552</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.002999003457405191</v>
+      </c>
+      <c r="C89" t="n">
+        <v>215.7899932861328</v>
+      </c>
+      <c r="D89" t="n">
+        <v>369.3670365672876</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.711696779551381</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.002916691208931655</v>
+      </c>
+      <c r="C90" t="n">
+        <v>73.33000183105469</v>
+      </c>
+      <c r="D90" t="n">
+        <v>359.2291918719813</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4.898802439683705</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.002890374780859245</v>
+      </c>
+      <c r="C91" t="n">
+        <v>162.7299957275391</v>
+      </c>
+      <c r="D91" t="n">
+        <v>355.9879748516606</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.187598993412966</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>LULU</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.002680724565753103</v>
+      </c>
+      <c r="C92" t="n">
+        <v>169.8099975585938</v>
+      </c>
+      <c r="D92" t="n">
+        <v>330.1667713187874</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.944330581624688</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>JCI</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.002031311645819264</v>
+      </c>
+      <c r="C93" t="n">
+        <v>121.9400024414062</v>
+      </c>
+      <c r="D93" t="n">
+        <v>250.1829603124426</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.051688988875154</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.001985825713777001</v>
+      </c>
+      <c r="C94" t="n">
+        <v>267.7200012207031</v>
+      </c>
+      <c r="D94" t="n">
+        <v>244.580764728951</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.9135692649550056</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.001915613565614947</v>
+      </c>
+      <c r="C95" t="n">
+        <v>122.5599975585938</v>
+      </c>
+      <c r="D95" t="n">
+        <v>235.9332078101337</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.925042530270435</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.001567663599932366</v>
+      </c>
+      <c r="C96" t="n">
+        <v>193.8300018310547</v>
+      </c>
+      <c r="D96" t="n">
+        <v>193.0785564156788</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.9961231728407511</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>CINF</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.001352767430736081</v>
+      </c>
+      <c r="C97" t="n">
+        <v>166.1300048828125</v>
+      </c>
+      <c r="D97" t="n">
+        <v>166.611244085745</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.002896762708651</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.001237121879176543</v>
+      </c>
+      <c r="C98" t="n">
+        <v>159.5599975585938</v>
+      </c>
+      <c r="D98" t="n">
+        <v>152.3679611824654</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.9549258179608126</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>EIX</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.001213469152050811</v>
+      </c>
+      <c r="C99" t="n">
+        <v>57.86999893188477</v>
+      </c>
+      <c r="D99" t="n">
+        <v>149.4548142490753</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.582595766503977</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>PYPL</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.001195097451049948</v>
+      </c>
+      <c r="C100" t="n">
+        <v>67.40000152587891</v>
+      </c>
+      <c r="D100" t="n">
+        <v>147.1920956988072</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.18385893718847</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.001084133474309709</v>
+      </c>
+      <c r="C101" t="n">
+        <v>71.70999908447266</v>
+      </c>
+      <c r="D101" t="n">
+        <v>133.5254108028431</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.862019418596748</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>AES</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.001065779982825496</v>
+      </c>
+      <c r="C102" t="n">
+        <v>14.27000045776367</v>
+      </c>
+      <c r="D102" t="n">
+        <v>131.2649349959721</v>
+      </c>
+      <c r="E102" t="n">
+        <v>9.19866368501458</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.001026462123820136</v>
+      </c>
+      <c r="C103" t="n">
+        <v>201.9299926757812</v>
+      </c>
+      <c r="D103" t="n">
+        <v>126.4224193832874</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.6260705391411131</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.0009565640113953316</v>
+      </c>
+      <c r="C104" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="D104" t="n">
+        <v>117.8135401289982</v>
+      </c>
+      <c r="E104" t="n">
+        <v>4.791115876288406</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.000945692302464853</v>
+      </c>
+      <c r="C105" t="n">
+        <v>35.15999984741211</v>
+      </c>
+      <c r="D105" t="n">
+        <v>116.4745450370927</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.312700385169815</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>HWM</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.0008803803307284782</v>
+      </c>
+      <c r="C106" t="n">
+        <v>208.8999938964844</v>
+      </c>
+      <c r="D106" t="n">
+        <v>108.4305098116369</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.5190546336988748</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>LHX</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.0007824937798387747</v>
+      </c>
+      <c r="C107" t="n">
+        <v>301.6799926757812</v>
+      </c>
+      <c r="D107" t="n">
+        <v>96.37448328967821</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.319459313277208</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>AXON</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.0007239371771263247</v>
+      </c>
+      <c r="C108" t="n">
+        <v>572.1799926757812</v>
+      </c>
+      <c r="D108" t="n">
+        <v>89.16246132220122</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.1558293936585162</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.0007220011592001174</v>
+      </c>
+      <c r="C109" t="n">
+        <v>73.12999725341797</v>
+      </c>
+      <c r="D109" t="n">
+        <v>88.92401504686313</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.215971808924237</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.0007056751192598417</v>
+      </c>
+      <c r="C110" t="n">
+        <v>118.6399993896484</v>
+      </c>
+      <c r="D110" t="n">
+        <v>86.91324677758065</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.7325796293384337</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>LDOS</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.000631571289824363</v>
+      </c>
+      <c r="C111" t="n">
+        <v>198.25</v>
+      </c>
+      <c r="D111" t="n">
+        <v>77.78637771403079</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.3923650830468136</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.0006074392277893423</v>
+      </c>
+      <c r="C112" t="n">
+        <v>60.68999862670898</v>
+      </c>
+      <c r="D112" t="n">
+        <v>74.81419433153954</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.232726907636057</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>CTRA</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.00030118209980351</v>
+      </c>
+      <c r="C113" t="n">
+        <v>26.79000091552734</v>
+      </c>
+      <c r="D113" t="n">
+        <v>37.09456866308145</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.384642306659334</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.0001045496322618059</v>
+      </c>
+      <c r="C114" t="n">
+        <v>197.8600006103516</v>
+      </c>
+      <c r="D114" t="n">
+        <v>12.87667333206592</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.06507971945994345</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2.027456983518505e-05</v>
+      </c>
+      <c r="C115" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2.497082075449913</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.01499748994264212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G115"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Shares</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Exit_Price</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Sale_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Transaction_Cost</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Gain_Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>33.82597684037437</v>
+      </c>
+      <c r="C2" t="n">
+        <v>122.7300033569336</v>
+      </c>
+      <c r="D2" t="n">
+        <v>122.6800003051758</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4149.770849099997</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1.691402070708136</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5.863767959421804</v>
+      </c>
+      <c r="C3" t="n">
+        <v>567.9299926757812</v>
+      </c>
+      <c r="D3" t="n">
+        <v>573.02001953125</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3360.0564306346</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>29.84673638769436</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9.063350685381167</v>
+      </c>
+      <c r="C4" t="n">
+        <v>365.0799865722656</v>
+      </c>
+      <c r="D4" t="n">
+        <v>363.4200134277344</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3293.803027781489</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-15.04491873720144</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>122.9292209809481</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25.51000022888184</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.8700008392334</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3180.179049943435</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>44.25459458318346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>20.54692032081013</v>
+      </c>
+      <c r="C6" t="n">
+        <v>143.4700012207031</v>
+      </c>
+      <c r="D6" t="n">
+        <v>141.9199981689453</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2916.018894306839</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-31.84778920148028</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.380248474800362</v>
+      </c>
+      <c r="C7" t="n">
+        <v>856.4400024414062</v>
+      </c>
+      <c r="D7" t="n">
+        <v>840.75</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2841.943905188404</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-53.03610682217732</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CAH</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>13.65087586535467</v>
+      </c>
+      <c r="C8" t="n">
+        <v>204.8099975585938</v>
+      </c>
+      <c r="D8" t="n">
+        <v>204.3200073242188</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2789.147056791266</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-6.688795864689382</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.883966786132012</v>
+      </c>
+      <c r="C9" t="n">
+        <v>572.1699829101562</v>
+      </c>
+      <c r="D9" t="n">
+        <v>572.4500122070312</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2795.826846340005</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.367653785081529</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>31.43311304893714</v>
+      </c>
+      <c r="C10" t="n">
+        <v>85.16000366210938</v>
+      </c>
+      <c r="D10" t="n">
+        <v>85.58000183105469</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2690.045872283789</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13.20184992480426</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VTR</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>34.15031447895173</v>
+      </c>
+      <c r="C11" t="n">
+        <v>76.16999816894531</v>
+      </c>
+      <c r="D11" t="n">
+        <v>76.90000152587891</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2626.159235540633</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>24.92984420997254</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8.883044389903711</v>
+      </c>
+      <c r="C12" t="n">
+        <v>291.739990234375</v>
+      </c>
+      <c r="D12" t="n">
+        <v>287.4299926757812</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2553.253383928663</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-38.28589963336481</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10.56054046917748</v>
+      </c>
+      <c r="C13" t="n">
+        <v>241.1100006103516</v>
+      </c>
+      <c r="D13" t="n">
+        <v>244.8999938964844</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2586.276296445141</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>40.02437747611657</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>34.93173780481795</v>
+      </c>
+      <c r="C14" t="n">
+        <v>71.22000122070312</v>
+      </c>
+      <c r="D14" t="n">
+        <v>71.83999633789062</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2509.495915974277</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>21.65750687386117</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8.523607905630186</v>
+      </c>
+      <c r="C15" t="n">
+        <v>291.3099975585938</v>
+      </c>
+      <c r="D15" t="n">
+        <v>286.7099914550781</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2443.803549789667</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-39.20864838987291</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>14.85115287473997</v>
+      </c>
+      <c r="C16" t="n">
+        <v>159.1799926757812</v>
+      </c>
+      <c r="D16" t="n">
+        <v>161.4199981689453</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2397.273069847253</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>33.26666401923694</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.705649676757464</v>
+      </c>
+      <c r="C17" t="n">
+        <v>462.3099975585938</v>
+      </c>
+      <c r="D17" t="n">
+        <v>473.6099853515625</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2228.642674478688</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>53.17378390534668</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.585907905417446</v>
+      </c>
+      <c r="C18" t="n">
+        <v>586.489990234375</v>
+      </c>
+      <c r="D18" t="n">
+        <v>588.02001953125</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2108.58563658083</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.486544151184262</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5.488968045511808</v>
+      </c>
+      <c r="C19" t="n">
+        <v>370.1600036621094</v>
+      </c>
+      <c r="D19" t="n">
+        <v>372.7699890136719</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2046.122558021833</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>14.3261261939806</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10.07327874557618</v>
+      </c>
+      <c r="C20" t="n">
+        <v>177.2299957275391</v>
+      </c>
+      <c r="D20" t="n">
+        <v>179.2700042724609</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1805.836723757132</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20.54957471635521</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10.24825173702457</v>
+      </c>
+      <c r="C21" t="n">
+        <v>169.9900054931641</v>
+      </c>
+      <c r="D21" t="n">
+        <v>166.1100006103516</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1702.337102292188</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-39.76326677994712</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5.37708099714453</v>
+      </c>
+      <c r="C22" t="n">
+        <v>313.7200012207031</v>
+      </c>
+      <c r="D22" t="n">
+        <v>314.9800109863281</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1693.67303155496</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6.775174566958867</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6.097857938785466</v>
+      </c>
+      <c r="C23" t="n">
+        <v>275.25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>273.4700012207031</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1667.581217963336</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-10.85417968736374</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4.307530945429142</v>
+      </c>
+      <c r="C24" t="n">
+        <v>386.1400146484375</v>
+      </c>
+      <c r="D24" t="n">
+        <v>387.3699951171875</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1668.608241298021</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.298178931414213</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DOV</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>8.861776708214835</v>
+      </c>
+      <c r="C25" t="n">
+        <v>183.9700012207031</v>
+      </c>
+      <c r="D25" t="n">
+        <v>183.6199951171875</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1627.199395892014</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-3.101675935867888</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>7.264730105614349</v>
+      </c>
+      <c r="C26" t="n">
+        <v>224.4100036621094</v>
+      </c>
+      <c r="D26" t="n">
+        <v>228.4199981689453</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1659.409637422312</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>29.13152781715917</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10.78210438586078</v>
+      </c>
+      <c r="C27" t="n">
+        <v>149.4199981689453</v>
+      </c>
+      <c r="D27" t="n">
+        <v>151.5200042724609</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1633.704502611746</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>22.64248501905035</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>69.48930545567598</v>
+      </c>
+      <c r="C28" t="n">
+        <v>23.04999923706055</v>
+      </c>
+      <c r="D28" t="n">
+        <v>22.19000053405762</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1541.967725172743</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-59.76071256445562</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>23.44053073810397</v>
+      </c>
+      <c r="C29" t="n">
+        <v>66.98999786376953</v>
+      </c>
+      <c r="D29" t="n">
+        <v>66.65000152587891</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1562.311409462041</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-7.969694609168073</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.058539919748893</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1445.06005859375</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1447.81005859375</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1532.564743235469</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.910984779309501</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>52.97030479902441</v>
+      </c>
+      <c r="C31" t="n">
+        <v>28.05999946594238</v>
+      </c>
+      <c r="D31" t="n">
+        <v>26.93000030517578</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1426.490324402982</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-59.85639996844861</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.547392829050255</v>
+      </c>
+      <c r="C32" t="n">
+        <v>324.1900024414062</v>
+      </c>
+      <c r="D32" t="n">
+        <v>317.8900146484375</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1445.570773038985</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-28.64851931285011</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>8.210697508153167</v>
+      </c>
+      <c r="C33" t="n">
+        <v>179.2200012207031</v>
+      </c>
+      <c r="D33" t="n">
+        <v>177.6900024414062</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1458.958860269385</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-12.56235716465017</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>14.89684710161143</v>
+      </c>
+      <c r="C34" t="n">
+        <v>95.02999877929688</v>
+      </c>
+      <c r="D34" t="n">
+        <v>96.18000030517578</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1432.778758779144</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>17.13139689763784</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>9.264294345878413</v>
+      </c>
+      <c r="C35" t="n">
+        <v>150.6999969482422</v>
+      </c>
+      <c r="D35" t="n">
+        <v>152.9900054931641</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1417.344442866227</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>21.21531321473299</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TRGP</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>7.997935558019277</v>
+      </c>
+      <c r="C36" t="n">
+        <v>173.2299957275391</v>
+      </c>
+      <c r="D36" t="n">
+        <v>170.5800018310547</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1364.287862131586</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-21.19448041322653</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>8.15862478719704</v>
+      </c>
+      <c r="C37" t="n">
+        <v>165.7299957275391</v>
+      </c>
+      <c r="D37" t="n">
+        <v>167.1699981689453</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1363.877290736841</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>11.74843961208126</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2.426363927113271</v>
+      </c>
+      <c r="C38" t="n">
+        <v>556.72998046875</v>
+      </c>
+      <c r="D38" t="n">
+        <v>545.8599853515625</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1324.45497771161</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-26.37456404024124</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>6.608901308178716</v>
+      </c>
+      <c r="C39" t="n">
+        <v>193.1600036621094</v>
+      </c>
+      <c r="D39" t="n">
+        <v>193.8000030517578</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1280.805093693801</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4.229692803481157</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>20.71537656281069</v>
+      </c>
+      <c r="C40" t="n">
+        <v>59.9900016784668</v>
+      </c>
+      <c r="D40" t="n">
+        <v>60.27000045776367</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1248.515754923347</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5.800280150262097</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>91.26365821335081</v>
+      </c>
+      <c r="C41" t="n">
+        <v>13.30000019073486</v>
+      </c>
+      <c r="D41" t="n">
+        <v>13.44999980926514</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1227.496185562407</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>13.68951391767973</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5.130856381685914</v>
+      </c>
+      <c r="C42" t="n">
+        <v>228.6699981689453</v>
+      </c>
+      <c r="D42" t="n">
+        <v>230.7299957275391</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1183.842471025007</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>10.56955161976816</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>6.063101424957401</v>
+      </c>
+      <c r="C43" t="n">
+        <v>190.9600067138672</v>
+      </c>
+      <c r="D43" t="n">
+        <v>184.1699981689453</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1116.641378332534</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-41.1685104841888</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4.767536699161636</v>
+      </c>
+      <c r="C44" t="n">
+        <v>237.5200042724609</v>
+      </c>
+      <c r="D44" t="n">
+        <v>258.8900146484375</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1234.267645882919</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>101.8823087289334</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>10.45898451309843</v>
+      </c>
+      <c r="C45" t="n">
+        <v>105.9800033569336</v>
+      </c>
+      <c r="D45" t="n">
+        <v>106.1800003051758</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1110.53497879262</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.091764984332031</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>4.446551158695085</v>
+      </c>
+      <c r="C46" t="n">
+        <v>249.1000061035156</v>
+      </c>
+      <c r="D46" t="n">
+        <v>244.1999969482422</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1085.847779383543</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-21.78814138699772</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PWR</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2.447498253790968</v>
+      </c>
+      <c r="C47" t="n">
+        <v>448.9100036621094</v>
+      </c>
+      <c r="D47" t="n">
+        <v>449.4200134277344</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1099.954698083093</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.248248010783527</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9062992302483179</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1190.900024414062</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1198.969970703125</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1086.625561539091</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7.313786109922603</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>9.865209034556495</v>
+      </c>
+      <c r="C49" t="n">
+        <v>108.1600036621094</v>
+      </c>
+      <c r="D49" t="n">
+        <v>108.2600021362305</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1068.007551155446</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9865058503412456</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>14.48019694777751</v>
+      </c>
+      <c r="C50" t="n">
+        <v>73.22000122070312</v>
+      </c>
+      <c r="D50" t="n">
+        <v>72.83999633789062</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1054.737492648049</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-5.502545544242139</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HST</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>58.70192147628782</v>
+      </c>
+      <c r="C51" t="n">
+        <v>17.95000076293945</v>
+      </c>
+      <c r="D51" t="n">
+        <v>18.05999946594238</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1060.15667051155</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6.457135226171431</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>6.230683114340658</v>
+      </c>
+      <c r="C52" t="n">
+        <v>168.0299987792969</v>
+      </c>
+      <c r="D52" t="n">
+        <v>169.2599945068359</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1054.605389707135</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>7.663713610288823</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>HOLX</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>14.03053605438393</v>
+      </c>
+      <c r="C53" t="n">
+        <v>74.59999847412109</v>
+      </c>
+      <c r="D53" t="n">
+        <v>74.55999755859375</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1046.116733960627</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.5612342875147078</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3.422853141178017</v>
+      </c>
+      <c r="C54" t="n">
+        <v>288</v>
+      </c>
+      <c r="D54" t="n">
+        <v>283.260009765625</v>
+      </c>
+      <c r="E54" t="n">
+        <v>969.5574141963854</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-16.22429046288357</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>14.46296711592885</v>
+      </c>
+      <c r="C55" t="n">
+        <v>66.44000244140625</v>
+      </c>
+      <c r="D55" t="n">
+        <v>66.70999908447266</v>
+      </c>
+      <c r="E55" t="n">
+        <v>964.8245230623719</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.904952570080582</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3.696255390527555</v>
+      </c>
+      <c r="C56" t="n">
+        <v>247.1600036621094</v>
+      </c>
+      <c r="D56" t="n">
+        <v>246.3200073242188</v>
+      </c>
+      <c r="E56" t="n">
+        <v>910.4616548669304</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-3.104840991951619</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>10.62010783347769</v>
+      </c>
+      <c r="C57" t="n">
+        <v>85.76000213623047</v>
+      </c>
+      <c r="D57" t="n">
+        <v>85.88999938964844</v>
+      </c>
+      <c r="E57" t="n">
+        <v>912.1610553353991</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.380584849354818</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>11.91376274905129</v>
+      </c>
+      <c r="C58" t="n">
+        <v>71.91000366210938</v>
+      </c>
+      <c r="D58" t="n">
+        <v>70.48000335693359</v>
+      </c>
+      <c r="E58" t="n">
+        <v>839.6820385468452</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-17.03668436693522</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>8.985982499213877</v>
+      </c>
+      <c r="C59" t="n">
+        <v>93.52999877929688</v>
+      </c>
+      <c r="D59" t="n">
+        <v>92.47000122070312</v>
+      </c>
+      <c r="E59" t="n">
+        <v>830.9338126715242</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-9.525119510732907</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NEM</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>8.980550951387309</v>
+      </c>
+      <c r="C60" t="n">
+        <v>89.94999694824219</v>
+      </c>
+      <c r="D60" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="E60" t="n">
+        <v>835.8198743049702</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>28.0193436341483</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>8.328318653270328</v>
+      </c>
+      <c r="C61" t="n">
+        <v>96.44999694824219</v>
+      </c>
+      <c r="D61" t="n">
+        <v>96.30000305175781</v>
+      </c>
+      <c r="E61" t="n">
+        <v>802.0171117259441</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-1.249196965967485</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8081660875907724</v>
+      </c>
+      <c r="C62" t="n">
+        <v>988.6199951171875</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1017.780029296875</v>
+      </c>
+      <c r="E62" t="n">
+        <v>822.5353043048772</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>23.5661507370113</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>KEYS</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>4.267366901184434</v>
+      </c>
+      <c r="C63" t="n">
+        <v>182.4600067138672</v>
+      </c>
+      <c r="D63" t="n">
+        <v>184.0500030517578</v>
+      </c>
+      <c r="E63" t="n">
+        <v>785.4088911859653</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>6.785097745318922</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>4.050165948104199</v>
+      </c>
+      <c r="C64" t="n">
+        <v>180.8600006103516</v>
+      </c>
+      <c r="D64" t="n">
+        <v>177.5399932861328</v>
+      </c>
+      <c r="E64" t="n">
+        <v>719.0664352341433</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-13.44658061200732</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>GLW</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>8.305599319723404</v>
+      </c>
+      <c r="C65" t="n">
+        <v>87.93000030517578</v>
+      </c>
+      <c r="D65" t="n">
+        <v>89.01000213623047</v>
+      </c>
+      <c r="E65" t="n">
+        <v>739.2814131912545</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>8.970062473307848</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>6.932184994534686</v>
+      </c>
+      <c r="C66" t="n">
+        <v>103.879997253418</v>
+      </c>
+      <c r="D66" t="n">
+        <v>110.3199996948242</v>
+      </c>
+      <c r="E66" t="n">
+        <v>764.7586464815316</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>44.64328828908322</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.4005464265705815</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1797.68994140625</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1777.910034179688</v>
+      </c>
+      <c r="E67" t="n">
+        <v>712.1355109546544</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-7.922771157497209</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>18.78797397366716</v>
+      </c>
+      <c r="C68" t="n">
+        <v>37.61000061035156</v>
+      </c>
+      <c r="D68" t="n">
+        <v>36.06999969482422</v>
+      </c>
+      <c r="E68" t="n">
+        <v>677.6822154965398</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-28.93349712035138</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1.043486541279445</v>
+      </c>
+      <c r="C69" t="n">
+        <v>674.5499877929688</v>
+      </c>
+      <c r="D69" t="n">
+        <v>681.719970703125</v>
+      </c>
+      <c r="E69" t="n">
+        <v>711.3656143501283</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>7.481780667951739</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>3.212650395624531</v>
+      </c>
+      <c r="C70" t="n">
+        <v>218.5299987792969</v>
+      </c>
+      <c r="D70" t="n">
+        <v>220.8800048828125</v>
+      </c>
+      <c r="E70" t="n">
+        <v>709.6102350723158</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>7.549748038179473</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2.631649719042674</v>
+      </c>
+      <c r="C71" t="n">
+        <v>264.1499938964844</v>
+      </c>
+      <c r="D71" t="n">
+        <v>267.5199890136719</v>
+      </c>
+      <c r="E71" t="n">
+        <v>704.0189039261289</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>8.868646703321701</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2.351893317206776</v>
+      </c>
+      <c r="C72" t="n">
+        <v>277.1900024414062</v>
+      </c>
+      <c r="D72" t="n">
+        <v>273.8500061035156</v>
+      </c>
+      <c r="E72" t="n">
+        <v>644.0659992718932</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-7.855315066580033</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>7.152040191332375</v>
+      </c>
+      <c r="C73" t="n">
+        <v>90.94999694824219</v>
+      </c>
+      <c r="D73" t="n">
+        <v>91.44999694824219</v>
+      </c>
+      <c r="E73" t="n">
+        <v>654.0540536710512</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3.576020095666195</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>17.16965145937388</v>
+      </c>
+      <c r="C74" t="n">
+        <v>37.88000106811523</v>
+      </c>
+      <c r="D74" t="n">
+        <v>37.88999938964844</v>
+      </c>
+      <c r="E74" t="n">
+        <v>650.5580833161526</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.1716676959039205</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>5.0250414895579</v>
+      </c>
+      <c r="C75" t="n">
+        <v>126.2600021362305</v>
+      </c>
+      <c r="D75" t="n">
+        <v>124.8399963378906</v>
+      </c>
+      <c r="E75" t="n">
+        <v>627.3261611541567</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-7.135588052070489</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.8873772950988986</v>
+      </c>
+      <c r="C76" t="n">
+        <v>712.469970703125</v>
+      </c>
+      <c r="D76" t="n">
+        <v>713.5599975585938</v>
+      </c>
+      <c r="E76" t="n">
+        <v>633.1969405243216</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.9672650825909841</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3.323490315334209</v>
+      </c>
+      <c r="C77" t="n">
+        <v>180.1600036621094</v>
+      </c>
+      <c r="D77" t="n">
+        <v>180.1199951171875</v>
+      </c>
+      <c r="E77" t="n">
+        <v>598.6270593700177</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.1329680115784413</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2.943783084839833</v>
+      </c>
+      <c r="C78" t="n">
+        <v>192.3099975585938</v>
+      </c>
+      <c r="D78" t="n">
+        <v>191.6399993896484</v>
+      </c>
+      <c r="E78" t="n">
+        <v>564.146588581963</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1.972329276614914</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3.256658373528944</v>
+      </c>
+      <c r="C79" t="n">
+        <v>168.6699981689453</v>
+      </c>
+      <c r="D79" t="n">
+        <v>171.0800018310547</v>
+      </c>
+      <c r="E79" t="n">
+        <v>557.1491205064513</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>7.84855860644393</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>3.841522223364909</v>
+      </c>
+      <c r="C80" t="n">
+        <v>139.5099945068359</v>
+      </c>
+      <c r="D80" t="n">
+        <v>140.6799926757812</v>
+      </c>
+      <c r="E80" t="n">
+        <v>540.4253182468262</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4.49457396729963</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>3.096546138825241</v>
+      </c>
+      <c r="C81" t="n">
+        <v>152.3800048828125</v>
+      </c>
+      <c r="D81" t="n">
+        <v>157.8500061035156</v>
+      </c>
+      <c r="E81" t="n">
+        <v>488.789826913382</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>16.93811115933761</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MPC</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2.191529431790114</v>
+      </c>
+      <c r="C82" t="n">
+        <v>200.1300048828125</v>
+      </c>
+      <c r="D82" t="n">
+        <v>196.8999938964844</v>
+      </c>
+      <c r="E82" t="n">
+        <v>431.5121317434393</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-7.078664141543527</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2.158941098173346</v>
+      </c>
+      <c r="C83" t="n">
+        <v>197.6399993896484</v>
+      </c>
+      <c r="D83" t="n">
+        <v>196.7899932861328</v>
+      </c>
+      <c r="E83" t="n">
+        <v>424.858004214689</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-1.835113110578106</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9787403081728104</v>
+      </c>
+      <c r="C84" t="n">
+        <v>429.2200012207031</v>
+      </c>
+      <c r="D84" t="n">
+        <v>434.1900024414062</v>
+      </c>
+      <c r="E84" t="n">
+        <v>424.9592567950553</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4.864340526370256</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>10.06900067494275</v>
+      </c>
+      <c r="C85" t="n">
+        <v>40.40000152587891</v>
+      </c>
+      <c r="D85" t="n">
+        <v>40.79000091552734</v>
+      </c>
+      <c r="E85" t="n">
+        <v>410.7145467493604</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3.92690411759736</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>RVTY</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>4.215364109024152</v>
+      </c>
+      <c r="C86" t="n">
+        <v>94.30999755859375</v>
+      </c>
+      <c r="D86" t="n">
+        <v>94.12999725341797</v>
+      </c>
+      <c r="E86" t="n">
+        <v>396.7922120046001</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-0.7587668260513851</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2.236636594994189</v>
+      </c>
+      <c r="C87" t="n">
+        <v>173.9799957275391</v>
+      </c>
+      <c r="D87" t="n">
+        <v>176.6699981689453</v>
+      </c>
+      <c r="E87" t="n">
+        <v>395.1465831422195</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>6.016557901072929</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PCG</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>22.50121152719552</v>
+      </c>
+      <c r="C88" t="n">
+        <v>16.59000015258789</v>
+      </c>
+      <c r="D88" t="n">
+        <v>16.80999946594238</v>
+      </c>
+      <c r="E88" t="n">
+        <v>378.2453537552133</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4.950251085627201</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.711696779551381</v>
+      </c>
+      <c r="C89" t="n">
+        <v>215.7899932861328</v>
+      </c>
+      <c r="D89" t="n">
+        <v>219.3999938964844</v>
+      </c>
+      <c r="E89" t="n">
+        <v>375.5462629862049</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>6.179226418917267</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>4.898802439683705</v>
+      </c>
+      <c r="C90" t="n">
+        <v>73.33000183105469</v>
+      </c>
+      <c r="D90" t="n">
+        <v>73.61000061035156</v>
+      </c>
+      <c r="E90" t="n">
+        <v>360.6008505751093</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.371658703127991</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2.187598993412966</v>
+      </c>
+      <c r="C91" t="n">
+        <v>162.7299957275391</v>
+      </c>
+      <c r="D91" t="n">
+        <v>162.8500061035156</v>
+      </c>
+      <c r="E91" t="n">
+        <v>356.2505094293461</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.2625345776854715</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>LULU</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1.944330581624688</v>
+      </c>
+      <c r="C92" t="n">
+        <v>169.8099975585938</v>
+      </c>
+      <c r="D92" t="n">
+        <v>170.8999938964844</v>
+      </c>
+      <c r="E92" t="n">
+        <v>332.286084532407</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2.119313213619648</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>JCI</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2.051688988875154</v>
+      </c>
+      <c r="C93" t="n">
+        <v>121.9400024414062</v>
+      </c>
+      <c r="D93" t="n">
+        <v>122.6600036621094</v>
+      </c>
+      <c r="E93" t="n">
+        <v>251.6601788889358</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.477218576493271</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.9135692649550056</v>
+      </c>
+      <c r="C94" t="n">
+        <v>267.7200012207031</v>
+      </c>
+      <c r="D94" t="n">
+        <v>268.6700134277344</v>
+      </c>
+      <c r="E94" t="n">
+        <v>245.4486666826268</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.8679019536758119</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1.925042530270435</v>
+      </c>
+      <c r="C95" t="n">
+        <v>122.5599975585938</v>
+      </c>
+      <c r="D95" t="n">
+        <v>123.4000015258789</v>
+      </c>
+      <c r="E95" t="n">
+        <v>237.5502511727535</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.617043362619825</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9961231728407511</v>
+      </c>
+      <c r="C96" t="n">
+        <v>193.8300018310547</v>
+      </c>
+      <c r="D96" t="n">
+        <v>194.3899993896484</v>
+      </c>
+      <c r="E96" t="n">
+        <v>193.6363829605283</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.5578265448494619</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>CINF</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1.002896762708651</v>
+      </c>
+      <c r="C97" t="n">
+        <v>166.1300048828125</v>
+      </c>
+      <c r="D97" t="n">
+        <v>166.8899993896484</v>
+      </c>
+      <c r="E97" t="n">
+        <v>167.3734401163271</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.7621960305821176</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.9549258179608126</v>
+      </c>
+      <c r="C98" t="n">
+        <v>159.5599975585938</v>
+      </c>
+      <c r="D98" t="n">
+        <v>161.4799957275391</v>
+      </c>
+      <c r="E98" t="n">
+        <v>154.2014170044287</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1.833455821963355</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>EIX</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2.582595766503977</v>
+      </c>
+      <c r="C99" t="n">
+        <v>57.86999893188477</v>
+      </c>
+      <c r="D99" t="n">
+        <v>58.7599983215332</v>
+      </c>
+      <c r="E99" t="n">
+        <v>151.7533229049725</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2.298508655897194</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>PYPL</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2.18385893718847</v>
+      </c>
+      <c r="C100" t="n">
+        <v>67.40000152587891</v>
+      </c>
+      <c r="D100" t="n">
+        <v>67.19999694824219</v>
+      </c>
+      <c r="E100" t="n">
+        <v>146.7553139144566</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-0.4367817843505577</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1.862019418596748</v>
+      </c>
+      <c r="C101" t="n">
+        <v>71.70999908447266</v>
+      </c>
+      <c r="D101" t="n">
+        <v>73.95999908447266</v>
+      </c>
+      <c r="E101" t="n">
+        <v>137.7149544946858</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>4.189543691842687</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>AES</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>9.19866368501458</v>
+      </c>
+      <c r="C102" t="n">
+        <v>14.27000045776367</v>
+      </c>
+      <c r="D102" t="n">
+        <v>14.06999969482422</v>
+      </c>
+      <c r="E102" t="n">
+        <v>129.4251952409458</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-1.839739755026358</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.6260705391411131</v>
+      </c>
+      <c r="C103" t="n">
+        <v>201.9299926757812</v>
+      </c>
+      <c r="D103" t="n">
+        <v>202</v>
+      </c>
+      <c r="E103" t="n">
+        <v>126.4662489065048</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.04382952321745393</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>4.791115876288406</v>
+      </c>
+      <c r="C104" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="D104" t="n">
+        <v>23.88999938964844</v>
+      </c>
+      <c r="E104" t="n">
+        <v>114.4597553602649</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-3.35378476873322</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3.312700385169815</v>
+      </c>
+      <c r="C105" t="n">
+        <v>35.15999984741211</v>
+      </c>
+      <c r="D105" t="n">
+        <v>35.22000122070312</v>
+      </c>
+      <c r="E105" t="n">
+        <v>116.6733116095046</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.1987665724118557</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>HWM</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.5190546336988748</v>
+      </c>
+      <c r="C106" t="n">
+        <v>208.8999938964844</v>
+      </c>
+      <c r="D106" t="n">
+        <v>205.0700073242188</v>
+      </c>
+      <c r="E106" t="n">
+        <v>106.4425375342979</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-1.98797227733894</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>LHX</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.319459313277208</v>
+      </c>
+      <c r="C107" t="n">
+        <v>301.6799926757812</v>
+      </c>
+      <c r="D107" t="n">
+        <v>300.239990234375</v>
+      </c>
+      <c r="E107" t="n">
+        <v>95.91446109862908</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-0.4600221910491484</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>AXON</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.1558293936585162</v>
+      </c>
+      <c r="C108" t="n">
+        <v>572.1799926757812</v>
+      </c>
+      <c r="D108" t="n">
+        <v>569.510009765625</v>
+      </c>
+      <c r="E108" t="n">
+        <v>88.74639950423298</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-0.4160618179682416</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1.215971808924237</v>
+      </c>
+      <c r="C109" t="n">
+        <v>73.12999725341797</v>
+      </c>
+      <c r="D109" t="n">
+        <v>74.19999694824219</v>
+      </c>
+      <c r="E109" t="n">
+        <v>90.22510451132692</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.301089464463786</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7325796293384337</v>
+      </c>
+      <c r="C110" t="n">
+        <v>118.6399993896484</v>
+      </c>
+      <c r="D110" t="n">
+        <v>119.4599990844727</v>
+      </c>
+      <c r="E110" t="n">
+        <v>87.5139618500726</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.6007150724919512</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>LDOS</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.3923650830468136</v>
+      </c>
+      <c r="C111" t="n">
+        <v>198.25</v>
+      </c>
+      <c r="D111" t="n">
+        <v>193.0200042724609</v>
+      </c>
+      <c r="E111" t="n">
+        <v>75.73431000606044</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-2.052067707970352</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1.232726907636057</v>
+      </c>
+      <c r="C112" t="n">
+        <v>60.68999862670898</v>
+      </c>
+      <c r="D112" t="n">
+        <v>60.84000015258789</v>
+      </c>
+      <c r="E112" t="n">
+        <v>74.99910524867693</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.1849109171373868</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>CTRA</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1.384642306659334</v>
+      </c>
+      <c r="C113" t="n">
+        <v>26.79000091552734</v>
+      </c>
+      <c r="D113" t="n">
+        <v>26.1299991607666</v>
+      </c>
+      <c r="E113" t="n">
+        <v>36.18070231097033</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-0.9138663521111212</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.06507971945994345</v>
+      </c>
+      <c r="C114" t="n">
+        <v>197.8600006103516</v>
+      </c>
+      <c r="D114" t="n">
+        <v>190.8899993896484</v>
+      </c>
+      <c r="E114" t="n">
+        <v>12.4230676079871</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-0.4536057240788232</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.01499748994264212</v>
+      </c>
+      <c r="C115" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>169.9199981689453</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.548373463592525</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0512913881426118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/backtest_portfolio_PL.xlsx
+++ b/backtest_portfolio_PL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="1" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="29" activeTab="31" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-10-23_Allocations" sheetId="1" state="visible" r:id="rId1"/>
@@ -38,16 +38,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-11-2025_PnL" sheetId="30" state="visible" r:id="rId30"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-12-2025_Allocations" sheetId="31" state="visible" r:id="rId31"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-12-2025_PnL" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-13-2025_Allocations" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-13-2025_PnL" sheetId="34" state="visible" r:id="rId34"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -64,6 +66,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -75,12 +82,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -108,12 +130,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2243,7 +2268,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -4874,7 +4899,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -6839,7 +6864,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -8747,7 +8772,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -11328,7 +11353,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -13834,7 +13859,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -15666,7 +15691,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -17593,7 +17618,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -17949,7 +17974,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -20480,7 +20505,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -24030,7 +24055,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -25805,7 +25830,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -28036,7 +28061,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -30367,7 +30392,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -32009,7 +32034,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -34165,7 +34190,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -35883,7 +35908,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -37468,7 +37493,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -39433,7 +39458,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -41689,7 +41714,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -44101,7 +44126,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -46682,7 +46707,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -48890,6 +48915,2912 @@
   </sheetPr>
   <dimension ref="A1:G115"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Shares</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Exit_Price</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Sale_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Transaction_Cost</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Gain_Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>33.82597684037437</v>
+      </c>
+      <c r="C2" t="n">
+        <v>122.7300033569336</v>
+      </c>
+      <c r="D2" t="n">
+        <v>122.6800003051758</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4149.770849099997</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1.691402070708136</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5.863767959421804</v>
+      </c>
+      <c r="C3" t="n">
+        <v>567.9299926757812</v>
+      </c>
+      <c r="D3" t="n">
+        <v>573.02001953125</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3360.0564306346</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>29.84673638769436</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9.063350685381167</v>
+      </c>
+      <c r="C4" t="n">
+        <v>365.0799865722656</v>
+      </c>
+      <c r="D4" t="n">
+        <v>363.4200134277344</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3293.803027781489</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-15.04491873720144</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>122.9292209809481</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25.51000022888184</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.8700008392334</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3180.179049943435</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>44.25459458318346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>20.54692032081013</v>
+      </c>
+      <c r="C6" t="n">
+        <v>143.4700012207031</v>
+      </c>
+      <c r="D6" t="n">
+        <v>141.9199981689453</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2916.018894306839</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-31.84778920148028</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.380248474800362</v>
+      </c>
+      <c r="C7" t="n">
+        <v>856.4400024414062</v>
+      </c>
+      <c r="D7" t="n">
+        <v>840.75</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2841.943905188404</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-53.03610682217732</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CAH</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>13.65087586535467</v>
+      </c>
+      <c r="C8" t="n">
+        <v>204.8099975585938</v>
+      </c>
+      <c r="D8" t="n">
+        <v>204.3200073242188</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2789.147056791266</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-6.688795864689382</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.883966786132012</v>
+      </c>
+      <c r="C9" t="n">
+        <v>572.1699829101562</v>
+      </c>
+      <c r="D9" t="n">
+        <v>572.4500122070312</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2795.826846340005</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.367653785081529</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>31.43311304893714</v>
+      </c>
+      <c r="C10" t="n">
+        <v>85.16000366210938</v>
+      </c>
+      <c r="D10" t="n">
+        <v>85.58000183105469</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2690.045872283789</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13.20184992480426</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VTR</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>34.15031447895173</v>
+      </c>
+      <c r="C11" t="n">
+        <v>76.16999816894531</v>
+      </c>
+      <c r="D11" t="n">
+        <v>76.90000152587891</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2626.159235540633</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>24.92984420997254</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8.883044389903711</v>
+      </c>
+      <c r="C12" t="n">
+        <v>291.739990234375</v>
+      </c>
+      <c r="D12" t="n">
+        <v>287.4299926757812</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2553.253383928663</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-38.28589963336481</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10.56054046917748</v>
+      </c>
+      <c r="C13" t="n">
+        <v>241.1100006103516</v>
+      </c>
+      <c r="D13" t="n">
+        <v>244.8999938964844</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2586.276296445141</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>40.02437747611657</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>34.93173780481795</v>
+      </c>
+      <c r="C14" t="n">
+        <v>71.22000122070312</v>
+      </c>
+      <c r="D14" t="n">
+        <v>71.83999633789062</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2509.495915974277</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>21.65750687386117</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8.523607905630186</v>
+      </c>
+      <c r="C15" t="n">
+        <v>291.3099975585938</v>
+      </c>
+      <c r="D15" t="n">
+        <v>286.7099914550781</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2443.803549789667</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-39.20864838987291</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>14.85115287473997</v>
+      </c>
+      <c r="C16" t="n">
+        <v>159.1799926757812</v>
+      </c>
+      <c r="D16" t="n">
+        <v>161.4199981689453</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2397.273069847253</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>33.26666401923694</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.705649676757464</v>
+      </c>
+      <c r="C17" t="n">
+        <v>462.3099975585938</v>
+      </c>
+      <c r="D17" t="n">
+        <v>473.6099853515625</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2228.642674478688</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>53.17378390534668</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.585907905417446</v>
+      </c>
+      <c r="C18" t="n">
+        <v>586.489990234375</v>
+      </c>
+      <c r="D18" t="n">
+        <v>588.02001953125</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2108.58563658083</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.486544151184262</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5.488968045511808</v>
+      </c>
+      <c r="C19" t="n">
+        <v>370.1600036621094</v>
+      </c>
+      <c r="D19" t="n">
+        <v>372.7699890136719</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2046.122558021833</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>14.3261261939806</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10.07327874557618</v>
+      </c>
+      <c r="C20" t="n">
+        <v>177.2299957275391</v>
+      </c>
+      <c r="D20" t="n">
+        <v>179.2700042724609</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1805.836723757132</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20.54957471635521</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10.24825173702457</v>
+      </c>
+      <c r="C21" t="n">
+        <v>169.9900054931641</v>
+      </c>
+      <c r="D21" t="n">
+        <v>166.1100006103516</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1702.337102292188</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-39.76326677994712</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5.37708099714453</v>
+      </c>
+      <c r="C22" t="n">
+        <v>313.7200012207031</v>
+      </c>
+      <c r="D22" t="n">
+        <v>314.9800109863281</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1693.67303155496</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6.775174566958867</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6.097857938785466</v>
+      </c>
+      <c r="C23" t="n">
+        <v>275.25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>273.4700012207031</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1667.581217963336</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-10.85417968736374</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4.307530945429142</v>
+      </c>
+      <c r="C24" t="n">
+        <v>386.1400146484375</v>
+      </c>
+      <c r="D24" t="n">
+        <v>387.3699951171875</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1668.608241298021</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.298178931414213</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DOV</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>8.861776708214835</v>
+      </c>
+      <c r="C25" t="n">
+        <v>183.9700012207031</v>
+      </c>
+      <c r="D25" t="n">
+        <v>183.6199951171875</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1627.199395892014</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-3.101675935867888</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>7.264730105614349</v>
+      </c>
+      <c r="C26" t="n">
+        <v>224.4100036621094</v>
+      </c>
+      <c r="D26" t="n">
+        <v>228.4199981689453</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1659.409637422312</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>29.13152781715917</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10.78210438586078</v>
+      </c>
+      <c r="C27" t="n">
+        <v>149.4199981689453</v>
+      </c>
+      <c r="D27" t="n">
+        <v>151.5200042724609</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1633.704502611746</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>22.64248501905035</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>69.48930545567598</v>
+      </c>
+      <c r="C28" t="n">
+        <v>23.04999923706055</v>
+      </c>
+      <c r="D28" t="n">
+        <v>22.19000053405762</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1541.967725172743</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-59.76071256445562</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>23.44053073810397</v>
+      </c>
+      <c r="C29" t="n">
+        <v>66.98999786376953</v>
+      </c>
+      <c r="D29" t="n">
+        <v>66.65000152587891</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1562.311409462041</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-7.969694609168073</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.058539919748893</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1445.06005859375</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1447.81005859375</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1532.564743235469</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.910984779309501</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>52.97030479902441</v>
+      </c>
+      <c r="C31" t="n">
+        <v>28.05999946594238</v>
+      </c>
+      <c r="D31" t="n">
+        <v>26.93000030517578</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1426.490324402982</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-59.85639996844861</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.547392829050255</v>
+      </c>
+      <c r="C32" t="n">
+        <v>324.1900024414062</v>
+      </c>
+      <c r="D32" t="n">
+        <v>317.8900146484375</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1445.570773038985</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-28.64851931285011</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>8.210697508153167</v>
+      </c>
+      <c r="C33" t="n">
+        <v>179.2200012207031</v>
+      </c>
+      <c r="D33" t="n">
+        <v>177.6900024414062</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1458.958860269385</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-12.56235716465017</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>14.89684710161143</v>
+      </c>
+      <c r="C34" t="n">
+        <v>95.02999877929688</v>
+      </c>
+      <c r="D34" t="n">
+        <v>96.18000030517578</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1432.778758779144</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>17.13139689763784</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>9.264294345878413</v>
+      </c>
+      <c r="C35" t="n">
+        <v>150.6999969482422</v>
+      </c>
+      <c r="D35" t="n">
+        <v>152.9900054931641</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1417.344442866227</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>21.21531321473299</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TRGP</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>7.997935558019277</v>
+      </c>
+      <c r="C36" t="n">
+        <v>173.2299957275391</v>
+      </c>
+      <c r="D36" t="n">
+        <v>170.5800018310547</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1364.287862131586</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-21.19448041322653</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>8.15862478719704</v>
+      </c>
+      <c r="C37" t="n">
+        <v>165.7299957275391</v>
+      </c>
+      <c r="D37" t="n">
+        <v>167.1699981689453</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1363.877290736841</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>11.74843961208126</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2.426363927113271</v>
+      </c>
+      <c r="C38" t="n">
+        <v>556.72998046875</v>
+      </c>
+      <c r="D38" t="n">
+        <v>545.8599853515625</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1324.45497771161</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-26.37456404024124</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>6.608901308178716</v>
+      </c>
+      <c r="C39" t="n">
+        <v>193.1600036621094</v>
+      </c>
+      <c r="D39" t="n">
+        <v>193.8000030517578</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1280.805093693801</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4.229692803481157</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>20.71537656281069</v>
+      </c>
+      <c r="C40" t="n">
+        <v>59.9900016784668</v>
+      </c>
+      <c r="D40" t="n">
+        <v>60.27000045776367</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1248.515754923347</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5.800280150262097</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>91.26365821335081</v>
+      </c>
+      <c r="C41" t="n">
+        <v>13.30000019073486</v>
+      </c>
+      <c r="D41" t="n">
+        <v>13.44999980926514</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1227.496185562407</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>13.68951391767973</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5.130856381685914</v>
+      </c>
+      <c r="C42" t="n">
+        <v>228.6699981689453</v>
+      </c>
+      <c r="D42" t="n">
+        <v>230.7299957275391</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1183.842471025007</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>10.56955161976816</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>6.063101424957401</v>
+      </c>
+      <c r="C43" t="n">
+        <v>190.9600067138672</v>
+      </c>
+      <c r="D43" t="n">
+        <v>184.1699981689453</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1116.641378332534</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-41.1685104841888</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4.767536699161636</v>
+      </c>
+      <c r="C44" t="n">
+        <v>237.5200042724609</v>
+      </c>
+      <c r="D44" t="n">
+        <v>258.8900146484375</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1234.267645882919</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>101.8823087289334</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>10.45898451309843</v>
+      </c>
+      <c r="C45" t="n">
+        <v>105.9800033569336</v>
+      </c>
+      <c r="D45" t="n">
+        <v>106.1800003051758</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1110.53497879262</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.091764984332031</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>4.446551158695085</v>
+      </c>
+      <c r="C46" t="n">
+        <v>249.1000061035156</v>
+      </c>
+      <c r="D46" t="n">
+        <v>244.1999969482422</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1085.847779383543</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-21.78814138699772</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PWR</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2.447498253790968</v>
+      </c>
+      <c r="C47" t="n">
+        <v>448.9100036621094</v>
+      </c>
+      <c r="D47" t="n">
+        <v>449.4200134277344</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1099.954698083093</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.248248010783527</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9062992302483179</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1190.900024414062</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1198.969970703125</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1086.625561539091</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7.313786109922603</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>9.865209034556495</v>
+      </c>
+      <c r="C49" t="n">
+        <v>108.1600036621094</v>
+      </c>
+      <c r="D49" t="n">
+        <v>108.2600021362305</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1068.007551155446</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9865058503412456</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>14.48019694777751</v>
+      </c>
+      <c r="C50" t="n">
+        <v>73.22000122070312</v>
+      </c>
+      <c r="D50" t="n">
+        <v>72.83999633789062</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1054.737492648049</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-5.502545544242139</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HST</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>58.70192147628782</v>
+      </c>
+      <c r="C51" t="n">
+        <v>17.95000076293945</v>
+      </c>
+      <c r="D51" t="n">
+        <v>18.05999946594238</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1060.15667051155</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6.457135226171431</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>6.230683114340658</v>
+      </c>
+      <c r="C52" t="n">
+        <v>168.0299987792969</v>
+      </c>
+      <c r="D52" t="n">
+        <v>169.2599945068359</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1054.605389707135</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>7.663713610288823</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>HOLX</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>14.03053605438393</v>
+      </c>
+      <c r="C53" t="n">
+        <v>74.59999847412109</v>
+      </c>
+      <c r="D53" t="n">
+        <v>74.55999755859375</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1046.116733960627</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.5612342875147078</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3.422853141178017</v>
+      </c>
+      <c r="C54" t="n">
+        <v>288</v>
+      </c>
+      <c r="D54" t="n">
+        <v>283.260009765625</v>
+      </c>
+      <c r="E54" t="n">
+        <v>969.5574141963854</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-16.22429046288357</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>14.46296711592885</v>
+      </c>
+      <c r="C55" t="n">
+        <v>66.44000244140625</v>
+      </c>
+      <c r="D55" t="n">
+        <v>66.70999908447266</v>
+      </c>
+      <c r="E55" t="n">
+        <v>964.8245230623719</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.904952570080582</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3.696255390527555</v>
+      </c>
+      <c r="C56" t="n">
+        <v>247.1600036621094</v>
+      </c>
+      <c r="D56" t="n">
+        <v>246.3200073242188</v>
+      </c>
+      <c r="E56" t="n">
+        <v>910.4616548669304</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-3.104840991951619</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>10.62010783347769</v>
+      </c>
+      <c r="C57" t="n">
+        <v>85.76000213623047</v>
+      </c>
+      <c r="D57" t="n">
+        <v>85.88999938964844</v>
+      </c>
+      <c r="E57" t="n">
+        <v>912.1610553353991</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.380584849354818</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>11.91376274905129</v>
+      </c>
+      <c r="C58" t="n">
+        <v>71.91000366210938</v>
+      </c>
+      <c r="D58" t="n">
+        <v>70.48000335693359</v>
+      </c>
+      <c r="E58" t="n">
+        <v>839.6820385468452</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-17.03668436693522</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>8.985982499213877</v>
+      </c>
+      <c r="C59" t="n">
+        <v>93.52999877929688</v>
+      </c>
+      <c r="D59" t="n">
+        <v>92.47000122070312</v>
+      </c>
+      <c r="E59" t="n">
+        <v>830.9338126715242</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-9.525119510732907</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NEM</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>8.980550951387309</v>
+      </c>
+      <c r="C60" t="n">
+        <v>89.94999694824219</v>
+      </c>
+      <c r="D60" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="E60" t="n">
+        <v>835.8198743049702</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>28.0193436341483</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>8.328318653270328</v>
+      </c>
+      <c r="C61" t="n">
+        <v>96.44999694824219</v>
+      </c>
+      <c r="D61" t="n">
+        <v>96.30000305175781</v>
+      </c>
+      <c r="E61" t="n">
+        <v>802.0171117259441</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-1.249196965967485</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8081660875907724</v>
+      </c>
+      <c r="C62" t="n">
+        <v>988.6199951171875</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1017.780029296875</v>
+      </c>
+      <c r="E62" t="n">
+        <v>822.5353043048772</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>23.5661507370113</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>KEYS</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>4.267366901184434</v>
+      </c>
+      <c r="C63" t="n">
+        <v>182.4600067138672</v>
+      </c>
+      <c r="D63" t="n">
+        <v>184.0500030517578</v>
+      </c>
+      <c r="E63" t="n">
+        <v>785.4088911859653</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>6.785097745318922</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>4.050165948104199</v>
+      </c>
+      <c r="C64" t="n">
+        <v>180.8600006103516</v>
+      </c>
+      <c r="D64" t="n">
+        <v>177.5399932861328</v>
+      </c>
+      <c r="E64" t="n">
+        <v>719.0664352341433</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-13.44658061200732</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>GLW</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>8.305599319723404</v>
+      </c>
+      <c r="C65" t="n">
+        <v>87.93000030517578</v>
+      </c>
+      <c r="D65" t="n">
+        <v>89.01000213623047</v>
+      </c>
+      <c r="E65" t="n">
+        <v>739.2814131912545</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>8.970062473307848</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>6.932184994534686</v>
+      </c>
+      <c r="C66" t="n">
+        <v>103.879997253418</v>
+      </c>
+      <c r="D66" t="n">
+        <v>110.3199996948242</v>
+      </c>
+      <c r="E66" t="n">
+        <v>764.7586464815316</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>44.64328828908322</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.4005464265705815</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1797.68994140625</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1777.910034179688</v>
+      </c>
+      <c r="E67" t="n">
+        <v>712.1355109546544</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-7.922771157497209</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>18.78797397366716</v>
+      </c>
+      <c r="C68" t="n">
+        <v>37.61000061035156</v>
+      </c>
+      <c r="D68" t="n">
+        <v>36.06999969482422</v>
+      </c>
+      <c r="E68" t="n">
+        <v>677.6822154965398</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-28.93349712035138</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1.043486541279445</v>
+      </c>
+      <c r="C69" t="n">
+        <v>674.5499877929688</v>
+      </c>
+      <c r="D69" t="n">
+        <v>681.719970703125</v>
+      </c>
+      <c r="E69" t="n">
+        <v>711.3656143501283</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>7.481780667951739</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>3.212650395624531</v>
+      </c>
+      <c r="C70" t="n">
+        <v>218.5299987792969</v>
+      </c>
+      <c r="D70" t="n">
+        <v>220.8800048828125</v>
+      </c>
+      <c r="E70" t="n">
+        <v>709.6102350723158</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>7.549748038179473</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2.631649719042674</v>
+      </c>
+      <c r="C71" t="n">
+        <v>264.1499938964844</v>
+      </c>
+      <c r="D71" t="n">
+        <v>267.5199890136719</v>
+      </c>
+      <c r="E71" t="n">
+        <v>704.0189039261289</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>8.868646703321701</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2.351893317206776</v>
+      </c>
+      <c r="C72" t="n">
+        <v>277.1900024414062</v>
+      </c>
+      <c r="D72" t="n">
+        <v>273.8500061035156</v>
+      </c>
+      <c r="E72" t="n">
+        <v>644.0659992718932</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-7.855315066580033</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>7.152040191332375</v>
+      </c>
+      <c r="C73" t="n">
+        <v>90.94999694824219</v>
+      </c>
+      <c r="D73" t="n">
+        <v>91.44999694824219</v>
+      </c>
+      <c r="E73" t="n">
+        <v>654.0540536710512</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3.576020095666195</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>17.16965145937388</v>
+      </c>
+      <c r="C74" t="n">
+        <v>37.88000106811523</v>
+      </c>
+      <c r="D74" t="n">
+        <v>37.88999938964844</v>
+      </c>
+      <c r="E74" t="n">
+        <v>650.5580833161526</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.1716676959039205</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>5.0250414895579</v>
+      </c>
+      <c r="C75" t="n">
+        <v>126.2600021362305</v>
+      </c>
+      <c r="D75" t="n">
+        <v>124.8399963378906</v>
+      </c>
+      <c r="E75" t="n">
+        <v>627.3261611541567</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-7.135588052070489</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.8873772950988986</v>
+      </c>
+      <c r="C76" t="n">
+        <v>712.469970703125</v>
+      </c>
+      <c r="D76" t="n">
+        <v>713.5599975585938</v>
+      </c>
+      <c r="E76" t="n">
+        <v>633.1969405243216</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.9672650825909841</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3.323490315334209</v>
+      </c>
+      <c r="C77" t="n">
+        <v>180.1600036621094</v>
+      </c>
+      <c r="D77" t="n">
+        <v>180.1199951171875</v>
+      </c>
+      <c r="E77" t="n">
+        <v>598.6270593700177</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.1329680115784413</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2.943783084839833</v>
+      </c>
+      <c r="C78" t="n">
+        <v>192.3099975585938</v>
+      </c>
+      <c r="D78" t="n">
+        <v>191.6399993896484</v>
+      </c>
+      <c r="E78" t="n">
+        <v>564.146588581963</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1.972329276614914</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3.256658373528944</v>
+      </c>
+      <c r="C79" t="n">
+        <v>168.6699981689453</v>
+      </c>
+      <c r="D79" t="n">
+        <v>171.0800018310547</v>
+      </c>
+      <c r="E79" t="n">
+        <v>557.1491205064513</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>7.84855860644393</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>3.841522223364909</v>
+      </c>
+      <c r="C80" t="n">
+        <v>139.5099945068359</v>
+      </c>
+      <c r="D80" t="n">
+        <v>140.6799926757812</v>
+      </c>
+      <c r="E80" t="n">
+        <v>540.4253182468262</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4.49457396729963</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>3.096546138825241</v>
+      </c>
+      <c r="C81" t="n">
+        <v>152.3800048828125</v>
+      </c>
+      <c r="D81" t="n">
+        <v>157.8500061035156</v>
+      </c>
+      <c r="E81" t="n">
+        <v>488.789826913382</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>16.93811115933761</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MPC</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2.191529431790114</v>
+      </c>
+      <c r="C82" t="n">
+        <v>200.1300048828125</v>
+      </c>
+      <c r="D82" t="n">
+        <v>196.8999938964844</v>
+      </c>
+      <c r="E82" t="n">
+        <v>431.5121317434393</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-7.078664141543527</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2.158941098173346</v>
+      </c>
+      <c r="C83" t="n">
+        <v>197.6399993896484</v>
+      </c>
+      <c r="D83" t="n">
+        <v>196.7899932861328</v>
+      </c>
+      <c r="E83" t="n">
+        <v>424.858004214689</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-1.835113110578106</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9787403081728104</v>
+      </c>
+      <c r="C84" t="n">
+        <v>429.2200012207031</v>
+      </c>
+      <c r="D84" t="n">
+        <v>434.1900024414062</v>
+      </c>
+      <c r="E84" t="n">
+        <v>424.9592567950553</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4.864340526370256</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>10.06900067494275</v>
+      </c>
+      <c r="C85" t="n">
+        <v>40.40000152587891</v>
+      </c>
+      <c r="D85" t="n">
+        <v>40.79000091552734</v>
+      </c>
+      <c r="E85" t="n">
+        <v>410.7145467493604</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3.92690411759736</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>RVTY</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>4.215364109024152</v>
+      </c>
+      <c r="C86" t="n">
+        <v>94.30999755859375</v>
+      </c>
+      <c r="D86" t="n">
+        <v>94.12999725341797</v>
+      </c>
+      <c r="E86" t="n">
+        <v>396.7922120046001</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-0.7587668260513851</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2.236636594994189</v>
+      </c>
+      <c r="C87" t="n">
+        <v>173.9799957275391</v>
+      </c>
+      <c r="D87" t="n">
+        <v>176.6699981689453</v>
+      </c>
+      <c r="E87" t="n">
+        <v>395.1465831422195</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>6.016557901072929</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PCG</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>22.50121152719552</v>
+      </c>
+      <c r="C88" t="n">
+        <v>16.59000015258789</v>
+      </c>
+      <c r="D88" t="n">
+        <v>16.80999946594238</v>
+      </c>
+      <c r="E88" t="n">
+        <v>378.2453537552133</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4.950251085627201</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.711696779551381</v>
+      </c>
+      <c r="C89" t="n">
+        <v>215.7899932861328</v>
+      </c>
+      <c r="D89" t="n">
+        <v>219.3999938964844</v>
+      </c>
+      <c r="E89" t="n">
+        <v>375.5462629862049</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>6.179226418917267</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>4.898802439683705</v>
+      </c>
+      <c r="C90" t="n">
+        <v>73.33000183105469</v>
+      </c>
+      <c r="D90" t="n">
+        <v>73.61000061035156</v>
+      </c>
+      <c r="E90" t="n">
+        <v>360.6008505751093</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.371658703127991</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2.187598993412966</v>
+      </c>
+      <c r="C91" t="n">
+        <v>162.7299957275391</v>
+      </c>
+      <c r="D91" t="n">
+        <v>162.8500061035156</v>
+      </c>
+      <c r="E91" t="n">
+        <v>356.2505094293461</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.2625345776854715</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>LULU</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1.944330581624688</v>
+      </c>
+      <c r="C92" t="n">
+        <v>169.8099975585938</v>
+      </c>
+      <c r="D92" t="n">
+        <v>170.8999938964844</v>
+      </c>
+      <c r="E92" t="n">
+        <v>332.286084532407</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2.119313213619648</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>JCI</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2.051688988875154</v>
+      </c>
+      <c r="C93" t="n">
+        <v>121.9400024414062</v>
+      </c>
+      <c r="D93" t="n">
+        <v>122.6600036621094</v>
+      </c>
+      <c r="E93" t="n">
+        <v>251.6601788889358</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.477218576493271</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.9135692649550056</v>
+      </c>
+      <c r="C94" t="n">
+        <v>267.7200012207031</v>
+      </c>
+      <c r="D94" t="n">
+        <v>268.6700134277344</v>
+      </c>
+      <c r="E94" t="n">
+        <v>245.4486666826268</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.8679019536758119</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1.925042530270435</v>
+      </c>
+      <c r="C95" t="n">
+        <v>122.5599975585938</v>
+      </c>
+      <c r="D95" t="n">
+        <v>123.4000015258789</v>
+      </c>
+      <c r="E95" t="n">
+        <v>237.5502511727535</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.617043362619825</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9961231728407511</v>
+      </c>
+      <c r="C96" t="n">
+        <v>193.8300018310547</v>
+      </c>
+      <c r="D96" t="n">
+        <v>194.3899993896484</v>
+      </c>
+      <c r="E96" t="n">
+        <v>193.6363829605283</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.5578265448494619</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>CINF</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1.002896762708651</v>
+      </c>
+      <c r="C97" t="n">
+        <v>166.1300048828125</v>
+      </c>
+      <c r="D97" t="n">
+        <v>166.8899993896484</v>
+      </c>
+      <c r="E97" t="n">
+        <v>167.3734401163271</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.7621960305821176</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.9549258179608126</v>
+      </c>
+      <c r="C98" t="n">
+        <v>159.5599975585938</v>
+      </c>
+      <c r="D98" t="n">
+        <v>161.4799957275391</v>
+      </c>
+      <c r="E98" t="n">
+        <v>154.2014170044287</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1.833455821963355</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>EIX</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2.582595766503977</v>
+      </c>
+      <c r="C99" t="n">
+        <v>57.86999893188477</v>
+      </c>
+      <c r="D99" t="n">
+        <v>58.7599983215332</v>
+      </c>
+      <c r="E99" t="n">
+        <v>151.7533229049725</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2.298508655897194</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>PYPL</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2.18385893718847</v>
+      </c>
+      <c r="C100" t="n">
+        <v>67.40000152587891</v>
+      </c>
+      <c r="D100" t="n">
+        <v>67.19999694824219</v>
+      </c>
+      <c r="E100" t="n">
+        <v>146.7553139144566</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-0.4367817843505577</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1.862019418596748</v>
+      </c>
+      <c r="C101" t="n">
+        <v>71.70999908447266</v>
+      </c>
+      <c r="D101" t="n">
+        <v>73.95999908447266</v>
+      </c>
+      <c r="E101" t="n">
+        <v>137.7149544946858</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>4.189543691842687</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>AES</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>9.19866368501458</v>
+      </c>
+      <c r="C102" t="n">
+        <v>14.27000045776367</v>
+      </c>
+      <c r="D102" t="n">
+        <v>14.06999969482422</v>
+      </c>
+      <c r="E102" t="n">
+        <v>129.4251952409458</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-1.839739755026358</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.6260705391411131</v>
+      </c>
+      <c r="C103" t="n">
+        <v>201.9299926757812</v>
+      </c>
+      <c r="D103" t="n">
+        <v>202</v>
+      </c>
+      <c r="E103" t="n">
+        <v>126.4662489065048</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.04382952321745393</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>4.791115876288406</v>
+      </c>
+      <c r="C104" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="D104" t="n">
+        <v>23.88999938964844</v>
+      </c>
+      <c r="E104" t="n">
+        <v>114.4597553602649</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-3.35378476873322</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3.312700385169815</v>
+      </c>
+      <c r="C105" t="n">
+        <v>35.15999984741211</v>
+      </c>
+      <c r="D105" t="n">
+        <v>35.22000122070312</v>
+      </c>
+      <c r="E105" t="n">
+        <v>116.6733116095046</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.1987665724118557</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>HWM</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.5190546336988748</v>
+      </c>
+      <c r="C106" t="n">
+        <v>208.8999938964844</v>
+      </c>
+      <c r="D106" t="n">
+        <v>205.0700073242188</v>
+      </c>
+      <c r="E106" t="n">
+        <v>106.4425375342979</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-1.98797227733894</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>LHX</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.319459313277208</v>
+      </c>
+      <c r="C107" t="n">
+        <v>301.6799926757812</v>
+      </c>
+      <c r="D107" t="n">
+        <v>300.239990234375</v>
+      </c>
+      <c r="E107" t="n">
+        <v>95.91446109862908</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-0.4600221910491484</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>AXON</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.1558293936585162</v>
+      </c>
+      <c r="C108" t="n">
+        <v>572.1799926757812</v>
+      </c>
+      <c r="D108" t="n">
+        <v>569.510009765625</v>
+      </c>
+      <c r="E108" t="n">
+        <v>88.74639950423298</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-0.4160618179682416</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1.215971808924237</v>
+      </c>
+      <c r="C109" t="n">
+        <v>73.12999725341797</v>
+      </c>
+      <c r="D109" t="n">
+        <v>74.19999694824219</v>
+      </c>
+      <c r="E109" t="n">
+        <v>90.22510451132692</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.301089464463786</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7325796293384337</v>
+      </c>
+      <c r="C110" t="n">
+        <v>118.6399993896484</v>
+      </c>
+      <c r="D110" t="n">
+        <v>119.4599990844727</v>
+      </c>
+      <c r="E110" t="n">
+        <v>87.5139618500726</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.6007150724919512</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>LDOS</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.3923650830468136</v>
+      </c>
+      <c r="C111" t="n">
+        <v>198.25</v>
+      </c>
+      <c r="D111" t="n">
+        <v>193.0200042724609</v>
+      </c>
+      <c r="E111" t="n">
+        <v>75.73431000606044</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-2.052067707970352</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1.232726907636057</v>
+      </c>
+      <c r="C112" t="n">
+        <v>60.68999862670898</v>
+      </c>
+      <c r="D112" t="n">
+        <v>60.84000015258789</v>
+      </c>
+      <c r="E112" t="n">
+        <v>74.99910524867693</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.1849109171373868</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>CTRA</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1.384642306659334</v>
+      </c>
+      <c r="C113" t="n">
+        <v>26.79000091552734</v>
+      </c>
+      <c r="D113" t="n">
+        <v>26.1299991607666</v>
+      </c>
+      <c r="E113" t="n">
+        <v>36.18070231097033</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-0.9138663521111212</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.06507971945994345</v>
+      </c>
+      <c r="C114" t="n">
+        <v>197.8600006103516</v>
+      </c>
+      <c r="D114" t="n">
+        <v>190.8899993896484</v>
+      </c>
+      <c r="E114" t="n">
+        <v>12.4230676079871</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-0.4536057240788232</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.01499748994264212</v>
+      </c>
+      <c r="C115" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>169.9199981689453</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.548373463592525</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0512913881426118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E110"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -48897,65 +51828,49 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Ticker</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Shares</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Allocation_Percent</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Entry_Price</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Exit_Price</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Sale_Value</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Transaction_Cost</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Gain_Loss</t>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Target_Value</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Actual_Shares</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AEP</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.82597684037437</v>
+        <v>0.03388277698138635</v>
       </c>
       <c r="C2" t="n">
-        <v>122.7300033569336</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="D2" t="n">
-        <v>122.6800003051758</v>
+        <v>4177.879696649582</v>
       </c>
       <c r="E2" t="n">
-        <v>4149.770849099997</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-1.691402070708136</v>
+        <v>161.4951511835121</v>
       </c>
     </row>
     <row r="3">
@@ -48965,2822 +51880,4830 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.863767959421804</v>
+        <v>0.02951108705391057</v>
       </c>
       <c r="C3" t="n">
-        <v>567.9299926757812</v>
+        <v>573.02001953125</v>
       </c>
       <c r="D3" t="n">
-        <v>573.02001953125</v>
+        <v>3638.833130363643</v>
       </c>
       <c r="E3" t="n">
-        <v>3360.0564306346</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>29.84673638769436</v>
+        <v>6.350272252861834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>AEP</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.063350685381167</v>
+        <v>0.02747960882589777</v>
       </c>
       <c r="C4" t="n">
-        <v>365.0799865722656</v>
+        <v>122.6800003051758</v>
       </c>
       <c r="D4" t="n">
-        <v>363.4200134277344</v>
+        <v>3388.343873014316</v>
       </c>
       <c r="E4" t="n">
-        <v>3293.803027781489</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-15.04491873720144</v>
+        <v>27.61936635625656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>CTRA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.9292209809481</v>
+        <v>0.02459304814135676</v>
       </c>
       <c r="C5" t="n">
-        <v>25.51000022888184</v>
+        <v>25.90999794006348</v>
       </c>
       <c r="D5" t="n">
-        <v>25.8700008392334</v>
+        <v>3032.419584880676</v>
       </c>
       <c r="E5" t="n">
-        <v>3180.179049943435</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>44.25459458318346</v>
+        <v>117.0366586634027</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>CAH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.54692032081013</v>
+        <v>0.0221098800904411</v>
       </c>
       <c r="C6" t="n">
-        <v>143.4700012207031</v>
+        <v>204.3200073242188</v>
       </c>
       <c r="D6" t="n">
-        <v>141.9199981689453</v>
+        <v>2726.235195419663</v>
       </c>
       <c r="E6" t="n">
-        <v>2916.018894306839</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-31.84778920148028</v>
+        <v>13.3429673927802</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MCK</t>
+          <t>EW</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.380248474800362</v>
+        <v>0.02010581299894714</v>
       </c>
       <c r="C7" t="n">
-        <v>856.4400024414062</v>
+        <v>85.58000183105469</v>
       </c>
       <c r="D7" t="n">
-        <v>840.75</v>
+        <v>2479.12583903852</v>
       </c>
       <c r="E7" t="n">
-        <v>2841.943905188404</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-53.03610682217732</v>
+        <v>28.96851818176652</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CAH</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.65087586535467</v>
+        <v>0.01878407021889731</v>
       </c>
       <c r="C8" t="n">
-        <v>204.8099975585938</v>
+        <v>363.4200134277344</v>
       </c>
       <c r="D8" t="n">
-        <v>204.3200073242188</v>
+        <v>2316.14975452228</v>
       </c>
       <c r="E8" t="n">
-        <v>2789.147056791266</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-6.688795864689382</v>
+        <v>6.373203645766865</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>HII</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.883966786132012</v>
+        <v>0.01857296215444762</v>
       </c>
       <c r="C9" t="n">
-        <v>572.1699829101562</v>
+        <v>317.8900146484375</v>
       </c>
       <c r="D9" t="n">
-        <v>572.4500122070312</v>
+        <v>2290.119299676507</v>
       </c>
       <c r="E9" t="n">
-        <v>2795.826846340005</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.367653785081529</v>
+        <v>7.204124678811339</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.43311304893714</v>
+        <v>0.01821597448153854</v>
       </c>
       <c r="C10" t="n">
-        <v>85.16000366210938</v>
+        <v>71.83999633789062</v>
       </c>
       <c r="D10" t="n">
-        <v>85.58000183105469</v>
+        <v>2246.101315217312</v>
       </c>
       <c r="E10" t="n">
-        <v>2690.045872283789</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>13.20184992480426</v>
+        <v>31.26533170537829</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.15031447895173</v>
+        <v>0.01781898850653879</v>
       </c>
       <c r="C11" t="n">
-        <v>76.16999816894531</v>
+        <v>372.7699890136719</v>
       </c>
       <c r="D11" t="n">
-        <v>76.90000152587891</v>
+        <v>2197.151382757018</v>
       </c>
       <c r="E11" t="n">
-        <v>2626.159235540633</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>24.92984420997254</v>
+        <v>5.894120898977289</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>WDC</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.883044389903711</v>
+        <v>0.01675337270102834</v>
       </c>
       <c r="C12" t="n">
-        <v>291.739990234375</v>
+        <v>166.1100006103516</v>
       </c>
       <c r="D12" t="n">
-        <v>287.4299926757812</v>
+        <v>2065.756761805</v>
       </c>
       <c r="E12" t="n">
-        <v>2553.253383928663</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-38.28589963336481</v>
+        <v>12.43607702254302</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>ISRG</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.56054046917748</v>
+        <v>0.01667917672790832</v>
       </c>
       <c r="C13" t="n">
-        <v>241.1100006103516</v>
+        <v>572.4500122070312</v>
       </c>
       <c r="D13" t="n">
-        <v>244.8999938964844</v>
+        <v>2056.608106432343</v>
       </c>
       <c r="E13" t="n">
-        <v>2586.276296445141</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>40.02437747611657</v>
+        <v>3.592642261467109</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.93173780481795</v>
+        <v>0.01666675952100664</v>
       </c>
       <c r="C14" t="n">
-        <v>71.22000122070312</v>
+        <v>244.8999938964844</v>
       </c>
       <c r="D14" t="n">
-        <v>71.83999633789062</v>
+        <v>2055.077015972074</v>
       </c>
       <c r="E14" t="n">
-        <v>2509.495915974277</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>21.65750687386117</v>
+        <v>8.391494761901564</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>INCY</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.523607905630186</v>
+        <v>0.01617677629692919</v>
       </c>
       <c r="C15" t="n">
-        <v>291.3099975585938</v>
+        <v>108.2600021362305</v>
       </c>
       <c r="D15" t="n">
-        <v>286.7099914550781</v>
+        <v>1994.660156849321</v>
       </c>
       <c r="E15" t="n">
-        <v>2443.803549789667</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-39.20864838987291</v>
+        <v>18.42471935608603</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>JKHY</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14.85115287473997</v>
+        <v>0.01556938837843325</v>
       </c>
       <c r="C16" t="n">
-        <v>159.1799926757812</v>
+        <v>167.1699981689453</v>
       </c>
       <c r="D16" t="n">
-        <v>161.4199981689453</v>
+        <v>1919.766837034701</v>
       </c>
       <c r="E16" t="n">
-        <v>2397.273069847253</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>33.26666401923694</v>
+        <v>11.48391971084755</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HCA</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.705649676757464</v>
+        <v>0.0155610245052036</v>
       </c>
       <c r="C17" t="n">
-        <v>462.3099975585938</v>
+        <v>287.4299926757812</v>
       </c>
       <c r="D17" t="n">
-        <v>473.6099853515625</v>
+        <v>1918.735538562007</v>
       </c>
       <c r="E17" t="n">
-        <v>2228.642674478688</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>53.17378390534668</v>
+        <v>6.675488249155423</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.585907905417446</v>
+        <v>0.01528320424108426</v>
       </c>
       <c r="C18" t="n">
-        <v>586.489990234375</v>
+        <v>286.7099914550781</v>
       </c>
       <c r="D18" t="n">
-        <v>588.02001953125</v>
+        <v>1884.479207051173</v>
       </c>
       <c r="E18" t="n">
-        <v>2108.58563658083</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5.486544151184262</v>
+        <v>6.572771313225876</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.488968045511808</v>
+        <v>0.01523925987217649</v>
       </c>
       <c r="C19" t="n">
-        <v>370.1600036621094</v>
+        <v>151.5200042724609</v>
       </c>
       <c r="D19" t="n">
-        <v>372.7699890136719</v>
+        <v>1879.060693487698</v>
       </c>
       <c r="E19" t="n">
-        <v>2046.122558021833</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>14.3261261939806</v>
+        <v>12.40140338241279</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>APH</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.07327874557618</v>
+        <v>0.01517826971384314</v>
       </c>
       <c r="C20" t="n">
-        <v>177.2299957275391</v>
+        <v>141.9199981689453</v>
       </c>
       <c r="D20" t="n">
-        <v>179.2700042724609</v>
+        <v>1871.540367029913</v>
       </c>
       <c r="E20" t="n">
-        <v>1805.836723757132</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>20.54957471635521</v>
+        <v>13.18729136962066</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>WDC</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10.24825173702457</v>
+        <v>0.01495974736532573</v>
       </c>
       <c r="C21" t="n">
-        <v>169.9900054931641</v>
+        <v>314.9800109863281</v>
       </c>
       <c r="D21" t="n">
-        <v>166.1100006103516</v>
+        <v>1844.595701790797</v>
       </c>
       <c r="E21" t="n">
-        <v>1702.337102292188</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-39.76326677994712</v>
+        <v>5.856230990705193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>TER</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.37708099714453</v>
+        <v>0.01428581376614513</v>
       </c>
       <c r="C22" t="n">
-        <v>313.7200012207031</v>
+        <v>179.2700042724609</v>
       </c>
       <c r="D22" t="n">
-        <v>314.9800109863281</v>
+        <v>1761.497037757051</v>
       </c>
       <c r="E22" t="n">
-        <v>1693.67303155496</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>6.775174566958867</v>
+        <v>9.825944083093034</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.097857938785466</v>
+        <v>0.0141111730081452</v>
       </c>
       <c r="C23" t="n">
-        <v>275.25</v>
+        <v>60.27000045776367</v>
       </c>
       <c r="D23" t="n">
-        <v>273.4700012207031</v>
+        <v>1739.963145258917</v>
       </c>
       <c r="E23" t="n">
-        <v>1667.581217963336</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-10.85417968736374</v>
+        <v>28.86947290598177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>MCK</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.307530945429142</v>
+        <v>0.01378691372266309</v>
       </c>
       <c r="C24" t="n">
-        <v>386.1400146484375</v>
+        <v>840.75</v>
       </c>
       <c r="D24" t="n">
-        <v>387.3699951171875</v>
+        <v>1699.980699722944</v>
       </c>
       <c r="E24" t="n">
-        <v>1668.608241298021</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>5.298178931414213</v>
+        <v>2.021981206925893</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DOV</t>
+          <t>TMO</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.861776708214835</v>
+        <v>0.01352669376946409</v>
       </c>
       <c r="C25" t="n">
-        <v>183.9700012207031</v>
+        <v>588.02001953125</v>
       </c>
       <c r="D25" t="n">
-        <v>183.6199951171875</v>
+        <v>1667.894555788211</v>
       </c>
       <c r="E25" t="n">
-        <v>1627.199395892014</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-3.101675935867888</v>
+        <v>2.836458794579479</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.264730105614349</v>
+        <v>0.01316817246043493</v>
       </c>
       <c r="C26" t="n">
-        <v>224.4100036621094</v>
+        <v>258.8900146484375</v>
       </c>
       <c r="D26" t="n">
-        <v>228.4199981689453</v>
+        <v>1623.687467962086</v>
       </c>
       <c r="E26" t="n">
-        <v>1659.409637422312</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>29.13152781715917</v>
+        <v>6.27172689594456</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>LRCX</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10.78210438586078</v>
+        <v>0.01280441343260551</v>
       </c>
       <c r="C27" t="n">
-        <v>149.4199981689453</v>
+        <v>161.4199981689453</v>
       </c>
       <c r="D27" t="n">
-        <v>151.5200042724609</v>
+        <v>1578.834548802703</v>
       </c>
       <c r="E27" t="n">
-        <v>1633.704502611746</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>22.64248501905035</v>
+        <v>9.780910461603799</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.48930545567598</v>
+        <v>0.01258632777518206</v>
       </c>
       <c r="C28" t="n">
-        <v>23.04999923706055</v>
+        <v>70.48000335693359</v>
       </c>
       <c r="D28" t="n">
-        <v>22.19000053405762</v>
+        <v>1551.943729293416</v>
       </c>
       <c r="E28" t="n">
-        <v>1541.967725172743</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-59.76071256445562</v>
+        <v>22.01963188670508</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>WAT</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23.44053073810397</v>
+        <v>0.01241392341504901</v>
       </c>
       <c r="C29" t="n">
-        <v>66.98999786376953</v>
+        <v>387.3699951171875</v>
       </c>
       <c r="D29" t="n">
-        <v>66.65000152587891</v>
+        <v>1530.685593450258</v>
       </c>
       <c r="E29" t="n">
-        <v>1562.311409462041</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-7.969694609168073</v>
+        <v>3.951482078489827</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>LVS</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.058539919748893</v>
+        <v>0.01220618500288348</v>
       </c>
       <c r="C30" t="n">
-        <v>1445.06005859375</v>
+        <v>66.65000152587891</v>
       </c>
       <c r="D30" t="n">
-        <v>1447.81005859375</v>
+        <v>1505.070629987334</v>
       </c>
       <c r="E30" t="n">
-        <v>1532.564743235469</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2.910984779309501</v>
+        <v>22.58170435904557</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>MTD</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>52.97030479902441</v>
+        <v>0.0120456652165874</v>
       </c>
       <c r="C31" t="n">
-        <v>28.05999946594238</v>
+        <v>1447.81005859375</v>
       </c>
       <c r="D31" t="n">
-        <v>26.93000030517578</v>
+        <v>1485.277908852188</v>
       </c>
       <c r="E31" t="n">
-        <v>1426.490324402982</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-59.85639996844861</v>
+        <v>1.025878981870613</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HII</t>
+          <t>DOV</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.547392829050255</v>
+        <v>0.0115388247919398</v>
       </c>
       <c r="C32" t="n">
-        <v>324.1900024414062</v>
+        <v>183.6199951171875</v>
       </c>
       <c r="D32" t="n">
-        <v>317.8900146484375</v>
+        <v>1422.782490582909</v>
       </c>
       <c r="E32" t="n">
-        <v>1445.570773038985</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-28.64851931285011</v>
+        <v>7.74851611162978</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.210697508153167</v>
+        <v>0.01149392495346393</v>
       </c>
       <c r="C33" t="n">
-        <v>179.2200012207031</v>
+        <v>244.1999969482422</v>
       </c>
       <c r="D33" t="n">
-        <v>177.6900024414062</v>
+        <v>1417.24616386287</v>
       </c>
       <c r="E33" t="n">
-        <v>1458.958860269385</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-12.56235716465017</v>
+        <v>5.80362891717502</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UPS</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>14.89684710161143</v>
+        <v>0.01085208544929715</v>
       </c>
       <c r="C34" t="n">
-        <v>95.02999877929688</v>
+        <v>246.3200073242188</v>
       </c>
       <c r="D34" t="n">
-        <v>96.18000030517578</v>
+        <v>1338.104828002496</v>
       </c>
       <c r="E34" t="n">
-        <v>1432.778758779144</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>17.13139689763784</v>
+        <v>5.43238384302748</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHRW</t>
+          <t>HAL</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.264294345878413</v>
+        <v>0.0105012239378863</v>
       </c>
       <c r="C35" t="n">
-        <v>150.6999969482422</v>
+        <v>26.93000030517578</v>
       </c>
       <c r="D35" t="n">
-        <v>152.9900054931641</v>
+        <v>1294.842223356352</v>
       </c>
       <c r="E35" t="n">
-        <v>1417.344442866227</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>21.21531321473299</v>
+        <v>48.08177529457699</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TRGP</t>
+          <t>FICO</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.997935558019277</v>
+        <v>0.01038719034173749</v>
       </c>
       <c r="C36" t="n">
-        <v>173.2299957275391</v>
+        <v>1777.910034179688</v>
       </c>
       <c r="D36" t="n">
-        <v>170.5800018310547</v>
+        <v>1280.781432343037</v>
       </c>
       <c r="E36" t="n">
-        <v>1364.287862131586</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-21.19448041322653</v>
+        <v>0.7203859631367561</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.15862478719704</v>
+        <v>0.01034114446835654</v>
       </c>
       <c r="C37" t="n">
-        <v>165.7299957275391</v>
+        <v>283.260009765625</v>
       </c>
       <c r="D37" t="n">
-        <v>167.1699981689453</v>
+        <v>1275.103795010699</v>
       </c>
       <c r="E37" t="n">
-        <v>1363.877290736841</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>11.74843961208126</v>
+        <v>4.501531282392264</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>DDOG</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.426363927113271</v>
+        <v>0.01008325811166627</v>
       </c>
       <c r="C38" t="n">
-        <v>556.72998046875</v>
+        <v>190.8899993896484</v>
       </c>
       <c r="D38" t="n">
-        <v>545.8599853515625</v>
+        <v>1243.305392705863</v>
       </c>
       <c r="E38" t="n">
-        <v>1324.45497771161</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-26.37456404024124</v>
+        <v>6.513203398193759</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>FOXA</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.608901308178716</v>
+        <v>0.01007461791927973</v>
       </c>
       <c r="C39" t="n">
-        <v>193.1600036621094</v>
+        <v>66.70999908447266</v>
       </c>
       <c r="D39" t="n">
-        <v>193.8000030517578</v>
+        <v>1242.240022994086</v>
       </c>
       <c r="E39" t="n">
-        <v>1280.805093693801</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>4.229692803481157</v>
+        <v>18.62149662783053</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.71537656281069</v>
+        <v>0.009663144292085977</v>
       </c>
       <c r="C40" t="n">
-        <v>59.9900016784668</v>
+        <v>273.4700012207031</v>
       </c>
       <c r="D40" t="n">
-        <v>60.27000045776367</v>
+        <v>1191.503706023846</v>
       </c>
       <c r="E40" t="n">
-        <v>1248.515754923347</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>5.800280150262097</v>
+        <v>4.356981389934052</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>91.26365821335081</v>
+        <v>0.009559611314142754</v>
       </c>
       <c r="C41" t="n">
-        <v>13.30000019073486</v>
+        <v>230.7299957275391</v>
       </c>
       <c r="D41" t="n">
-        <v>13.44999980926514</v>
+        <v>1178.737682544711</v>
       </c>
       <c r="E41" t="n">
-        <v>1227.496185562407</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>13.68951391767973</v>
+        <v>5.108731870028036</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>JCI</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5.130856381685914</v>
+        <v>0.009523645788341955</v>
       </c>
       <c r="C42" t="n">
-        <v>228.6699981689453</v>
+        <v>122.6600036621094</v>
       </c>
       <c r="D42" t="n">
-        <v>230.7299957275391</v>
+        <v>1174.302991725094</v>
       </c>
       <c r="E42" t="n">
-        <v>1183.842471025007</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>10.56955161976816</v>
+        <v>9.573642235980509</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>UPS</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6.063101424957401</v>
+        <v>0.009280850254538021</v>
       </c>
       <c r="C43" t="n">
-        <v>190.9600067138672</v>
+        <v>96.18000030517578</v>
       </c>
       <c r="D43" t="n">
-        <v>184.1699981689453</v>
+        <v>1144.365347249439</v>
       </c>
       <c r="E43" t="n">
-        <v>1116.641378332534</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-41.1685104841888</v>
+        <v>11.89816327322113</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>VTR</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.767536699161636</v>
+        <v>0.00921932966936934</v>
       </c>
       <c r="C44" t="n">
-        <v>237.5200042724609</v>
+        <v>76.90000152587891</v>
       </c>
       <c r="D44" t="n">
-        <v>258.8900146484375</v>
+        <v>1136.779617076159</v>
       </c>
       <c r="E44" t="n">
-        <v>1234.267645882919</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>101.8823087289334</v>
+        <v>14.7825694996066</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>10.45898451309843</v>
+        <v>0.009183925097370413</v>
       </c>
       <c r="C45" t="n">
-        <v>105.9800033569336</v>
+        <v>40.79000091552734</v>
       </c>
       <c r="D45" t="n">
-        <v>106.1800003051758</v>
+        <v>1132.414094067105</v>
       </c>
       <c r="E45" t="n">
-        <v>1110.53497879262</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2.091764984332031</v>
+        <v>27.7620512049568</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>CRWD</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.446551158695085</v>
+        <v>0.009161677057617182</v>
       </c>
       <c r="C46" t="n">
-        <v>249.1000061035156</v>
+        <v>545.8599853515625</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1999969482422</v>
+        <v>1129.670823241743</v>
       </c>
       <c r="E46" t="n">
-        <v>1085.847779383543</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-21.78814138699772</v>
+        <v>2.069524884690304</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PWR</t>
+          <t>CHRW</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.447498253790968</v>
+        <v>0.009146914050036686</v>
       </c>
       <c r="C47" t="n">
-        <v>448.9100036621094</v>
+        <v>152.9900054931641</v>
       </c>
       <c r="D47" t="n">
-        <v>449.4200134277344</v>
+        <v>1127.850486329396</v>
       </c>
       <c r="E47" t="n">
-        <v>1099.954698083093</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1.248248010783527</v>
+        <v>7.372053374949326</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9062992302483179</v>
+        <v>0.009066316008922867</v>
       </c>
       <c r="C48" t="n">
-        <v>1190.900024414062</v>
+        <v>177.5399932861328</v>
       </c>
       <c r="D48" t="n">
-        <v>1198.969970703125</v>
+        <v>1117.912430787369</v>
       </c>
       <c r="E48" t="n">
-        <v>1086.625561539091</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>7.313786109922603</v>
+        <v>6.296679469767028</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>9.865209034556495</v>
+        <v>0.008874305182945571</v>
       </c>
       <c r="C49" t="n">
-        <v>108.1600036621094</v>
+        <v>176.6699981689453</v>
       </c>
       <c r="D49" t="n">
-        <v>108.2600021362305</v>
+        <v>1094.236740573778</v>
       </c>
       <c r="E49" t="n">
-        <v>1068.007551155446</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.9865058503412456</v>
+        <v>6.193676073553733</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>NEE</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>14.48019694777751</v>
+        <v>0.008826275003791311</v>
       </c>
       <c r="C50" t="n">
-        <v>73.22000122070312</v>
+        <v>85.88999938964844</v>
       </c>
       <c r="D50" t="n">
-        <v>72.83999633789062</v>
+        <v>1088.314430533334</v>
       </c>
       <c r="E50" t="n">
-        <v>1054.737492648049</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-5.502545544242139</v>
+        <v>12.67102617612195</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HST</t>
+          <t>JBHT</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>58.70192147628782</v>
+        <v>0.008547643501056808</v>
       </c>
       <c r="C51" t="n">
-        <v>17.95000076293945</v>
+        <v>169.2599945068359</v>
       </c>
       <c r="D51" t="n">
-        <v>18.05999946594238</v>
+        <v>1053.958070109838</v>
       </c>
       <c r="E51" t="n">
-        <v>1060.15667051155</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>6.457135226171431</v>
+        <v>6.226858704448741</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>JBHT</t>
+          <t>KLAC</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>6.230683114340658</v>
+        <v>0.008183962982752068</v>
       </c>
       <c r="C52" t="n">
-        <v>168.0299987792969</v>
+        <v>1198.969970703125</v>
       </c>
       <c r="D52" t="n">
-        <v>169.2599945068359</v>
+        <v>1009.114831483704</v>
       </c>
       <c r="E52" t="n">
-        <v>1054.605389707135</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>7.663713610288823</v>
+        <v>0.8416514642914017</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>ABBV</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>14.03053605438393</v>
+        <v>0.008149011071800686</v>
       </c>
       <c r="C53" t="n">
-        <v>74.59999847412109</v>
+        <v>233.2299957275391</v>
       </c>
       <c r="D53" t="n">
-        <v>74.55999755859375</v>
+        <v>1004.805123362581</v>
       </c>
       <c r="E53" t="n">
-        <v>1046.116733960627</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-0.5612342875147078</v>
+        <v>4.308215674524136</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3.422853141178017</v>
+        <v>0.008071524420250716</v>
       </c>
       <c r="C54" t="n">
-        <v>288</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="D54" t="n">
-        <v>283.260009765625</v>
+        <v>995.2507143939825</v>
       </c>
       <c r="E54" t="n">
-        <v>969.5574141963854</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-16.22429046288357</v>
+        <v>73.99633669201961</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>NEM</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>14.46296711592885</v>
+        <v>0.00804000825638455</v>
       </c>
       <c r="C55" t="n">
-        <v>66.44000244140625</v>
+        <v>93.06999969482422</v>
       </c>
       <c r="D55" t="n">
-        <v>66.70999908447266</v>
+        <v>991.3646474046956</v>
       </c>
       <c r="E55" t="n">
-        <v>964.8245230623719</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3.904952570080582</v>
+        <v>10.65181745627348</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>HCA</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3.696255390527555</v>
+        <v>0.007714741988890468</v>
       </c>
       <c r="C56" t="n">
-        <v>247.1600036621094</v>
+        <v>473.6099853515625</v>
       </c>
       <c r="D56" t="n">
-        <v>246.3200073242188</v>
+        <v>951.258037025179</v>
       </c>
       <c r="E56" t="n">
-        <v>910.4616548669304</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-3.104840991951619</v>
+        <v>2.008526142705915</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NEE</t>
+          <t>EXPD</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>10.62010783347769</v>
+        <v>0.007626176222362607</v>
       </c>
       <c r="C57" t="n">
-        <v>85.76000213623047</v>
+        <v>140.6799926757812</v>
       </c>
       <c r="D57" t="n">
-        <v>85.88999938964844</v>
+        <v>940.3375295945682</v>
       </c>
       <c r="E57" t="n">
-        <v>912.1610553353991</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1.380584849354818</v>
+        <v>6.684230726125506</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>STLD</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>11.91376274905129</v>
+        <v>0.007439308437464184</v>
       </c>
       <c r="C58" t="n">
-        <v>71.91000366210938</v>
+        <v>157.8500061035156</v>
       </c>
       <c r="D58" t="n">
-        <v>70.48000335693359</v>
+        <v>917.2959965787269</v>
       </c>
       <c r="E58" t="n">
-        <v>839.6820385468452</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-17.03668436693522</v>
+        <v>5.811187590180885</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>8.985982499213877</v>
+        <v>0.007305119379225093</v>
       </c>
       <c r="C59" t="n">
-        <v>93.52999877929688</v>
+        <v>118.120002746582</v>
       </c>
       <c r="D59" t="n">
-        <v>92.47000122070312</v>
+        <v>900.7499577980918</v>
       </c>
       <c r="E59" t="n">
-        <v>830.9338126715242</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-9.525119510732907</v>
+        <v>7.625719072582364</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>PWR</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>8.980550951387309</v>
+        <v>0.007282106210344959</v>
       </c>
       <c r="C60" t="n">
-        <v>89.94999694824219</v>
+        <v>449.4200134277344</v>
       </c>
       <c r="D60" t="n">
-        <v>93.06999969482422</v>
+        <v>897.912343541365</v>
       </c>
       <c r="E60" t="n">
-        <v>835.8198743049702</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>28.0193436341483</v>
+        <v>1.997935821088544</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>REGN</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>8.328318653270328</v>
+        <v>0.007140210740305074</v>
       </c>
       <c r="C61" t="n">
-        <v>96.44999694824219</v>
+        <v>681.719970703125</v>
       </c>
       <c r="D61" t="n">
-        <v>96.30000305175781</v>
+        <v>880.416073868668</v>
       </c>
       <c r="E61" t="n">
-        <v>802.0171117259441</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-1.249196965967485</v>
+        <v>1.291462934495828</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>EPAM</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.8081660875907724</v>
+        <v>0.006867858575738948</v>
       </c>
       <c r="C62" t="n">
-        <v>988.6199951171875</v>
+        <v>180.1199951171875</v>
       </c>
       <c r="D62" t="n">
-        <v>1017.780029296875</v>
+        <v>846.8339805442492</v>
       </c>
       <c r="E62" t="n">
-        <v>822.5353043048772</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>23.5661507370113</v>
+        <v>4.701499020102085</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>KEYS</t>
+          <t>HST</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4.267366901184434</v>
+        <v>0.006840784447321542</v>
       </c>
       <c r="C63" t="n">
-        <v>182.4600067138672</v>
+        <v>18.05999946594238</v>
       </c>
       <c r="D63" t="n">
-        <v>184.0500030517578</v>
+        <v>843.4956340007618</v>
       </c>
       <c r="E63" t="n">
-        <v>785.4088911859653</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>6.785097745318922</v>
+        <v>46.70518598804109</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>WBD</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4.050165948104199</v>
+        <v>0.006707990600866972</v>
       </c>
       <c r="C64" t="n">
-        <v>180.8600006103516</v>
+        <v>22.19000053405762</v>
       </c>
       <c r="D64" t="n">
-        <v>177.5399932861328</v>
+        <v>827.1216303219214</v>
       </c>
       <c r="E64" t="n">
-        <v>719.0664352341433</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-13.44658061200732</v>
+        <v>37.27452052344209</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GLW</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>8.305599319723404</v>
+        <v>0.006706078302693176</v>
       </c>
       <c r="C65" t="n">
-        <v>87.93000030517578</v>
+        <v>60.84000015258789</v>
       </c>
       <c r="D65" t="n">
-        <v>89.01000213623047</v>
+        <v>826.8858364341113</v>
       </c>
       <c r="E65" t="n">
-        <v>739.2814131912545</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>8.970062473307848</v>
+        <v>13.59115441091824</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6.932184994534686</v>
+        <v>0.006684875637449942</v>
       </c>
       <c r="C66" t="n">
-        <v>103.879997253418</v>
+        <v>267.5199890136719</v>
       </c>
       <c r="D66" t="n">
-        <v>110.3199996948242</v>
+        <v>824.2714643983355</v>
       </c>
       <c r="E66" t="n">
-        <v>764.7586464815316</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>44.64328828908322</v>
+        <v>3.08115841151672</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>IQV</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.4005464265705815</v>
+        <v>0.006613123040867873</v>
       </c>
       <c r="C67" t="n">
-        <v>1797.68994140625</v>
+        <v>220.8800048828125</v>
       </c>
       <c r="D67" t="n">
-        <v>1777.910034179688</v>
+        <v>815.4240869650514</v>
       </c>
       <c r="E67" t="n">
-        <v>712.1355109546544</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-7.922771157497209</v>
+        <v>3.691706215769387</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KEYS</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>18.78797397366716</v>
+        <v>0.006457366830957285</v>
       </c>
       <c r="C68" t="n">
-        <v>37.61000061035156</v>
+        <v>184.0500030517578</v>
       </c>
       <c r="D68" t="n">
-        <v>36.06999969482422</v>
+        <v>796.2187335381461</v>
       </c>
       <c r="E68" t="n">
-        <v>677.6822154965398</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-28.93349712035138</v>
+        <v>4.326100083324838</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>EXE</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1.043486541279445</v>
+        <v>0.006381674377008905</v>
       </c>
       <c r="C69" t="n">
-        <v>674.5499877929688</v>
+        <v>118.8850021362305</v>
       </c>
       <c r="D69" t="n">
-        <v>681.719970703125</v>
+        <v>786.885556192197</v>
       </c>
       <c r="E69" t="n">
-        <v>711.3656143501283</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>7.481780667951739</v>
+        <v>6.618879943245523</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>DLTR</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3.212650395624531</v>
+        <v>0.0062908202690387</v>
       </c>
       <c r="C70" t="n">
-        <v>218.5299987792969</v>
+        <v>106.1800003051758</v>
       </c>
       <c r="D70" t="n">
-        <v>220.8800048828125</v>
+        <v>775.6828872594101</v>
       </c>
       <c r="E70" t="n">
-        <v>709.6102350723158</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>7.549748038179473</v>
+        <v>7.305357741853379</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2.631649719042674</v>
+        <v>0.006080457400598822</v>
       </c>
       <c r="C71" t="n">
-        <v>264.1499938964844</v>
+        <v>91.44999694824219</v>
       </c>
       <c r="D71" t="n">
-        <v>267.5199890136719</v>
+        <v>749.7443180132487</v>
       </c>
       <c r="E71" t="n">
-        <v>704.0189039261289</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>8.868646703321701</v>
+        <v>8.198407250222003</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2.351893317206776</v>
+        <v>0.006025458581793025</v>
       </c>
       <c r="C72" t="n">
-        <v>277.1900024414062</v>
+        <v>194.3899993896484</v>
       </c>
       <c r="D72" t="n">
-        <v>273.8500061035156</v>
+        <v>742.9627472891408</v>
       </c>
       <c r="E72" t="n">
-        <v>644.0659992718932</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-7.855315066580033</v>
+        <v>3.822021449775799</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>VTRS</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>7.152040191332375</v>
+        <v>0.005840911250905753</v>
       </c>
       <c r="C73" t="n">
-        <v>90.94999694824219</v>
+        <v>11.01000022888184</v>
       </c>
       <c r="D73" t="n">
-        <v>91.44999694824219</v>
+        <v>720.2073353815405</v>
       </c>
       <c r="E73" t="n">
-        <v>654.0540536710512</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>3.576020095666195</v>
+        <v>65.41392555944424</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>FDX</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>17.16965145937388</v>
+        <v>0.005790644298336456</v>
       </c>
       <c r="C74" t="n">
-        <v>37.88000106811523</v>
+        <v>268.6700134277344</v>
       </c>
       <c r="D74" t="n">
-        <v>37.88999938964844</v>
+        <v>714.0092223795547</v>
       </c>
       <c r="E74" t="n">
-        <v>650.5580833161526</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.1716676959039205</v>
+        <v>2.657569459539278</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PLD</t>
+          <t>HSIC</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5.0250414895579</v>
+        <v>0.005725910882352873</v>
       </c>
       <c r="C75" t="n">
-        <v>126.2600021362305</v>
+        <v>72.83999633789062</v>
       </c>
       <c r="D75" t="n">
-        <v>124.8399963378906</v>
+        <v>706.0273375275203</v>
       </c>
       <c r="E75" t="n">
-        <v>627.3261611541567</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-7.135588052070489</v>
+        <v>9.692852457767795</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>WELL</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.8873772950988986</v>
+        <v>0.005581243400664278</v>
       </c>
       <c r="C76" t="n">
-        <v>712.469970703125</v>
+        <v>191.6399993896484</v>
       </c>
       <c r="D76" t="n">
-        <v>713.5599975585938</v>
+        <v>688.1892679134437</v>
       </c>
       <c r="E76" t="n">
-        <v>633.1969405243216</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.9672650825909841</v>
+        <v>3.591052338265749</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>HOLX</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3.323490315334209</v>
+        <v>0.005567742108659797</v>
       </c>
       <c r="C77" t="n">
-        <v>180.1600036621094</v>
+        <v>74.55999755859375</v>
       </c>
       <c r="D77" t="n">
-        <v>180.1199951171875</v>
+        <v>686.5245054952084</v>
       </c>
       <c r="E77" t="n">
-        <v>598.6270593700177</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-0.1329680115784413</v>
+        <v>9.207678755028068</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>WELL</t>
+          <t>GLW</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2.943783084839833</v>
+        <v>0.00555316836779823</v>
       </c>
       <c r="C78" t="n">
-        <v>192.3099975585938</v>
+        <v>89.01000213623047</v>
       </c>
       <c r="D78" t="n">
-        <v>191.6399993896484</v>
+        <v>684.7275059138807</v>
       </c>
       <c r="E78" t="n">
-        <v>564.146588581963</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-1.972329276614914</v>
+        <v>7.692702948887701</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3.256658373528944</v>
+        <v>0.005524269334062091</v>
       </c>
       <c r="C79" t="n">
-        <v>168.6699981689453</v>
+        <v>37.88999938964844</v>
       </c>
       <c r="D79" t="n">
-        <v>171.0800018310547</v>
+        <v>681.164141365416</v>
       </c>
       <c r="E79" t="n">
-        <v>557.1491205064513</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>7.84855860644393</v>
+        <v>17.97741230767901</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EXPD</t>
+          <t>PCG</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3.841522223364909</v>
+        <v>0.005473301012901395</v>
       </c>
       <c r="C80" t="n">
-        <v>139.5099945068359</v>
+        <v>16.80999946594238</v>
       </c>
       <c r="D80" t="n">
-        <v>140.6799926757812</v>
+        <v>674.8795468569267</v>
       </c>
       <c r="E80" t="n">
-        <v>540.4253182468262</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="n">
-        <v>4.49457396729963</v>
+        <v>40.14750555014919</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>STLD</t>
+          <t>NUE</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3.096546138825241</v>
+        <v>0.005379356375389756</v>
       </c>
       <c r="C81" t="n">
-        <v>152.3800048828125</v>
+        <v>148.3800048828125</v>
       </c>
       <c r="D81" t="n">
-        <v>157.8500061035156</v>
+        <v>663.2958034735376</v>
       </c>
       <c r="E81" t="n">
-        <v>488.789826913382</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>16.93811115933761</v>
+        <v>4.470250583947582</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MPC</t>
+          <t>GILD</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2.191529431790114</v>
+        <v>0.005277508210620776</v>
       </c>
       <c r="C82" t="n">
-        <v>200.1300048828125</v>
+        <v>123.4000015258789</v>
       </c>
       <c r="D82" t="n">
-        <v>196.8999938964844</v>
+        <v>650.7375240868423</v>
       </c>
       <c r="E82" t="n">
-        <v>431.5121317434393</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-7.078664141543527</v>
+        <v>5.273399643762342</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>AME</t>
+          <t>DHR</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2.158941098173346</v>
+        <v>0.005252690537214255</v>
       </c>
       <c r="C83" t="n">
-        <v>197.6399993896484</v>
+        <v>219.3999938964844</v>
       </c>
       <c r="D83" t="n">
-        <v>196.7899932861328</v>
+        <v>647.677407323091</v>
       </c>
       <c r="E83" t="n">
-        <v>424.858004214689</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-1.835113110578106</v>
+        <v>2.952039313313168</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>VRTX</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.9787403081728104</v>
+        <v>0.005087614801187273</v>
       </c>
       <c r="C84" t="n">
-        <v>429.2200012207031</v>
+        <v>193.8000030517578</v>
       </c>
       <c r="D84" t="n">
-        <v>434.1900024414062</v>
+        <v>627.3229196630185</v>
       </c>
       <c r="E84" t="n">
-        <v>424.9592567950553</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" t="n">
-        <v>4.864340526370256</v>
+        <v>3.236960318805983</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>10.06900067494275</v>
+        <v>0.004851006337274716</v>
       </c>
       <c r="C85" t="n">
-        <v>40.40000152587891</v>
+        <v>177.6900024414062</v>
       </c>
       <c r="D85" t="n">
-        <v>40.79000091552734</v>
+        <v>598.1481652449032</v>
       </c>
       <c r="E85" t="n">
-        <v>410.7145467493604</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
-        <v>3.92690411759736</v>
+        <v>3.366245466973552</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>IDXX</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4.215364109024152</v>
+        <v>0.0047760543930037</v>
       </c>
       <c r="C86" t="n">
-        <v>94.30999755859375</v>
+        <v>713.5599975585938</v>
       </c>
       <c r="D86" t="n">
-        <v>94.12999725341797</v>
+        <v>588.9062956553382</v>
       </c>
       <c r="E86" t="n">
-        <v>396.7922120046001</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-0.7587668260513851</v>
+        <v>0.8253073289845966</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>ROST</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2.236636594994189</v>
+        <v>0.00471790897901089</v>
       </c>
       <c r="C87" t="n">
-        <v>173.9799957275391</v>
+        <v>162.8500061035156</v>
       </c>
       <c r="D87" t="n">
-        <v>176.6699981689453</v>
+        <v>581.7367373659662</v>
       </c>
       <c r="E87" t="n">
-        <v>395.1465831422195</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" t="n">
-        <v>6.016557901072929</v>
+        <v>3.572224228202885</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>IBKR</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>22.50121152719552</v>
+        <v>0.00431392719323789</v>
       </c>
       <c r="C88" t="n">
-        <v>16.59000015258789</v>
+        <v>72.69999694824219</v>
       </c>
       <c r="D88" t="n">
-        <v>16.80999946594238</v>
+        <v>531.92419391581</v>
       </c>
       <c r="E88" t="n">
-        <v>378.2453537552133</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="n">
-        <v>4.950251085627201</v>
+        <v>7.316701736514603</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1.711696779551381</v>
+        <v>0.004110349883773462</v>
       </c>
       <c r="C89" t="n">
-        <v>215.7899932861328</v>
+        <v>96.30000305175781</v>
       </c>
       <c r="D89" t="n">
-        <v>219.3999938964844</v>
+        <v>506.8223107857106</v>
       </c>
       <c r="E89" t="n">
-        <v>375.5462629862049</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="n">
-        <v>6.179226418917267</v>
+        <v>5.262952177824041</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>VRTX</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4.898802439683705</v>
+        <v>0.00404317687329586</v>
       </c>
       <c r="C90" t="n">
-        <v>73.33000183105469</v>
+        <v>434.1900024414062</v>
       </c>
       <c r="D90" t="n">
-        <v>73.61000061035156</v>
+        <v>498.5396143351991</v>
       </c>
       <c r="E90" t="n">
-        <v>360.6008505751093</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1.371658703127991</v>
+        <v>1.148206111453423</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>ALB</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2.187598993412966</v>
+        <v>0.003949126618823059</v>
       </c>
       <c r="C91" t="n">
-        <v>162.7299957275391</v>
+        <v>110.3199996948242</v>
       </c>
       <c r="D91" t="n">
-        <v>162.8500061035156</v>
+        <v>486.9428479650015</v>
       </c>
       <c r="E91" t="n">
-        <v>356.2505094293461</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.2625345776854715</v>
+        <v>4.413912702248195</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.944330581624688</v>
+        <v>0.003648248607387982</v>
       </c>
       <c r="C92" t="n">
-        <v>169.8099975585938</v>
+        <v>171.0800018310547</v>
       </c>
       <c r="D92" t="n">
-        <v>170.8999938964844</v>
+        <v>449.8434055009596</v>
       </c>
       <c r="E92" t="n">
-        <v>332.286084532407</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>2.119313213619648</v>
+        <v>2.629433017806429</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>JCI</t>
+          <t>BIIB</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2.051688988875154</v>
+        <v>0.003363516938998854</v>
       </c>
       <c r="C93" t="n">
-        <v>121.9400024414062</v>
+        <v>161.4799957275391</v>
       </c>
       <c r="D93" t="n">
-        <v>122.6600036621094</v>
+        <v>414.7348706541968</v>
       </c>
       <c r="E93" t="n">
-        <v>251.6601788889358</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1.477218576493271</v>
+        <v>2.568335903067325</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>FDX</t>
+          <t>ALGN</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.9135692649550056</v>
+        <v>0.003336823577403791</v>
       </c>
       <c r="C94" t="n">
-        <v>267.7200012207031</v>
+        <v>141.6900024414062</v>
       </c>
       <c r="D94" t="n">
-        <v>268.6700134277344</v>
+        <v>411.443474157841</v>
       </c>
       <c r="E94" t="n">
-        <v>245.4486666826268</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.8679019536758119</v>
+        <v>2.903828548721969</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>GILD</t>
+          <t>HWM</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1.925042530270435</v>
+        <v>0.003315867252355561</v>
       </c>
       <c r="C95" t="n">
-        <v>122.5599975585938</v>
+        <v>205.0700073242188</v>
       </c>
       <c r="D95" t="n">
-        <v>123.4000015258789</v>
+        <v>408.8594768372114</v>
       </c>
       <c r="E95" t="n">
-        <v>237.5502511727535</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1.617043362619825</v>
+        <v>1.99375560654659</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.9961231728407511</v>
+        <v>0.003285171238962202</v>
       </c>
       <c r="C96" t="n">
-        <v>193.8300018310547</v>
+        <v>1017.780029296875</v>
       </c>
       <c r="D96" t="n">
-        <v>194.3899993896484</v>
+        <v>405.0745376276936</v>
       </c>
       <c r="E96" t="n">
-        <v>193.6363829605283</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.5578265448494619</v>
+        <v>0.397998119404579</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CINF</t>
+          <t>PODD</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1.002896762708651</v>
+        <v>0.003162247486437833</v>
       </c>
       <c r="C97" t="n">
-        <v>166.1300048828125</v>
+        <v>336.8399963378906</v>
       </c>
       <c r="D97" t="n">
-        <v>166.8899993896484</v>
+        <v>389.9175553593964</v>
       </c>
       <c r="E97" t="n">
-        <v>167.3734401163271</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.7621960305821176</v>
+        <v>1.15757498990192</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BIIB</t>
+          <t>EIX</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.9549258179608126</v>
+        <v>0.002918793119003797</v>
       </c>
       <c r="C98" t="n">
-        <v>159.5599975585938</v>
+        <v>58.7599983215332</v>
       </c>
       <c r="D98" t="n">
-        <v>161.4799957275391</v>
+        <v>359.8986741052983</v>
       </c>
       <c r="E98" t="n">
-        <v>154.2014170044287</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1.833455821963355</v>
+        <v>6.124892518477315</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>EIX</t>
+          <t>DVN</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2.582595766503977</v>
+        <v>0.002491856739122651</v>
       </c>
       <c r="C99" t="n">
-        <v>57.86999893188477</v>
+        <v>35.22000122070312</v>
       </c>
       <c r="D99" t="n">
-        <v>58.7599983215332</v>
+        <v>307.2557388982345</v>
       </c>
       <c r="E99" t="n">
-        <v>151.7533229049725</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0</v>
-      </c>
-      <c r="G99" t="n">
-        <v>2.298508655897194</v>
+        <v>8.723899155279488</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>PSX</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2.18385893718847</v>
+        <v>0.001938843903748376</v>
       </c>
       <c r="C100" t="n">
-        <v>67.40000152587891</v>
+        <v>138.0200042724609</v>
       </c>
       <c r="D100" t="n">
-        <v>67.19999694824219</v>
+        <v>239.067080744092</v>
       </c>
       <c r="E100" t="n">
-        <v>146.7553139144566</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-0.4367817843505577</v>
+        <v>1.732119064944798</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>AME</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1.862019418596748</v>
+        <v>0.001837408049776517</v>
       </c>
       <c r="C101" t="n">
-        <v>71.70999908447266</v>
+        <v>196.7899932861328</v>
       </c>
       <c r="D101" t="n">
-        <v>73.95999908447266</v>
+        <v>226.5596409007124</v>
       </c>
       <c r="E101" t="n">
-        <v>137.7149544946858</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" t="n">
-        <v>4.189543691842687</v>
+        <v>1.151276226587876</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>AES</t>
+          <t>UHS</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>9.19866368501458</v>
+        <v>0.001826927678798005</v>
       </c>
       <c r="C102" t="n">
-        <v>14.27000045776367</v>
+        <v>228.4199981689453</v>
       </c>
       <c r="D102" t="n">
-        <v>14.06999969482422</v>
+        <v>225.2673699292824</v>
       </c>
       <c r="E102" t="n">
-        <v>129.4251952409458</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-1.839739755026358</v>
+        <v>0.9861981075871861</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.6260705391411131</v>
+        <v>0.001654334394251147</v>
       </c>
       <c r="C103" t="n">
-        <v>201.9299926757812</v>
+        <v>73.61000061035156</v>
       </c>
       <c r="D103" t="n">
-        <v>202</v>
+        <v>203.9859389626734</v>
       </c>
       <c r="E103" t="n">
-        <v>126.4662489065048</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.04382952321745393</v>
+        <v>2.771171542878474</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>APA</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>4.791115876288406</v>
+        <v>0.001558007106133019</v>
       </c>
       <c r="C104" t="n">
-        <v>24.59000015258789</v>
+        <v>36.06999969482422</v>
       </c>
       <c r="D104" t="n">
-        <v>23.88999938964844</v>
+        <v>192.1084053861567</v>
       </c>
       <c r="E104" t="n">
-        <v>114.4597553602649</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-3.35378476873322</v>
+        <v>5.325988550360949</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>DVN</t>
+          <t>TECH</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3.312700385169815</v>
+        <v>0.001345070042264095</v>
       </c>
       <c r="C105" t="n">
-        <v>35.15999984741211</v>
+        <v>61.40000152587891</v>
       </c>
       <c r="D105" t="n">
-        <v>35.22000122070312</v>
+        <v>165.8524277167091</v>
       </c>
       <c r="E105" t="n">
-        <v>116.6733116095046</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.1987665724118557</v>
+        <v>2.70117953737844</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.5190546336988748</v>
+        <v>0.00132522647954929</v>
       </c>
       <c r="C106" t="n">
-        <v>208.8999938964844</v>
+        <v>202</v>
       </c>
       <c r="D106" t="n">
-        <v>205.0700073242188</v>
+        <v>163.405638369398</v>
       </c>
       <c r="E106" t="n">
-        <v>106.4425375342979</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-1.98797227733894</v>
+        <v>0.808938803808901</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>LHX</t>
+          <t>RL</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.319459313277208</v>
+        <v>0.0009011413382101666</v>
       </c>
       <c r="C107" t="n">
-        <v>301.6799926757812</v>
+        <v>340.2099914550781</v>
       </c>
       <c r="D107" t="n">
-        <v>300.239990234375</v>
+        <v>111.1142720913381</v>
       </c>
       <c r="E107" t="n">
-        <v>95.91446109862908</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-0.4600221910491484</v>
+        <v>0.3266049642343022</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>TRGP</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.1558293936585162</v>
+        <v>0.0005406817213316708</v>
       </c>
       <c r="C108" t="n">
-        <v>572.1799926757812</v>
+        <v>170.5800018310547</v>
       </c>
       <c r="D108" t="n">
-        <v>569.510009765625</v>
+        <v>66.66818328208673</v>
       </c>
       <c r="E108" t="n">
-        <v>88.74639950423298</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-0.4160618179682416</v>
+        <v>0.3908323517789384</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>TGT</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1.215971808924237</v>
+        <v>0.0004429189072831685</v>
       </c>
       <c r="C109" t="n">
-        <v>73.12999725341797</v>
+        <v>91.91000366210938</v>
       </c>
       <c r="D109" t="n">
-        <v>74.19999694824219</v>
+        <v>54.61364371099592</v>
       </c>
       <c r="E109" t="n">
-        <v>90.22510451132692</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1.301089464463786</v>
+        <v>0.5942078286904783</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
+          <t>COO</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.0002799692470475691</v>
+      </c>
+      <c r="C110" t="n">
+        <v>72.48999786376953</v>
+      </c>
+      <c r="D110" t="n">
+        <v>34.52130955998315</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.4762216937128068</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Shares</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Exit_Price</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Sale_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Transaction_Cost</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Gain_Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>161.4951511835121</v>
+      </c>
+      <c r="C2" t="n">
+        <v>25.8700008392334</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.79000091552734</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4164.960096876003</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-12.91959977357874</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.350272252861834</v>
+      </c>
+      <c r="C3" t="n">
+        <v>573.02001953125</v>
+      </c>
+      <c r="D3" t="n">
+        <v>553.5499877929688</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3515.193128053696</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-123.6400023099468</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>27.61936635625656</v>
+      </c>
+      <c r="C4" t="n">
+        <v>122.6800003051758</v>
+      </c>
+      <c r="D4" t="n">
+        <v>121.4800033569336</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3355.200717674425</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-33.14315533989111</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CTRA</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>117.0366586634027</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25.90999794006348</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.84000015258789</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3024.227277720703</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-8.192307159973552</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CAH</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>13.3429673927802</v>
+      </c>
+      <c r="C6" t="n">
+        <v>204.3200073242188</v>
+      </c>
+      <c r="D6" t="n">
+        <v>206.0599975585938</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2749.451828380685</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>23.21663296102179</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>28.96851818176652</v>
+      </c>
+      <c r="C7" t="n">
+        <v>85.58000183105469</v>
+      </c>
+      <c r="D7" t="n">
+        <v>86.11000061035156</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2494.479118312895</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15.35327927437584</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.373203645766865</v>
+      </c>
+      <c r="C8" t="n">
+        <v>363.4200134277344</v>
+      </c>
+      <c r="D8" t="n">
+        <v>365.4500122070312</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2329.087350143397</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>12.93759562111745</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.204124678811339</v>
+      </c>
+      <c r="C9" t="n">
+        <v>317.8900146484375</v>
+      </c>
+      <c r="D9" t="n">
+        <v>312.6700134277344</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2252.513760059014</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-37.60553961749292</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>31.26533170537829</v>
+      </c>
+      <c r="C10" t="n">
+        <v>71.83999633789062</v>
+      </c>
+      <c r="D10" t="n">
+        <v>71.88999938964844</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2247.664677216801</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.563361999489189</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.894120898977289</v>
+      </c>
+      <c r="C11" t="n">
+        <v>372.7699890136719</v>
+      </c>
+      <c r="D11" t="n">
+        <v>364.7300109863281</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2149.762780238733</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-47.3886025182851</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>12.43607702254302</v>
+      </c>
+      <c r="C12" t="n">
+        <v>166.1100006103516</v>
+      </c>
+      <c r="D12" t="n">
+        <v>157.1600036621094</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1954.453910405136</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-111.3028513998647</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3.592642261467109</v>
+      </c>
+      <c r="C13" t="n">
+        <v>572.4500122070312</v>
+      </c>
+      <c r="D13" t="n">
+        <v>565.510009765625</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2031.675160366662</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-24.93294606568111</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8.391494761901564</v>
+      </c>
+      <c r="C14" t="n">
+        <v>244.8999938964844</v>
+      </c>
+      <c r="D14" t="n">
+        <v>236.9499969482422</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1988.364658223766</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-66.7123577483078</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>18.42471935608603</v>
+      </c>
+      <c r="C15" t="n">
+        <v>108.2600021362305</v>
+      </c>
+      <c r="D15" t="n">
+        <v>105.4100036621094</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1942.149734798366</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-52.5104220509545</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>11.48391971084755</v>
+      </c>
+      <c r="C16" t="n">
+        <v>167.1699981689453</v>
+      </c>
+      <c r="D16" t="n">
+        <v>165.2700042724609</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1897.947459676373</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-21.81937735832707</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6.675488249155423</v>
+      </c>
+      <c r="C17" t="n">
+        <v>287.4299926757812</v>
+      </c>
+      <c r="D17" t="n">
+        <v>279.1199951171875</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1863.262247509104</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-55.47329105290282</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6.572771313225876</v>
+      </c>
+      <c r="C18" t="n">
+        <v>286.7099914550781</v>
+      </c>
+      <c r="D18" t="n">
+        <v>278.5700073242188</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1830.976952865747</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-53.50225418542641</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>12.40140338241279</v>
+      </c>
+      <c r="C19" t="n">
+        <v>151.5200042724609</v>
+      </c>
+      <c r="D19" t="n">
+        <v>146.8899993896484</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1821.642135273399</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-57.41855821429863</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>13.18729136962066</v>
+      </c>
+      <c r="C20" t="n">
+        <v>141.9199981689453</v>
+      </c>
+      <c r="D20" t="n">
+        <v>135.25</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1783.581157741195</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-87.95920928871828</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5.856230990705193</v>
+      </c>
+      <c r="C21" t="n">
+        <v>314.9800109863281</v>
+      </c>
+      <c r="D21" t="n">
+        <v>304.8599853515625</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1785.330494041752</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-59.26520774904566</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9.825944083093034</v>
+      </c>
+      <c r="C22" t="n">
+        <v>179.2700042724609</v>
+      </c>
+      <c r="D22" t="n">
+        <v>169.5899963378906</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1666.381821068066</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-95.11521668898467</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>28.86947290598177</v>
+      </c>
+      <c r="C23" t="n">
+        <v>60.27000045776367</v>
+      </c>
+      <c r="D23" t="n">
+        <v>58.95000076293945</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1701.855449833285</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-38.10769542563207</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2.021981206925893</v>
+      </c>
+      <c r="C24" t="n">
+        <v>840.75</v>
+      </c>
+      <c r="D24" t="n">
+        <v>846.239990234375</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1711.081356803057</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>11.1006570801128</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2.836458794579479</v>
+      </c>
+      <c r="C25" t="n">
+        <v>588.02001953125</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.1300048828125</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1645.514854349289</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-22.37970143892153</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6.27172689594456</v>
+      </c>
+      <c r="C26" t="n">
+        <v>258.8900146484375</v>
+      </c>
+      <c r="D26" t="n">
+        <v>247.9600067138672</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1555.137443225954</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-68.55002473613195</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>9.780910461603799</v>
+      </c>
+      <c r="C27" t="n">
+        <v>161.4199981689453</v>
+      </c>
+      <c r="D27" t="n">
+        <v>153.3200073242188</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1499.609263610622</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-79.22528519208095</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>22.01963188670508</v>
+      </c>
+      <c r="C28" t="n">
+        <v>70.48000335693359</v>
+      </c>
+      <c r="D28" t="n">
+        <v>71.08000183105469</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1565.155474826147</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>13.21174553273136</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3.951482078489827</v>
+      </c>
+      <c r="C29" t="n">
+        <v>387.3699951171875</v>
+      </c>
+      <c r="D29" t="n">
+        <v>379.2999877929688</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1498.797104135326</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-31.88848931493203</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>22.58170435904557</v>
+      </c>
+      <c r="C30" t="n">
+        <v>66.65000152587891</v>
+      </c>
+      <c r="D30" t="n">
+        <v>65.59999847412109</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1481.359771496443</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-23.71085849089059</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.025878981870613</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1447.81005859375</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1412.180053710938</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1448.725835718964</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-36.55207313322467</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DOV</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>7.74851611162978</v>
+      </c>
+      <c r="C32" t="n">
+        <v>183.6199951171875</v>
+      </c>
+      <c r="D32" t="n">
+        <v>181.9700012207031</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1409.997486291909</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-12.78500429099995</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5.80362891717502</v>
+      </c>
+      <c r="C33" t="n">
+        <v>244.1999969482422</v>
+      </c>
+      <c r="D33" t="n">
+        <v>237.5800018310547</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1378.826168769203</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-38.41999509366678</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5.43238384302748</v>
+      </c>
+      <c r="C34" t="n">
+        <v>246.3200073242188</v>
+      </c>
+      <c r="D34" t="n">
+        <v>236.2799987792969</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1283.563647799205</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-54.54118020329133</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>48.08177529457699</v>
+      </c>
+      <c r="C35" t="n">
+        <v>26.93000030517578</v>
+      </c>
+      <c r="D35" t="n">
+        <v>27.02000045776367</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1299.16959046956</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4.327367113208538</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.7203859631367561</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1777.910034179688</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1737.27001953125</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1251.504936248631</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-29.27649609440641</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>4.501531282392264</v>
+      </c>
+      <c r="C37" t="n">
+        <v>283.260009765625</v>
+      </c>
+      <c r="D37" t="n">
+        <v>262.5599975585938</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1181.922042514846</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-93.18175249585306</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>6.513203398193759</v>
+      </c>
+      <c r="C38" t="n">
+        <v>190.8899993896484</v>
+      </c>
+      <c r="D38" t="n">
+        <v>185.9700012207031</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1211.260443912781</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-32.04494879308163</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>18.62149662783053</v>
+      </c>
+      <c r="C39" t="n">
+        <v>66.70999908447266</v>
+      </c>
+      <c r="D39" t="n">
+        <v>65.44000244140625</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1218.590784787868</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-23.64923820621721</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4.356981389934052</v>
+      </c>
+      <c r="C40" t="n">
+        <v>273.4700012207031</v>
+      </c>
+      <c r="D40" t="n">
+        <v>272.9500122070312</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1189.238123568308</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-2.265582455538379</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5.108731870028036</v>
+      </c>
+      <c r="C41" t="n">
+        <v>230.7299957275391</v>
+      </c>
+      <c r="D41" t="n">
+        <v>223.2299957275391</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1140.422193519501</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-38.31548902521013</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>JCI</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>9.573642235980509</v>
+      </c>
+      <c r="C42" t="n">
+        <v>122.6600036621094</v>
+      </c>
+      <c r="D42" t="n">
+        <v>120.1999969482422</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1150.75176754842</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-23.5512241766744</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>11.89816327322113</v>
+      </c>
+      <c r="C43" t="n">
+        <v>96.18000030517578</v>
+      </c>
+      <c r="D43" t="n">
+        <v>95.97000122070312</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1141.866743855157</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-2.498603394282554</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>VTR</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>14.7825694996066</v>
+      </c>
+      <c r="C44" t="n">
+        <v>76.90000152587891</v>
+      </c>
+      <c r="D44" t="n">
+        <v>77.23999786376953</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1141.805636570639</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5.026019494479897</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>27.7620512049568</v>
+      </c>
+      <c r="C45" t="n">
+        <v>40.79000091552734</v>
+      </c>
+      <c r="D45" t="n">
+        <v>40.59999847412109</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1127.139236559718</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-5.274857507386969</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2.069524884690304</v>
+      </c>
+      <c r="C46" t="n">
+        <v>545.8599853515625</v>
+      </c>
+      <c r="D46" t="n">
+        <v>529.780029296875</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1096.392954041841</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-33.27786919990217</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>7.372053374949326</v>
+      </c>
+      <c r="C47" t="n">
+        <v>152.9900054931641</v>
+      </c>
+      <c r="D47" t="n">
+        <v>151.6600036621094</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1118.045641842081</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-9.804844487315449</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>6.296679469767028</v>
+      </c>
+      <c r="C48" t="n">
+        <v>177.5399932861328</v>
+      </c>
+      <c r="D48" t="n">
+        <v>175.7799987792969</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1106.830309509272</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-11.08212127809657</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>6.193676073553733</v>
+      </c>
+      <c r="C49" t="n">
+        <v>176.6699981689453</v>
+      </c>
+      <c r="D49" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1080.796474835126</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-13.44026573865199</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>12.67102617612195</v>
+      </c>
+      <c r="C50" t="n">
+        <v>85.88999938964844</v>
+      </c>
+      <c r="D50" t="n">
+        <v>83.98999786376953</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1064.23946146425</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-24.07496906908318</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>6.226858704448741</v>
+      </c>
+      <c r="C51" t="n">
+        <v>169.2599945068359</v>
+      </c>
+      <c r="D51" t="n">
+        <v>166.3099975585938</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1035.588855934578</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-18.36921417525923</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.8416514642914017</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1198.969970703125</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1161.719970703125</v>
+      </c>
+      <c r="E52" t="n">
+        <v>977.7633144388494</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-31.35151704485475</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ABBV</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>4.308215674524136</v>
+      </c>
+      <c r="C53" t="n">
+        <v>233.2299957275391</v>
+      </c>
+      <c r="D53" t="n">
+        <v>232.2899932861328</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1000.755390110424</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-4.049733252157353</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>73.99633669201961</v>
+      </c>
+      <c r="C54" t="n">
+        <v>13.44999980926514</v>
+      </c>
+      <c r="D54" t="n">
+        <v>13.27999973297119</v>
+      </c>
+      <c r="E54" t="n">
+        <v>982.6713315108668</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-12.57938288311573</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>NEM</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>10.65181745627348</v>
+      </c>
+      <c r="C55" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="D55" t="n">
+        <v>89.72000122070312</v>
+      </c>
+      <c r="E55" t="n">
+        <v>955.6810751795631</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-35.68357222513259</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2.008526142705915</v>
+      </c>
+      <c r="C56" t="n">
+        <v>473.6099853515625</v>
+      </c>
+      <c r="D56" t="n">
+        <v>473.2799987792969</v>
+      </c>
+      <c r="E56" t="n">
+        <v>950.5952503680414</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.662786657137417</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>6.684230726125506</v>
+      </c>
+      <c r="C57" t="n">
+        <v>140.6799926757812</v>
+      </c>
+      <c r="D57" t="n">
+        <v>138.4400024414062</v>
+      </c>
+      <c r="E57" t="n">
+        <v>925.3649180437377</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-14.97261155083049</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>5.811187590180885</v>
+      </c>
+      <c r="C58" t="n">
+        <v>157.8500061035156</v>
+      </c>
+      <c r="D58" t="n">
+        <v>154.5899963378906</v>
+      </c>
+      <c r="E58" t="n">
+        <v>898.3514682848585</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-18.94452829386853</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>7.625719072582364</v>
+      </c>
+      <c r="C59" t="n">
+        <v>118.120002746582</v>
+      </c>
+      <c r="D59" t="n">
+        <v>118.7900009155273</v>
+      </c>
+      <c r="E59" t="n">
+        <v>905.8591756136134</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5.109217815521561</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PWR</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1.997935821088544</v>
+      </c>
+      <c r="C60" t="n">
+        <v>449.4200134277344</v>
+      </c>
+      <c r="D60" t="n">
+        <v>426.9299926757812</v>
+      </c>
+      <c r="E60" t="n">
+        <v>852.9787254640131</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-44.93361807735187</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1.291462934495828</v>
+      </c>
+      <c r="C61" t="n">
+        <v>681.719970703125</v>
+      </c>
+      <c r="D61" t="n">
+        <v>694.989990234375</v>
+      </c>
+      <c r="E61" t="n">
+        <v>897.553812233313</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>17.13773836464509</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>4.701499020102085</v>
+      </c>
+      <c r="C62" t="n">
+        <v>180.1199951171875</v>
+      </c>
+      <c r="D62" t="n">
+        <v>180.4700012207031</v>
+      </c>
+      <c r="E62" t="n">
+        <v>848.4795338969577</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.645553352708475</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>HST</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>46.70518598804109</v>
+      </c>
+      <c r="C63" t="n">
+        <v>18.05999946594238</v>
+      </c>
+      <c r="D63" t="n">
+        <v>17.56999969482422</v>
+      </c>
+      <c r="E63" t="n">
+        <v>820.6101035565904</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-22.88553044417142</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>37.27452052344209</v>
+      </c>
+      <c r="C64" t="n">
+        <v>22.19000053405762</v>
+      </c>
+      <c r="D64" t="n">
+        <v>22.13999938964844</v>
+      </c>
+      <c r="E64" t="n">
+        <v>825.2578616384459</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-1.863768683475541</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>13.59115441091824</v>
+      </c>
+      <c r="C65" t="n">
+        <v>60.84000015258789</v>
+      </c>
+      <c r="D65" t="n">
+        <v>60.25</v>
+      </c>
+      <c r="E65" t="n">
+        <v>818.867053257824</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-8.018783176287343</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3.08115841151672</v>
+      </c>
+      <c r="C66" t="n">
+        <v>267.5199890136719</v>
+      </c>
+      <c r="D66" t="n">
+        <v>256.5899963378906</v>
+      </c>
+      <c r="E66" t="n">
+        <v>790.594425527536</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-33.67703887079949</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3.691706215769387</v>
+      </c>
+      <c r="C67" t="n">
+        <v>220.8800048828125</v>
+      </c>
+      <c r="D67" t="n">
+        <v>223.5500030517578</v>
+      </c>
+      <c r="E67" t="n">
+        <v>825.2809358014397</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>9.856848836388281</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>KEYS</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>4.326100083324838</v>
+      </c>
+      <c r="C68" t="n">
+        <v>184.0500030517578</v>
+      </c>
+      <c r="D68" t="n">
+        <v>178.3699951171875</v>
+      </c>
+      <c r="E68" t="n">
+        <v>771.6464507391158</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-24.57228279903029</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
           <t>EXE</t>
         </is>
       </c>
+      <c r="B69" t="n">
+        <v>6.618879943245523</v>
+      </c>
+      <c r="C69" t="n">
+        <v>118.8850021362305</v>
+      </c>
+      <c r="D69" t="n">
+        <v>117.9599990844727</v>
+      </c>
+      <c r="E69" t="n">
+        <v>780.7630720454763</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-6.122484146720694</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>7.305357741853379</v>
+      </c>
+      <c r="C70" t="n">
+        <v>106.1800003051758</v>
+      </c>
+      <c r="D70" t="n">
+        <v>103.1500015258789</v>
+      </c>
+      <c r="E70" t="n">
+        <v>753.5476622192674</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-22.1352250401427</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>8.198407250222003</v>
+      </c>
+      <c r="C71" t="n">
+        <v>91.44999694824219</v>
+      </c>
+      <c r="D71" t="n">
+        <v>92.93000030517578</v>
+      </c>
+      <c r="E71" t="n">
+        <v>761.8779882650861</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>12.13367025183732</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>3.822021449775799</v>
+      </c>
+      <c r="C72" t="n">
+        <v>194.3899993896484</v>
+      </c>
+      <c r="D72" t="n">
+        <v>195.25</v>
+      </c>
+      <c r="E72" t="n">
+        <v>746.2496880687248</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3.286940779584029</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>VTRS</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>65.41392555944424</v>
+      </c>
+      <c r="C73" t="n">
+        <v>11.01000022888184</v>
+      </c>
+      <c r="D73" t="n">
+        <v>10.90999984741211</v>
+      </c>
+      <c r="E73" t="n">
+        <v>713.6659178721637</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-6.541417509376743</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2.657569459539278</v>
+      </c>
+      <c r="C74" t="n">
+        <v>268.6700134277344</v>
+      </c>
+      <c r="D74" t="n">
+        <v>267.3399963378906</v>
+      </c>
+      <c r="E74" t="n">
+        <v>710.4746095809206</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-3.534612798634043</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>9.692852457767795</v>
+      </c>
+      <c r="C75" t="n">
+        <v>72.83999633789062</v>
+      </c>
+      <c r="D75" t="n">
+        <v>73.33999633789062</v>
+      </c>
+      <c r="E75" t="n">
+        <v>710.8737637564043</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>4.846426228883956</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>3.591052338265749</v>
+      </c>
+      <c r="C76" t="n">
+        <v>191.6399993896484</v>
+      </c>
+      <c r="D76" t="n">
+        <v>191.0700073242188</v>
+      </c>
+      <c r="E76" t="n">
+        <v>686.1423965740895</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-2.046871339354198</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>HOLX</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>9.207678755028068</v>
+      </c>
+      <c r="C77" t="n">
+        <v>74.55999755859375</v>
+      </c>
+      <c r="D77" t="n">
+        <v>74.26000213623047</v>
+      </c>
+      <c r="E77" t="n">
+        <v>683.7622440181083</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-2.762261477099969</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>GLW</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>7.692702948887701</v>
+      </c>
+      <c r="C78" t="n">
+        <v>89.01000213623047</v>
+      </c>
+      <c r="D78" t="n">
+        <v>82.36000061035156</v>
+      </c>
+      <c r="E78" t="n">
+        <v>633.5710195656443</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-51.1564863482364</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>17.97741230767901</v>
+      </c>
+      <c r="C79" t="n">
+        <v>37.88999938964844</v>
+      </c>
+      <c r="D79" t="n">
+        <v>35.90999984741211</v>
+      </c>
+      <c r="E79" t="n">
+        <v>645.5688732256178</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-35.59526813979812</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PCG</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>40.14750555014919</v>
+      </c>
+      <c r="C80" t="n">
+        <v>16.80999946594238</v>
+      </c>
+      <c r="D80" t="n">
+        <v>16.64999961853027</v>
+      </c>
+      <c r="E80" t="n">
+        <v>668.455952094926</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-6.423594762000675</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>4.470250583947582</v>
+      </c>
+      <c r="C81" t="n">
+        <v>148.3800048828125</v>
+      </c>
+      <c r="D81" t="n">
+        <v>145.8099975585938</v>
+      </c>
+      <c r="E81" t="n">
+        <v>651.8072267316992</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-11.48857674183841</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>5.273399643762342</v>
+      </c>
+      <c r="C82" t="n">
+        <v>123.4000015258789</v>
+      </c>
+      <c r="D82" t="n">
+        <v>125.1999969482422</v>
+      </c>
+      <c r="E82" t="n">
+        <v>660.2296193059067</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>9.492095219064367</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2.952039313313168</v>
+      </c>
+      <c r="C83" t="n">
+        <v>219.3999938964844</v>
+      </c>
+      <c r="D83" t="n">
+        <v>221.1999969482422</v>
+      </c>
+      <c r="E83" t="n">
+        <v>652.9910870959637</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5.313679772872774</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>3.236960318805983</v>
+      </c>
+      <c r="C84" t="n">
+        <v>193.8000030517578</v>
+      </c>
+      <c r="D84" t="n">
+        <v>186.8600006103516</v>
+      </c>
+      <c r="E84" t="n">
+        <v>604.8584071477699</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-22.46451251524866</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>3.366245466973552</v>
+      </c>
+      <c r="C85" t="n">
+        <v>177.6900024414062</v>
+      </c>
+      <c r="D85" t="n">
+        <v>173.9600067138672</v>
+      </c>
+      <c r="E85" t="n">
+        <v>585.5920840352442</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-12.55608120965906</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.8253073289845966</v>
+      </c>
+      <c r="C86" t="n">
+        <v>713.5599975585938</v>
+      </c>
+      <c r="D86" t="n">
+        <v>701.47998046875</v>
+      </c>
+      <c r="E86" t="n">
+        <v>578.9365690168311</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-9.969726638507154</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>3.572224228202885</v>
+      </c>
+      <c r="C87" t="n">
+        <v>162.8500061035156</v>
+      </c>
+      <c r="D87" t="n">
+        <v>161.8300018310547</v>
+      </c>
+      <c r="E87" t="n">
+        <v>578.0930533910108</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-3.643683974955366</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>IBKR</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>7.316701736514603</v>
+      </c>
+      <c r="C88" t="n">
+        <v>72.69999694824219</v>
+      </c>
+      <c r="D88" t="n">
+        <v>67.04000091552734</v>
+      </c>
+      <c r="E88" t="n">
+        <v>490.5116911145795</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-41.41250280123046</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>5.262952177824041</v>
+      </c>
+      <c r="C89" t="n">
+        <v>96.30000305175781</v>
+      </c>
+      <c r="D89" t="n">
+        <v>96.90000152587891</v>
+      </c>
+      <c r="E89" t="n">
+        <v>509.9800740617773</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>3.157763276066703</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1.148206111453423</v>
+      </c>
+      <c r="C90" t="n">
+        <v>434.1900024414062</v>
+      </c>
+      <c r="D90" t="n">
+        <v>434.5199890136719</v>
+      </c>
+      <c r="E90" t="n">
+        <v>498.9185069341721</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.378892598972925</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>4.413912702248195</v>
+      </c>
+      <c r="C91" t="n">
+        <v>110.3199996948242</v>
+      </c>
+      <c r="D91" t="n">
+        <v>114.5699996948242</v>
+      </c>
+      <c r="E91" t="n">
+        <v>505.7019769495564</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>18.75912898455482</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2.629433017806429</v>
+      </c>
+      <c r="C92" t="n">
+        <v>171.0800018310547</v>
+      </c>
+      <c r="D92" t="n">
+        <v>170.6199951171875</v>
+      </c>
+      <c r="E92" t="n">
+        <v>448.6338486591046</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-1.209556841855033</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2.568335903067325</v>
+      </c>
+      <c r="C93" t="n">
+        <v>161.4799957275391</v>
+      </c>
+      <c r="D93" t="n">
+        <v>164.7299957275391</v>
+      </c>
+      <c r="E93" t="n">
+        <v>423.0819623391656</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>8.347091684968802</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ALGN</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2.903828548721969</v>
+      </c>
+      <c r="C94" t="n">
+        <v>141.6900024414062</v>
+      </c>
+      <c r="D94" t="n">
+        <v>139.4199981689453</v>
+      </c>
+      <c r="E94" t="n">
+        <v>404.8517709457481</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-6.591703212092909</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>HWM</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1.99375560654659</v>
+      </c>
+      <c r="C95" t="n">
+        <v>205.0700073242188</v>
+      </c>
+      <c r="D95" t="n">
+        <v>201.3000030517578</v>
+      </c>
+      <c r="E95" t="n">
+        <v>401.3430096822878</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-7.516467154923589</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.397998119404579</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1017.780029296875</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1022.869995117188</v>
+      </c>
+      <c r="E96" t="n">
+        <v>407.1003344520116</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2.025796824317979</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>PODD</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1.15757498990192</v>
+      </c>
+      <c r="C97" t="n">
+        <v>336.8399963378906</v>
+      </c>
+      <c r="D97" t="n">
+        <v>332.6700134277344</v>
+      </c>
+      <c r="E97" t="n">
+        <v>385.0904874342812</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-4.82706792511533</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>EIX</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>6.124892518477315</v>
+      </c>
+      <c r="C98" t="n">
+        <v>58.7599983215332</v>
+      </c>
+      <c r="D98" t="n">
+        <v>59.08000183105469</v>
+      </c>
+      <c r="E98" t="n">
+        <v>361.8586612066529</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1.959987101354614</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>8.723899155279488</v>
+      </c>
+      <c r="C99" t="n">
+        <v>35.22000122070312</v>
+      </c>
+      <c r="D99" t="n">
+        <v>35.04000091552734</v>
+      </c>
+      <c r="E99" t="n">
+        <v>305.6854343879615</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-1.570304510273047</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>PSX</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1.732119064944798</v>
+      </c>
+      <c r="C100" t="n">
+        <v>138.0200042724609</v>
+      </c>
+      <c r="D100" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="E100" t="n">
+        <v>241.6306095597993</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2.563528815707258</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1.151276226587876</v>
+      </c>
+      <c r="C101" t="n">
+        <v>196.7899932861328</v>
+      </c>
+      <c r="D101" t="n">
+        <v>194.1499938964844</v>
+      </c>
+      <c r="E101" t="n">
+        <v>223.5202723652037</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-3.039368535508743</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.9861981075871861</v>
+      </c>
+      <c r="C102" t="n">
+        <v>228.4199981689453</v>
+      </c>
+      <c r="D102" t="n">
+        <v>227.5700073242188</v>
+      </c>
+      <c r="E102" t="n">
+        <v>224.4291105667466</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-0.8382593625357799</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2.771171542878474</v>
+      </c>
+      <c r="C103" t="n">
+        <v>73.61000061035156</v>
+      </c>
+      <c r="D103" t="n">
+        <v>73.69000244140625</v>
+      </c>
+      <c r="E103" t="n">
+        <v>204.2076377602703</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.2216987975969289</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>5.325988550360949</v>
+      </c>
+      <c r="C104" t="n">
+        <v>36.06999969482422</v>
+      </c>
+      <c r="D104" t="n">
+        <v>36.31000137329102</v>
+      </c>
+      <c r="E104" t="n">
+        <v>193.3866515777383</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.278246191581559</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>TECH</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2.70117953737844</v>
+      </c>
+      <c r="C105" t="n">
+        <v>61.40000152587891</v>
+      </c>
+      <c r="D105" t="n">
+        <v>60.75</v>
+      </c>
+      <c r="E105" t="n">
+        <v>164.0966568957402</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-1.755770820968877</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.808938803808901</v>
+      </c>
+      <c r="C106" t="n">
+        <v>202</v>
+      </c>
+      <c r="D106" t="n">
+        <v>201.3399963378906</v>
+      </c>
+      <c r="E106" t="n">
+        <v>162.8717357964618</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-0.5339025729362561</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>RL</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.3266049642343022</v>
+      </c>
+      <c r="C107" t="n">
+        <v>340.2099914550781</v>
+      </c>
+      <c r="D107" t="n">
+        <v>332.7699890136719</v>
+      </c>
+      <c r="E107" t="n">
+        <v>108.6843303600594</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-2.429941731278618</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>TRGP</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.3908323517789384</v>
+      </c>
+      <c r="C108" t="n">
+        <v>170.5800018310547</v>
+      </c>
+      <c r="D108" t="n">
+        <v>169.7100067138672</v>
+      </c>
+      <c r="E108" t="n">
+        <v>66.32816104440015</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-0.3400222376865827</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>TGT</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.5942078286904783</v>
+      </c>
+      <c r="C109" t="n">
+        <v>91.91000366210938</v>
+      </c>
+      <c r="D109" t="n">
+        <v>90.62000274658203</v>
+      </c>
+      <c r="E109" t="n">
+        <v>53.84711506797169</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-0.7665286430242304</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>COO</t>
+        </is>
+      </c>
       <c r="B110" t="n">
-        <v>0.7325796293384337</v>
+        <v>0.4762216937128068</v>
       </c>
       <c r="C110" t="n">
-        <v>118.6399993896484</v>
+        <v>72.48999786376953</v>
       </c>
       <c r="D110" t="n">
-        <v>119.4599990844727</v>
+        <v>71.75</v>
       </c>
       <c r="E110" t="n">
-        <v>87.5139618500726</v>
+        <v>34.16890652389389</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0.6007150724919512</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>LDOS</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0.3923650830468136</v>
-      </c>
-      <c r="C111" t="n">
-        <v>198.25</v>
-      </c>
-      <c r="D111" t="n">
-        <v>193.0200042724609</v>
-      </c>
-      <c r="E111" t="n">
-        <v>75.73431000606044</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-2.052067707970352</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>EQT</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>1.232726907636057</v>
-      </c>
-      <c r="C112" t="n">
-        <v>60.68999862670898</v>
-      </c>
-      <c r="D112" t="n">
-        <v>60.84000015258789</v>
-      </c>
-      <c r="E112" t="n">
-        <v>74.99910524867693</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.1849109171373868</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>CTRA</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>1.384642306659334</v>
-      </c>
-      <c r="C113" t="n">
-        <v>26.79000091552734</v>
-      </c>
-      <c r="D113" t="n">
-        <v>26.1299991607666</v>
-      </c>
-      <c r="E113" t="n">
-        <v>36.18070231097033</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-0.9138663521111212</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>DDOG</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.06507971945994345</v>
-      </c>
-      <c r="C114" t="n">
-        <v>197.8600006103516</v>
-      </c>
-      <c r="D114" t="n">
-        <v>190.8899993896484</v>
-      </c>
-      <c r="E114" t="n">
-        <v>12.4230676079871</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-0.4536057240788232</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0.01499748994264212</v>
-      </c>
-      <c r="C115" t="n">
-        <v>166.5</v>
-      </c>
-      <c r="D115" t="n">
-        <v>169.9199981689453</v>
-      </c>
-      <c r="E115" t="n">
-        <v>2.548373463592525</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.0512913881426118</v>
+        <v>-0.3524030360281856</v>
       </c>
     </row>
   </sheetData>
@@ -51796,7 +56719,7 @@
   </sheetPr>
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -54231,7 +59154,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -56006,7 +60929,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -58337,7 +63260,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -60359,7 +65282,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -63015,7 +67938,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">

--- a/backtest_portfolio_PL.xlsx
+++ b/backtest_portfolio_PL.xlsx
@@ -40,6 +40,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-12-2025_PnL" sheetId="32" state="visible" r:id="rId32"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-13-2025_Allocations" sheetId="33" state="visible" r:id="rId33"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-13-2025_PnL" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-14-2025_Allocations" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-14-2025_PnL" sheetId="36" state="visible" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -56711,6 +56713,5168 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Allocation_Percent</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Target_Value</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Actual_Shares</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05162549541004698</v>
+      </c>
+      <c r="C2" t="n">
+        <v>379.6900024414062</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6260.066066523987</v>
+      </c>
+      <c r="E2" t="n">
+        <v>16.48730813630006</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CAH</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.02824779106338637</v>
+      </c>
+      <c r="C3" t="n">
+        <v>206.0599975585938</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3425.304433122217</v>
+      </c>
+      <c r="E3" t="n">
+        <v>16.62285001312893</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>STE</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.02775219743098556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>260.4400024414062</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3365.209147714574</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12.92124526251177</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02593602414777589</v>
+      </c>
+      <c r="C5" t="n">
+        <v>805.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3144.98143559589</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.904384153439962</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.02383053522490834</v>
+      </c>
+      <c r="C6" t="n">
+        <v>86.11000061035156</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2889.671541622065</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33.55790873464107</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02243285169008402</v>
+      </c>
+      <c r="C7" t="n">
+        <v>25.79000091552734</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2720.18955992683</v>
+      </c>
+      <c r="E7" t="n">
+        <v>105.4745817511425</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02206388071477204</v>
+      </c>
+      <c r="C8" t="n">
+        <v>467.489990234375</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2675.448436113164</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.723006892130105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02183015208376866</v>
+      </c>
+      <c r="C9" t="n">
+        <v>364.8500061035156</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2647.106690235512</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.255328617109772</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.02109248913931865</v>
+      </c>
+      <c r="C10" t="n">
+        <v>165.6100006103516</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2557.658274672512</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15.44386368725515</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>JCI</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01953112858195118</v>
+      </c>
+      <c r="C11" t="n">
+        <v>120.1999969482422</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2368.32894882002</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19.70323634733382</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0189950207299773</v>
+      </c>
+      <c r="C12" t="n">
+        <v>157.1600036621094</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2303.32094172038</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14.65589773510359</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.01851098620258801</v>
+      </c>
+      <c r="C13" t="n">
+        <v>105.4100036621094</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2244.627304092915</v>
+      </c>
+      <c r="E13" t="n">
+        <v>21.29425316488977</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01831129965110479</v>
+      </c>
+      <c r="C14" t="n">
+        <v>40.59999847412109</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2220.413473408048</v>
+      </c>
+      <c r="E14" t="n">
+        <v>54.68998908518099</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.01690006191315128</v>
+      </c>
+      <c r="C15" t="n">
+        <v>279.1199951171875</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2049.287919938946</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.341960288722992</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.01604855809768627</v>
+      </c>
+      <c r="C16" t="n">
+        <v>565.510009765625</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1946.035251884727</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.441203901397358</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>VTR</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01559842088163147</v>
+      </c>
+      <c r="C17" t="n">
+        <v>77.23999786376953</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1891.451974976243</v>
+      </c>
+      <c r="E17" t="n">
+        <v>24.48798585303242</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.01547025220467195</v>
+      </c>
+      <c r="C18" t="n">
+        <v>191.0700073242188</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1875.910344255748</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9.817921559361192</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01496677215659072</v>
+      </c>
+      <c r="C19" t="n">
+        <v>65.59999847412109</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1814.858758423377</v>
+      </c>
+      <c r="E19" t="n">
+        <v>27.6655304975248</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01477925406175064</v>
+      </c>
+      <c r="C20" t="n">
+        <v>278.5700073242188</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1792.120465007617</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6.433285773374107</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.01453285525757366</v>
+      </c>
+      <c r="C21" t="n">
+        <v>71.88999938964844</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1762.242344117755</v>
+      </c>
+      <c r="E21" t="n">
+        <v>24.51303879648528</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01435668866008121</v>
+      </c>
+      <c r="C22" t="n">
+        <v>236.9499969482422</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1740.880524143765</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.347037546170688</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01428495526648776</v>
+      </c>
+      <c r="C23" t="n">
+        <v>553.5499877929688</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1732.182190510271</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.129224512164777</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01428311922879265</v>
+      </c>
+      <c r="C24" t="n">
+        <v>58.95000076293945</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1731.959554055536</v>
+      </c>
+      <c r="E24" t="n">
+        <v>29.38014472672205</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01423808350382136</v>
+      </c>
+      <c r="C25" t="n">
+        <v>287.4299926757812</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1726.498558254242</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6.00667502434834</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01410793145985436</v>
+      </c>
+      <c r="C26" t="n">
+        <v>379.2999877929688</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1710.716426045045</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.510193728186452</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.01399188650835785</v>
+      </c>
+      <c r="C27" t="n">
+        <v>846.239990234375</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1696.64490852672</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.00492168664449</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01302160357804823</v>
+      </c>
+      <c r="C28" t="n">
+        <v>262.5599975585938</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1578.989180504851</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6.013822346081029</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.01295251801036125</v>
+      </c>
+      <c r="C29" t="n">
+        <v>65.44000244140625</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1570.611920111924</v>
+      </c>
+      <c r="E29" t="n">
+        <v>24.00079250483251</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.01237722825989513</v>
+      </c>
+      <c r="C30" t="n">
+        <v>165.2700042724609</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1500.852747503362</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9.081216849423479</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0112076088100282</v>
+      </c>
+      <c r="C31" t="n">
+        <v>473.2799987792969</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1359.025633386536</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.871504472810579</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01067006454860017</v>
+      </c>
+      <c r="C32" t="n">
+        <v>364.7300109863281</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1293.84344843136</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.547400568800079</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.01063568834050812</v>
+      </c>
+      <c r="C33" t="n">
+        <v>135.25</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1289.675017076589</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9.53548995990084</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.01050881361504027</v>
+      </c>
+      <c r="C34" t="n">
+        <v>227.5700073242188</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1274.290289873637</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5.599552879822853</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.01041321593535557</v>
+      </c>
+      <c r="C35" t="n">
+        <v>121.4800033569336</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1262.698192095605</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10.39428841951489</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.01009483399387883</v>
+      </c>
+      <c r="C36" t="n">
+        <v>138.4400024414062</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1224.091453851216</v>
+      </c>
+      <c r="E36" t="n">
+        <v>8.84203577191718</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.009720971408511067</v>
+      </c>
+      <c r="C37" t="n">
+        <v>169.5899963378906</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1178.75717733504</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6.95062918090102</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.00971223392049439</v>
+      </c>
+      <c r="C38" t="n">
+        <v>195.25</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1177.697676563077</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6.031742261526645</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.009662168385395423</v>
+      </c>
+      <c r="C39" t="n">
+        <v>204.2700042724609</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1171.626770029667</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5.735677023176243</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.009333644084030991</v>
+      </c>
+      <c r="C40" t="n">
+        <v>580.1300048828125</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1131.790177379754</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.950925082057044</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.009316334051927475</v>
+      </c>
+      <c r="C41" t="n">
+        <v>151.6600036621094</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1129.691176804148</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7.448840495355923</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.009073695363985961</v>
+      </c>
+      <c r="C42" t="n">
+        <v>111.0400009155273</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1100.269004585865</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9.908762567670406</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.008800689733370677</v>
+      </c>
+      <c r="C43" t="n">
+        <v>13.27999973297119</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1067.164561313983</v>
+      </c>
+      <c r="E43" t="n">
+        <v>80.35877882319967</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.008294760274308574</v>
+      </c>
+      <c r="C44" t="n">
+        <v>272.9500122070312</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1005.815961875397</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.68498229306724</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.008128867521124768</v>
+      </c>
+      <c r="C45" t="n">
+        <v>185.9700012207031</v>
+      </c>
+      <c r="D45" t="n">
+        <v>985.6999400021024</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5.300316898058767</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.007997914108444614</v>
+      </c>
+      <c r="C46" t="n">
+        <v>153.3200073242188</v>
+      </c>
+      <c r="D46" t="n">
+        <v>969.8206344670507</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6.325466919762245</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.007880689641836067</v>
+      </c>
+      <c r="C47" t="n">
+        <v>146.8899993896484</v>
+      </c>
+      <c r="D47" t="n">
+        <v>955.6060898945694</v>
+      </c>
+      <c r="E47" t="n">
+        <v>6.505589855437854</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CTRA</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.007865383755496677</v>
+      </c>
+      <c r="C48" t="n">
+        <v>25.84000015258789</v>
+      </c>
+      <c r="D48" t="n">
+        <v>953.7501104229876</v>
+      </c>
+      <c r="E48" t="n">
+        <v>36.90983377674125</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.00776376369790911</v>
+      </c>
+      <c r="C49" t="n">
+        <v>95.97000122070312</v>
+      </c>
+      <c r="D49" t="n">
+        <v>941.4277439424455</v>
+      </c>
+      <c r="E49" t="n">
+        <v>9.809604376032414</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.007723226649630615</v>
+      </c>
+      <c r="C50" t="n">
+        <v>223.5500030517578</v>
+      </c>
+      <c r="D50" t="n">
+        <v>936.5122540599821</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.18927417255796</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.007683231140221233</v>
+      </c>
+      <c r="C51" t="n">
+        <v>312.6700134277344</v>
+      </c>
+      <c r="D51" t="n">
+        <v>931.6624307453899</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.979698694261641</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.007638615060335679</v>
+      </c>
+      <c r="C52" t="n">
+        <v>118.2799987792969</v>
+      </c>
+      <c r="D52" t="n">
+        <v>926.2523207697959</v>
+      </c>
+      <c r="E52" t="n">
+        <v>7.831013952731984</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.007403874262583053</v>
+      </c>
+      <c r="C53" t="n">
+        <v>841.9400024414062</v>
+      </c>
+      <c r="D53" t="n">
+        <v>897.7878403659139</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.066332325061838</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HST</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.006803280517721791</v>
+      </c>
+      <c r="C54" t="n">
+        <v>17.56999969482422</v>
+      </c>
+      <c r="D54" t="n">
+        <v>824.960325741408</v>
+      </c>
+      <c r="E54" t="n">
+        <v>46.95277974218892</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.006616903347296839</v>
+      </c>
+      <c r="C55" t="n">
+        <v>304.8599853515625</v>
+      </c>
+      <c r="D55" t="n">
+        <v>802.3603799029235</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.631897980896531</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.006523696359890837</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1021.369995117188</v>
+      </c>
+      <c r="D56" t="n">
+        <v>791.0581755484895</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.774506965477997</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.006516414666704041</v>
+      </c>
+      <c r="C57" t="n">
+        <v>117.9599990844727</v>
+      </c>
+      <c r="D57" t="n">
+        <v>790.1752032871399</v>
+      </c>
+      <c r="E57" t="n">
+        <v>6.698670815699866</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BSX</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.006494219508276687</v>
+      </c>
+      <c r="C58" t="n">
+        <v>104.9800033569336</v>
+      </c>
+      <c r="D58" t="n">
+        <v>787.4838362211464</v>
+      </c>
+      <c r="E58" t="n">
+        <v>7.501274633643223</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.006380329282513264</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1737.27001953125</v>
+      </c>
+      <c r="D59" t="n">
+        <v>773.6735990128152</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.4453387155219358</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.006369105579745952</v>
+      </c>
+      <c r="C60" t="n">
+        <v>221.1999969482422</v>
+      </c>
+      <c r="D60" t="n">
+        <v>772.3126218391079</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.491467597170983</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.006112387957258981</v>
+      </c>
+      <c r="C61" t="n">
+        <v>22.13999938964844</v>
+      </c>
+      <c r="D61" t="n">
+        <v>741.1832493373064</v>
+      </c>
+      <c r="E61" t="n">
+        <v>33.47711245574138</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.006055860160741441</v>
+      </c>
+      <c r="C62" t="n">
+        <v>247.9600067138672</v>
+      </c>
+      <c r="D62" t="n">
+        <v>734.3287341799379</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.961480538380993</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.005966040894433731</v>
+      </c>
+      <c r="C63" t="n">
+        <v>27.02000045776367</v>
+      </c>
+      <c r="D63" t="n">
+        <v>723.4373221621551</v>
+      </c>
+      <c r="E63" t="n">
+        <v>26.77414174337252</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.005914305376824919</v>
+      </c>
+      <c r="C64" t="n">
+        <v>169.8899841308594</v>
+      </c>
+      <c r="D64" t="n">
+        <v>717.1639148922667</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.221343115435601</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.005845913402765175</v>
+      </c>
+      <c r="C65" t="n">
+        <v>73.33999633789062</v>
+      </c>
+      <c r="D65" t="n">
+        <v>708.8707591049292</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9.665541239449119</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.005708545929678554</v>
+      </c>
+      <c r="C66" t="n">
+        <v>180.4700012207031</v>
+      </c>
+      <c r="D66" t="n">
+        <v>692.2136897618939</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.835616363272261</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.005676205234979779</v>
+      </c>
+      <c r="C67" t="n">
+        <v>103.1500015258789</v>
+      </c>
+      <c r="D67" t="n">
+        <v>688.292083124639</v>
+      </c>
+      <c r="E67" t="n">
+        <v>6.672729742538647</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NEM</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.005543720852843628</v>
+      </c>
+      <c r="C68" t="n">
+        <v>89.72000122070312</v>
+      </c>
+      <c r="D68" t="n">
+        <v>672.2271334642527</v>
+      </c>
+      <c r="E68" t="n">
+        <v>7.492500271044741</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.005261480647532058</v>
+      </c>
+      <c r="C69" t="n">
+        <v>256.5899963378906</v>
+      </c>
+      <c r="D69" t="n">
+        <v>638.0029130892967</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.486468382224623</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.005212009694151053</v>
+      </c>
+      <c r="C70" t="n">
+        <v>267.3399963378906</v>
+      </c>
+      <c r="D70" t="n">
+        <v>632.0041050569625</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.364046209749227</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.005064338925253099</v>
+      </c>
+      <c r="C71" t="n">
+        <v>73.55999755859375</v>
+      </c>
+      <c r="D71" t="n">
+        <v>614.0976663476948</v>
+      </c>
+      <c r="E71" t="n">
+        <v>8.348255665160119</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.005009572415696236</v>
+      </c>
+      <c r="C72" t="n">
+        <v>60.25</v>
+      </c>
+      <c r="D72" t="n">
+        <v>607.4567234311033</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10.08226926856603</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.004876405627619971</v>
+      </c>
+      <c r="C73" t="n">
+        <v>694.989990234375</v>
+      </c>
+      <c r="D73" t="n">
+        <v>591.3090257750731</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.8508166075538195</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ABBV</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.004691965055837205</v>
+      </c>
+      <c r="C74" t="n">
+        <v>232.2899932861328</v>
+      </c>
+      <c r="D74" t="n">
+        <v>568.9439103309146</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.449282908326122</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>IVZ</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.00451921029263996</v>
+      </c>
+      <c r="C75" t="n">
+        <v>23.77000045776367</v>
+      </c>
+      <c r="D75" t="n">
+        <v>547.9958066404463</v>
+      </c>
+      <c r="E75" t="n">
+        <v>23.05409323042154</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SCHW</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.004478015682783612</v>
+      </c>
+      <c r="C76" t="n">
+        <v>95.08999633789062</v>
+      </c>
+      <c r="D76" t="n">
+        <v>543.0005813697318</v>
+      </c>
+      <c r="E76" t="n">
+        <v>5.710385974148593</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.004471339727979378</v>
+      </c>
+      <c r="C77" t="n">
+        <v>434.5199890136719</v>
+      </c>
+      <c r="D77" t="n">
+        <v>542.1910604576381</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.24779313763763</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.004333595056581413</v>
+      </c>
+      <c r="C78" t="n">
+        <v>92.93000030517578</v>
+      </c>
+      <c r="D78" t="n">
+        <v>525.4882523506367</v>
+      </c>
+      <c r="E78" t="n">
+        <v>5.65466749838555</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.004180839787257968</v>
+      </c>
+      <c r="C79" t="n">
+        <v>96.90000152587891</v>
+      </c>
+      <c r="D79" t="n">
+        <v>506.9652712077122</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5.231839661760149</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.004159818857365335</v>
+      </c>
+      <c r="C80" t="n">
+        <v>701.47998046875</v>
+      </c>
+      <c r="D80" t="n">
+        <v>504.4162901497592</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.7190743915638091</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>IFF</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.004140009840396031</v>
+      </c>
+      <c r="C81" t="n">
+        <v>67.43000030517578</v>
+      </c>
+      <c r="D81" t="n">
+        <v>502.014264678511</v>
+      </c>
+      <c r="E81" t="n">
+        <v>7.44496904058263</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>RL</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.004103045771738464</v>
+      </c>
+      <c r="C82" t="n">
+        <v>332.7699890136719</v>
+      </c>
+      <c r="D82" t="n">
+        <v>497.5320314322057</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.495122901277508</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.004074635818356567</v>
+      </c>
+      <c r="C83" t="n">
+        <v>83.98999786376953</v>
+      </c>
+      <c r="D83" t="n">
+        <v>494.0870633267193</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5.882689318889147</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.003980107801889451</v>
+      </c>
+      <c r="C84" t="n">
+        <v>35.04000091552734</v>
+      </c>
+      <c r="D84" t="n">
+        <v>482.6246720504421</v>
+      </c>
+      <c r="E84" t="n">
+        <v>13.77353480138112</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TPL</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.003898495381451614</v>
+      </c>
+      <c r="C85" t="n">
+        <v>988.969970703125</v>
+      </c>
+      <c r="D85" t="n">
+        <v>472.728415564536</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.4780007781514758</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.003882720634082692</v>
+      </c>
+      <c r="C86" t="n">
+        <v>529.780029296875</v>
+      </c>
+      <c r="D86" t="n">
+        <v>470.8155823814774</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.8887001327821751</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.003804785075324508</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1412.180053710938</v>
+      </c>
+      <c r="D87" t="n">
+        <v>461.3651791866493</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.3267042173370672</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SOLV</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.003694315092945945</v>
+      </c>
+      <c r="C88" t="n">
+        <v>75.22000122070312</v>
+      </c>
+      <c r="D88" t="n">
+        <v>447.9696779412905</v>
+      </c>
+      <c r="E88" t="n">
+        <v>5.955459594143079</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.003570041370993672</v>
+      </c>
+      <c r="C89" t="n">
+        <v>125.1999969482422</v>
+      </c>
+      <c r="D89" t="n">
+        <v>432.9003463334304</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3.457670582151786</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.003494896000101798</v>
+      </c>
+      <c r="C90" t="n">
+        <v>62.29999923706055</v>
+      </c>
+      <c r="D90" t="n">
+        <v>423.7882790759599</v>
+      </c>
+      <c r="E90" t="n">
+        <v>6.80238016477952</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.003403455002845842</v>
+      </c>
+      <c r="C91" t="n">
+        <v>154.5899963378906</v>
+      </c>
+      <c r="D91" t="n">
+        <v>412.7002172672645</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.669643748261801</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>EXPE</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.003375261002397203</v>
+      </c>
+      <c r="C92" t="n">
+        <v>267.3500061035156</v>
+      </c>
+      <c r="D92" t="n">
+        <v>409.2814354408388</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.530882461556289</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.00333678327009775</v>
+      </c>
+      <c r="C93" t="n">
+        <v>336</v>
+      </c>
+      <c r="D93" t="n">
+        <v>404.6156565583041</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.204213263566381</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.003334363746152825</v>
+      </c>
+      <c r="C94" t="n">
+        <v>166.3099975585938</v>
+      </c>
+      <c r="D94" t="n">
+        <v>404.3222670300397</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.431136269409121</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>DOV</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.003240636950410209</v>
+      </c>
+      <c r="C95" t="n">
+        <v>181.9700012207031</v>
+      </c>
+      <c r="D95" t="n">
+        <v>392.9570311346338</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2.159460507218627</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.003075680343799673</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1161.719970703125</v>
+      </c>
+      <c r="D96" t="n">
+        <v>372.9545256421519</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.3210365105597893</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>BMY</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.002943290480266266</v>
+      </c>
+      <c r="C97" t="n">
+        <v>48.63000106811523</v>
+      </c>
+      <c r="D97" t="n">
+        <v>356.9010372315413</v>
+      </c>
+      <c r="E97" t="n">
+        <v>7.339112263880808</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>HOLX</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.002750474208537022</v>
+      </c>
+      <c r="C98" t="n">
+        <v>74.26000213623047</v>
+      </c>
+      <c r="D98" t="n">
+        <v>333.5202911459356</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4.491250761534997</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>EIX</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.002651587810838911</v>
+      </c>
+      <c r="C99" t="n">
+        <v>59.08000183105469</v>
+      </c>
+      <c r="D99" t="n">
+        <v>321.5294060657264</v>
+      </c>
+      <c r="E99" t="n">
+        <v>5.442271430274708</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>SMCI</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.002611266019453576</v>
+      </c>
+      <c r="C100" t="n">
+        <v>35.09000015258789</v>
+      </c>
+      <c r="D100" t="n">
+        <v>316.6400180610609</v>
+      </c>
+      <c r="E100" t="n">
+        <v>9.023653937992608</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.00210335619256706</v>
+      </c>
+      <c r="C101" t="n">
+        <v>223.2299957275391</v>
+      </c>
+      <c r="D101" t="n">
+        <v>255.0512808123028</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.142549324435784</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ALGN</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.002030277300999697</v>
+      </c>
+      <c r="C102" t="n">
+        <v>139.4199981689453</v>
+      </c>
+      <c r="D102" t="n">
+        <v>246.1897931762733</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.765814061178995</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.001889116123185279</v>
+      </c>
+      <c r="C103" t="n">
+        <v>236.2799987792969</v>
+      </c>
+      <c r="D103" t="n">
+        <v>229.0727022480838</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.9694967980004723</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>VTRS</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.001842479636558534</v>
+      </c>
+      <c r="C104" t="n">
+        <v>10.90999984741211</v>
+      </c>
+      <c r="D104" t="n">
+        <v>223.4175993754601</v>
+      </c>
+      <c r="E104" t="n">
+        <v>20.47824037581958</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.001791182476075482</v>
+      </c>
+      <c r="C105" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>217.1973469382022</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.244683936608608</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>DLR</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.001661485871225966</v>
+      </c>
+      <c r="C106" t="n">
+        <v>158.1100006103516</v>
+      </c>
+      <c r="D106" t="n">
+        <v>201.4704409102202</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.27424223725561</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.001628131288834638</v>
+      </c>
+      <c r="C107" t="n">
+        <v>24.69000053405762</v>
+      </c>
+      <c r="D107" t="n">
+        <v>197.4258910665319</v>
+      </c>
+      <c r="E107" t="n">
+        <v>7.996188205593628</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.0015114033162844</v>
+      </c>
+      <c r="C108" t="n">
+        <v>145.8099975585938</v>
+      </c>
+      <c r="D108" t="n">
+        <v>183.27155096438</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.25692033490867</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.001426371840870962</v>
+      </c>
+      <c r="C109" t="n">
+        <v>114.5699996948242</v>
+      </c>
+      <c r="D109" t="n">
+        <v>172.9607026210528</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.509650895363199</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.001394469418479308</v>
+      </c>
+      <c r="C110" t="n">
+        <v>164.7299957275391</v>
+      </c>
+      <c r="D110" t="n">
+        <v>169.0922405313884</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.026481180823099</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.001212933877542767</v>
+      </c>
+      <c r="C111" t="n">
+        <v>73.69000244140625</v>
+      </c>
+      <c r="D111" t="n">
+        <v>147.0793867919984</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.995920503720255</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.001124480598743709</v>
+      </c>
+      <c r="C112" t="n">
+        <v>237.5800018310547</v>
+      </c>
+      <c r="D112" t="n">
+        <v>136.3536133212608</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.5739271498879062</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>BDX</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.000962338642887048</v>
+      </c>
+      <c r="C113" t="n">
+        <v>193.0399932861328</v>
+      </c>
+      <c r="D113" t="n">
+        <v>116.6924101162146</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.6044986229524348</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.0008339132562395841</v>
+      </c>
+      <c r="C114" t="n">
+        <v>71.08000183105469</v>
+      </c>
+      <c r="D114" t="n">
+        <v>101.1196509853539</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.422617450484856</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>VST</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.0007433018952480319</v>
+      </c>
+      <c r="C115" t="n">
+        <v>171.5599975585938</v>
+      </c>
+      <c r="D115" t="n">
+        <v>90.13219020305256</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.5253683346099912</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>AKAM</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>9.305637736295374e-05</v>
+      </c>
+      <c r="C116" t="n">
+        <v>88.66999816894531</v>
+      </c>
+      <c r="D116" t="n">
+        <v>11.28394150170437</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.1272577166428353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Shares</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Exit_Price</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Sale_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Transaction_Cost</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Gain_Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16.48730813630006</v>
+      </c>
+      <c r="C2" t="n">
+        <v>379.6900024414062</v>
+      </c>
+      <c r="D2" t="n">
+        <v>377.1300048828125</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6217.858597947275</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-42.20746857671111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CAH</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16.62285001312893</v>
+      </c>
+      <c r="C3" t="n">
+        <v>206.0599975585938</v>
+      </c>
+      <c r="D3" t="n">
+        <v>205.3699951171875</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3413.834626030028</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-11.46980709218906</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>STE</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12.92124526251177</v>
+      </c>
+      <c r="C4" t="n">
+        <v>260.4400024414062</v>
+      </c>
+      <c r="D4" t="n">
+        <v>258.4100036621094</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3338.979035604679</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-26.23011210989443</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.904384153439962</v>
+      </c>
+      <c r="C5" t="n">
+        <v>805.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>790.9099731445312</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3088.016365943134</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-56.96506965275557</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>33.55790873464107</v>
+      </c>
+      <c r="C6" t="n">
+        <v>86.11000061035156</v>
+      </c>
+      <c r="D6" t="n">
+        <v>86.30000305175781</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2896.047626210134</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.376084588069716</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>105.4745817511425</v>
+      </c>
+      <c r="C7" t="n">
+        <v>25.79000091552734</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25.05999946594238</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2643.192962354128</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-76.99659757270138</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.723006892130105</v>
+      </c>
+      <c r="C8" t="n">
+        <v>467.489990234375</v>
+      </c>
+      <c r="D8" t="n">
+        <v>462.6099853515625</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2647.520134535199</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-27.9283015779647</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.255328617109772</v>
+      </c>
+      <c r="C9" t="n">
+        <v>364.8500061035156</v>
+      </c>
+      <c r="D9" t="n">
+        <v>361.9400024414062</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2625.993657389915</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-21.11303284559654</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>15.44386368725515</v>
+      </c>
+      <c r="C10" t="n">
+        <v>165.6100006103516</v>
+      </c>
+      <c r="D10" t="n">
+        <v>163.8600006103516</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2530.631513219815</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-27.02676145269652</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>JCI</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19.70323634733382</v>
+      </c>
+      <c r="C11" t="n">
+        <v>120.1999969482422</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.7200012207031</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2339.168243207273</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-29.16070561274637</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14.65589773510359</v>
+      </c>
+      <c r="C12" t="n">
+        <v>157.1600036621094</v>
+      </c>
+      <c r="D12" t="n">
+        <v>157.8300018310547</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2313.140366367149</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9.819424646769221</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>21.29425316488977</v>
+      </c>
+      <c r="C13" t="n">
+        <v>105.4100036621094</v>
+      </c>
+      <c r="D13" t="n">
+        <v>104.1500015258789</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2217.796499615721</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-26.83080447719385</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>54.68998908518099</v>
+      </c>
+      <c r="C14" t="n">
+        <v>40.59999847412109</v>
+      </c>
+      <c r="D14" t="n">
+        <v>39.70999908447266</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2171.739416502357</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-48.67405690569103</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7.341960288722992</v>
+      </c>
+      <c r="C15" t="n">
+        <v>279.1199951171875</v>
+      </c>
+      <c r="D15" t="n">
+        <v>276.9800109863281</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2033.576241431679</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-15.71167850726692</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3.441203901397358</v>
+      </c>
+      <c r="C16" t="n">
+        <v>565.510009765625</v>
+      </c>
+      <c r="D16" t="n">
+        <v>549.510009765625</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1890.975989462369</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-55.05926242235773</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>VTR</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>24.48798585303242</v>
+      </c>
+      <c r="C17" t="n">
+        <v>77.23999786376953</v>
+      </c>
+      <c r="D17" t="n">
+        <v>78</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1910.062896536529</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>18.61092156028622</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9.817921559361192</v>
+      </c>
+      <c r="C18" t="n">
+        <v>191.0700073242188</v>
+      </c>
+      <c r="D18" t="n">
+        <v>193.8200073242188</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1902.909628543991</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>26.99928428824319</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>27.6655304975248</v>
+      </c>
+      <c r="C19" t="n">
+        <v>65.59999847412109</v>
+      </c>
+      <c r="D19" t="n">
+        <v>65.37999725341797</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1808.772307942522</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-6.086450480855092</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6.433285773374107</v>
+      </c>
+      <c r="C20" t="n">
+        <v>278.5700073242188</v>
+      </c>
+      <c r="D20" t="n">
+        <v>276.4100036621094</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1778.224544177733</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-13.89592082988429</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>24.51303879648528</v>
+      </c>
+      <c r="C21" t="n">
+        <v>71.88999938964844</v>
+      </c>
+      <c r="D21" t="n">
+        <v>70.51999664306641</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1728.659413639498</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-33.58293047825669</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7.347037546170688</v>
+      </c>
+      <c r="C22" t="n">
+        <v>236.9499969482422</v>
+      </c>
+      <c r="D22" t="n">
+        <v>246.8300018310547</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1813.469290974138</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>72.58876683037329</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.129224512164777</v>
+      </c>
+      <c r="C23" t="n">
+        <v>553.5499877929688</v>
+      </c>
+      <c r="D23" t="n">
+        <v>554.030029296875</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1733.684348151151</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.502157640879886</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>29.38014472672205</v>
+      </c>
+      <c r="C24" t="n">
+        <v>58.95000076293945</v>
+      </c>
+      <c r="D24" t="n">
+        <v>58.45999908447266</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1717.563233825845</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-14.39632022969113</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6.00667502434834</v>
+      </c>
+      <c r="C25" t="n">
+        <v>287.4299926757812</v>
+      </c>
+      <c r="D25" t="n">
+        <v>285.7200012207031</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1716.227195289175</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-10.27136296506683</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4.510193728186452</v>
+      </c>
+      <c r="C26" t="n">
+        <v>379.2999877929688</v>
+      </c>
+      <c r="D26" t="n">
+        <v>379.3999938964844</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1711.167472945902</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.4510469008564542</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2.00492168664449</v>
+      </c>
+      <c r="C27" t="n">
+        <v>846.239990234375</v>
+      </c>
+      <c r="D27" t="n">
+        <v>842.0900268554688</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1688.32455694957</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-8.320351577149495</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6.013822346081029</v>
+      </c>
+      <c r="C28" t="n">
+        <v>262.5599975585938</v>
+      </c>
+      <c r="D28" t="n">
+        <v>258.2099914550781</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1552.82901659394</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-26.16016391091102</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>24.00079250483251</v>
+      </c>
+      <c r="C29" t="n">
+        <v>65.44000244140625</v>
+      </c>
+      <c r="D29" t="n">
+        <v>64.83999633789062</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1556.211298119813</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-14.40062199211161</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9.081216849423479</v>
+      </c>
+      <c r="C30" t="n">
+        <v>165.2700042724609</v>
+      </c>
+      <c r="D30" t="n">
+        <v>164.0200042724609</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1489.501226441583</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-11.35152106177929</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2.871504472810579</v>
+      </c>
+      <c r="C31" t="n">
+        <v>473.2799987792969</v>
+      </c>
+      <c r="D31" t="n">
+        <v>472.6499938964844</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1357.216571547648</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-1.80906183888851</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3.547400568800079</v>
+      </c>
+      <c r="C32" t="n">
+        <v>364.7300109863281</v>
+      </c>
+      <c r="D32" t="n">
+        <v>357.1799926757812</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1267.060509182075</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-26.78293924928494</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>9.53548995990084</v>
+      </c>
+      <c r="C33" t="n">
+        <v>135.25</v>
+      </c>
+      <c r="D33" t="n">
+        <v>133.7400054931641</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1275.276479617149</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-14.39853745943947</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5.599552879822853</v>
+      </c>
+      <c r="C34" t="n">
+        <v>227.5700073242188</v>
+      </c>
+      <c r="D34" t="n">
+        <v>225.0399932861328</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1260.123342480681</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-14.16694739295622</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10.39428841951489</v>
+      </c>
+      <c r="C35" t="n">
+        <v>121.4800033569336</v>
+      </c>
+      <c r="D35" t="n">
+        <v>121.3000030517578</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1260.827217008007</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-1.870975087597799</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>8.84203577191718</v>
+      </c>
+      <c r="C36" t="n">
+        <v>138.4400024414062</v>
+      </c>
+      <c r="D36" t="n">
+        <v>138.4199981689453</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1223.914575358525</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.1768784926907756</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>6.95062918090102</v>
+      </c>
+      <c r="C37" t="n">
+        <v>169.5899963378906</v>
+      </c>
+      <c r="D37" t="n">
+        <v>169.9700012207031</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1181.398450362401</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.641273027361422</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>6.031742261526645</v>
+      </c>
+      <c r="C38" t="n">
+        <v>195.25</v>
+      </c>
+      <c r="D38" t="n">
+        <v>195.9299926757812</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1181.799217123116</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4.101540560038302</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>5.735677023176243</v>
+      </c>
+      <c r="C39" t="n">
+        <v>204.2700042724609</v>
+      </c>
+      <c r="D39" t="n">
+        <v>203.9199981689453</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1169.619248063761</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-2.00752196590588</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1.950925082057044</v>
+      </c>
+      <c r="C40" t="n">
+        <v>580.1300048828125</v>
+      </c>
+      <c r="D40" t="n">
+        <v>578.7100219726562</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1129.019897104238</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-2.770280275516143</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>7.448840495355923</v>
+      </c>
+      <c r="C41" t="n">
+        <v>151.6600036621094</v>
+      </c>
+      <c r="D41" t="n">
+        <v>152.8000030517578</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1138.182850422442</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>8.491673618294271</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>9.908762567670406</v>
+      </c>
+      <c r="C42" t="n">
+        <v>111.0400009155273</v>
+      </c>
+      <c r="D42" t="n">
+        <v>110.4800033569336</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1094.720121739284</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-5.548882846580454</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>80.35877882319967</v>
+      </c>
+      <c r="C43" t="n">
+        <v>13.27999973297119</v>
+      </c>
+      <c r="D43" t="n">
+        <v>13.1899995803833</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1059.932258958118</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-7.232302355864476</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3.68498229306724</v>
+      </c>
+      <c r="C44" t="n">
+        <v>272.9500122070312</v>
+      </c>
+      <c r="D44" t="n">
+        <v>272.4100036621094</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1003.826039949255</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-1.989921926142188</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>5.300316898058767</v>
+      </c>
+      <c r="C45" t="n">
+        <v>185.9700012207031</v>
+      </c>
+      <c r="D45" t="n">
+        <v>185.0099945068359</v>
+      </c>
+      <c r="E45" t="n">
+        <v>980.6116001943423</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-5.088339807760121</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>6.325466919762245</v>
+      </c>
+      <c r="C46" t="n">
+        <v>153.3200073242188</v>
+      </c>
+      <c r="D46" t="n">
+        <v>148.2599945068359</v>
+      </c>
+      <c r="E46" t="n">
+        <v>937.8136907771228</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-32.00694368992799</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>6.505589855437854</v>
+      </c>
+      <c r="C47" t="n">
+        <v>146.8899993896484</v>
+      </c>
+      <c r="D47" t="n">
+        <v>146.8200073242188</v>
+      </c>
+      <c r="E47" t="n">
+        <v>955.150750223749</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.4553396708205355</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CTRA</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>36.90983377674125</v>
+      </c>
+      <c r="C48" t="n">
+        <v>25.84000015258789</v>
+      </c>
+      <c r="D48" t="n">
+        <v>26.34000015258789</v>
+      </c>
+      <c r="E48" t="n">
+        <v>972.2050273113582</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>18.45491688837058</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>9.809604376032414</v>
+      </c>
+      <c r="C49" t="n">
+        <v>95.97000122070312</v>
+      </c>
+      <c r="D49" t="n">
+        <v>95.98000335693359</v>
+      </c>
+      <c r="E49" t="n">
+        <v>941.5258609417816</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.09811699933607088</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4.18927417255796</v>
+      </c>
+      <c r="C50" t="n">
+        <v>223.5500030517578</v>
+      </c>
+      <c r="D50" t="n">
+        <v>220.6100006103516</v>
+      </c>
+      <c r="E50" t="n">
+        <v>924.1957777649416</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-12.31647629504062</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2.979698694261641</v>
+      </c>
+      <c r="C51" t="n">
+        <v>312.6700134277344</v>
+      </c>
+      <c r="D51" t="n">
+        <v>313.9700012207031</v>
+      </c>
+      <c r="E51" t="n">
+        <v>935.5360026746549</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.87357192926504</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>7.831013952731984</v>
+      </c>
+      <c r="C52" t="n">
+        <v>118.2799987792969</v>
+      </c>
+      <c r="D52" t="n">
+        <v>116.8399963378906</v>
+      </c>
+      <c r="E52" t="n">
+        <v>914.9756415591754</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-11.2766792106205</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1.066332325061838</v>
+      </c>
+      <c r="C53" t="n">
+        <v>841.9400024414062</v>
+      </c>
+      <c r="D53" t="n">
+        <v>831.9500122070312</v>
+      </c>
+      <c r="E53" t="n">
+        <v>887.1351908519478</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-10.65264951396614</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HST</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>46.95277974218892</v>
+      </c>
+      <c r="C54" t="n">
+        <v>17.56999969482422</v>
+      </c>
+      <c r="D54" t="n">
+        <v>17.59000015258789</v>
+      </c>
+      <c r="E54" t="n">
+        <v>825.8994028295286</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.9390770881205981</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2.631897980896531</v>
+      </c>
+      <c r="C55" t="n">
+        <v>304.8599853515625</v>
+      </c>
+      <c r="D55" t="n">
+        <v>305.6900024414062</v>
+      </c>
+      <c r="E55" t="n">
+        <v>804.5449002057929</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.184520302869487</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.774506965477997</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1021.369995117188</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1025.280029296875</v>
+      </c>
+      <c r="E56" t="n">
+        <v>794.0865242559146</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3.028348707425039</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>6.698670815699866</v>
+      </c>
+      <c r="C57" t="n">
+        <v>117.9599990844727</v>
+      </c>
+      <c r="D57" t="n">
+        <v>117.2799987792969</v>
+      </c>
+      <c r="E57" t="n">
+        <v>785.6201050881918</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-4.555098198948031</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BSX</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>7.501274633643223</v>
+      </c>
+      <c r="C58" t="n">
+        <v>104.9800033569336</v>
+      </c>
+      <c r="D58" t="n">
+        <v>102.6900024414062</v>
+      </c>
+      <c r="E58" t="n">
+        <v>770.3059104424814</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-17.17792577866499</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.4453387155219358</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1737.27001953125</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1741.369995117188</v>
+      </c>
+      <c r="E59" t="n">
+        <v>775.499476873928</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.825877861112758</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3.491467597170983</v>
+      </c>
+      <c r="C60" t="n">
+        <v>221.1999969482422</v>
+      </c>
+      <c r="D60" t="n">
+        <v>221.2100067138672</v>
+      </c>
+      <c r="E60" t="n">
+        <v>772.3475706114428</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03494877233492844</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>33.47711245574138</v>
+      </c>
+      <c r="C61" t="n">
+        <v>22.13999938964844</v>
+      </c>
+      <c r="D61" t="n">
+        <v>23.03000068664551</v>
+      </c>
+      <c r="E61" t="n">
+        <v>770.977922842633</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>29.79467350532661</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2.961480538380993</v>
+      </c>
+      <c r="C62" t="n">
+        <v>247.9600067138672</v>
+      </c>
+      <c r="D62" t="n">
+        <v>246.8099975585938</v>
+      </c>
+      <c r="E62" t="n">
+        <v>730.9230044476357</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-3.405729732302234</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>26.77414174337252</v>
+      </c>
+      <c r="C63" t="n">
+        <v>27.02000045776367</v>
+      </c>
+      <c r="D63" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="E63" t="n">
+        <v>730.9340491670208</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>7.496727004865761</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>4.221343115435601</v>
+      </c>
+      <c r="C64" t="n">
+        <v>169.8899841308594</v>
+      </c>
+      <c r="D64" t="n">
+        <v>167.5800018310547</v>
+      </c>
+      <c r="E64" t="n">
+        <v>707.412687014208</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-9.751227878058671</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>9.665541239449119</v>
+      </c>
+      <c r="C65" t="n">
+        <v>73.33999633789062</v>
+      </c>
+      <c r="D65" t="n">
+        <v>71.43000030517578</v>
+      </c>
+      <c r="E65" t="n">
+        <v>690.4096136835396</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-18.46114542138957</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3.835616363272261</v>
+      </c>
+      <c r="C66" t="n">
+        <v>180.4700012207031</v>
+      </c>
+      <c r="D66" t="n">
+        <v>179.0200042724609</v>
+      </c>
+      <c r="E66" t="n">
+        <v>686.6520577405213</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-5.561632021372588</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6.672729742538647</v>
+      </c>
+      <c r="C67" t="n">
+        <v>103.1500015258789</v>
+      </c>
+      <c r="D67" t="n">
+        <v>104.75</v>
+      </c>
+      <c r="E67" t="n">
+        <v>698.9684405309233</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>10.6763574062843</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NEM</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>7.492500271044741</v>
+      </c>
+      <c r="C68" t="n">
+        <v>89.72000122070312</v>
+      </c>
+      <c r="D68" t="n">
+        <v>87.80000305175781</v>
+      </c>
+      <c r="E68" t="n">
+        <v>657.8415466630245</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-14.38558680122821</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2.486468382224623</v>
+      </c>
+      <c r="C69" t="n">
+        <v>256.5899963378906</v>
+      </c>
+      <c r="D69" t="n">
+        <v>253.0800018310547</v>
+      </c>
+      <c r="E69" t="n">
+        <v>629.275422726267</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-8.727490363029688</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2.364046209749227</v>
+      </c>
+      <c r="C70" t="n">
+        <v>267.3399963378906</v>
+      </c>
+      <c r="D70" t="n">
+        <v>267.5599975585938</v>
+      </c>
+      <c r="E70" t="n">
+        <v>632.5241981089059</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.5200930519433768</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>8.348255665160119</v>
+      </c>
+      <c r="C71" t="n">
+        <v>73.55999755859375</v>
+      </c>
+      <c r="D71" t="n">
+        <v>72.62000274658203</v>
+      </c>
+      <c r="E71" t="n">
+        <v>606.2503493330969</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-7.847317014597934</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>10.08226926856603</v>
+      </c>
+      <c r="C72" t="n">
+        <v>60.25</v>
+      </c>
+      <c r="D72" t="n">
+        <v>59.90000152587891</v>
+      </c>
+      <c r="E72" t="n">
+        <v>603.9279445714272</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-3.528778859676095</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.8508166075538195</v>
+      </c>
+      <c r="C73" t="n">
+        <v>694.989990234375</v>
+      </c>
+      <c r="D73" t="n">
+        <v>693.5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>590.0413173385738</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-1.267708436499333</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ABBV</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2.449282908326122</v>
+      </c>
+      <c r="C74" t="n">
+        <v>232.2899932861328</v>
+      </c>
+      <c r="D74" t="n">
+        <v>232.3600006103516</v>
+      </c>
+      <c r="E74" t="n">
+        <v>569.1153780735813</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.171467742666664</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>IVZ</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>23.05409323042154</v>
+      </c>
+      <c r="C75" t="n">
+        <v>23.77000045776367</v>
+      </c>
+      <c r="D75" t="n">
+        <v>23.52000045776367</v>
+      </c>
+      <c r="E75" t="n">
+        <v>542.2322833328409</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-5.763523307605396</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SCHW</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>5.710385974148593</v>
+      </c>
+      <c r="C76" t="n">
+        <v>95.08999633789062</v>
+      </c>
+      <c r="D76" t="n">
+        <v>94.38999938964844</v>
+      </c>
+      <c r="E76" t="n">
+        <v>539.0033286145427</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-3.997252755189038</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1.24779313763763</v>
+      </c>
+      <c r="C77" t="n">
+        <v>434.5199890136719</v>
+      </c>
+      <c r="D77" t="n">
+        <v>437.1499938964844</v>
+      </c>
+      <c r="E77" t="n">
+        <v>545.472762502365</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3.281702044726899</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>5.65466749838555</v>
+      </c>
+      <c r="C78" t="n">
+        <v>92.93000030517578</v>
+      </c>
+      <c r="D78" t="n">
+        <v>92.91999816894531</v>
+      </c>
+      <c r="E78" t="n">
+        <v>525.4316935959798</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-0.05655875465686222</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>5.231839661760149</v>
+      </c>
+      <c r="C79" t="n">
+        <v>96.90000152587891</v>
+      </c>
+      <c r="D79" t="n">
+        <v>96.01000213623047</v>
+      </c>
+      <c r="E79" t="n">
+        <v>502.3089371020072</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-4.656334105705014</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.7190743915638091</v>
+      </c>
+      <c r="C80" t="n">
+        <v>701.47998046875</v>
+      </c>
+      <c r="D80" t="n">
+        <v>689.9299926757812</v>
+      </c>
+      <c r="E80" t="n">
+        <v>496.1109897049607</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-8.305300444798377</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>IFF</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>7.44496904058263</v>
+      </c>
+      <c r="C81" t="n">
+        <v>67.43000030517578</v>
+      </c>
+      <c r="D81" t="n">
+        <v>65.87999725341797</v>
+      </c>
+      <c r="E81" t="n">
+        <v>490.4745399453655</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-11.53972473314548</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>RL</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1.495122901277508</v>
+      </c>
+      <c r="C82" t="n">
+        <v>332.7699890136719</v>
+      </c>
+      <c r="D82" t="n">
+        <v>331.4800109863281</v>
+      </c>
+      <c r="E82" t="n">
+        <v>495.6033557413793</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-1.928675690826424</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>5.882689318889147</v>
+      </c>
+      <c r="C83" t="n">
+        <v>83.98999786376953</v>
+      </c>
+      <c r="D83" t="n">
+        <v>83.87999725341797</v>
+      </c>
+      <c r="E83" t="n">
+        <v>493.4399639111329</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-0.6470994155864105</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>13.77353480138112</v>
+      </c>
+      <c r="C84" t="n">
+        <v>35.04000091552734</v>
+      </c>
+      <c r="D84" t="n">
+        <v>35.84000015258789</v>
+      </c>
+      <c r="E84" t="n">
+        <v>493.6434893831739</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>11.01881733273177</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TPL</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.4780007781514758</v>
+      </c>
+      <c r="C85" t="n">
+        <v>988.969970703125</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1022.650024414062</v>
+      </c>
+      <c r="E85" t="n">
+        <v>488.8275074465477</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>16.09909188201163</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.8887001327821751</v>
+      </c>
+      <c r="C86" t="n">
+        <v>529.780029296875</v>
+      </c>
+      <c r="D86" t="n">
+        <v>537.5499877929688</v>
+      </c>
+      <c r="E86" t="n">
+        <v>477.7207455286679</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>6.905163147190478</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.3267042173370672</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1412.180053710938</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1403.079956054688</v>
+      </c>
+      <c r="E87" t="n">
+        <v>458.3921389041733</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-2.973040282476006</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SOLV</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>5.955459594143079</v>
+      </c>
+      <c r="C88" t="n">
+        <v>75.22000122070312</v>
+      </c>
+      <c r="D88" t="n">
+        <v>75.66000366210938</v>
+      </c>
+      <c r="E88" t="n">
+        <v>450.5900947024098</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2.620416761119259</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3.457670582151786</v>
+      </c>
+      <c r="C89" t="n">
+        <v>125.1999969482422</v>
+      </c>
+      <c r="D89" t="n">
+        <v>125.0199966430664</v>
+      </c>
+      <c r="E89" t="n">
+        <v>432.2779645734457</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-0.6223817599846484</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6.80238016477952</v>
+      </c>
+      <c r="C90" t="n">
+        <v>62.29999923706055</v>
+      </c>
+      <c r="D90" t="n">
+        <v>60.47999954223633</v>
+      </c>
+      <c r="E90" t="n">
+        <v>411.4079492519829</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-12.38032982397704</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2.669643748261801</v>
+      </c>
+      <c r="C91" t="n">
+        <v>154.5899963378906</v>
+      </c>
+      <c r="D91" t="n">
+        <v>155.4100036621094</v>
+      </c>
+      <c r="E91" t="n">
+        <v>414.8893446938939</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2.189127426629454</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>EXPE</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1.530882461556289</v>
+      </c>
+      <c r="C92" t="n">
+        <v>267.3500061035156</v>
+      </c>
+      <c r="D92" t="n">
+        <v>264.6600036621094</v>
+      </c>
+      <c r="E92" t="n">
+        <v>405.1633578817464</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-4.118077559092399</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1.204213263566381</v>
+      </c>
+      <c r="C93" t="n">
+        <v>336</v>
+      </c>
+      <c r="D93" t="n">
+        <v>336.739990234375</v>
+      </c>
+      <c r="E93" t="n">
+        <v>405.506762613448</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.8911060551439505</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2.431136269409121</v>
+      </c>
+      <c r="C94" t="n">
+        <v>166.3099975585938</v>
+      </c>
+      <c r="D94" t="n">
+        <v>162.8099975585938</v>
+      </c>
+      <c r="E94" t="n">
+        <v>395.8132900871078</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-8.508976942931895</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>DOV</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2.159460507218627</v>
+      </c>
+      <c r="C95" t="n">
+        <v>181.9700012207031</v>
+      </c>
+      <c r="D95" t="n">
+        <v>183.1199951171875</v>
+      </c>
+      <c r="E95" t="n">
+        <v>395.4403975376343</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2.483366403000502</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.3210365105597893</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1161.719970703125</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1134.319946289062</v>
+      </c>
+      <c r="E96" t="n">
+        <v>364.1581174150083</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-8.796408227143615</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>BMY</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>7.339112263880808</v>
+      </c>
+      <c r="C97" t="n">
+        <v>48.63000106811523</v>
+      </c>
+      <c r="D97" t="n">
+        <v>46.65000152587891</v>
+      </c>
+      <c r="E97" t="n">
+        <v>342.3695983086363</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-14.53143892290501</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>HOLX</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>4.491250761534997</v>
+      </c>
+      <c r="C98" t="n">
+        <v>74.26000213623047</v>
+      </c>
+      <c r="D98" t="n">
+        <v>74.15000152587891</v>
+      </c>
+      <c r="E98" t="n">
+        <v>333.0262508209248</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-0.4940403250107579</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>EIX</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>5.442271430274708</v>
+      </c>
+      <c r="C99" t="n">
+        <v>59.08000183105469</v>
+      </c>
+      <c r="D99" t="n">
+        <v>58.70999908447266</v>
+      </c>
+      <c r="E99" t="n">
+        <v>319.5157506888798</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-2.0136553768466</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>SMCI</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>9.023653937992608</v>
+      </c>
+      <c r="C100" t="n">
+        <v>35.09000015258789</v>
+      </c>
+      <c r="D100" t="n">
+        <v>36.41999816894531</v>
+      </c>
+      <c r="E100" t="n">
+        <v>328.6414598988869</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>12.00144183782601</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1.142549324435784</v>
+      </c>
+      <c r="C101" t="n">
+        <v>223.2299957275391</v>
+      </c>
+      <c r="D101" t="n">
+        <v>226.0099945068359</v>
+      </c>
+      <c r="E101" t="n">
+        <v>258.2275665395208</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>3.17628572721793</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ALGN</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1.765814061178995</v>
+      </c>
+      <c r="C102" t="n">
+        <v>139.4199981689453</v>
+      </c>
+      <c r="D102" t="n">
+        <v>137.1300048828125</v>
+      </c>
+      <c r="E102" t="n">
+        <v>242.1460908316145</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-4.043702344658811</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.9694967980004723</v>
+      </c>
+      <c r="C103" t="n">
+        <v>236.2799987792969</v>
+      </c>
+      <c r="D103" t="n">
+        <v>237.3300018310547</v>
+      </c>
+      <c r="E103" t="n">
+        <v>230.0906768446538</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.017974596569928</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>VTRS</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>20.47824037581958</v>
+      </c>
+      <c r="C104" t="n">
+        <v>10.90999984741211</v>
+      </c>
+      <c r="D104" t="n">
+        <v>10.72000026702881</v>
+      </c>
+      <c r="E104" t="n">
+        <v>219.526742297066</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-3.890857078394106</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1.244683936608608</v>
+      </c>
+      <c r="C105" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>173.9799957275391</v>
+      </c>
+      <c r="E105" t="n">
+        <v>216.5501059733022</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-0.6472409648999644</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>DLR</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1.27424223725561</v>
+      </c>
+      <c r="C106" t="n">
+        <v>158.1100006103516</v>
+      </c>
+      <c r="D106" t="n">
+        <v>158.1799926757812</v>
+      </c>
+      <c r="E106" t="n">
+        <v>201.5596277562635</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.08918684604327609</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>7.996188205593628</v>
+      </c>
+      <c r="C107" t="n">
+        <v>24.69000053405762</v>
+      </c>
+      <c r="D107" t="n">
+        <v>24.79000091552734</v>
+      </c>
+      <c r="E107" t="n">
+        <v>198.225512937395</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.799621870863092</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1.25692033490867</v>
+      </c>
+      <c r="C108" t="n">
+        <v>145.8099975585938</v>
+      </c>
+      <c r="D108" t="n">
+        <v>147.7799987792969</v>
+      </c>
+      <c r="E108" t="n">
+        <v>185.7476855584767</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2.476134594096663</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1.509650895363199</v>
+      </c>
+      <c r="C109" t="n">
+        <v>114.5699996948242</v>
+      </c>
+      <c r="D109" t="n">
+        <v>115.1399993896484</v>
+      </c>
+      <c r="E109" t="n">
+        <v>173.8212031707009</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.8605005496481226</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1.026481180823099</v>
+      </c>
+      <c r="C110" t="n">
+        <v>164.7299957275391</v>
+      </c>
+      <c r="D110" t="n">
+        <v>167.5500030517578</v>
+      </c>
+      <c r="E110" t="n">
+        <v>171.9869249794823</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2.894684448093869</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1.995920503720255</v>
+      </c>
+      <c r="C111" t="n">
+        <v>73.69000244140625</v>
+      </c>
+      <c r="D111" t="n">
+        <v>73.30000305175781</v>
+      </c>
+      <c r="E111" t="n">
+        <v>146.3009790137607</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-0.7784077782376926</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.5739271498879062</v>
+      </c>
+      <c r="C112" t="n">
+        <v>237.5800018310547</v>
+      </c>
+      <c r="D112" t="n">
+        <v>234.6900024414062</v>
+      </c>
+      <c r="E112" t="n">
+        <v>134.694964208382</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-1.65864911287872</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>BDX</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.6044986229524348</v>
+      </c>
+      <c r="C113" t="n">
+        <v>193.0399932861328</v>
+      </c>
+      <c r="D113" t="n">
+        <v>193.0399932861328</v>
+      </c>
+      <c r="E113" t="n">
+        <v>116.6924101162145</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1.422617450484856</v>
+      </c>
+      <c r="C114" t="n">
+        <v>71.08000183105469</v>
+      </c>
+      <c r="D114" t="n">
+        <v>71.30999755859375</v>
+      </c>
+      <c r="E114" t="n">
+        <v>101.446846920888</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.3271959355340215</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>VST</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.5253683346099912</v>
+      </c>
+      <c r="C115" t="n">
+        <v>171.5599975585938</v>
+      </c>
+      <c r="D115" t="n">
+        <v>174.6900024414062</v>
+      </c>
+      <c r="E115" t="n">
+        <v>91.77659565565691</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.644405452604346</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>AKAM</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.1272577166428353</v>
+      </c>
+      <c r="C116" t="n">
+        <v>88.66999816894531</v>
+      </c>
+      <c r="D116" t="n">
+        <v>87.16999816894531</v>
+      </c>
+      <c r="E116" t="n">
+        <v>11.09305492674011</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-0.190886574964253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/backtest_portfolio_PL.xlsx
+++ b/backtest_portfolio_PL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="29" activeTab="31" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="32" activeTab="35" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-10-23_Allocations" sheetId="1" state="visible" r:id="rId1"/>
@@ -42,6 +42,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-13-2025_PnL" sheetId="34" state="visible" r:id="rId34"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-14-2025_Allocations" sheetId="35" state="visible" r:id="rId35"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-14-2025_PnL" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-17-2025_Allocations" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-17-2025_PnL" sheetId="38" state="visible" r:id="rId38"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -51,7 +53,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -73,6 +75,11 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -84,12 +91,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -132,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -141,6 +163,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -48917,7 +48942,7 @@
   </sheetPr>
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A104" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -51827,7 +51852,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
@@ -53944,7 +53969,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
@@ -56725,7 +56750,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
@@ -58952,6 +58977,2937 @@
   </sheetPr>
   <dimension ref="A1:G116"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Shares</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Exit_Price</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Sale_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Transaction_Cost</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Gain_Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16.48730813630006</v>
+      </c>
+      <c r="C2" t="n">
+        <v>379.6900024414062</v>
+      </c>
+      <c r="D2" t="n">
+        <v>377.1300048828125</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6217.858597947275</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-42.20746857671111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CAH</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16.62285001312893</v>
+      </c>
+      <c r="C3" t="n">
+        <v>206.0599975585938</v>
+      </c>
+      <c r="D3" t="n">
+        <v>205.3699951171875</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3413.834626030028</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-11.46980709218906</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>STE</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12.92124526251177</v>
+      </c>
+      <c r="C4" t="n">
+        <v>260.4400024414062</v>
+      </c>
+      <c r="D4" t="n">
+        <v>258.4100036621094</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3338.979035604679</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-26.23011210989443</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.904384153439962</v>
+      </c>
+      <c r="C5" t="n">
+        <v>805.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>790.9099731445312</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3088.016365943134</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-56.96506965275557</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>33.55790873464107</v>
+      </c>
+      <c r="C6" t="n">
+        <v>86.11000061035156</v>
+      </c>
+      <c r="D6" t="n">
+        <v>86.30000305175781</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2896.047626210134</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.376084588069716</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>105.4745817511425</v>
+      </c>
+      <c r="C7" t="n">
+        <v>25.79000091552734</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25.05999946594238</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2643.192962354128</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-76.99659757270138</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.723006892130105</v>
+      </c>
+      <c r="C8" t="n">
+        <v>467.489990234375</v>
+      </c>
+      <c r="D8" t="n">
+        <v>462.6099853515625</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2647.520134535199</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-27.9283015779647</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.255328617109772</v>
+      </c>
+      <c r="C9" t="n">
+        <v>364.8500061035156</v>
+      </c>
+      <c r="D9" t="n">
+        <v>361.9400024414062</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2625.993657389915</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-21.11303284559654</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>15.44386368725515</v>
+      </c>
+      <c r="C10" t="n">
+        <v>165.6100006103516</v>
+      </c>
+      <c r="D10" t="n">
+        <v>163.8600006103516</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2530.631513219815</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-27.02676145269652</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>JCI</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19.70323634733382</v>
+      </c>
+      <c r="C11" t="n">
+        <v>120.1999969482422</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.7200012207031</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2339.168243207273</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-29.16070561274637</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14.65589773510359</v>
+      </c>
+      <c r="C12" t="n">
+        <v>157.1600036621094</v>
+      </c>
+      <c r="D12" t="n">
+        <v>157.8300018310547</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2313.140366367149</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9.819424646769221</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>21.29425316488977</v>
+      </c>
+      <c r="C13" t="n">
+        <v>105.4100036621094</v>
+      </c>
+      <c r="D13" t="n">
+        <v>104.1500015258789</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2217.796499615721</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-26.83080447719385</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>54.68998908518099</v>
+      </c>
+      <c r="C14" t="n">
+        <v>40.59999847412109</v>
+      </c>
+      <c r="D14" t="n">
+        <v>39.70999908447266</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2171.739416502357</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-48.67405690569103</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7.341960288722992</v>
+      </c>
+      <c r="C15" t="n">
+        <v>279.1199951171875</v>
+      </c>
+      <c r="D15" t="n">
+        <v>276.9800109863281</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2033.576241431679</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-15.71167850726692</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3.441203901397358</v>
+      </c>
+      <c r="C16" t="n">
+        <v>565.510009765625</v>
+      </c>
+      <c r="D16" t="n">
+        <v>549.510009765625</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1890.975989462369</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-55.05926242235773</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>VTR</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>24.48798585303242</v>
+      </c>
+      <c r="C17" t="n">
+        <v>77.23999786376953</v>
+      </c>
+      <c r="D17" t="n">
+        <v>78</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1910.062896536529</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>18.61092156028622</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9.817921559361192</v>
+      </c>
+      <c r="C18" t="n">
+        <v>191.0700073242188</v>
+      </c>
+      <c r="D18" t="n">
+        <v>193.8200073242188</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1902.909628543991</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>26.99928428824319</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>27.6655304975248</v>
+      </c>
+      <c r="C19" t="n">
+        <v>65.59999847412109</v>
+      </c>
+      <c r="D19" t="n">
+        <v>65.37999725341797</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1808.772307942522</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-6.086450480855092</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6.433285773374107</v>
+      </c>
+      <c r="C20" t="n">
+        <v>278.5700073242188</v>
+      </c>
+      <c r="D20" t="n">
+        <v>276.4100036621094</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1778.224544177733</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-13.89592082988429</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>24.51303879648528</v>
+      </c>
+      <c r="C21" t="n">
+        <v>71.88999938964844</v>
+      </c>
+      <c r="D21" t="n">
+        <v>70.51999664306641</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1728.659413639498</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-33.58293047825669</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7.347037546170688</v>
+      </c>
+      <c r="C22" t="n">
+        <v>236.9499969482422</v>
+      </c>
+      <c r="D22" t="n">
+        <v>246.8300018310547</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1813.469290974138</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>72.58876683037329</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.129224512164777</v>
+      </c>
+      <c r="C23" t="n">
+        <v>553.5499877929688</v>
+      </c>
+      <c r="D23" t="n">
+        <v>554.030029296875</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1733.684348151151</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.502157640879886</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>29.38014472672205</v>
+      </c>
+      <c r="C24" t="n">
+        <v>58.95000076293945</v>
+      </c>
+      <c r="D24" t="n">
+        <v>58.45999908447266</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1717.563233825845</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-14.39632022969113</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6.00667502434834</v>
+      </c>
+      <c r="C25" t="n">
+        <v>287.4299926757812</v>
+      </c>
+      <c r="D25" t="n">
+        <v>285.7200012207031</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1716.227195289175</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-10.27136296506683</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4.510193728186452</v>
+      </c>
+      <c r="C26" t="n">
+        <v>379.2999877929688</v>
+      </c>
+      <c r="D26" t="n">
+        <v>379.3999938964844</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1711.167472945902</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.4510469008564542</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2.00492168664449</v>
+      </c>
+      <c r="C27" t="n">
+        <v>846.239990234375</v>
+      </c>
+      <c r="D27" t="n">
+        <v>842.0900268554688</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1688.32455694957</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-8.320351577149495</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6.013822346081029</v>
+      </c>
+      <c r="C28" t="n">
+        <v>262.5599975585938</v>
+      </c>
+      <c r="D28" t="n">
+        <v>258.2099914550781</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1552.82901659394</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-26.16016391091102</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>24.00079250483251</v>
+      </c>
+      <c r="C29" t="n">
+        <v>65.44000244140625</v>
+      </c>
+      <c r="D29" t="n">
+        <v>64.83999633789062</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1556.211298119813</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-14.40062199211161</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9.081216849423479</v>
+      </c>
+      <c r="C30" t="n">
+        <v>165.2700042724609</v>
+      </c>
+      <c r="D30" t="n">
+        <v>164.0200042724609</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1489.501226441583</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-11.35152106177929</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2.871504472810579</v>
+      </c>
+      <c r="C31" t="n">
+        <v>473.2799987792969</v>
+      </c>
+      <c r="D31" t="n">
+        <v>472.6499938964844</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1357.216571547648</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-1.80906183888851</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3.547400568800079</v>
+      </c>
+      <c r="C32" t="n">
+        <v>364.7300109863281</v>
+      </c>
+      <c r="D32" t="n">
+        <v>357.1799926757812</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1267.060509182075</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-26.78293924928494</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>9.53548995990084</v>
+      </c>
+      <c r="C33" t="n">
+        <v>135.25</v>
+      </c>
+      <c r="D33" t="n">
+        <v>133.7400054931641</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1275.276479617149</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-14.39853745943947</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5.599552879822853</v>
+      </c>
+      <c r="C34" t="n">
+        <v>227.5700073242188</v>
+      </c>
+      <c r="D34" t="n">
+        <v>225.0399932861328</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1260.123342480681</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-14.16694739295622</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10.39428841951489</v>
+      </c>
+      <c r="C35" t="n">
+        <v>121.4800033569336</v>
+      </c>
+      <c r="D35" t="n">
+        <v>121.3000030517578</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1260.827217008007</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-1.870975087597799</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>8.84203577191718</v>
+      </c>
+      <c r="C36" t="n">
+        <v>138.4400024414062</v>
+      </c>
+      <c r="D36" t="n">
+        <v>138.4199981689453</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1223.914575358525</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.1768784926907756</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>6.95062918090102</v>
+      </c>
+      <c r="C37" t="n">
+        <v>169.5899963378906</v>
+      </c>
+      <c r="D37" t="n">
+        <v>169.9700012207031</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1181.398450362401</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.641273027361422</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>6.031742261526645</v>
+      </c>
+      <c r="C38" t="n">
+        <v>195.25</v>
+      </c>
+      <c r="D38" t="n">
+        <v>195.9299926757812</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1181.799217123116</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4.101540560038302</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>5.735677023176243</v>
+      </c>
+      <c r="C39" t="n">
+        <v>204.2700042724609</v>
+      </c>
+      <c r="D39" t="n">
+        <v>203.9199981689453</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1169.619248063761</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-2.00752196590588</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1.950925082057044</v>
+      </c>
+      <c r="C40" t="n">
+        <v>580.1300048828125</v>
+      </c>
+      <c r="D40" t="n">
+        <v>578.7100219726562</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1129.019897104238</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-2.770280275516143</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>7.448840495355923</v>
+      </c>
+      <c r="C41" t="n">
+        <v>151.6600036621094</v>
+      </c>
+      <c r="D41" t="n">
+        <v>152.8000030517578</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1138.182850422442</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>8.491673618294271</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>9.908762567670406</v>
+      </c>
+      <c r="C42" t="n">
+        <v>111.0400009155273</v>
+      </c>
+      <c r="D42" t="n">
+        <v>110.4800033569336</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1094.720121739284</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-5.548882846580454</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>80.35877882319967</v>
+      </c>
+      <c r="C43" t="n">
+        <v>13.27999973297119</v>
+      </c>
+      <c r="D43" t="n">
+        <v>13.1899995803833</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1059.932258958118</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-7.232302355864476</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3.68498229306724</v>
+      </c>
+      <c r="C44" t="n">
+        <v>272.9500122070312</v>
+      </c>
+      <c r="D44" t="n">
+        <v>272.4100036621094</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1003.826039949255</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-1.989921926142188</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>5.300316898058767</v>
+      </c>
+      <c r="C45" t="n">
+        <v>185.9700012207031</v>
+      </c>
+      <c r="D45" t="n">
+        <v>185.0099945068359</v>
+      </c>
+      <c r="E45" t="n">
+        <v>980.6116001943423</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-5.088339807760121</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>6.325466919762245</v>
+      </c>
+      <c r="C46" t="n">
+        <v>153.3200073242188</v>
+      </c>
+      <c r="D46" t="n">
+        <v>148.2599945068359</v>
+      </c>
+      <c r="E46" t="n">
+        <v>937.8136907771228</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-32.00694368992799</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>6.505589855437854</v>
+      </c>
+      <c r="C47" t="n">
+        <v>146.8899993896484</v>
+      </c>
+      <c r="D47" t="n">
+        <v>146.8200073242188</v>
+      </c>
+      <c r="E47" t="n">
+        <v>955.150750223749</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.4553396708205355</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CTRA</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>36.90983377674125</v>
+      </c>
+      <c r="C48" t="n">
+        <v>25.84000015258789</v>
+      </c>
+      <c r="D48" t="n">
+        <v>26.34000015258789</v>
+      </c>
+      <c r="E48" t="n">
+        <v>972.2050273113582</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>18.45491688837058</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>9.809604376032414</v>
+      </c>
+      <c r="C49" t="n">
+        <v>95.97000122070312</v>
+      </c>
+      <c r="D49" t="n">
+        <v>95.98000335693359</v>
+      </c>
+      <c r="E49" t="n">
+        <v>941.5258609417816</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.09811699933607088</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4.18927417255796</v>
+      </c>
+      <c r="C50" t="n">
+        <v>223.5500030517578</v>
+      </c>
+      <c r="D50" t="n">
+        <v>220.6100006103516</v>
+      </c>
+      <c r="E50" t="n">
+        <v>924.1957777649416</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-12.31647629504062</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2.979698694261641</v>
+      </c>
+      <c r="C51" t="n">
+        <v>312.6700134277344</v>
+      </c>
+      <c r="D51" t="n">
+        <v>313.9700012207031</v>
+      </c>
+      <c r="E51" t="n">
+        <v>935.5360026746549</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.87357192926504</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>7.831013952731984</v>
+      </c>
+      <c r="C52" t="n">
+        <v>118.2799987792969</v>
+      </c>
+      <c r="D52" t="n">
+        <v>116.8399963378906</v>
+      </c>
+      <c r="E52" t="n">
+        <v>914.9756415591754</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-11.2766792106205</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1.066332325061838</v>
+      </c>
+      <c r="C53" t="n">
+        <v>841.9400024414062</v>
+      </c>
+      <c r="D53" t="n">
+        <v>831.9500122070312</v>
+      </c>
+      <c r="E53" t="n">
+        <v>887.1351908519478</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-10.65264951396614</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HST</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>46.95277974218892</v>
+      </c>
+      <c r="C54" t="n">
+        <v>17.56999969482422</v>
+      </c>
+      <c r="D54" t="n">
+        <v>17.59000015258789</v>
+      </c>
+      <c r="E54" t="n">
+        <v>825.8994028295286</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.9390770881205981</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2.631897980896531</v>
+      </c>
+      <c r="C55" t="n">
+        <v>304.8599853515625</v>
+      </c>
+      <c r="D55" t="n">
+        <v>305.6900024414062</v>
+      </c>
+      <c r="E55" t="n">
+        <v>804.5449002057929</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.184520302869487</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.774506965477997</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1021.369995117188</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1025.280029296875</v>
+      </c>
+      <c r="E56" t="n">
+        <v>794.0865242559146</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3.028348707425039</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>6.698670815699866</v>
+      </c>
+      <c r="C57" t="n">
+        <v>117.9599990844727</v>
+      </c>
+      <c r="D57" t="n">
+        <v>117.2799987792969</v>
+      </c>
+      <c r="E57" t="n">
+        <v>785.6201050881918</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-4.555098198948031</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BSX</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>7.501274633643223</v>
+      </c>
+      <c r="C58" t="n">
+        <v>104.9800033569336</v>
+      </c>
+      <c r="D58" t="n">
+        <v>102.6900024414062</v>
+      </c>
+      <c r="E58" t="n">
+        <v>770.3059104424814</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-17.17792577866499</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.4453387155219358</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1737.27001953125</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1741.369995117188</v>
+      </c>
+      <c r="E59" t="n">
+        <v>775.499476873928</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.825877861112758</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3.491467597170983</v>
+      </c>
+      <c r="C60" t="n">
+        <v>221.1999969482422</v>
+      </c>
+      <c r="D60" t="n">
+        <v>221.2100067138672</v>
+      </c>
+      <c r="E60" t="n">
+        <v>772.3475706114428</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03494877233492844</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>33.47711245574138</v>
+      </c>
+      <c r="C61" t="n">
+        <v>22.13999938964844</v>
+      </c>
+      <c r="D61" t="n">
+        <v>23.03000068664551</v>
+      </c>
+      <c r="E61" t="n">
+        <v>770.977922842633</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>29.79467350532661</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2.961480538380993</v>
+      </c>
+      <c r="C62" t="n">
+        <v>247.9600067138672</v>
+      </c>
+      <c r="D62" t="n">
+        <v>246.8099975585938</v>
+      </c>
+      <c r="E62" t="n">
+        <v>730.9230044476357</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-3.405729732302234</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>26.77414174337252</v>
+      </c>
+      <c r="C63" t="n">
+        <v>27.02000045776367</v>
+      </c>
+      <c r="D63" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="E63" t="n">
+        <v>730.9340491670208</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>7.496727004865761</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>4.221343115435601</v>
+      </c>
+      <c r="C64" t="n">
+        <v>169.8899841308594</v>
+      </c>
+      <c r="D64" t="n">
+        <v>167.5800018310547</v>
+      </c>
+      <c r="E64" t="n">
+        <v>707.412687014208</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-9.751227878058671</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>9.665541239449119</v>
+      </c>
+      <c r="C65" t="n">
+        <v>73.33999633789062</v>
+      </c>
+      <c r="D65" t="n">
+        <v>71.43000030517578</v>
+      </c>
+      <c r="E65" t="n">
+        <v>690.4096136835396</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-18.46114542138957</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3.835616363272261</v>
+      </c>
+      <c r="C66" t="n">
+        <v>180.4700012207031</v>
+      </c>
+      <c r="D66" t="n">
+        <v>179.0200042724609</v>
+      </c>
+      <c r="E66" t="n">
+        <v>686.6520577405213</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-5.561632021372588</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6.672729742538647</v>
+      </c>
+      <c r="C67" t="n">
+        <v>103.1500015258789</v>
+      </c>
+      <c r="D67" t="n">
+        <v>104.75</v>
+      </c>
+      <c r="E67" t="n">
+        <v>698.9684405309233</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>10.6763574062843</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NEM</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>7.492500271044741</v>
+      </c>
+      <c r="C68" t="n">
+        <v>89.72000122070312</v>
+      </c>
+      <c r="D68" t="n">
+        <v>87.80000305175781</v>
+      </c>
+      <c r="E68" t="n">
+        <v>657.8415466630245</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-14.38558680122821</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2.486468382224623</v>
+      </c>
+      <c r="C69" t="n">
+        <v>256.5899963378906</v>
+      </c>
+      <c r="D69" t="n">
+        <v>253.0800018310547</v>
+      </c>
+      <c r="E69" t="n">
+        <v>629.275422726267</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-8.727490363029688</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2.364046209749227</v>
+      </c>
+      <c r="C70" t="n">
+        <v>267.3399963378906</v>
+      </c>
+      <c r="D70" t="n">
+        <v>267.5599975585938</v>
+      </c>
+      <c r="E70" t="n">
+        <v>632.5241981089059</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.5200930519433768</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>8.348255665160119</v>
+      </c>
+      <c r="C71" t="n">
+        <v>73.55999755859375</v>
+      </c>
+      <c r="D71" t="n">
+        <v>72.62000274658203</v>
+      </c>
+      <c r="E71" t="n">
+        <v>606.2503493330969</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-7.847317014597934</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>10.08226926856603</v>
+      </c>
+      <c r="C72" t="n">
+        <v>60.25</v>
+      </c>
+      <c r="D72" t="n">
+        <v>59.90000152587891</v>
+      </c>
+      <c r="E72" t="n">
+        <v>603.9279445714272</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-3.528778859676095</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.8508166075538195</v>
+      </c>
+      <c r="C73" t="n">
+        <v>694.989990234375</v>
+      </c>
+      <c r="D73" t="n">
+        <v>693.5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>590.0413173385738</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-1.267708436499333</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ABBV</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2.449282908326122</v>
+      </c>
+      <c r="C74" t="n">
+        <v>232.2899932861328</v>
+      </c>
+      <c r="D74" t="n">
+        <v>232.3600006103516</v>
+      </c>
+      <c r="E74" t="n">
+        <v>569.1153780735813</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.171467742666664</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>IVZ</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>23.05409323042154</v>
+      </c>
+      <c r="C75" t="n">
+        <v>23.77000045776367</v>
+      </c>
+      <c r="D75" t="n">
+        <v>23.52000045776367</v>
+      </c>
+      <c r="E75" t="n">
+        <v>542.2322833328409</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-5.763523307605396</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SCHW</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>5.710385974148593</v>
+      </c>
+      <c r="C76" t="n">
+        <v>95.08999633789062</v>
+      </c>
+      <c r="D76" t="n">
+        <v>94.38999938964844</v>
+      </c>
+      <c r="E76" t="n">
+        <v>539.0033286145427</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-3.997252755189038</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1.24779313763763</v>
+      </c>
+      <c r="C77" t="n">
+        <v>434.5199890136719</v>
+      </c>
+      <c r="D77" t="n">
+        <v>437.1499938964844</v>
+      </c>
+      <c r="E77" t="n">
+        <v>545.472762502365</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3.281702044726899</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>5.65466749838555</v>
+      </c>
+      <c r="C78" t="n">
+        <v>92.93000030517578</v>
+      </c>
+      <c r="D78" t="n">
+        <v>92.91999816894531</v>
+      </c>
+      <c r="E78" t="n">
+        <v>525.4316935959798</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-0.05655875465686222</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>5.231839661760149</v>
+      </c>
+      <c r="C79" t="n">
+        <v>96.90000152587891</v>
+      </c>
+      <c r="D79" t="n">
+        <v>96.01000213623047</v>
+      </c>
+      <c r="E79" t="n">
+        <v>502.3089371020072</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-4.656334105705014</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.7190743915638091</v>
+      </c>
+      <c r="C80" t="n">
+        <v>701.47998046875</v>
+      </c>
+      <c r="D80" t="n">
+        <v>689.9299926757812</v>
+      </c>
+      <c r="E80" t="n">
+        <v>496.1109897049607</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-8.305300444798377</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>IFF</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>7.44496904058263</v>
+      </c>
+      <c r="C81" t="n">
+        <v>67.43000030517578</v>
+      </c>
+      <c r="D81" t="n">
+        <v>65.87999725341797</v>
+      </c>
+      <c r="E81" t="n">
+        <v>490.4745399453655</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-11.53972473314548</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>RL</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1.495122901277508</v>
+      </c>
+      <c r="C82" t="n">
+        <v>332.7699890136719</v>
+      </c>
+      <c r="D82" t="n">
+        <v>331.4800109863281</v>
+      </c>
+      <c r="E82" t="n">
+        <v>495.6033557413793</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-1.928675690826424</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>5.882689318889147</v>
+      </c>
+      <c r="C83" t="n">
+        <v>83.98999786376953</v>
+      </c>
+      <c r="D83" t="n">
+        <v>83.87999725341797</v>
+      </c>
+      <c r="E83" t="n">
+        <v>493.4399639111329</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-0.6470994155864105</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>13.77353480138112</v>
+      </c>
+      <c r="C84" t="n">
+        <v>35.04000091552734</v>
+      </c>
+      <c r="D84" t="n">
+        <v>35.84000015258789</v>
+      </c>
+      <c r="E84" t="n">
+        <v>493.6434893831739</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>11.01881733273177</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TPL</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.4780007781514758</v>
+      </c>
+      <c r="C85" t="n">
+        <v>988.969970703125</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1022.650024414062</v>
+      </c>
+      <c r="E85" t="n">
+        <v>488.8275074465477</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>16.09909188201163</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.8887001327821751</v>
+      </c>
+      <c r="C86" t="n">
+        <v>529.780029296875</v>
+      </c>
+      <c r="D86" t="n">
+        <v>537.5499877929688</v>
+      </c>
+      <c r="E86" t="n">
+        <v>477.7207455286679</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>6.905163147190478</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.3267042173370672</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1412.180053710938</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1403.079956054688</v>
+      </c>
+      <c r="E87" t="n">
+        <v>458.3921389041733</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-2.973040282476006</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SOLV</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>5.955459594143079</v>
+      </c>
+      <c r="C88" t="n">
+        <v>75.22000122070312</v>
+      </c>
+      <c r="D88" t="n">
+        <v>75.66000366210938</v>
+      </c>
+      <c r="E88" t="n">
+        <v>450.5900947024098</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2.620416761119259</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3.457670582151786</v>
+      </c>
+      <c r="C89" t="n">
+        <v>125.1999969482422</v>
+      </c>
+      <c r="D89" t="n">
+        <v>125.0199966430664</v>
+      </c>
+      <c r="E89" t="n">
+        <v>432.2779645734457</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-0.6223817599846484</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6.80238016477952</v>
+      </c>
+      <c r="C90" t="n">
+        <v>62.29999923706055</v>
+      </c>
+      <c r="D90" t="n">
+        <v>60.47999954223633</v>
+      </c>
+      <c r="E90" t="n">
+        <v>411.4079492519829</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-12.38032982397704</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2.669643748261801</v>
+      </c>
+      <c r="C91" t="n">
+        <v>154.5899963378906</v>
+      </c>
+      <c r="D91" t="n">
+        <v>155.4100036621094</v>
+      </c>
+      <c r="E91" t="n">
+        <v>414.8893446938939</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2.189127426629454</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>EXPE</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1.530882461556289</v>
+      </c>
+      <c r="C92" t="n">
+        <v>267.3500061035156</v>
+      </c>
+      <c r="D92" t="n">
+        <v>264.6600036621094</v>
+      </c>
+      <c r="E92" t="n">
+        <v>405.1633578817464</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-4.118077559092399</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1.204213263566381</v>
+      </c>
+      <c r="C93" t="n">
+        <v>336</v>
+      </c>
+      <c r="D93" t="n">
+        <v>336.739990234375</v>
+      </c>
+      <c r="E93" t="n">
+        <v>405.506762613448</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.8911060551439505</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2.431136269409121</v>
+      </c>
+      <c r="C94" t="n">
+        <v>166.3099975585938</v>
+      </c>
+      <c r="D94" t="n">
+        <v>162.8099975585938</v>
+      </c>
+      <c r="E94" t="n">
+        <v>395.8132900871078</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-8.508976942931895</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>DOV</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2.159460507218627</v>
+      </c>
+      <c r="C95" t="n">
+        <v>181.9700012207031</v>
+      </c>
+      <c r="D95" t="n">
+        <v>183.1199951171875</v>
+      </c>
+      <c r="E95" t="n">
+        <v>395.4403975376343</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2.483366403000502</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.3210365105597893</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1161.719970703125</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1134.319946289062</v>
+      </c>
+      <c r="E96" t="n">
+        <v>364.1581174150083</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-8.796408227143615</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>BMY</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>7.339112263880808</v>
+      </c>
+      <c r="C97" t="n">
+        <v>48.63000106811523</v>
+      </c>
+      <c r="D97" t="n">
+        <v>46.65000152587891</v>
+      </c>
+      <c r="E97" t="n">
+        <v>342.3695983086363</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-14.53143892290501</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>HOLX</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>4.491250761534997</v>
+      </c>
+      <c r="C98" t="n">
+        <v>74.26000213623047</v>
+      </c>
+      <c r="D98" t="n">
+        <v>74.15000152587891</v>
+      </c>
+      <c r="E98" t="n">
+        <v>333.0262508209248</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-0.4940403250107579</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>EIX</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>5.442271430274708</v>
+      </c>
+      <c r="C99" t="n">
+        <v>59.08000183105469</v>
+      </c>
+      <c r="D99" t="n">
+        <v>58.70999908447266</v>
+      </c>
+      <c r="E99" t="n">
+        <v>319.5157506888798</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-2.0136553768466</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>SMCI</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>9.023653937992608</v>
+      </c>
+      <c r="C100" t="n">
+        <v>35.09000015258789</v>
+      </c>
+      <c r="D100" t="n">
+        <v>36.41999816894531</v>
+      </c>
+      <c r="E100" t="n">
+        <v>328.6414598988869</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>12.00144183782601</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1.142549324435784</v>
+      </c>
+      <c r="C101" t="n">
+        <v>223.2299957275391</v>
+      </c>
+      <c r="D101" t="n">
+        <v>226.0099945068359</v>
+      </c>
+      <c r="E101" t="n">
+        <v>258.2275665395208</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>3.17628572721793</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ALGN</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1.765814061178995</v>
+      </c>
+      <c r="C102" t="n">
+        <v>139.4199981689453</v>
+      </c>
+      <c r="D102" t="n">
+        <v>137.1300048828125</v>
+      </c>
+      <c r="E102" t="n">
+        <v>242.1460908316145</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-4.043702344658811</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.9694967980004723</v>
+      </c>
+      <c r="C103" t="n">
+        <v>236.2799987792969</v>
+      </c>
+      <c r="D103" t="n">
+        <v>237.3300018310547</v>
+      </c>
+      <c r="E103" t="n">
+        <v>230.0906768446538</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.017974596569928</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>VTRS</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>20.47824037581958</v>
+      </c>
+      <c r="C104" t="n">
+        <v>10.90999984741211</v>
+      </c>
+      <c r="D104" t="n">
+        <v>10.72000026702881</v>
+      </c>
+      <c r="E104" t="n">
+        <v>219.526742297066</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-3.890857078394106</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1.244683936608608</v>
+      </c>
+      <c r="C105" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>173.9799957275391</v>
+      </c>
+      <c r="E105" t="n">
+        <v>216.5501059733022</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-0.6472409648999644</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>DLR</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1.27424223725561</v>
+      </c>
+      <c r="C106" t="n">
+        <v>158.1100006103516</v>
+      </c>
+      <c r="D106" t="n">
+        <v>158.1799926757812</v>
+      </c>
+      <c r="E106" t="n">
+        <v>201.5596277562635</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.08918684604327609</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>7.996188205593628</v>
+      </c>
+      <c r="C107" t="n">
+        <v>24.69000053405762</v>
+      </c>
+      <c r="D107" t="n">
+        <v>24.79000091552734</v>
+      </c>
+      <c r="E107" t="n">
+        <v>198.225512937395</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.799621870863092</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1.25692033490867</v>
+      </c>
+      <c r="C108" t="n">
+        <v>145.8099975585938</v>
+      </c>
+      <c r="D108" t="n">
+        <v>147.7799987792969</v>
+      </c>
+      <c r="E108" t="n">
+        <v>185.7476855584767</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2.476134594096663</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1.509650895363199</v>
+      </c>
+      <c r="C109" t="n">
+        <v>114.5699996948242</v>
+      </c>
+      <c r="D109" t="n">
+        <v>115.1399993896484</v>
+      </c>
+      <c r="E109" t="n">
+        <v>173.8212031707009</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.8605005496481226</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1.026481180823099</v>
+      </c>
+      <c r="C110" t="n">
+        <v>164.7299957275391</v>
+      </c>
+      <c r="D110" t="n">
+        <v>167.5500030517578</v>
+      </c>
+      <c r="E110" t="n">
+        <v>171.9869249794823</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2.894684448093869</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1.995920503720255</v>
+      </c>
+      <c r="C111" t="n">
+        <v>73.69000244140625</v>
+      </c>
+      <c r="D111" t="n">
+        <v>73.30000305175781</v>
+      </c>
+      <c r="E111" t="n">
+        <v>146.3009790137607</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-0.7784077782376926</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.5739271498879062</v>
+      </c>
+      <c r="C112" t="n">
+        <v>237.5800018310547</v>
+      </c>
+      <c r="D112" t="n">
+        <v>234.6900024414062</v>
+      </c>
+      <c r="E112" t="n">
+        <v>134.694964208382</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-1.65864911287872</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>BDX</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.6044986229524348</v>
+      </c>
+      <c r="C113" t="n">
+        <v>193.0399932861328</v>
+      </c>
+      <c r="D113" t="n">
+        <v>193.0399932861328</v>
+      </c>
+      <c r="E113" t="n">
+        <v>116.6924101162145</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1.422617450484856</v>
+      </c>
+      <c r="C114" t="n">
+        <v>71.08000183105469</v>
+      </c>
+      <c r="D114" t="n">
+        <v>71.30999755859375</v>
+      </c>
+      <c r="E114" t="n">
+        <v>101.446846920888</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.3271959355340215</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>VST</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.5253683346099912</v>
+      </c>
+      <c r="C115" t="n">
+        <v>171.5599975585938</v>
+      </c>
+      <c r="D115" t="n">
+        <v>174.6900024414062</v>
+      </c>
+      <c r="E115" t="n">
+        <v>91.77659565565691</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.644405452604346</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>AKAM</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.1272577166428353</v>
+      </c>
+      <c r="C116" t="n">
+        <v>88.66999816894531</v>
+      </c>
+      <c r="D116" t="n">
+        <v>87.16999816894531</v>
+      </c>
+      <c r="E116" t="n">
+        <v>11.09305492674011</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-0.190886574964253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E99"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -58959,1565 +61915,1189 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Ticker</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Shares</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Allocation_Percent</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Entry_Price</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Exit_Price</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Sale_Value</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Transaction_Cost</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Gain_Loss</t>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Target_Value</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Actual_Shares</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ROK</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.48730813630006</v>
+        <v>0.04277561450392957</v>
       </c>
       <c r="C2" t="n">
-        <v>379.6900024414062</v>
+        <v>361.9400024414062</v>
       </c>
       <c r="D2" t="n">
-        <v>377.1300048828125</v>
+        <v>5159.126228485166</v>
       </c>
       <c r="E2" t="n">
-        <v>6217.858597947275</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-42.20746857671111</v>
+        <v>14.25409237355677</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CAH</t>
+          <t>ROK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.62285001312893</v>
+        <v>0.04010668191067682</v>
       </c>
       <c r="C3" t="n">
-        <v>206.0599975585938</v>
+        <v>375.75</v>
       </c>
       <c r="D3" t="n">
-        <v>205.3699951171875</v>
+        <v>4837.228803898915</v>
       </c>
       <c r="E3" t="n">
-        <v>3413.834626030028</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-11.46980709218906</v>
+        <v>12.87352975089532</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>STE</t>
+          <t>CAH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.92124526251177</v>
+        <v>0.03473750654696492</v>
       </c>
       <c r="C4" t="n">
-        <v>260.4400024414062</v>
+        <v>205.3699951171875</v>
       </c>
       <c r="D4" t="n">
-        <v>258.4100036621094</v>
+        <v>4189.65766399822</v>
       </c>
       <c r="E4" t="n">
-        <v>3338.979035604679</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-26.23011210989443</v>
+        <v>20.40053446759607</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>EW</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.904384153439962</v>
+        <v>0.02782491537866133</v>
       </c>
       <c r="C5" t="n">
-        <v>805.5</v>
+        <v>86.30000305175781</v>
       </c>
       <c r="D5" t="n">
-        <v>790.9099731445312</v>
+        <v>3355.936610150733</v>
       </c>
       <c r="E5" t="n">
-        <v>3088.016365943134</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-56.96506965275557</v>
+        <v>38.88686548641295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.55790873464107</v>
+        <v>0.02734321954881305</v>
       </c>
       <c r="C6" t="n">
-        <v>86.11000061035156</v>
+        <v>39.70999908447266</v>
       </c>
       <c r="D6" t="n">
-        <v>86.30000305175781</v>
+        <v>3297.83973372377</v>
       </c>
       <c r="E6" t="n">
-        <v>2896.047626210134</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6.376084588069716</v>
+        <v>83.04809392486958</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.4745817511425</v>
+        <v>0.02455670688649732</v>
       </c>
       <c r="C7" t="n">
-        <v>25.79000091552734</v>
+        <v>554.030029296875</v>
       </c>
       <c r="D7" t="n">
-        <v>25.05999946594238</v>
+        <v>2961.7610887089</v>
       </c>
       <c r="E7" t="n">
-        <v>2643.192962354128</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-76.99659757270138</v>
+        <v>5.345849380163925</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CMI</t>
+          <t>STE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.723006892130105</v>
+        <v>0.02454627596125518</v>
       </c>
       <c r="C8" t="n">
-        <v>467.489990234375</v>
+        <v>258.4100036621094</v>
       </c>
       <c r="D8" t="n">
-        <v>462.6099853515625</v>
+        <v>2960.503024724824</v>
       </c>
       <c r="E8" t="n">
-        <v>2647.520134535199</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-27.9283015779647</v>
+        <v>11.45661151955984</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>WDC</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.255328617109772</v>
+        <v>0.02348416022925884</v>
       </c>
       <c r="C9" t="n">
-        <v>364.8500061035156</v>
+        <v>157.8300018310547</v>
       </c>
       <c r="D9" t="n">
-        <v>361.9400024414062</v>
+        <v>2832.402255298692</v>
       </c>
       <c r="E9" t="n">
-        <v>2625.993657389915</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-21.11303284559654</v>
+        <v>17.94590522992307</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>INCY</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.44386368725515</v>
+        <v>0.02306718519130816</v>
       </c>
       <c r="C10" t="n">
-        <v>165.6100006103516</v>
+        <v>104.1500015258789</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8600006103516</v>
+        <v>2782.111292097746</v>
       </c>
       <c r="E10" t="n">
-        <v>2530.631513219815</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-27.02676145269652</v>
+        <v>26.71254201956449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JCI</t>
+          <t>MCK</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.70323634733382</v>
+        <v>0.0221793254006924</v>
       </c>
       <c r="C11" t="n">
-        <v>120.1999969482422</v>
+        <v>842.0900268554688</v>
       </c>
       <c r="D11" t="n">
-        <v>118.7200012207031</v>
+        <v>2675.027366218379</v>
       </c>
       <c r="E11" t="n">
-        <v>2339.168243207273</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-29.16070561274637</v>
+        <v>3.176652472904189</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WDC</t>
+          <t>ISRG</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.65589773510359</v>
+        <v>0.01977305447374119</v>
       </c>
       <c r="C12" t="n">
-        <v>157.1600036621094</v>
+        <v>549.510009765625</v>
       </c>
       <c r="D12" t="n">
-        <v>157.8300018310547</v>
+        <v>2384.809315676175</v>
       </c>
       <c r="E12" t="n">
-        <v>2313.140366367149</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>9.819424646769221</v>
+        <v>4.339883302022716</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>EXPD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.29425316488977</v>
+        <v>0.01896577918199285</v>
       </c>
       <c r="C13" t="n">
-        <v>105.4100036621094</v>
+        <v>138.4199981689453</v>
       </c>
       <c r="D13" t="n">
-        <v>104.1500015258789</v>
+        <v>2287.444609649935</v>
       </c>
       <c r="E13" t="n">
-        <v>2217.796499615721</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-26.83080447719385</v>
+        <v>16.525391127791</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>VTR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>54.68998908518099</v>
+        <v>0.01883533543103327</v>
       </c>
       <c r="C14" t="n">
-        <v>40.59999847412109</v>
+        <v>78</v>
       </c>
       <c r="D14" t="n">
-        <v>39.70999908447266</v>
+        <v>2271.711912768264</v>
       </c>
       <c r="E14" t="n">
-        <v>2171.739416502357</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-48.67405690569103</v>
+        <v>29.12451170215722</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>LVS</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.341960288722992</v>
+        <v>0.01871012291430247</v>
       </c>
       <c r="C15" t="n">
-        <v>279.1199951171875</v>
+        <v>65.37999725341797</v>
       </c>
       <c r="D15" t="n">
-        <v>276.9800109863281</v>
+        <v>2256.610150077253</v>
       </c>
       <c r="E15" t="n">
-        <v>2033.576241431679</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-15.71167850726692</v>
+        <v>34.51529894274018</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>CMI</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.441203901397358</v>
+        <v>0.01847067639249795</v>
       </c>
       <c r="C16" t="n">
-        <v>565.510009765625</v>
+        <v>462.6099853515625</v>
       </c>
       <c r="D16" t="n">
-        <v>549.510009765625</v>
+        <v>2227.730732556604</v>
       </c>
       <c r="E16" t="n">
-        <v>1890.975989462369</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-55.05926242235773</v>
+        <v>4.81556992520088</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>HSIC</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24.48798585303242</v>
+        <v>0.01832949098666495</v>
       </c>
       <c r="C17" t="n">
-        <v>77.23999786376953</v>
+        <v>71.43000030517578</v>
       </c>
       <c r="D17" t="n">
-        <v>78</v>
+        <v>2210.702494885222</v>
       </c>
       <c r="E17" t="n">
-        <v>1910.062896536529</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>18.61092156028622</v>
+        <v>30.94921581184756</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>WELL</t>
+          <t>HCA</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.817921559361192</v>
+        <v>0.01770559745071222</v>
       </c>
       <c r="C18" t="n">
-        <v>191.0700073242188</v>
+        <v>472.6499938964844</v>
       </c>
       <c r="D18" t="n">
-        <v>193.8200073242188</v>
+        <v>2135.455288212823</v>
       </c>
       <c r="E18" t="n">
-        <v>1902.909628543991</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>26.99928428824319</v>
+        <v>4.518047848913146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>JCI</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.6655304975248</v>
+        <v>0.0171354639411784</v>
       </c>
       <c r="C19" t="n">
-        <v>65.59999847412109</v>
+        <v>118.7200012207031</v>
       </c>
       <c r="D19" t="n">
-        <v>65.37999725341797</v>
+        <v>2066.692027254782</v>
       </c>
       <c r="E19" t="n">
-        <v>1808.772307942522</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-6.086450480855092</v>
+        <v>17.40811999666978</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.433285773374107</v>
+        <v>0.01662939453979341</v>
       </c>
       <c r="C20" t="n">
-        <v>278.5700073242188</v>
+        <v>831.9500122070312</v>
       </c>
       <c r="D20" t="n">
-        <v>276.4100036621094</v>
+        <v>2005.655477519671</v>
       </c>
       <c r="E20" t="n">
-        <v>1778.224544177733</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-13.89592082988429</v>
+        <v>2.410788446530562</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>IFF</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>24.51303879648528</v>
+        <v>0.01627521705543579</v>
       </c>
       <c r="C21" t="n">
-        <v>71.88999938964844</v>
+        <v>65.87999725341797</v>
       </c>
       <c r="D21" t="n">
-        <v>70.51999664306641</v>
+        <v>1962.938467599908</v>
       </c>
       <c r="E21" t="n">
-        <v>1728.659413639498</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-33.58293047825669</v>
+        <v>29.79566711348136</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>WAT</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.347037546170688</v>
+        <v>0.01612061490599434</v>
       </c>
       <c r="C22" t="n">
-        <v>236.9499969482422</v>
+        <v>379.3999938964844</v>
       </c>
       <c r="D22" t="n">
-        <v>246.8300018310547</v>
+        <v>1944.292049227817</v>
       </c>
       <c r="E22" t="n">
-        <v>1813.469290974138</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>72.58876683037329</v>
+        <v>5.124649658687917</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.129224512164777</v>
+        <v>0.01588713208675868</v>
       </c>
       <c r="C23" t="n">
-        <v>553.5499877929688</v>
+        <v>246.8300018310547</v>
       </c>
       <c r="D23" t="n">
-        <v>554.030029296875</v>
+        <v>1916.131908208482</v>
       </c>
       <c r="E23" t="n">
-        <v>1733.684348151151</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.502157640879886</v>
+        <v>7.762961933290418</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>29.38014472672205</v>
+        <v>0.01587947728743673</v>
       </c>
       <c r="C24" t="n">
-        <v>58.95000076293945</v>
+        <v>195.9299926757812</v>
       </c>
       <c r="D24" t="n">
-        <v>58.45999908447266</v>
+        <v>1915.208670134321</v>
       </c>
       <c r="E24" t="n">
-        <v>1717.563233825845</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-14.39632022969113</v>
+        <v>9.774964230736984</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>WELL</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.00667502434834</v>
+        <v>0.01548687182706767</v>
       </c>
       <c r="C25" t="n">
-        <v>287.4299926757812</v>
+        <v>193.8200073242188</v>
       </c>
       <c r="D25" t="n">
-        <v>285.7200012207031</v>
+        <v>1867.856898534396</v>
       </c>
       <c r="E25" t="n">
-        <v>1716.227195289175</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-10.27136296506683</v>
+        <v>9.637069590085595</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>UHS</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.510193728186452</v>
+        <v>0.01500263710449503</v>
       </c>
       <c r="C26" t="n">
-        <v>379.2999877929688</v>
+        <v>225.0399932861328</v>
       </c>
       <c r="D26" t="n">
-        <v>379.3999938964844</v>
+        <v>1809.453808667896</v>
       </c>
       <c r="E26" t="n">
-        <v>1711.167472945902</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.4510469008564542</v>
+        <v>8.040587729520682</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MCK</t>
+          <t>DDOG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.00492168664449</v>
+        <v>0.01404901648739909</v>
       </c>
       <c r="C27" t="n">
-        <v>846.239990234375</v>
+        <v>185.0099945068359</v>
       </c>
       <c r="D27" t="n">
-        <v>842.0900268554688</v>
+        <v>1694.438531979541</v>
       </c>
       <c r="E27" t="n">
-        <v>1688.32455694957</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-8.320351577149495</v>
+        <v>9.158632410623275</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>AEP</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.013822346081029</v>
+        <v>0.01378539305983812</v>
       </c>
       <c r="C28" t="n">
-        <v>262.5599975585938</v>
+        <v>121.3000030517578</v>
       </c>
       <c r="D28" t="n">
-        <v>258.2099914550781</v>
+        <v>1662.643160823669</v>
       </c>
       <c r="E28" t="n">
-        <v>1552.82901659394</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-26.16016391091102</v>
+        <v>13.70686825221457</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>UPS</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24.00079250483251</v>
+        <v>0.01310525748944845</v>
       </c>
       <c r="C29" t="n">
-        <v>65.44000244140625</v>
+        <v>94.34000396728516</v>
       </c>
       <c r="D29" t="n">
-        <v>64.83999633789062</v>
+        <v>1580.612655807763</v>
       </c>
       <c r="E29" t="n">
-        <v>1556.211298119813</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-14.40062199211161</v>
+        <v>16.75442642927894</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9.081216849423479</v>
+        <v>0.01276161880974972</v>
       </c>
       <c r="C30" t="n">
-        <v>165.2700042724609</v>
+        <v>1025.280029296875</v>
       </c>
       <c r="D30" t="n">
-        <v>164.0200042724609</v>
+        <v>1539.166721106044</v>
       </c>
       <c r="E30" t="n">
-        <v>1489.501226441583</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-11.35152106177929</v>
+        <v>1.50121593820723</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HCA</t>
+          <t>AKAM</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.871504472810579</v>
+        <v>0.01171302034414399</v>
       </c>
       <c r="C31" t="n">
-        <v>473.2799987792969</v>
+        <v>87.16999816894531</v>
       </c>
       <c r="D31" t="n">
-        <v>472.6499938964844</v>
+        <v>1412.696256337879</v>
       </c>
       <c r="E31" t="n">
-        <v>1357.216571547648</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-1.80906183888851</v>
+        <v>16.20622101654647</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>CHRW</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.547400568800079</v>
+        <v>0.01146986616193943</v>
       </c>
       <c r="C32" t="n">
-        <v>364.7300109863281</v>
+        <v>152.8000030517578</v>
       </c>
       <c r="D32" t="n">
-        <v>357.1799926757812</v>
+        <v>1383.369661418661</v>
       </c>
       <c r="E32" t="n">
-        <v>1267.060509182075</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-26.78293924928494</v>
+        <v>9.053466189723002</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.53548995990084</v>
+        <v>0.01144449049190791</v>
       </c>
       <c r="C33" t="n">
-        <v>135.25</v>
+        <v>70.51999664306641</v>
       </c>
       <c r="D33" t="n">
-        <v>133.7400054931641</v>
+        <v>1380.309125963046</v>
       </c>
       <c r="E33" t="n">
-        <v>1275.276479617149</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-14.39853745943947</v>
+        <v>19.57330107301925</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>TMO</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5.599552879822853</v>
+        <v>0.01098773441848882</v>
       </c>
       <c r="C34" t="n">
-        <v>227.5700073242188</v>
+        <v>578.7100219726562</v>
       </c>
       <c r="D34" t="n">
-        <v>225.0399932861328</v>
+        <v>1325.220209866239</v>
       </c>
       <c r="E34" t="n">
-        <v>1260.123342480681</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-14.16694739295622</v>
+        <v>2.289955520986045</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AEP</t>
+          <t>EPAM</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>10.39428841951489</v>
+        <v>0.01089541747094897</v>
       </c>
       <c r="C35" t="n">
-        <v>121.4800033569336</v>
+        <v>179.0200042724609</v>
       </c>
       <c r="D35" t="n">
-        <v>121.3000030517578</v>
+        <v>1314.085950524558</v>
       </c>
       <c r="E35" t="n">
-        <v>1260.827217008007</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-1.870975087597799</v>
+        <v>7.340441957115444</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EXPD</t>
+          <t>TER</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8.84203577191718</v>
+        <v>0.01062194230767514</v>
       </c>
       <c r="C36" t="n">
-        <v>138.4400024414062</v>
+        <v>169.9700012207031</v>
       </c>
       <c r="D36" t="n">
-        <v>138.4199981689453</v>
+        <v>1281.102370883507</v>
       </c>
       <c r="E36" t="n">
-        <v>1223.914575358525</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-0.1768784926907756</v>
+        <v>7.537226343959468</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>EXPE</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.95062918090102</v>
+        <v>0.01015695185547554</v>
       </c>
       <c r="C37" t="n">
-        <v>169.5899963378906</v>
+        <v>264.6600036621094</v>
       </c>
       <c r="D37" t="n">
-        <v>169.9700012207031</v>
+        <v>1225.020314184642</v>
       </c>
       <c r="E37" t="n">
-        <v>1181.398450362401</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2.641273027361422</v>
+        <v>4.628656756721813</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>BMY</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.031742261526645</v>
+        <v>0.01012608309425727</v>
       </c>
       <c r="C38" t="n">
-        <v>195.25</v>
+        <v>46.65000152587891</v>
       </c>
       <c r="D38" t="n">
-        <v>195.9299926757812</v>
+        <v>1221.29726221943</v>
       </c>
       <c r="E38" t="n">
-        <v>1181.799217123116</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>4.101540560038302</v>
+        <v>26.18000476467122</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>WAB</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5.735677023176243</v>
+        <v>0.01011422193069664</v>
       </c>
       <c r="C39" t="n">
-        <v>204.2700042724609</v>
+        <v>258.2099914550781</v>
       </c>
       <c r="D39" t="n">
-        <v>203.9199981689453</v>
+        <v>1219.866698550488</v>
       </c>
       <c r="E39" t="n">
-        <v>1169.619248063761</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-2.00752196590588</v>
+        <v>4.724320277756227</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.950925082057044</v>
+        <v>0.009886358218726937</v>
       </c>
       <c r="C40" t="n">
-        <v>580.1300048828125</v>
+        <v>305.6900024414062</v>
       </c>
       <c r="D40" t="n">
-        <v>578.7100219726562</v>
+        <v>1192.384272720348</v>
       </c>
       <c r="E40" t="n">
-        <v>1129.019897104238</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-2.770280275516143</v>
+        <v>3.900632219560078</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHRW</t>
+          <t>CTRA</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.448840495355923</v>
+        <v>0.009756504012134046</v>
       </c>
       <c r="C41" t="n">
-        <v>151.6600036621094</v>
+        <v>26.34000015258789</v>
       </c>
       <c r="D41" t="n">
-        <v>152.8000030517578</v>
+        <v>1176.722680224676</v>
       </c>
       <c r="E41" t="n">
-        <v>1138.182850422442</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>8.491673618294271</v>
+        <v>44.67436117721751</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>AMGN</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9.908762567670406</v>
+        <v>0.009740831387705613</v>
       </c>
       <c r="C42" t="n">
-        <v>111.0400009155273</v>
+        <v>336.739990234375</v>
       </c>
       <c r="D42" t="n">
-        <v>110.4800033569336</v>
+        <v>1174.832419881356</v>
       </c>
       <c r="E42" t="n">
-        <v>1094.720121739284</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-5.548882846580454</v>
+        <v>3.488841402720415</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.35877882319967</v>
+        <v>0.009195207955874403</v>
       </c>
       <c r="C43" t="n">
-        <v>13.27999973297119</v>
+        <v>285.7200012207031</v>
       </c>
       <c r="D43" t="n">
-        <v>13.1899995803833</v>
+        <v>1109.025296110454</v>
       </c>
       <c r="E43" t="n">
-        <v>1059.932258958118</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-7.232302355864476</v>
+        <v>3.881510889585192</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>XYZ</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.68498229306724</v>
+        <v>0.008986485013655525</v>
       </c>
       <c r="C44" t="n">
-        <v>272.9500122070312</v>
+        <v>60.47999954223633</v>
       </c>
       <c r="D44" t="n">
-        <v>272.4100036621094</v>
+        <v>1083.85142033623</v>
       </c>
       <c r="E44" t="n">
-        <v>1003.826039949255</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-1.989921926142188</v>
+        <v>17.92082388458552</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5.300316898058767</v>
+        <v>0.008889779352248736</v>
       </c>
       <c r="C45" t="n">
-        <v>185.9700012207031</v>
+        <v>59.90000152587891</v>
       </c>
       <c r="D45" t="n">
-        <v>185.0099945068359</v>
+        <v>1072.187842384335</v>
       </c>
       <c r="E45" t="n">
-        <v>980.6116001943423</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-5.088339807760121</v>
+        <v>17.89962963391767</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>WBD</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6.325466919762245</v>
+        <v>0.008595893477258735</v>
       </c>
       <c r="C46" t="n">
-        <v>153.3200073242188</v>
+        <v>23.03000068664551</v>
       </c>
       <c r="D46" t="n">
-        <v>148.2599945068359</v>
+        <v>1036.742546193373</v>
       </c>
       <c r="E46" t="n">
-        <v>937.8136907771228</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-32.00694368992799</v>
+        <v>45.01704365100399</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HII</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>6.505589855437854</v>
+        <v>0.008139707933890751</v>
       </c>
       <c r="C47" t="n">
-        <v>146.8899993896484</v>
+        <v>313.9700012207031</v>
       </c>
       <c r="D47" t="n">
-        <v>146.8200073242188</v>
+        <v>981.7224411840263</v>
       </c>
       <c r="E47" t="n">
-        <v>955.150750223749</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-0.4553396708205355</v>
+        <v>3.12680331677271</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CTRA</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>36.90983377674125</v>
+        <v>0.008076207784907171</v>
       </c>
       <c r="C48" t="n">
-        <v>25.84000015258789</v>
+        <v>276.9800109863281</v>
       </c>
       <c r="D48" t="n">
-        <v>26.34000015258789</v>
+        <v>974.0637485402582</v>
       </c>
       <c r="E48" t="n">
-        <v>972.2050273113582</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>18.45491688837058</v>
+        <v>3.516729402499513</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>UPS</t>
+          <t>VTRS</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>9.809604376032414</v>
+        <v>0.008016921466166782</v>
       </c>
       <c r="C49" t="n">
-        <v>95.97000122070312</v>
+        <v>10.72000026702881</v>
       </c>
       <c r="D49" t="n">
-        <v>95.98000335693359</v>
+        <v>966.9132819589828</v>
       </c>
       <c r="E49" t="n">
-        <v>941.5258609417816</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.09811699933607088</v>
+        <v>90.19713226434236</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4.18927417255796</v>
+        <v>0.007694394786242169</v>
       </c>
       <c r="C50" t="n">
-        <v>223.5500030517578</v>
+        <v>276.4100036621094</v>
       </c>
       <c r="D50" t="n">
-        <v>220.6100006103516</v>
+        <v>928.0136454936211</v>
       </c>
       <c r="E50" t="n">
-        <v>924.1957777649416</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-12.31647629504062</v>
+        <v>3.357380822685595</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HII</t>
+          <t>JKHY</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2.979698694261641</v>
+        <v>0.007682858454281898</v>
       </c>
       <c r="C51" t="n">
-        <v>312.6700134277344</v>
+        <v>164.0200042724609</v>
       </c>
       <c r="D51" t="n">
-        <v>313.9700012207031</v>
+        <v>926.6222594554081</v>
       </c>
       <c r="E51" t="n">
-        <v>935.5360026746549</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>3.87357192926504</v>
+        <v>5.649446624304159</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>STT</t>
+          <t>CRWD</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>7.831013952731984</v>
+        <v>0.007665905213394118</v>
       </c>
       <c r="C52" t="n">
-        <v>118.2799987792969</v>
+        <v>537.5499877929688</v>
       </c>
       <c r="D52" t="n">
-        <v>116.8399963378906</v>
+        <v>924.5775451775119</v>
       </c>
       <c r="E52" t="n">
-        <v>914.9756415591754</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-11.2766792106205</v>
+        <v>1.719984310619318</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>TRGP</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.066332325061838</v>
+        <v>0.00766208096294036</v>
       </c>
       <c r="C53" t="n">
-        <v>841.9400024414062</v>
+        <v>173.1000061035156</v>
       </c>
       <c r="D53" t="n">
-        <v>831.9500122070312</v>
+        <v>924.116305963322</v>
       </c>
       <c r="E53" t="n">
-        <v>887.1351908519478</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-10.65264951396614</v>
+        <v>5.338626651524731</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HST</t>
+          <t>EXE</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>46.95277974218892</v>
+        <v>0.007661099261538602</v>
       </c>
       <c r="C54" t="n">
-        <v>17.56999969482422</v>
+        <v>117.2799987792969</v>
       </c>
       <c r="D54" t="n">
-        <v>17.59000015258789</v>
+        <v>923.9979038898723</v>
       </c>
       <c r="E54" t="n">
-        <v>825.8994028295286</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.9390770881205981</v>
+        <v>7.878563382565307</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>FDX</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2.631897980896531</v>
+        <v>0.007659479371052286</v>
       </c>
       <c r="C55" t="n">
-        <v>304.8599853515625</v>
+        <v>267.5599975585938</v>
       </c>
       <c r="D55" t="n">
-        <v>305.6900024414062</v>
+        <v>923.8025304372137</v>
       </c>
       <c r="E55" t="n">
-        <v>804.5449002057929</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>2.184520302869487</v>
+        <v>3.452692999202571</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>DHR</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.774506965477997</v>
+        <v>0.007405393335225715</v>
       </c>
       <c r="C56" t="n">
-        <v>1021.369995117188</v>
+        <v>221.2100067138672</v>
       </c>
       <c r="D56" t="n">
-        <v>1025.280029296875</v>
+        <v>893.157455037905</v>
       </c>
       <c r="E56" t="n">
-        <v>794.0865242559146</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3.028348707425039</v>
+        <v>4.037599692283337</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>EXE</t>
+          <t>FOXA</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>6.698670815699866</v>
+        <v>0.007231259569711758</v>
       </c>
       <c r="C57" t="n">
-        <v>117.9599990844727</v>
+        <v>64.83999633789062</v>
       </c>
       <c r="D57" t="n">
-        <v>117.2799987792969</v>
+        <v>872.155347006344</v>
       </c>
       <c r="E57" t="n">
-        <v>785.6201050881918</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-4.555098198948031</v>
+        <v>13.45088519841081</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>7.501274633643223</v>
+        <v>0.007220065879045503</v>
       </c>
       <c r="C58" t="n">
-        <v>104.9800033569336</v>
+        <v>92.91999816894531</v>
       </c>
       <c r="D58" t="n">
-        <v>102.6900024414062</v>
+        <v>870.8052866090931</v>
       </c>
       <c r="E58" t="n">
-        <v>770.3059104424814</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-17.17792577866499</v>
+        <v>9.371559446501625</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>REGN</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.4453387155219358</v>
+        <v>0.007023687350372265</v>
       </c>
       <c r="C59" t="n">
-        <v>1737.27001953125</v>
+        <v>693.5</v>
       </c>
       <c r="D59" t="n">
-        <v>1741.369995117188</v>
+        <v>847.120258825416</v>
       </c>
       <c r="E59" t="n">
-        <v>775.499476873928</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1.825877861112758</v>
+        <v>1.221514432336577</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>FICO</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3.491467597170983</v>
+        <v>0.006894427927020024</v>
       </c>
       <c r="C60" t="n">
-        <v>221.1999969482422</v>
+        <v>1741.369995117188</v>
       </c>
       <c r="D60" t="n">
-        <v>221.2100067138672</v>
+        <v>831.5304025713544</v>
       </c>
       <c r="E60" t="n">
-        <v>772.3475706114428</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.03494877233492844</v>
+        <v>0.4775150627970913</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>DOV</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>33.47711245574138</v>
+        <v>0.00654820118352328</v>
       </c>
       <c r="C61" t="n">
-        <v>22.13999938964844</v>
+        <v>183.1199951171875</v>
       </c>
       <c r="D61" t="n">
-        <v>23.03000068664551</v>
+        <v>789.7723239536184</v>
       </c>
       <c r="E61" t="n">
-        <v>770.977922842633</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>29.79467350532661</v>
+        <v>4.312867764376054</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>NUE</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.961480538380993</v>
+        <v>0.00654732817033915</v>
       </c>
       <c r="C62" t="n">
-        <v>247.9600067138672</v>
+        <v>147.7799987792969</v>
       </c>
       <c r="D62" t="n">
-        <v>246.8099975585938</v>
+        <v>789.667030662843</v>
       </c>
       <c r="E62" t="n">
-        <v>730.9230044476357</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-3.405729732302234</v>
+        <v>5.34353117597583</v>
       </c>
     </row>
     <row r="63">
@@ -60527,1347 +63107,3206 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>26.77414174337252</v>
+        <v>0.006323769673960645</v>
       </c>
       <c r="C63" t="n">
-        <v>27.02000045776367</v>
+        <v>27.29999923706055</v>
       </c>
       <c r="D63" t="n">
-        <v>27.29999923706055</v>
+        <v>762.7038527952031</v>
       </c>
       <c r="E63" t="n">
-        <v>730.9340491670208</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>7.496727004865761</v>
+        <v>27.93787084652407</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4.221343115435601</v>
+        <v>0.006297030116875432</v>
       </c>
       <c r="C64" t="n">
-        <v>169.8899841308594</v>
+        <v>146.8200073242188</v>
       </c>
       <c r="D64" t="n">
-        <v>167.5800018310547</v>
+        <v>759.4788202177348</v>
       </c>
       <c r="E64" t="n">
-        <v>707.412687014208</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-9.751227878058671</v>
+        <v>5.172856438704554</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>9.665541239449119</v>
+        <v>0.006291304408249702</v>
       </c>
       <c r="C65" t="n">
-        <v>73.33999633789062</v>
+        <v>272.4100036621094</v>
       </c>
       <c r="D65" t="n">
-        <v>71.43000030517578</v>
+        <v>758.7882479398087</v>
       </c>
       <c r="E65" t="n">
-        <v>690.4096136835396</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-18.46114542138957</v>
+        <v>2.785463961451984</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>SOLV</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3.835616363272261</v>
+        <v>0.006269956075444908</v>
       </c>
       <c r="C66" t="n">
-        <v>180.4700012207031</v>
+        <v>75.66000366210938</v>
       </c>
       <c r="D66" t="n">
-        <v>179.0200042724609</v>
+        <v>756.2134458011387</v>
       </c>
       <c r="E66" t="n">
-        <v>686.6520577405213</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-5.561632021372588</v>
+        <v>9.994890420284918</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>DVN</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6.672729742538647</v>
+        <v>0.006128659943103827</v>
       </c>
       <c r="C67" t="n">
-        <v>103.1500015258789</v>
+        <v>35.84000015258789</v>
       </c>
       <c r="D67" t="n">
-        <v>104.75</v>
+        <v>739.1718535108066</v>
       </c>
       <c r="E67" t="n">
-        <v>698.9684405309233</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>10.6763574062843</v>
+        <v>20.62421457488285</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>7.492500271044741</v>
+        <v>0.005948187358634744</v>
       </c>
       <c r="C68" t="n">
-        <v>89.72000122070312</v>
+        <v>13.1899995803833</v>
       </c>
       <c r="D68" t="n">
-        <v>87.80000305175781</v>
+        <v>717.4052265469458</v>
       </c>
       <c r="E68" t="n">
-        <v>657.8415466630245</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-14.38558680122821</v>
+        <v>54.39008713949466</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2.486468382224623</v>
+        <v>0.00567632889311757</v>
       </c>
       <c r="C69" t="n">
-        <v>256.5899963378906</v>
+        <v>246.8099975585938</v>
       </c>
       <c r="D69" t="n">
-        <v>253.0800018310547</v>
+        <v>684.6166352864617</v>
       </c>
       <c r="E69" t="n">
-        <v>629.275422726267</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-8.727490363029688</v>
+        <v>2.773861035041463</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>FDX</t>
+          <t>IQV</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2.364046209749227</v>
+        <v>0.005013925246877546</v>
       </c>
       <c r="C70" t="n">
-        <v>267.3399963378906</v>
+        <v>220.6100006103516</v>
       </c>
       <c r="D70" t="n">
-        <v>267.5599975585938</v>
+        <v>604.7247607969163</v>
       </c>
       <c r="E70" t="n">
-        <v>632.5241981089059</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.5200930519433768</v>
+        <v>2.741148448047922</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>8.348255665160119</v>
+        <v>0.004851347695440045</v>
       </c>
       <c r="C71" t="n">
-        <v>73.55999755859375</v>
+        <v>58.45999908447266</v>
       </c>
       <c r="D71" t="n">
-        <v>72.62000274658203</v>
+        <v>585.1164367667132</v>
       </c>
       <c r="E71" t="n">
-        <v>606.2503493330969</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-7.847317014597934</v>
+        <v>10.00883417601906</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>10.08226926856603</v>
+        <v>0.004677527321713367</v>
       </c>
       <c r="C72" t="n">
-        <v>60.25</v>
+        <v>253.0800018310547</v>
       </c>
       <c r="D72" t="n">
-        <v>59.90000152587891</v>
+        <v>564.1521266208936</v>
       </c>
       <c r="E72" t="n">
-        <v>603.9279445714272</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-3.528778859676095</v>
+        <v>2.229145418599678</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>AMCR</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.8508166075538195</v>
+        <v>0.00440046709902254</v>
       </c>
       <c r="C73" t="n">
-        <v>694.989990234375</v>
+        <v>8.479999542236328</v>
       </c>
       <c r="D73" t="n">
-        <v>693.5</v>
+        <v>530.7361563693645</v>
       </c>
       <c r="E73" t="n">
-        <v>590.0413173385738</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-1.267708436499333</v>
+        <v>62.58681427114792</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2.449282908326122</v>
+        <v>0.004302882833716741</v>
       </c>
       <c r="C74" t="n">
-        <v>232.2899932861328</v>
+        <v>95.31000518798828</v>
       </c>
       <c r="D74" t="n">
-        <v>232.3600006103516</v>
+        <v>518.9666108358841</v>
       </c>
       <c r="E74" t="n">
-        <v>569.1153780735813</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.171467742666664</v>
+        <v>5.445038113388838</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>NEM</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>23.05409323042154</v>
+        <v>0.00401066410533817</v>
       </c>
       <c r="C75" t="n">
-        <v>23.77000045776367</v>
+        <v>87.80000305175781</v>
       </c>
       <c r="D75" t="n">
-        <v>23.52000045776367</v>
+        <v>483.7223876139366</v>
       </c>
       <c r="E75" t="n">
-        <v>542.2322833328409</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-5.763523307605396</v>
+        <v>5.509366410030577</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SCHW</t>
+          <t>MTD</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5.710385974148593</v>
+        <v>0.00396597774656527</v>
       </c>
       <c r="C76" t="n">
-        <v>95.08999633789062</v>
+        <v>1403.079956054688</v>
       </c>
       <c r="D76" t="n">
-        <v>94.38999938964844</v>
+        <v>478.3328083343779</v>
       </c>
       <c r="E76" t="n">
-        <v>539.0033286145427</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-3.997252755189038</v>
+        <v>0.3409162865382235</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>VRTX</t>
+          <t>ALB</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1.24779313763763</v>
+        <v>0.003949707973142516</v>
       </c>
       <c r="C77" t="n">
-        <v>434.5199890136719</v>
+        <v>115.1399993896484</v>
       </c>
       <c r="D77" t="n">
-        <v>437.1499938964844</v>
+        <v>476.3705264181443</v>
       </c>
       <c r="E77" t="n">
-        <v>545.472762502365</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>3.281702044726899</v>
+        <v>4.137315693445904</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>ABBV</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5.65466749838555</v>
+        <v>0.003700624419016808</v>
       </c>
       <c r="C78" t="n">
-        <v>92.93000030517578</v>
+        <v>232.3600006103516</v>
       </c>
       <c r="D78" t="n">
-        <v>92.91999816894531</v>
+        <v>446.3287955844191</v>
       </c>
       <c r="E78" t="n">
-        <v>525.4316935959798</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-0.05655875465686222</v>
+        <v>1.920850380495891</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>VRTX</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>5.231839661760149</v>
+        <v>0.003539315288208831</v>
       </c>
       <c r="C79" t="n">
-        <v>96.90000152587891</v>
+        <v>437.1499938964844</v>
       </c>
       <c r="D79" t="n">
-        <v>96.01000213623047</v>
+        <v>426.8734545613434</v>
       </c>
       <c r="E79" t="n">
-        <v>502.3089371020072</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-4.656334105705014</v>
+        <v>0.9764919604743847</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>GILD</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.7190743915638091</v>
+        <v>0.003197134128528226</v>
       </c>
       <c r="C80" t="n">
-        <v>701.47998046875</v>
+        <v>125.0199966430664</v>
       </c>
       <c r="D80" t="n">
-        <v>689.9299926757812</v>
+        <v>385.6033099643672</v>
       </c>
       <c r="E80" t="n">
-        <v>496.1109897049607</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-8.305300444798377</v>
+        <v>3.084333069255067</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>PYPL</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>7.44496904058263</v>
+        <v>0.003137348707331735</v>
       </c>
       <c r="C81" t="n">
-        <v>67.43000030517578</v>
+        <v>62.81000137329102</v>
       </c>
       <c r="D81" t="n">
-        <v>65.87999725341797</v>
+        <v>378.3926471100086</v>
       </c>
       <c r="E81" t="n">
-        <v>490.4745399453655</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-11.53972473314548</v>
+        <v>6.024401191478308</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>DLTR</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1.495122901277508</v>
+        <v>0.00310401705063316</v>
       </c>
       <c r="C82" t="n">
-        <v>332.7699890136719</v>
+        <v>104.75</v>
       </c>
       <c r="D82" t="n">
-        <v>331.4800109863281</v>
+        <v>374.3725476606674</v>
       </c>
       <c r="E82" t="n">
-        <v>495.6033557413793</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-1.928675690826424</v>
+        <v>3.57396226883692</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NEE</t>
+          <t>EIX</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>5.882689318889147</v>
+        <v>0.002967751410400244</v>
       </c>
       <c r="C83" t="n">
-        <v>83.98999786376953</v>
+        <v>58.70999908447266</v>
       </c>
       <c r="D83" t="n">
-        <v>83.87999725341797</v>
+        <v>357.9376782445335</v>
       </c>
       <c r="E83" t="n">
-        <v>493.4399639111329</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-0.6470994155864105</v>
+        <v>6.096707270077257</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DVN</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>13.77353480138112</v>
+        <v>0.002230102741631852</v>
       </c>
       <c r="C84" t="n">
-        <v>35.04000091552734</v>
+        <v>226.0099945068359</v>
       </c>
       <c r="D84" t="n">
-        <v>35.84000015258789</v>
+        <v>268.9705730706132</v>
       </c>
       <c r="E84" t="n">
-        <v>493.6434893831739</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" t="n">
-        <v>11.01881733273177</v>
+        <v>1.190082649475388</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>TPL</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.4780007781514758</v>
+        <v>0.002071117476015516</v>
       </c>
       <c r="C85" t="n">
-        <v>988.969970703125</v>
+        <v>167.5800018310547</v>
       </c>
       <c r="D85" t="n">
-        <v>1022.650024414062</v>
+        <v>249.7955112206292</v>
       </c>
       <c r="E85" t="n">
-        <v>488.8275074465477</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
-        <v>16.09909188201163</v>
+        <v>1.490604538078833</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>IDXX</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.8887001327821751</v>
+        <v>0.002010450198900093</v>
       </c>
       <c r="C86" t="n">
-        <v>529.780029296875</v>
+        <v>689.9299926757812</v>
       </c>
       <c r="D86" t="n">
-        <v>537.5499877929688</v>
+        <v>242.4784885616513</v>
       </c>
       <c r="E86" t="n">
-        <v>477.7207455286679</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="n">
-        <v>6.905163147190478</v>
+        <v>0.3514537578243815</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>APA</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.3267042173370672</v>
+        <v>0.002005128649463596</v>
       </c>
       <c r="C87" t="n">
-        <v>1412.180053710938</v>
+        <v>24.79000091552734</v>
       </c>
       <c r="D87" t="n">
-        <v>1403.079956054688</v>
+        <v>241.8366615395874</v>
       </c>
       <c r="E87" t="n">
-        <v>458.3921389041733</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-2.973040282476006</v>
+        <v>9.755411561445799</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>ALL</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>5.955459594143079</v>
+        <v>0.001562983345276814</v>
       </c>
       <c r="C88" t="n">
-        <v>75.22000122070312</v>
+        <v>214.3000030517578</v>
       </c>
       <c r="D88" t="n">
-        <v>75.66000366210938</v>
+        <v>188.5099364396585</v>
       </c>
       <c r="E88" t="n">
-        <v>450.5900947024098</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="n">
-        <v>2.620416761119259</v>
+        <v>0.8796543805654052</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>GILD</t>
+          <t>LRCX</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3.457670582151786</v>
+        <v>0.00152608101453267</v>
       </c>
       <c r="C89" t="n">
-        <v>125.1999969482422</v>
+        <v>148.2599945068359</v>
       </c>
       <c r="D89" t="n">
-        <v>125.0199966430664</v>
+        <v>184.0591813858216</v>
       </c>
       <c r="E89" t="n">
-        <v>432.2779645734457</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-0.6223817599846484</v>
+        <v>1.241462216412904</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>JBHT</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6.80238016477952</v>
+        <v>0.001228602245741847</v>
       </c>
       <c r="C90" t="n">
-        <v>62.29999923706055</v>
+        <v>162.8099975585938</v>
       </c>
       <c r="D90" t="n">
-        <v>60.47999954223633</v>
+        <v>148.1805496867907</v>
       </c>
       <c r="E90" t="n">
-        <v>411.4079492519829</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-12.38032982397704</v>
+        <v>0.9101440446460419</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>STLD</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2.669643748261801</v>
+        <v>0.0009190138717998159</v>
       </c>
       <c r="C91" t="n">
-        <v>154.5899963378906</v>
+        <v>36.93999862670898</v>
       </c>
       <c r="D91" t="n">
-        <v>155.4100036621094</v>
+        <v>110.8413900145976</v>
       </c>
       <c r="E91" t="n">
-        <v>414.8893446938939</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="n">
-        <v>2.189127426629454</v>
+        <v>3.00057915904889</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>BIIB</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.530882461556289</v>
+        <v>0.0008583450079519348</v>
       </c>
       <c r="C92" t="n">
-        <v>267.3500061035156</v>
+        <v>167.5500030517578</v>
       </c>
       <c r="D92" t="n">
-        <v>264.6600036621094</v>
+        <v>103.5241759813253</v>
       </c>
       <c r="E92" t="n">
-        <v>405.1633578817464</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-4.118077559092399</v>
+        <v>0.6178703318157845</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>AMGN</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1.204213263566381</v>
+        <v>0.0008163226569887637</v>
       </c>
       <c r="C93" t="n">
-        <v>336</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="D93" t="n">
-        <v>336.739990234375</v>
+        <v>98.45590015289065</v>
       </c>
       <c r="E93" t="n">
-        <v>405.506762613448</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.8911060551439505</v>
+        <v>3.928806953355943</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>JBHT</t>
+          <t>HOLX</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2.431136269409121</v>
+        <v>0.0005592604311725339</v>
       </c>
       <c r="C94" t="n">
-        <v>166.3099975585938</v>
+        <v>74.15000152587891</v>
       </c>
       <c r="D94" t="n">
-        <v>162.8099975585938</v>
+        <v>67.4518693063097</v>
       </c>
       <c r="E94" t="n">
-        <v>395.8132900871078</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-8.508976942931895</v>
+        <v>0.9096678073940228</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DOV</t>
+          <t>ALGN</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2.159460507218627</v>
+        <v>0.0004714927949849724</v>
       </c>
       <c r="C95" t="n">
-        <v>181.9700012207031</v>
+        <v>137.1300048828125</v>
       </c>
       <c r="D95" t="n">
-        <v>183.1199951171875</v>
+        <v>56.86629808498228</v>
       </c>
       <c r="E95" t="n">
-        <v>395.4403975376343</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" t="n">
-        <v>2.483366403000502</v>
+        <v>0.4146889525277757</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.3210365105597893</v>
+        <v>0.0003412754527116809</v>
       </c>
       <c r="C96" t="n">
-        <v>1161.719970703125</v>
+        <v>173.9799957275391</v>
       </c>
       <c r="D96" t="n">
-        <v>1134.319946289062</v>
+        <v>41.16090813987576</v>
       </c>
       <c r="E96" t="n">
-        <v>364.1581174150083</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-8.796408227143615</v>
+        <v>0.2365841427214178</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>CNC</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>7.339112263880808</v>
+        <v>0.0001485289727879371</v>
       </c>
       <c r="C97" t="n">
-        <v>48.63000106811523</v>
+        <v>36.38000106811523</v>
       </c>
       <c r="D97" t="n">
-        <v>46.65000152587891</v>
+        <v>17.91393830542895</v>
       </c>
       <c r="E97" t="n">
-        <v>342.3695983086363</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-14.53143892290501</v>
+        <v>0.4924117036689529</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>4.491250761534997</v>
+        <v>0.0001301832973620812</v>
       </c>
       <c r="C98" t="n">
-        <v>74.26000213623047</v>
+        <v>181.7599945068359</v>
       </c>
       <c r="D98" t="n">
-        <v>74.15000152587891</v>
+        <v>15.70128382070811</v>
       </c>
       <c r="E98" t="n">
-        <v>333.0262508209248</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-0.4940403250107579</v>
+        <v>0.08638470672993773</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
+          <t>TPL</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.0001276352209686485</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1022.650024414062</v>
+      </c>
+      <c r="D99" t="n">
+        <v>15.39396274756878</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.01505301166582851</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Shares</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Exit_Price</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Sale_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Transaction_Cost</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>Gain_Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>14.25409237355677</v>
+      </c>
+      <c r="C2" t="n">
+        <v>361.9400024414062</v>
+      </c>
+      <c r="D2" t="n">
+        <v>365</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5202.74371634822</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>43.61748786305361</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>12.87352975089532</v>
+      </c>
+      <c r="C3" t="n">
+        <v>375.75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>370.1000061035156</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4764.493439380147</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-72.73536451876862</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CAH</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>20.40053446759607</v>
+      </c>
+      <c r="C4" t="n">
+        <v>205.3699951171875</v>
+      </c>
+      <c r="D4" t="n">
+        <v>206.1799926757812</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4206.18204711098</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16.52438311276092</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>38.88686548641295</v>
+      </c>
+      <c r="C5" t="n">
+        <v>86.30000305175781</v>
+      </c>
+      <c r="D5" t="n">
+        <v>84.73999786376953</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3295.272898247327</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-60.66371190340624</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.04809392486958</v>
+      </c>
+      <c r="C6" t="n">
+        <v>39.70999908447266</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.65000152587891</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3209.808956917544</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-88.03077680622619</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.345849380163925</v>
+      </c>
+      <c r="C7" t="n">
+        <v>554.030029296875</v>
+      </c>
+      <c r="D7" t="n">
+        <v>552.0499877929688</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2951.176085062544</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-10.5850036463562</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>STE</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11.45661151955984</v>
+      </c>
+      <c r="C8" t="n">
+        <v>258.4100036621094</v>
+      </c>
+      <c r="D8" t="n">
+        <v>257.010009765625</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2944.463838523047</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-16.03918620177637</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>17.94590522992307</v>
+      </c>
+      <c r="C9" t="n">
+        <v>157.8300018310547</v>
+      </c>
+      <c r="D9" t="n">
+        <v>162.4499969482422</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2915.312249834446</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>82.90999453575387</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>26.71254201956449</v>
+      </c>
+      <c r="C10" t="n">
+        <v>104.1500015258789</v>
+      </c>
+      <c r="D10" t="n">
+        <v>104.1699981689453</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2782.645453265908</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.5341611681615177</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.176652472904189</v>
+      </c>
+      <c r="C11" t="n">
+        <v>842.0900268554688</v>
+      </c>
+      <c r="D11" t="n">
+        <v>855.22998046875</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2716.768432357856</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>41.74106613947606</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.339883302022716</v>
+      </c>
+      <c r="C12" t="n">
+        <v>549.510009765625</v>
+      </c>
+      <c r="D12" t="n">
+        <v>546.7100219726562</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2372.657695407603</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-12.15162026857251</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>16.525391127791</v>
+      </c>
+      <c r="C13" t="n">
+        <v>138.4199981689453</v>
+      </c>
+      <c r="D13" t="n">
+        <v>142.2299957275391</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2350.406309501625</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>62.96169985169035</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>VTR</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>29.12451170215722</v>
+      </c>
+      <c r="C14" t="n">
+        <v>78</v>
+      </c>
+      <c r="D14" t="n">
+        <v>79</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2300.836424470421</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>29.12451170215718</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>34.51529894274018</v>
+      </c>
+      <c r="C15" t="n">
+        <v>65.37999725341797</v>
+      </c>
+      <c r="D15" t="n">
+        <v>64.87999725341797</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2239.352500605883</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-17.25764947136986</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.81556992520088</v>
+      </c>
+      <c r="C16" t="n">
+        <v>462.6099853515625</v>
+      </c>
+      <c r="D16" t="n">
+        <v>455.9800109863281</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2195.803627398529</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-31.92710515807585</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>30.94921581184756</v>
+      </c>
+      <c r="C17" t="n">
+        <v>71.43000030517578</v>
+      </c>
+      <c r="D17" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2205.131626594139</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-5.570868291083571</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4.518047848913146</v>
+      </c>
+      <c r="C18" t="n">
+        <v>472.6499938964844</v>
+      </c>
+      <c r="D18" t="n">
+        <v>477.1000061035156</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2155.560656292438</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>20.10536807961489</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>JCI</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17.40811999666978</v>
+      </c>
+      <c r="C19" t="n">
+        <v>118.7200012207031</v>
+      </c>
+      <c r="D19" t="n">
+        <v>116.379997253418</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2025.956957399599</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-40.73506985518338</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2.410788446530562</v>
+      </c>
+      <c r="C20" t="n">
+        <v>831.9500122070312</v>
+      </c>
+      <c r="D20" t="n">
+        <v>820.969970703125</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1979.184920319627</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-26.47055720004323</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>IFF</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>29.79566711348136</v>
+      </c>
+      <c r="C21" t="n">
+        <v>65.87999725341797</v>
+      </c>
+      <c r="D21" t="n">
+        <v>65.12999725341797</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1940.591717264797</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-22.34675033511098</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5.124649658687917</v>
+      </c>
+      <c r="C22" t="n">
+        <v>379.3999938964844</v>
+      </c>
+      <c r="D22" t="n">
+        <v>377.9800109863281</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1937.015134291942</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-7.276914935874856</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>7.762961933290418</v>
+      </c>
+      <c r="C23" t="n">
+        <v>246.8300018310547</v>
+      </c>
+      <c r="D23" t="n">
+        <v>241.9499969482422</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1878.248616068937</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-37.88329213954489</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9.774964230736984</v>
+      </c>
+      <c r="C24" t="n">
+        <v>195.9299926757812</v>
+      </c>
+      <c r="D24" t="n">
+        <v>199.5800018310547</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1950.887379068981</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>35.67870893466034</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9.637069590085595</v>
+      </c>
+      <c r="C25" t="n">
+        <v>193.8200073242188</v>
+      </c>
+      <c r="D25" t="n">
+        <v>197.2700042724609</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1901.104759210189</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>33.24786067579271</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>8.040587729520682</v>
+      </c>
+      <c r="C26" t="n">
+        <v>225.0399932861328</v>
+      </c>
+      <c r="D26" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1821.193120736435</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>11.73931206853831</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>9.158632410623275</v>
+      </c>
+      <c r="C27" t="n">
+        <v>185.0099945068359</v>
+      </c>
+      <c r="D27" t="n">
+        <v>180.2599945068359</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1650.935028029081</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-43.50350395046053</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>13.70686825221457</v>
+      </c>
+      <c r="C28" t="n">
+        <v>121.3000030517578</v>
+      </c>
+      <c r="D28" t="n">
+        <v>123.7200012207031</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1695.813756896003</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>33.17059607233386</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>16.75442642927894</v>
+      </c>
+      <c r="C29" t="n">
+        <v>94.34000396728516</v>
+      </c>
+      <c r="D29" t="n">
+        <v>94.19000244140625</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1578.099466278145</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-2.513189529617648</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.50121593820723</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1025.280029296875</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1021.700012207031</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1533.792342391717</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-5.374378714327804</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AKAM</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>16.20622101654647</v>
+      </c>
+      <c r="C31" t="n">
+        <v>87.16999816894531</v>
+      </c>
+      <c r="D31" t="n">
+        <v>87.62000274658203</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1419.989129981517</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7.292873643638359</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>9.053466189723002</v>
+      </c>
+      <c r="C32" t="n">
+        <v>152.8000030517578</v>
+      </c>
+      <c r="D32" t="n">
+        <v>152.6399993896484</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1381.921073673522</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-1.448587745139093</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>19.57330107301925</v>
+      </c>
+      <c r="C33" t="n">
+        <v>70.51999664306641</v>
+      </c>
+      <c r="D33" t="n">
+        <v>67.91000366210938</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1329.222947548307</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-51.08617841473892</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2.289955520986045</v>
+      </c>
+      <c r="C34" t="n">
+        <v>578.7100219726562</v>
+      </c>
+      <c r="D34" t="n">
+        <v>567.1599731445312</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1298.771111784616</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-26.44909808162333</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>7.340441957115444</v>
+      </c>
+      <c r="C35" t="n">
+        <v>179.0200042724609</v>
+      </c>
+      <c r="D35" t="n">
+        <v>177.7799987792969</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1304.983762175483</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-9.10218834907505</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>7.537226343959468</v>
+      </c>
+      <c r="C36" t="n">
+        <v>169.9700012207031</v>
+      </c>
+      <c r="D36" t="n">
+        <v>167.4400024414062</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1262.033197434005</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-19.0691734495017</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>EXPE</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>4.628656756721813</v>
+      </c>
+      <c r="C37" t="n">
+        <v>264.6600036621094</v>
+      </c>
+      <c r="D37" t="n">
+        <v>244.1600036621094</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1130.132850671845</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-94.88746351279724</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BMY</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>26.18000476467122</v>
+      </c>
+      <c r="C38" t="n">
+        <v>46.65000152587891</v>
+      </c>
+      <c r="D38" t="n">
+        <v>46.81000137329102</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1225.486058987025</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4.188796767595704</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4.724320277756227</v>
+      </c>
+      <c r="C39" t="n">
+        <v>258.2099914550781</v>
+      </c>
+      <c r="D39" t="n">
+        <v>261.3800048828125</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1234.842857267893</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>14.97615871740504</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>3.900632219560078</v>
+      </c>
+      <c r="C40" t="n">
+        <v>305.6900024414062</v>
+      </c>
+      <c r="D40" t="n">
+        <v>297.1700134277344</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1159.150929063322</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-33.23334365702635</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CTRA</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>44.67436117721751</v>
+      </c>
+      <c r="C41" t="n">
+        <v>26.34000015258789</v>
+      </c>
+      <c r="D41" t="n">
+        <v>25.96999931335449</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1160.193129096889</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-16.52955112778636</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3.488841402720415</v>
+      </c>
+      <c r="C42" t="n">
+        <v>336.739990234375</v>
+      </c>
+      <c r="D42" t="n">
+        <v>341.7099914550781</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1192.171965911716</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>17.33954603036022</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3.881510889585192</v>
+      </c>
+      <c r="C43" t="n">
+        <v>285.7200012207031</v>
+      </c>
+      <c r="D43" t="n">
+        <v>282.8900146484375</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1098.040672412825</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-10.98462369762888</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>17.92082388458552</v>
+      </c>
+      <c r="C44" t="n">
+        <v>60.47999954223633</v>
+      </c>
+      <c r="D44" t="n">
+        <v>58.88999938964844</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1055.357307625238</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-28.49411271099166</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>17.89962963391767</v>
+      </c>
+      <c r="C45" t="n">
+        <v>59.90000152587891</v>
+      </c>
+      <c r="D45" t="n">
+        <v>59.04000091552734</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1056.794149974099</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-15.3936924102361</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>45.01704365100399</v>
+      </c>
+      <c r="C46" t="n">
+        <v>23.03000068664551</v>
+      </c>
+      <c r="D46" t="n">
+        <v>22.73999977111816</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1023.687562320247</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-13.05498387312548</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>3.12680331677271</v>
+      </c>
+      <c r="C47" t="n">
+        <v>313.9700012207031</v>
+      </c>
+      <c r="D47" t="n">
+        <v>309.739990234375</v>
+      </c>
+      <c r="E47" t="n">
+        <v>968.4960288019904</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-13.22641238203585</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>3.516729402499513</v>
+      </c>
+      <c r="C48" t="n">
+        <v>276.9800109863281</v>
+      </c>
+      <c r="D48" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1004.377938818274</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>30.31419027801542</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>VTRS</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>90.19713226434236</v>
+      </c>
+      <c r="C49" t="n">
+        <v>10.72000026702881</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10.65999984741211</v>
+      </c>
+      <c r="E49" t="n">
+        <v>961.5014161748994</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-5.411865784083375</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>3.357380822685595</v>
+      </c>
+      <c r="C50" t="n">
+        <v>276.4100036621094</v>
+      </c>
+      <c r="D50" t="n">
+        <v>285.0199890136719</v>
+      </c>
+      <c r="E50" t="n">
+        <v>956.9206451965608</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>28.90699970293974</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5.649446624304159</v>
+      </c>
+      <c r="C51" t="n">
+        <v>164.0200042724609</v>
+      </c>
+      <c r="D51" t="n">
+        <v>163.6399993896484</v>
+      </c>
+      <c r="E51" t="n">
+        <v>924.475442152984</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-2.146817302424211</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1.719984310619318</v>
+      </c>
+      <c r="C52" t="n">
+        <v>537.5499877929688</v>
+      </c>
+      <c r="D52" t="n">
+        <v>529.780029296875</v>
+      </c>
+      <c r="E52" t="n">
+        <v>911.2133384700674</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-13.36420670744462</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>TRGP</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>5.338626651524731</v>
+      </c>
+      <c r="C53" t="n">
+        <v>173.1000061035156</v>
+      </c>
+      <c r="D53" t="n">
+        <v>168.3200073242188</v>
+      </c>
+      <c r="E53" t="n">
+        <v>898.5976770859121</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-25.51862887740992</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>7.878563382565307</v>
+      </c>
+      <c r="C54" t="n">
+        <v>117.2799987792969</v>
+      </c>
+      <c r="D54" t="n">
+        <v>116.9800033569336</v>
+      </c>
+      <c r="E54" t="n">
+        <v>921.6343709403037</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-2.363532949568594</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3.452692999202571</v>
+      </c>
+      <c r="C55" t="n">
+        <v>267.5599975585938</v>
+      </c>
+      <c r="D55" t="n">
+        <v>264.7300109863281</v>
+      </c>
+      <c r="E55" t="n">
+        <v>914.0314556113149</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-9.771074825898836</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>4.037599692283337</v>
+      </c>
+      <c r="C56" t="n">
+        <v>221.2100067138672</v>
+      </c>
+      <c r="D56" t="n">
+        <v>220.4400024414062</v>
+      </c>
+      <c r="E56" t="n">
+        <v>890.0484860243598</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-3.108969013545106</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>13.45088519841081</v>
+      </c>
+      <c r="C57" t="n">
+        <v>64.83999633789062</v>
+      </c>
+      <c r="D57" t="n">
+        <v>64.55000305175781</v>
+      </c>
+      <c r="E57" t="n">
+        <v>868.2546806062616</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-3.9006664000824</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>9.371559446501625</v>
+      </c>
+      <c r="C58" t="n">
+        <v>92.91999816894531</v>
+      </c>
+      <c r="D58" t="n">
+        <v>92.86000061035156</v>
+      </c>
+      <c r="E58" t="n">
+        <v>870.2430159220868</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-0.5622706870062757</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1.221514432336577</v>
+      </c>
+      <c r="C59" t="n">
+        <v>693.5</v>
+      </c>
+      <c r="D59" t="n">
+        <v>704.3099975585938</v>
+      </c>
+      <c r="E59" t="n">
+        <v>860.3248268567614</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>13.2045680313455</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.4775150627970913</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1741.369995117188</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1760.25</v>
+      </c>
+      <c r="E60" t="n">
+        <v>840.54588928858</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>9.015486717225599</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>DOV</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>4.312867764376054</v>
+      </c>
+      <c r="C61" t="n">
+        <v>183.1199951171875</v>
+      </c>
+      <c r="D61" t="n">
+        <v>180.0500030517578</v>
+      </c>
+      <c r="E61" t="n">
+        <v>776.5318541377363</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-13.24046981588197</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>5.34353117597583</v>
+      </c>
+      <c r="C62" t="n">
+        <v>147.7799987792969</v>
+      </c>
+      <c r="D62" t="n">
+        <v>148.6699981689453</v>
+      </c>
+      <c r="E62" t="n">
+        <v>794.4227701480288</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4.755739485185813</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>27.93787084652407</v>
+      </c>
+      <c r="C63" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="D63" t="n">
+        <v>26.6200008392334</v>
+      </c>
+      <c r="E63" t="n">
+        <v>743.706145380865</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-18.99770741433815</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>5.172856438704554</v>
+      </c>
+      <c r="C64" t="n">
+        <v>146.8200073242188</v>
+      </c>
+      <c r="D64" t="n">
+        <v>144.5200042724609</v>
+      </c>
+      <c r="E64" t="n">
+        <v>747.5812346224092</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-11.89758559532561</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2.785463961451984</v>
+      </c>
+      <c r="C65" t="n">
+        <v>272.4100036621094</v>
+      </c>
+      <c r="D65" t="n">
+        <v>267.4599914550781</v>
+      </c>
+      <c r="E65" t="n">
+        <v>745.0001673283758</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-13.78808061143286</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SOLV</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>9.994890420284918</v>
+      </c>
+      <c r="C66" t="n">
+        <v>75.66000366210938</v>
+      </c>
+      <c r="D66" t="n">
+        <v>76.19000244140625</v>
+      </c>
+      <c r="E66" t="n">
+        <v>761.5107255230959</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.297279721957011</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>20.62421457488285</v>
+      </c>
+      <c r="C67" t="n">
+        <v>35.84000015258789</v>
+      </c>
+      <c r="D67" t="n">
+        <v>35.06999969482422</v>
+      </c>
+      <c r="E67" t="n">
+        <v>723.2911988471305</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-15.88065466367607</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>54.39008713949466</v>
+      </c>
+      <c r="C68" t="n">
+        <v>13.1899995803833</v>
+      </c>
+      <c r="D68" t="n">
+        <v>12.88000011444092</v>
+      </c>
+      <c r="E68" t="n">
+        <v>700.5443285811427</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-16.86089796580302</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2.773861035041463</v>
+      </c>
+      <c r="C69" t="n">
+        <v>246.8099975585938</v>
+      </c>
+      <c r="D69" t="n">
+        <v>240.5200042724609</v>
+      </c>
+      <c r="E69" t="n">
+        <v>667.1690679993856</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-17.44756728707614</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2.741148448047922</v>
+      </c>
+      <c r="C70" t="n">
+        <v>220.6100006103516</v>
+      </c>
+      <c r="D70" t="n">
+        <v>216.1199951171875</v>
+      </c>
+      <c r="E70" t="n">
+        <v>592.4169892076029</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-12.30777158931335</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>10.00883417601906</v>
+      </c>
+      <c r="C71" t="n">
+        <v>58.45999908447266</v>
+      </c>
+      <c r="D71" t="n">
+        <v>58.06000137329102</v>
+      </c>
+      <c r="E71" t="n">
+        <v>581.1129260047089</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-4.003510762004225</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2.229145418599678</v>
+      </c>
+      <c r="C72" t="n">
+        <v>253.0800018310547</v>
+      </c>
+      <c r="D72" t="n">
+        <v>253.5399932861328</v>
+      </c>
+      <c r="E72" t="n">
+        <v>565.177514465576</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.025387844682427</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>AMCR</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>62.58681427114792</v>
+      </c>
+      <c r="C73" t="n">
+        <v>8.479999542236328</v>
+      </c>
+      <c r="D73" t="n">
+        <v>8.449999809265137</v>
+      </c>
+      <c r="E73" t="n">
+        <v>528.8585686537125</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-1.877587715651998</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>5.445038113388838</v>
+      </c>
+      <c r="C74" t="n">
+        <v>95.31000518798828</v>
+      </c>
+      <c r="D74" t="n">
+        <v>93.97000122070312</v>
+      </c>
+      <c r="E74" t="n">
+        <v>511.6702381619241</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-7.296372673959979</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>NEM</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>5.509366410030577</v>
+      </c>
+      <c r="C75" t="n">
+        <v>87.80000305175781</v>
+      </c>
+      <c r="D75" t="n">
+        <v>87.08999633789062</v>
+      </c>
+      <c r="E75" t="n">
+        <v>479.8107004736605</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-3.911687140276115</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.3409162865382235</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1403.079956054688</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1388.9599609375</v>
+      </c>
+      <c r="E76" t="n">
+        <v>473.5190720330885</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-4.813736301289453</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4.137315693445904</v>
+      </c>
+      <c r="C77" t="n">
+        <v>115.1399993896484</v>
+      </c>
+      <c r="D77" t="n">
+        <v>117.6999969482422</v>
+      </c>
+      <c r="E77" t="n">
+        <v>486.9620444924975</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>10.59151807435313</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ABBV</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1.920850380495891</v>
+      </c>
+      <c r="C78" t="n">
+        <v>232.3600006103516</v>
+      </c>
+      <c r="D78" t="n">
+        <v>234</v>
+      </c>
+      <c r="E78" t="n">
+        <v>449.4789890360384</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3.150193451619259</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.9764919604743847</v>
+      </c>
+      <c r="C79" t="n">
+        <v>437.1499938964844</v>
+      </c>
+      <c r="D79" t="n">
+        <v>434.0199890136719</v>
+      </c>
+      <c r="E79" t="n">
+        <v>423.8170299570314</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-3.056424604311985</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>3.084333069255067</v>
+      </c>
+      <c r="C80" t="n">
+        <v>125.0199966430664</v>
+      </c>
+      <c r="D80" t="n">
+        <v>124.0899963378906</v>
+      </c>
+      <c r="E80" t="n">
+        <v>382.7348792686963</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-2.868430695670952</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PYPL</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>6.024401191478308</v>
+      </c>
+      <c r="C81" t="n">
+        <v>62.81000137329102</v>
+      </c>
+      <c r="D81" t="n">
+        <v>61.88999938964844</v>
+      </c>
+      <c r="E81" t="n">
+        <v>372.8501860635898</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-5.542461046418794</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>3.57396226883692</v>
+      </c>
+      <c r="C82" t="n">
+        <v>104.75</v>
+      </c>
+      <c r="D82" t="n">
+        <v>103.6699981689453</v>
+      </c>
+      <c r="E82" t="n">
+        <v>370.5126618662031</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-3.859885794464276</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
           <t>EIX</t>
         </is>
       </c>
+      <c r="B83" t="n">
+        <v>6.096707270077257</v>
+      </c>
+      <c r="C83" t="n">
+        <v>58.70999908447266</v>
+      </c>
+      <c r="D83" t="n">
+        <v>57.7599983215332</v>
+      </c>
+      <c r="E83" t="n">
+        <v>352.1458016865416</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-5.791876557991884</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1.190082649475388</v>
+      </c>
+      <c r="C84" t="n">
+        <v>226.0099945068359</v>
+      </c>
+      <c r="D84" t="n">
+        <v>228.7100067138672</v>
+      </c>
+      <c r="E84" t="n">
+        <v>272.1838107515728</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>3.213237680959594</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1.490604538078833</v>
+      </c>
+      <c r="C85" t="n">
+        <v>167.5800018310547</v>
+      </c>
+      <c r="D85" t="n">
+        <v>165.3899993896484</v>
+      </c>
+      <c r="E85" t="n">
+        <v>246.5310836430654</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-3.264427577563879</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.3514537578243815</v>
+      </c>
+      <c r="C86" t="n">
+        <v>689.9299926757812</v>
+      </c>
+      <c r="D86" t="n">
+        <v>669</v>
+      </c>
+      <c r="E86" t="n">
+        <v>235.1225639845112</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-7.355924577140115</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>9.755411561445799</v>
+      </c>
+      <c r="C87" t="n">
+        <v>24.79000091552734</v>
+      </c>
+      <c r="D87" t="n">
+        <v>24.3799991607666</v>
+      </c>
+      <c r="E87" t="n">
+        <v>237.8369256809814</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-3.999735858606016</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.8796543805654052</v>
+      </c>
+      <c r="C88" t="n">
+        <v>214.3000030517578</v>
+      </c>
+      <c r="D88" t="n">
+        <v>209.2100067138672</v>
+      </c>
+      <c r="E88" t="n">
+        <v>184.0324988639711</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-4.477437575687361</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.241462216412904</v>
+      </c>
+      <c r="C89" t="n">
+        <v>148.2599945068359</v>
+      </c>
+      <c r="D89" t="n">
+        <v>147.4600067138672</v>
+      </c>
+      <c r="E89" t="n">
+        <v>183.0660267672593</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-0.9931546185622722</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.9101440446460419</v>
+      </c>
+      <c r="C90" t="n">
+        <v>162.8099975585938</v>
+      </c>
+      <c r="D90" t="n">
+        <v>160.3000030517578</v>
+      </c>
+      <c r="E90" t="n">
+        <v>145.8960931342997</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-2.284456552491008</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>3.00057915904889</v>
+      </c>
+      <c r="C91" t="n">
+        <v>36.93999862670898</v>
+      </c>
+      <c r="D91" t="n">
+        <v>35.79999923706055</v>
+      </c>
+      <c r="E91" t="n">
+        <v>107.42073160469</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-3.420658409907546</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.6178703318157845</v>
+      </c>
+      <c r="C92" t="n">
+        <v>167.5500030517578</v>
+      </c>
+      <c r="D92" t="n">
+        <v>164.6799926757812</v>
+      </c>
+      <c r="E92" t="n">
+        <v>101.7508817180059</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-1.773294263319386</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>3.928806953355943</v>
+      </c>
+      <c r="C93" t="n">
+        <v>25.05999946594238</v>
+      </c>
+      <c r="D93" t="n">
+        <v>25.07999992370605</v>
+      </c>
+      <c r="E93" t="n">
+        <v>98.53447809042287</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.07857793753221642</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>HOLX</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.9096678073940228</v>
+      </c>
+      <c r="C94" t="n">
+        <v>74.15000152587891</v>
+      </c>
+      <c r="D94" t="n">
+        <v>74.13999938964844</v>
+      </c>
+      <c r="E94" t="n">
+        <v>67.44277068497568</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-0.009098621334018731</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ALGN</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.4146889525277757</v>
+      </c>
+      <c r="C95" t="n">
+        <v>137.1300048828125</v>
+      </c>
+      <c r="D95" t="n">
+        <v>132.6100006103516</v>
+      </c>
+      <c r="E95" t="n">
+        <v>54.99190224781439</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-1.874395837167896</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.2365841427214178</v>
+      </c>
+      <c r="C96" t="n">
+        <v>173.9799957275391</v>
+      </c>
+      <c r="D96" t="n">
+        <v>166.75</v>
+      </c>
+      <c r="E96" t="n">
+        <v>39.45040579879642</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-1.710502341079341</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>CNC</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.4924117036689529</v>
+      </c>
+      <c r="C97" t="n">
+        <v>36.38000106811523</v>
+      </c>
+      <c r="D97" t="n">
+        <v>37.08000183105469</v>
+      </c>
+      <c r="E97" t="n">
+        <v>18.25862687367753</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.3446885682485821</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.08638470672993773</v>
+      </c>
+      <c r="C98" t="n">
+        <v>181.7599945068359</v>
+      </c>
+      <c r="D98" t="n">
+        <v>178.3999938964844</v>
+      </c>
+      <c r="E98" t="n">
+        <v>15.41103115337048</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-0.2902526673376311</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>TPL</t>
+        </is>
+      </c>
       <c r="B99" t="n">
-        <v>5.442271430274708</v>
+        <v>0.01505301166582851</v>
       </c>
       <c r="C99" t="n">
-        <v>59.08000183105469</v>
+        <v>1022.650024414062</v>
       </c>
       <c r="D99" t="n">
-        <v>58.70999908447266</v>
+        <v>957.469970703125</v>
       </c>
       <c r="E99" t="n">
-        <v>319.5157506888798</v>
+        <v>14.41280663867462</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.0136553768466</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>SMCI</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>9.023653937992608</v>
-      </c>
-      <c r="C100" t="n">
-        <v>35.09000015258789</v>
-      </c>
-      <c r="D100" t="n">
-        <v>36.41999816894531</v>
-      </c>
-      <c r="E100" t="n">
-        <v>328.6414598988869</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" t="n">
-        <v>12.00144183782601</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>AMAT</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>1.142549324435784</v>
-      </c>
-      <c r="C101" t="n">
-        <v>223.2299957275391</v>
-      </c>
-      <c r="D101" t="n">
-        <v>226.0099945068359</v>
-      </c>
-      <c r="E101" t="n">
-        <v>258.2275665395208</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" t="n">
-        <v>3.17628572721793</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>ALGN</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>1.765814061178995</v>
-      </c>
-      <c r="C102" t="n">
-        <v>139.4199981689453</v>
-      </c>
-      <c r="D102" t="n">
-        <v>137.1300048828125</v>
-      </c>
-      <c r="E102" t="n">
-        <v>242.1460908316145</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-4.043702344658811</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>TEL</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0.9694967980004723</v>
-      </c>
-      <c r="C103" t="n">
-        <v>236.2799987792969</v>
-      </c>
-      <c r="D103" t="n">
-        <v>237.3300018310547</v>
-      </c>
-      <c r="E103" t="n">
-        <v>230.0906768446538</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" t="n">
-        <v>1.017974596569928</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>VTRS</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>20.47824037581958</v>
-      </c>
-      <c r="C104" t="n">
-        <v>10.90999984741211</v>
-      </c>
-      <c r="D104" t="n">
-        <v>10.72000026702881</v>
-      </c>
-      <c r="E104" t="n">
-        <v>219.526742297066</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-3.890857078394106</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>QCOM</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>1.244683936608608</v>
-      </c>
-      <c r="C105" t="n">
-        <v>174.5</v>
-      </c>
-      <c r="D105" t="n">
-        <v>173.9799957275391</v>
-      </c>
-      <c r="E105" t="n">
-        <v>216.5501059733022</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-0.6472409648999644</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>DLR</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>1.27424223725561</v>
-      </c>
-      <c r="C106" t="n">
-        <v>158.1100006103516</v>
-      </c>
-      <c r="D106" t="n">
-        <v>158.1799926757812</v>
-      </c>
-      <c r="E106" t="n">
-        <v>201.5596277562635</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.08918684604327609</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>APA</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>7.996188205593628</v>
-      </c>
-      <c r="C107" t="n">
-        <v>24.69000053405762</v>
-      </c>
-      <c r="D107" t="n">
-        <v>24.79000091552734</v>
-      </c>
-      <c r="E107" t="n">
-        <v>198.225512937395</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.799621870863092</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>NUE</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>1.25692033490867</v>
-      </c>
-      <c r="C108" t="n">
-        <v>145.8099975585938</v>
-      </c>
-      <c r="D108" t="n">
-        <v>147.7799987792969</v>
-      </c>
-      <c r="E108" t="n">
-        <v>185.7476855584767</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G108" t="n">
-        <v>2.476134594096663</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>ALB</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>1.509650895363199</v>
-      </c>
-      <c r="C109" t="n">
-        <v>114.5699996948242</v>
-      </c>
-      <c r="D109" t="n">
-        <v>115.1399993896484</v>
-      </c>
-      <c r="E109" t="n">
-        <v>173.8212031707009</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.8605005496481226</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>BIIB</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>1.026481180823099</v>
-      </c>
-      <c r="C110" t="n">
-        <v>164.7299957275391</v>
-      </c>
-      <c r="D110" t="n">
-        <v>167.5500030517578</v>
-      </c>
-      <c r="E110" t="n">
-        <v>171.9869249794823</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" t="n">
-        <v>2.894684448093869</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>1.995920503720255</v>
-      </c>
-      <c r="C111" t="n">
-        <v>73.69000244140625</v>
-      </c>
-      <c r="D111" t="n">
-        <v>73.30000305175781</v>
-      </c>
-      <c r="E111" t="n">
-        <v>146.3009790137607</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-0.7784077782376926</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>AMZN</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0.5739271498879062</v>
-      </c>
-      <c r="C112" t="n">
-        <v>237.5800018310547</v>
-      </c>
-      <c r="D112" t="n">
-        <v>234.6900024414062</v>
-      </c>
-      <c r="E112" t="n">
-        <v>134.694964208382</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-1.65864911287872</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>BDX</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0.6044986229524348</v>
-      </c>
-      <c r="C113" t="n">
-        <v>193.0399932861328</v>
-      </c>
-      <c r="D113" t="n">
-        <v>193.0399932861328</v>
-      </c>
-      <c r="E113" t="n">
-        <v>116.6924101162145</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>MNST</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>1.422617450484856</v>
-      </c>
-      <c r="C114" t="n">
-        <v>71.08000183105469</v>
-      </c>
-      <c r="D114" t="n">
-        <v>71.30999755859375</v>
-      </c>
-      <c r="E114" t="n">
-        <v>101.446846920888</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.3271959355340215</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>VST</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0.5253683346099912</v>
-      </c>
-      <c r="C115" t="n">
-        <v>171.5599975585938</v>
-      </c>
-      <c r="D115" t="n">
-        <v>174.6900024414062</v>
-      </c>
-      <c r="E115" t="n">
-        <v>91.77659565565691</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" t="n">
-        <v>1.644405452604346</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>AKAM</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0.1272577166428353</v>
-      </c>
-      <c r="C116" t="n">
-        <v>88.66999816894531</v>
-      </c>
-      <c r="D116" t="n">
-        <v>87.16999816894531</v>
-      </c>
-      <c r="E116" t="n">
-        <v>11.09305492674011</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-0.190886574964253</v>
+        <v>-0.9811561088900707</v>
       </c>
     </row>
   </sheetData>

--- a/backtest_portfolio_PL.xlsx
+++ b/backtest_portfolio_PL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="32" activeTab="35" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="33" activeTab="35" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-10-23_Allocations" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,6 +44,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-14-2025_PnL" sheetId="36" state="visible" r:id="rId36"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-17-2025_Allocations" sheetId="37" state="visible" r:id="rId37"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-17-2025_PnL" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-18-2025_Allocations" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-18-2025_PnL" sheetId="40" state="visible" r:id="rId40"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -61948,16 +61950,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04277561450392957</v>
+        <v>0.04277561459156227</v>
       </c>
       <c r="C2" t="n">
         <v>361.9400024414062</v>
       </c>
       <c r="D2" t="n">
-        <v>5159.126228485166</v>
+        <v>5159.126239054463</v>
       </c>
       <c r="E2" t="n">
-        <v>14.25409237355677</v>
+        <v>14.25409240275856</v>
       </c>
     </row>
     <row r="3">
@@ -61967,16 +61969,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04010668191067682</v>
+        <v>0.04010668199284178</v>
       </c>
       <c r="C3" t="n">
         <v>375.75</v>
       </c>
       <c r="D3" t="n">
-        <v>4837.228803898915</v>
+        <v>4837.228813808754</v>
       </c>
       <c r="E3" t="n">
-        <v>12.87352975089532</v>
+        <v>12.87352977726881</v>
       </c>
     </row>
     <row r="4">
@@ -61986,16 +61988,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03473750654696492</v>
+        <v>0.03473750661813027</v>
       </c>
       <c r="C4" t="n">
         <v>205.3699951171875</v>
       </c>
       <c r="D4" t="n">
-        <v>4189.65766399822</v>
+        <v>4189.657672581405</v>
       </c>
       <c r="E4" t="n">
-        <v>20.40053446759607</v>
+        <v>20.40053450938983</v>
       </c>
     </row>
     <row r="5">
@@ -62005,16 +62007,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02782491537866133</v>
+        <v>0.02782491543566512</v>
       </c>
       <c r="C5" t="n">
         <v>86.30000305175781</v>
       </c>
       <c r="D5" t="n">
-        <v>3355.936610150733</v>
+        <v>3355.936617025907</v>
       </c>
       <c r="E5" t="n">
-        <v>38.88686548641295</v>
+        <v>38.88686556607892</v>
       </c>
     </row>
     <row r="6">
@@ -62024,16 +62026,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02734321954881305</v>
+        <v>0.02734322121780002</v>
       </c>
       <c r="C6" t="n">
         <v>39.70999908447266</v>
       </c>
       <c r="D6" t="n">
-        <v>3297.83973372377</v>
+        <v>3297.839935018703</v>
       </c>
       <c r="E6" t="n">
-        <v>83.04809392486958</v>
+        <v>83.04809899399416</v>
       </c>
     </row>
     <row r="7">
@@ -62043,16 +62045,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02455670688649732</v>
+        <v>0.02455670693680567</v>
       </c>
       <c r="C7" t="n">
         <v>554.030029296875</v>
       </c>
       <c r="D7" t="n">
-        <v>2961.7610887089</v>
+        <v>2961.761094776542</v>
       </c>
       <c r="E7" t="n">
-        <v>5.345849380163925</v>
+        <v>5.345849391115753</v>
       </c>
     </row>
     <row r="8">
@@ -62062,16 +62064,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02454627596125518</v>
+        <v>0.02454628095424388</v>
       </c>
       <c r="C8" t="n">
         <v>258.4100036621094</v>
       </c>
       <c r="D8" t="n">
-        <v>2960.503024724824</v>
+        <v>2960.503626924448</v>
       </c>
       <c r="E8" t="n">
-        <v>11.45661151955984</v>
+        <v>11.45661384996353</v>
       </c>
     </row>
     <row r="9">
@@ -62081,16 +62083,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02348416022925884</v>
+        <v>0.02348416027736991</v>
       </c>
       <c r="C9" t="n">
         <v>157.8300018310547</v>
       </c>
       <c r="D9" t="n">
-        <v>2832.402255298692</v>
+        <v>2832.402261101321</v>
       </c>
       <c r="E9" t="n">
-        <v>17.94590522992307</v>
+        <v>17.94590526668813</v>
       </c>
     </row>
     <row r="10">
@@ -62100,16 +62102,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02306718519130816</v>
+        <v>0.02306718523856499</v>
       </c>
       <c r="C10" t="n">
         <v>104.1500015258789</v>
       </c>
       <c r="D10" t="n">
-        <v>2782.111292097746</v>
+        <v>2782.111297797347</v>
       </c>
       <c r="E10" t="n">
-        <v>26.71254201956449</v>
+        <v>26.71254207428942</v>
       </c>
     </row>
     <row r="11">
@@ -62119,16 +62121,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0221793254006924</v>
+        <v>0.0221793254461303</v>
       </c>
       <c r="C11" t="n">
         <v>842.0900268554688</v>
       </c>
       <c r="D11" t="n">
-        <v>2675.027366218379</v>
+        <v>2675.027371698602</v>
       </c>
       <c r="E11" t="n">
-        <v>3.176652472904189</v>
+        <v>3.17665247941207</v>
       </c>
     </row>
     <row r="12">
@@ -62138,16 +62140,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01977305447374119</v>
+        <v>0.01977305451424946</v>
       </c>
       <c r="C12" t="n">
         <v>549.510009765625</v>
       </c>
       <c r="D12" t="n">
-        <v>2384.809315676175</v>
+        <v>2384.809320561839</v>
       </c>
       <c r="E12" t="n">
-        <v>4.339883302022716</v>
+        <v>4.339883310913661</v>
       </c>
     </row>
     <row r="13">
@@ -62157,16 +62159,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01896577918199285</v>
+        <v>0.01896577922084729</v>
       </c>
       <c r="C13" t="n">
         <v>138.4199981689453</v>
       </c>
       <c r="D13" t="n">
-        <v>2287.444609649935</v>
+        <v>2287.444614336132</v>
       </c>
       <c r="E13" t="n">
-        <v>16.525391127791</v>
+        <v>16.52539116164591</v>
       </c>
     </row>
     <row r="14">
@@ -62176,16 +62178,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01883533543103327</v>
+        <v>0.01883533546962048</v>
       </c>
       <c r="C14" t="n">
         <v>78</v>
       </c>
       <c r="D14" t="n">
-        <v>2271.711912768264</v>
+        <v>2271.711917422229</v>
       </c>
       <c r="E14" t="n">
-        <v>29.12451170215722</v>
+        <v>29.12451176182345</v>
       </c>
     </row>
     <row r="15">
@@ -62195,16 +62197,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01871012291430247</v>
+        <v>0.01871010824200613</v>
       </c>
       <c r="C15" t="n">
         <v>65.37999725341797</v>
       </c>
       <c r="D15" t="n">
-        <v>2256.610150077253</v>
+        <v>2256.60838046553</v>
       </c>
       <c r="E15" t="n">
-        <v>34.51529894274018</v>
+        <v>34.51527187617858</v>
       </c>
     </row>
     <row r="16">
@@ -62214,16 +62216,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01847067639249795</v>
+        <v>0.0184706745725333</v>
       </c>
       <c r="C16" t="n">
         <v>462.6099853515625</v>
       </c>
       <c r="D16" t="n">
-        <v>2227.730732556604</v>
+        <v>2227.730513052398</v>
       </c>
       <c r="E16" t="n">
-        <v>4.81556992520088</v>
+        <v>4.815569450710028</v>
       </c>
     </row>
     <row r="17">
@@ -62233,16 +62235,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01832949098666495</v>
+        <v>0.01832949102421585</v>
       </c>
       <c r="C17" t="n">
         <v>71.43000030517578</v>
       </c>
       <c r="D17" t="n">
-        <v>2210.702494885222</v>
+        <v>2210.7024994142</v>
       </c>
       <c r="E17" t="n">
-        <v>30.94921581184756</v>
+        <v>30.94921587525198</v>
       </c>
     </row>
     <row r="18">
@@ -62252,16 +62254,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01770559745071222</v>
+        <v>0.01770560267556213</v>
       </c>
       <c r="C18" t="n">
         <v>472.6499938964844</v>
       </c>
       <c r="D18" t="n">
-        <v>2135.455288212823</v>
+        <v>2135.455918377007</v>
       </c>
       <c r="E18" t="n">
-        <v>4.518047848913146</v>
+        <v>4.51804918217072</v>
       </c>
     </row>
     <row r="19">
@@ -62271,16 +62273,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0171354639411784</v>
+        <v>0.01713546397628314</v>
       </c>
       <c r="C19" t="n">
         <v>118.7200012207031</v>
       </c>
       <c r="D19" t="n">
-        <v>2066.692027254782</v>
+        <v>2066.692031488732</v>
       </c>
       <c r="E19" t="n">
-        <v>17.40811999666978</v>
+        <v>17.4081200323331</v>
       </c>
     </row>
     <row r="20">
@@ -62290,16 +62292,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01662939453979341</v>
+        <v>0.01662939457386139</v>
       </c>
       <c r="C20" t="n">
         <v>831.9500122070312</v>
       </c>
       <c r="D20" t="n">
-        <v>2005.655477519671</v>
+        <v>2005.655481628577</v>
       </c>
       <c r="E20" t="n">
-        <v>2.410788446530562</v>
+        <v>2.410788451469448</v>
       </c>
     </row>
     <row r="21">
@@ -62309,16 +62311,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01627521705543579</v>
+        <v>0.01627521708877818</v>
       </c>
       <c r="C21" t="n">
         <v>65.87999725341797</v>
       </c>
       <c r="D21" t="n">
-        <v>1962.938467599908</v>
+        <v>1962.938471621303</v>
       </c>
       <c r="E21" t="n">
-        <v>29.79566711348136</v>
+        <v>29.79566717452257</v>
       </c>
     </row>
     <row r="22">
@@ -62328,16 +62330,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01612061490599434</v>
+        <v>0.01612061493902</v>
       </c>
       <c r="C22" t="n">
         <v>379.3999938964844</v>
       </c>
       <c r="D22" t="n">
-        <v>1944.292049227817</v>
+        <v>1944.29205321101</v>
       </c>
       <c r="E22" t="n">
-        <v>5.124649658687917</v>
+        <v>5.124649669186583</v>
       </c>
     </row>
     <row r="23">
@@ -62347,16 +62349,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01588713208675868</v>
+        <v>0.0158871333819025</v>
       </c>
       <c r="C23" t="n">
         <v>246.8300018310547</v>
       </c>
       <c r="D23" t="n">
-        <v>1916.131908208482</v>
+        <v>1916.132064414548</v>
       </c>
       <c r="E23" t="n">
-        <v>7.762961933290418</v>
+        <v>7.7629625661392</v>
       </c>
     </row>
     <row r="24">
@@ -62366,16 +62368,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01587947728743673</v>
+        <v>0.01587947731996838</v>
       </c>
       <c r="C24" t="n">
         <v>195.9299926757812</v>
       </c>
       <c r="D24" t="n">
-        <v>1915.208670134321</v>
+        <v>1915.208674057933</v>
       </c>
       <c r="E24" t="n">
-        <v>9.774964230736984</v>
+        <v>9.774964250762563</v>
       </c>
     </row>
     <row r="25">
@@ -62385,16 +62387,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01548687182706767</v>
+        <v>0.015486864127038</v>
       </c>
       <c r="C25" t="n">
         <v>193.8200073242188</v>
       </c>
       <c r="D25" t="n">
-        <v>1867.856898534396</v>
+        <v>1867.855969841133</v>
       </c>
       <c r="E25" t="n">
-        <v>9.637069590085595</v>
+        <v>9.637064798561358</v>
       </c>
     </row>
     <row r="26">
@@ -62404,16 +62406,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01500263710449503</v>
+        <v>0.01500263713523034</v>
       </c>
       <c r="C26" t="n">
         <v>225.0399932861328</v>
       </c>
       <c r="D26" t="n">
-        <v>1809.453808667896</v>
+        <v>1809.453812374853</v>
       </c>
       <c r="E26" t="n">
-        <v>8.040587729520682</v>
+        <v>8.040587745993117</v>
       </c>
     </row>
     <row r="27">
@@ -62423,16 +62425,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01404901648739909</v>
+        <v>0.01404901651618075</v>
       </c>
       <c r="C27" t="n">
         <v>185.0099945068359</v>
       </c>
       <c r="D27" t="n">
-        <v>1694.438531979541</v>
+        <v>1694.43853545087</v>
       </c>
       <c r="E27" t="n">
-        <v>9.158632410623275</v>
+        <v>9.1586324293862</v>
       </c>
     </row>
     <row r="28">
@@ -62442,16 +62444,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01378539305983812</v>
+        <v>0.01378539308807971</v>
       </c>
       <c r="C28" t="n">
         <v>121.3000030517578</v>
       </c>
       <c r="D28" t="n">
-        <v>1662.643160823669</v>
+        <v>1662.64316422986</v>
       </c>
       <c r="E28" t="n">
-        <v>13.70686825221457</v>
+        <v>13.70686828029528</v>
       </c>
     </row>
     <row r="29">
@@ -62461,16 +62463,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01310525748944845</v>
+        <v>0.01310526044728796</v>
       </c>
       <c r="C29" t="n">
         <v>94.34000396728516</v>
       </c>
       <c r="D29" t="n">
-        <v>1580.612655807763</v>
+        <v>1580.613012549976</v>
       </c>
       <c r="E29" t="n">
-        <v>16.75442642927894</v>
+        <v>16.75443021073112</v>
       </c>
     </row>
     <row r="30">
@@ -62480,16 +62482,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01276161880974972</v>
+        <v>0.01276161883589394</v>
       </c>
       <c r="C30" t="n">
         <v>1025.280029296875</v>
       </c>
       <c r="D30" t="n">
-        <v>1539.166721106044</v>
+        <v>1539.166724259274</v>
       </c>
       <c r="E30" t="n">
-        <v>1.50121593820723</v>
+        <v>1.501215941282711</v>
       </c>
     </row>
     <row r="31">
@@ -62499,16 +62501,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01171302034414399</v>
+        <v>0.01171302036813998</v>
       </c>
       <c r="C31" t="n">
         <v>87.16999816894531</v>
       </c>
       <c r="D31" t="n">
-        <v>1412.696256337879</v>
+        <v>1412.696259232014</v>
       </c>
       <c r="E31" t="n">
-        <v>16.20622101654647</v>
+        <v>16.20622104974752</v>
       </c>
     </row>
     <row r="32">
@@ -62518,16 +62520,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01146986616193943</v>
+        <v>0.01146986618543729</v>
       </c>
       <c r="C32" t="n">
         <v>152.8000030517578</v>
       </c>
       <c r="D32" t="n">
-        <v>1383.369661418661</v>
+        <v>1383.369664252715</v>
       </c>
       <c r="E32" t="n">
-        <v>9.053466189723002</v>
+        <v>9.053466208270478</v>
       </c>
     </row>
     <row r="33">
@@ -62537,16 +62539,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01144449049190791</v>
+        <v>0.01144449051535378</v>
       </c>
       <c r="C33" t="n">
         <v>70.51999664306641</v>
       </c>
       <c r="D33" t="n">
-        <v>1380.309125963046</v>
+        <v>1380.30912879083</v>
       </c>
       <c r="E33" t="n">
-        <v>19.57330107301925</v>
+        <v>19.57330111311829</v>
       </c>
     </row>
     <row r="34">
@@ -62556,16 +62558,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01098773441848882</v>
+        <v>0.01098773544868511</v>
       </c>
       <c r="C34" t="n">
         <v>578.7100219726562</v>
       </c>
       <c r="D34" t="n">
-        <v>1325.220209866239</v>
+        <v>1325.220334117235</v>
       </c>
       <c r="E34" t="n">
-        <v>2.289955520986045</v>
+        <v>2.289955735689421</v>
       </c>
     </row>
     <row r="35">
@@ -62575,16 +62577,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01089541747094897</v>
+        <v>0.01089541749326998</v>
       </c>
       <c r="C35" t="n">
         <v>179.0200042724609</v>
       </c>
       <c r="D35" t="n">
-        <v>1314.085950524558</v>
+        <v>1314.085953216674</v>
       </c>
       <c r="E35" t="n">
-        <v>7.340441957115444</v>
+        <v>7.340441972153515</v>
       </c>
     </row>
     <row r="36">
@@ -62594,16 +62596,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01062194230767514</v>
+        <v>0.010621942752503</v>
       </c>
       <c r="C36" t="n">
         <v>169.9700012207031</v>
       </c>
       <c r="D36" t="n">
-        <v>1281.102370883507</v>
+        <v>1281.102424533771</v>
       </c>
       <c r="E36" t="n">
-        <v>7.537226343959468</v>
+        <v>7.537226659604961</v>
       </c>
     </row>
     <row r="37">
@@ -62613,16 +62615,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01015695185547554</v>
+        <v>0.01015695187628368</v>
       </c>
       <c r="C37" t="n">
         <v>264.6600036621094</v>
       </c>
       <c r="D37" t="n">
-        <v>1225.020314184642</v>
+        <v>1225.020316694293</v>
       </c>
       <c r="E37" t="n">
-        <v>4.628656756721813</v>
+        <v>4.628656766204358</v>
       </c>
     </row>
     <row r="38">
@@ -62632,16 +62634,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01012608309425727</v>
+        <v>0.01012608023812955</v>
       </c>
       <c r="C38" t="n">
         <v>46.65000152587891</v>
       </c>
       <c r="D38" t="n">
-        <v>1221.29726221943</v>
+        <v>1221.296917744579</v>
       </c>
       <c r="E38" t="n">
-        <v>26.18000476467122</v>
+        <v>26.1799973804303</v>
       </c>
     </row>
     <row r="39">
@@ -62651,16 +62653,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01011422193069664</v>
+        <v>0.01011422195141725</v>
       </c>
       <c r="C39" t="n">
         <v>258.2099914550781</v>
       </c>
       <c r="D39" t="n">
-        <v>1219.866698550488</v>
+        <v>1219.86670104958</v>
       </c>
       <c r="E39" t="n">
-        <v>4.724320277756227</v>
+        <v>4.724320287434755</v>
       </c>
     </row>
     <row r="40">
@@ -62670,16 +62672,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.009886358218726937</v>
+        <v>0.009886358238980725</v>
       </c>
       <c r="C40" t="n">
         <v>305.6900024414062</v>
       </c>
       <c r="D40" t="n">
-        <v>1192.384272720348</v>
+        <v>1192.384275163138</v>
       </c>
       <c r="E40" t="n">
-        <v>3.900632219560078</v>
+        <v>3.900632227551148</v>
       </c>
     </row>
     <row r="41">
@@ -62689,16 +62691,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.009756504012134046</v>
+        <v>0.009756504032121808</v>
       </c>
       <c r="C41" t="n">
         <v>26.34000015258789</v>
       </c>
       <c r="D41" t="n">
-        <v>1176.722680224676</v>
+        <v>1176.722682635381</v>
       </c>
       <c r="E41" t="n">
-        <v>44.67436117721751</v>
+        <v>44.6743612687401</v>
       </c>
     </row>
     <row r="42">
@@ -62708,16 +62710,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.009740831387705613</v>
+        <v>0.009740831407661266</v>
       </c>
       <c r="C42" t="n">
         <v>336.739990234375</v>
       </c>
       <c r="D42" t="n">
-        <v>1174.832419881356</v>
+        <v>1174.832422288188</v>
       </c>
       <c r="E42" t="n">
-        <v>3.488841402720415</v>
+        <v>3.488841409867865</v>
       </c>
     </row>
     <row r="43">
@@ -62727,16 +62729,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.009195207955874403</v>
+        <v>0.009195207974712259</v>
       </c>
       <c r="C43" t="n">
         <v>285.7200012207031</v>
       </c>
       <c r="D43" t="n">
-        <v>1109.025296110454</v>
+        <v>1109.02529838247</v>
       </c>
       <c r="E43" t="n">
-        <v>3.881510889585192</v>
+        <v>3.881510897537089</v>
       </c>
     </row>
     <row r="44">
@@ -62746,16 +62748,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.008986485013655525</v>
+        <v>0.00898648503206578</v>
       </c>
       <c r="C44" t="n">
         <v>60.47999954223633</v>
       </c>
       <c r="D44" t="n">
-        <v>1083.85142033623</v>
+        <v>1083.851422556673</v>
       </c>
       <c r="E44" t="n">
-        <v>17.92082388458552</v>
+        <v>17.9208239212992</v>
       </c>
     </row>
     <row r="45">
@@ -62765,16 +62767,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.008889779352248736</v>
+        <v>0.008889779370460872</v>
       </c>
       <c r="C45" t="n">
         <v>59.90000152587891</v>
       </c>
       <c r="D45" t="n">
-        <v>1072.187842384335</v>
+        <v>1072.187844580884</v>
       </c>
       <c r="E45" t="n">
-        <v>17.89962963391767</v>
+        <v>17.89962967058792</v>
       </c>
     </row>
     <row r="46">
@@ -62784,16 +62786,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.008595893477258735</v>
+        <v>0.008595893494868799</v>
       </c>
       <c r="C46" t="n">
         <v>23.03000068664551</v>
       </c>
       <c r="D46" t="n">
-        <v>1036.742546193373</v>
+        <v>1036.742548317306</v>
       </c>
       <c r="E46" t="n">
-        <v>45.01704365100399</v>
+        <v>45.01704374322861</v>
       </c>
     </row>
     <row r="47">
@@ -62803,16 +62805,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.008139707933890751</v>
+        <v>0.008139707950566247</v>
       </c>
       <c r="C47" t="n">
         <v>313.9700012207031</v>
       </c>
       <c r="D47" t="n">
-        <v>981.7224411840263</v>
+        <v>981.722443195242</v>
       </c>
       <c r="E47" t="n">
-        <v>3.12680331677271</v>
+        <v>3.126803323178467</v>
       </c>
     </row>
     <row r="48">
@@ -62822,16 +62824,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.008076207784907171</v>
+        <v>0.008076214095371754</v>
       </c>
       <c r="C48" t="n">
         <v>276.9800109863281</v>
       </c>
       <c r="D48" t="n">
-        <v>974.0637485402582</v>
+        <v>974.0645096393966</v>
       </c>
       <c r="E48" t="n">
-        <v>3.516729402499513</v>
+        <v>3.516732150348124</v>
       </c>
     </row>
     <row r="49">
@@ -62841,16 +62843,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.008016921466166782</v>
+        <v>0.008016923464142128</v>
       </c>
       <c r="C49" t="n">
         <v>10.72000026702881</v>
       </c>
       <c r="D49" t="n">
-        <v>966.9132819589828</v>
+        <v>966.9135229328912</v>
       </c>
       <c r="E49" t="n">
-        <v>90.19713226434236</v>
+        <v>90.19715474325116</v>
       </c>
     </row>
     <row r="50">
@@ -62860,16 +62862,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.007694394786242169</v>
+        <v>0.007694394802005369</v>
       </c>
       <c r="C50" t="n">
         <v>276.4100036621094</v>
       </c>
       <c r="D50" t="n">
-        <v>928.0136454936211</v>
+        <v>928.0136473948056</v>
       </c>
       <c r="E50" t="n">
-        <v>3.357380822685595</v>
+        <v>3.357380829563727</v>
       </c>
     </row>
     <row r="51">
@@ -62879,16 +62881,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.007682858454281898</v>
+        <v>0.007682858470021463</v>
       </c>
       <c r="C51" t="n">
         <v>164.0200042724609</v>
       </c>
       <c r="D51" t="n">
-        <v>926.6222594554081</v>
+        <v>926.6222613537423</v>
       </c>
       <c r="E51" t="n">
-        <v>5.649446624304159</v>
+        <v>5.649446635877955</v>
       </c>
     </row>
     <row r="52">
@@ -62898,16 +62900,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.007665905213394118</v>
+        <v>0.007665905229098953</v>
       </c>
       <c r="C52" t="n">
         <v>537.5499877929688</v>
       </c>
       <c r="D52" t="n">
-        <v>924.5775451775119</v>
+        <v>924.5775470716571</v>
       </c>
       <c r="E52" t="n">
-        <v>1.719984310619318</v>
+        <v>1.719984314142981</v>
       </c>
     </row>
     <row r="53">
@@ -62917,16 +62919,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.00766208096294036</v>
+        <v>0.00766208097863736</v>
       </c>
       <c r="C53" t="n">
         <v>173.1000061035156</v>
       </c>
       <c r="D53" t="n">
-        <v>924.116305963322</v>
+        <v>924.1163078565223</v>
       </c>
       <c r="E53" t="n">
-        <v>5.338626651524731</v>
+        <v>5.338626662461762</v>
       </c>
     </row>
     <row r="54">
@@ -62936,16 +62938,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.007661099261538602</v>
+        <v>0.007661099277233591</v>
       </c>
       <c r="C54" t="n">
         <v>117.2799987792969</v>
       </c>
       <c r="D54" t="n">
-        <v>923.9979038898723</v>
+        <v>923.9979057828301</v>
       </c>
       <c r="E54" t="n">
-        <v>7.878563382565307</v>
+        <v>7.878563398705808</v>
       </c>
     </row>
     <row r="55">
@@ -62955,16 +62957,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.007659479371052286</v>
+        <v>0.007659477606319795</v>
       </c>
       <c r="C55" t="n">
         <v>267.5599975585938</v>
       </c>
       <c r="D55" t="n">
-        <v>923.8025304372137</v>
+        <v>923.8023175945045</v>
       </c>
       <c r="E55" t="n">
-        <v>3.452692999202571</v>
+        <v>3.452692203707314</v>
       </c>
     </row>
     <row r="56">
@@ -62974,16 +62976,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.007405393335225715</v>
+        <v>0.007405393350396849</v>
       </c>
       <c r="C56" t="n">
         <v>221.2100067138672</v>
       </c>
       <c r="D56" t="n">
-        <v>893.157455037905</v>
+        <v>893.1574568676812</v>
       </c>
       <c r="E56" t="n">
-        <v>4.037599692283337</v>
+        <v>4.037599700555007</v>
       </c>
     </row>
     <row r="57">
@@ -62993,16 +62995,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.007231259569711758</v>
+        <v>0.007231259584526152</v>
       </c>
       <c r="C57" t="n">
         <v>64.83999633789062</v>
       </c>
       <c r="D57" t="n">
-        <v>872.155347006344</v>
+        <v>872.1553487930939</v>
       </c>
       <c r="E57" t="n">
-        <v>13.45088519841081</v>
+        <v>13.4508852259671</v>
       </c>
     </row>
     <row r="58">
@@ -63012,16 +63014,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.007220065879045503</v>
+        <v>0.007220065893836965</v>
       </c>
       <c r="C58" t="n">
         <v>92.91999816894531</v>
       </c>
       <c r="D58" t="n">
-        <v>870.8052866090931</v>
+        <v>870.8052883930773</v>
       </c>
       <c r="E58" t="n">
-        <v>9.371559446501625</v>
+        <v>9.371559465700766</v>
       </c>
     </row>
     <row r="59">
@@ -63031,16 +63033,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.007023687350372265</v>
+        <v>0.007023687364761414</v>
       </c>
       <c r="C59" t="n">
         <v>693.5</v>
       </c>
       <c r="D59" t="n">
-        <v>847.120258825416</v>
+        <v>847.1202605608776</v>
       </c>
       <c r="E59" t="n">
-        <v>1.221514432336577</v>
+        <v>1.221514434839045</v>
       </c>
     </row>
     <row r="60">
@@ -63050,16 +63052,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.006894427927020024</v>
+        <v>0.006894427941144365</v>
       </c>
       <c r="C60" t="n">
         <v>1741.369995117188</v>
       </c>
       <c r="D60" t="n">
-        <v>831.5304025713544</v>
+        <v>831.5304042748777</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4775150627970913</v>
+        <v>0.4775150637753575</v>
       </c>
     </row>
     <row r="61">
@@ -63069,16 +63071,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.00654820118352328</v>
+        <v>0.006548202910392178</v>
       </c>
       <c r="C61" t="n">
         <v>183.1199951171875</v>
       </c>
       <c r="D61" t="n">
-        <v>789.7723239536184</v>
+        <v>789.7725322296357</v>
       </c>
       <c r="E61" t="n">
-        <v>4.312867764376054</v>
+        <v>4.312868901750578</v>
       </c>
     </row>
     <row r="62">
@@ -63088,16 +63090,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.00654732817033915</v>
+        <v>0.006547328628214619</v>
       </c>
       <c r="C62" t="n">
         <v>147.7799987792969</v>
       </c>
       <c r="D62" t="n">
-        <v>789.667030662843</v>
+        <v>789.6670858867684</v>
       </c>
       <c r="E62" t="n">
-        <v>5.34353117597583</v>
+        <v>5.34353154966595</v>
       </c>
     </row>
     <row r="63">
@@ -63107,16 +63109,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.006323769673960645</v>
+        <v>0.006323769480877226</v>
       </c>
       <c r="C63" t="n">
         <v>27.29999923706055</v>
       </c>
       <c r="D63" t="n">
-        <v>762.7038527952031</v>
+        <v>762.7038295075954</v>
       </c>
       <c r="E63" t="n">
-        <v>27.93787084652407</v>
+        <v>27.93786999349812</v>
       </c>
     </row>
     <row r="64">
@@ -63126,16 +63128,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.006297030116875432</v>
+        <v>0.006297030129775907</v>
       </c>
       <c r="C64" t="n">
         <v>146.8200073242188</v>
       </c>
       <c r="D64" t="n">
-        <v>759.4788202177348</v>
+        <v>759.4788217736489</v>
       </c>
       <c r="E64" t="n">
-        <v>5.172856438704554</v>
+        <v>5.17285644930198</v>
       </c>
     </row>
     <row r="65">
@@ -63145,16 +63147,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.006291304408249702</v>
+        <v>0.006291305692041446</v>
       </c>
       <c r="C65" t="n">
         <v>272.4100036621094</v>
       </c>
       <c r="D65" t="n">
-        <v>758.7882479398087</v>
+        <v>758.7884027767115</v>
       </c>
       <c r="E65" t="n">
-        <v>2.785463961451984</v>
+        <v>2.785464529848521</v>
       </c>
     </row>
     <row r="66">
@@ -63164,16 +63166,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.006269956075444908</v>
+        <v>0.006269956088289917</v>
       </c>
       <c r="C66" t="n">
         <v>75.66000366210938</v>
       </c>
       <c r="D66" t="n">
-        <v>756.2134458011387</v>
+        <v>756.213447350363</v>
       </c>
       <c r="E66" t="n">
-        <v>9.994890420284918</v>
+        <v>9.994890440761051</v>
       </c>
     </row>
     <row r="67">
@@ -63183,16 +63185,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.006128659943103827</v>
+        <v>0.006128660322243943</v>
       </c>
       <c r="C67" t="n">
         <v>35.84000015258789</v>
       </c>
       <c r="D67" t="n">
-        <v>739.1718535108066</v>
+        <v>739.1718992385358</v>
       </c>
       <c r="E67" t="n">
-        <v>20.62421457488285</v>
+        <v>20.62421585076814</v>
       </c>
     </row>
     <row r="68">
@@ -63202,16 +63204,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.005948187358634744</v>
+        <v>0.005948187370820559</v>
       </c>
       <c r="C68" t="n">
         <v>13.1899995803833</v>
       </c>
       <c r="D68" t="n">
-        <v>717.4052265469458</v>
+        <v>717.4052280166653</v>
       </c>
       <c r="E68" t="n">
-        <v>54.39008713949466</v>
+        <v>54.39008725092147</v>
       </c>
     </row>
     <row r="69">
@@ -63221,16 +63223,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.00567632889311757</v>
+        <v>0.005676328904746439</v>
       </c>
       <c r="C69" t="n">
         <v>246.8099975585938</v>
       </c>
       <c r="D69" t="n">
-        <v>684.6166352864617</v>
+        <v>684.6166366890085</v>
       </c>
       <c r="E69" t="n">
-        <v>2.773861035041463</v>
+        <v>2.773861040724161</v>
       </c>
     </row>
     <row r="70">
@@ -63240,16 +63242,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.005013925246877546</v>
+        <v>0.005013925257149375</v>
       </c>
       <c r="C70" t="n">
         <v>220.6100006103516</v>
       </c>
       <c r="D70" t="n">
-        <v>604.7247607969163</v>
+        <v>604.7247620357917</v>
       </c>
       <c r="E70" t="n">
-        <v>2.741148448047922</v>
+        <v>2.741148453663603</v>
       </c>
     </row>
     <row r="71">
@@ -63259,16 +63261,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.004851347695440045</v>
+        <v>0.004851347705378807</v>
       </c>
       <c r="C71" t="n">
         <v>58.45999908447266</v>
       </c>
       <c r="D71" t="n">
-        <v>585.1164367667132</v>
+        <v>585.1164379654178</v>
       </c>
       <c r="E71" t="n">
-        <v>10.00883417601906</v>
+        <v>10.00883419652376</v>
       </c>
     </row>
     <row r="72">
@@ -63278,16 +63280,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.004677527321713367</v>
+        <v>0.004677527331296031</v>
       </c>
       <c r="C72" t="n">
         <v>253.0800018310547</v>
       </c>
       <c r="D72" t="n">
-        <v>564.1521266208936</v>
+        <v>564.1521277766496</v>
       </c>
       <c r="E72" t="n">
-        <v>2.229145418599678</v>
+        <v>2.229145423166439</v>
       </c>
     </row>
     <row r="73">
@@ -63297,16 +63299,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.00440046709902254</v>
+        <v>0.004400467108037601</v>
       </c>
       <c r="C73" t="n">
         <v>8.479999542236328</v>
       </c>
       <c r="D73" t="n">
-        <v>530.7361563693645</v>
+        <v>530.7361574566625</v>
       </c>
       <c r="E73" t="n">
-        <v>62.58681427114792</v>
+        <v>62.58681439936703</v>
       </c>
     </row>
     <row r="74">
@@ -63316,16 +63318,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.004302882833716741</v>
+        <v>0.004302882842531885</v>
       </c>
       <c r="C74" t="n">
         <v>95.31000518798828</v>
       </c>
       <c r="D74" t="n">
-        <v>518.9666108358841</v>
+        <v>518.9666118990704</v>
       </c>
       <c r="E74" t="n">
-        <v>5.445038113388838</v>
+        <v>5.445038124543871</v>
       </c>
     </row>
     <row r="75">
@@ -63335,16 +63337,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.00401066410533817</v>
+        <v>0.004010664113554658</v>
       </c>
       <c r="C75" t="n">
         <v>87.80000305175781</v>
       </c>
       <c r="D75" t="n">
-        <v>483.7223876139366</v>
+        <v>483.7223886049194</v>
       </c>
       <c r="E75" t="n">
-        <v>5.509366410030577</v>
+        <v>5.509366421317396</v>
       </c>
     </row>
     <row r="76">
@@ -63354,16 +63356,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.00396597774656527</v>
+        <v>0.00396597775469021</v>
       </c>
       <c r="C76" t="n">
         <v>1403.079956054688</v>
       </c>
       <c r="D76" t="n">
-        <v>478.3328083343779</v>
+        <v>478.3328093143193</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3409162865382235</v>
+        <v>0.3409162872366452</v>
       </c>
     </row>
     <row r="77">
@@ -63373,16 +63375,16 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.003949707973142516</v>
+        <v>0.003949707981234125</v>
       </c>
       <c r="C77" t="n">
         <v>115.1399993896484</v>
       </c>
       <c r="D77" t="n">
-        <v>476.3705264181443</v>
+        <v>476.3705273940657</v>
       </c>
       <c r="E77" t="n">
-        <v>4.137315693445904</v>
+        <v>4.137315701921858</v>
       </c>
     </row>
     <row r="78">
@@ -63392,16 +63394,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.003700624419016808</v>
+        <v>0.003700623726672193</v>
       </c>
       <c r="C78" t="n">
         <v>232.3600006103516</v>
       </c>
       <c r="D78" t="n">
-        <v>446.3287955844191</v>
+        <v>446.3287120813929</v>
       </c>
       <c r="E78" t="n">
-        <v>1.920850380495891</v>
+        <v>1.920850021126696</v>
       </c>
     </row>
     <row r="79">
@@ -63411,16 +63413,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.003539315288208831</v>
+        <v>0.003539315295459686</v>
       </c>
       <c r="C79" t="n">
         <v>437.1499938964844</v>
       </c>
       <c r="D79" t="n">
-        <v>426.8734545613434</v>
+        <v>426.873455435862</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9764919604743847</v>
+        <v>0.976491962474885</v>
       </c>
     </row>
     <row r="80">
@@ -63430,16 +63432,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.003197134128528226</v>
+        <v>0.003197133037746521</v>
       </c>
       <c r="C80" t="n">
         <v>125.0199966430664</v>
       </c>
       <c r="D80" t="n">
-        <v>385.6033099643672</v>
+        <v>385.603178406222</v>
       </c>
       <c r="E80" t="n">
-        <v>3.084333069255067</v>
+        <v>3.084332016958245</v>
       </c>
     </row>
     <row r="81">
@@ -63449,16 +63451,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.003137348707331735</v>
+        <v>0.003137348713759096</v>
       </c>
       <c r="C81" t="n">
         <v>62.81000137329102</v>
       </c>
       <c r="D81" t="n">
-        <v>378.3926471100086</v>
+        <v>378.3926478852065</v>
       </c>
       <c r="E81" t="n">
-        <v>6.024401191478308</v>
+        <v>6.024401203820259</v>
       </c>
     </row>
     <row r="82">
@@ -63468,16 +63470,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.00310401705063316</v>
+        <v>0.003104017056992237</v>
       </c>
       <c r="C82" t="n">
         <v>104.75</v>
       </c>
       <c r="D82" t="n">
-        <v>374.3725476606674</v>
+        <v>374.3725484276295</v>
       </c>
       <c r="E82" t="n">
-        <v>3.57396226883692</v>
+        <v>3.573962276158754</v>
       </c>
     </row>
     <row r="83">
@@ -63487,16 +63489,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.002967751410400244</v>
+        <v>0.002967751416480158</v>
       </c>
       <c r="C83" t="n">
         <v>58.70999908447266</v>
       </c>
       <c r="D83" t="n">
-        <v>357.9376782445335</v>
+        <v>357.9376789778262</v>
       </c>
       <c r="E83" t="n">
-        <v>6.096707270077257</v>
+        <v>6.096707282567338</v>
       </c>
     </row>
     <row r="84">
@@ -63506,16 +63508,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.002230102741631852</v>
+        <v>0.002230102814839183</v>
       </c>
       <c r="C84" t="n">
         <v>226.0099945068359</v>
       </c>
       <c r="D84" t="n">
-        <v>268.9705730706132</v>
+        <v>268.9705819000798</v>
       </c>
       <c r="E84" t="n">
-        <v>1.190082649475388</v>
+        <v>1.190082688542097</v>
       </c>
     </row>
     <row r="85">
@@ -63525,16 +63527,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.002071117476015516</v>
+        <v>0.002071117480258533</v>
       </c>
       <c r="C85" t="n">
         <v>167.5800018310547</v>
       </c>
       <c r="D85" t="n">
-        <v>249.7955112206292</v>
+        <v>249.7955117323754</v>
       </c>
       <c r="E85" t="n">
-        <v>1.490604538078833</v>
+        <v>1.490604541132575</v>
       </c>
     </row>
     <row r="86">
@@ -63544,16 +63546,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.002010450198900093</v>
+        <v>0.002010450203018823</v>
       </c>
       <c r="C86" t="n">
         <v>689.9299926757812</v>
       </c>
       <c r="D86" t="n">
-        <v>242.4784885616513</v>
+        <v>242.4784890584074</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3514537578243815</v>
+        <v>0.3514537585443909</v>
       </c>
     </row>
     <row r="87">
@@ -63563,16 +63565,16 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.002005128649463596</v>
+        <v>0.002005128026231057</v>
       </c>
       <c r="C87" t="n">
         <v>24.79000091552734</v>
       </c>
       <c r="D87" t="n">
-        <v>241.8366615395874</v>
+        <v>241.8365863721029</v>
       </c>
       <c r="E87" t="n">
-        <v>9.755411561445799</v>
+        <v>9.755408529276306</v>
       </c>
     </row>
     <row r="88">
@@ -63582,16 +63584,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.001562983345276814</v>
+        <v>0.001562983348478835</v>
       </c>
       <c r="C88" t="n">
         <v>214.3000030517578</v>
       </c>
       <c r="D88" t="n">
-        <v>188.5099364396585</v>
+        <v>188.5099368258513</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8796543805654052</v>
+        <v>0.8796543823675183</v>
       </c>
     </row>
     <row r="89">
@@ -63601,16 +63603,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.00152608101453267</v>
+        <v>0.001526081017659092</v>
       </c>
       <c r="C89" t="n">
         <v>148.2599945068359</v>
       </c>
       <c r="D89" t="n">
-        <v>184.0591813858216</v>
+        <v>184.0591817628963</v>
       </c>
       <c r="E89" t="n">
-        <v>1.241462216412904</v>
+        <v>1.241462218956239</v>
       </c>
     </row>
     <row r="90">
@@ -63620,16 +63622,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.001228602245741847</v>
+        <v>0.001228602237105806</v>
       </c>
       <c r="C90" t="n">
         <v>162.8099975585938</v>
       </c>
       <c r="D90" t="n">
-        <v>148.1805496867907</v>
+        <v>148.180548645206</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9101440446460419</v>
+        <v>0.9101440382484941</v>
       </c>
     </row>
     <row r="91">
@@ -63639,16 +63641,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.0009190138717998159</v>
+        <v>0.0009190141464858928</v>
       </c>
       <c r="C91" t="n">
         <v>36.93999862670898</v>
       </c>
       <c r="D91" t="n">
-        <v>110.8413900145976</v>
+        <v>110.8414231442244</v>
       </c>
       <c r="E91" t="n">
-        <v>3.00057915904889</v>
+        <v>3.000580055898592</v>
       </c>
     </row>
     <row r="92">
@@ -63658,16 +63660,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.0008583450079519348</v>
+        <v>0.0008583450097103922</v>
       </c>
       <c r="C92" t="n">
         <v>167.5500030517578</v>
       </c>
       <c r="D92" t="n">
-        <v>103.5241759813253</v>
+        <v>103.5241761934112</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6178703318157845</v>
+        <v>0.6178703330815909</v>
       </c>
     </row>
     <row r="93">
@@ -63677,16 +63679,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.0008163226569887637</v>
+        <v>0.0008163224385883841</v>
       </c>
       <c r="C93" t="n">
         <v>25.05999946594238</v>
       </c>
       <c r="D93" t="n">
-        <v>98.45590015289065</v>
+        <v>98.45587381182835</v>
       </c>
       <c r="E93" t="n">
-        <v>3.928806953355943</v>
+        <v>3.928805902236116</v>
       </c>
     </row>
     <row r="94">
@@ -63696,16 +63698,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.0005592604311725339</v>
+        <v>0.0005592604323182684</v>
       </c>
       <c r="C94" t="n">
         <v>74.15000152587891</v>
       </c>
       <c r="D94" t="n">
-        <v>67.4518693063097</v>
+        <v>67.45186944449566</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9096678073940228</v>
+        <v>0.9096678092576228</v>
       </c>
     </row>
     <row r="95">
@@ -63715,16 +63717,16 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.0004714927949849724</v>
+        <v>0.0004714927959509009</v>
       </c>
       <c r="C95" t="n">
         <v>137.1300048828125</v>
       </c>
       <c r="D95" t="n">
-        <v>56.86629808498228</v>
+        <v>56.866298201482</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4146889525277757</v>
+        <v>0.4146889533773325</v>
       </c>
     </row>
     <row r="96">
@@ -63734,16 +63736,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.0003412754527116809</v>
+        <v>0.0003412754534108383</v>
       </c>
       <c r="C96" t="n">
         <v>173.9799957275391</v>
       </c>
       <c r="D96" t="n">
-        <v>41.16090813987576</v>
+        <v>41.16090822420047</v>
       </c>
       <c r="E96" t="n">
-        <v>0.2365841427214178</v>
+        <v>0.2365841432060983</v>
       </c>
     </row>
     <row r="97">
@@ -63753,16 +63755,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.0001485289727879371</v>
+        <v>0.0001485289730922225</v>
       </c>
       <c r="C97" t="n">
         <v>36.38000106811523</v>
       </c>
       <c r="D97" t="n">
-        <v>17.91393830542895</v>
+        <v>17.91393834212852</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4924117036689529</v>
+        <v>0.4924117046777371</v>
       </c>
     </row>
     <row r="98">
@@ -63772,16 +63774,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.0001301832973620812</v>
+        <v>0.0001301832976287825</v>
       </c>
       <c r="C98" t="n">
         <v>181.7599945068359</v>
       </c>
       <c r="D98" t="n">
-        <v>15.70128382070811</v>
+        <v>15.70128385287471</v>
       </c>
       <c r="E98" t="n">
-        <v>0.08638470672993773</v>
+        <v>0.08638470690691065</v>
       </c>
     </row>
     <row r="99">
@@ -63791,16 +63793,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.0001276352209686485</v>
+        <v>0.00012763521101152</v>
       </c>
       <c r="C99" t="n">
         <v>1022.650024414062</v>
       </c>
       <c r="D99" t="n">
-        <v>15.39396274756878</v>
+        <v>15.39396154664896</v>
       </c>
       <c r="E99" t="n">
-        <v>0.01505301166582851</v>
+        <v>0.0150530104915111</v>
       </c>
     </row>
   </sheetData>
@@ -63866,7 +63868,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.25409237355677</v>
+        <v>14.25409240275856</v>
       </c>
       <c r="C2" t="n">
         <v>361.9400024414062</v>
@@ -63875,13 +63877,13 @@
         <v>365</v>
       </c>
       <c r="E2" t="n">
-        <v>5202.74371634822</v>
+        <v>5202.743727006875</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>43.61748786305361</v>
+        <v>43.61748795241147</v>
       </c>
     </row>
     <row r="3">
@@ -63891,7 +63893,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.87352975089532</v>
+        <v>12.87352977726881</v>
       </c>
       <c r="C3" t="n">
         <v>375.75</v>
@@ -63900,13 +63902,13 @@
         <v>370.1000061035156</v>
       </c>
       <c r="E3" t="n">
-        <v>4764.493439380147</v>
+        <v>4764.493449140976</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-72.73536451876862</v>
+        <v>-72.73536466777841</v>
       </c>
     </row>
     <row r="4">
@@ -63916,7 +63918,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.40053446759607</v>
+        <v>20.40053450938983</v>
       </c>
       <c r="C4" t="n">
         <v>205.3699951171875</v>
@@ -63925,13 +63927,13 @@
         <v>206.1799926757812</v>
       </c>
       <c r="E4" t="n">
-        <v>4206.18204711098</v>
+        <v>4206.182055728018</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>16.52438311276092</v>
+        <v>16.52438314661322</v>
       </c>
     </row>
     <row r="5">
@@ -63941,7 +63943,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.88686548641295</v>
+        <v>38.88686556607892</v>
       </c>
       <c r="C5" t="n">
         <v>86.30000305175781</v>
@@ -63950,13 +63952,13 @@
         <v>84.73999786376953</v>
       </c>
       <c r="E5" t="n">
-        <v>3295.272898247327</v>
+        <v>3295.272904998221</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-60.66371190340624</v>
+        <v>-60.66371202768596</v>
       </c>
     </row>
     <row r="6">
@@ -63966,7 +63968,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.04809392486958</v>
+        <v>83.04809899399416</v>
       </c>
       <c r="C6" t="n">
         <v>39.70999908447266</v>
@@ -63975,13 +63977,13 @@
         <v>38.65000152587891</v>
       </c>
       <c r="E6" t="n">
-        <v>3209.808956917544</v>
+        <v>3209.809152839216</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-88.03077680622619</v>
+        <v>-88.03078217948632</v>
       </c>
     </row>
     <row r="7">
@@ -63991,7 +63993,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.345849380163925</v>
+        <v>5.345849391115753</v>
       </c>
       <c r="C7" t="n">
         <v>554.030029296875</v>
@@ -64000,13 +64002,13 @@
         <v>552.0499877929688</v>
       </c>
       <c r="E7" t="n">
-        <v>2951.176085062544</v>
+        <v>2951.176091108501</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.5850036463562</v>
+        <v>-10.58500366804128</v>
       </c>
     </row>
     <row r="8">
@@ -64016,7 +64018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.45661151955984</v>
+        <v>11.45661384996353</v>
       </c>
       <c r="C8" t="n">
         <v>258.4100036621094</v>
@@ -64025,13 +64027,13 @@
         <v>257.010009765625</v>
       </c>
       <c r="E8" t="n">
-        <v>2944.463838523047</v>
+        <v>2944.46443746012</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-16.03918620177637</v>
+        <v>-16.03918946432759</v>
       </c>
     </row>
     <row r="9">
@@ -64041,7 +64043,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.94590522992307</v>
+        <v>17.94590526668813</v>
       </c>
       <c r="C9" t="n">
         <v>157.8300018310547</v>
@@ -64050,13 +64052,13 @@
         <v>162.4499969482422</v>
       </c>
       <c r="E9" t="n">
-        <v>2915.312249834446</v>
+        <v>2915.312255806929</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>82.90999453575387</v>
+        <v>82.90999470560882</v>
       </c>
     </row>
     <row r="10">
@@ -64066,7 +64068,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.71254201956449</v>
+        <v>26.71254207428942</v>
       </c>
       <c r="C10" t="n">
         <v>104.1500015258789</v>
@@ -64075,13 +64077,13 @@
         <v>104.1699981689453</v>
       </c>
       <c r="E10" t="n">
-        <v>2782.645453265908</v>
+        <v>2782.645458966603</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5341611681615177</v>
+        <v>0.5341611692560946</v>
       </c>
     </row>
     <row r="11">
@@ -64091,7 +64093,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.176652472904189</v>
+        <v>3.17665247941207</v>
       </c>
       <c r="C11" t="n">
         <v>842.0900268554688</v>
@@ -64100,13 +64102,13 @@
         <v>855.22998046875</v>
       </c>
       <c r="E11" t="n">
-        <v>2716.768432357856</v>
+        <v>2716.768437923591</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>41.74106613947606</v>
+        <v>41.74106622498948</v>
       </c>
     </row>
     <row r="12">
@@ -64116,7 +64118,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.339883302022716</v>
+        <v>4.339883310913661</v>
       </c>
       <c r="C12" t="n">
         <v>549.510009765625</v>
@@ -64125,13 +64127,13 @@
         <v>546.7100219726562</v>
       </c>
       <c r="E12" t="n">
-        <v>2372.657695407603</v>
+        <v>2372.657700268372</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-12.15162026857251</v>
+        <v>-12.15162029346675</v>
       </c>
     </row>
     <row r="13">
@@ -64141,7 +64143,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.525391127791</v>
+        <v>16.52539116164591</v>
       </c>
       <c r="C13" t="n">
         <v>138.4199981689453</v>
@@ -64150,13 +64152,13 @@
         <v>142.2299957275391</v>
       </c>
       <c r="E13" t="n">
-        <v>2350.406309501625</v>
+        <v>2350.406314316809</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>62.96169985169035</v>
+        <v>62.96169998067762</v>
       </c>
     </row>
     <row r="14">
@@ -64166,7 +64168,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.12451170215722</v>
+        <v>29.12451176182345</v>
       </c>
       <c r="C14" t="n">
         <v>78</v>
@@ -64175,13 +64177,13 @@
         <v>79</v>
       </c>
       <c r="E14" t="n">
-        <v>2300.836424470421</v>
+        <v>2300.836429184053</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>29.12451170215718</v>
+        <v>29.12451176182321</v>
       </c>
     </row>
     <row r="15">
@@ -64191,7 +64193,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.51529894274018</v>
+        <v>34.51527187617858</v>
       </c>
       <c r="C15" t="n">
         <v>65.37999725341797</v>
@@ -64200,13 +64202,13 @@
         <v>64.87999725341797</v>
       </c>
       <c r="E15" t="n">
-        <v>2239.352500605883</v>
+        <v>2239.350744527441</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-17.25764947136986</v>
+        <v>-17.25763593808915</v>
       </c>
     </row>
     <row r="16">
@@ -64216,7 +64218,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.81556992520088</v>
+        <v>4.815569450710028</v>
       </c>
       <c r="C16" t="n">
         <v>462.6099853515625</v>
@@ -64225,13 +64227,13 @@
         <v>455.9800109863281</v>
       </c>
       <c r="E16" t="n">
-        <v>2195.803627398529</v>
+        <v>2195.803411040185</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-31.92710515807585</v>
+        <v>-31.92710201221325</v>
       </c>
     </row>
     <row r="17">
@@ -64241,7 +64243,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>30.94921581184756</v>
+        <v>30.94921587525198</v>
       </c>
       <c r="C17" t="n">
         <v>71.43000030517578</v>
@@ -64250,13 +64252,13 @@
         <v>71.25</v>
       </c>
       <c r="E17" t="n">
-        <v>2205.131626594139</v>
+        <v>2205.131631111704</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.570868291083571</v>
+        <v>-5.570868302496365</v>
       </c>
     </row>
     <row r="18">
@@ -64266,7 +64268,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.518047848913146</v>
+        <v>4.51804918217072</v>
       </c>
       <c r="C18" t="n">
         <v>472.6499938964844</v>
@@ -64275,13 +64277,13 @@
         <v>477.1000061035156</v>
       </c>
       <c r="E18" t="n">
-        <v>2155.560656292438</v>
+        <v>2155.561292389634</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>20.10536807961489</v>
+        <v>20.10537401262718</v>
       </c>
     </row>
     <row r="19">
@@ -64291,7 +64293,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17.40811999666978</v>
+        <v>17.4081200323331</v>
       </c>
       <c r="C19" t="n">
         <v>118.7200012207031</v>
@@ -64300,13 +64302,13 @@
         <v>116.379997253418</v>
       </c>
       <c r="E19" t="n">
-        <v>2025.956957399599</v>
+        <v>2025.956961550096</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-40.73506985518338</v>
+        <v>-40.73506993863566</v>
       </c>
     </row>
     <row r="20">
@@ -64316,7 +64318,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.410788446530562</v>
+        <v>2.410788451469448</v>
       </c>
       <c r="C20" t="n">
         <v>831.9500122070312</v>
@@ -64325,13 +64327,13 @@
         <v>820.969970703125</v>
       </c>
       <c r="E20" t="n">
-        <v>1979.184920319627</v>
+        <v>1979.184924374305</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-26.47055720004323</v>
+        <v>-26.47055725427253</v>
       </c>
     </row>
     <row r="21">
@@ -64341,7 +64343,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29.79566711348136</v>
+        <v>29.79566717452257</v>
       </c>
       <c r="C21" t="n">
         <v>65.87999725341797</v>
@@ -64350,13 +64352,13 @@
         <v>65.12999725341797</v>
       </c>
       <c r="E21" t="n">
-        <v>1940.591717264797</v>
+        <v>1940.591721240411</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-22.34675033511098</v>
+        <v>-22.34675038089199</v>
       </c>
     </row>
     <row r="22">
@@ -64366,7 +64368,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.124649658687917</v>
+        <v>5.124649669186583</v>
       </c>
       <c r="C22" t="n">
         <v>379.3999938964844</v>
@@ -64375,13 +64377,13 @@
         <v>377.9800109863281</v>
       </c>
       <c r="E22" t="n">
-        <v>1937.015134291942</v>
+        <v>1937.015138260228</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.276914935874856</v>
+        <v>-7.276914950782839</v>
       </c>
     </row>
     <row r="23">
@@ -64391,7 +64393,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.762961933290418</v>
+        <v>7.7629625661392</v>
       </c>
       <c r="C23" t="n">
         <v>246.8300018310547</v>
@@ -64400,13 +64402,13 @@
         <v>241.9499969482422</v>
       </c>
       <c r="E23" t="n">
-        <v>1878.248616068937</v>
+        <v>1878.248769186698</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-37.88329213954489</v>
+        <v>-37.88329522784989</v>
       </c>
     </row>
     <row r="24">
@@ -64416,7 +64418,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.774964230736984</v>
+        <v>9.774964250762563</v>
       </c>
       <c r="C24" t="n">
         <v>195.9299926757812</v>
@@ -64425,13 +64427,13 @@
         <v>199.5800018310547</v>
       </c>
       <c r="E24" t="n">
-        <v>1950.887379068981</v>
+        <v>1950.887383065686</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>35.67870893466034</v>
+        <v>35.67870900775392</v>
       </c>
     </row>
     <row r="25">
@@ -64441,7 +64443,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.637069590085595</v>
+        <v>9.637064798561358</v>
       </c>
       <c r="C25" t="n">
         <v>193.8200073242188</v>
@@ -64450,13 +64452,13 @@
         <v>197.2700042724609</v>
       </c>
       <c r="E25" t="n">
-        <v>1901.104759210189</v>
+        <v>1901.103813986182</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>33.24786067579271</v>
+        <v>33.24784414504893</v>
       </c>
     </row>
     <row r="26">
@@ -64466,7 +64468,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.040587729520682</v>
+        <v>8.040587745993117</v>
       </c>
       <c r="C26" t="n">
         <v>225.0399932861328</v>
@@ -64475,13 +64477,13 @@
         <v>226.5</v>
       </c>
       <c r="E26" t="n">
-        <v>1821.193120736435</v>
+        <v>1821.193124467441</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>11.73931206853831</v>
+        <v>11.73931209258808</v>
       </c>
     </row>
     <row r="27">
@@ -64491,7 +64493,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.158632410623275</v>
+        <v>9.1586324293862</v>
       </c>
       <c r="C27" t="n">
         <v>185.0099945068359</v>
@@ -64500,13 +64502,13 @@
         <v>180.2599945068359</v>
       </c>
       <c r="E27" t="n">
-        <v>1650.935028029081</v>
+        <v>1650.935031411286</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-43.50350395046053</v>
+        <v>-43.50350403958441</v>
       </c>
     </row>
     <row r="28">
@@ -64516,7 +64518,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13.70686825221457</v>
+        <v>13.70686828029528</v>
       </c>
       <c r="C28" t="n">
         <v>121.3000030517578</v>
@@ -64525,13 +64527,13 @@
         <v>123.7200012207031</v>
       </c>
       <c r="E28" t="n">
-        <v>1695.813756896003</v>
+        <v>1695.813760370149</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>33.17059607233386</v>
+        <v>33.17059614028926</v>
       </c>
     </row>
     <row r="29">
@@ -64541,7 +64543,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16.75442642927894</v>
+        <v>16.75443021073112</v>
       </c>
       <c r="C29" t="n">
         <v>94.34000396728516</v>
@@ -64550,13 +64552,13 @@
         <v>94.19000244140625</v>
       </c>
       <c r="E29" t="n">
-        <v>1578.099466278145</v>
+        <v>1578.099822453135</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.513189529617648</v>
+        <v>-2.513190096841299</v>
       </c>
     </row>
     <row r="30">
@@ -64566,7 +64568,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.50121593820723</v>
+        <v>1.501215941282711</v>
       </c>
       <c r="C30" t="n">
         <v>1025.280029296875</v>
@@ -64575,13 +64577,13 @@
         <v>1021.700012207031</v>
       </c>
       <c r="E30" t="n">
-        <v>1533.792342391717</v>
+        <v>1533.792345533936</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.374378714327804</v>
+        <v>-5.37437872533792</v>
       </c>
     </row>
     <row r="31">
@@ -64591,7 +64593,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.20622101654647</v>
+        <v>16.20622104974752</v>
       </c>
       <c r="C31" t="n">
         <v>87.16999816894531</v>
@@ -64600,13 +64602,13 @@
         <v>87.62000274658203</v>
       </c>
       <c r="E31" t="n">
-        <v>1419.989129981517</v>
+        <v>1419.989132890593</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>7.292873643638359</v>
+        <v>7.292873658578856</v>
       </c>
     </row>
     <row r="32">
@@ -64616,7 +64618,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.053466189723002</v>
+        <v>9.053466208270478</v>
       </c>
       <c r="C32" t="n">
         <v>152.8000030517578</v>
@@ -64625,13 +64627,13 @@
         <v>152.6399993896484</v>
       </c>
       <c r="E32" t="n">
-        <v>1381.921073673522</v>
+        <v>1381.921076504609</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.448587745139093</v>
+        <v>-1.448587748106775</v>
       </c>
     </row>
     <row r="33">
@@ -64641,7 +64643,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.57330107301925</v>
+        <v>19.57330111311829</v>
       </c>
       <c r="C33" t="n">
         <v>70.51999664306641</v>
@@ -64650,13 +64652,13 @@
         <v>67.91000366210938</v>
       </c>
       <c r="E33" t="n">
-        <v>1329.222947548307</v>
+        <v>1329.222950271433</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-51.08617841473892</v>
+        <v>-51.08617851939721</v>
       </c>
     </row>
     <row r="34">
@@ -64666,7 +64668,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.289955520986045</v>
+        <v>2.289955735689421</v>
       </c>
       <c r="C34" t="n">
         <v>578.7100219726562</v>
@@ -64675,13 +64677,13 @@
         <v>567.1599731445312</v>
       </c>
       <c r="E34" t="n">
-        <v>1298.771111784616</v>
+        <v>1298.771233555778</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-26.44909808162333</v>
+        <v>-26.44910056145773</v>
       </c>
     </row>
     <row r="35">
@@ -64691,7 +64693,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.340441957115444</v>
+        <v>7.340441972153515</v>
       </c>
       <c r="C35" t="n">
         <v>179.0200042724609</v>
@@ -64700,13 +64702,13 @@
         <v>177.7799987792969</v>
       </c>
       <c r="E35" t="n">
-        <v>1304.983762175483</v>
+        <v>1304.983764848952</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-9.10218834907505</v>
+        <v>-9.10218836772242</v>
       </c>
     </row>
     <row r="36">
@@ -64716,7 +64718,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.537226343959468</v>
+        <v>7.537226659604961</v>
       </c>
       <c r="C36" t="n">
         <v>169.9700012207031</v>
@@ -64725,13 +64727,13 @@
         <v>167.4400024414062</v>
       </c>
       <c r="E36" t="n">
-        <v>1262.033197434005</v>
+        <v>1262.033250285687</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-19.0691734495017</v>
+        <v>-19.06917424808444</v>
       </c>
     </row>
     <row r="37">
@@ -64741,7 +64743,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.628656756721813</v>
+        <v>4.628656766204358</v>
       </c>
       <c r="C37" t="n">
         <v>264.6600036621094</v>
@@ -64750,13 +64752,13 @@
         <v>244.1600036621094</v>
       </c>
       <c r="E37" t="n">
-        <v>1130.132850671845</v>
+        <v>1130.132852987103</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-94.88746351279724</v>
+        <v>-94.88746370718923</v>
       </c>
     </row>
     <row r="38">
@@ -64766,7 +64768,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>26.18000476467122</v>
+        <v>26.1799973804303</v>
       </c>
       <c r="C38" t="n">
         <v>46.65000152587891</v>
@@ -64775,13 +64777,13 @@
         <v>46.81000137329102</v>
       </c>
       <c r="E38" t="n">
-        <v>1225.486058987025</v>
+        <v>1225.485713330697</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.188796767595704</v>
+        <v>4.188795586118204</v>
       </c>
     </row>
     <row r="39">
@@ -64791,7 +64793,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.724320277756227</v>
+        <v>4.724320287434755</v>
       </c>
       <c r="C39" t="n">
         <v>258.2099914550781</v>
@@ -64800,13 +64802,13 @@
         <v>261.3800048828125</v>
       </c>
       <c r="E39" t="n">
-        <v>1234.842857267893</v>
+        <v>1234.842859797666</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>14.97615871740504</v>
+        <v>14.97615874808594</v>
       </c>
     </row>
     <row r="40">
@@ -64816,7 +64818,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.900632219560078</v>
+        <v>3.900632227551148</v>
       </c>
       <c r="C40" t="n">
         <v>305.6900024414062</v>
@@ -64825,13 +64827,13 @@
         <v>297.1700134277344</v>
       </c>
       <c r="E40" t="n">
-        <v>1159.150929063322</v>
+        <v>1159.150931438028</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-33.23334365702635</v>
+        <v>-33.23334372511022</v>
       </c>
     </row>
     <row r="41">
@@ -64841,7 +64843,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>44.67436117721751</v>
+        <v>44.6743612687401</v>
       </c>
       <c r="C41" t="n">
         <v>26.34000015258789</v>
@@ -64850,13 +64852,13 @@
         <v>25.96999931335449</v>
       </c>
       <c r="E41" t="n">
-        <v>1160.193129096889</v>
+        <v>1160.193131473731</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-16.52955112778636</v>
+        <v>-16.52955116164981</v>
       </c>
     </row>
     <row r="42">
@@ -64866,7 +64868,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.488841402720415</v>
+        <v>3.488841409867865</v>
       </c>
       <c r="C42" t="n">
         <v>336.739990234375</v>
@@ -64875,13 +64877,13 @@
         <v>341.7099914550781</v>
       </c>
       <c r="E42" t="n">
-        <v>1192.171965911716</v>
+        <v>1192.171968354071</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>17.33954603036022</v>
+        <v>17.33954606588281</v>
       </c>
     </row>
     <row r="43">
@@ -64891,7 +64893,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.881510889585192</v>
+        <v>3.881510897537089</v>
       </c>
       <c r="C43" t="n">
         <v>285.7200012207031</v>
@@ -64900,13 +64902,13 @@
         <v>282.8900146484375</v>
       </c>
       <c r="E43" t="n">
-        <v>1098.040672412825</v>
+        <v>1098.040674662337</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-10.98462369762888</v>
+        <v>-10.98462372013273</v>
       </c>
     </row>
     <row r="44">
@@ -64916,7 +64918,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>17.92082388458552</v>
+        <v>17.9208239212992</v>
       </c>
       <c r="C44" t="n">
         <v>60.47999954223633</v>
@@ -64925,13 +64927,13 @@
         <v>58.88999938964844</v>
       </c>
       <c r="E44" t="n">
-        <v>1055.357307625238</v>
+        <v>1055.357309787307</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-28.49411271099166</v>
+        <v>-28.49411276936644</v>
       </c>
     </row>
     <row r="45">
@@ -64941,7 +64943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17.89962963391767</v>
+        <v>17.89962967058792</v>
       </c>
       <c r="C45" t="n">
         <v>59.90000152587891</v>
@@ -64950,13 +64952,13 @@
         <v>59.04000091552734</v>
       </c>
       <c r="E45" t="n">
-        <v>1056.794149974099</v>
+        <v>1056.794152139111</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-15.3936924102361</v>
+        <v>-15.3936924417726</v>
       </c>
     </row>
     <row r="46">
@@ -64966,7 +64968,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>45.01704365100399</v>
+        <v>45.01704374322861</v>
       </c>
       <c r="C46" t="n">
         <v>23.03000068664551</v>
@@ -64975,13 +64977,13 @@
         <v>22.73999977111816</v>
       </c>
       <c r="E46" t="n">
-        <v>1023.687562320247</v>
+        <v>1023.687564417435</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-13.05498387312548</v>
+        <v>-13.05498389987076</v>
       </c>
     </row>
     <row r="47">
@@ -64991,7 +64993,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3.12680331677271</v>
+        <v>3.126803323178467</v>
       </c>
       <c r="C47" t="n">
         <v>313.9700012207031</v>
@@ -65000,13 +65002,13 @@
         <v>309.739990234375</v>
       </c>
       <c r="E47" t="n">
-        <v>968.4960288019904</v>
+        <v>968.4960307861097</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>-13.22641238203585</v>
+        <v>-13.22641240913231</v>
       </c>
     </row>
     <row r="48">
@@ -65016,7 +65018,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3.516729402499513</v>
+        <v>3.516732150348124</v>
       </c>
       <c r="C48" t="n">
         <v>276.9800109863281</v>
@@ -65025,13 +65027,13 @@
         <v>285.6000061035156</v>
       </c>
       <c r="E48" t="n">
-        <v>1004.377938818274</v>
+        <v>1004.378723603854</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>30.31419027801542</v>
+        <v>30.31421396445717</v>
       </c>
     </row>
     <row r="49">
@@ -65041,7 +65043,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>90.19713226434236</v>
+        <v>90.19715474325116</v>
       </c>
       <c r="C49" t="n">
         <v>10.72000026702881</v>
@@ -65050,13 +65052,13 @@
         <v>10.65999984741211</v>
       </c>
       <c r="E49" t="n">
-        <v>961.5014161748994</v>
+        <v>961.5016558000638</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.411865784083375</v>
+        <v>-5.41186713282741</v>
       </c>
     </row>
     <row r="50">
@@ -65066,7 +65068,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3.357380822685595</v>
+        <v>3.357380829563727</v>
       </c>
       <c r="C50" t="n">
         <v>276.4100036621094</v>
@@ -65075,13 +65077,13 @@
         <v>285.0199890136719</v>
       </c>
       <c r="E50" t="n">
-        <v>956.9206451965608</v>
+        <v>956.9206471569661</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>28.90699970293974</v>
+        <v>28.90699976216047</v>
       </c>
     </row>
     <row r="51">
@@ -65091,7 +65093,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5.649446624304159</v>
+        <v>5.649446635877955</v>
       </c>
       <c r="C51" t="n">
         <v>164.0200042724609</v>
@@ -65100,13 +65102,13 @@
         <v>163.6399993896484</v>
       </c>
       <c r="E51" t="n">
-        <v>924.475442152984</v>
+        <v>924.47544404692</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.146817302424211</v>
+        <v>-2.1468173068223</v>
       </c>
     </row>
     <row r="52">
@@ -65116,7 +65118,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.719984310619318</v>
+        <v>1.719984314142981</v>
       </c>
       <c r="C52" t="n">
         <v>537.5499877929688</v>
@@ -65125,13 +65127,13 @@
         <v>529.780029296875</v>
       </c>
       <c r="E52" t="n">
-        <v>911.2133384700674</v>
+        <v>911.2133403368339</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-13.36420670744462</v>
+        <v>-13.36420673482326</v>
       </c>
     </row>
     <row r="53">
@@ -65141,7 +65143,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5.338626651524731</v>
+        <v>5.338626662461762</v>
       </c>
       <c r="C53" t="n">
         <v>173.1000061035156</v>
@@ -65150,13 +65152,13 @@
         <v>168.3200073242188</v>
       </c>
       <c r="E53" t="n">
-        <v>898.5976770859121</v>
+        <v>898.5976789268334</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>-25.51862887740992</v>
+        <v>-25.51862892968893</v>
       </c>
     </row>
     <row r="54">
@@ -65166,7 +65168,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>7.878563382565307</v>
+        <v>7.878563398705808</v>
       </c>
       <c r="C54" t="n">
         <v>117.2799987792969</v>
@@ -65175,13 +65177,13 @@
         <v>116.9800033569336</v>
       </c>
       <c r="E54" t="n">
-        <v>921.6343709403037</v>
+        <v>921.6343728284195</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.363532949568594</v>
+        <v>-2.36353295441063</v>
       </c>
     </row>
     <row r="55">
@@ -65191,7 +65193,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3.452692999202571</v>
+        <v>3.452692203707314</v>
       </c>
       <c r="C55" t="n">
         <v>267.5599975585938</v>
@@ -65200,13 +65202,13 @@
         <v>264.7300109863281</v>
       </c>
       <c r="E55" t="n">
-        <v>914.0314556113149</v>
+        <v>914.0312450198466</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>-9.771074825898836</v>
+        <v>-9.771072574657978</v>
       </c>
     </row>
     <row r="56">
@@ -65216,7 +65218,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4.037599692283337</v>
+        <v>4.037599700555007</v>
       </c>
       <c r="C56" t="n">
         <v>221.2100067138672</v>
@@ -65225,13 +65227,13 @@
         <v>220.4400024414062</v>
       </c>
       <c r="E56" t="n">
-        <v>890.0484860243598</v>
+        <v>890.0484878477669</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.108969013545106</v>
+        <v>-3.108969019914412</v>
       </c>
     </row>
     <row r="57">
@@ -65241,7 +65243,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>13.45088519841081</v>
+        <v>13.4508852259671</v>
       </c>
       <c r="C57" t="n">
         <v>64.83999633789062</v>
@@ -65250,13 +65252,13 @@
         <v>64.55000305175781</v>
       </c>
       <c r="E57" t="n">
-        <v>868.2546806062616</v>
+        <v>868.2546823850204</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.9006664000824</v>
+        <v>-3.900666408073562</v>
       </c>
     </row>
     <row r="58">
@@ -65266,7 +65268,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>9.371559446501625</v>
+        <v>9.371559465700766</v>
       </c>
       <c r="C58" t="n">
         <v>92.91999816894531</v>
@@ -65275,13 +65277,13 @@
         <v>92.86000061035156</v>
       </c>
       <c r="E58" t="n">
-        <v>870.2430159220868</v>
+        <v>870.2430177049191</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.5622706870062757</v>
+        <v>-0.5622706881582644</v>
       </c>
     </row>
     <row r="59">
@@ -65291,7 +65293,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.221514432336577</v>
+        <v>1.221514434839045</v>
       </c>
       <c r="C59" t="n">
         <v>693.5</v>
@@ -65300,13 +65302,13 @@
         <v>704.3099975585938</v>
       </c>
       <c r="E59" t="n">
-        <v>860.3248268567614</v>
+        <v>860.3248286192746</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>13.2045680313455</v>
+        <v>13.20456805839706</v>
       </c>
     </row>
     <row r="60">
@@ -65316,7 +65318,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.4775150627970913</v>
+        <v>0.4775150637753575</v>
       </c>
       <c r="C60" t="n">
         <v>1741.369995117188</v>
@@ -65325,13 +65327,13 @@
         <v>1760.25</v>
       </c>
       <c r="E60" t="n">
-        <v>840.54588928858</v>
+        <v>840.545891010573</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>9.015486717225599</v>
+        <v>9.015486735695276</v>
       </c>
     </row>
     <row r="61">
@@ -65341,7 +65343,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4.312867764376054</v>
+        <v>4.312868901750578</v>
       </c>
       <c r="C61" t="n">
         <v>183.1199951171875</v>
@@ -65350,13 +65352,13 @@
         <v>180.0500030517578</v>
       </c>
       <c r="E61" t="n">
-        <v>776.5318541377363</v>
+        <v>776.532058922023</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>-13.24046981588197</v>
+        <v>-13.24047330761266</v>
       </c>
     </row>
     <row r="62">
@@ -65366,7 +65368,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5.34353117597583</v>
+        <v>5.34353154966595</v>
       </c>
       <c r="C62" t="n">
         <v>147.7799987792969</v>
@@ -65375,13 +65377,13 @@
         <v>148.6699981689453</v>
       </c>
       <c r="E62" t="n">
-        <v>794.4227701480288</v>
+        <v>794.4228257045382</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>4.755739485185813</v>
+        <v>4.755739817769836</v>
       </c>
     </row>
     <row r="63">
@@ -65391,7 +65393,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>27.93787084652407</v>
+        <v>27.93786999349812</v>
       </c>
       <c r="C63" t="n">
         <v>27.29999923706055</v>
@@ -65400,13 +65402,13 @@
         <v>26.6200008392334</v>
       </c>
       <c r="E63" t="n">
-        <v>743.706145380865</v>
+        <v>743.7061226733135</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>-18.99770741433815</v>
+        <v>-18.99770683428187</v>
       </c>
     </row>
     <row r="64">
@@ -65416,7 +65418,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5.172856438704554</v>
+        <v>5.17285644930198</v>
       </c>
       <c r="C64" t="n">
         <v>146.8200073242188</v>
@@ -65425,13 +65427,13 @@
         <v>144.5200042724609</v>
       </c>
       <c r="E64" t="n">
-        <v>747.5812346224092</v>
+        <v>747.5812361539492</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>-11.89758559532561</v>
+        <v>-11.89758561969961</v>
       </c>
     </row>
     <row r="65">
@@ -65441,7 +65443,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2.785463961451984</v>
+        <v>2.785464529848521</v>
       </c>
       <c r="C65" t="n">
         <v>272.4100036621094</v>
@@ -65450,13 +65452,13 @@
         <v>267.4599914550781</v>
       </c>
       <c r="E65" t="n">
-        <v>745.0001673283758</v>
+        <v>745.0003193517086</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>-13.78808061143286</v>
+        <v>-13.78808342500281</v>
       </c>
     </row>
     <row r="66">
@@ -65466,7 +65468,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9.994890420284918</v>
+        <v>9.994890440761051</v>
       </c>
       <c r="C66" t="n">
         <v>75.66000366210938</v>
@@ -65475,13 +65477,13 @@
         <v>76.19000244140625</v>
       </c>
       <c r="E66" t="n">
-        <v>761.5107255230959</v>
+        <v>761.5107270831725</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>5.297279721957011</v>
+        <v>5.297279732809443</v>
       </c>
     </row>
     <row r="67">
@@ -65491,7 +65493,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>20.62421457488285</v>
+        <v>20.62421585076814</v>
       </c>
       <c r="C67" t="n">
         <v>35.84000015258789</v>
@@ -65500,13 +65502,13 @@
         <v>35.06999969482422</v>
       </c>
       <c r="E67" t="n">
-        <v>723.2911988471305</v>
+        <v>723.2912435924276</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>-15.88065466367607</v>
+        <v>-15.88065564610827</v>
       </c>
     </row>
     <row r="68">
@@ -65516,7 +65518,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>54.39008713949466</v>
+        <v>54.39008725092147</v>
       </c>
       <c r="C68" t="n">
         <v>13.1899995803833</v>
@@ -65525,13 +65527,13 @@
         <v>12.88000011444092</v>
       </c>
       <c r="E68" t="n">
-        <v>700.5443285811427</v>
+        <v>700.54433001632</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>-16.86089796580302</v>
+        <v>-16.86089800034529</v>
       </c>
     </row>
     <row r="69">
@@ -65541,7 +65543,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2.773861035041463</v>
+        <v>2.773861040724161</v>
       </c>
       <c r="C69" t="n">
         <v>246.8099975585938</v>
@@ -65550,13 +65552,13 @@
         <v>240.5200042724609</v>
       </c>
       <c r="E69" t="n">
-        <v>667.1690679993856</v>
+        <v>667.1690693661882</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>-17.44756728707614</v>
+        <v>-17.4475673228203</v>
       </c>
     </row>
     <row r="70">
@@ -65566,7 +65568,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2.741148448047922</v>
+        <v>2.741148453663603</v>
       </c>
       <c r="C70" t="n">
         <v>220.6100006103516</v>
@@ -65575,13 +65577,13 @@
         <v>216.1199951171875</v>
       </c>
       <c r="E70" t="n">
-        <v>592.4169892076029</v>
+        <v>592.4169904212639</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>-12.30777158931335</v>
+        <v>-12.30777161452784</v>
       </c>
     </row>
     <row r="71">
@@ -65591,7 +65593,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>10.00883417601906</v>
+        <v>10.00883419652376</v>
       </c>
       <c r="C71" t="n">
         <v>58.45999908447266</v>
@@ -65600,13 +65602,13 @@
         <v>58.06000137329102</v>
       </c>
       <c r="E71" t="n">
-        <v>581.1129260047089</v>
+        <v>581.1129271952118</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.003510762004225</v>
+        <v>-4.003510770206049</v>
       </c>
     </row>
     <row r="72">
@@ -65616,7 +65618,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2.229145418599678</v>
+        <v>2.229145423166439</v>
       </c>
       <c r="C72" t="n">
         <v>253.0800018310547</v>
@@ -65625,13 +65627,13 @@
         <v>253.5399932861328</v>
       </c>
       <c r="E72" t="n">
-        <v>565.177514465576</v>
+        <v>565.1775156234327</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1.025387844682427</v>
+        <v>1.025387846783019</v>
       </c>
     </row>
     <row r="73">
@@ -65641,7 +65643,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>62.58681427114792</v>
+        <v>62.58681439936703</v>
       </c>
       <c r="C73" t="n">
         <v>8.479999542236328</v>
@@ -65650,13 +65652,13 @@
         <v>8.449999809265137</v>
       </c>
       <c r="E73" t="n">
-        <v>528.8585686537125</v>
+        <v>528.8585697371639</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>-1.877587715651998</v>
+        <v>-1.877587719498592</v>
       </c>
     </row>
     <row r="74">
@@ -65666,7 +65668,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>5.445038113388838</v>
+        <v>5.445038124543871</v>
       </c>
       <c r="C74" t="n">
         <v>95.31000518798828</v>
@@ -65675,13 +65677,13 @@
         <v>93.97000122070312</v>
       </c>
       <c r="E74" t="n">
-        <v>511.6702381619241</v>
+        <v>511.6702392101627</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.296372673959979</v>
+        <v>-7.296372688907695</v>
       </c>
     </row>
     <row r="75">
@@ -65691,7 +65693,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5.509366410030577</v>
+        <v>5.509366421317396</v>
       </c>
       <c r="C75" t="n">
         <v>87.80000305175781</v>
@@ -65700,13 +65702,13 @@
         <v>87.08999633789062</v>
       </c>
       <c r="E75" t="n">
-        <v>479.8107004736605</v>
+        <v>479.8107014566296</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.911687140276115</v>
+        <v>-3.911687148289786</v>
       </c>
     </row>
     <row r="76">
@@ -65716,7 +65718,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.3409162865382235</v>
+        <v>0.3409162872366452</v>
       </c>
       <c r="C76" t="n">
         <v>1403.079956054688</v>
@@ -65725,13 +65727,13 @@
         <v>1388.9599609375</v>
       </c>
       <c r="E76" t="n">
-        <v>473.5190720330885</v>
+        <v>473.5190730031682</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.813736301289453</v>
+        <v>-4.81373631115116</v>
       </c>
     </row>
     <row r="77">
@@ -65741,7 +65743,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>4.137315693445904</v>
+        <v>4.137315701921858</v>
       </c>
       <c r="C77" t="n">
         <v>115.1399993896484</v>
@@ -65750,13 +65752,13 @@
         <v>117.6999969482422</v>
       </c>
       <c r="E77" t="n">
-        <v>486.9620444924975</v>
+        <v>486.9620454901172</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>10.59151807435313</v>
+        <v>10.59151809605157</v>
       </c>
     </row>
     <row r="78">
@@ -65766,7 +65768,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1.920850380495891</v>
+        <v>1.920850021126696</v>
       </c>
       <c r="C78" t="n">
         <v>232.3600006103516</v>
@@ -65775,13 +65777,13 @@
         <v>234</v>
       </c>
       <c r="E78" t="n">
-        <v>449.4789890360384</v>
+        <v>449.4789049436469</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>3.150193451619259</v>
+        <v>3.150192862253959</v>
       </c>
     </row>
     <row r="79">
@@ -65791,7 +65793,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.9764919604743847</v>
+        <v>0.976491962474885</v>
       </c>
       <c r="C79" t="n">
         <v>437.1499938964844</v>
@@ -65800,13 +65802,13 @@
         <v>434.0199890136719</v>
       </c>
       <c r="E79" t="n">
-        <v>423.8170299570314</v>
+        <v>423.8170308252885</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.056424604311985</v>
+        <v>-3.056424610573515</v>
       </c>
     </row>
     <row r="80">
@@ -65816,7 +65818,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3.084333069255067</v>
+        <v>3.084332016958245</v>
       </c>
       <c r="C80" t="n">
         <v>125.0199966430664</v>
@@ -65825,13 +65827,13 @@
         <v>124.0899963378906</v>
       </c>
       <c r="E80" t="n">
-        <v>382.7348792686963</v>
+        <v>382.7347486891874</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.868430695670952</v>
+        <v>-2.868429717034587</v>
       </c>
     </row>
     <row r="81">
@@ -65841,7 +65843,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6.024401191478308</v>
+        <v>6.024401203820259</v>
       </c>
       <c r="C81" t="n">
         <v>62.81000137329102</v>
@@ -65850,13 +65852,13 @@
         <v>61.88999938964844</v>
       </c>
       <c r="E81" t="n">
-        <v>372.8501860635898</v>
+        <v>372.8501868274332</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.542461046418794</v>
+        <v>-5.54246105777338</v>
       </c>
     </row>
     <row r="82">
@@ -65866,7 +65868,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3.57396226883692</v>
+        <v>3.573962276158754</v>
       </c>
       <c r="C82" t="n">
         <v>104.75</v>
@@ -65875,13 +65877,13 @@
         <v>103.6699981689453</v>
       </c>
       <c r="E82" t="n">
-        <v>370.5126618662031</v>
+        <v>370.5126626252577</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.859885794464276</v>
+        <v>-3.859885802371821</v>
       </c>
     </row>
     <row r="83">
@@ -65891,7 +65893,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>6.096707270077257</v>
+        <v>6.096707282567338</v>
       </c>
       <c r="C83" t="n">
         <v>58.70999908447266</v>
@@ -65900,13 +65902,13 @@
         <v>57.7599983215332</v>
       </c>
       <c r="E83" t="n">
-        <v>352.1458016865416</v>
+        <v>352.1458024079687</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.791876557991884</v>
+        <v>-5.791876569857493</v>
       </c>
     </row>
     <row r="84">
@@ -65916,7 +65918,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1.190082649475388</v>
+        <v>1.190082688542097</v>
       </c>
       <c r="C84" t="n">
         <v>226.0099945068359</v>
@@ -65925,13 +65927,13 @@
         <v>228.7100067138672</v>
       </c>
       <c r="E84" t="n">
-        <v>272.1838107515728</v>
+        <v>272.1838196865201</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>3.213237680959594</v>
+        <v>3.213237786440232</v>
       </c>
     </row>
     <row r="85">
@@ -65941,7 +65943,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1.490604538078833</v>
+        <v>1.490604541132575</v>
       </c>
       <c r="C85" t="n">
         <v>167.5800018310547</v>
@@ -65950,13 +65952,13 @@
         <v>165.3899993896484</v>
       </c>
       <c r="E85" t="n">
-        <v>246.5310836430654</v>
+        <v>246.5310841481238</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.264427577563879</v>
+        <v>-3.264427584251592</v>
       </c>
     </row>
     <row r="86">
@@ -65966,7 +65968,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.3514537578243815</v>
+        <v>0.3514537585443909</v>
       </c>
       <c r="C86" t="n">
         <v>689.9299926757812</v>
@@ -65975,13 +65977,13 @@
         <v>669</v>
       </c>
       <c r="E86" t="n">
-        <v>235.1225639845112</v>
+        <v>235.1225644661975</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.355924577140115</v>
+        <v>-7.355924592209902</v>
       </c>
     </row>
     <row r="87">
@@ -65991,7 +65993,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>9.755411561445799</v>
+        <v>9.755408529276306</v>
       </c>
       <c r="C87" t="n">
         <v>24.79000091552734</v>
@@ -66000,13 +66002,13 @@
         <v>24.3799991607666</v>
       </c>
       <c r="E87" t="n">
-        <v>237.8369256809814</v>
+        <v>237.8368517566917</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.999735858606016</v>
+        <v>-3.999734615411199</v>
       </c>
     </row>
     <row r="88">
@@ -66016,7 +66018,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.8796543805654052</v>
+        <v>0.8796543823675183</v>
       </c>
       <c r="C88" t="n">
         <v>214.3000030517578</v>
@@ -66025,13 +66027,13 @@
         <v>209.2100067138672</v>
       </c>
       <c r="E88" t="n">
-        <v>184.0324988639711</v>
+        <v>184.0324992409912</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.477437575687361</v>
+        <v>-4.477437584860098</v>
       </c>
     </row>
     <row r="89">
@@ -66041,7 +66043,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1.241462216412904</v>
+        <v>1.241462218956239</v>
       </c>
       <c r="C89" t="n">
         <v>148.2599945068359</v>
@@ -66050,13 +66052,13 @@
         <v>147.4600067138672</v>
       </c>
       <c r="E89" t="n">
-        <v>183.0660267672593</v>
+        <v>183.0660271422994</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.9931546185622722</v>
+        <v>-0.9931546205968971</v>
       </c>
     </row>
     <row r="90">
@@ -66066,7 +66068,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9101440446460419</v>
+        <v>0.9101440382484941</v>
       </c>
       <c r="C90" t="n">
         <v>162.8099975585938</v>
@@ -66075,13 +66077,13 @@
         <v>160.3000030517578</v>
       </c>
       <c r="E90" t="n">
-        <v>145.8960931342997</v>
+        <v>145.8960921087728</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.284456552491008</v>
+        <v>-2.284456536433197</v>
       </c>
     </row>
     <row r="91">
@@ -66091,7 +66093,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3.00057915904889</v>
+        <v>3.000580055898592</v>
       </c>
       <c r="C91" t="n">
         <v>36.93999862670898</v>
@@ -66100,13 +66102,13 @@
         <v>35.79999923706055</v>
       </c>
       <c r="E91" t="n">
-        <v>107.42073160469</v>
+        <v>107.4207637119087</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.420658409907546</v>
+        <v>-3.420659432315674</v>
       </c>
     </row>
     <row r="92">
@@ -66116,7 +66118,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.6178703318157845</v>
+        <v>0.6178703330815909</v>
       </c>
       <c r="C92" t="n">
         <v>167.5500030517578</v>
@@ -66125,13 +66127,13 @@
         <v>164.6799926757812</v>
       </c>
       <c r="E92" t="n">
-        <v>101.7508817180059</v>
+        <v>101.7508819264589</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.773294263319386</v>
+        <v>-1.773294266952249</v>
       </c>
     </row>
     <row r="93">
@@ -66141,7 +66143,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3.928806953355943</v>
+        <v>3.928805902236116</v>
       </c>
       <c r="C93" t="n">
         <v>25.05999946594238</v>
@@ -66150,13 +66152,13 @@
         <v>25.07999992370605</v>
       </c>
       <c r="E93" t="n">
-        <v>98.53447809042287</v>
+        <v>98.53445172833769</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.07857793753221642</v>
+        <v>0.07857791650933166</v>
       </c>
     </row>
     <row r="94">
@@ -66166,7 +66168,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.9096678073940228</v>
+        <v>0.9096678092576228</v>
       </c>
       <c r="C94" t="n">
         <v>74.15000152587891</v>
@@ -66175,13 +66177,13 @@
         <v>74.13999938964844</v>
       </c>
       <c r="E94" t="n">
-        <v>67.44277068497568</v>
+        <v>67.44277082314298</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.009098621334018731</v>
+        <v>-0.009098621352677583</v>
       </c>
     </row>
     <row r="95">
@@ -66191,7 +66193,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.4146889525277757</v>
+        <v>0.4146889533773325</v>
       </c>
       <c r="C95" t="n">
         <v>137.1300048828125</v>
@@ -66200,13 +66202,13 @@
         <v>132.6100006103516</v>
       </c>
       <c r="E95" t="n">
-        <v>54.99190224781439</v>
+        <v>54.99190236047411</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.874395837167896</v>
+        <v>-1.874395841007903</v>
       </c>
     </row>
     <row r="96">
@@ -66216,7 +66218,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.2365841427214178</v>
+        <v>0.2365841432060983</v>
       </c>
       <c r="C96" t="n">
         <v>173.9799957275391</v>
@@ -66225,13 +66227,13 @@
         <v>166.75</v>
       </c>
       <c r="E96" t="n">
-        <v>39.45040579879642</v>
+        <v>39.45040587961689</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.710502341079341</v>
+        <v>-1.710502344583581</v>
       </c>
     </row>
     <row r="97">
@@ -66241,7 +66243,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.4924117036689529</v>
+        <v>0.4924117046777371</v>
       </c>
       <c r="C97" t="n">
         <v>36.38000106811523</v>
@@ -66250,13 +66252,13 @@
         <v>37.08000183105469</v>
       </c>
       <c r="E97" t="n">
-        <v>18.25862687367753</v>
+        <v>18.25862691108325</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0.3446885682485821</v>
+        <v>0.3446885689547337</v>
       </c>
     </row>
     <row r="98">
@@ -66266,7 +66268,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.08638470672993773</v>
+        <v>0.08638470690691065</v>
       </c>
       <c r="C98" t="n">
         <v>181.7599945068359</v>
@@ -66275,13 +66277,13 @@
         <v>178.3999938964844</v>
       </c>
       <c r="E98" t="n">
-        <v>15.41103115337048</v>
+        <v>15.41103118494245</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2902526673376311</v>
+        <v>-0.2902526679322595</v>
       </c>
     </row>
     <row r="99">
@@ -66291,7 +66293,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.01505301166582851</v>
+        <v>0.0150530104915111</v>
       </c>
       <c r="C99" t="n">
         <v>1022.650024414062</v>
@@ -66300,13 +66302,1769 @@
         <v>957.469970703125</v>
       </c>
       <c r="E99" t="n">
-        <v>14.41280663867462</v>
+        <v>14.41280551430096</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.9811561088900707</v>
+        <v>-0.9811560323479984</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Allocation_Percent</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Target_Value</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Actual_Shares</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05223937577194276</v>
+      </c>
+      <c r="C2" t="n">
+        <v>365</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6272.802375912132</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.18575993400584</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.04332945632730951</v>
+      </c>
+      <c r="C3" t="n">
+        <v>279.1300048828125</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5202.916623343488</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18.63976115906219</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03405140754305536</v>
+      </c>
+      <c r="C4" t="n">
+        <v>38.65000152587891</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4088.826617525379</v>
+      </c>
+      <c r="E4" t="n">
+        <v>105.7911114127026</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CAH</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03298083686538308</v>
+      </c>
+      <c r="C5" t="n">
+        <v>206.1799926757812</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3960.274578163313</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19.20785099837916</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>VTR</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.02911199639429582</v>
+      </c>
+      <c r="C6" t="n">
+        <v>79</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3495.711758634074</v>
+      </c>
+      <c r="E6" t="n">
+        <v>44.24951593207688</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02855127857562827</v>
+      </c>
+      <c r="C7" t="n">
+        <v>84.73999786376953</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3428.38185636822</v>
+      </c>
+      <c r="E7" t="n">
+        <v>40.45765804572931</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02759128241895873</v>
+      </c>
+      <c r="C8" t="n">
+        <v>104.1699981689453</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3313.107389867847</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31.8048137477604</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02450405867148452</v>
+      </c>
+      <c r="C9" t="n">
+        <v>477.1000061035156</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2942.399582357452</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.167259578108335</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.02369540261971801</v>
+      </c>
+      <c r="C10" t="n">
+        <v>855.22998046875</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2845.29774054063</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.326938724693828</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02328582549658145</v>
+      </c>
+      <c r="C11" t="n">
+        <v>546.7100219726562</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2796.116518269783</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.114441670889345</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02153407975417171</v>
+      </c>
+      <c r="C12" t="n">
+        <v>142.2299957275391</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2585.770305425418</v>
+      </c>
+      <c r="E12" t="n">
+        <v>18.18020377627525</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EXPE</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.02108238797828242</v>
+      </c>
+      <c r="C13" t="n">
+        <v>244.1600036621094</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2531.532037775595</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10.36833224035726</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.02085558588090988</v>
+      </c>
+      <c r="C14" t="n">
+        <v>162.4499969482422</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2504.29808418719</v>
+      </c>
+      <c r="E14" t="n">
+        <v>15.4158087487381</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0195141964301319</v>
+      </c>
+      <c r="C15" t="n">
+        <v>64.87999725341797</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2343.2266546472</v>
+      </c>
+      <c r="E15" t="n">
+        <v>36.11631864740493</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.01881421944230643</v>
+      </c>
+      <c r="C16" t="n">
+        <v>197.2700042724609</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2259.174782904244</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11.45219614728638</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01851634741507885</v>
+      </c>
+      <c r="C17" t="n">
+        <v>370.1000061035156</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2223.406890725209</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.007584042307014</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.01839540567077314</v>
+      </c>
+      <c r="C18" t="n">
+        <v>177.7799987792969</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2208.88444190538</v>
+      </c>
+      <c r="E18" t="n">
+        <v>12.42481976078522</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01773481290388922</v>
+      </c>
+      <c r="C19" t="n">
+        <v>241.9499969482422</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2129.561750613855</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8.801660580592648</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01772822468559595</v>
+      </c>
+      <c r="C20" t="n">
+        <v>820.969970703125</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2128.770650208225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.592994538381259</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.01749506140393268</v>
+      </c>
+      <c r="C21" t="n">
+        <v>123.7200012207031</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2100.772858014499</v>
+      </c>
+      <c r="E21" t="n">
+        <v>16.98005849730754</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HPE</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01721788028896749</v>
+      </c>
+      <c r="C22" t="n">
+        <v>21.22999954223633</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2067.489490232653</v>
+      </c>
+      <c r="E22" t="n">
+        <v>97.3852819035373</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01668588909421459</v>
+      </c>
+      <c r="C23" t="n">
+        <v>552.0499877929688</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2003.609024949554</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.62939782493203</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01656575953584901</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1021.700012207031</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1989.184101833655</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.946935576066704</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01638937518057232</v>
+      </c>
+      <c r="C25" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1968.004212401522</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8.688760319653518</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AKAM</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01574144489311302</v>
+      </c>
+      <c r="C26" t="n">
+        <v>87.62000274658203</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1890.20200694747</v>
+      </c>
+      <c r="E26" t="n">
+        <v>21.57272252563591</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.01569140687595786</v>
+      </c>
+      <c r="C27" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1884.193539421611</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6.597316173511167</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01518497146139146</v>
+      </c>
+      <c r="C28" t="n">
+        <v>285.0199890136719</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1823.381762389537</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6.397382052744632</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CTRA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.01493180563761687</v>
+      </c>
+      <c r="C29" t="n">
+        <v>25.96999931335449</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1792.982103944041</v>
+      </c>
+      <c r="E29" t="n">
+        <v>69.04051410667692</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.01394112053907916</v>
+      </c>
+      <c r="C30" t="n">
+        <v>59.04000091552734</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1674.022569147575</v>
+      </c>
+      <c r="E30" t="n">
+        <v>28.35404036566185</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01360167670489576</v>
+      </c>
+      <c r="C31" t="n">
+        <v>377.9800109863281</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1633.262815454309</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.321029599402243</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01274617795764824</v>
+      </c>
+      <c r="C32" t="n">
+        <v>116.9800033569336</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1530.536194107383</v>
+      </c>
+      <c r="E32" t="n">
+        <v>13.08374209425654</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AIZ</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.01249624267321401</v>
+      </c>
+      <c r="C33" t="n">
+        <v>224.8300018310547</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1500.524452526325</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6.674040120561282</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.01221123271229188</v>
+      </c>
+      <c r="C34" t="n">
+        <v>94.19000244140625</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1466.30101218822</v>
+      </c>
+      <c r="E34" t="n">
+        <v>15.56748035016112</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.01146139283774543</v>
+      </c>
+      <c r="C35" t="n">
+        <v>455.9800109863281</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1376.261702240437</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.018250074742207</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.01143335730620356</v>
+      </c>
+      <c r="C36" t="n">
+        <v>152.6399993896484</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1372.895250282176</v>
+      </c>
+      <c r="E36" t="n">
+        <v>8.994334746933189</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.01132833575285893</v>
+      </c>
+      <c r="C37" t="n">
+        <v>341.7099914550781</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1360.284466948582</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.980815606696732</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.01115017000281245</v>
+      </c>
+      <c r="C38" t="n">
+        <v>180.2599945068359</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1338.890671106213</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7.427553045084768</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.01113856037634048</v>
+      </c>
+      <c r="C39" t="n">
+        <v>309.739990234375</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1337.496609798231</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.318126983816876</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.01073469026974673</v>
+      </c>
+      <c r="C40" t="n">
+        <v>178.3999938964844</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1289.000674945161</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7.225340353392035</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>STE</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.01071344249504699</v>
+      </c>
+      <c r="C41" t="n">
+        <v>257.010009765625</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1286.449283592377</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5.005444281199509</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.01008997748658362</v>
+      </c>
+      <c r="C42" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1211.584821132863</v>
+      </c>
+      <c r="E42" t="n">
+        <v>17.00469924397001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.01005397359456547</v>
+      </c>
+      <c r="C43" t="n">
+        <v>567.1599731445312</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1207.261543986913</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.128608507566986</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.009907608726770083</v>
+      </c>
+      <c r="C44" t="n">
+        <v>704.3099975585938</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1189.686336073534</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.689151567062003</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.009423619328978216</v>
+      </c>
+      <c r="C45" t="n">
+        <v>164.6799926757812</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1131.569832966013</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6.871325499715228</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.008849719311315618</v>
+      </c>
+      <c r="C46" t="n">
+        <v>167.4400024414062</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1062.657037950122</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6.34649440071519</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.008680469581958884</v>
+      </c>
+      <c r="C47" t="n">
+        <v>117.6800003051758</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1042.333860485938</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8.857357730989861</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.008403262436292715</v>
+      </c>
+      <c r="C48" t="n">
+        <v>264.7300109863281</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1009.047366988279</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.811609281580056</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.007787946831302523</v>
+      </c>
+      <c r="C49" t="n">
+        <v>220.4400024414062</v>
+      </c>
+      <c r="D49" t="n">
+        <v>935.161469006486</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4.242249404143675</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.007233042014469302</v>
+      </c>
+      <c r="C50" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="D50" t="n">
+        <v>868.5295806655456</v>
+      </c>
+      <c r="E50" t="n">
+        <v>10.12862484741161</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.006672110831470466</v>
+      </c>
+      <c r="C51" t="n">
+        <v>22.73999977111816</v>
+      </c>
+      <c r="D51" t="n">
+        <v>801.1740580268522</v>
+      </c>
+      <c r="E51" t="n">
+        <v>35.2319290277397</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.00655843887828375</v>
+      </c>
+      <c r="C52" t="n">
+        <v>261.3800048828125</v>
+      </c>
+      <c r="D52" t="n">
+        <v>787.5245515485001</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.012948721542721</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>VTRS</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.006290322667381478</v>
+      </c>
+      <c r="C53" t="n">
+        <v>10.65999984741211</v>
+      </c>
+      <c r="D53" t="n">
+        <v>755.3296797699666</v>
+      </c>
+      <c r="E53" t="n">
+        <v>70.8564437693998</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.00601410916968487</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1760.25</v>
+      </c>
+      <c r="D54" t="n">
+        <v>722.1625015828782</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.4102613274153548</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SOLV</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.00589441691949204</v>
+      </c>
+      <c r="C55" t="n">
+        <v>76.19000244140625</v>
+      </c>
+      <c r="D55" t="n">
+        <v>707.7900895796112</v>
+      </c>
+      <c r="E55" t="n">
+        <v>9.289802689321812</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.005866879067680364</v>
+      </c>
+      <c r="C56" t="n">
+        <v>26.6200008392334</v>
+      </c>
+      <c r="D56" t="n">
+        <v>704.4833980328762</v>
+      </c>
+      <c r="E56" t="n">
+        <v>26.46443936224774</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>JCI</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.005630518575812734</v>
+      </c>
+      <c r="C57" t="n">
+        <v>116.379997253418</v>
+      </c>
+      <c r="D57" t="n">
+        <v>676.1016910723704</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5.809432093387628</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.005544554410570096</v>
+      </c>
+      <c r="C58" t="n">
+        <v>282.8900146484375</v>
+      </c>
+      <c r="D58" t="n">
+        <v>665.7792817401565</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.353491630192589</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.00484937696959871</v>
+      </c>
+      <c r="C59" t="n">
+        <v>228.7100067138672</v>
+      </c>
+      <c r="D59" t="n">
+        <v>582.3037302243224</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.546035211099559</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.004788648011958482</v>
+      </c>
+      <c r="C60" t="n">
+        <v>163.6399993896484</v>
+      </c>
+      <c r="D60" t="n">
+        <v>575.0115154123513</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.51388118771116</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.004281016105840712</v>
+      </c>
+      <c r="C61" t="n">
+        <v>124.0899963378906</v>
+      </c>
+      <c r="D61" t="n">
+        <v>514.0560660079464</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4.142606827130515</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.003760973316857877</v>
+      </c>
+      <c r="C62" t="n">
+        <v>297.1700134277344</v>
+      </c>
+      <c r="D62" t="n">
+        <v>451.610341990326</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.519703609328497</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.003711611202375747</v>
+      </c>
+      <c r="C63" t="n">
+        <v>117.6999969482422</v>
+      </c>
+      <c r="D63" t="n">
+        <v>445.6830355394351</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.786601929441182</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.003668724174439336</v>
+      </c>
+      <c r="C64" t="n">
+        <v>93.97000122070312</v>
+      </c>
+      <c r="D64" t="n">
+        <v>440.5332448545353</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.688019997146479</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.003656958453319992</v>
+      </c>
+      <c r="C65" t="n">
+        <v>257.8699951171875</v>
+      </c>
+      <c r="D65" t="n">
+        <v>439.1204400056807</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.702875279483854</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PSX</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.003571782222462517</v>
+      </c>
+      <c r="C66" t="n">
+        <v>136.6499938964844</v>
+      </c>
+      <c r="D66" t="n">
+        <v>428.8926442979653</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.138621759638436</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.003237117773354392</v>
+      </c>
+      <c r="C67" t="n">
+        <v>529.780029296875</v>
+      </c>
+      <c r="D67" t="n">
+        <v>388.7067898447374</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.7337135572298369</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ABBV</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.003235239920193861</v>
+      </c>
+      <c r="C68" t="n">
+        <v>234</v>
+      </c>
+      <c r="D68" t="n">
+        <v>388.4813008990344</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.660176499568523</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.00319375541446642</v>
+      </c>
+      <c r="C69" t="n">
+        <v>148.6699981689453</v>
+      </c>
+      <c r="D69" t="n">
+        <v>383.4999223460695</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.579538084814319</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.003144068454439091</v>
+      </c>
+      <c r="C70" t="n">
+        <v>103.6699981689453</v>
+      </c>
+      <c r="D70" t="n">
+        <v>377.5336090755599</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.641686271280859</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.003071317782595243</v>
+      </c>
+      <c r="C71" t="n">
+        <v>199.5800018310547</v>
+      </c>
+      <c r="D71" t="n">
+        <v>368.7978502643608</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.847869760901945</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.002971631187431459</v>
+      </c>
+      <c r="C72" t="n">
+        <v>92.86000061035156</v>
+      </c>
+      <c r="D72" t="n">
+        <v>356.8276783059542</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.842641352149387</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PYPL</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.00292216490938731</v>
+      </c>
+      <c r="C73" t="n">
+        <v>61.88999938964844</v>
+      </c>
+      <c r="D73" t="n">
+        <v>350.8878640976549</v>
+      </c>
+      <c r="E73" t="n">
+        <v>5.669540597157342</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.002855507940487246</v>
+      </c>
+      <c r="C74" t="n">
+        <v>434.0199890136719</v>
+      </c>
+      <c r="D74" t="n">
+        <v>342.8838252532245</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.7900185105124813</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.002814135851803116</v>
+      </c>
+      <c r="C75" t="n">
+        <v>240.5200042724609</v>
+      </c>
+      <c r="D75" t="n">
+        <v>337.9159455196072</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.404939046719857</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.002760775501969968</v>
+      </c>
+      <c r="C76" t="n">
+        <v>216.1199951171875</v>
+      </c>
+      <c r="D76" t="n">
+        <v>331.508538764325</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.533909616204507</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.00271365670459564</v>
+      </c>
+      <c r="C77" t="n">
+        <v>67.91000366210938</v>
+      </c>
+      <c r="D77" t="n">
+        <v>325.8506054572705</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4.798271062957989</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SWKS</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.002702145739671335</v>
+      </c>
+      <c r="C78" t="n">
+        <v>62.44999694824219</v>
+      </c>
+      <c r="D78" t="n">
+        <v>324.4683912355416</v>
+      </c>
+      <c r="E78" t="n">
+        <v>5.195651034289996</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.002660794352369988</v>
+      </c>
+      <c r="C79" t="n">
+        <v>267.4599914550781</v>
+      </c>
+      <c r="D79" t="n">
+        <v>319.502997283601</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.194582395465543</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.002359186697473766</v>
+      </c>
+      <c r="C80" t="n">
+        <v>58.88999938964844</v>
+      </c>
+      <c r="D80" t="n">
+        <v>283.2865382185897</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4.810435407618382</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.002326339232604308</v>
+      </c>
+      <c r="C81" t="n">
+        <v>74.02999877929688</v>
+      </c>
+      <c r="D81" t="n">
+        <v>279.3422786896217</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3.773365977249511</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>BMY</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.002298969597790588</v>
+      </c>
+      <c r="C82" t="n">
+        <v>46.81000137329102</v>
+      </c>
+      <c r="D82" t="n">
+        <v>276.0557863119782</v>
+      </c>
+      <c r="E82" t="n">
+        <v>5.897367618311819</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.002171595372393201</v>
+      </c>
+      <c r="C83" t="n">
+        <v>35.06999969482422</v>
+      </c>
+      <c r="D83" t="n">
+        <v>260.7609377059995</v>
+      </c>
+      <c r="E83" t="n">
+        <v>7.43544168734292</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.002044700110824134</v>
+      </c>
+      <c r="C84" t="n">
+        <v>253.5399932861328</v>
+      </c>
+      <c r="D84" t="n">
+        <v>245.5236021425459</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.968382143425633</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.002009742244772941</v>
+      </c>
+      <c r="C85" t="n">
+        <v>155.0700073242188</v>
+      </c>
+      <c r="D85" t="n">
+        <v>241.3259297549575</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.556238591324728</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.001598785719122001</v>
+      </c>
+      <c r="C86" t="n">
+        <v>12.88000011444092</v>
+      </c>
+      <c r="D86" t="n">
+        <v>191.9790715200176</v>
+      </c>
+      <c r="E86" t="n">
+        <v>14.90520728371522</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>FANG</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.001412922998263044</v>
+      </c>
+      <c r="C87" t="n">
+        <v>146.3699951171875</v>
+      </c>
+      <c r="D87" t="n">
+        <v>169.6610384315797</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.15912443869213</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0007476078053141644</v>
+      </c>
+      <c r="C88" t="n">
+        <v>144.5200042724609</v>
+      </c>
+      <c r="D88" t="n">
+        <v>89.77128742690449</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.6211685910115274</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.0005650371783632546</v>
+      </c>
+      <c r="C89" t="n">
+        <v>25.07999992370605</v>
+      </c>
+      <c r="D89" t="n">
+        <v>67.84856255536181</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.705285596561353</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>TRGP</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.0003456306904013555</v>
+      </c>
+      <c r="C90" t="n">
+        <v>168.3200073242188</v>
+      </c>
+      <c r="D90" t="n">
+        <v>41.50265932354849</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.2465699709934416</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>CNC</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.0002709356854506879</v>
+      </c>
+      <c r="C91" t="n">
+        <v>37.08000183105469</v>
+      </c>
+      <c r="D91" t="n">
+        <v>32.53342878433198</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.8773847674701318</v>
       </c>
     </row>
   </sheetData>
@@ -68745,6 +70503,2312 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Shares</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Exit_Price</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Sale_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Transaction_Cost</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>Gain_Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>17.18575993400584</v>
+      </c>
+      <c r="C2" t="n">
+        <v>365</v>
+      </c>
+      <c r="D2" t="n">
+        <v>361.6400146484375</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6215.058474278402</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-57.74390163372937</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18.63976115906219</v>
+      </c>
+      <c r="C3" t="n">
+        <v>279.1300048828125</v>
+      </c>
+      <c r="D3" t="n">
+        <v>279.2799987792969</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5205.712473749273</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.795850405785131</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>105.7911114127026</v>
+      </c>
+      <c r="C4" t="n">
+        <v>38.65000152587891</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.70000076293945</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4094.116092383802</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.289474858422636</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CAH</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>19.20785099837916</v>
+      </c>
+      <c r="C5" t="n">
+        <v>206.1799926757812</v>
+      </c>
+      <c r="D5" t="n">
+        <v>206.9700012207031</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3975.448944581619</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.17436641830545</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>VTR</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>44.24951593207688</v>
+      </c>
+      <c r="C6" t="n">
+        <v>79</v>
+      </c>
+      <c r="D6" t="n">
+        <v>79.86000061035156</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3533.766369343421</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>38.05461070934734</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>40.45765804572931</v>
+      </c>
+      <c r="C7" t="n">
+        <v>84.73999786376953</v>
+      </c>
+      <c r="D7" t="n">
+        <v>84.04000091552734</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3400.061619203183</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-28.32023716503636</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>31.8048137477604</v>
+      </c>
+      <c r="C8" t="n">
+        <v>104.1699981689453</v>
+      </c>
+      <c r="D8" t="n">
+        <v>103.8899993896484</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3304.20208084271</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-8.905309025137285</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.167259578108335</v>
+      </c>
+      <c r="C9" t="n">
+        <v>477.1000061035156</v>
+      </c>
+      <c r="D9" t="n">
+        <v>478.1400146484375</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2948.813585017436</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.414002659983908</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.326938724693828</v>
+      </c>
+      <c r="C10" t="n">
+        <v>855.22998046875</v>
+      </c>
+      <c r="D10" t="n">
+        <v>860.75</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2863.662507280212</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>18.36476673958168</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.114441670889345</v>
+      </c>
+      <c r="C11" t="n">
+        <v>546.7100219726562</v>
+      </c>
+      <c r="D11" t="n">
+        <v>546.77001953125</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2796.423372283606</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3068540138233402</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>18.18020377627525</v>
+      </c>
+      <c r="C12" t="n">
+        <v>142.2299957275391</v>
+      </c>
+      <c r="D12" t="n">
+        <v>139.9100036621094</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2543.592376916565</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-42.17792850885371</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EXPE</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10.36833224035726</v>
+      </c>
+      <c r="C13" t="n">
+        <v>244.1600036621094</v>
+      </c>
+      <c r="D13" t="n">
+        <v>240</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2488.399737685742</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-43.13230008985283</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>15.4158087487381</v>
+      </c>
+      <c r="C14" t="n">
+        <v>162.4499969482422</v>
+      </c>
+      <c r="D14" t="n">
+        <v>152.8600006103516</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2356.460534741169</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-147.8375494460206</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>36.11631864740493</v>
+      </c>
+      <c r="C15" t="n">
+        <v>64.87999725341797</v>
+      </c>
+      <c r="D15" t="n">
+        <v>64.77999877929688</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2339.615077891588</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-3.611576755611623</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>11.45219614728638</v>
+      </c>
+      <c r="C16" t="n">
+        <v>197.2700042724609</v>
+      </c>
+      <c r="D16" t="n">
+        <v>198.2899932861328</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2270.855897156892</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>11.6811142526476</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6.007584042307014</v>
+      </c>
+      <c r="C17" t="n">
+        <v>370.1000061035156</v>
+      </c>
+      <c r="D17" t="n">
+        <v>366.010009765625</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2198.835893992603</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-24.57099673260564</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>12.42481976078522</v>
+      </c>
+      <c r="C18" t="n">
+        <v>177.7799987792969</v>
+      </c>
+      <c r="D18" t="n">
+        <v>178.7100067138672</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2220.439622868516</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11.55518096313608</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8.801660580592648</v>
+      </c>
+      <c r="C19" t="n">
+        <v>241.9499969482422</v>
+      </c>
+      <c r="D19" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2011.17944266542</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-118.3823079484346</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2.592994538381259</v>
+      </c>
+      <c r="C20" t="n">
+        <v>820.969970703125</v>
+      </c>
+      <c r="D20" t="n">
+        <v>817.2999877929688</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2119.254404566238</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-9.516245641987553</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>16.98005849730754</v>
+      </c>
+      <c r="C21" t="n">
+        <v>123.7200012207031</v>
+      </c>
+      <c r="D21" t="n">
+        <v>123.5100021362305</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2097.207061275773</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-3.565796738726476</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HPE</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>97.3852819035373</v>
+      </c>
+      <c r="C22" t="n">
+        <v>21.22999954223633</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20.89999961853027</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2035.352354634393</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-32.13713559825987</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.62939782493203</v>
+      </c>
+      <c r="C23" t="n">
+        <v>552.0499877929688</v>
+      </c>
+      <c r="D23" t="n">
+        <v>546.8800048828125</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1984.845100220497</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-18.76392472905695</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.946935576066704</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1021.700012207031</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1030.050048828125</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2005.441085192722</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>16.25698335906714</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>8.688760319653518</v>
+      </c>
+      <c r="C25" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>228.8399963378906</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1988.33587973032</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>20.3316673287984</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AKAM</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>21.57272252563591</v>
+      </c>
+      <c r="C26" t="n">
+        <v>87.62000274658203</v>
+      </c>
+      <c r="D26" t="n">
+        <v>87.73999786376953</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1892.790628314987</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.588621367517135</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.597316173511167</v>
+      </c>
+      <c r="C27" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="D27" t="n">
+        <v>284.9599914550781</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1879.971160430191</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-4.222378991420783</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6.397382052744632</v>
+      </c>
+      <c r="C28" t="n">
+        <v>285.0199890136719</v>
+      </c>
+      <c r="D28" t="n">
+        <v>284.2799987792969</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1818.64776214494</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-4.7340002445967</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CTRA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>69.04051410667692</v>
+      </c>
+      <c r="C29" t="n">
+        <v>25.96999931335449</v>
+      </c>
+      <c r="D29" t="n">
+        <v>26.17000007629395</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1806.790259439108</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>13.80815549506747</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>28.35404036566185</v>
+      </c>
+      <c r="C30" t="n">
+        <v>59.04000091552734</v>
+      </c>
+      <c r="D30" t="n">
+        <v>58.75</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1665.799871482633</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-8.222697664941279</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.321029599402243</v>
+      </c>
+      <c r="C31" t="n">
+        <v>377.9800109863281</v>
+      </c>
+      <c r="D31" t="n">
+        <v>376.6300048828125</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1627.429399121644</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-5.833416332664683</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>13.08374209425654</v>
+      </c>
+      <c r="C32" t="n">
+        <v>116.9800033569336</v>
+      </c>
+      <c r="D32" t="n">
+        <v>117.1600036621094</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1532.891271677191</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.355077569807463</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AIZ</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6.674040120561282</v>
+      </c>
+      <c r="C33" t="n">
+        <v>224.8300018310547</v>
+      </c>
+      <c r="D33" t="n">
+        <v>225.9499969482422</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1507.999344873268</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7.47489234694217</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>15.56748035016112</v>
+      </c>
+      <c r="C34" t="n">
+        <v>94.19000244140625</v>
+      </c>
+      <c r="D34" t="n">
+        <v>92.83000183105469</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1445.129229410365</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-21.17178277785501</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3.018250074742207</v>
+      </c>
+      <c r="C35" t="n">
+        <v>455.9800109863281</v>
+      </c>
+      <c r="D35" t="n">
+        <v>464.9200134277344</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1403.244865277407</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>26.98316303696993</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>8.994334746933189</v>
+      </c>
+      <c r="C36" t="n">
+        <v>152.6399993896484</v>
+      </c>
+      <c r="D36" t="n">
+        <v>151.6900024414062</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1364.350659721121</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-8.544590561055202</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>3.980815606696732</v>
+      </c>
+      <c r="C37" t="n">
+        <v>341.7099914550781</v>
+      </c>
+      <c r="D37" t="n">
+        <v>343.989990234375</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1369.360721672456</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>9.076254723874399</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>7.427553045084768</v>
+      </c>
+      <c r="C38" t="n">
+        <v>180.2599945068359</v>
+      </c>
+      <c r="D38" t="n">
+        <v>176.4600067138672</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1310.666060203263</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-28.22461090294996</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4.318126983816876</v>
+      </c>
+      <c r="C39" t="n">
+        <v>309.739990234375</v>
+      </c>
+      <c r="D39" t="n">
+        <v>309.1600036621094</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1334.992154130279</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-2.504455667951561</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>7.225340353392035</v>
+      </c>
+      <c r="C40" t="n">
+        <v>178.3999938964844</v>
+      </c>
+      <c r="D40" t="n">
+        <v>185.4299926757812</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1339.794808809512</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>50.79413386435044</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>STE</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5.005444281199509</v>
+      </c>
+      <c r="C41" t="n">
+        <v>257.010009765625</v>
+      </c>
+      <c r="D41" t="n">
+        <v>257</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1286.399180268274</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.05010332410370211</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>17.00469924397001</v>
+      </c>
+      <c r="C42" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="D42" t="n">
+        <v>71.19999694824219</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1210.734534276441</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.8502868564223718</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2.128608507566986</v>
+      </c>
+      <c r="C43" t="n">
+        <v>567.1599731445312</v>
+      </c>
+      <c r="D43" t="n">
+        <v>576.030029296875</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1226.142420975388</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>18.88087698847585</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.689151567062003</v>
+      </c>
+      <c r="C44" t="n">
+        <v>704.3099975585938</v>
+      </c>
+      <c r="D44" t="n">
+        <v>725.3400268554688</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1225.209243015711</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>35.52290694217618</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>6.871325499715228</v>
+      </c>
+      <c r="C45" t="n">
+        <v>164.6799926757812</v>
+      </c>
+      <c r="D45" t="n">
+        <v>168.8300018310547</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1160.085896698695</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>28.51606373268214</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>6.34649440071519</v>
+      </c>
+      <c r="C46" t="n">
+        <v>167.4400024414062</v>
+      </c>
+      <c r="D46" t="n">
+        <v>163.7200012207031</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1039.048071032276</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-23.60896691784615</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>8.857357730989861</v>
+      </c>
+      <c r="C47" t="n">
+        <v>117.6800003051758</v>
+      </c>
+      <c r="D47" t="n">
+        <v>119.0299987792969</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1054.291279907519</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>11.95741942158088</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>3.811609281580056</v>
+      </c>
+      <c r="C48" t="n">
+        <v>264.7300109863281</v>
+      </c>
+      <c r="D48" t="n">
+        <v>263.0799865722656</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1002.758118616804</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-6.289248371474287</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4.242249404143675</v>
+      </c>
+      <c r="C49" t="n">
+        <v>220.4400024414062</v>
+      </c>
+      <c r="D49" t="n">
+        <v>225.5099945068359</v>
+      </c>
+      <c r="E49" t="n">
+        <v>956.6696398250682</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>21.50817081858224</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>10.12862484741161</v>
+      </c>
+      <c r="C50" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="D50" t="n">
+        <v>84.63999938964844</v>
+      </c>
+      <c r="E50" t="n">
+        <v>857.2868009028967</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-11.24277976264898</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>35.2319290277397</v>
+      </c>
+      <c r="C51" t="n">
+        <v>22.73999977111816</v>
+      </c>
+      <c r="D51" t="n">
+        <v>23.69000053405762</v>
+      </c>
+      <c r="E51" t="n">
+        <v>834.6444174830336</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>33.47035945618143</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3.012948721542721</v>
+      </c>
+      <c r="C52" t="n">
+        <v>261.3800048828125</v>
+      </c>
+      <c r="D52" t="n">
+        <v>253.8600006103516</v>
+      </c>
+      <c r="E52" t="n">
+        <v>764.8671642897931</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-22.65738725870699</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>VTRS</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>70.8564437693998</v>
+      </c>
+      <c r="C53" t="n">
+        <v>10.65999984741211</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10.71000003814697</v>
+      </c>
+      <c r="E53" t="n">
+        <v>758.8725154732307</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.542835703264132</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.4102613274153548</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1760.25</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1724.969970703125</v>
+      </c>
+      <c r="E54" t="n">
+        <v>707.6884699322896</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-14.47403165058859</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SOLV</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>9.289802689321812</v>
+      </c>
+      <c r="C55" t="n">
+        <v>76.19000244140625</v>
+      </c>
+      <c r="D55" t="n">
+        <v>76.88999938964844</v>
+      </c>
+      <c r="E55" t="n">
+        <v>714.2929231119085</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>6.502833532297359</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>26.46443936224774</v>
+      </c>
+      <c r="C56" t="n">
+        <v>26.6200008392334</v>
+      </c>
+      <c r="D56" t="n">
+        <v>26.79000091552734</v>
+      </c>
+      <c r="E56" t="n">
+        <v>708.9823547435348</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4.498956710658604</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>JCI</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>5.809432093387628</v>
+      </c>
+      <c r="C57" t="n">
+        <v>116.379997253418</v>
+      </c>
+      <c r="D57" t="n">
+        <v>114.4400024414062</v>
+      </c>
+      <c r="E57" t="n">
+        <v>664.831422950464</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-11.27026812190638</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2.353491630192589</v>
+      </c>
+      <c r="C58" t="n">
+        <v>282.8900146484375</v>
+      </c>
+      <c r="D58" t="n">
+        <v>282.8999938964844</v>
+      </c>
+      <c r="E58" t="n">
+        <v>665.8027678169104</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02348607675389758</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2.546035211099559</v>
+      </c>
+      <c r="C59" t="n">
+        <v>228.7100067138672</v>
+      </c>
+      <c r="D59" t="n">
+        <v>225.1199951171875</v>
+      </c>
+      <c r="E59" t="n">
+        <v>573.1634342909201</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-9.140295933402285</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3.51388118771116</v>
+      </c>
+      <c r="C60" t="n">
+        <v>163.6399993896484</v>
+      </c>
+      <c r="D60" t="n">
+        <v>163.9400024414062</v>
+      </c>
+      <c r="E60" t="n">
+        <v>576.065690492179</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.054175079827701</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>4.142606827130515</v>
+      </c>
+      <c r="C61" t="n">
+        <v>124.0899963378906</v>
+      </c>
+      <c r="D61" t="n">
+        <v>127.1800003051758</v>
+      </c>
+      <c r="E61" t="n">
+        <v>526.8567375386822</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>12.80067153073583</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1.519703609328497</v>
+      </c>
+      <c r="C62" t="n">
+        <v>297.1700134277344</v>
+      </c>
+      <c r="D62" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="E62" t="n">
+        <v>440.6380800758673</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-10.97226191445873</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>3.786601929441182</v>
+      </c>
+      <c r="C63" t="n">
+        <v>117.6999969482422</v>
+      </c>
+      <c r="D63" t="n">
+        <v>121.3899993896484</v>
+      </c>
+      <c r="E63" t="n">
+        <v>459.6556059037067</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>13.97257036427158</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>4.688019997146479</v>
+      </c>
+      <c r="C64" t="n">
+        <v>93.97000122070312</v>
+      </c>
+      <c r="D64" t="n">
+        <v>96.13999938964844</v>
+      </c>
+      <c r="E64" t="n">
+        <v>450.7062396643221</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>10.17299480978687</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1.702875279483854</v>
+      </c>
+      <c r="C65" t="n">
+        <v>257.8699951171875</v>
+      </c>
+      <c r="D65" t="n">
+        <v>259.1099853515625</v>
+      </c>
+      <c r="E65" t="n">
+        <v>441.2319887225992</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2.111548716918549</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PSX</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3.138621759638436</v>
+      </c>
+      <c r="C66" t="n">
+        <v>136.6499938964844</v>
+      </c>
+      <c r="D66" t="n">
+        <v>138.4100036621094</v>
+      </c>
+      <c r="E66" t="n">
+        <v>434.4166492455321</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.524004947566766</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.7337135572298369</v>
+      </c>
+      <c r="C67" t="n">
+        <v>529.780029296875</v>
+      </c>
+      <c r="D67" t="n">
+        <v>513.6699829101562</v>
+      </c>
+      <c r="E67" t="n">
+        <v>376.8866304032003</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-11.8201594415371</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ABBV</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1.660176499568523</v>
+      </c>
+      <c r="C68" t="n">
+        <v>234</v>
+      </c>
+      <c r="D68" t="n">
+        <v>233.8699951171875</v>
+      </c>
+      <c r="E68" t="n">
+        <v>388.2654698477599</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-0.2158310512745061</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2.579538084814319</v>
+      </c>
+      <c r="C69" t="n">
+        <v>148.6699981689453</v>
+      </c>
+      <c r="D69" t="n">
+        <v>148.5099945068359</v>
+      </c>
+      <c r="E69" t="n">
+        <v>383.0871868059486</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-0.4127355401209343</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>3.641686271280859</v>
+      </c>
+      <c r="C70" t="n">
+        <v>103.6699981689453</v>
+      </c>
+      <c r="D70" t="n">
+        <v>101.5699996948242</v>
+      </c>
+      <c r="E70" t="n">
+        <v>369.8860734626424</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-7.647535612917522</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1.847869760901945</v>
+      </c>
+      <c r="C71" t="n">
+        <v>199.5800018310547</v>
+      </c>
+      <c r="D71" t="n">
+        <v>200</v>
+      </c>
+      <c r="E71" t="n">
+        <v>369.573952180389</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.7761019160282103</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>3.842641352149387</v>
+      </c>
+      <c r="C72" t="n">
+        <v>92.86000061035156</v>
+      </c>
+      <c r="D72" t="n">
+        <v>96.43000030517578</v>
+      </c>
+      <c r="E72" t="n">
+        <v>370.5459067604464</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>13.71822845449225</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PYPL</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>5.669540597157342</v>
+      </c>
+      <c r="C73" t="n">
+        <v>61.88999938964844</v>
+      </c>
+      <c r="D73" t="n">
+        <v>60.70000076293945</v>
+      </c>
+      <c r="E73" t="n">
+        <v>344.1411185729668</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-6.746745524688095</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.7900185105124813</v>
+      </c>
+      <c r="C74" t="n">
+        <v>434.0199890136719</v>
+      </c>
+      <c r="D74" t="n">
+        <v>435.5199890136719</v>
+      </c>
+      <c r="E74" t="n">
+        <v>344.0688530189933</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.185027765768723</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1.404939046719857</v>
+      </c>
+      <c r="C75" t="n">
+        <v>240.5200042724609</v>
+      </c>
+      <c r="D75" t="n">
+        <v>230.2899932861328</v>
+      </c>
+      <c r="E75" t="n">
+        <v>323.5434036365417</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-14.37254188306548</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1.533909616204507</v>
+      </c>
+      <c r="C76" t="n">
+        <v>216.1199951171875</v>
+      </c>
+      <c r="D76" t="n">
+        <v>217.2799987792969</v>
+      </c>
+      <c r="E76" t="n">
+        <v>333.287879536467</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.779340772142007</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4.798271062957989</v>
+      </c>
+      <c r="C77" t="n">
+        <v>67.91000366210938</v>
+      </c>
+      <c r="D77" t="n">
+        <v>67.93000030517578</v>
+      </c>
+      <c r="E77" t="n">
+        <v>325.9465547710523</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.09594931378188676</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SWKS</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>5.195651034289996</v>
+      </c>
+      <c r="C78" t="n">
+        <v>62.44999694824219</v>
+      </c>
+      <c r="D78" t="n">
+        <v>62.31999969482422</v>
+      </c>
+      <c r="E78" t="n">
+        <v>323.7929708713656</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-0.6754203641759204</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1.194582395465543</v>
+      </c>
+      <c r="C79" t="n">
+        <v>267.4599914550781</v>
+      </c>
+      <c r="D79" t="n">
+        <v>267.4400024414062</v>
+      </c>
+      <c r="E79" t="n">
+        <v>319.4791187597658</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-0.0238785238351511</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>4.810435407618382</v>
+      </c>
+      <c r="C80" t="n">
+        <v>58.88999938964844</v>
+      </c>
+      <c r="D80" t="n">
+        <v>57.63999938964844</v>
+      </c>
+      <c r="E80" t="n">
+        <v>277.2734939590667</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-6.013044259522985</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>3.773365977249511</v>
+      </c>
+      <c r="C81" t="n">
+        <v>74.02999877929688</v>
+      </c>
+      <c r="D81" t="n">
+        <v>74.54000091552734</v>
+      </c>
+      <c r="E81" t="n">
+        <v>281.2667033987983</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.924424709176606</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>BMY</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>5.897367618311819</v>
+      </c>
+      <c r="C82" t="n">
+        <v>46.81000137329102</v>
+      </c>
+      <c r="D82" t="n">
+        <v>47.06000137329102</v>
+      </c>
+      <c r="E82" t="n">
+        <v>277.5301282165561</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.474341904577955</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>7.43544168734292</v>
+      </c>
+      <c r="C83" t="n">
+        <v>35.06999969482422</v>
+      </c>
+      <c r="D83" t="n">
+        <v>35.86999893188477</v>
+      </c>
+      <c r="E83" t="n">
+        <v>266.709285383082</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5.948347677082552</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.968382143425633</v>
+      </c>
+      <c r="C84" t="n">
+        <v>253.5399932861328</v>
+      </c>
+      <c r="D84" t="n">
+        <v>252.1900024414062</v>
+      </c>
+      <c r="E84" t="n">
+        <v>244.2162951147246</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-1.307307027821281</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1.556238591324728</v>
+      </c>
+      <c r="C85" t="n">
+        <v>155.0700073242188</v>
+      </c>
+      <c r="D85" t="n">
+        <v>154.6100006103516</v>
+      </c>
+      <c r="E85" t="n">
+        <v>240.6100495545689</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-0.7158802003885967</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>14.90520728371522</v>
+      </c>
+      <c r="C86" t="n">
+        <v>12.88000011444092</v>
+      </c>
+      <c r="D86" t="n">
+        <v>13.02000045776367</v>
+      </c>
+      <c r="E86" t="n">
+        <v>194.0658056570345</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2.086734137016947</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>FANG</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1.15912443869213</v>
+      </c>
+      <c r="C87" t="n">
+        <v>146.3699951171875</v>
+      </c>
+      <c r="D87" t="n">
+        <v>149.5800018310547</v>
+      </c>
+      <c r="E87" t="n">
+        <v>173.381835661989</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>3.720797230409289</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.6211685910115274</v>
+      </c>
+      <c r="C88" t="n">
+        <v>144.5200042724609</v>
+      </c>
+      <c r="D88" t="n">
+        <v>143.8399963378906</v>
+      </c>
+      <c r="E88" t="n">
+        <v>89.34888785631078</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-0.4223995705936971</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2.705285596561353</v>
+      </c>
+      <c r="C89" t="n">
+        <v>25.07999992370605</v>
+      </c>
+      <c r="D89" t="n">
+        <v>25.45000076293945</v>
+      </c>
+      <c r="E89" t="n">
+        <v>68.84952049645554</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.000957941093731</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>TRGP</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.2465699709934416</v>
+      </c>
+      <c r="C90" t="n">
+        <v>168.3200073242188</v>
+      </c>
+      <c r="D90" t="n">
+        <v>169.5800018310547</v>
+      </c>
+      <c r="E90" t="n">
+        <v>41.81333613255092</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.3106768090024374</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>CNC</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.8773847674701318</v>
+      </c>
+      <c r="C91" t="n">
+        <v>37.08000183105469</v>
+      </c>
+      <c r="D91" t="n">
+        <v>36.93000030517578</v>
+      </c>
+      <c r="E91" t="n">
+        <v>32.40181973042855</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-0.131609053903432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/backtest_portfolio_PL.xlsx
+++ b/backtest_portfolio_PL.xlsx
@@ -46,6 +46,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-17-2025_PnL" sheetId="38" state="visible" r:id="rId38"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-18-2025_Allocations" sheetId="39" state="visible" r:id="rId39"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-18-2025_PnL" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-19-2025_Allocations" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-19-2025_PnL" sheetId="42" state="visible" r:id="rId42"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -72809,6 +72811,3584 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Allocation_Percent</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Target_Value</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Actual_Shares</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CAH</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05595291331439447</v>
+      </c>
+      <c r="C2" t="n">
+        <v>206.9700012207031</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6703.061209371984</v>
+      </c>
+      <c r="E2" t="n">
+        <v>32.38663173328271</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05428906677149338</v>
+      </c>
+      <c r="C3" t="n">
+        <v>361.6400146484375</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6503.73530193619</v>
+      </c>
+      <c r="E3" t="n">
+        <v>17.98400353527994</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.04336015848661273</v>
+      </c>
+      <c r="C4" t="n">
+        <v>38.70000076293945</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5194.47119313917</v>
+      </c>
+      <c r="E4" t="n">
+        <v>134.2240591921018</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03370516643660074</v>
+      </c>
+      <c r="C5" t="n">
+        <v>198.2899932861328</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4037.820022473838</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20.36320620903575</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.02870592674810414</v>
+      </c>
+      <c r="C6" t="n">
+        <v>103.8899993896484</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3438.91984646292</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33.1015484326355</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>VTR</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02855550059394055</v>
+      </c>
+      <c r="C7" t="n">
+        <v>79.86000061035156</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3420.899056139039</v>
+      </c>
+      <c r="E7" t="n">
+        <v>42.83620122707109</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.027509336904297</v>
+      </c>
+      <c r="C8" t="n">
+        <v>123.5100021362305</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3295.570474813872</v>
+      </c>
+      <c r="E8" t="n">
+        <v>26.68262017499511</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02639293119993945</v>
+      </c>
+      <c r="C9" t="n">
+        <v>139.9100036621094</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3161.827022909009</v>
+      </c>
+      <c r="E9" t="n">
+        <v>22.59900607639895</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.02547673805182647</v>
+      </c>
+      <c r="C10" t="n">
+        <v>860.75</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3052.068685270696</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.54582478683787</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AKAM</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02319227442048374</v>
+      </c>
+      <c r="C11" t="n">
+        <v>87.73999786376953</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2778.393935478266</v>
+      </c>
+      <c r="E11" t="n">
+        <v>31.6662184080762</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02265052426022807</v>
+      </c>
+      <c r="C12" t="n">
+        <v>478.1400146484375</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2713.493213258916</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.675101706879875</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.02199007093218165</v>
+      </c>
+      <c r="C13" t="n">
+        <v>64.77999877929688</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2634.372059031372</v>
+      </c>
+      <c r="E13" t="n">
+        <v>40.66644193690993</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.02093350977986882</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1030.050048828125</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2507.797879853189</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.434636921483844</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.01840686499171431</v>
+      </c>
+      <c r="C15" t="n">
+        <v>152.8600006103516</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2205.110250807369</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14.42568521524682</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0182613241276406</v>
+      </c>
+      <c r="C16" t="n">
+        <v>343.989990234375</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2187.674709696769</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.359704560607165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CTRA</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01803647025227119</v>
+      </c>
+      <c r="C17" t="n">
+        <v>26.17000007629395</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2160.737608472087</v>
+      </c>
+      <c r="E17" t="n">
+        <v>82.56544142807964</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.01675115152189918</v>
+      </c>
+      <c r="C18" t="n">
+        <v>178.7100067138672</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2006.758671310661</v>
+      </c>
+      <c r="E18" t="n">
+        <v>11.22913432891134</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01663385742464613</v>
+      </c>
+      <c r="C19" t="n">
+        <v>228.8399963378906</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1992.707043489828</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8.707861717265208</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01640224208500541</v>
+      </c>
+      <c r="C20" t="n">
+        <v>84.04000091552734</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1964.959930664483</v>
+      </c>
+      <c r="E20" t="n">
+        <v>23.38124594548207</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.01618045371279322</v>
+      </c>
+      <c r="C21" t="n">
+        <v>284.2799987792969</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1938.390071359538</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.818594623902554</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01611187778398201</v>
+      </c>
+      <c r="C22" t="n">
+        <v>546.77001953125</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1930.174794958678</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.530140143041185</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01596456654056113</v>
+      </c>
+      <c r="C23" t="n">
+        <v>176.4600067138672</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1912.52716549691</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10.8383038236993</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01565549805255847</v>
+      </c>
+      <c r="C24" t="n">
+        <v>284.9599914550781</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1875.501300885909</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6.581630253809045</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01564482452376371</v>
+      </c>
+      <c r="C25" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1874.222630793625</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8.202287224479758</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01529158721343493</v>
+      </c>
+      <c r="C26" t="n">
+        <v>817.2999877929688</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1831.905418475055</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.241411288187976</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.01518686318271681</v>
+      </c>
+      <c r="C27" t="n">
+        <v>464.9200134277344</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1819.35966265263</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.913274563594206</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0150819823017463</v>
+      </c>
+      <c r="C28" t="n">
+        <v>546.8800048828125</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1806.795116444143</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.303823691325687</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0149641641715429</v>
+      </c>
+      <c r="C29" t="n">
+        <v>25.45000076293945</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1792.680710391867</v>
+      </c>
+      <c r="E29" t="n">
+        <v>70.43931853245313</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.01459682656973934</v>
+      </c>
+      <c r="C30" t="n">
+        <v>58.75</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1748.674307801929</v>
+      </c>
+      <c r="E30" t="n">
+        <v>29.764669068969</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FDS</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01406063358063434</v>
+      </c>
+      <c r="C31" t="n">
+        <v>272.1099853515625</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1684.439324972495</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6.190288543789459</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01401212328101446</v>
+      </c>
+      <c r="C32" t="n">
+        <v>263.0799865722656</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1678.627875874037</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6.380674933678142</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.01399390589632981</v>
+      </c>
+      <c r="C33" t="n">
+        <v>376.6300048828125</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1676.445465032804</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.451173415018875</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.01398901893831444</v>
+      </c>
+      <c r="C34" t="n">
+        <v>74.54000091552734</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1675.860016004965</v>
+      </c>
+      <c r="E34" t="n">
+        <v>22.48269379422383</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.01392859628559638</v>
+      </c>
+      <c r="C35" t="n">
+        <v>117.1600036621094</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1668.621487828139</v>
+      </c>
+      <c r="E35" t="n">
+        <v>14.24224509791294</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.01306050092077547</v>
+      </c>
+      <c r="C36" t="n">
+        <v>225.5099945068359</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1564.625180553292</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6.93816335712723</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.01234152136314921</v>
+      </c>
+      <c r="C37" t="n">
+        <v>163.9400024414062</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1478.492686325932</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9.018498623326296</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.01201676187403415</v>
+      </c>
+      <c r="C38" t="n">
+        <v>282.8999938964844</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1439.587067209535</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5.088678325444903</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.01195812358149612</v>
+      </c>
+      <c r="C39" t="n">
+        <v>576.030029296875</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1432.562302263215</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.486957674779311</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>EXPE</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.01146366382394126</v>
+      </c>
+      <c r="C40" t="n">
+        <v>239.6000061035156</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1373.326887623799</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5.731748132888083</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.01036361996008058</v>
+      </c>
+      <c r="C41" t="n">
+        <v>67.93000030517578</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1241.543555609963</v>
+      </c>
+      <c r="E41" t="n">
+        <v>18.27680774374096</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.01005458276199657</v>
+      </c>
+      <c r="C42" t="n">
+        <v>168.8300018310547</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1204.521439476521</v>
+      </c>
+      <c r="E42" t="n">
+        <v>7.134522456985254</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.009796152585946358</v>
+      </c>
+      <c r="C43" t="n">
+        <v>151.6900024414062</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1173.561956121653</v>
+      </c>
+      <c r="E43" t="n">
+        <v>7.736580771530863</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.008583980147180573</v>
+      </c>
+      <c r="C44" t="n">
+        <v>725.3400268554688</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1028.345816834935</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.417743098079218</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.008277317609489345</v>
+      </c>
+      <c r="C45" t="n">
+        <v>185.4299926757812</v>
+      </c>
+      <c r="D45" t="n">
+        <v>991.6081808656421</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5.347614841356539</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.008084432907643057</v>
+      </c>
+      <c r="C46" t="n">
+        <v>200</v>
+      </c>
+      <c r="D46" t="n">
+        <v>968.5009307469156</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.842504653734578</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.007473288376255044</v>
+      </c>
+      <c r="C47" t="n">
+        <v>92.83000183105469</v>
+      </c>
+      <c r="D47" t="n">
+        <v>895.2868841672725</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9.644369993621714</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>HPE</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.007471235114235881</v>
+      </c>
+      <c r="C48" t="n">
+        <v>20.89999961853027</v>
+      </c>
+      <c r="D48" t="n">
+        <v>895.0409069664788</v>
+      </c>
+      <c r="E48" t="n">
+        <v>42.82492455994694</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.007090181884668373</v>
+      </c>
+      <c r="C49" t="n">
+        <v>23.69000053405762</v>
+      </c>
+      <c r="D49" t="n">
+        <v>849.3913961453367</v>
+      </c>
+      <c r="E49" t="n">
+        <v>35.85442705770396</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.00677893541549476</v>
+      </c>
+      <c r="C50" t="n">
+        <v>64.95999908447266</v>
+      </c>
+      <c r="D50" t="n">
+        <v>812.1046131971659</v>
+      </c>
+      <c r="E50" t="n">
+        <v>12.50161060102728</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.006751975328029743</v>
+      </c>
+      <c r="C51" t="n">
+        <v>71.19999694824219</v>
+      </c>
+      <c r="D51" t="n">
+        <v>808.8748418450898</v>
+      </c>
+      <c r="E51" t="n">
+        <v>11.36060219824293</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.005774306525005767</v>
+      </c>
+      <c r="C52" t="n">
+        <v>35.86999893188477</v>
+      </c>
+      <c r="D52" t="n">
+        <v>691.7518282078852</v>
+      </c>
+      <c r="E52" t="n">
+        <v>19.28496930043085</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ABBV</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.005759395305158078</v>
+      </c>
+      <c r="C53" t="n">
+        <v>233.8699951171875</v>
+      </c>
+      <c r="D53" t="n">
+        <v>689.9654901349443</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.950209537521975</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.005647868665337517</v>
+      </c>
+      <c r="C54" t="n">
+        <v>26.79000091552734</v>
+      </c>
+      <c r="D54" t="n">
+        <v>676.6047936330075</v>
+      </c>
+      <c r="E54" t="n">
+        <v>25.25587049311562</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.005642135857227075</v>
+      </c>
+      <c r="C55" t="n">
+        <v>96.13999938964844</v>
+      </c>
+      <c r="D55" t="n">
+        <v>675.9180132423252</v>
+      </c>
+      <c r="E55" t="n">
+        <v>7.030559782956504</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.005330090176685706</v>
+      </c>
+      <c r="C56" t="n">
+        <v>127.1800003051758</v>
+      </c>
+      <c r="D56" t="n">
+        <v>638.5354861693187</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5.020722477096365</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.005288061552762281</v>
+      </c>
+      <c r="C57" t="n">
+        <v>13.02000045776367</v>
+      </c>
+      <c r="D57" t="n">
+        <v>633.500530489327</v>
+      </c>
+      <c r="E57" t="n">
+        <v>48.65595301201224</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.005197399085282128</v>
+      </c>
+      <c r="C58" t="n">
+        <v>77.37000274658203</v>
+      </c>
+      <c r="D58" t="n">
+        <v>622.6393253631978</v>
+      </c>
+      <c r="E58" t="n">
+        <v>8.047554649863368</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.004990379988500426</v>
+      </c>
+      <c r="C59" t="n">
+        <v>163.7200012207031</v>
+      </c>
+      <c r="D59" t="n">
+        <v>597.8387994381311</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.651592932938066</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.004927277872716004</v>
+      </c>
+      <c r="C60" t="n">
+        <v>366.010009765625</v>
+      </c>
+      <c r="D60" t="n">
+        <v>590.2792762696557</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.612740800853075</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.004894196494618075</v>
+      </c>
+      <c r="C61" t="n">
+        <v>121.3899993896484</v>
+      </c>
+      <c r="D61" t="n">
+        <v>586.3161849997728</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4.830020495492078</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.004893072348490434</v>
+      </c>
+      <c r="C62" t="n">
+        <v>217.2799987792969</v>
+      </c>
+      <c r="D62" t="n">
+        <v>586.1815142586888</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.697816262665324</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.004878770527820644</v>
+      </c>
+      <c r="C63" t="n">
+        <v>253.8600006103516</v>
+      </c>
+      <c r="D63" t="n">
+        <v>584.4681811420305</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2.302324823669751</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.004530461899621269</v>
+      </c>
+      <c r="C64" t="n">
+        <v>58.52000045776367</v>
+      </c>
+      <c r="D64" t="n">
+        <v>542.7414163272275</v>
+      </c>
+      <c r="E64" t="n">
+        <v>9.274460220125027</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.004109679827306444</v>
+      </c>
+      <c r="C65" t="n">
+        <v>84.63999938964844</v>
+      </c>
+      <c r="D65" t="n">
+        <v>492.3324595909738</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5.816782409513894</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.003668131995651883</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1724.969970703125</v>
+      </c>
+      <c r="D66" t="n">
+        <v>439.4358011843672</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.2547498267493006</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>AIZ</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.00355263170585966</v>
+      </c>
+      <c r="C67" t="n">
+        <v>225.9499969482422</v>
+      </c>
+      <c r="D67" t="n">
+        <v>425.5990683617654</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.883598469174825</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.003382617269823928</v>
+      </c>
+      <c r="C68" t="n">
+        <v>252.1900024414062</v>
+      </c>
+      <c r="D68" t="n">
+        <v>405.231636109919</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.606850518208272</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.003108359639444114</v>
+      </c>
+      <c r="C69" t="n">
+        <v>24.92000007629395</v>
+      </c>
+      <c r="D69" t="n">
+        <v>372.3760513927551</v>
+      </c>
+      <c r="E69" t="n">
+        <v>14.94285915941836</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.002946014797892389</v>
+      </c>
+      <c r="C70" t="n">
+        <v>435.5199890136719</v>
+      </c>
+      <c r="D70" t="n">
+        <v>352.9274231536414</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.8103587253318063</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>VTRS</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.002834765995548434</v>
+      </c>
+      <c r="C71" t="n">
+        <v>10.71000003814697</v>
+      </c>
+      <c r="D71" t="n">
+        <v>339.6000110957422</v>
+      </c>
+      <c r="E71" t="n">
+        <v>31.70868439646609</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SOLV</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.002827548604195691</v>
+      </c>
+      <c r="C72" t="n">
+        <v>76.88999938964844</v>
+      </c>
+      <c r="D72" t="n">
+        <v>338.7353802276837</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4.405454323274283</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.002732727519724341</v>
+      </c>
+      <c r="C73" t="n">
+        <v>309.1600036621094</v>
+      </c>
+      <c r="D73" t="n">
+        <v>327.3759800552716</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.058920870026483</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>TRGP</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.002579774954349508</v>
+      </c>
+      <c r="C74" t="n">
+        <v>169.5800018310547</v>
+      </c>
+      <c r="D74" t="n">
+        <v>309.0525300844509</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.822458584428763</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>STE</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.002434842217869821</v>
+      </c>
+      <c r="C75" t="n">
+        <v>257</v>
+      </c>
+      <c r="D75" t="n">
+        <v>291.6898415966077</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.13497992839147</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.001557195232112158</v>
+      </c>
+      <c r="C76" t="n">
+        <v>148.5099945068359</v>
+      </c>
+      <c r="D76" t="n">
+        <v>186.5492668297708</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.256139477004586</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.001430738557402473</v>
+      </c>
+      <c r="C77" t="n">
+        <v>340.5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>171.3999782458179</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.5033773223078352</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.00113196301235232</v>
+      </c>
+      <c r="C78" t="n">
+        <v>27.42000007629395</v>
+      </c>
+      <c r="D78" t="n">
+        <v>135.6071902084624</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4.945557616015545</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0002655789412208195</v>
+      </c>
+      <c r="C79" t="n">
+        <v>154.6100006103516</v>
+      </c>
+      <c r="D79" t="n">
+        <v>31.81589292626492</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.2057815975723808</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0002487894377271578</v>
+      </c>
+      <c r="C80" t="n">
+        <v>101.5699996948242</v>
+      </c>
+      <c r="D80" t="n">
+        <v>29.80453975577636</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.2934384153325456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Shares</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Exit_Price</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Sale_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Transaction_Cost</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>Gain_Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CAH</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>32.38663173328271</v>
+      </c>
+      <c r="C2" t="n">
+        <v>206.9700012207031</v>
+      </c>
+      <c r="D2" t="n">
+        <v>207.5200042724609</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6720.873955661446</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17.81274628946176</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17.98400353527994</v>
+      </c>
+      <c r="C3" t="n">
+        <v>361.6400146484375</v>
+      </c>
+      <c r="D3" t="n">
+        <v>360.7300109863281</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6487.369792859698</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-16.36550907649234</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>134.2240591921018</v>
+      </c>
+      <c r="C4" t="n">
+        <v>38.70000076293945</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37.88000106811523</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5084.407505563579</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-110.0636875755918</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>20.36320620903575</v>
+      </c>
+      <c r="C5" t="n">
+        <v>198.2899932861328</v>
+      </c>
+      <c r="D5" t="n">
+        <v>196.8999938964844</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4009.515178271992</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-28.3048442018453</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>33.1015484326355</v>
+      </c>
+      <c r="C6" t="n">
+        <v>103.8899993896484</v>
+      </c>
+      <c r="D6" t="n">
+        <v>101.3199996948242</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3353.848877092837</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-85.07096937008237</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>VTR</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>42.83620122707109</v>
+      </c>
+      <c r="C7" t="n">
+        <v>79.86000061035156</v>
+      </c>
+      <c r="D7" t="n">
+        <v>80</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3426.896098165687</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.997042026647705</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>26.68262017499511</v>
+      </c>
+      <c r="C8" t="n">
+        <v>123.5100021362305</v>
+      </c>
+      <c r="D8" t="n">
+        <v>121.7099990844727</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3247.541677069987</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-48.02879774388566</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>22.59900607639895</v>
+      </c>
+      <c r="C9" t="n">
+        <v>139.9100036621094</v>
+      </c>
+      <c r="D9" t="n">
+        <v>139.1300048828125</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3144.199825756095</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-17.6271971529136</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.54582478683787</v>
+      </c>
+      <c r="C10" t="n">
+        <v>860.75</v>
+      </c>
+      <c r="D10" t="n">
+        <v>852.469970703125</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3022.709152154093</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-29.35953311660296</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AKAM</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>31.6662184080762</v>
+      </c>
+      <c r="C11" t="n">
+        <v>87.73999786376953</v>
+      </c>
+      <c r="D11" t="n">
+        <v>86.51999664306641</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2739.761110365361</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-38.63282511290481</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.675101706879875</v>
+      </c>
+      <c r="C12" t="n">
+        <v>478.1400146484375</v>
+      </c>
+      <c r="D12" t="n">
+        <v>481.0599975585938</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2730.064413256404</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16.57119999748784</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>40.66644193690993</v>
+      </c>
+      <c r="C13" t="n">
+        <v>64.77999877929688</v>
+      </c>
+      <c r="D13" t="n">
+        <v>64.05000305175781</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2604.685730163213</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-29.68632886815976</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.434636921483844</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1030.050048828125</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1049.599975585938</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2555.394853350064</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>47.59697349687531</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14.42568521524682</v>
+      </c>
+      <c r="C15" t="n">
+        <v>152.8600006103516</v>
+      </c>
+      <c r="D15" t="n">
+        <v>153.9700012207031</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2221.122770201032</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16.0125193936633</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6.359704560607165</v>
+      </c>
+      <c r="C16" t="n">
+        <v>343.989990234375</v>
+      </c>
+      <c r="D16" t="n">
+        <v>342.3999938964844</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2177.562802735337</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-10.11190696143149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CTRA</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>82.56544142807964</v>
+      </c>
+      <c r="C17" t="n">
+        <v>26.17000007629395</v>
+      </c>
+      <c r="D17" t="n">
+        <v>25.76000022888184</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2126.885790085061</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-33.85181838702601</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>11.22913432891134</v>
+      </c>
+      <c r="C18" t="n">
+        <v>178.7100067138672</v>
+      </c>
+      <c r="D18" t="n">
+        <v>180.9299926757812</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2031.687191885292</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>24.92852057463028</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8.707861717265208</v>
+      </c>
+      <c r="C19" t="n">
+        <v>228.8399963378906</v>
+      </c>
+      <c r="D19" t="n">
+        <v>227.9400024414062</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1984.87002109286</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-7.837022396968678</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>23.38124594548207</v>
+      </c>
+      <c r="C20" t="n">
+        <v>84.04000091552734</v>
+      </c>
+      <c r="D20" t="n">
+        <v>86.01999664306641</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2011.254697741078</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>46.29476707659455</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6.818594623902554</v>
+      </c>
+      <c r="C21" t="n">
+        <v>284.2799987792969</v>
+      </c>
+      <c r="D21" t="n">
+        <v>292.8099975585938</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1996.552675177947</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>58.1626038184088</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.530140143041185</v>
+      </c>
+      <c r="C22" t="n">
+        <v>546.77001953125</v>
+      </c>
+      <c r="D22" t="n">
+        <v>564.6400146484375</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1993.258382077812</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>63.08358711913343</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>10.8383038236993</v>
+      </c>
+      <c r="C23" t="n">
+        <v>176.4600067138672</v>
+      </c>
+      <c r="D23" t="n">
+        <v>176.3099975585938</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1910.90132069572</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1.625844801190169</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6.581630253809045</v>
+      </c>
+      <c r="C24" t="n">
+        <v>284.9599914550781</v>
+      </c>
+      <c r="D24" t="n">
+        <v>292.989990234375</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1928.351783789779</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>52.85048290387022</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>8.202287224479758</v>
+      </c>
+      <c r="C25" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>225.9199981689453</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1853.06071473563</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-21.16191605799418</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2.241411288187976</v>
+      </c>
+      <c r="C26" t="n">
+        <v>817.2999877929688</v>
+      </c>
+      <c r="D26" t="n">
+        <v>820.6699829101562</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1839.458963571858</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7.553545096802509</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3.913274563594206</v>
+      </c>
+      <c r="C27" t="n">
+        <v>464.9200134277344</v>
+      </c>
+      <c r="D27" t="n">
+        <v>473.260009765625</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1851.996358182166</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>32.63669552953615</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3.303823691325687</v>
+      </c>
+      <c r="C28" t="n">
+        <v>546.8800048828125</v>
+      </c>
+      <c r="D28" t="n">
+        <v>553.1099853515625</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1827.377873513296</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>20.58275706915242</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>70.43931853245313</v>
+      </c>
+      <c r="C29" t="n">
+        <v>25.45000076293945</v>
+      </c>
+      <c r="D29" t="n">
+        <v>24.8799991607666</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1752.530185972405</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-40.15052441946204</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29.764669068969</v>
+      </c>
+      <c r="C30" t="n">
+        <v>58.75</v>
+      </c>
+      <c r="D30" t="n">
+        <v>58.88999938964844</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1752.841343304672</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.167035502743374</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FDS</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6.190288543789459</v>
+      </c>
+      <c r="C31" t="n">
+        <v>272.1099853515625</v>
+      </c>
+      <c r="D31" t="n">
+        <v>267.0199890136719</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1652.93077895412</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-31.50854601837455</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.380674933678142</v>
+      </c>
+      <c r="C32" t="n">
+        <v>263.0799865722656</v>
+      </c>
+      <c r="D32" t="n">
+        <v>262.5700073242188</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1675.373864069329</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-3.254011804708853</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4.451173415018875</v>
+      </c>
+      <c r="C33" t="n">
+        <v>376.6300048828125</v>
+      </c>
+      <c r="D33" t="n">
+        <v>376.25</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1674.753997400852</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-1.691467631952264</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>22.48269379422383</v>
+      </c>
+      <c r="C34" t="n">
+        <v>74.54000091552734</v>
+      </c>
+      <c r="D34" t="n">
+        <v>65.26000213623047</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1467.220645039263</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-208.6393709657025</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>14.24224509791294</v>
+      </c>
+      <c r="C35" t="n">
+        <v>117.1600036621094</v>
+      </c>
+      <c r="D35" t="n">
+        <v>117.2699966430664</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1670.188034821979</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.56654699384012</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>6.93816335712723</v>
+      </c>
+      <c r="C36" t="n">
+        <v>225.5099945068359</v>
+      </c>
+      <c r="D36" t="n">
+        <v>222.4100036621094</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1543.11693766698</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-21.50824288631156</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>9.018498623326296</v>
+      </c>
+      <c r="C37" t="n">
+        <v>163.9400024414062</v>
+      </c>
+      <c r="D37" t="n">
+        <v>165.8000030517578</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1495.267099269774</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>16.77441294384153</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5.088678325444903</v>
+      </c>
+      <c r="C38" t="n">
+        <v>282.8999938964844</v>
+      </c>
+      <c r="D38" t="n">
+        <v>284.2000122070312</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1446.202442209097</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6.615374999561482</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2.486957674779311</v>
+      </c>
+      <c r="C39" t="n">
+        <v>576.030029296875</v>
+      </c>
+      <c r="D39" t="n">
+        <v>573.7899780273438</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1426.991389566555</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-5.570912696659889</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>EXPE</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>5.731748132888083</v>
+      </c>
+      <c r="C40" t="n">
+        <v>239.6000061035156</v>
+      </c>
+      <c r="D40" t="n">
+        <v>239.9600067138672</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1375.39032045002</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.063432826221288</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>18.27680774374096</v>
+      </c>
+      <c r="C41" t="n">
+        <v>67.93000030517578</v>
+      </c>
+      <c r="D41" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1251.961330446256</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10.41777483629312</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>7.134522456985254</v>
+      </c>
+      <c r="C42" t="n">
+        <v>168.8300018310547</v>
+      </c>
+      <c r="D42" t="n">
+        <v>167.9299926757812</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1198.10030394673</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-6.421135529790718</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>7.736580771530863</v>
+      </c>
+      <c r="C43" t="n">
+        <v>151.6900024414062</v>
+      </c>
+      <c r="D43" t="n">
+        <v>151.3600006103516</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1171.008870300946</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-2.553085820707793</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.417743098079218</v>
+      </c>
+      <c r="C44" t="n">
+        <v>725.3400268554688</v>
+      </c>
+      <c r="D44" t="n">
+        <v>702.75</v>
+      </c>
+      <c r="E44" t="n">
+        <v>996.3189621751702</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-32.02685465976504</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>5.347614841356539</v>
+      </c>
+      <c r="C45" t="n">
+        <v>185.4299926757812</v>
+      </c>
+      <c r="D45" t="n">
+        <v>180.3300018310547</v>
+      </c>
+      <c r="E45" t="n">
+        <v>964.3353941335999</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-27.27278673204228</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>4.842504653734578</v>
+      </c>
+      <c r="C46" t="n">
+        <v>200</v>
+      </c>
+      <c r="D46" t="n">
+        <v>202.5099945068359</v>
+      </c>
+      <c r="E46" t="n">
+        <v>980.655590827117</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>12.15466008020132</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>9.644369993621714</v>
+      </c>
+      <c r="C47" t="n">
+        <v>92.83000183105469</v>
+      </c>
+      <c r="D47" t="n">
+        <v>92.41000366210938</v>
+      </c>
+      <c r="E47" t="n">
+        <v>891.2362664293204</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-4.050617737952166</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>HPE</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>42.82492455994694</v>
+      </c>
+      <c r="C48" t="n">
+        <v>20.89999961853027</v>
+      </c>
+      <c r="D48" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="E48" t="n">
+        <v>882.1934622713193</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-12.84744469515954</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>35.85442705770396</v>
+      </c>
+      <c r="C49" t="n">
+        <v>23.69000053405762</v>
+      </c>
+      <c r="D49" t="n">
+        <v>23.09000015258789</v>
+      </c>
+      <c r="E49" t="n">
+        <v>827.8787262333358</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-21.51266991200089</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>12.50161060102728</v>
+      </c>
+      <c r="C50" t="n">
+        <v>64.95999908447266</v>
+      </c>
+      <c r="D50" t="n">
+        <v>64.77999877929688</v>
+      </c>
+      <c r="E50" t="n">
+        <v>809.8543194737922</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-2.250293723373716</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>11.36060219824293</v>
+      </c>
+      <c r="C51" t="n">
+        <v>71.19999694824219</v>
+      </c>
+      <c r="D51" t="n">
+        <v>70.59999847412109</v>
+      </c>
+      <c r="E51" t="n">
+        <v>802.0584978610474</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-6.816343984042419</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>19.28496930043085</v>
+      </c>
+      <c r="C52" t="n">
+        <v>35.86999893188477</v>
+      </c>
+      <c r="D52" t="n">
+        <v>35.27999877929688</v>
+      </c>
+      <c r="E52" t="n">
+        <v>680.3736933779782</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-11.37813482990703</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ABBV</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.950209537521975</v>
+      </c>
+      <c r="C53" t="n">
+        <v>233.8699951171875</v>
+      </c>
+      <c r="D53" t="n">
+        <v>232.9100036621094</v>
+      </c>
+      <c r="E53" t="n">
+        <v>687.1333141882332</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-2.832175946711118</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>25.25587049311562</v>
+      </c>
+      <c r="C54" t="n">
+        <v>26.79000091552734</v>
+      </c>
+      <c r="D54" t="n">
+        <v>26.45999908447266</v>
+      </c>
+      <c r="E54" t="n">
+        <v>668.2703101253993</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-8.334483507608184</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>7.030559782956504</v>
+      </c>
+      <c r="C55" t="n">
+        <v>96.13999938964844</v>
+      </c>
+      <c r="D55" t="n">
+        <v>93.15000152587891</v>
+      </c>
+      <c r="E55" t="n">
+        <v>654.8966545101813</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-21.02135873214388</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>5.020722477096365</v>
+      </c>
+      <c r="C56" t="n">
+        <v>127.1800003051758</v>
+      </c>
+      <c r="D56" t="n">
+        <v>128.0700073242188</v>
+      </c>
+      <c r="E56" t="n">
+        <v>643.0039644146012</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4.46847824528254</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>48.65595301201224</v>
+      </c>
+      <c r="C57" t="n">
+        <v>13.02000045776367</v>
+      </c>
+      <c r="D57" t="n">
+        <v>12.89999961853027</v>
+      </c>
+      <c r="E57" t="n">
+        <v>627.6617752941848</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-5.838755195142198</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>8.047554649863368</v>
+      </c>
+      <c r="C58" t="n">
+        <v>77.37000274658203</v>
+      </c>
+      <c r="D58" t="n">
+        <v>78.38999938964844</v>
+      </c>
+      <c r="E58" t="n">
+        <v>630.8478040909519</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>8.208478727754027</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3.651592932938066</v>
+      </c>
+      <c r="C59" t="n">
+        <v>163.7200012207031</v>
+      </c>
+      <c r="D59" t="n">
+        <v>168.2299957275391</v>
+      </c>
+      <c r="E59" t="n">
+        <v>614.3074635068828</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>16.46866406875165</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1.612740800853075</v>
+      </c>
+      <c r="C60" t="n">
+        <v>366.010009765625</v>
+      </c>
+      <c r="D60" t="n">
+        <v>372.4800109863281</v>
+      </c>
+      <c r="E60" t="n">
+        <v>600.7137112198528</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>10.4344349501971</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>4.830020495492078</v>
+      </c>
+      <c r="C61" t="n">
+        <v>121.3899993896484</v>
+      </c>
+      <c r="D61" t="n">
+        <v>125.6800003051758</v>
+      </c>
+      <c r="E61" t="n">
+        <v>607.0369773474496</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>20.72079234767682</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2.697816262665324</v>
+      </c>
+      <c r="C62" t="n">
+        <v>217.2799987792969</v>
+      </c>
+      <c r="D62" t="n">
+        <v>217.4799957275391</v>
+      </c>
+      <c r="E62" t="n">
+        <v>586.72106927814</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.5395550194511998</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2.302324823669751</v>
+      </c>
+      <c r="C63" t="n">
+        <v>253.8600006103516</v>
+      </c>
+      <c r="D63" t="n">
+        <v>259.1400146484375</v>
+      </c>
+      <c r="E63" t="n">
+        <v>596.6244885312406</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>12.15630738921004</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>9.274460220125027</v>
+      </c>
+      <c r="C64" t="n">
+        <v>58.52000045776367</v>
+      </c>
+      <c r="D64" t="n">
+        <v>58.2599983215332</v>
+      </c>
+      <c r="E64" t="n">
+        <v>540.3300368576105</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-2.411379469617032</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>5.816782409513894</v>
+      </c>
+      <c r="C65" t="n">
+        <v>84.63999938964844</v>
+      </c>
+      <c r="D65" t="n">
+        <v>84.26999664306641</v>
+      </c>
+      <c r="E65" t="n">
+        <v>490.1802341231835</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-2.152225467790174</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.2547498267493006</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1724.969970703125</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1736.160034179688</v>
+      </c>
+      <c r="E66" t="n">
+        <v>442.2864679163351</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2.850666731967976</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>AIZ</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1.883598469174825</v>
+      </c>
+      <c r="C67" t="n">
+        <v>225.9499969482422</v>
+      </c>
+      <c r="D67" t="n">
+        <v>224.6199951171875</v>
+      </c>
+      <c r="E67" t="n">
+        <v>423.0938789487911</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-2.505189412974289</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1.606850518208272</v>
+      </c>
+      <c r="C68" t="n">
+        <v>252.1900024414062</v>
+      </c>
+      <c r="D68" t="n">
+        <v>251.8699951171875</v>
+      </c>
+      <c r="E68" t="n">
+        <v>404.7174321751676</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-0.5142039347513219</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>14.94285915941836</v>
+      </c>
+      <c r="C69" t="n">
+        <v>24.92000007629395</v>
+      </c>
+      <c r="D69" t="n">
+        <v>24.04999923706055</v>
+      </c>
+      <c r="E69" t="n">
+        <v>359.3757513835147</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-13.00030000924045</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.8103587253318063</v>
+      </c>
+      <c r="C70" t="n">
+        <v>435.5199890136719</v>
+      </c>
+      <c r="D70" t="n">
+        <v>421.0299987792969</v>
+      </c>
+      <c r="E70" t="n">
+        <v>341.185333137243</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-11.74209001639844</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>VTRS</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>31.70868439646609</v>
+      </c>
+      <c r="C71" t="n">
+        <v>10.71000003814697</v>
+      </c>
+      <c r="D71" t="n">
+        <v>10.46000003814697</v>
+      </c>
+      <c r="E71" t="n">
+        <v>331.6728399966257</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-7.927171099116492</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SOLV</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>4.405454323274283</v>
+      </c>
+      <c r="C72" t="n">
+        <v>76.88999938964844</v>
+      </c>
+      <c r="D72" t="n">
+        <v>77.30999755859375</v>
+      </c>
+      <c r="E72" t="n">
+        <v>340.5856629768311</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.850282749147425</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1.058920870026483</v>
+      </c>
+      <c r="C73" t="n">
+        <v>309.1600036621094</v>
+      </c>
+      <c r="D73" t="n">
+        <v>309.739990234375</v>
+      </c>
+      <c r="E73" t="n">
+        <v>327.9901399409788</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.6141598857072381</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>TRGP</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1.822458584428763</v>
+      </c>
+      <c r="C74" t="n">
+        <v>169.5800018310547</v>
+      </c>
+      <c r="D74" t="n">
+        <v>170.1600036621094</v>
+      </c>
+      <c r="E74" t="n">
+        <v>310.1095594004409</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.057029315990007</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>STE</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1.13497992839147</v>
+      </c>
+      <c r="C75" t="n">
+        <v>257</v>
+      </c>
+      <c r="D75" t="n">
+        <v>254.7100067138672</v>
+      </c>
+      <c r="E75" t="n">
+        <v>289.0907451806958</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-2.599096415911959</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1.256139477004586</v>
+      </c>
+      <c r="C76" t="n">
+        <v>148.5099945068359</v>
+      </c>
+      <c r="D76" t="n">
+        <v>148.5800018310547</v>
+      </c>
+      <c r="E76" t="n">
+        <v>186.6372057934014</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.08793896363062004</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5033773223078352</v>
+      </c>
+      <c r="C77" t="n">
+        <v>340.5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>354.4200134277344</v>
+      </c>
+      <c r="E77" t="n">
+        <v>178.4069973315599</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>7.007019085742058</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4.945557616015545</v>
+      </c>
+      <c r="C78" t="n">
+        <v>27.42000007629395</v>
+      </c>
+      <c r="D78" t="n">
+        <v>26.88999938964844</v>
+      </c>
+      <c r="E78" t="n">
+        <v>132.9860412761292</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-2.62114893233317</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.2057815975723808</v>
+      </c>
+      <c r="C79" t="n">
+        <v>154.6100006103516</v>
+      </c>
+      <c r="D79" t="n">
+        <v>155.4600067138672</v>
+      </c>
+      <c r="E79" t="n">
+        <v>31.99080854019264</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.1749156139277197</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.2934384153325456</v>
+      </c>
+      <c r="C80" t="n">
+        <v>101.5699996948242</v>
+      </c>
+      <c r="D80" t="n">
+        <v>99.94999694824219</v>
+      </c>
+      <c r="E80" t="n">
+        <v>29.32916871698496</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-0.4753710387914047</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/backtest_portfolio_PL.xlsx
+++ b/backtest_portfolio_PL.xlsx
@@ -48,6 +48,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-18-2025_PnL" sheetId="40" state="visible" r:id="rId40"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-19-2025_Allocations" sheetId="41" state="visible" r:id="rId41"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-19-2025_PnL" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-20-2025_Allocations" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-20-2025_PnL" sheetId="44" state="visible" r:id="rId44"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -72859,16 +72861,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05595291331439447</v>
+        <v>0.05595290571771214</v>
       </c>
       <c r="C2" t="n">
         <v>206.9700012207031</v>
       </c>
       <c r="D2" t="n">
-        <v>6703.061209371984</v>
+        <v>6703.06029930272</v>
       </c>
       <c r="E2" t="n">
-        <v>32.38663173328271</v>
+        <v>32.38662733617559</v>
       </c>
     </row>
     <row r="3">
@@ -72878,16 +72880,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05428906677149338</v>
+        <v>0.05428914068021047</v>
       </c>
       <c r="C3" t="n">
         <v>361.6400146484375</v>
       </c>
       <c r="D3" t="n">
-        <v>6503.73530193619</v>
+        <v>6503.744156071305</v>
       </c>
       <c r="E3" t="n">
-        <v>17.98400353527994</v>
+        <v>17.98402801856375</v>
       </c>
     </row>
     <row r="4">
@@ -72897,16 +72899,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04336015848661273</v>
+        <v>0.04336015259963866</v>
       </c>
       <c r="C4" t="n">
         <v>38.70000076293945</v>
       </c>
       <c r="D4" t="n">
-        <v>5194.47119313917</v>
+        <v>5194.470487889967</v>
       </c>
       <c r="E4" t="n">
-        <v>134.2240591921018</v>
+        <v>134.2240409686086</v>
       </c>
     </row>
     <row r="5">
@@ -72916,16 +72918,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03370516643660074</v>
+        <v>0.03370517844179827</v>
       </c>
       <c r="C5" t="n">
         <v>198.2899932861328</v>
       </c>
       <c r="D5" t="n">
-        <v>4037.820022473838</v>
+        <v>4037.821460675517</v>
       </c>
       <c r="E5" t="n">
-        <v>20.36320620903575</v>
+        <v>20.36321346205773</v>
       </c>
     </row>
     <row r="6">
@@ -72935,16 +72937,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02870592674810414</v>
+        <v>0.0287059228507234</v>
       </c>
       <c r="C6" t="n">
         <v>103.8899993896484</v>
       </c>
       <c r="D6" t="n">
-        <v>3438.91984646292</v>
+        <v>3438.919379563521</v>
       </c>
       <c r="E6" t="n">
-        <v>33.1015484326355</v>
+        <v>33.10154393846472</v>
       </c>
     </row>
     <row r="7">
@@ -72954,16 +72956,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02855550059394055</v>
+        <v>0.02855549671698305</v>
       </c>
       <c r="C7" t="n">
         <v>79.86000061035156</v>
       </c>
       <c r="D7" t="n">
-        <v>3420.899056139039</v>
+        <v>3420.898591686308</v>
       </c>
       <c r="E7" t="n">
-        <v>42.83620122707109</v>
+        <v>42.83619541123427</v>
       </c>
     </row>
     <row r="8">
@@ -72973,16 +72975,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.027509336904297</v>
+        <v>0.02750933316937632</v>
       </c>
       <c r="C8" t="n">
         <v>123.5100021362305</v>
       </c>
       <c r="D8" t="n">
-        <v>3295.570474813872</v>
+        <v>3295.570027376903</v>
       </c>
       <c r="E8" t="n">
-        <v>26.68262017499511</v>
+        <v>26.68261655231709</v>
       </c>
     </row>
     <row r="9">
@@ -72992,16 +72994,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02639293119993945</v>
+        <v>0.02639292761659227</v>
       </c>
       <c r="C9" t="n">
         <v>139.9100036621094</v>
       </c>
       <c r="D9" t="n">
-        <v>3161.827022909009</v>
+        <v>3161.826593630281</v>
       </c>
       <c r="E9" t="n">
-        <v>22.59900607639895</v>
+        <v>22.59900300814995</v>
       </c>
     </row>
     <row r="10">
@@ -73011,16 +73013,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02547673805182647</v>
+        <v>0.0254767345928701</v>
       </c>
       <c r="C10" t="n">
         <v>860.75</v>
       </c>
       <c r="D10" t="n">
-        <v>3052.068685270696</v>
+        <v>3052.06827089377</v>
       </c>
       <c r="E10" t="n">
-        <v>3.54582478683787</v>
+        <v>3.545824305424072</v>
       </c>
     </row>
     <row r="11">
@@ -73030,16 +73032,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02319227442048374</v>
+        <v>0.02319227127168718</v>
       </c>
       <c r="C11" t="n">
         <v>87.73999786376953</v>
       </c>
       <c r="D11" t="n">
-        <v>2778.393935478266</v>
+        <v>2778.393558257941</v>
       </c>
       <c r="E11" t="n">
-        <v>31.6662184080762</v>
+        <v>31.66621410877903</v>
       </c>
     </row>
     <row r="12">
@@ -73049,16 +73051,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02265052426022807</v>
+        <v>0.02265052780650795</v>
       </c>
       <c r="C12" t="n">
         <v>478.1400146484375</v>
       </c>
       <c r="D12" t="n">
-        <v>2713.493213258916</v>
+        <v>2713.493638097047</v>
       </c>
       <c r="E12" t="n">
-        <v>5.675101706879875</v>
+        <v>5.675102595402311</v>
       </c>
     </row>
     <row r="13">
@@ -73068,16 +73070,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02199007093218165</v>
+        <v>0.0219900679466073</v>
       </c>
       <c r="C13" t="n">
         <v>64.77999877929688</v>
       </c>
       <c r="D13" t="n">
-        <v>2634.372059031372</v>
+        <v>2634.371701364783</v>
       </c>
       <c r="E13" t="n">
-        <v>40.66644193690993</v>
+        <v>40.66643641565961</v>
       </c>
     </row>
     <row r="14">
@@ -73087,16 +73089,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02093350977986882</v>
+        <v>0.02093350693774292</v>
       </c>
       <c r="C14" t="n">
         <v>1030.050048828125</v>
       </c>
       <c r="D14" t="n">
-        <v>2507.797879853189</v>
+        <v>2507.797539371475</v>
       </c>
       <c r="E14" t="n">
-        <v>2.434636921483844</v>
+        <v>2.434636590935134</v>
       </c>
     </row>
     <row r="15">
@@ -73106,16 +73108,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01840686499171431</v>
+        <v>0.01840686289144836</v>
       </c>
       <c r="C15" t="n">
         <v>152.8600006103516</v>
       </c>
       <c r="D15" t="n">
-        <v>2205.110250807369</v>
+        <v>2205.109999199179</v>
       </c>
       <c r="E15" t="n">
-        <v>14.42568521524682</v>
+        <v>14.42568356924271</v>
       </c>
     </row>
     <row r="16">
@@ -73125,16 +73127,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0182613241276406</v>
+        <v>0.01826132164831522</v>
       </c>
       <c r="C16" t="n">
         <v>343.989990234375</v>
       </c>
       <c r="D16" t="n">
-        <v>2187.674709696769</v>
+        <v>2187.674412677922</v>
       </c>
       <c r="E16" t="n">
-        <v>6.359704560607165</v>
+        <v>6.359703697155159</v>
       </c>
     </row>
     <row r="17">
@@ -73144,16 +73146,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01803647025227119</v>
+        <v>0.01803646780347404</v>
       </c>
       <c r="C17" t="n">
         <v>26.17000007629395</v>
       </c>
       <c r="D17" t="n">
-        <v>2160.737608472087</v>
+        <v>2160.737315110469</v>
       </c>
       <c r="E17" t="n">
-        <v>82.56544142807964</v>
+        <v>82.56543021823565</v>
       </c>
     </row>
     <row r="18">
@@ -73163,16 +73165,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01675115152189918</v>
+        <v>0.01675114924760872</v>
       </c>
       <c r="C18" t="n">
         <v>178.7100067138672</v>
       </c>
       <c r="D18" t="n">
-        <v>2006.758671310661</v>
+        <v>2006.75839885464</v>
       </c>
       <c r="E18" t="n">
-        <v>11.22913432891134</v>
+        <v>11.22913280434074</v>
       </c>
     </row>
     <row r="19">
@@ -73182,16 +73184,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01663385742464613</v>
+        <v>0.0166338551662806</v>
       </c>
       <c r="C19" t="n">
         <v>228.8399963378906</v>
       </c>
       <c r="D19" t="n">
-        <v>1992.707043489828</v>
+        <v>1992.706772941586</v>
       </c>
       <c r="E19" t="n">
-        <v>8.707861717265208</v>
+        <v>8.707860535005782</v>
       </c>
     </row>
     <row r="20">
@@ -73201,16 +73203,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01640224208500541</v>
+        <v>0.0164022398580861</v>
       </c>
       <c r="C20" t="n">
         <v>84.04000091552734</v>
       </c>
       <c r="D20" t="n">
-        <v>1964.959930664483</v>
+        <v>1964.959663883443</v>
       </c>
       <c r="E20" t="n">
-        <v>23.38124594548207</v>
+        <v>23.38124277102899</v>
       </c>
     </row>
     <row r="21">
@@ -73220,16 +73222,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01618045371279322</v>
+        <v>0.01618045151598595</v>
       </c>
       <c r="C21" t="n">
         <v>284.2799987792969</v>
       </c>
       <c r="D21" t="n">
-        <v>1938.390071359538</v>
+        <v>1938.389808185867</v>
       </c>
       <c r="E21" t="n">
-        <v>6.818594623902554</v>
+        <v>6.81859369814741</v>
       </c>
     </row>
     <row r="22">
@@ -73239,16 +73241,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01611187778398201</v>
+        <v>0.01611187559648524</v>
       </c>
       <c r="C22" t="n">
         <v>546.77001953125</v>
       </c>
       <c r="D22" t="n">
-        <v>1930.174794958678</v>
+        <v>1930.174532900389</v>
       </c>
       <c r="E22" t="n">
-        <v>3.530140143041185</v>
+        <v>3.530139663756878</v>
       </c>
     </row>
     <row r="23">
@@ -73258,16 +73260,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01596456654056113</v>
+        <v>0.01596456437306469</v>
       </c>
       <c r="C23" t="n">
         <v>176.4600067138672</v>
       </c>
       <c r="D23" t="n">
-        <v>1912.52716549691</v>
+        <v>1912.526905834625</v>
       </c>
       <c r="E23" t="n">
-        <v>10.8383038236993</v>
+        <v>10.83830235219145</v>
       </c>
     </row>
     <row r="24">
@@ -73277,16 +73279,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01565549805255847</v>
+        <v>0.01565550787741791</v>
       </c>
       <c r="C24" t="n">
         <v>284.9599914550781</v>
       </c>
       <c r="D24" t="n">
-        <v>1875.501300885909</v>
+        <v>1875.502477886896</v>
       </c>
       <c r="E24" t="n">
-        <v>6.581630253809045</v>
+        <v>6.581634384216898</v>
       </c>
     </row>
     <row r="25">
@@ -73296,16 +73298,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01564482452376371</v>
+        <v>0.01564482359489283</v>
       </c>
       <c r="C25" t="n">
         <v>228.5</v>
       </c>
       <c r="D25" t="n">
-        <v>1874.222630793625</v>
+        <v>1874.222519516517</v>
       </c>
       <c r="E25" t="n">
-        <v>8.202287224479758</v>
+        <v>8.202286737490228</v>
       </c>
     </row>
     <row r="26">
@@ -73315,16 +73317,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01529158721343493</v>
+        <v>0.0152915946269776</v>
       </c>
       <c r="C26" t="n">
         <v>817.2999877929688</v>
       </c>
       <c r="D26" t="n">
-        <v>1831.905418475055</v>
+        <v>1831.906306604509</v>
       </c>
       <c r="E26" t="n">
-        <v>2.241411288187976</v>
+        <v>2.241412374850727</v>
       </c>
     </row>
     <row r="27">
@@ -73334,16 +73336,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01518686318271681</v>
+        <v>0.01518686112080853</v>
       </c>
       <c r="C27" t="n">
         <v>464.9200134277344</v>
       </c>
       <c r="D27" t="n">
-        <v>1819.35966265263</v>
+        <v>1819.359415639622</v>
       </c>
       <c r="E27" t="n">
-        <v>3.913274563594206</v>
+        <v>3.913274032292046</v>
       </c>
     </row>
     <row r="28">
@@ -73353,16 +73355,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0150819823017463</v>
+        <v>0.01508198025407761</v>
       </c>
       <c r="C28" t="n">
         <v>546.8800048828125</v>
       </c>
       <c r="D28" t="n">
-        <v>1806.795116444143</v>
+        <v>1806.794871137014</v>
       </c>
       <c r="E28" t="n">
-        <v>3.303823691325687</v>
+        <v>3.303823242768184</v>
       </c>
     </row>
     <row r="29">
@@ -73372,16 +73374,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0149641641715429</v>
+        <v>0.01496416614433538</v>
       </c>
       <c r="C29" t="n">
         <v>25.45000076293945</v>
       </c>
       <c r="D29" t="n">
-        <v>1792.680710391867</v>
+        <v>1792.680946728958</v>
       </c>
       <c r="E29" t="n">
-        <v>70.43931853245313</v>
+        <v>70.43932781878254</v>
       </c>
     </row>
     <row r="30">
@@ -73391,16 +73393,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01459682656973934</v>
+        <v>0.01459682505882497</v>
       </c>
       <c r="C30" t="n">
         <v>58.75</v>
       </c>
       <c r="D30" t="n">
-        <v>1748.674307801929</v>
+        <v>1748.674126797029</v>
       </c>
       <c r="E30" t="n">
-        <v>29.764669068969</v>
+        <v>29.76466598803454</v>
       </c>
     </row>
     <row r="31">
@@ -73410,16 +73412,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01406063358063434</v>
+        <v>0.01406063167163336</v>
       </c>
       <c r="C31" t="n">
         <v>272.1099853515625</v>
       </c>
       <c r="D31" t="n">
-        <v>1684.439324972495</v>
+        <v>1684.439096277514</v>
       </c>
       <c r="E31" t="n">
-        <v>6.190288543789459</v>
+        <v>6.190287703338931</v>
       </c>
     </row>
     <row r="32">
@@ -73429,16 +73431,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01401212328101446</v>
+        <v>0.01401211813946682</v>
       </c>
       <c r="C32" t="n">
         <v>263.0799865722656</v>
       </c>
       <c r="D32" t="n">
-        <v>1678.627875874037</v>
+        <v>1678.627259925617</v>
       </c>
       <c r="E32" t="n">
-        <v>6.380674933678142</v>
+        <v>6.380672592381001</v>
       </c>
     </row>
     <row r="33">
@@ -73448,16 +73450,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01399390589632981</v>
+        <v>0.01399390399638839</v>
       </c>
       <c r="C33" t="n">
         <v>376.6300048828125</v>
       </c>
       <c r="D33" t="n">
-        <v>1676.445465032804</v>
+        <v>1676.445237423143</v>
       </c>
       <c r="E33" t="n">
-        <v>4.451173415018875</v>
+        <v>4.451172810686618</v>
       </c>
     </row>
     <row r="34">
@@ -73467,16 +73469,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01398901893831444</v>
+        <v>0.01398901703903652</v>
       </c>
       <c r="C34" t="n">
         <v>74.54000091552734</v>
       </c>
       <c r="D34" t="n">
-        <v>1675.860016004965</v>
+        <v>1675.859788474791</v>
       </c>
       <c r="E34" t="n">
-        <v>22.48269379422383</v>
+        <v>22.48269074176646</v>
       </c>
     </row>
     <row r="35">
@@ -73486,16 +73488,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01392859628559638</v>
+        <v>0.013928594394522</v>
       </c>
       <c r="C35" t="n">
         <v>117.1600036621094</v>
       </c>
       <c r="D35" t="n">
-        <v>1668.621487828139</v>
+        <v>1668.621261280733</v>
       </c>
       <c r="E35" t="n">
-        <v>14.24224509791294</v>
+        <v>14.2422431642547</v>
       </c>
     </row>
     <row r="36">
@@ -73505,16 +73507,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01306050092077547</v>
+        <v>0.01306050027350634</v>
       </c>
       <c r="C36" t="n">
         <v>225.5099945068359</v>
       </c>
       <c r="D36" t="n">
-        <v>1564.625180553292</v>
+        <v>1564.625103011581</v>
       </c>
       <c r="E36" t="n">
-        <v>6.93816335712723</v>
+        <v>6.93816301327679</v>
       </c>
     </row>
     <row r="37">
@@ -73524,16 +73526,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01234152136314921</v>
+        <v>0.01234151912118952</v>
       </c>
       <c r="C37" t="n">
         <v>163.9400024414062</v>
       </c>
       <c r="D37" t="n">
-        <v>1478.492686325932</v>
+        <v>1478.49241774308</v>
       </c>
       <c r="E37" t="n">
-        <v>9.018498623326296</v>
+        <v>9.018496985026628</v>
       </c>
     </row>
     <row r="38">
@@ -73543,16 +73545,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01201676187403415</v>
+        <v>0.012016760242528</v>
       </c>
       <c r="C38" t="n">
         <v>282.8999938964844</v>
       </c>
       <c r="D38" t="n">
-        <v>1439.587067209535</v>
+        <v>1439.58687175795</v>
       </c>
       <c r="E38" t="n">
-        <v>5.088678325444903</v>
+        <v>5.088677634559114</v>
       </c>
     </row>
     <row r="39">
@@ -73562,16 +73564,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01195812358149612</v>
+        <v>0.01195812195795124</v>
       </c>
       <c r="C39" t="n">
         <v>576.030029296875</v>
       </c>
       <c r="D39" t="n">
-        <v>1432.562302263215</v>
+        <v>1432.562107765376</v>
       </c>
       <c r="E39" t="n">
-        <v>2.486957674779311</v>
+        <v>2.486957337127055</v>
       </c>
     </row>
     <row r="40">
@@ -73581,16 +73583,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01146366382394126</v>
+        <v>0.01146366576915868</v>
       </c>
       <c r="C40" t="n">
         <v>239.6000061035156</v>
       </c>
       <c r="D40" t="n">
-        <v>1373.326887623799</v>
+        <v>1373.327120657446</v>
       </c>
       <c r="E40" t="n">
-        <v>5.731748132888083</v>
+        <v>5.731749105482577</v>
       </c>
     </row>
     <row r="41">
@@ -73600,16 +73602,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01036361996008058</v>
+        <v>0.0103636178163903</v>
       </c>
       <c r="C41" t="n">
         <v>67.93000030517578</v>
       </c>
       <c r="D41" t="n">
-        <v>1241.543555609963</v>
+        <v>1241.543298799615</v>
       </c>
       <c r="E41" t="n">
-        <v>18.27680774374096</v>
+        <v>18.27680396322651</v>
       </c>
     </row>
     <row r="42">
@@ -73619,16 +73621,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01005458276199657</v>
+        <v>0.0100545813968939</v>
       </c>
       <c r="C42" t="n">
         <v>168.8300018310547</v>
       </c>
       <c r="D42" t="n">
-        <v>1204.521439476521</v>
+        <v>1204.521275939608</v>
       </c>
       <c r="E42" t="n">
-        <v>7.134522456985254</v>
+        <v>7.134521488336842</v>
       </c>
     </row>
     <row r="43">
@@ -73638,16 +73640,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.009796152585946358</v>
+        <v>0.009796152190462802</v>
       </c>
       <c r="C43" t="n">
         <v>151.6900024414062</v>
       </c>
       <c r="D43" t="n">
-        <v>1173.561956121653</v>
+        <v>1173.561908743415</v>
       </c>
       <c r="E43" t="n">
-        <v>7.736580771530863</v>
+        <v>7.736580459194929</v>
       </c>
     </row>
     <row r="44">
@@ -73657,16 +73659,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.008583980147180573</v>
+        <v>0.008583978981740448</v>
       </c>
       <c r="C44" t="n">
         <v>725.3400268554688</v>
       </c>
       <c r="D44" t="n">
-        <v>1028.345816834935</v>
+        <v>1028.345677217246</v>
       </c>
       <c r="E44" t="n">
-        <v>1.417743098079218</v>
+        <v>1.41774290559337</v>
       </c>
     </row>
     <row r="45">
@@ -73676,16 +73678,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.008277317609489345</v>
+        <v>0.00827731648568455</v>
       </c>
       <c r="C45" t="n">
         <v>185.4299926757812</v>
       </c>
       <c r="D45" t="n">
-        <v>991.6081808656421</v>
+        <v>991.608046235792</v>
       </c>
       <c r="E45" t="n">
-        <v>5.347614841356539</v>
+        <v>5.347614115315146</v>
       </c>
     </row>
     <row r="46">
@@ -73695,16 +73697,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.008084432907643057</v>
+        <v>0.008084431810026061</v>
       </c>
       <c r="C46" t="n">
         <v>200</v>
       </c>
       <c r="D46" t="n">
-        <v>968.5009307469156</v>
+        <v>968.5007992543182</v>
       </c>
       <c r="E46" t="n">
-        <v>4.842504653734578</v>
+        <v>4.842503996271591</v>
       </c>
     </row>
     <row r="47">
@@ -73714,16 +73716,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.007473288376255044</v>
+        <v>0.007473287361612654</v>
       </c>
       <c r="C47" t="n">
         <v>92.83000183105469</v>
       </c>
       <c r="D47" t="n">
-        <v>895.2868841672725</v>
+        <v>895.2867626148878</v>
       </c>
       <c r="E47" t="n">
-        <v>9.644369993621714</v>
+        <v>9.644368684213308</v>
       </c>
     </row>
     <row r="48">
@@ -73733,16 +73735,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.007471235114235881</v>
+        <v>0.007471234562163155</v>
       </c>
       <c r="C48" t="n">
         <v>20.89999961853027</v>
       </c>
       <c r="D48" t="n">
-        <v>895.0409069664788</v>
+        <v>895.0408408291312</v>
       </c>
       <c r="E48" t="n">
-        <v>42.82492455994694</v>
+        <v>42.82492139548049</v>
       </c>
     </row>
     <row r="49">
@@ -73752,16 +73754,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.007090181884668373</v>
+        <v>0.007090180922040046</v>
       </c>
       <c r="C49" t="n">
         <v>23.69000053405762</v>
       </c>
       <c r="D49" t="n">
-        <v>849.3913961453367</v>
+        <v>849.3912808241457</v>
       </c>
       <c r="E49" t="n">
-        <v>35.85442705770396</v>
+        <v>35.85442218977705</v>
       </c>
     </row>
     <row r="50">
@@ -73771,16 +73773,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.00677893541549476</v>
+        <v>0.006778934495124117</v>
       </c>
       <c r="C50" t="n">
         <v>64.95999908447266</v>
       </c>
       <c r="D50" t="n">
-        <v>812.1046131971659</v>
+        <v>812.1045029383716</v>
       </c>
       <c r="E50" t="n">
-        <v>12.50161060102728</v>
+        <v>12.5016089036936</v>
       </c>
     </row>
     <row r="51">
@@ -73790,16 +73792,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.006751975328029743</v>
+        <v>0.006751974411319449</v>
       </c>
       <c r="C51" t="n">
         <v>71.19999694824219</v>
       </c>
       <c r="D51" t="n">
-        <v>808.8748418450898</v>
+        <v>808.874732024799</v>
       </c>
       <c r="E51" t="n">
-        <v>11.36060219824293</v>
+        <v>11.36060065582304</v>
       </c>
     </row>
     <row r="52">
@@ -73809,16 +73811,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.005774306525005767</v>
+        <v>0.005774306079608608</v>
       </c>
       <c r="C52" t="n">
         <v>35.86999893188477</v>
       </c>
       <c r="D52" t="n">
-        <v>691.7518282078852</v>
+        <v>691.751774850084</v>
       </c>
       <c r="E52" t="n">
-        <v>19.28496930043085</v>
+        <v>19.28496781289802</v>
       </c>
     </row>
     <row r="53">
@@ -73828,16 +73830,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.005759395305158078</v>
+        <v>0.005759395611091907</v>
       </c>
       <c r="C53" t="n">
         <v>233.8699951171875</v>
       </c>
       <c r="D53" t="n">
-        <v>689.9654901349443</v>
+        <v>689.9655267852822</v>
       </c>
       <c r="E53" t="n">
-        <v>2.950209537521975</v>
+        <v>2.950209694234417</v>
       </c>
     </row>
     <row r="54">
@@ -73847,16 +73849,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.005647868665337517</v>
+        <v>0.005647867898530902</v>
       </c>
       <c r="C54" t="n">
         <v>26.79000091552734</v>
       </c>
       <c r="D54" t="n">
-        <v>676.6047936330075</v>
+        <v>676.6047017709153</v>
       </c>
       <c r="E54" t="n">
-        <v>25.25587049311562</v>
+        <v>25.25586706414627</v>
       </c>
     </row>
     <row r="55">
@@ -73866,16 +73868,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.005642135857227075</v>
+        <v>0.005642135091198799</v>
       </c>
       <c r="C55" t="n">
         <v>96.13999938964844</v>
       </c>
       <c r="D55" t="n">
-        <v>675.9180132423252</v>
+        <v>675.9179214734767</v>
       </c>
       <c r="E55" t="n">
-        <v>7.030559782956504</v>
+        <v>7.030558828423021</v>
       </c>
     </row>
     <row r="56">
@@ -73885,16 +73887,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.005330090176685706</v>
+        <v>0.005330091247177982</v>
       </c>
       <c r="C56" t="n">
         <v>127.1800003051758</v>
       </c>
       <c r="D56" t="n">
-        <v>638.5354861693187</v>
+        <v>638.5356144124222</v>
       </c>
       <c r="E56" t="n">
-        <v>5.020722477096365</v>
+        <v>5.020723485455409</v>
       </c>
     </row>
     <row r="57">
@@ -73904,16 +73906,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.005288061552762281</v>
+        <v>0.00528806083480639</v>
       </c>
       <c r="C57" t="n">
         <v>13.02000045776367</v>
       </c>
       <c r="D57" t="n">
-        <v>633.500530489327</v>
+        <v>633.5004444794663</v>
       </c>
       <c r="E57" t="n">
-        <v>48.65595301201224</v>
+        <v>48.65594640603238</v>
       </c>
     </row>
     <row r="58">
@@ -73923,16 +73925,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.005197399085282128</v>
+        <v>0.005197398816909186</v>
       </c>
       <c r="C58" t="n">
         <v>77.37000274658203</v>
       </c>
       <c r="D58" t="n">
-        <v>622.6393253631978</v>
+        <v>622.6392932125884</v>
       </c>
       <c r="E58" t="n">
-        <v>8.047554649863368</v>
+        <v>8.047554234319769</v>
       </c>
     </row>
     <row r="59">
@@ -73942,16 +73944,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.004990379988500426</v>
+        <v>0.004990379310960523</v>
       </c>
       <c r="C59" t="n">
         <v>163.7200012207031</v>
       </c>
       <c r="D59" t="n">
-        <v>597.8387994381311</v>
+        <v>597.8387182700351</v>
       </c>
       <c r="E59" t="n">
-        <v>3.651592932938066</v>
+        <v>3.651592437164212</v>
       </c>
     </row>
     <row r="60">
@@ -73961,16 +73963,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.004927277872716004</v>
+        <v>0.004927279322224624</v>
       </c>
       <c r="C60" t="n">
         <v>366.010009765625</v>
       </c>
       <c r="D60" t="n">
-        <v>590.2792762696557</v>
+        <v>590.2794499182547</v>
       </c>
       <c r="E60" t="n">
-        <v>1.612740800853075</v>
+        <v>1.612741275289823</v>
       </c>
     </row>
     <row r="61">
@@ -73980,16 +73982,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.004894196494618075</v>
+        <v>0.004894195830136928</v>
       </c>
       <c r="C61" t="n">
         <v>121.3899993896484</v>
       </c>
       <c r="D61" t="n">
-        <v>586.3161849997728</v>
+        <v>586.3161053960929</v>
       </c>
       <c r="E61" t="n">
-        <v>4.830020495492078</v>
+        <v>4.830019839724055</v>
       </c>
     </row>
     <row r="62">
@@ -73999,16 +74001,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.004893072348490434</v>
+        <v>0.004893071684161912</v>
       </c>
       <c r="C62" t="n">
         <v>217.2799987792969</v>
       </c>
       <c r="D62" t="n">
-        <v>586.1815142586888</v>
+        <v>586.1814346732931</v>
       </c>
       <c r="E62" t="n">
-        <v>2.697816262665324</v>
+        <v>2.697815896384966</v>
       </c>
     </row>
     <row r="63">
@@ -74018,16 +74020,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.004878770527820644</v>
+        <v>0.004878770476709735</v>
       </c>
       <c r="C63" t="n">
         <v>253.8600006103516</v>
       </c>
       <c r="D63" t="n">
-        <v>584.4681811420305</v>
+        <v>584.468175019033</v>
       </c>
       <c r="E63" t="n">
-        <v>2.302324823669751</v>
+        <v>2.302324799550167</v>
       </c>
     </row>
     <row r="64">
@@ -74037,16 +74039,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.004530461899621269</v>
+        <v>0.004530461284524078</v>
       </c>
       <c r="C64" t="n">
         <v>58.52000045776367</v>
       </c>
       <c r="D64" t="n">
-        <v>542.7414163272275</v>
+        <v>542.7413426396593</v>
       </c>
       <c r="E64" t="n">
-        <v>9.274460220125027</v>
+        <v>9.274458960938976</v>
       </c>
     </row>
     <row r="65">
@@ -74056,16 +74058,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.004109679827306444</v>
+        <v>0.004109674790074622</v>
       </c>
       <c r="C65" t="n">
         <v>84.63999938964844</v>
       </c>
       <c r="D65" t="n">
-        <v>492.3324595909738</v>
+        <v>492.3318561394066</v>
       </c>
       <c r="E65" t="n">
-        <v>5.816782409513894</v>
+        <v>5.816775279887577</v>
       </c>
     </row>
     <row r="66">
@@ -74075,16 +74077,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.003668131995651883</v>
+        <v>0.003668131497632534</v>
       </c>
       <c r="C66" t="n">
         <v>1724.969970703125</v>
       </c>
       <c r="D66" t="n">
-        <v>439.4358011843672</v>
+        <v>439.4357415225196</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2547498267493006</v>
+        <v>0.2547497921621202</v>
       </c>
     </row>
     <row r="67">
@@ -74094,16 +74096,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.00355263170585966</v>
+        <v>0.003552631223521692</v>
       </c>
       <c r="C67" t="n">
         <v>225.9499969482422</v>
       </c>
       <c r="D67" t="n">
-        <v>425.5990683617654</v>
+        <v>425.59901057852</v>
       </c>
       <c r="E67" t="n">
-        <v>1.883598469174825</v>
+        <v>1.883598213440166</v>
       </c>
     </row>
     <row r="68">
@@ -74113,16 +74115,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.003382617269823928</v>
+        <v>0.003382616810568685</v>
       </c>
       <c r="C68" t="n">
         <v>252.1900024414062</v>
       </c>
       <c r="D68" t="n">
-        <v>405.231636109919</v>
+        <v>405.2315810919436</v>
       </c>
       <c r="E68" t="n">
-        <v>1.606850518208272</v>
+        <v>1.606850300047461</v>
       </c>
     </row>
     <row r="69">
@@ -74132,16 +74134,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.003108359639444114</v>
+        <v>0.00310835921742461</v>
       </c>
       <c r="C69" t="n">
         <v>24.92000007629395</v>
       </c>
       <c r="D69" t="n">
-        <v>372.3760513927551</v>
+        <v>372.3760008355562</v>
       </c>
       <c r="E69" t="n">
-        <v>14.94285915941836</v>
+        <v>14.94285713063831</v>
       </c>
     </row>
     <row r="70">
@@ -74151,16 +74153,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.002946014797892389</v>
+        <v>0.002946014397914314</v>
       </c>
       <c r="C70" t="n">
         <v>435.5199890136719</v>
       </c>
       <c r="D70" t="n">
-        <v>352.9274231536414</v>
+        <v>352.9273752369672</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8103587253318063</v>
+        <v>0.8103586153100498</v>
       </c>
     </row>
     <row r="71">
@@ -74170,16 +74172,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.002834765995548434</v>
+        <v>0.00283476561067452</v>
       </c>
       <c r="C71" t="n">
         <v>10.71000003814697</v>
       </c>
       <c r="D71" t="n">
-        <v>339.6000110957422</v>
+        <v>339.59996498852</v>
       </c>
       <c r="E71" t="n">
-        <v>31.70868439646609</v>
+        <v>31.70868009140335</v>
       </c>
     </row>
     <row r="72">
@@ -74189,16 +74191,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.002827548604195691</v>
+        <v>0.002827548220301677</v>
       </c>
       <c r="C72" t="n">
         <v>76.88999938964844</v>
       </c>
       <c r="D72" t="n">
-        <v>338.7353802276837</v>
+        <v>338.7353342378518</v>
       </c>
       <c r="E72" t="n">
-        <v>4.405454323274283</v>
+        <v>4.40545372514927</v>
       </c>
     </row>
     <row r="73">
@@ -74208,16 +74210,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.002732727519724341</v>
+        <v>0.00273272714870411</v>
       </c>
       <c r="C73" t="n">
         <v>309.1600036621094</v>
       </c>
       <c r="D73" t="n">
-        <v>327.3759800552716</v>
+        <v>327.3759356076964</v>
       </c>
       <c r="E73" t="n">
-        <v>1.058920870026483</v>
+        <v>1.058920726257643</v>
       </c>
     </row>
     <row r="74">
@@ -74227,16 +74229,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.002579774954349508</v>
+        <v>0.002579774604095524</v>
       </c>
       <c r="C74" t="n">
         <v>169.5800018310547</v>
       </c>
       <c r="D74" t="n">
-        <v>309.0525300844509</v>
+        <v>309.0524881246358</v>
       </c>
       <c r="E74" t="n">
-        <v>1.822458584428763</v>
+        <v>1.822458336995017</v>
       </c>
     </row>
     <row r="75">
@@ -74246,16 +74248,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.002434842217869821</v>
+        <v>0.002434842376906562</v>
       </c>
       <c r="C75" t="n">
         <v>257</v>
       </c>
       <c r="D75" t="n">
-        <v>291.6898415966077</v>
+        <v>291.6898606489313</v>
       </c>
       <c r="E75" t="n">
-        <v>1.13497992839147</v>
+        <v>1.134980002525025</v>
       </c>
     </row>
     <row r="76">
@@ -74265,16 +74267,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.001557195232112158</v>
+        <v>0.001557195020693006</v>
       </c>
       <c r="C76" t="n">
         <v>148.5099945068359</v>
       </c>
       <c r="D76" t="n">
-        <v>186.5492668297708</v>
+        <v>186.5492415021259</v>
       </c>
       <c r="E76" t="n">
-        <v>1.256139477004586</v>
+        <v>1.256139306459533</v>
       </c>
     </row>
     <row r="77">
@@ -74284,16 +74286,16 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.001430738557402473</v>
+        <v>0.001430738363152242</v>
       </c>
       <c r="C77" t="n">
         <v>340.5</v>
       </c>
       <c r="D77" t="n">
-        <v>171.3999782458179</v>
+        <v>171.3999549749798</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5033773223078352</v>
+        <v>0.5033772539646985</v>
       </c>
     </row>
     <row r="78">
@@ -74303,16 +74305,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.00113196301235232</v>
+        <v>0.001131962858666606</v>
       </c>
       <c r="C78" t="n">
         <v>27.42000007629395</v>
       </c>
       <c r="D78" t="n">
-        <v>135.6071902084624</v>
+        <v>135.6071717971825</v>
       </c>
       <c r="E78" t="n">
-        <v>4.945557616015545</v>
+        <v>4.945556944561138</v>
       </c>
     </row>
     <row r="79">
@@ -74322,16 +74324,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0002655789412208195</v>
+        <v>0.0002655788023062799</v>
       </c>
       <c r="C79" t="n">
         <v>154.6100006103516</v>
       </c>
       <c r="D79" t="n">
-        <v>31.81589292626492</v>
+        <v>31.8158762845459</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2057815975723808</v>
+        <v>0.2057814899356241</v>
       </c>
     </row>
     <row r="80">
@@ -74341,16 +74343,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.0002487894377271578</v>
+        <v>0.0002487894039492147</v>
       </c>
       <c r="C80" t="n">
         <v>101.5699996948242</v>
       </c>
       <c r="D80" t="n">
-        <v>29.80453975577636</v>
+        <v>29.80453570923781</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2934384153325456</v>
+        <v>0.2934383754926465</v>
       </c>
     </row>
   </sheetData>
@@ -74416,7 +74418,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.38663173328271</v>
+        <v>32.38662733617559</v>
       </c>
       <c r="C2" t="n">
         <v>206.9700012207031</v>
@@ -74425,13 +74427,13 @@
         <v>207.5200042724609</v>
       </c>
       <c r="E2" t="n">
-        <v>6720.873955661446</v>
+        <v>6720.873043173759</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>17.81274628946176</v>
+        <v>17.81274387103986</v>
       </c>
     </row>
     <row r="3">
@@ -74441,7 +74443,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.98400353527994</v>
+        <v>17.98402801856375</v>
       </c>
       <c r="C3" t="n">
         <v>361.6400146484375</v>
@@ -74450,13 +74452,13 @@
         <v>360.7300109863281</v>
       </c>
       <c r="E3" t="n">
-        <v>6487.369792859698</v>
+        <v>6487.378624714935</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-16.36550907649234</v>
+        <v>-16.36553135637132</v>
       </c>
     </row>
     <row r="4">
@@ -74466,7 +74468,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134.2240591921018</v>
+        <v>134.2240409686086</v>
       </c>
       <c r="C4" t="n">
         <v>38.70000076293945</v>
@@ -74475,13 +74477,13 @@
         <v>37.88000106811523</v>
       </c>
       <c r="E4" t="n">
-        <v>5084.407505563579</v>
+        <v>5084.406815257636</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-110.0636875755918</v>
+        <v>-110.0636726323319</v>
       </c>
     </row>
     <row r="5">
@@ -74491,7 +74493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.36320620903575</v>
+        <v>20.36321346205773</v>
       </c>
       <c r="C5" t="n">
         <v>198.2899932861328</v>
@@ -74500,13 +74502,13 @@
         <v>196.8999938964844</v>
       </c>
       <c r="E5" t="n">
-        <v>4009.515178271992</v>
+        <v>4009.516606391976</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-28.3048442018453</v>
+        <v>-28.30485428354132</v>
       </c>
     </row>
     <row r="6">
@@ -74516,7 +74518,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.1015484326355</v>
+        <v>33.10154393846472</v>
       </c>
       <c r="C6" t="n">
         <v>103.8899993896484</v>
@@ -74525,13 +74527,13 @@
         <v>101.3199996948242</v>
       </c>
       <c r="E6" t="n">
-        <v>3353.848877092837</v>
+        <v>3353.848421743456</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-85.07096937008237</v>
+        <v>-85.0709578200649</v>
       </c>
     </row>
     <row r="7">
@@ -74541,7 +74543,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.83620122707109</v>
+        <v>42.83619541123427</v>
       </c>
       <c r="C7" t="n">
         <v>79.86000061035156</v>
@@ -74550,13 +74552,13 @@
         <v>80</v>
       </c>
       <c r="E7" t="n">
-        <v>3426.896098165687</v>
+        <v>3426.895632898741</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5.997042026647705</v>
+        <v>5.997041212433942</v>
       </c>
     </row>
     <row r="8">
@@ -74566,7 +74568,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.68262017499511</v>
+        <v>26.68261655231709</v>
       </c>
       <c r="C8" t="n">
         <v>123.5100021362305</v>
@@ -74575,13 +74577,13 @@
         <v>121.7099990844727</v>
       </c>
       <c r="E8" t="n">
-        <v>3247.541677069987</v>
+        <v>3247.541236153848</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-48.02879774388566</v>
+        <v>-48.02879122305421</v>
       </c>
     </row>
     <row r="9">
@@ -74591,7 +74593,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22.59900607639895</v>
+        <v>22.59900300814995</v>
       </c>
       <c r="C9" t="n">
         <v>139.9100036621094</v>
@@ -74600,13 +74602,13 @@
         <v>139.1300048828125</v>
       </c>
       <c r="E9" t="n">
-        <v>3144.199825756095</v>
+        <v>3144.199398870597</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-17.6271971529136</v>
+        <v>-17.62719475968379</v>
       </c>
     </row>
     <row r="10">
@@ -74616,7 +74618,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.54582478683787</v>
+        <v>3.545824305424072</v>
       </c>
       <c r="C10" t="n">
         <v>860.75</v>
@@ -74625,13 +74627,13 @@
         <v>852.469970703125</v>
       </c>
       <c r="E10" t="n">
-        <v>3022.709152154093</v>
+        <v>3022.708741763287</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-29.35953311660296</v>
+        <v>-29.35952913048277</v>
       </c>
     </row>
     <row r="11">
@@ -74641,7 +74643,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.6662184080762</v>
+        <v>31.66621410877903</v>
       </c>
       <c r="C11" t="n">
         <v>87.73999786376953</v>
@@ -74650,13 +74652,13 @@
         <v>86.51999664306641</v>
       </c>
       <c r="E11" t="n">
-        <v>2739.761110365361</v>
+        <v>2739.760738390184</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-38.63282511290481</v>
+        <v>-38.63281986775701</v>
       </c>
     </row>
     <row r="12">
@@ -74666,7 +74668,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.675101706879875</v>
+        <v>5.675102595402311</v>
       </c>
       <c r="C12" t="n">
         <v>478.1400146484375</v>
@@ -74675,13 +74677,13 @@
         <v>481.0599975585938</v>
       </c>
       <c r="E12" t="n">
-        <v>2730.064413256404</v>
+        <v>2730.064840689005</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>16.57119999748784</v>
+        <v>16.57120259195835</v>
       </c>
     </row>
     <row r="13">
@@ -74691,7 +74693,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.66644193690993</v>
+        <v>40.66643641565961</v>
       </c>
       <c r="C13" t="n">
         <v>64.77999877929688</v>
@@ -74700,13 +74702,13 @@
         <v>64.05000305175781</v>
       </c>
       <c r="E13" t="n">
-        <v>2604.685730163213</v>
+        <v>2604.685376527113</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-29.68632886815976</v>
+        <v>-29.68632483767033</v>
       </c>
     </row>
     <row r="14">
@@ -74716,7 +74718,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.434636921483844</v>
+        <v>2.434636590935134</v>
       </c>
       <c r="C14" t="n">
         <v>1030.050048828125</v>
@@ -74725,13 +74727,13 @@
         <v>1049.599975585938</v>
       </c>
       <c r="E14" t="n">
-        <v>2555.394853350064</v>
+        <v>2555.394506406147</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>47.59697349687531</v>
+        <v>47.59696703467216</v>
       </c>
     </row>
     <row r="15">
@@ -74741,7 +74743,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14.42568521524682</v>
+        <v>14.42568356924271</v>
       </c>
       <c r="C15" t="n">
         <v>152.8600006103516</v>
@@ -74750,13 +74752,13 @@
         <v>153.9700012207031</v>
       </c>
       <c r="E15" t="n">
-        <v>2221.122770201032</v>
+        <v>2221.122516765777</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>16.0125193936633</v>
+        <v>16.01251756659804</v>
       </c>
     </row>
     <row r="16">
@@ -74766,7 +74768,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.359704560607165</v>
+        <v>6.359703697155159</v>
       </c>
       <c r="C16" t="n">
         <v>343.989990234375</v>
@@ -74775,13 +74777,13 @@
         <v>342.3999938964844</v>
       </c>
       <c r="E16" t="n">
-        <v>2177.562802735337</v>
+        <v>2177.562507089376</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-10.11190696143149</v>
+        <v>-10.11190558854605</v>
       </c>
     </row>
     <row r="17">
@@ -74791,7 +74793,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.56544142807964</v>
+        <v>82.56543021823565</v>
       </c>
       <c r="C17" t="n">
         <v>26.17000007629395</v>
@@ -74800,13 +74802,13 @@
         <v>25.76000022888184</v>
       </c>
       <c r="E17" t="n">
-        <v>2126.885790085061</v>
+        <v>2126.885501319477</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-33.85181838702601</v>
+        <v>-33.85181379099186</v>
       </c>
     </row>
     <row r="18">
@@ -74816,7 +74818,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11.22913432891134</v>
+        <v>11.22913280434074</v>
       </c>
       <c r="C18" t="n">
         <v>178.7100067138672</v>
@@ -74825,13 +74827,13 @@
         <v>180.9299926757812</v>
       </c>
       <c r="E18" t="n">
-        <v>2031.687191885292</v>
+        <v>2031.686916044745</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>24.92852057463028</v>
+        <v>24.92851719010514</v>
       </c>
     </row>
     <row r="19">
@@ -74841,7 +74843,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.707861717265208</v>
+        <v>8.707860535005782</v>
       </c>
       <c r="C19" t="n">
         <v>228.8399963378906</v>
@@ -74850,13 +74852,13 @@
         <v>227.9400024414062</v>
       </c>
       <c r="E19" t="n">
-        <v>1984.87002109286</v>
+        <v>1984.869751608643</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.837022396968678</v>
+        <v>-7.837021332942413</v>
       </c>
     </row>
     <row r="20">
@@ -74866,7 +74868,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>23.38124594548207</v>
+        <v>23.38124277102899</v>
       </c>
       <c r="C20" t="n">
         <v>84.04000091552734</v>
@@ -74875,13 +74877,13 @@
         <v>86.01999664306641</v>
       </c>
       <c r="E20" t="n">
-        <v>2011.254697741078</v>
+        <v>2011.254424674634</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>46.29476707659455</v>
+        <v>46.29476079119081</v>
       </c>
     </row>
     <row r="21">
@@ -74891,7 +74893,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.818594623902554</v>
+        <v>6.81859369814741</v>
       </c>
       <c r="C21" t="n">
         <v>284.2799987792969</v>
@@ -74900,13 +74902,13 @@
         <v>292.8099975585938</v>
       </c>
       <c r="E21" t="n">
-        <v>1996.552675177947</v>
+        <v>1996.552404107586</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>58.1626038184088</v>
+        <v>58.16259592171878</v>
       </c>
     </row>
     <row r="22">
@@ -74916,7 +74918,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.530140143041185</v>
+        <v>3.530139663756878</v>
       </c>
       <c r="C22" t="n">
         <v>546.77001953125</v>
@@ -74925,13 +74927,13 @@
         <v>564.6400146484375</v>
       </c>
       <c r="E22" t="n">
-        <v>1993.258382077812</v>
+        <v>1993.258111454714</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>63.08358711913343</v>
+        <v>63.08357855432519</v>
       </c>
     </row>
     <row r="23">
@@ -74941,7 +74943,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10.8383038236993</v>
+        <v>10.83830235219145</v>
       </c>
       <c r="C23" t="n">
         <v>176.4600067138672</v>
@@ -74950,13 +74952,13 @@
         <v>176.3099975585938</v>
       </c>
       <c r="E23" t="n">
-        <v>1910.90132069572</v>
+        <v>1910.901061254175</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.625844801190169</v>
+        <v>-1.625844580450348</v>
       </c>
     </row>
     <row r="24">
@@ -74966,7 +74968,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.581630253809045</v>
+        <v>6.581634384216898</v>
       </c>
       <c r="C24" t="n">
         <v>284.9599914550781</v>
@@ -74975,13 +74977,13 @@
         <v>292.989990234375</v>
       </c>
       <c r="E24" t="n">
-        <v>1928.351783789779</v>
+        <v>1928.352993957935</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>52.85048290387022</v>
+        <v>52.85051607103992</v>
       </c>
     </row>
     <row r="25">
@@ -74991,7 +74993,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.202287224479758</v>
+        <v>8.202286737490228</v>
       </c>
       <c r="C25" t="n">
         <v>228.5</v>
@@ -75000,13 +75002,13 @@
         <v>225.9199981689453</v>
       </c>
       <c r="E25" t="n">
-        <v>1853.06071473563</v>
+        <v>1853.060604714957</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-21.16191605799418</v>
+        <v>-21.16191480156044</v>
       </c>
     </row>
     <row r="26">
@@ -75016,7 +75018,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.241411288187976</v>
+        <v>2.241412374850727</v>
       </c>
       <c r="C26" t="n">
         <v>817.2999877929688</v>
@@ -75025,13 +75027,13 @@
         <v>820.6699829101562</v>
       </c>
       <c r="E26" t="n">
-        <v>1839.458963571858</v>
+        <v>1839.459855363359</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.553545096802509</v>
+        <v>7.553548758850638</v>
       </c>
     </row>
     <row r="27">
@@ -75041,7 +75043,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.913274563594206</v>
+        <v>3.913274032292046</v>
       </c>
       <c r="C27" t="n">
         <v>464.9200134277344</v>
@@ -75050,13 +75052,13 @@
         <v>473.260009765625</v>
       </c>
       <c r="E27" t="n">
-        <v>1851.996358182166</v>
+        <v>1851.9961067381</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>32.63669552953615</v>
+        <v>32.63669109847797</v>
       </c>
     </row>
     <row r="28">
@@ -75066,7 +75068,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.303823691325687</v>
+        <v>3.303823242768184</v>
       </c>
       <c r="C28" t="n">
         <v>546.8800048828125</v>
@@ -75075,13 +75077,13 @@
         <v>553.1099853515625</v>
       </c>
       <c r="E28" t="n">
-        <v>1827.377873513296</v>
+        <v>1827.377625411662</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>20.58275706915242</v>
+        <v>20.5827542746481</v>
       </c>
     </row>
     <row r="29">
@@ -75091,7 +75093,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>70.43931853245313</v>
+        <v>70.43932781878254</v>
       </c>
       <c r="C29" t="n">
         <v>25.45000076293945</v>
@@ -75100,13 +75102,13 @@
         <v>24.8799991607666</v>
       </c>
       <c r="E29" t="n">
-        <v>1752.530185972405</v>
+        <v>1752.530417016273</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-40.15052441946204</v>
+        <v>-40.1505297126846</v>
       </c>
     </row>
     <row r="30">
@@ -75116,7 +75118,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.764669068969</v>
+        <v>29.76466598803454</v>
       </c>
       <c r="C30" t="n">
         <v>58.75</v>
@@ -75125,13 +75127,13 @@
         <v>58.88999938964844</v>
       </c>
       <c r="E30" t="n">
-        <v>1752.841343304672</v>
+        <v>1752.841161868444</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>4.167035502743374</v>
+        <v>4.167035071414602</v>
       </c>
     </row>
     <row r="31">
@@ -75141,7 +75143,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.190288543789459</v>
+        <v>6.190287703338931</v>
       </c>
       <c r="C31" t="n">
         <v>272.1099853515625</v>
@@ -75150,13 +75152,13 @@
         <v>267.0199890136719</v>
       </c>
       <c r="E31" t="n">
-        <v>1652.93077895412</v>
+        <v>1652.930554537029</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-31.50854601837455</v>
+        <v>-31.50854174048459</v>
       </c>
     </row>
     <row r="32">
@@ -75166,7 +75168,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.380674933678142</v>
+        <v>6.380672592381001</v>
       </c>
       <c r="C32" t="n">
         <v>263.0799865722656</v>
@@ -75175,13 +75177,13 @@
         <v>262.5700073242188</v>
       </c>
       <c r="E32" t="n">
-        <v>1675.373864069329</v>
+        <v>1675.373249314921</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.254011804708853</v>
+        <v>-3.254010610695786</v>
       </c>
     </row>
     <row r="33">
@@ -75191,7 +75193,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.451173415018875</v>
+        <v>4.451172810686618</v>
       </c>
       <c r="C33" t="n">
         <v>376.6300048828125</v>
@@ -75200,13 +75202,13 @@
         <v>376.25</v>
       </c>
       <c r="E33" t="n">
-        <v>1674.753997400852</v>
+        <v>1674.75377002084</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.691467631952264</v>
+        <v>-1.69146740230326</v>
       </c>
     </row>
     <row r="34">
@@ -75216,7 +75218,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.48269379422383</v>
+        <v>22.48269074176646</v>
       </c>
       <c r="C34" t="n">
         <v>74.54000091552734</v>
@@ -75225,13 +75227,13 @@
         <v>65.26000213623047</v>
       </c>
       <c r="E34" t="n">
-        <v>1467.220645039263</v>
+        <v>1467.220445835889</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-208.6393709657025</v>
+        <v>-208.639342638902</v>
       </c>
     </row>
     <row r="35">
@@ -75241,7 +75243,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14.24224509791294</v>
+        <v>14.2422431642547</v>
       </c>
       <c r="C35" t="n">
         <v>117.1600036621094</v>
@@ -75250,13 +75252,13 @@
         <v>117.2699966430664</v>
       </c>
       <c r="E35" t="n">
-        <v>1670.188034821979</v>
+        <v>1670.187808061885</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.56654699384012</v>
+        <v>1.566546781151374</v>
       </c>
     </row>
     <row r="36">
@@ -75266,7 +75268,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.93816335712723</v>
+        <v>6.93816301327679</v>
       </c>
       <c r="C36" t="n">
         <v>225.5099945068359</v>
@@ -75275,13 +75277,13 @@
         <v>222.4100036621094</v>
       </c>
       <c r="E36" t="n">
-        <v>1543.11693766698</v>
+        <v>1543.116861191203</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-21.50824288631156</v>
+        <v>-21.50824182037854</v>
       </c>
     </row>
     <row r="37">
@@ -75291,7 +75293,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9.018498623326296</v>
+        <v>9.018496985026628</v>
       </c>
       <c r="C37" t="n">
         <v>163.9400024414062</v>
@@ -75300,13 +75302,13 @@
         <v>165.8000030517578</v>
       </c>
       <c r="E37" t="n">
-        <v>1495.267099269774</v>
+        <v>1495.266827639683</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.77441294384153</v>
+        <v>16.77440989660317</v>
       </c>
     </row>
     <row r="38">
@@ -75316,7 +75318,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.088678325444903</v>
+        <v>5.088677634559114</v>
       </c>
       <c r="C38" t="n">
         <v>282.8999938964844</v>
@@ -75325,13 +75327,13 @@
         <v>284.2000122070312</v>
       </c>
       <c r="E38" t="n">
-        <v>1446.202442209097</v>
+        <v>1446.202245859347</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.615374999561482</v>
+        <v>6.615374101397265</v>
       </c>
     </row>
     <row r="39">
@@ -75341,7 +75343,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.486957674779311</v>
+        <v>2.486957337127055</v>
       </c>
       <c r="C39" t="n">
         <v>576.030029296875</v>
@@ -75350,13 +75352,13 @@
         <v>573.7899780273438</v>
       </c>
       <c r="E39" t="n">
-        <v>1426.991389566555</v>
+        <v>1426.991195825074</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.570912696659889</v>
+        <v>-5.570911940301357</v>
       </c>
     </row>
     <row r="40">
@@ -75366,7 +75368,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.731748132888083</v>
+        <v>5.731749105482577</v>
       </c>
       <c r="C40" t="n">
         <v>239.6000061035156</v>
@@ -75375,13 +75377,13 @@
         <v>239.9600067138672</v>
       </c>
       <c r="E40" t="n">
-        <v>1375.39032045002</v>
+        <v>1375.390553833802</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.063432826221288</v>
+        <v>2.063433176355829</v>
       </c>
     </row>
     <row r="41">
@@ -75391,7 +75393,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18.27680774374096</v>
+        <v>18.27680396322651</v>
       </c>
       <c r="C41" t="n">
         <v>67.93000030517578</v>
@@ -75400,13 +75402,13 @@
         <v>68.5</v>
       </c>
       <c r="E41" t="n">
-        <v>1251.961330446256</v>
+        <v>1251.961071481016</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>10.41777483629312</v>
+        <v>10.41777268140117</v>
       </c>
     </row>
     <row r="42">
@@ -75416,7 +75418,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.134522456985254</v>
+        <v>7.134521488336842</v>
       </c>
       <c r="C42" t="n">
         <v>168.8300018310547</v>
@@ -75425,13 +75427,13 @@
         <v>167.9299926757812</v>
       </c>
       <c r="E42" t="n">
-        <v>1198.10030394673</v>
+        <v>1198.10014128161</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.421135529790718</v>
+        <v>-6.421134657998209</v>
       </c>
     </row>
     <row r="43">
@@ -75441,7 +75443,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.736580771530863</v>
+        <v>7.736580459194929</v>
       </c>
       <c r="C43" t="n">
         <v>151.6900024414062</v>
@@ -75450,13 +75452,13 @@
         <v>151.3600006103516</v>
       </c>
       <c r="E43" t="n">
-        <v>1171.008870300946</v>
+        <v>1171.008823025778</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.553085820707793</v>
+        <v>-2.55308571763635</v>
       </c>
     </row>
     <row r="44">
@@ -75466,7 +75468,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.417743098079218</v>
+        <v>1.41774290559337</v>
       </c>
       <c r="C44" t="n">
         <v>725.3400268554688</v>
@@ -75475,13 +75477,13 @@
         <v>702.75</v>
       </c>
       <c r="E44" t="n">
-        <v>996.3189621751702</v>
+        <v>996.318826905741</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-32.02685465976504</v>
+        <v>-32.02685031150452</v>
       </c>
     </row>
     <row r="45">
@@ -75491,7 +75493,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5.347614841356539</v>
+        <v>5.347614115315146</v>
       </c>
       <c r="C45" t="n">
         <v>185.4299926757812</v>
@@ -75500,13 +75502,13 @@
         <v>180.3300018310547</v>
       </c>
       <c r="E45" t="n">
-        <v>964.3353941335999</v>
+        <v>964.3352632065541</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-27.27278673204228</v>
+        <v>-27.27278302923776</v>
       </c>
     </row>
     <row r="46">
@@ -75516,7 +75518,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.842504653734578</v>
+        <v>4.842503996271591</v>
       </c>
       <c r="C46" t="n">
         <v>200</v>
@@ -75525,13 +75527,13 @@
         <v>202.5099945068359</v>
       </c>
       <c r="E46" t="n">
-        <v>980.655590827117</v>
+        <v>980.655457684291</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>12.15466008020132</v>
+        <v>12.15465842997276</v>
       </c>
     </row>
     <row r="47">
@@ -75541,7 +75543,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>9.644369993621714</v>
+        <v>9.644368684213308</v>
       </c>
       <c r="C47" t="n">
         <v>92.83000183105469</v>
@@ -75550,13 +75552,13 @@
         <v>92.41000366210938</v>
       </c>
       <c r="E47" t="n">
-        <v>891.2362664293204</v>
+        <v>891.2361454268848</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.050617737952166</v>
+        <v>-4.050617188003116</v>
       </c>
     </row>
     <row r="48">
@@ -75566,7 +75568,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>42.82492455994694</v>
+        <v>42.82492139548049</v>
       </c>
       <c r="C48" t="n">
         <v>20.89999961853027</v>
@@ -75575,13 +75577,13 @@
         <v>20.60000038146973</v>
       </c>
       <c r="E48" t="n">
-        <v>882.1934622713193</v>
+        <v>882.193397083309</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>-12.84744469515954</v>
+        <v>-12.84744374582215</v>
       </c>
     </row>
     <row r="49">
@@ -75591,7 +75593,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>35.85442705770396</v>
+        <v>35.85442218977705</v>
       </c>
       <c r="C49" t="n">
         <v>23.69000053405762</v>
@@ -75600,13 +75602,13 @@
         <v>23.09000015258789</v>
       </c>
       <c r="E49" t="n">
-        <v>827.8787262333358</v>
+        <v>827.8786138329028</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>-21.51266991200089</v>
+        <v>-21.5126669912429</v>
       </c>
     </row>
     <row r="50">
@@ -75616,7 +75618,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>12.50161060102728</v>
+        <v>12.5016089036936</v>
       </c>
       <c r="C50" t="n">
         <v>64.95999908447266</v>
@@ -75625,13 +75627,13 @@
         <v>64.77999877929688</v>
       </c>
       <c r="E50" t="n">
-        <v>809.8543194737922</v>
+        <v>809.8542095205186</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.250293723373716</v>
+        <v>-2.250293417853072</v>
       </c>
     </row>
     <row r="51">
@@ -75641,7 +75643,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>11.36060219824293</v>
+        <v>11.36060065582304</v>
       </c>
       <c r="C51" t="n">
         <v>71.19999694824219</v>
@@ -75650,13 +75652,13 @@
         <v>70.59999847412109</v>
       </c>
       <c r="E51" t="n">
-        <v>802.0584978610474</v>
+        <v>802.0583889662059</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.816343984042419</v>
+        <v>-6.81634305859302</v>
       </c>
     </row>
     <row r="52">
@@ -75666,7 +75668,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>19.28496930043085</v>
+        <v>19.28496781289802</v>
       </c>
       <c r="C52" t="n">
         <v>35.86999893188477</v>
@@ -75675,13 +75677,13 @@
         <v>35.27999877929688</v>
       </c>
       <c r="E52" t="n">
-        <v>680.3736933779782</v>
+        <v>680.3736408978216</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-11.37813482990703</v>
+        <v>-11.37813395226237</v>
       </c>
     </row>
     <row r="53">
@@ -75691,7 +75693,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.950209537521975</v>
+        <v>2.950209694234417</v>
       </c>
       <c r="C53" t="n">
         <v>233.8699951171875</v>
@@ -75700,13 +75702,13 @@
         <v>232.9100036621094</v>
       </c>
       <c r="E53" t="n">
-        <v>687.1333141882332</v>
+        <v>687.1333506881285</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.832175946711118</v>
+        <v>-2.832176097153706</v>
       </c>
     </row>
     <row r="54">
@@ -75716,7 +75718,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>25.25587049311562</v>
+        <v>25.25586706414627</v>
       </c>
       <c r="C54" t="n">
         <v>26.79000091552734</v>
@@ -75725,13 +75727,13 @@
         <v>26.45999908447266</v>
       </c>
       <c r="E54" t="n">
-        <v>668.2703101253993</v>
+        <v>668.2702193948733</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-8.334483507608184</v>
+        <v>-8.334482376042047</v>
       </c>
     </row>
     <row r="55">
@@ -75741,7 +75743,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>7.030559782956504</v>
+        <v>7.030558828423021</v>
       </c>
       <c r="C55" t="n">
         <v>96.13999938964844</v>
@@ -75750,13 +75752,13 @@
         <v>93.15000152587891</v>
       </c>
       <c r="E55" t="n">
-        <v>654.8966545101813</v>
+        <v>654.8965655953858</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>-21.02135873214388</v>
+        <v>-21.02135587809084</v>
       </c>
     </row>
     <row r="56">
@@ -75766,7 +75768,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>5.020722477096365</v>
+        <v>5.020723485455409</v>
       </c>
       <c r="C56" t="n">
         <v>127.1800003051758</v>
@@ -75775,13 +75777,13 @@
         <v>128.0700073242188</v>
       </c>
       <c r="E56" t="n">
-        <v>643.0039644146012</v>
+        <v>643.0040935551514</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>4.46847824528254</v>
+        <v>4.468479142729166</v>
       </c>
     </row>
     <row r="57">
@@ -75791,7 +75793,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>48.65595301201224</v>
+        <v>48.65594640603238</v>
       </c>
       <c r="C57" t="n">
         <v>13.02000045776367</v>
@@ -75800,13 +75802,13 @@
         <v>12.89999961853027</v>
       </c>
       <c r="E57" t="n">
-        <v>627.6617752941848</v>
+        <v>627.6616900770472</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.838755195142198</v>
+        <v>-5.838754402419113</v>
       </c>
     </row>
     <row r="58">
@@ -75816,7 +75818,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8.047554649863368</v>
+        <v>8.047554234319769</v>
       </c>
       <c r="C58" t="n">
         <v>77.37000274658203</v>
@@ -75825,13 +75827,13 @@
         <v>78.38999938964844</v>
       </c>
       <c r="E58" t="n">
-        <v>630.8478040909519</v>
+        <v>630.8477715164894</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>8.208478727754027</v>
+        <v>8.208478303901074</v>
       </c>
     </row>
     <row r="59">
@@ -75841,7 +75843,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3.651592932938066</v>
+        <v>3.651592437164212</v>
       </c>
       <c r="C59" t="n">
         <v>163.7200012207031</v>
@@ -75850,13 +75852,13 @@
         <v>168.2299957275391</v>
       </c>
       <c r="E59" t="n">
-        <v>614.3074635068828</v>
+        <v>614.3073801028493</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>16.46866406875165</v>
+        <v>16.46866183281418</v>
       </c>
     </row>
     <row r="60">
@@ -75866,7 +75868,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.612740800853075</v>
+        <v>1.612741275289823</v>
       </c>
       <c r="C60" t="n">
         <v>366.010009765625</v>
@@ -75875,13 +75877,13 @@
         <v>372.4800109863281</v>
       </c>
       <c r="E60" t="n">
-        <v>600.7137112198528</v>
+        <v>600.7138879380583</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>10.4344349501971</v>
+        <v>10.43443801980357</v>
       </c>
     </row>
     <row r="61">
@@ -75891,7 +75893,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4.830020495492078</v>
+        <v>4.830019839724055</v>
       </c>
       <c r="C61" t="n">
         <v>121.3899993896484</v>
@@ -75900,13 +75902,13 @@
         <v>125.6800003051758</v>
       </c>
       <c r="E61" t="n">
-        <v>607.0369773474496</v>
+        <v>607.0368949305243</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>20.72079234767682</v>
+        <v>20.72078953443145</v>
       </c>
     </row>
     <row r="62">
@@ -75916,7 +75918,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.697816262665324</v>
+        <v>2.697815896384966</v>
       </c>
       <c r="C62" t="n">
         <v>217.2799987792969</v>
@@ -75925,13 +75927,13 @@
         <v>217.4799957275391</v>
       </c>
       <c r="E62" t="n">
-        <v>586.72106927814</v>
+        <v>586.7209896194894</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.5395550194511998</v>
+        <v>0.5395549461962901</v>
       </c>
     </row>
     <row r="63">
@@ -75941,7 +75943,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.302324823669751</v>
+        <v>2.302324799550167</v>
       </c>
       <c r="C63" t="n">
         <v>253.8600006103516</v>
@@ -75950,13 +75952,13 @@
         <v>259.1400146484375</v>
       </c>
       <c r="E63" t="n">
-        <v>596.6244885312406</v>
+        <v>596.6244822808912</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>12.15630738921004</v>
+        <v>12.15630726185827</v>
       </c>
     </row>
     <row r="64">
@@ -75966,7 +75968,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>9.274460220125027</v>
+        <v>9.274458960938976</v>
       </c>
       <c r="C64" t="n">
         <v>58.52000045776367</v>
@@ -75975,13 +75977,13 @@
         <v>58.2599983215332</v>
       </c>
       <c r="E64" t="n">
-        <v>540.3300368576105</v>
+        <v>540.3299634974333</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>-2.411379469617032</v>
+        <v>-2.411379142225996</v>
       </c>
     </row>
     <row r="65">
@@ -75991,7 +75993,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>5.816782409513894</v>
+        <v>5.816775279887577</v>
       </c>
       <c r="C65" t="n">
         <v>84.63999938964844</v>
@@ -76000,13 +76002,13 @@
         <v>84.26999664306641</v>
       </c>
       <c r="E65" t="n">
-        <v>490.1802341231835</v>
+        <v>490.1796333095978</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>-2.152225467790174</v>
+        <v>-2.152222829808863</v>
       </c>
     </row>
     <row r="66">
@@ -76016,7 +76018,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.2547498267493006</v>
+        <v>0.2547497921621202</v>
       </c>
       <c r="C66" t="n">
         <v>1724.969970703125</v>
@@ -76025,13 +76027,13 @@
         <v>1736.160034179688</v>
       </c>
       <c r="E66" t="n">
-        <v>442.2864679163351</v>
+        <v>442.2864078674548</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>2.850666731967976</v>
+        <v>2.850666344935235</v>
       </c>
     </row>
     <row r="67">
@@ -76041,7 +76043,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1.883598469174825</v>
+        <v>1.883598213440166</v>
       </c>
       <c r="C67" t="n">
         <v>225.9499969482422</v>
@@ -76050,13 +76052,13 @@
         <v>224.6199951171875</v>
       </c>
       <c r="E67" t="n">
-        <v>423.0938789487911</v>
+        <v>423.0938215056732</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>-2.505189412974289</v>
+        <v>-2.505189072846747</v>
       </c>
     </row>
     <row r="68">
@@ -76066,7 +76068,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1.606850518208272</v>
+        <v>1.606850300047461</v>
       </c>
       <c r="C68" t="n">
         <v>252.1900024414062</v>
@@ -76075,13 +76077,13 @@
         <v>251.8699951171875</v>
       </c>
       <c r="E68" t="n">
-        <v>404.7174321751676</v>
+        <v>404.7173772270053</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5142039347513219</v>
+        <v>-0.5142038649382812</v>
       </c>
     </row>
     <row r="69">
@@ -76091,7 +76093,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>14.94285915941836</v>
+        <v>14.94285713063831</v>
       </c>
       <c r="C69" t="n">
         <v>24.92000007629395</v>
@@ -76100,13 +76102,13 @@
         <v>24.04999923706055</v>
       </c>
       <c r="E69" t="n">
-        <v>359.3757513835147</v>
+        <v>359.3757025913561</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>-13.00030000924045</v>
+        <v>-13.00029824420011</v>
       </c>
     </row>
     <row r="70">
@@ -76116,7 +76118,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.8103587253318063</v>
+        <v>0.8103586153100498</v>
       </c>
       <c r="C70" t="n">
         <v>435.5199890136719</v>
@@ -76125,13 +76127,13 @@
         <v>421.0299987792969</v>
       </c>
       <c r="E70" t="n">
-        <v>341.185333137243</v>
+        <v>341.185286814783</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>-11.74209001639844</v>
+        <v>-11.74208842218428</v>
       </c>
     </row>
     <row r="71">
@@ -76141,7 +76143,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>31.70868439646609</v>
+        <v>31.70868009140335</v>
       </c>
       <c r="C71" t="n">
         <v>10.71000003814697</v>
@@ -76150,13 +76152,13 @@
         <v>10.46000003814697</v>
       </c>
       <c r="E71" t="n">
-        <v>331.6728399966257</v>
+        <v>331.6727949656692</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.927171099116492</v>
+        <v>-7.927170022850817</v>
       </c>
     </row>
     <row r="72">
@@ -76166,7 +76168,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>4.405454323274283</v>
+        <v>4.40545372514927</v>
       </c>
       <c r="C72" t="n">
         <v>76.88999938964844</v>
@@ -76175,13 +76177,13 @@
         <v>77.30999755859375</v>
       </c>
       <c r="E72" t="n">
-        <v>340.5856629768311</v>
+        <v>340.5856167357878</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1.850282749147425</v>
+        <v>1.850282497936007</v>
       </c>
     </row>
     <row r="73">
@@ -76191,7 +76193,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1.058920870026483</v>
+        <v>1.058920726257643</v>
       </c>
       <c r="C73" t="n">
         <v>309.1600036621094</v>
@@ -76200,13 +76202,13 @@
         <v>309.739990234375</v>
       </c>
       <c r="E73" t="n">
-        <v>327.9901399409788</v>
+        <v>327.9900954100195</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.6141598857072381</v>
+        <v>0.6141598023231722</v>
       </c>
     </row>
     <row r="74">
@@ -76216,7 +76218,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1.822458584428763</v>
+        <v>1.822458336995017</v>
       </c>
       <c r="C74" t="n">
         <v>169.5800018310547</v>
@@ -76225,13 +76227,13 @@
         <v>170.1600036621094</v>
       </c>
       <c r="E74" t="n">
-        <v>310.1095594004409</v>
+        <v>310.1095172971138</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1.057029315990007</v>
+        <v>1.057029172477996</v>
       </c>
     </row>
     <row r="75">
@@ -76241,7 +76243,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1.13497992839147</v>
+        <v>1.134980002525025</v>
       </c>
       <c r="C75" t="n">
         <v>257</v>
@@ -76250,13 +76252,13 @@
         <v>254.7100067138672</v>
       </c>
       <c r="E75" t="n">
-        <v>289.0907451806958</v>
+        <v>289.090764063254</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.599096415911959</v>
+        <v>-2.59909658567733</v>
       </c>
     </row>
     <row r="76">
@@ -76266,7 +76268,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1.256139477004586</v>
+        <v>1.256139306459533</v>
       </c>
       <c r="C76" t="n">
         <v>148.5099945068359</v>
@@ -76275,13 +76277,13 @@
         <v>148.5800018310547</v>
       </c>
       <c r="E76" t="n">
-        <v>186.6372057934014</v>
+        <v>186.6371804538172</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.08793896363062004</v>
+        <v>0.08793895169122834</v>
       </c>
     </row>
     <row r="77">
@@ -76291,7 +76293,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.5033773223078352</v>
+        <v>0.5033772539646985</v>
       </c>
       <c r="C77" t="n">
         <v>340.5</v>
@@ -76300,13 +76302,13 @@
         <v>354.4200134277344</v>
       </c>
       <c r="E77" t="n">
-        <v>178.4069973315599</v>
+        <v>178.4069731093845</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>7.007019085742058</v>
+        <v>7.00701813440466</v>
       </c>
     </row>
     <row r="78">
@@ -76316,7 +76318,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4.945557616015545</v>
+        <v>4.945556944561138</v>
       </c>
       <c r="C78" t="n">
         <v>27.42000007629395</v>
@@ -76325,13 +76327,13 @@
         <v>26.88999938964844</v>
       </c>
       <c r="E78" t="n">
-        <v>132.9860412761292</v>
+        <v>132.9860232207206</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.62114893233317</v>
+        <v>-2.621148576461877</v>
       </c>
     </row>
     <row r="79">
@@ -76341,7 +76343,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.2057815975723808</v>
+        <v>0.2057814899356241</v>
       </c>
       <c r="C79" t="n">
         <v>154.6100006103516</v>
@@ -76350,13 +76352,13 @@
         <v>155.4600067138672</v>
       </c>
       <c r="E79" t="n">
-        <v>31.99080854019264</v>
+        <v>31.99079180698172</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1749156139277197</v>
+        <v>0.1749155224358212</v>
       </c>
     </row>
     <row r="80">
@@ -76366,7 +76368,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.2934384153325456</v>
+        <v>0.2934383754926465</v>
       </c>
       <c r="C80" t="n">
         <v>101.5699996948242</v>
@@ -76375,13 +76377,3371 @@
         <v>99.94999694824219</v>
       </c>
       <c r="E80" t="n">
-        <v>29.32916871698496</v>
+        <v>29.32916473498716</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4753710387914047</v>
+        <v>-0.4753709742506551</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Allocation_Percent</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Target_Value</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Actual_Shares</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CAH</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05270058131041112</v>
+      </c>
+      <c r="C2" t="n">
+        <v>207.5200042724609</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6289.686685889052</v>
+      </c>
+      <c r="E2" t="n">
+        <v>30.30882110830666</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>VTR</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.04383697620666401</v>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5231.836893272001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>65.39796116590001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.04006634856365855</v>
+      </c>
+      <c r="C4" t="n">
+        <v>360.7300109863281</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4781.821620310078</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.25595729403094</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03017498912841105</v>
+      </c>
+      <c r="C5" t="n">
+        <v>196.8999938964844</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3601.311838477201</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18.29005561254871</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.02891418284406735</v>
+      </c>
+      <c r="C6" t="n">
+        <v>179.1999969482422</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3450.837663374407</v>
+      </c>
+      <c r="E6" t="n">
+        <v>19.256906931595</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02839203114761254</v>
+      </c>
+      <c r="C7" t="n">
+        <v>139.1300048828125</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3388.520123576086</v>
+      </c>
+      <c r="E7" t="n">
+        <v>24.35506364303081</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02761550708211148</v>
+      </c>
+      <c r="C8" t="n">
+        <v>292.989990234375</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3295.843857876345</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11.24899814918544</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FDS</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02681836980122462</v>
+      </c>
+      <c r="C9" t="n">
+        <v>267.0199890136719</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3200.70745486613</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11.98677097804183</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.02599771638805488</v>
+      </c>
+      <c r="C10" t="n">
+        <v>292.8099975585938</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3102.764458447542</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10.59651133608118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AKAM</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02585672184060051</v>
+      </c>
+      <c r="C11" t="n">
+        <v>86.51999664306641</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3085.937100838652</v>
+      </c>
+      <c r="E11" t="n">
+        <v>35.667328023249</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02569439795062144</v>
+      </c>
+      <c r="C12" t="n">
+        <v>564.6400146484375</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3066.564137880435</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.431007470821517</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.02488308371963601</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1049.599975585938</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2969.735750226706</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.829397693696454</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.02443515709452319</v>
+      </c>
+      <c r="C14" t="n">
+        <v>86.01999664306641</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2916.276792845702</v>
+      </c>
+      <c r="E14" t="n">
+        <v>33.90231233031287</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.02346830304784747</v>
+      </c>
+      <c r="C15" t="n">
+        <v>481.0599975585938</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2800.885105062311</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.822319709135989</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.02325036730710759</v>
+      </c>
+      <c r="C16" t="n">
+        <v>64.05000305175781</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2774.875002463306</v>
+      </c>
+      <c r="E16" t="n">
+        <v>43.32357330601488</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.02269154064154985</v>
+      </c>
+      <c r="C17" t="n">
+        <v>37.88000106811523</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2708.180393966</v>
+      </c>
+      <c r="E17" t="n">
+        <v>71.49367258718371</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.02256846467432045</v>
+      </c>
+      <c r="C18" t="n">
+        <v>101.3199996948242</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2693.491575490239</v>
+      </c>
+      <c r="E18" t="n">
+        <v>26.58400694436473</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.02163486882744469</v>
+      </c>
+      <c r="C19" t="n">
+        <v>254.2899932861328</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2582.069173268355</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10.15403374667187</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.02090111207121426</v>
+      </c>
+      <c r="C20" t="n">
+        <v>180.9299926757812</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2494.497082304873</v>
+      </c>
+      <c r="E20" t="n">
+        <v>13.78708441543412</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.01737486175019257</v>
+      </c>
+      <c r="C21" t="n">
+        <v>262.5700073242188</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2073.647650595462</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7.897503876118432</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01734130033067715</v>
+      </c>
+      <c r="C22" t="n">
+        <v>342.3999938964844</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2069.642176495617</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6.044515810129713</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01668745749960851</v>
+      </c>
+      <c r="C23" t="n">
+        <v>852.469970703125</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1991.607618868754</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.336278915755892</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01608383254069341</v>
+      </c>
+      <c r="C24" t="n">
+        <v>376.25</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1919.566442605512</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.101837721210664</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01562332325723195</v>
+      </c>
+      <c r="C25" t="n">
+        <v>117.2699966430664</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1864.605775438381</v>
+      </c>
+      <c r="E25" t="n">
+        <v>15.90010939553161</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01529752050642383</v>
+      </c>
+      <c r="C26" t="n">
+        <v>701.8699951171875</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1825.722006549498</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.601225325559994</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.015109126402865</v>
+      </c>
+      <c r="C27" t="n">
+        <v>553.1099853515625</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1803.237626768663</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.260179122643224</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0142974488084991</v>
+      </c>
+      <c r="C28" t="n">
+        <v>176.3099975585938</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1706.365872575905</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9.678213919825064</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.01398936747781841</v>
+      </c>
+      <c r="C29" t="n">
+        <v>78.38999938964844</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1669.597112240228</v>
+      </c>
+      <c r="E29" t="n">
+        <v>21.29859835744178</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.01382914953583772</v>
+      </c>
+      <c r="C30" t="n">
+        <v>121.7099990844727</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1650.475489072907</v>
+      </c>
+      <c r="E30" t="n">
+        <v>13.56072222075523</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01341930622756791</v>
+      </c>
+      <c r="C31" t="n">
+        <v>473.260009765625</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1601.561683281241</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.384105249193547</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01319214583330033</v>
+      </c>
+      <c r="C32" t="n">
+        <v>202.5099945068359</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1574.45064063504</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7.774681168054118</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.01281689671407438</v>
+      </c>
+      <c r="C33" t="n">
+        <v>372.4800109863281</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1529.665567484039</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.10670511803702</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.01266312297785996</v>
+      </c>
+      <c r="C34" t="n">
+        <v>227.9400024414062</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1511.313044660611</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6.630310732970647</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.012107773871345</v>
+      </c>
+      <c r="C35" t="n">
+        <v>153.9700012207031</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1445.033474408936</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9.385162453415852</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CTRA</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.01207106179526032</v>
+      </c>
+      <c r="C36" t="n">
+        <v>25.76000022888184</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1440.651977081589</v>
+      </c>
+      <c r="E36" t="n">
+        <v>55.9259302904177</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.01168345532881311</v>
+      </c>
+      <c r="C37" t="n">
+        <v>225.9199981689453</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1394.392084481584</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6.172061330484089</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.01075409835592501</v>
+      </c>
+      <c r="C38" t="n">
+        <v>58.88999938964844</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1283.475581599334</v>
+      </c>
+      <c r="E38" t="n">
+        <v>21.79445737649201</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.01047629870624803</v>
+      </c>
+      <c r="C39" t="n">
+        <v>234.6700134277344</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1250.320866518937</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5.327995887740332</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.01041841585803431</v>
+      </c>
+      <c r="C40" t="n">
+        <v>283.530029296875</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1243.412688834771</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.385470886164351</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.009581375025483427</v>
+      </c>
+      <c r="C41" t="n">
+        <v>573.7899780273438</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1143.51389361976</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.992913674705672</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>EXPE</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.009359668779895568</v>
+      </c>
+      <c r="C42" t="n">
+        <v>239.9600067138672</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1117.053790403082</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4.655166524207837</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.009001033060870287</v>
+      </c>
+      <c r="C43" t="n">
+        <v>70.59999847412109</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1074.251486311762</v>
+      </c>
+      <c r="E43" t="n">
+        <v>15.21602704716114</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ABBV</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.008142957951552959</v>
+      </c>
+      <c r="C44" t="n">
+        <v>232.9100036621094</v>
+      </c>
+      <c r="D44" t="n">
+        <v>971.8423011307291</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.172608672234682</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.008073601712628841</v>
+      </c>
+      <c r="C45" t="n">
+        <v>151.3600006103516</v>
+      </c>
+      <c r="D45" t="n">
+        <v>963.5648020653025</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6.366046499602114</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.008060434309876076</v>
+      </c>
+      <c r="C46" t="n">
+        <v>820.6699829101562</v>
+      </c>
+      <c r="D46" t="n">
+        <v>961.993304451377</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.172204813730457</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.007844669108478234</v>
+      </c>
+      <c r="C47" t="n">
+        <v>165.8000030517578</v>
+      </c>
+      <c r="D47" t="n">
+        <v>936.2422504636273</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5.646816846989807</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.007599870174440366</v>
+      </c>
+      <c r="C48" t="n">
+        <v>168.2299957275391</v>
+      </c>
+      <c r="D48" t="n">
+        <v>907.026090834025</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5.391583628778193</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.007549804953868192</v>
+      </c>
+      <c r="C49" t="n">
+        <v>117.3499984741211</v>
+      </c>
+      <c r="D49" t="n">
+        <v>901.0509280667656</v>
+      </c>
+      <c r="E49" t="n">
+        <v>7.678320748043913</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.007049337139402729</v>
+      </c>
+      <c r="C50" t="n">
+        <v>92.41000366210938</v>
+      </c>
+      <c r="D50" t="n">
+        <v>841.321307043827</v>
+      </c>
+      <c r="E50" t="n">
+        <v>9.10422328431085</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.006985325326964781</v>
+      </c>
+      <c r="C51" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>833.6816523299794</v>
+      </c>
+      <c r="E51" t="n">
+        <v>12.17053507051065</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.006669193717621843</v>
+      </c>
+      <c r="C52" t="n">
+        <v>136.6600036621094</v>
+      </c>
+      <c r="D52" t="n">
+        <v>795.9521107417892</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5.824323791983598</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.006499234859343607</v>
+      </c>
+      <c r="C53" t="n">
+        <v>128.0700073242188</v>
+      </c>
+      <c r="D53" t="n">
+        <v>775.6679328165953</v>
+      </c>
+      <c r="E53" t="n">
+        <v>6.056593179173749</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.006246794771727037</v>
+      </c>
+      <c r="C54" t="n">
+        <v>222.4100036621094</v>
+      </c>
+      <c r="D54" t="n">
+        <v>745.53982002189</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.352096613219484</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.005921719868310337</v>
+      </c>
+      <c r="C55" t="n">
+        <v>35.27999877929688</v>
+      </c>
+      <c r="D55" t="n">
+        <v>706.7429179555979</v>
+      </c>
+      <c r="E55" t="n">
+        <v>20.03239632679157</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.005878372693306265</v>
+      </c>
+      <c r="C56" t="n">
+        <v>23.09000015258789</v>
+      </c>
+      <c r="D56" t="n">
+        <v>701.5695376490669</v>
+      </c>
+      <c r="E56" t="n">
+        <v>30.38412875759276</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.005750558703230417</v>
+      </c>
+      <c r="C57" t="n">
+        <v>217.4799957275391</v>
+      </c>
+      <c r="D57" t="n">
+        <v>686.3152476268124</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.155762649943374</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.005419794552099389</v>
+      </c>
+      <c r="C58" t="n">
+        <v>259.1400146484375</v>
+      </c>
+      <c r="D58" t="n">
+        <v>646.8393476308623</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.496099834324689</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.00538642237066745</v>
+      </c>
+      <c r="C59" t="n">
+        <v>697.0999755859375</v>
+      </c>
+      <c r="D59" t="n">
+        <v>642.8564586377561</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.9221868901909116</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.004715454098969404</v>
+      </c>
+      <c r="C60" t="n">
+        <v>95.05000305175781</v>
+      </c>
+      <c r="D60" t="n">
+        <v>562.7780211667166</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5.920862736430063</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.004514585576283201</v>
+      </c>
+      <c r="C61" t="n">
+        <v>125.6800003051758</v>
+      </c>
+      <c r="D61" t="n">
+        <v>538.8048496885486</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4.287116871262129</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.004335844458861275</v>
+      </c>
+      <c r="C62" t="n">
+        <v>167.9299926757812</v>
+      </c>
+      <c r="D62" t="n">
+        <v>517.4725304139694</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.081477716806921</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.004003440610587394</v>
+      </c>
+      <c r="C63" t="n">
+        <v>293.9599914550781</v>
+      </c>
+      <c r="D63" t="n">
+        <v>477.800936537006</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.625394442869351</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.003709424794948714</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1736.160034179688</v>
+      </c>
+      <c r="D64" t="n">
+        <v>442.7108613408509</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.2549942704734739</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.003288983363185583</v>
+      </c>
+      <c r="C65" t="n">
+        <v>12.89999961853027</v>
+      </c>
+      <c r="D65" t="n">
+        <v>392.5321951895104</v>
+      </c>
+      <c r="E65" t="n">
+        <v>30.42885324009277</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>VTRS</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.003285652875574612</v>
+      </c>
+      <c r="C66" t="n">
+        <v>10.46000003814697</v>
+      </c>
+      <c r="D66" t="n">
+        <v>392.1347095629125</v>
+      </c>
+      <c r="E66" t="n">
+        <v>37.48897783296572</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SOLV</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.002984288808618494</v>
+      </c>
+      <c r="C67" t="n">
+        <v>77.30999755859375</v>
+      </c>
+      <c r="D67" t="n">
+        <v>356.167638376834</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.607006203911625</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.002643802859423928</v>
+      </c>
+      <c r="C68" t="n">
+        <v>84.26999664306641</v>
+      </c>
+      <c r="D68" t="n">
+        <v>315.5314653379174</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.744291893998536</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.002551670291143305</v>
+      </c>
+      <c r="C69" t="n">
+        <v>155.4600067138672</v>
+      </c>
+      <c r="D69" t="n">
+        <v>304.535666550838</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.958932544698476</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.002496972168181514</v>
+      </c>
+      <c r="C70" t="n">
+        <v>64.77999877929688</v>
+      </c>
+      <c r="D70" t="n">
+        <v>298.0075781089002</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.600302311276685</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.002487764836065124</v>
+      </c>
+      <c r="C71" t="n">
+        <v>26.45999908447266</v>
+      </c>
+      <c r="D71" t="n">
+        <v>296.9087053301748</v>
+      </c>
+      <c r="E71" t="n">
+        <v>11.22103989430626</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.002374028460893361</v>
+      </c>
+      <c r="C72" t="n">
+        <v>148.5800018310547</v>
+      </c>
+      <c r="D72" t="n">
+        <v>283.3345445366618</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.906949394568133</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.002273836860831639</v>
+      </c>
+      <c r="C73" t="n">
+        <v>58.2599983215332</v>
+      </c>
+      <c r="D73" t="n">
+        <v>271.3769198335424</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4.658031713901372</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.00181718283910637</v>
+      </c>
+      <c r="C74" t="n">
+        <v>251.8699951171875</v>
+      </c>
+      <c r="D74" t="n">
+        <v>216.8763688133262</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.8610647279062364</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0003602145922012124</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1167.4599609375</v>
+      </c>
+      <c r="D75" t="n">
+        <v>42.9907387792578</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.03682416546836168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Shares</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Exit_Price</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Sale_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Transaction_Cost</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>Gain_Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CAH</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>30.30882110830666</v>
+      </c>
+      <c r="C2" t="n">
+        <v>207.5200042724609</v>
+      </c>
+      <c r="D2" t="n">
+        <v>207.8999938964844</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6301.203723426591</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11.51703753753918</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>VTR</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>65.39796116590001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>79.77999877929688</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5217.449261984008</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-14.38763128799383</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>13.25595729403094</v>
+      </c>
+      <c r="C4" t="n">
+        <v>360.7300109863281</v>
+      </c>
+      <c r="D4" t="n">
+        <v>362.0700073242188</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4799.584554539314</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17.76293422923573</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18.29005561254871</v>
+      </c>
+      <c r="C5" t="n">
+        <v>196.8999938964844</v>
+      </c>
+      <c r="D5" t="n">
+        <v>197.5800018310547</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3613.749221417467</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.43738294026525</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>19.256906931595</v>
+      </c>
+      <c r="C6" t="n">
+        <v>179.1999969482422</v>
+      </c>
+      <c r="D6" t="n">
+        <v>170.8200073242188</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3289.464983096856</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-161.3726802775509</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>24.35506364303081</v>
+      </c>
+      <c r="C7" t="n">
+        <v>139.1300048828125</v>
+      </c>
+      <c r="D7" t="n">
+        <v>138.3000030517578</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3368.305376156917</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-20.21474741916927</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11.24899814918544</v>
+      </c>
+      <c r="C8" t="n">
+        <v>292.989990234375</v>
+      </c>
+      <c r="D8" t="n">
+        <v>289.9800109863281</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3261.98460688598</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-33.85925099036558</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FDS</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11.98677097804183</v>
+      </c>
+      <c r="C9" t="n">
+        <v>267.0199890136719</v>
+      </c>
+      <c r="D9" t="n">
+        <v>273.0499877929688</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3272.987669231434</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>72.28021436530344</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10.59651133608118</v>
+      </c>
+      <c r="C10" t="n">
+        <v>292.8099975585938</v>
+      </c>
+      <c r="D10" t="n">
+        <v>289.4500122070312</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3067.160335580644</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-35.60412286689871</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AKAM</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>35.667328023249</v>
+      </c>
+      <c r="C11" t="n">
+        <v>86.51999664306641</v>
+      </c>
+      <c r="D11" t="n">
+        <v>87.37999725341797</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3116.611024708255</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30.67392386960364</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.431007470821517</v>
+      </c>
+      <c r="C12" t="n">
+        <v>564.6400146484375</v>
+      </c>
+      <c r="D12" t="n">
+        <v>552.22998046875</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2999.165149537402</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-67.39898834303312</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.829397693696454</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1049.599975585938</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1043.2900390625</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2951.882430379921</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-17.85331984678533</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>33.90231233031287</v>
+      </c>
+      <c r="C14" t="n">
+        <v>86.01999664306641</v>
+      </c>
+      <c r="D14" t="n">
+        <v>84.08999633789062</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2850.845319702034</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-65.43147314366843</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.822319709135989</v>
+      </c>
+      <c r="C15" t="n">
+        <v>481.0599975585938</v>
+      </c>
+      <c r="D15" t="n">
+        <v>476.2799987792969</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2773.054423959965</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-27.83068110234581</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>43.32357330601488</v>
+      </c>
+      <c r="C16" t="n">
+        <v>64.05000305175781</v>
+      </c>
+      <c r="D16" t="n">
+        <v>63.47999954223633</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2750.180413633866</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-24.69458882943991</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>71.49367258718371</v>
+      </c>
+      <c r="C17" t="n">
+        <v>37.88000106811523</v>
+      </c>
+      <c r="D17" t="n">
+        <v>37.11999893188477</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2653.845050072779</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-54.33534389322131</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>26.58400694436473</v>
+      </c>
+      <c r="C18" t="n">
+        <v>101.3199996948242</v>
+      </c>
+      <c r="D18" t="n">
+        <v>101.7600021362305</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2705.188603448121</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11.69702795788135</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10.15403374667187</v>
+      </c>
+      <c r="C19" t="n">
+        <v>254.2899932861328</v>
+      </c>
+      <c r="D19" t="n">
+        <v>255.3200073242188</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2592.527970570625</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10.45879730227034</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>13.78708441543412</v>
+      </c>
+      <c r="C20" t="n">
+        <v>180.9299926757812</v>
+      </c>
+      <c r="D20" t="n">
+        <v>178.6199951171875</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2462.648950965095</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-31.84813133977877</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7.897503876118432</v>
+      </c>
+      <c r="C21" t="n">
+        <v>262.5700073242188</v>
+      </c>
+      <c r="D21" t="n">
+        <v>263.1000061035156</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2077.833318009298</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.18566741383529</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6.044515810129713</v>
+      </c>
+      <c r="C22" t="n">
+        <v>342.3999938964844</v>
+      </c>
+      <c r="D22" t="n">
+        <v>336.0700073242188</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2031.380472581649</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-38.2617039139684</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2.336278915755892</v>
+      </c>
+      <c r="C23" t="n">
+        <v>852.469970703125</v>
+      </c>
+      <c r="D23" t="n">
+        <v>849.4600219726562</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1984.575539112254</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-7.032079756500252</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5.101837721210664</v>
+      </c>
+      <c r="C24" t="n">
+        <v>376.25</v>
+      </c>
+      <c r="D24" t="n">
+        <v>378.6199951171875</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1931.657773093465</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>12.09133048795229</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>15.90010939553161</v>
+      </c>
+      <c r="C25" t="n">
+        <v>117.2699966430664</v>
+      </c>
+      <c r="D25" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1820.56252578837</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-44.04324965001138</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2.601225325559994</v>
+      </c>
+      <c r="C26" t="n">
+        <v>701.8699951171875</v>
+      </c>
+      <c r="D26" t="n">
+        <v>737</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1917.103064937716</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>91.38105838821821</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3.260179122643224</v>
+      </c>
+      <c r="C27" t="n">
+        <v>553.1099853515625</v>
+      </c>
+      <c r="D27" t="n">
+        <v>546.1300048828125</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1780.481640167987</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-22.75598660067612</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>9.678213919825064</v>
+      </c>
+      <c r="C28" t="n">
+        <v>176.3099975585938</v>
+      </c>
+      <c r="D28" t="n">
+        <v>159.5700073242188</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1544.352666071841</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-162.0132065040639</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>21.29859835744178</v>
+      </c>
+      <c r="C29" t="n">
+        <v>78.38999938964844</v>
+      </c>
+      <c r="D29" t="n">
+        <v>75.44000244140625</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1606.766312083939</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-62.83080015628934</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>13.56072222075523</v>
+      </c>
+      <c r="C30" t="n">
+        <v>121.7099990844727</v>
+      </c>
+      <c r="D30" t="n">
+        <v>120.9000015258789</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1639.491337181327</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-10.98415189157981</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3.384105249193547</v>
+      </c>
+      <c r="C31" t="n">
+        <v>473.260009765625</v>
+      </c>
+      <c r="D31" t="n">
+        <v>465.1900024414062</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1574.251929134322</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-27.30975414691898</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>7.774681168054118</v>
+      </c>
+      <c r="C32" t="n">
+        <v>202.5099945068359</v>
+      </c>
+      <c r="D32" t="n">
+        <v>203.0700073242188</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1578.804561740215</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.353921105175004</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4.10670511803702</v>
+      </c>
+      <c r="C33" t="n">
+        <v>372.4800109863281</v>
+      </c>
+      <c r="D33" t="n">
+        <v>368.7000122070312</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1514.142227150927</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-15.52334033311217</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6.630310732970647</v>
+      </c>
+      <c r="C34" t="n">
+        <v>227.9400024414062</v>
+      </c>
+      <c r="D34" t="n">
+        <v>225.3800048828125</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1494.339465371488</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-16.97357928912288</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>9.385162453415852</v>
+      </c>
+      <c r="C35" t="n">
+        <v>153.9700012207031</v>
+      </c>
+      <c r="D35" t="n">
+        <v>140.2299957275391</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1316.081290744765</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-128.9521836641709</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CTRA</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>55.9259302904177</v>
+      </c>
+      <c r="C36" t="n">
+        <v>25.76000022888184</v>
+      </c>
+      <c r="D36" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1420.51860804256</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-20.13336903902928</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>6.172061330484089</v>
+      </c>
+      <c r="C37" t="n">
+        <v>225.9199981689453</v>
+      </c>
+      <c r="D37" t="n">
+        <v>201.3699951171875</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1242.867959982563</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-151.5241244990209</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>21.79445737649201</v>
+      </c>
+      <c r="C38" t="n">
+        <v>58.88999938964844</v>
+      </c>
+      <c r="D38" t="n">
+        <v>56.34999847412109</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1228.117639909622</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-55.35794168971142</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>5.327995887740332</v>
+      </c>
+      <c r="C39" t="n">
+        <v>234.6700134277344</v>
+      </c>
+      <c r="D39" t="n">
+        <v>220.2299957275391</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1173.384511593399</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-76.93635492553813</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4.385470886164351</v>
+      </c>
+      <c r="C40" t="n">
+        <v>283.530029296875</v>
+      </c>
+      <c r="D40" t="n">
+        <v>282.3800048828125</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1238.369290248522</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-5.043398586249396</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1.992913674705672</v>
+      </c>
+      <c r="C41" t="n">
+        <v>573.7899780273438</v>
+      </c>
+      <c r="D41" t="n">
+        <v>572.739990234375</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1141.421358588879</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-2.092535030881436</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>EXPE</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>4.655166524207837</v>
+      </c>
+      <c r="C42" t="n">
+        <v>239.9600067138672</v>
+      </c>
+      <c r="D42" t="n">
+        <v>234.7700042724609</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1092.893464777291</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-24.1603256257913</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>15.21602704716114</v>
+      </c>
+      <c r="C43" t="n">
+        <v>70.59999847412109</v>
+      </c>
+      <c r="D43" t="n">
+        <v>71.18000030517578</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1083.076809860493</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>8.825323548731149</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ABBV</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4.172608672234682</v>
+      </c>
+      <c r="C44" t="n">
+        <v>232.9100036621094</v>
+      </c>
+      <c r="D44" t="n">
+        <v>229.4499969482422</v>
+      </c>
+      <c r="E44" t="n">
+        <v>957.4050471104566</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-14.43725402027235</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>6.366046499602114</v>
+      </c>
+      <c r="C45" t="n">
+        <v>151.3600006103516</v>
+      </c>
+      <c r="D45" t="n">
+        <v>148.5700073242188</v>
+      </c>
+      <c r="E45" t="n">
+        <v>945.8035750722032</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-17.76122699309917</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1.172204813730457</v>
+      </c>
+      <c r="C46" t="n">
+        <v>820.6699829101562</v>
+      </c>
+      <c r="D46" t="n">
+        <v>819.4000244140625</v>
+      </c>
+      <c r="E46" t="n">
+        <v>960.5046529890179</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.488651462358916</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>5.646816846989807</v>
+      </c>
+      <c r="C47" t="n">
+        <v>165.8000030517578</v>
+      </c>
+      <c r="D47" t="n">
+        <v>167.7700042724609</v>
+      </c>
+      <c r="E47" t="n">
+        <v>947.3664865452843</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>11.12423608165693</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>5.391583628778193</v>
+      </c>
+      <c r="C48" t="n">
+        <v>168.2299957275391</v>
+      </c>
+      <c r="D48" t="n">
+        <v>155.8999938964844</v>
+      </c>
+      <c r="E48" t="n">
+        <v>840.5478548189053</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-66.47823601511959</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>7.678320748043913</v>
+      </c>
+      <c r="C49" t="n">
+        <v>117.3499984741211</v>
+      </c>
+      <c r="D49" t="n">
+        <v>117.0199966430664</v>
+      </c>
+      <c r="E49" t="n">
+        <v>898.5170681604859</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-2.533859906279645</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>9.10422328431085</v>
+      </c>
+      <c r="C50" t="n">
+        <v>92.41000366210938</v>
+      </c>
+      <c r="D50" t="n">
+        <v>90.87000274658203</v>
+      </c>
+      <c r="E50" t="n">
+        <v>827.300794850823</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-14.02051219300415</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>12.17053507051065</v>
+      </c>
+      <c r="C51" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>68.04000091552734</v>
+      </c>
+      <c r="E51" t="n">
+        <v>828.0832173400022</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-5.59843498997725</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>5.824323791983598</v>
+      </c>
+      <c r="C52" t="n">
+        <v>136.6600036621094</v>
+      </c>
+      <c r="D52" t="n">
+        <v>130.3600006103516</v>
+      </c>
+      <c r="E52" t="n">
+        <v>759.2588530778669</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-36.69325766392228</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>6.056593179173749</v>
+      </c>
+      <c r="C53" t="n">
+        <v>128.0700073242188</v>
+      </c>
+      <c r="D53" t="n">
+        <v>124.9899978637695</v>
+      </c>
+      <c r="E53" t="n">
+        <v>757.013568526648</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-18.65436428994735</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3.352096613219484</v>
+      </c>
+      <c r="C54" t="n">
+        <v>222.4100036621094</v>
+      </c>
+      <c r="D54" t="n">
+        <v>222.1799926757812</v>
+      </c>
+      <c r="E54" t="n">
+        <v>744.7688009736162</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.7710190482738426</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>20.03239632679157</v>
+      </c>
+      <c r="C55" t="n">
+        <v>35.27999877929688</v>
+      </c>
+      <c r="D55" t="n">
+        <v>35.15999984741211</v>
+      </c>
+      <c r="E55" t="n">
+        <v>704.3390517932907</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-2.403866162307281</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>30.38412875759276</v>
+      </c>
+      <c r="C56" t="n">
+        <v>23.09000015258789</v>
+      </c>
+      <c r="D56" t="n">
+        <v>22.8799991607666</v>
+      </c>
+      <c r="E56" t="n">
+        <v>695.1888404743466</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-6.38069717472024</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3.155762649943374</v>
+      </c>
+      <c r="C57" t="n">
+        <v>217.4799957275391</v>
+      </c>
+      <c r="D57" t="n">
+        <v>217.1100006103516</v>
+      </c>
+      <c r="E57" t="n">
+        <v>685.1476308553307</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1.167616771481676</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2.496099834324689</v>
+      </c>
+      <c r="C58" t="n">
+        <v>259.1400146484375</v>
+      </c>
+      <c r="D58" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>600.3120101550877</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-46.52733747577463</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9221868901909116</v>
+      </c>
+      <c r="C59" t="n">
+        <v>697.0999755859375</v>
+      </c>
+      <c r="D59" t="n">
+        <v>689.3499755859375</v>
+      </c>
+      <c r="E59" t="n">
+        <v>635.7095102387765</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-7.146948398979589</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>5.920862736430063</v>
+      </c>
+      <c r="C60" t="n">
+        <v>95.05000305175781</v>
+      </c>
+      <c r="D60" t="n">
+        <v>94.97000122070312</v>
+      </c>
+      <c r="E60" t="n">
+        <v>562.3043413063788</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.4736798603378247</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>4.287116871262129</v>
+      </c>
+      <c r="C61" t="n">
+        <v>125.6800003051758</v>
+      </c>
+      <c r="D61" t="n">
+        <v>116.4199981689453</v>
+      </c>
+      <c r="E61" t="n">
+        <v>499.1061383023916</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-39.69871138615702</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3.081477716806921</v>
+      </c>
+      <c r="C62" t="n">
+        <v>167.9299926757812</v>
+      </c>
+      <c r="D62" t="n">
+        <v>168.1799926757812</v>
+      </c>
+      <c r="E62" t="n">
+        <v>518.2428998431711</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.7703694292017644</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1.625394442869351</v>
+      </c>
+      <c r="C63" t="n">
+        <v>293.9599914550781</v>
+      </c>
+      <c r="D63" t="n">
+        <v>296.3200073242188</v>
+      </c>
+      <c r="E63" t="n">
+        <v>481.6368932157907</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3.835956678784669</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.2549942704734739</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1736.160034179688</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1720.550048828125</v>
+      </c>
+      <c r="E64" t="n">
+        <v>438.7304045140276</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-3.980456826823286</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>30.42885324009277</v>
+      </c>
+      <c r="C65" t="n">
+        <v>12.89999961853027</v>
+      </c>
+      <c r="D65" t="n">
+        <v>12.40999984741211</v>
+      </c>
+      <c r="E65" t="n">
+        <v>377.6220640664767</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-14.91013112303369</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>VTRS</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>37.48897783296572</v>
+      </c>
+      <c r="C66" t="n">
+        <v>10.46000003814697</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10.1899995803833</v>
+      </c>
+      <c r="E66" t="n">
+        <v>382.0126683869196</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-10.12204117599288</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SOLV</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>4.607006203911625</v>
+      </c>
+      <c r="C67" t="n">
+        <v>77.30999755859375</v>
+      </c>
+      <c r="D67" t="n">
+        <v>79.51000213623047</v>
+      </c>
+      <c r="E67" t="n">
+        <v>366.3030731146403</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>10.13543473780635</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3.744291893998536</v>
+      </c>
+      <c r="C68" t="n">
+        <v>84.26999664306641</v>
+      </c>
+      <c r="D68" t="n">
+        <v>84.30000305175781</v>
+      </c>
+      <c r="E68" t="n">
+        <v>315.6438180907487</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.1123527528312707</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1.958932544698476</v>
+      </c>
+      <c r="C69" t="n">
+        <v>155.4600067138672</v>
+      </c>
+      <c r="D69" t="n">
+        <v>153.1100006103516</v>
+      </c>
+      <c r="E69" t="n">
+        <v>299.9321631144211</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-4.603503436416815</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>4.600302311276685</v>
+      </c>
+      <c r="C70" t="n">
+        <v>64.77999877929688</v>
+      </c>
+      <c r="D70" t="n">
+        <v>65.13999938964844</v>
+      </c>
+      <c r="E70" t="n">
+        <v>299.6636897487616</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.656111639861365</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>11.22103989430626</v>
+      </c>
+      <c r="C71" t="n">
+        <v>26.45999908447266</v>
+      </c>
+      <c r="D71" t="n">
+        <v>25.6200008392334</v>
+      </c>
+      <c r="E71" t="n">
+        <v>287.4830515091978</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-9.425653820977004</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1.906949394568133</v>
+      </c>
+      <c r="C72" t="n">
+        <v>148.5800018310547</v>
+      </c>
+      <c r="D72" t="n">
+        <v>147.1999969482422</v>
+      </c>
+      <c r="E72" t="n">
+        <v>280.7029450608815</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-2.631599475780376</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>4.658031713901372</v>
+      </c>
+      <c r="C73" t="n">
+        <v>58.2599983215332</v>
+      </c>
+      <c r="D73" t="n">
+        <v>58.65000152587891</v>
+      </c>
+      <c r="E73" t="n">
+        <v>273.1935671279078</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.816647294365396</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.8610647279062364</v>
+      </c>
+      <c r="C74" t="n">
+        <v>251.8699951171875</v>
+      </c>
+      <c r="D74" t="n">
+        <v>245.8399963378906</v>
+      </c>
+      <c r="E74" t="n">
+        <v>211.684149555156</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-5.192219258170212</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.03682416546836168</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1167.4599609375</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1102.449951171875</v>
+      </c>
+      <c r="E75" t="n">
+        <v>40.59679942254038</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-2.39393935670919</v>
       </c>
     </row>
   </sheetData>

--- a/backtest_portfolio_PL.xlsx
+++ b/backtest_portfolio_PL.xlsx
@@ -50,6 +50,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-19-2025_PnL" sheetId="42" state="visible" r:id="rId42"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-20-2025_Allocations" sheetId="43" state="visible" r:id="rId43"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-20-2025_PnL" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-21-2025_Allocations" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-21-2025_PnL" sheetId="46" state="visible" r:id="rId46"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -76439,16 +76441,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05270058131041112</v>
+        <v>0.05270057454343809</v>
       </c>
       <c r="C2" t="n">
         <v>207.5200042724609</v>
       </c>
       <c r="D2" t="n">
-        <v>6289.686685889052</v>
+        <v>6289.685878267218</v>
       </c>
       <c r="E2" t="n">
-        <v>30.30882110830666</v>
+        <v>30.30881721652843</v>
       </c>
     </row>
     <row r="3">
@@ -76458,16 +76460,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04383697620666401</v>
+        <v>0.0438369709918979</v>
       </c>
       <c r="C3" t="n">
         <v>80</v>
       </c>
       <c r="D3" t="n">
-        <v>5231.836893272001</v>
+        <v>5231.836270902301</v>
       </c>
       <c r="E3" t="n">
-        <v>65.39796116590001</v>
+        <v>65.39795338627877</v>
       </c>
     </row>
     <row r="4">
@@ -76477,16 +76479,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04006634856365855</v>
+        <v>0.04006634794599841</v>
       </c>
       <c r="C4" t="n">
         <v>360.7300109863281</v>
       </c>
       <c r="D4" t="n">
-        <v>4781.821620310078</v>
+        <v>4781.821546593837</v>
       </c>
       <c r="E4" t="n">
-        <v>13.25595729403094</v>
+        <v>13.25595708967799</v>
       </c>
     </row>
     <row r="5">
@@ -76496,16 +76498,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03017498912841105</v>
+        <v>0.0301750034378985</v>
       </c>
       <c r="C5" t="n">
         <v>196.8999938964844</v>
       </c>
       <c r="D5" t="n">
-        <v>3601.311838477201</v>
+        <v>3601.313546279856</v>
       </c>
       <c r="E5" t="n">
-        <v>18.29005561254871</v>
+        <v>18.29006428600076</v>
       </c>
     </row>
     <row r="6">
@@ -76515,16 +76517,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02891418284406735</v>
+        <v>0.02891417868697001</v>
       </c>
       <c r="C6" t="n">
         <v>179.1999969482422</v>
       </c>
       <c r="D6" t="n">
-        <v>3450.837663374407</v>
+        <v>3450.837167234913</v>
       </c>
       <c r="E6" t="n">
-        <v>19.256906931595</v>
+        <v>19.25690416295938</v>
       </c>
     </row>
     <row r="7">
@@ -76534,16 +76536,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02839203114761254</v>
+        <v>0.02839203070992289</v>
       </c>
       <c r="C7" t="n">
         <v>139.1300048828125</v>
       </c>
       <c r="D7" t="n">
-        <v>3388.520123576086</v>
+        <v>3388.520071338887</v>
       </c>
       <c r="E7" t="n">
-        <v>24.35506364303081</v>
+        <v>24.35506326757478</v>
       </c>
     </row>
     <row r="8">
@@ -76553,16 +76555,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02761550708211148</v>
+        <v>0.02761550665639267</v>
       </c>
       <c r="C8" t="n">
         <v>292.989990234375</v>
       </c>
       <c r="D8" t="n">
-        <v>3295.843857876345</v>
+        <v>3295.843807067837</v>
       </c>
       <c r="E8" t="n">
-        <v>11.24899814918544</v>
+        <v>11.24899797577164</v>
       </c>
     </row>
     <row r="9">
@@ -76572,16 +76574,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02681836980122462</v>
+        <v>0.02681836938779443</v>
       </c>
       <c r="C9" t="n">
         <v>267.0199890136719</v>
       </c>
       <c r="D9" t="n">
-        <v>3200.70745486613</v>
+        <v>3200.707405524238</v>
       </c>
       <c r="E9" t="n">
-        <v>11.98677097804183</v>
+        <v>11.98677079325457</v>
       </c>
     </row>
     <row r="10">
@@ -76591,16 +76593,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02599771638805488</v>
+        <v>0.02599771111271828</v>
       </c>
       <c r="C10" t="n">
         <v>292.8099975585938</v>
       </c>
       <c r="D10" t="n">
-        <v>3102.764458447542</v>
+        <v>3102.7638288489</v>
       </c>
       <c r="E10" t="n">
-        <v>10.59651133608118</v>
+        <v>10.59650918588602</v>
       </c>
     </row>
     <row r="11">
@@ -76610,16 +76612,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02585672184060051</v>
+        <v>0.02585672144199502</v>
       </c>
       <c r="C11" t="n">
         <v>86.51999664306641</v>
       </c>
       <c r="D11" t="n">
-        <v>3085.937100838652</v>
+        <v>3085.937053266052</v>
       </c>
       <c r="E11" t="n">
-        <v>35.667328023249</v>
+        <v>35.66732747340386</v>
       </c>
     </row>
     <row r="12">
@@ -76629,16 +76631,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02569439795062144</v>
+        <v>0.02569439755451832</v>
       </c>
       <c r="C12" t="n">
         <v>564.6400146484375</v>
       </c>
       <c r="D12" t="n">
-        <v>3066.564137880435</v>
+        <v>3066.564090606487</v>
       </c>
       <c r="E12" t="n">
-        <v>5.431007470821517</v>
+        <v>5.431007387097469</v>
       </c>
     </row>
     <row r="13">
@@ -76648,16 +76650,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02488308371963601</v>
+        <v>0.02488308333604006</v>
       </c>
       <c r="C13" t="n">
         <v>1049.599975585938</v>
       </c>
       <c r="D13" t="n">
-        <v>2969.735750226706</v>
+        <v>2969.735704445458</v>
       </c>
       <c r="E13" t="n">
-        <v>2.829397693696454</v>
+        <v>2.829397650078648</v>
       </c>
     </row>
     <row r="14">
@@ -76667,16 +76669,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02443515709452319</v>
+        <v>0.02443515671783244</v>
       </c>
       <c r="C14" t="n">
         <v>86.01999664306641</v>
       </c>
       <c r="D14" t="n">
-        <v>2916.276792845702</v>
+        <v>2916.276747888574</v>
       </c>
       <c r="E14" t="n">
-        <v>33.90231233031287</v>
+        <v>33.90231180767709</v>
       </c>
     </row>
     <row r="15">
@@ -76686,16 +76688,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02346830304784747</v>
+        <v>0.02346830268606168</v>
       </c>
       <c r="C15" t="n">
         <v>481.0599975585938</v>
       </c>
       <c r="D15" t="n">
-        <v>2800.885105062311</v>
+        <v>2800.885061884054</v>
       </c>
       <c r="E15" t="n">
-        <v>5.822319709135989</v>
+        <v>5.822319619379498</v>
       </c>
     </row>
     <row r="16">
@@ -76705,16 +76707,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02325036730710759</v>
+        <v>0.02325038546664567</v>
       </c>
       <c r="C16" t="n">
         <v>64.05000305175781</v>
       </c>
       <c r="D16" t="n">
-        <v>2774.875002463306</v>
+        <v>2774.877169760175</v>
       </c>
       <c r="E16" t="n">
-        <v>43.32357330601488</v>
+        <v>43.32360714359123</v>
       </c>
     </row>
     <row r="17">
@@ -76724,16 +76726,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02269154064154985</v>
+        <v>0.02269154029173857</v>
       </c>
       <c r="C17" t="n">
         <v>37.88000106811523</v>
       </c>
       <c r="D17" t="n">
-        <v>2708.180393966</v>
+        <v>2708.180352216872</v>
       </c>
       <c r="E17" t="n">
-        <v>71.49367258718371</v>
+        <v>71.49367148504204</v>
       </c>
     </row>
     <row r="18">
@@ -76743,16 +76745,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02256846467432045</v>
+        <v>0.02256846432640651</v>
       </c>
       <c r="C18" t="n">
         <v>101.3199996948242</v>
       </c>
       <c r="D18" t="n">
-        <v>2693.491575490239</v>
+        <v>2693.491533967554</v>
       </c>
       <c r="E18" t="n">
-        <v>26.58400694436473</v>
+        <v>26.58400653454746</v>
       </c>
     </row>
     <row r="19">
@@ -76762,16 +76764,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02163486882744469</v>
+        <v>0.021634868493923</v>
       </c>
       <c r="C19" t="n">
         <v>254.2899932861328</v>
       </c>
       <c r="D19" t="n">
-        <v>2582.069173268355</v>
+        <v>2582.069133463349</v>
       </c>
       <c r="E19" t="n">
-        <v>10.15403374667187</v>
+        <v>10.15403359013796</v>
       </c>
     </row>
     <row r="20">
@@ -76781,16 +76783,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02090111207121426</v>
+        <v>0.02090111174900411</v>
       </c>
       <c r="C20" t="n">
         <v>180.9299926757812</v>
       </c>
       <c r="D20" t="n">
-        <v>2494.497082304873</v>
+        <v>2494.497043849873</v>
       </c>
       <c r="E20" t="n">
-        <v>13.78708441543412</v>
+        <v>13.78708420289335</v>
       </c>
     </row>
     <row r="21">
@@ -76800,16 +76802,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01737486175019257</v>
+        <v>0.01737485740577845</v>
       </c>
       <c r="C21" t="n">
         <v>262.5700073242188</v>
       </c>
       <c r="D21" t="n">
-        <v>2073.647650595462</v>
+        <v>2073.647132100164</v>
       </c>
       <c r="E21" t="n">
-        <v>7.897503876118432</v>
+        <v>7.897501901424885</v>
       </c>
     </row>
     <row r="22">
@@ -76819,16 +76821,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01734130033067715</v>
+        <v>0.01734130006334483</v>
       </c>
       <c r="C22" t="n">
         <v>342.3999938964844</v>
       </c>
       <c r="D22" t="n">
-        <v>2069.642176495617</v>
+        <v>2069.642144590151</v>
       </c>
       <c r="E22" t="n">
-        <v>6.044515810129713</v>
+        <v>6.044515716947861</v>
       </c>
     </row>
     <row r="23">
@@ -76838,16 +76840,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01668745749960851</v>
+        <v>0.01668745724235578</v>
       </c>
       <c r="C23" t="n">
         <v>852.469970703125</v>
       </c>
       <c r="D23" t="n">
-        <v>1991.607618868754</v>
+        <v>1991.607588166264</v>
       </c>
       <c r="E23" t="n">
-        <v>2.336278915755892</v>
+        <v>2.336278879739973</v>
       </c>
     </row>
     <row r="24">
@@ -76857,16 +76859,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01608383254069341</v>
+        <v>0.01608383229274612</v>
       </c>
       <c r="C24" t="n">
         <v>376.25</v>
       </c>
       <c r="D24" t="n">
-        <v>1919.566442605512</v>
+        <v>1919.566413013604</v>
       </c>
       <c r="E24" t="n">
-        <v>5.101837721210664</v>
+        <v>5.101837642561075</v>
       </c>
     </row>
     <row r="25">
@@ -76876,16 +76878,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01562332325723195</v>
+        <v>0.01562332301638384</v>
       </c>
       <c r="C25" t="n">
         <v>117.2699966430664</v>
       </c>
       <c r="D25" t="n">
-        <v>1864.605775438381</v>
+        <v>1864.605746693743</v>
       </c>
       <c r="E25" t="n">
-        <v>15.90010939553161</v>
+        <v>15.90010915041659</v>
       </c>
     </row>
     <row r="26">
@@ -76895,16 +76897,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01529752050642383</v>
+        <v>0.01529751696674066</v>
       </c>
       <c r="C26" t="n">
         <v>701.8699951171875</v>
       </c>
       <c r="D26" t="n">
-        <v>1825.722006549498</v>
+        <v>1825.721584096887</v>
       </c>
       <c r="E26" t="n">
-        <v>2.601225325559994</v>
+        <v>2.601224723664182</v>
       </c>
     </row>
     <row r="27">
@@ -76914,16 +76916,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.015109126402865</v>
+        <v>0.01510912616994371</v>
       </c>
       <c r="C27" t="n">
         <v>553.1099853515625</v>
       </c>
       <c r="D27" t="n">
-        <v>1803.237626768663</v>
+        <v>1803.237598970073</v>
       </c>
       <c r="E27" t="n">
-        <v>3.260179122643224</v>
+        <v>3.260179072384521</v>
       </c>
     </row>
     <row r="28">
@@ -76933,16 +76935,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0142974488084991</v>
+        <v>0.01429744858809059</v>
       </c>
       <c r="C28" t="n">
         <v>176.3099975585938</v>
       </c>
       <c r="D28" t="n">
-        <v>1706.365872575905</v>
+        <v>1706.365846270683</v>
       </c>
       <c r="E28" t="n">
-        <v>9.678213919825064</v>
+        <v>9.678213770626366</v>
       </c>
     </row>
     <row r="29">
@@ -76952,16 +76954,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01398936747781841</v>
+        <v>0.01398936922204468</v>
       </c>
       <c r="C29" t="n">
         <v>78.38999938964844</v>
       </c>
       <c r="D29" t="n">
-        <v>1669.597112240228</v>
+        <v>1669.597320409407</v>
       </c>
       <c r="E29" t="n">
-        <v>21.29859835744178</v>
+        <v>21.29860101299964</v>
       </c>
     </row>
     <row r="30">
@@ -76971,16 +76973,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01382914953583772</v>
+        <v>0.01382914932264848</v>
       </c>
       <c r="C30" t="n">
         <v>121.7099990844727</v>
       </c>
       <c r="D30" t="n">
-        <v>1650.475489072907</v>
+        <v>1650.475463629287</v>
       </c>
       <c r="E30" t="n">
-        <v>13.56072222075523</v>
+        <v>13.56072201170404</v>
       </c>
     </row>
     <row r="31">
@@ -76990,16 +76992,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01341930622756791</v>
+        <v>0.01341930602069679</v>
       </c>
       <c r="C31" t="n">
         <v>473.260009765625</v>
       </c>
       <c r="D31" t="n">
-        <v>1601.561683281241</v>
+        <v>1601.561658591673</v>
       </c>
       <c r="E31" t="n">
-        <v>3.384105249193547</v>
+        <v>3.384105197024407</v>
       </c>
     </row>
     <row r="32">
@@ -77009,16 +77011,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01319214583330033</v>
+        <v>0.01319214562993109</v>
       </c>
       <c r="C32" t="n">
         <v>202.5099945068359</v>
       </c>
       <c r="D32" t="n">
-        <v>1574.45064063504</v>
+        <v>1574.450616363415</v>
       </c>
       <c r="E32" t="n">
-        <v>7.774681168054118</v>
+        <v>7.774681048200153</v>
       </c>
     </row>
     <row r="33">
@@ -77028,16 +77030,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01281689671407438</v>
+        <v>0.01281689651648996</v>
       </c>
       <c r="C33" t="n">
         <v>372.4800109863281</v>
       </c>
       <c r="D33" t="n">
-        <v>1529.665567484039</v>
+        <v>1529.665543902817</v>
       </c>
       <c r="E33" t="n">
-        <v>4.10670511803702</v>
+        <v>4.106705054728328</v>
       </c>
     </row>
     <row r="34">
@@ -77047,16 +77049,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01266312297785996</v>
+        <v>0.01266312214825326</v>
       </c>
       <c r="C34" t="n">
         <v>227.9400024414062</v>
       </c>
       <c r="D34" t="n">
-        <v>1511.313044660611</v>
+        <v>1511.312945649062</v>
       </c>
       <c r="E34" t="n">
-        <v>6.630310732970647</v>
+        <v>6.630310298595161</v>
       </c>
     </row>
     <row r="35">
@@ -77066,16 +77068,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.012107773871345</v>
+        <v>0.01210777368469237</v>
       </c>
       <c r="C35" t="n">
         <v>153.9700012207031</v>
       </c>
       <c r="D35" t="n">
-        <v>1445.033474408936</v>
+        <v>1445.033452132397</v>
       </c>
       <c r="E35" t="n">
-        <v>9.385162453415852</v>
+        <v>9.385162308734817</v>
       </c>
     </row>
     <row r="36">
@@ -77085,16 +77087,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01207106179526032</v>
+        <v>0.01207106160917364</v>
       </c>
       <c r="C36" t="n">
         <v>25.76000022888184</v>
       </c>
       <c r="D36" t="n">
-        <v>1440.651977081589</v>
+        <v>1440.651954872595</v>
       </c>
       <c r="E36" t="n">
-        <v>55.9259302904177</v>
+        <v>55.9259294282673</v>
       </c>
     </row>
     <row r="37">
@@ -77104,16 +77106,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01168345532881311</v>
+        <v>0.01168345514870175</v>
       </c>
       <c r="C37" t="n">
         <v>225.9199981689453</v>
       </c>
       <c r="D37" t="n">
-        <v>1394.392084481584</v>
+        <v>1394.392062985728</v>
       </c>
       <c r="E37" t="n">
-        <v>6.172061330484089</v>
+        <v>6.172061235336004</v>
       </c>
     </row>
     <row r="38">
@@ -77123,16 +77125,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01075409835592501</v>
+        <v>0.01075409819014055</v>
       </c>
       <c r="C38" t="n">
         <v>58.88999938964844</v>
       </c>
       <c r="D38" t="n">
-        <v>1283.475581599334</v>
+        <v>1283.47556181336</v>
       </c>
       <c r="E38" t="n">
-        <v>21.79445737649201</v>
+        <v>21.79445704051012</v>
       </c>
     </row>
     <row r="39">
@@ -77142,16 +77144,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01047629870624803</v>
+        <v>0.01047630066499173</v>
       </c>
       <c r="C39" t="n">
         <v>234.6700134277344</v>
       </c>
       <c r="D39" t="n">
-        <v>1250.320866518937</v>
+        <v>1250.321100290252</v>
       </c>
       <c r="E39" t="n">
-        <v>5.327995887740332</v>
+        <v>5.327996883910705</v>
       </c>
     </row>
     <row r="40">
@@ -77161,16 +77163,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01041841585803431</v>
+        <v>0.01041841343405137</v>
       </c>
       <c r="C40" t="n">
         <v>283.530029296875</v>
       </c>
       <c r="D40" t="n">
-        <v>1243.412688834771</v>
+        <v>1243.412399538281</v>
       </c>
       <c r="E40" t="n">
-        <v>4.385470886164351</v>
+        <v>4.385469865826256</v>
       </c>
     </row>
     <row r="41">
@@ -77180,16 +77182,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.009581375025483427</v>
+        <v>0.00958137574411045</v>
       </c>
       <c r="C41" t="n">
         <v>573.7899780273438</v>
       </c>
       <c r="D41" t="n">
-        <v>1143.51389361976</v>
+        <v>1143.513979386154</v>
       </c>
       <c r="E41" t="n">
-        <v>1.992913674705672</v>
+        <v>1.992913824179168</v>
       </c>
     </row>
     <row r="42">
@@ -77199,16 +77201,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.009359668779895568</v>
+        <v>0.009359669786527096</v>
       </c>
       <c r="C42" t="n">
         <v>239.9600067138672</v>
       </c>
       <c r="D42" t="n">
-        <v>1117.053790403082</v>
+        <v>1117.053910542116</v>
       </c>
       <c r="E42" t="n">
-        <v>4.655166524207837</v>
+        <v>4.655167024870575</v>
       </c>
     </row>
     <row r="43">
@@ -77218,16 +77220,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.009001033060870287</v>
+        <v>0.009001032922110963</v>
       </c>
       <c r="C43" t="n">
         <v>70.59999847412109</v>
       </c>
       <c r="D43" t="n">
-        <v>1074.251486311762</v>
+        <v>1074.251469751173</v>
       </c>
       <c r="E43" t="n">
-        <v>15.21602704716114</v>
+        <v>15.21602681259189</v>
       </c>
     </row>
     <row r="44">
@@ -77237,16 +77239,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.008142957951552959</v>
+        <v>0.008142957826021664</v>
       </c>
       <c r="C44" t="n">
         <v>232.9100036621094</v>
       </c>
       <c r="D44" t="n">
-        <v>971.8423011307291</v>
+        <v>971.8422861488731</v>
       </c>
       <c r="E44" t="n">
-        <v>4.172608672234682</v>
+        <v>4.172608607910025</v>
       </c>
     </row>
     <row r="45">
@@ -77256,16 +77258,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.008073601712628841</v>
+        <v>0.008073601588166737</v>
       </c>
       <c r="C45" t="n">
         <v>151.3600006103516</v>
       </c>
       <c r="D45" t="n">
-        <v>963.5648020653025</v>
+        <v>963.564787211052</v>
       </c>
       <c r="E45" t="n">
-        <v>6.366046499602114</v>
+        <v>6.366046401463568</v>
       </c>
     </row>
     <row r="46">
@@ -77275,16 +77277,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.008060434309876076</v>
+        <v>0.008060439186492973</v>
       </c>
       <c r="C46" t="n">
         <v>820.6699829101562</v>
       </c>
       <c r="D46" t="n">
-        <v>961.993304451377</v>
+        <v>961.9938864637875</v>
       </c>
       <c r="E46" t="n">
-        <v>1.172204813730457</v>
+        <v>1.172205522922242</v>
       </c>
     </row>
     <row r="47">
@@ -77294,16 +77296,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.007844669108478234</v>
+        <v>0.00784466898754534</v>
       </c>
       <c r="C47" t="n">
         <v>165.8000030517578</v>
       </c>
       <c r="D47" t="n">
-        <v>936.2422504636273</v>
+        <v>936.2422360305795</v>
       </c>
       <c r="E47" t="n">
-        <v>5.646816846989807</v>
+        <v>5.646816759938856</v>
       </c>
     </row>
     <row r="48">
@@ -77313,16 +77315,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.007599870174440366</v>
+        <v>0.007599870057281276</v>
       </c>
       <c r="C48" t="n">
         <v>168.2299957275391</v>
       </c>
       <c r="D48" t="n">
-        <v>907.026090834025</v>
+        <v>907.0260768513715</v>
       </c>
       <c r="E48" t="n">
-        <v>5.391583628778193</v>
+        <v>5.391583545661901</v>
       </c>
     </row>
     <row r="49">
@@ -77332,16 +77334,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.007549804953868192</v>
+        <v>0.007549804837480904</v>
       </c>
       <c r="C49" t="n">
         <v>117.3499984741211</v>
       </c>
       <c r="D49" t="n">
-        <v>901.0509280667656</v>
+        <v>901.0509141762248</v>
       </c>
       <c r="E49" t="n">
-        <v>7.678320748043913</v>
+        <v>7.678320629675435</v>
       </c>
     </row>
     <row r="50">
@@ -77351,16 +77353,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.007049337139402729</v>
+        <v>0.007049337030730619</v>
       </c>
       <c r="C50" t="n">
         <v>92.41000366210938</v>
       </c>
       <c r="D50" t="n">
-        <v>841.321307043827</v>
+        <v>841.3212940740739</v>
       </c>
       <c r="E50" t="n">
-        <v>9.10422328431085</v>
+        <v>9.10422314396075</v>
       </c>
     </row>
     <row r="51">
@@ -77370,16 +77372,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.006985325326964781</v>
+        <v>0.006985325715525973</v>
       </c>
       <c r="C51" t="n">
         <v>68.5</v>
       </c>
       <c r="D51" t="n">
-        <v>833.6816523299794</v>
+        <v>833.6816987038162</v>
       </c>
       <c r="E51" t="n">
-        <v>12.17053507051065</v>
+        <v>12.17053574750097</v>
       </c>
     </row>
     <row r="52">
@@ -77389,16 +77391,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.006669193717621843</v>
+        <v>0.006669193614809998</v>
       </c>
       <c r="C52" t="n">
         <v>136.6600036621094</v>
       </c>
       <c r="D52" t="n">
-        <v>795.9521107417892</v>
+        <v>795.9520984714446</v>
       </c>
       <c r="E52" t="n">
-        <v>5.824323791983598</v>
+        <v>5.824323702196211</v>
       </c>
     </row>
     <row r="53">
@@ -77408,16 +77410,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.006499234859343607</v>
+        <v>0.006499234759151837</v>
       </c>
       <c r="C53" t="n">
         <v>128.0700073242188</v>
       </c>
       <c r="D53" t="n">
-        <v>775.6679328165953</v>
+        <v>775.6679208589504</v>
       </c>
       <c r="E53" t="n">
-        <v>6.056593179173749</v>
+        <v>6.056593085805714</v>
       </c>
     </row>
     <row r="54">
@@ -77427,16 +77429,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.006246794771727037</v>
+        <v>0.00624679521171962</v>
       </c>
       <c r="C54" t="n">
         <v>222.4100036621094</v>
       </c>
       <c r="D54" t="n">
-        <v>745.53982002189</v>
+        <v>745.5398725339387</v>
       </c>
       <c r="E54" t="n">
-        <v>3.352096613219484</v>
+        <v>3.352096849324191</v>
       </c>
     </row>
     <row r="55">
@@ -77446,16 +77448,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.005921719868310337</v>
+        <v>0.0059217197770215</v>
       </c>
       <c r="C55" t="n">
         <v>35.27999877929688</v>
       </c>
       <c r="D55" t="n">
-        <v>706.7429179555979</v>
+        <v>706.7429070604963</v>
       </c>
       <c r="E55" t="n">
-        <v>20.03239632679157</v>
+        <v>20.03239601797349</v>
       </c>
     </row>
     <row r="56">
@@ -77465,16 +77467,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.005878372693306265</v>
+        <v>0.005878372602685665</v>
       </c>
       <c r="C56" t="n">
         <v>23.09000015258789</v>
       </c>
       <c r="D56" t="n">
-        <v>701.5695376490669</v>
+        <v>701.5695268337179</v>
       </c>
       <c r="E56" t="n">
-        <v>30.38412875759276</v>
+        <v>30.38412828919306</v>
       </c>
     </row>
     <row r="57">
@@ -77484,16 +77486,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.005750558703230417</v>
+        <v>0.005750558614580188</v>
       </c>
       <c r="C57" t="n">
         <v>217.4799957275391</v>
       </c>
       <c r="D57" t="n">
-        <v>686.3152476268124</v>
+        <v>686.3152370466223</v>
       </c>
       <c r="E57" t="n">
-        <v>3.155762649943374</v>
+        <v>3.155762601294348</v>
       </c>
     </row>
     <row r="58">
@@ -77503,16 +77505,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.005419794552099389</v>
+        <v>0.005419794468548199</v>
       </c>
       <c r="C58" t="n">
         <v>259.1400146484375</v>
       </c>
       <c r="D58" t="n">
-        <v>646.8393476308623</v>
+        <v>646.8393376592303</v>
       </c>
       <c r="E58" t="n">
-        <v>2.496099834324689</v>
+        <v>2.496099795844981</v>
       </c>
     </row>
     <row r="59">
@@ -77522,16 +77524,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.00538642237066745</v>
+        <v>0.005386422287630723</v>
       </c>
       <c r="C59" t="n">
         <v>697.0999755859375</v>
       </c>
       <c r="D59" t="n">
-        <v>642.8564586377561</v>
+        <v>642.8564487275239</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9221868901909116</v>
+        <v>0.9221868759745402</v>
       </c>
     </row>
     <row r="60">
@@ -77541,16 +77543,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.004715454098969404</v>
+        <v>0.004715454755710958</v>
       </c>
       <c r="C60" t="n">
         <v>95.05000305175781</v>
       </c>
       <c r="D60" t="n">
-        <v>562.7780211667166</v>
+        <v>562.7780995472298</v>
       </c>
       <c r="E60" t="n">
-        <v>5.920862736430063</v>
+        <v>5.920863561054057</v>
       </c>
     </row>
     <row r="61">
@@ -77560,16 +77562,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.004514585576283201</v>
+        <v>0.004514585506686651</v>
       </c>
       <c r="C61" t="n">
         <v>125.6800003051758</v>
       </c>
       <c r="D61" t="n">
-        <v>538.8048496885486</v>
+        <v>538.8048413823691</v>
       </c>
       <c r="E61" t="n">
-        <v>4.287116871262129</v>
+        <v>4.287116805172222</v>
       </c>
     </row>
     <row r="62">
@@ -77579,16 +77581,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.004335844458861275</v>
+        <v>0.004335844392020186</v>
       </c>
       <c r="C62" t="n">
         <v>167.9299926757812</v>
       </c>
       <c r="D62" t="n">
-        <v>517.4725304139694</v>
+        <v>517.4725224366474</v>
       </c>
       <c r="E62" t="n">
-        <v>3.081477716806921</v>
+        <v>3.081477669303066</v>
       </c>
     </row>
     <row r="63">
@@ -77598,16 +77600,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.004003440610587394</v>
+        <v>0.00400344054887062</v>
       </c>
       <c r="C63" t="n">
         <v>293.9599914550781</v>
       </c>
       <c r="D63" t="n">
-        <v>477.800936537006</v>
+        <v>477.8009291712586</v>
       </c>
       <c r="E63" t="n">
-        <v>1.625394442869351</v>
+        <v>1.625394417812379</v>
       </c>
     </row>
     <row r="64">
@@ -77617,16 +77619,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.003709424794948714</v>
+        <v>0.00370942473776447</v>
       </c>
       <c r="C64" t="n">
         <v>1736.160034179688</v>
       </c>
       <c r="D64" t="n">
-        <v>442.7108613408509</v>
+        <v>442.7108545160499</v>
       </c>
       <c r="E64" t="n">
-        <v>0.2549942704734739</v>
+        <v>0.2549942665424993</v>
       </c>
     </row>
     <row r="65">
@@ -77636,16 +77638,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.003288983363185583</v>
+        <v>0.00328898216487211</v>
       </c>
       <c r="C65" t="n">
         <v>12.89999961853027</v>
       </c>
       <c r="D65" t="n">
-        <v>392.5321951895104</v>
+        <v>392.5320521737008</v>
       </c>
       <c r="E65" t="n">
-        <v>30.42885324009277</v>
+        <v>30.42884215359557</v>
       </c>
     </row>
     <row r="66">
@@ -77655,16 +77657,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.003285652875574612</v>
+        <v>0.003285652824923207</v>
       </c>
       <c r="C66" t="n">
         <v>10.46000003814697</v>
       </c>
       <c r="D66" t="n">
-        <v>392.1347095629125</v>
+        <v>392.13470351779</v>
       </c>
       <c r="E66" t="n">
-        <v>37.48897783296572</v>
+        <v>37.48897725503814</v>
       </c>
     </row>
     <row r="67">
@@ -77674,16 +77676,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.002984288808618494</v>
+        <v>0.002984288762612897</v>
       </c>
       <c r="C67" t="n">
         <v>77.30999755859375</v>
       </c>
       <c r="D67" t="n">
-        <v>356.167638376834</v>
+        <v>356.1676328861774</v>
       </c>
       <c r="E67" t="n">
-        <v>4.607006203911625</v>
+        <v>4.607006132890325</v>
       </c>
     </row>
     <row r="68">
@@ -77693,16 +77695,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.002643802859423928</v>
+        <v>0.002643802818667239</v>
       </c>
       <c r="C68" t="n">
         <v>84.26999664306641</v>
       </c>
       <c r="D68" t="n">
-        <v>315.5314653379174</v>
+        <v>315.5314604737054</v>
       </c>
       <c r="E68" t="n">
-        <v>3.744291893998536</v>
+        <v>3.744291836276783</v>
       </c>
     </row>
     <row r="69">
@@ -77712,16 +77714,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.002551670291143305</v>
+        <v>0.002551670251806926</v>
       </c>
       <c r="C69" t="n">
         <v>155.4600067138672</v>
       </c>
       <c r="D69" t="n">
-        <v>304.535666550838</v>
+        <v>304.5356618561365</v>
       </c>
       <c r="E69" t="n">
-        <v>1.958932544698476</v>
+        <v>1.958932514499703</v>
       </c>
     </row>
     <row r="70">
@@ -77731,16 +77733,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.002496972168181514</v>
+        <v>0.002496972129688359</v>
       </c>
       <c r="C70" t="n">
         <v>64.77999877929688</v>
       </c>
       <c r="D70" t="n">
-        <v>298.0075781089002</v>
+        <v>298.0075735148354</v>
       </c>
       <c r="E70" t="n">
-        <v>4.600302311276685</v>
+        <v>4.600302240358732</v>
       </c>
     </row>
     <row r="71">
@@ -77750,16 +77752,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.002487764836065124</v>
+        <v>0.002487764754638324</v>
       </c>
       <c r="C71" t="n">
         <v>26.45999908447266</v>
       </c>
       <c r="D71" t="n">
-        <v>296.9087053301748</v>
+        <v>296.9086956120835</v>
       </c>
       <c r="E71" t="n">
-        <v>11.22103989430626</v>
+        <v>11.22103952703144</v>
       </c>
     </row>
     <row r="72">
@@ -77769,16 +77771,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.002374028460893361</v>
+        <v>0.002374028210283282</v>
       </c>
       <c r="C72" t="n">
         <v>148.5800018310547</v>
       </c>
       <c r="D72" t="n">
-        <v>283.3345445366618</v>
+        <v>283.3345146269563</v>
       </c>
       <c r="E72" t="n">
-        <v>1.906949394568133</v>
+        <v>1.906949193264423</v>
       </c>
     </row>
     <row r="73">
@@ -77788,16 +77790,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.002273836860831639</v>
+        <v>0.002273836825778322</v>
       </c>
       <c r="C73" t="n">
         <v>58.2599983215332</v>
       </c>
       <c r="D73" t="n">
-        <v>271.3769198335424</v>
+        <v>271.3769156500139</v>
       </c>
       <c r="E73" t="n">
-        <v>4.658031713901372</v>
+        <v>4.658031642093467</v>
       </c>
     </row>
     <row r="74">
@@ -77807,16 +77809,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.00181718283910637</v>
+        <v>0.001817182811092801</v>
       </c>
       <c r="C74" t="n">
         <v>251.8699951171875</v>
       </c>
       <c r="D74" t="n">
-        <v>216.8763688133262</v>
+        <v>216.8763654699746</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8610647279062364</v>
+        <v>0.8610647146321202</v>
       </c>
     </row>
     <row r="75">
@@ -77826,16 +77828,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.0003602145922012124</v>
+        <v>0.0003602146120458133</v>
       </c>
       <c r="C75" t="n">
         <v>1167.4599609375</v>
       </c>
       <c r="D75" t="n">
-        <v>42.9907387792578</v>
+        <v>42.99074114766283</v>
       </c>
       <c r="E75" t="n">
-        <v>0.03682416546836168</v>
+        <v>0.03682416749703584</v>
       </c>
     </row>
   </sheetData>
@@ -77901,7 +77903,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.30882110830666</v>
+        <v>30.30881721652843</v>
       </c>
       <c r="C2" t="n">
         <v>207.5200042724609</v>
@@ -77910,13 +77912,13 @@
         <v>207.8999938964844</v>
       </c>
       <c r="E2" t="n">
-        <v>6301.203723426591</v>
+        <v>6301.202914325921</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.51703753753918</v>
+        <v>11.51703605870352</v>
       </c>
     </row>
     <row r="3">
@@ -77926,7 +77928,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.39796116590001</v>
+        <v>65.39795338627877</v>
       </c>
       <c r="C3" t="n">
         <v>80</v>
@@ -77935,13 +77937,13 @@
         <v>79.77999877929688</v>
       </c>
       <c r="E3" t="n">
-        <v>5217.449261984008</v>
+        <v>5217.448641325835</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-14.38763128799383</v>
+        <v>-14.38762957646759</v>
       </c>
     </row>
     <row r="4">
@@ -77951,7 +77953,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.25595729403094</v>
+        <v>13.25595708967799</v>
       </c>
       <c r="C4" t="n">
         <v>360.7300109863281</v>
@@ -77960,13 +77962,13 @@
         <v>362.0700073242188</v>
       </c>
       <c r="E4" t="n">
-        <v>4799.584554539314</v>
+        <v>4799.584480549241</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>17.76293422923573</v>
+        <v>17.76293395540415</v>
       </c>
     </row>
     <row r="5">
@@ -77976,7 +77978,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.29005561254871</v>
+        <v>18.29006428600076</v>
       </c>
       <c r="C5" t="n">
         <v>196.8999938964844</v>
@@ -77985,13 +77987,13 @@
         <v>197.5800018310547</v>
       </c>
       <c r="E5" t="n">
-        <v>3613.749221417467</v>
+        <v>3613.750935118138</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>12.43738294026525</v>
+        <v>12.43738883828155</v>
       </c>
     </row>
     <row r="6">
@@ -78001,7 +78003,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.256906931595</v>
+        <v>19.25690416295938</v>
       </c>
       <c r="C6" t="n">
         <v>179.1999969482422</v>
@@ -78010,13 +78012,13 @@
         <v>170.8200073242188</v>
       </c>
       <c r="E6" t="n">
-        <v>3289.464983096856</v>
+        <v>3289.464510158499</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-161.3726802775509</v>
+        <v>-161.3726570764134</v>
       </c>
     </row>
     <row r="7">
@@ -78026,7 +78028,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.35506364303081</v>
+        <v>24.35506326757478</v>
       </c>
       <c r="C7" t="n">
         <v>139.1300048828125</v>
@@ -78035,13 +78037,13 @@
         <v>138.3000030517578</v>
       </c>
       <c r="E7" t="n">
-        <v>3368.305376156917</v>
+        <v>3368.305324231347</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-20.21474741916927</v>
+        <v>-20.21474710754001</v>
       </c>
     </row>
     <row r="8">
@@ -78051,7 +78053,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.24899814918544</v>
+        <v>11.24899797577164</v>
       </c>
       <c r="C8" t="n">
         <v>292.989990234375</v>
@@ -78060,13 +78062,13 @@
         <v>289.9800109863281</v>
       </c>
       <c r="E8" t="n">
-        <v>3261.98460688598</v>
+        <v>3261.984556599443</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-33.85925099036558</v>
+        <v>-33.85925046839384</v>
       </c>
     </row>
     <row r="9">
@@ -78076,7 +78078,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.98677097804183</v>
+        <v>11.98677079325457</v>
       </c>
       <c r="C9" t="n">
         <v>267.0199890136719</v>
@@ -78085,13 +78087,13 @@
         <v>273.0499877929688</v>
       </c>
       <c r="E9" t="n">
-        <v>3272.987669231434</v>
+        <v>3272.987618775275</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>72.28021436530344</v>
+        <v>72.28021325103691</v>
       </c>
     </row>
     <row r="10">
@@ -78101,7 +78103,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.59651133608118</v>
+        <v>10.59650918588602</v>
       </c>
       <c r="C10" t="n">
         <v>292.8099975585938</v>
@@ -78110,13 +78112,13 @@
         <v>289.4500122070312</v>
       </c>
       <c r="E10" t="n">
-        <v>3067.160335580644</v>
+        <v>3067.159713206626</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-35.60412286689871</v>
+        <v>-35.60411564227434</v>
       </c>
     </row>
     <row r="11">
@@ -78126,7 +78128,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35.667328023249</v>
+        <v>35.66732747340386</v>
       </c>
       <c r="C11" t="n">
         <v>86.51999664306641</v>
@@ -78135,13 +78137,13 @@
         <v>87.37999725341797</v>
       </c>
       <c r="E11" t="n">
-        <v>3116.611024708255</v>
+        <v>3116.610976662788</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>30.67392386960364</v>
+        <v>30.67392339673643</v>
       </c>
     </row>
     <row r="12">
@@ -78151,7 +78153,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.431007470821517</v>
+        <v>5.431007387097469</v>
       </c>
       <c r="C12" t="n">
         <v>564.6400146484375</v>
@@ -78160,13 +78162,13 @@
         <v>552.22998046875</v>
       </c>
       <c r="E12" t="n">
-        <v>2999.165149537402</v>
+        <v>2999.165103302472</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-67.39898834303312</v>
+        <v>-67.39898730401501</v>
       </c>
     </row>
     <row r="13">
@@ -78176,7 +78178,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.829397693696454</v>
+        <v>2.829397650078648</v>
       </c>
       <c r="C13" t="n">
         <v>1049.599975585938</v>
@@ -78185,13 +78187,13 @@
         <v>1043.2900390625</v>
       </c>
       <c r="E13" t="n">
-        <v>2951.882430379921</v>
+        <v>2951.882384873898</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-17.85331984678533</v>
+        <v>-17.8533195715595</v>
       </c>
     </row>
     <row r="14">
@@ -78201,7 +78203,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.90231233031287</v>
+        <v>33.90231180767709</v>
       </c>
       <c r="C14" t="n">
         <v>86.01999664306641</v>
@@ -78210,13 +78212,13 @@
         <v>84.08999633789062</v>
       </c>
       <c r="E14" t="n">
-        <v>2850.845319702034</v>
+        <v>2850.845275753593</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-65.43147314366843</v>
+        <v>-65.4314721349815</v>
       </c>
     </row>
     <row r="15">
@@ -78226,7 +78228,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.822319709135989</v>
+        <v>5.822319619379498</v>
       </c>
       <c r="C15" t="n">
         <v>481.0599975585938</v>
@@ -78235,13 +78237,13 @@
         <v>476.2799987792969</v>
       </c>
       <c r="E15" t="n">
-        <v>2773.054423959965</v>
+        <v>2773.054381210743</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-27.83068110234581</v>
+        <v>-27.83068067331033</v>
       </c>
     </row>
     <row r="16">
@@ -78251,7 +78253,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.32357330601488</v>
+        <v>43.32360714359123</v>
       </c>
       <c r="C16" t="n">
         <v>64.05000305175781</v>
@@ -78260,13 +78262,13 @@
         <v>63.47999954223633</v>
       </c>
       <c r="E16" t="n">
-        <v>2750.180413633866</v>
+        <v>2750.182561643198</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-24.69458882943991</v>
+        <v>-24.69460811697718</v>
       </c>
     </row>
     <row r="17">
@@ -78276,7 +78278,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>71.49367258718371</v>
+        <v>71.49367148504204</v>
       </c>
       <c r="C17" t="n">
         <v>37.88000106811523</v>
@@ -78285,13 +78287,13 @@
         <v>37.11999893188477</v>
       </c>
       <c r="E17" t="n">
-        <v>2653.845050072779</v>
+        <v>2653.845009161281</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-54.33534389322131</v>
+        <v>-54.33534305559124</v>
       </c>
     </row>
     <row r="18">
@@ -78301,7 +78303,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26.58400694436473</v>
+        <v>26.58400653454746</v>
       </c>
       <c r="C18" t="n">
         <v>101.3199996948242</v>
@@ -78310,13 +78312,13 @@
         <v>101.7600021362305</v>
       </c>
       <c r="E18" t="n">
-        <v>2705.188603448121</v>
+        <v>2705.188561745114</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>11.69702795788135</v>
+        <v>11.69702777756083</v>
       </c>
     </row>
     <row r="19">
@@ -78326,7 +78328,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.15403374667187</v>
+        <v>10.15403359013796</v>
       </c>
       <c r="C19" t="n">
         <v>254.2899932861328</v>
@@ -78335,13 +78337,13 @@
         <v>255.3200073242188</v>
       </c>
       <c r="E19" t="n">
-        <v>2592.527970570625</v>
+        <v>2592.527930604388</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>10.45879730227034</v>
+        <v>10.4587971410383</v>
       </c>
     </row>
     <row r="20">
@@ -78351,7 +78353,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.78708441543412</v>
+        <v>13.78708420289335</v>
       </c>
       <c r="C20" t="n">
         <v>180.9299926757812</v>
@@ -78360,13 +78362,13 @@
         <v>178.6199951171875</v>
       </c>
       <c r="E20" t="n">
-        <v>2462.648950965095</v>
+        <v>2462.648913001063</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-31.84813133977877</v>
+        <v>-31.84813084880989</v>
       </c>
     </row>
     <row r="21">
@@ -78376,7 +78378,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.897503876118432</v>
+        <v>7.897501901424885</v>
       </c>
       <c r="C21" t="n">
         <v>262.5700073242188</v>
@@ -78385,13 +78387,13 @@
         <v>263.1000061035156</v>
       </c>
       <c r="E21" t="n">
-        <v>2077.833318009298</v>
+        <v>2077.832798467413</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>4.18566741383529</v>
+        <v>4.185666367249723</v>
       </c>
     </row>
     <row r="22">
@@ -78401,7 +78403,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.044515810129713</v>
+        <v>6.044515716947861</v>
       </c>
       <c r="C22" t="n">
         <v>342.3999938964844</v>
@@ -78410,13 +78412,13 @@
         <v>336.0700073242188</v>
       </c>
       <c r="E22" t="n">
-        <v>2031.380472581649</v>
+        <v>2031.380441266023</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-38.2617039139684</v>
+        <v>-38.26170332412858</v>
       </c>
     </row>
     <row r="23">
@@ -78426,7 +78428,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.336278915755892</v>
+        <v>2.336278879739973</v>
       </c>
       <c r="C23" t="n">
         <v>852.469970703125</v>
@@ -78435,13 +78437,13 @@
         <v>849.4600219726562</v>
       </c>
       <c r="E23" t="n">
-        <v>1984.575539112254</v>
+        <v>1984.57550851817</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.032079756500252</v>
+        <v>-7.032079648094168</v>
       </c>
     </row>
     <row r="24">
@@ -78451,7 +78453,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.101837721210664</v>
+        <v>5.101837642561075</v>
       </c>
       <c r="C24" t="n">
         <v>376.25</v>
@@ -78460,13 +78462,13 @@
         <v>378.6199951171875</v>
       </c>
       <c r="E24" t="n">
-        <v>1931.657773093465</v>
+        <v>1931.657743315158</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>12.09133048795229</v>
+        <v>12.09133030155317</v>
       </c>
     </row>
     <row r="25">
@@ -78476,7 +78478,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.90010939553161</v>
+        <v>15.90010915041659</v>
       </c>
       <c r="C25" t="n">
         <v>117.2699966430664</v>
@@ -78485,13 +78487,13 @@
         <v>114.5</v>
       </c>
       <c r="E25" t="n">
-        <v>1820.56252578837</v>
+        <v>1820.5624977227</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-44.04324965001138</v>
+        <v>-44.04324897104334</v>
       </c>
     </row>
     <row r="26">
@@ -78501,7 +78503,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.601225325559994</v>
+        <v>2.601224723664182</v>
       </c>
       <c r="C26" t="n">
         <v>701.8699951171875</v>
@@ -78510,13 +78512,13 @@
         <v>737</v>
       </c>
       <c r="E26" t="n">
-        <v>1917.103064937716</v>
+        <v>1917.102621340502</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>91.38105838821821</v>
+        <v>91.38103724361531</v>
       </c>
     </row>
     <row r="27">
@@ -78526,7 +78528,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.260179122643224</v>
+        <v>3.260179072384521</v>
       </c>
       <c r="C27" t="n">
         <v>553.1099853515625</v>
@@ -78535,13 +78537,13 @@
         <v>546.1300048828125</v>
       </c>
       <c r="E27" t="n">
-        <v>1780.481640167987</v>
+        <v>1780.481612720201</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-22.75598660067612</v>
+        <v>-22.75598624987128</v>
       </c>
     </row>
     <row r="28">
@@ -78551,7 +78553,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.678213919825064</v>
+        <v>9.678213770626366</v>
       </c>
       <c r="C28" t="n">
         <v>176.3099975585938</v>
@@ -78560,13 +78562,13 @@
         <v>159.5700073242188</v>
       </c>
       <c r="E28" t="n">
-        <v>1544.352666071841</v>
+        <v>1544.352642264204</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-162.0132065040639</v>
+        <v>-162.0132040064791</v>
       </c>
     </row>
     <row r="29">
@@ -78576,7 +78578,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21.29859835744178</v>
+        <v>21.29860101299964</v>
       </c>
       <c r="C29" t="n">
         <v>78.38999938964844</v>
@@ -78585,13 +78587,13 @@
         <v>75.44000244140625</v>
       </c>
       <c r="E29" t="n">
-        <v>1606.766312083939</v>
+        <v>1606.766512419231</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-62.83080015628934</v>
+        <v>-62.83080799017671</v>
       </c>
     </row>
     <row r="30">
@@ -78601,7 +78603,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13.56072222075523</v>
+        <v>13.56072201170404</v>
       </c>
       <c r="C30" t="n">
         <v>121.7099990844727</v>
@@ -78610,13 +78612,13 @@
         <v>120.9000015258789</v>
       </c>
       <c r="E30" t="n">
-        <v>1639.491337181327</v>
+        <v>1639.491311907038</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-10.98415189157981</v>
+        <v>-10.98415172224873</v>
       </c>
     </row>
     <row r="31">
@@ -78626,7 +78628,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.384105249193547</v>
+        <v>3.384105197024407</v>
       </c>
       <c r="C31" t="n">
         <v>473.260009765625</v>
@@ -78635,13 +78637,13 @@
         <v>465.1900024414062</v>
       </c>
       <c r="E31" t="n">
-        <v>1574.251929134322</v>
+        <v>1574.25190486576</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-27.30975414691898</v>
+        <v>-27.30975372591388</v>
       </c>
     </row>
     <row r="32">
@@ -78651,7 +78653,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.774681168054118</v>
+        <v>7.774681048200153</v>
       </c>
       <c r="C32" t="n">
         <v>202.5099945068359</v>
@@ -78660,13 +78662,13 @@
         <v>203.0700073242188</v>
       </c>
       <c r="E32" t="n">
-        <v>1578.804561740215</v>
+        <v>1578.80453740147</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.353921105175004</v>
+        <v>4.353921038055205</v>
       </c>
     </row>
     <row r="33">
@@ -78676,7 +78678,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.10670511803702</v>
+        <v>4.106705054728328</v>
       </c>
       <c r="C33" t="n">
         <v>372.4800109863281</v>
@@ -78685,13 +78687,13 @@
         <v>368.7000122070312</v>
       </c>
       <c r="E33" t="n">
-        <v>1514.142227150927</v>
+        <v>1514.142203809012</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-15.52334033311217</v>
+        <v>-15.52334009380547</v>
       </c>
     </row>
     <row r="34">
@@ -78701,7 +78703,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.630310732970647</v>
+        <v>6.630310298595161</v>
       </c>
       <c r="C34" t="n">
         <v>227.9400024414062</v>
@@ -78710,13 +78712,13 @@
         <v>225.3800048828125</v>
       </c>
       <c r="E34" t="n">
-        <v>1494.339465371488</v>
+        <v>1494.339367471939</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-16.97357928912288</v>
+        <v>-16.97357817712259</v>
       </c>
     </row>
     <row r="35">
@@ -78726,7 +78728,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.385162453415852</v>
+        <v>9.385162308734817</v>
       </c>
       <c r="C35" t="n">
         <v>153.9700012207031</v>
@@ -78735,13 +78737,13 @@
         <v>140.2299957275391</v>
       </c>
       <c r="E35" t="n">
-        <v>1316.081290744765</v>
+        <v>1316.081270456144</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-128.9521836641709</v>
+        <v>-128.9521816762526</v>
       </c>
     </row>
     <row r="36">
@@ -78751,7 +78753,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>55.9259302904177</v>
+        <v>55.9259294282673</v>
       </c>
       <c r="C36" t="n">
         <v>25.76000022888184</v>
@@ -78760,13 +78762,13 @@
         <v>25.39999961853027</v>
       </c>
       <c r="E36" t="n">
-        <v>1420.51860804256</v>
+        <v>1420.51858614394</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-20.13336903902928</v>
+        <v>-20.13336872865466</v>
       </c>
     </row>
     <row r="37">
@@ -78776,7 +78778,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.172061330484089</v>
+        <v>6.172061235336004</v>
       </c>
       <c r="C37" t="n">
         <v>225.9199981689453</v>
@@ -78785,13 +78787,13 @@
         <v>201.3699951171875</v>
       </c>
       <c r="E37" t="n">
-        <v>1242.867959982563</v>
+        <v>1242.867940822593</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-151.5241244990209</v>
+        <v>-151.524122163135</v>
       </c>
     </row>
     <row r="38">
@@ -78801,7 +78803,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21.79445737649201</v>
+        <v>21.79445704051012</v>
       </c>
       <c r="C38" t="n">
         <v>58.88999938964844</v>
@@ -78810,13 +78812,13 @@
         <v>56.34999847412109</v>
       </c>
       <c r="E38" t="n">
-        <v>1228.117639909622</v>
+        <v>1228.117620977043</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-55.35794168971142</v>
+        <v>-55.35794083631708</v>
       </c>
     </row>
     <row r="39">
@@ -78826,7 +78828,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5.327995887740332</v>
+        <v>5.327996883910705</v>
       </c>
       <c r="C39" t="n">
         <v>234.6700134277344</v>
@@ -78835,13 +78837,13 @@
         <v>220.2299957275391</v>
       </c>
       <c r="E39" t="n">
-        <v>1173.384511593399</v>
+        <v>1173.384730979996</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-76.93635492553813</v>
+        <v>-76.93636931025617</v>
       </c>
     </row>
     <row r="40">
@@ -78851,7 +78853,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.385470886164351</v>
+        <v>4.385469865826256</v>
       </c>
       <c r="C40" t="n">
         <v>283.530029296875</v>
@@ -78860,13 +78862,13 @@
         <v>282.3800048828125</v>
       </c>
       <c r="E40" t="n">
-        <v>1238.369290248522</v>
+        <v>1238.369002125445</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.043398586249396</v>
+        <v>-5.043397412835475</v>
       </c>
     </row>
     <row r="41">
@@ -78876,7 +78878,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.992913674705672</v>
+        <v>1.992913824179168</v>
       </c>
       <c r="C41" t="n">
         <v>573.7899780273438</v>
@@ -78885,13 +78887,13 @@
         <v>572.739990234375</v>
       </c>
       <c r="E41" t="n">
-        <v>1141.421358588879</v>
+        <v>1141.421444198327</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.092535030881436</v>
+        <v>-2.092535187826797</v>
       </c>
     </row>
     <row r="42">
@@ -78901,7 +78903,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.655166524207837</v>
+        <v>4.655167024870575</v>
       </c>
       <c r="C42" t="n">
         <v>239.9600067138672</v>
@@ -78910,13 +78912,13 @@
         <v>234.7700042724609</v>
       </c>
       <c r="E42" t="n">
-        <v>1092.893464777291</v>
+        <v>1092.893582317884</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-24.1603256257913</v>
+        <v>-24.16032822423222</v>
       </c>
     </row>
     <row r="43">
@@ -78926,7 +78928,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.21602704716114</v>
+        <v>15.21602681259189</v>
       </c>
       <c r="C43" t="n">
         <v>70.59999847412109</v>
@@ -78935,13 +78937,13 @@
         <v>71.18000030517578</v>
       </c>
       <c r="E43" t="n">
-        <v>1083.076809860493</v>
+        <v>1083.076793163854</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>8.825323548731149</v>
+        <v>8.825323412680518</v>
       </c>
     </row>
     <row r="44">
@@ -78951,7 +78953,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.172608672234682</v>
+        <v>4.172608607910025</v>
       </c>
       <c r="C44" t="n">
         <v>232.9100036621094</v>
@@ -78960,13 +78962,13 @@
         <v>229.4499969482422</v>
       </c>
       <c r="E44" t="n">
-        <v>957.4050471104566</v>
+        <v>957.4050323511643</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-14.43725402027235</v>
+        <v>-14.43725379770865</v>
       </c>
     </row>
     <row r="45">
@@ -78976,7 +78978,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6.366046499602114</v>
+        <v>6.366046401463568</v>
       </c>
       <c r="C45" t="n">
         <v>151.3600006103516</v>
@@ -78985,13 +78987,13 @@
         <v>148.5700073242188</v>
       </c>
       <c r="E45" t="n">
-        <v>945.8035750722032</v>
+        <v>945.8035604917587</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-17.76122699309917</v>
+        <v>-17.76122671929329</v>
       </c>
     </row>
     <row r="46">
@@ -79001,7 +79003,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.172204813730457</v>
+        <v>1.172205522922242</v>
       </c>
       <c r="C46" t="n">
         <v>820.6699829101562</v>
@@ -79010,13 +79012,13 @@
         <v>819.4000244140625</v>
       </c>
       <c r="E46" t="n">
-        <v>960.5046529890179</v>
+        <v>960.5052341007843</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.488651462358916</v>
+        <v>-1.488652363003098</v>
       </c>
     </row>
     <row r="47">
@@ -79026,7 +79028,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5.646816846989807</v>
+        <v>5.646816759938856</v>
       </c>
       <c r="C47" t="n">
         <v>165.8000030517578</v>
@@ -79035,13 +79037,13 @@
         <v>167.7700042724609</v>
       </c>
       <c r="E47" t="n">
-        <v>947.3664865452843</v>
+        <v>947.3664719407459</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>11.12423608165693</v>
+        <v>11.12423591016636</v>
       </c>
     </row>
     <row r="48">
@@ -79051,7 +79053,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5.391583628778193</v>
+        <v>5.391583545661901</v>
       </c>
       <c r="C48" t="n">
         <v>168.2299957275391</v>
@@ -79060,13 +79062,13 @@
         <v>155.8999938964844</v>
       </c>
       <c r="E48" t="n">
-        <v>840.5478548189053</v>
+        <v>840.547841861076</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>-66.47823601511959</v>
+        <v>-66.4782349902955</v>
       </c>
     </row>
     <row r="49">
@@ -79076,7 +79078,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>7.678320748043913</v>
+        <v>7.678320629675435</v>
       </c>
       <c r="C49" t="n">
         <v>117.3499984741211</v>
@@ -79085,13 +79087,13 @@
         <v>117.0199966430664</v>
       </c>
       <c r="E49" t="n">
-        <v>898.5170681604859</v>
+        <v>898.5170543090069</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.533859906279645</v>
+        <v>-2.53385986721787</v>
       </c>
     </row>
     <row r="50">
@@ -79101,7 +79103,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>9.10422328431085</v>
+        <v>9.10422314396075</v>
       </c>
       <c r="C50" t="n">
         <v>92.41000366210938</v>
@@ -79110,13 +79112,13 @@
         <v>90.87000274658203</v>
       </c>
       <c r="E50" t="n">
-        <v>827.300794850823</v>
+        <v>827.3007820972091</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>-14.02051219300415</v>
+        <v>-14.02051197686478</v>
       </c>
     </row>
     <row r="51">
@@ -79126,7 +79128,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>12.17053507051065</v>
+        <v>12.17053574750097</v>
       </c>
       <c r="C51" t="n">
         <v>68.5</v>
@@ -79135,13 +79137,13 @@
         <v>68.04000091552734</v>
       </c>
       <c r="E51" t="n">
-        <v>828.0832173400022</v>
+        <v>828.0832634024241</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.59843498997725</v>
+        <v>-5.598435301392101</v>
       </c>
     </row>
     <row r="52">
@@ -79151,7 +79153,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5.824323791983598</v>
+        <v>5.824323702196211</v>
       </c>
       <c r="C52" t="n">
         <v>136.6600036621094</v>
@@ -79160,13 +79162,13 @@
         <v>130.3600006103516</v>
       </c>
       <c r="E52" t="n">
-        <v>759.2588530778669</v>
+        <v>759.2588413731831</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-36.69325766392228</v>
+        <v>-36.69325709826148</v>
       </c>
     </row>
     <row r="53">
@@ -79176,7 +79178,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>6.056593179173749</v>
+        <v>6.056593085805714</v>
       </c>
       <c r="C53" t="n">
         <v>128.0700073242188</v>
@@ -79185,13 +79187,13 @@
         <v>124.9899978637695</v>
       </c>
       <c r="E53" t="n">
-        <v>757.013568526648</v>
+        <v>757.0135568565775</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>-18.65436428994735</v>
+        <v>-18.65436400237297</v>
       </c>
     </row>
     <row r="54">
@@ -79201,7 +79203,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3.352096613219484</v>
+        <v>3.352096849324191</v>
       </c>
       <c r="C54" t="n">
         <v>222.4100036621094</v>
@@ -79210,13 +79212,13 @@
         <v>222.1799926757812</v>
       </c>
       <c r="E54" t="n">
-        <v>744.7688009736162</v>
+        <v>744.7688534313583</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.7710190482738426</v>
+        <v>-0.7710191025804534</v>
       </c>
     </row>
     <row r="55">
@@ -79226,7 +79228,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>20.03239632679157</v>
+        <v>20.03239601797349</v>
       </c>
       <c r="C55" t="n">
         <v>35.27999877929688</v>
@@ -79235,13 +79237,13 @@
         <v>35.15999984741211</v>
       </c>
       <c r="E55" t="n">
-        <v>704.3390517932907</v>
+        <v>704.3390409352469</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.403866162307281</v>
+        <v>-2.403866125249465</v>
       </c>
     </row>
     <row r="56">
@@ -79251,7 +79253,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>30.38412875759276</v>
+        <v>30.38412828919306</v>
       </c>
       <c r="C56" t="n">
         <v>23.09000015258789</v>
@@ -79260,13 +79262,13 @@
         <v>22.8799991607666</v>
       </c>
       <c r="E56" t="n">
-        <v>695.1888404743466</v>
+        <v>695.1888297573621</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.38069717472024</v>
+        <v>-6.380697076355773</v>
       </c>
     </row>
     <row r="57">
@@ -79276,7 +79278,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3.155762649943374</v>
+        <v>3.155762601294348</v>
       </c>
       <c r="C57" t="n">
         <v>217.4799957275391</v>
@@ -79285,13 +79287,13 @@
         <v>217.1100006103516</v>
       </c>
       <c r="E57" t="n">
-        <v>685.1476308553307</v>
+        <v>685.1476202931404</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.167616771481676</v>
+        <v>-1.167616753481866</v>
       </c>
     </row>
     <row r="58">
@@ -79301,7 +79303,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.496099834324689</v>
+        <v>2.496099795844981</v>
       </c>
       <c r="C58" t="n">
         <v>259.1400146484375</v>
@@ -79310,13 +79312,13 @@
         <v>240.5</v>
       </c>
       <c r="E58" t="n">
-        <v>600.3120101550877</v>
+        <v>600.312000900718</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>-46.52733747577463</v>
+        <v>-46.52733675851232</v>
       </c>
     </row>
     <row r="59">
@@ -79326,7 +79328,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9221868901909116</v>
+        <v>0.9221868759745402</v>
       </c>
       <c r="C59" t="n">
         <v>697.0999755859375</v>
@@ -79335,13 +79337,13 @@
         <v>689.3499755859375</v>
       </c>
       <c r="E59" t="n">
-        <v>635.7095102387765</v>
+        <v>635.7095004387213</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.146948398979589</v>
+        <v>-7.146948288802605</v>
       </c>
     </row>
     <row r="60">
@@ -79351,7 +79353,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5.920862736430063</v>
+        <v>5.920863561054057</v>
       </c>
       <c r="C60" t="n">
         <v>95.05000305175781</v>
@@ -79360,13 +79362,13 @@
         <v>94.97000122070312</v>
       </c>
       <c r="E60" t="n">
-        <v>562.3043413063788</v>
+        <v>562.3044196209205</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4736798603378247</v>
+        <v>-0.4736799263092735</v>
       </c>
     </row>
     <row r="61">
@@ -79376,7 +79378,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4.287116871262129</v>
+        <v>4.287116805172222</v>
       </c>
       <c r="C61" t="n">
         <v>125.6800003051758</v>
@@ -79385,13 +79387,13 @@
         <v>116.4199981689453</v>
       </c>
       <c r="E61" t="n">
-        <v>499.1061383023916</v>
+        <v>499.1061306082048</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>-39.69871138615702</v>
+        <v>-39.69871077416428</v>
       </c>
     </row>
     <row r="62">
@@ -79401,7 +79403,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3.081477716806921</v>
+        <v>3.081477669303066</v>
       </c>
       <c r="C62" t="n">
         <v>167.9299926757812</v>
@@ -79410,13 +79412,13 @@
         <v>168.1799926757812</v>
       </c>
       <c r="E62" t="n">
-        <v>518.2428998431711</v>
+        <v>518.2428918539732</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.7703694292017644</v>
+        <v>0.77036941732581</v>
       </c>
     </row>
     <row r="63">
@@ -79426,7 +79428,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.625394442869351</v>
+        <v>1.625394417812379</v>
       </c>
       <c r="C63" t="n">
         <v>293.9599914550781</v>
@@ -79435,13 +79437,13 @@
         <v>296.3200073242188</v>
       </c>
       <c r="E63" t="n">
-        <v>481.6368932157907</v>
+        <v>481.6368857909085</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>3.835956678784669</v>
+        <v>3.835956619649835</v>
       </c>
     </row>
     <row r="64">
@@ -79451,7 +79453,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.2549942704734739</v>
+        <v>0.2549942665424993</v>
       </c>
       <c r="C64" t="n">
         <v>1736.160034179688</v>
@@ -79460,13 +79462,13 @@
         <v>1720.550048828125</v>
       </c>
       <c r="E64" t="n">
-        <v>438.7304045140276</v>
+        <v>438.7303977505891</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.980456826823286</v>
+        <v>-3.980456765460815</v>
       </c>
     </row>
     <row r="65">
@@ -79476,7 +79478,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>30.42885324009277</v>
+        <v>30.42884215359557</v>
       </c>
       <c r="C65" t="n">
         <v>12.89999961853027</v>
@@ -79485,13 +79487,13 @@
         <v>12.40999984741211</v>
       </c>
       <c r="E65" t="n">
-        <v>377.6220640664767</v>
+        <v>377.6219264830482</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>-14.91013112303369</v>
+        <v>-14.91012569065259</v>
       </c>
     </row>
     <row r="66">
@@ -79501,7 +79503,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>37.48897783296572</v>
+        <v>37.48897725503814</v>
       </c>
       <c r="C66" t="n">
         <v>10.46000003814697</v>
@@ -79510,13 +79512,13 @@
         <v>10.1899995803833</v>
       </c>
       <c r="E66" t="n">
-        <v>382.0126683869196</v>
+        <v>382.0126624978378</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.12204117599288</v>
+        <v>-10.12204101995223</v>
       </c>
     </row>
     <row r="67">
@@ -79526,7 +79528,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4.607006203911625</v>
+        <v>4.607006132890325</v>
       </c>
       <c r="C67" t="n">
         <v>77.30999755859375</v>
@@ -79535,13 +79537,13 @@
         <v>79.51000213623047</v>
       </c>
       <c r="E67" t="n">
-        <v>366.3030731146403</v>
+        <v>366.3030674677366</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>10.13543473780635</v>
+        <v>10.13543458155914</v>
       </c>
     </row>
     <row r="68">
@@ -79551,7 +79553,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3.744291893998536</v>
+        <v>3.744291836276783</v>
       </c>
       <c r="C68" t="n">
         <v>84.26999664306641</v>
@@ -79560,13 +79562,13 @@
         <v>84.30000305175781</v>
       </c>
       <c r="E68" t="n">
-        <v>315.6438180907487</v>
+        <v>315.6438132248046</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1123527528312707</v>
+        <v>0.1123527510991948</v>
       </c>
     </row>
     <row r="69">
@@ -79576,7 +79578,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1.958932544698476</v>
+        <v>1.958932514499703</v>
       </c>
       <c r="C69" t="n">
         <v>155.4600067138672</v>
@@ -79585,13 +79587,13 @@
         <v>153.1100006103516</v>
       </c>
       <c r="E69" t="n">
-        <v>299.9321631144211</v>
+        <v>299.932158490687</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.603503436416815</v>
+        <v>-4.603503365449512</v>
       </c>
     </row>
     <row r="70">
@@ -79601,7 +79603,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>4.600302311276685</v>
+        <v>4.600302240358732</v>
       </c>
       <c r="C70" t="n">
         <v>64.77999877929688</v>
@@ -79610,13 +79612,13 @@
         <v>65.13999938964844</v>
       </c>
       <c r="E70" t="n">
-        <v>299.6636897487616</v>
+        <v>299.6636851291661</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1.656111639861365</v>
+        <v>1.656111614330769</v>
       </c>
     </row>
     <row r="71">
@@ -79626,7 +79628,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>11.22103989430626</v>
+        <v>11.22103952703144</v>
       </c>
       <c r="C71" t="n">
         <v>26.45999908447266</v>
@@ -79635,13 +79637,13 @@
         <v>25.6200008392334</v>
       </c>
       <c r="E71" t="n">
-        <v>287.4830515091978</v>
+        <v>287.4830420996167</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.425653820977004</v>
+        <v>-9.425653512466738</v>
       </c>
     </row>
     <row r="72">
@@ -79651,7 +79653,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.906949394568133</v>
+        <v>1.906949193264423</v>
       </c>
       <c r="C72" t="n">
         <v>148.5800018310547</v>
@@ -79660,13 +79662,13 @@
         <v>147.1999969482422</v>
       </c>
       <c r="E72" t="n">
-        <v>280.7029450608815</v>
+        <v>280.702915428976</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>-2.631599475780376</v>
+        <v>-2.631599197980279</v>
       </c>
     </row>
     <row r="73">
@@ -79676,7 +79678,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4.658031713901372</v>
+        <v>4.658031642093467</v>
       </c>
       <c r="C73" t="n">
         <v>58.2599983215332</v>
@@ -79685,13 +79687,13 @@
         <v>58.65000152587891</v>
       </c>
       <c r="E73" t="n">
-        <v>273.1935671279078</v>
+        <v>273.193562916374</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1.816647294365396</v>
+        <v>1.816647266360121</v>
       </c>
     </row>
     <row r="74">
@@ -79701,7 +79703,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.8610647279062364</v>
+        <v>0.8610647146321202</v>
       </c>
       <c r="C74" t="n">
         <v>251.8699951171875</v>
@@ -79710,13 +79712,13 @@
         <v>245.8399963378906</v>
       </c>
       <c r="E74" t="n">
-        <v>211.684149555156</v>
+        <v>211.6841462918473</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.192219258170212</v>
+        <v>-5.192219178127289</v>
       </c>
     </row>
     <row r="75">
@@ -79726,7 +79728,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.03682416546836168</v>
+        <v>0.03682416749703584</v>
       </c>
       <c r="C75" t="n">
         <v>1167.4599609375</v>
@@ -79735,13 +79737,2887 @@
         <v>1102.449951171875</v>
       </c>
       <c r="E75" t="n">
-        <v>40.59679942254038</v>
+        <v>40.59680165905211</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.39393935670919</v>
+        <v>-2.393939488593311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Allocation_Percent</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Target_Value</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Actual_Shares</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0853244099966167</v>
+      </c>
+      <c r="C2" t="n">
+        <v>75.44000244140625</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10059.95595951268</v>
+      </c>
+      <c r="E2" t="n">
+        <v>133.3504193259562</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CAH</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.06519079175067374</v>
+      </c>
+      <c r="C3" t="n">
+        <v>207.8999938964844</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7686.153282554722</v>
+      </c>
+      <c r="E3" t="n">
+        <v>36.97043534489828</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0519486754247063</v>
+      </c>
+      <c r="C4" t="n">
+        <v>362.0700073242188</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6124.875483443559</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16.91627408938898</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FDS</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.04220046144225591</v>
+      </c>
+      <c r="C5" t="n">
+        <v>273.0499877929688</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4975.537288766968</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18.22207475262554</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>VTR</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.03809293759060458</v>
+      </c>
+      <c r="C6" t="n">
+        <v>79.77999877929688</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4491.250212514125</v>
+      </c>
+      <c r="E6" t="n">
+        <v>56.29544097811664</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.03351548523606</v>
+      </c>
+      <c r="C7" t="n">
+        <v>333.6900024414062</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3951.557420084479</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11.84200123220157</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.03252020297785327</v>
+      </c>
+      <c r="C8" t="n">
+        <v>138.3000030517578</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3834.21121534376</v>
+      </c>
+      <c r="E8" t="n">
+        <v>27.72386934734075</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02984973348410034</v>
+      </c>
+      <c r="C9" t="n">
+        <v>849.4600219726562</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3519.356351425664</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.14305118592026</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.02905407781065978</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1043.2900390625</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3425.54660771849</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.283407757632465</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02802531728801333</v>
+      </c>
+      <c r="C11" t="n">
+        <v>289.9800109863281</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3304.25323398032</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11.39476208288063</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02780987134051144</v>
+      </c>
+      <c r="C12" t="n">
+        <v>116.4199981689453</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3278.851631512627</v>
+      </c>
+      <c r="E12" t="n">
+        <v>28.16398971896952</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AKAM</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.02684313540947074</v>
+      </c>
+      <c r="C13" t="n">
+        <v>87.37999725341797</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3164.871108340729</v>
+      </c>
+      <c r="E13" t="n">
+        <v>36.21962929527251</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.02669781964930385</v>
+      </c>
+      <c r="C14" t="n">
+        <v>289.4500122070312</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3147.738025937229</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10.87489339501491</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.02438684119056709</v>
+      </c>
+      <c r="C15" t="n">
+        <v>178.6199951171875</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2875.268031486683</v>
+      </c>
+      <c r="E15" t="n">
+        <v>16.09712299902539</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.02359123128801359</v>
+      </c>
+      <c r="C16" t="n">
+        <v>197.5800018310547</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2781.463684278682</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14.07765795374896</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.02257165946953749</v>
+      </c>
+      <c r="C17" t="n">
+        <v>63.47999954223633</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2661.253681164257</v>
+      </c>
+      <c r="E17" t="n">
+        <v>41.92271109569867</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.02226349190710908</v>
+      </c>
+      <c r="C18" t="n">
+        <v>167.7700042724609</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2624.91997424143</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15.64594329972431</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.02221683027305156</v>
+      </c>
+      <c r="C19" t="n">
+        <v>378.6199951171875</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2619.418453824985</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.918331011583904</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.02047591618126317</v>
+      </c>
+      <c r="C20" t="n">
+        <v>124.9899978637695</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2414.160438054577</v>
+      </c>
+      <c r="E20" t="n">
+        <v>19.3148290208457</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.01893668994606653</v>
+      </c>
+      <c r="C21" t="n">
+        <v>263.1000061035156</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2232.681912291333</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8.486058002647454</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.018761127714304</v>
+      </c>
+      <c r="C22" t="n">
+        <v>84.08999633789062</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2211.982697145809</v>
+      </c>
+      <c r="E22" t="n">
+        <v>26.30494462453792</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01685332460595631</v>
+      </c>
+      <c r="C23" t="n">
+        <v>107.1100006103516</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1987.048059447638</v>
+      </c>
+      <c r="E23" t="n">
+        <v>18.55147090024012</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01660642814971339</v>
+      </c>
+      <c r="C24" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1957.938365323038</v>
+      </c>
+      <c r="E24" t="n">
+        <v>17.09989838710077</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01654265473964001</v>
+      </c>
+      <c r="C25" t="n">
+        <v>552.22998046875</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1950.419324795813</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.531896843304733</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01601658570432393</v>
+      </c>
+      <c r="C26" t="n">
+        <v>203.0700073242188</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1888.394502975738</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9.29922900904196</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.01595946113346584</v>
+      </c>
+      <c r="C27" t="n">
+        <v>463.1900024414062</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1881.659376801866</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.062392035415092</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01545754238938495</v>
+      </c>
+      <c r="C28" t="n">
+        <v>476.2799987792969</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1822.481933196831</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.826492688896957</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0146186736388519</v>
+      </c>
+      <c r="C29" t="n">
+        <v>572.739990234375</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1723.57726234697</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.009353793580317</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.01367979830576956</v>
+      </c>
+      <c r="C30" t="n">
+        <v>168.1799926757812</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1612.8815715985</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9.590210737538957</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01282752640307152</v>
+      </c>
+      <c r="C31" t="n">
+        <v>255.3200073242188</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1512.396636431503</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5.923533577652544</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01170506639603875</v>
+      </c>
+      <c r="C32" t="n">
+        <v>737</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1380.055865044842</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.872531702910234</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.01167889428163095</v>
+      </c>
+      <c r="C33" t="n">
+        <v>72.22000122070312</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1376.970108948547</v>
+      </c>
+      <c r="E33" t="n">
+        <v>19.06632630399091</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.01137241656386636</v>
+      </c>
+      <c r="C34" t="n">
+        <v>94.97000122070312</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1340.835638831427</v>
+      </c>
+      <c r="E34" t="n">
+        <v>14.11851765396344</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.01085569204421644</v>
+      </c>
+      <c r="C35" t="n">
+        <v>120.9000015258789</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1279.912558190322</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10.58653880923528</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.009791629021734697</v>
+      </c>
+      <c r="C36" t="n">
+        <v>819.4000244140625</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1154.456933654076</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.408905173611151</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.009553013098774966</v>
+      </c>
+      <c r="C37" t="n">
+        <v>71.18000030517578</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1126.323534591503</v>
+      </c>
+      <c r="E37" t="n">
+        <v>15.82359552911668</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.009459107378720062</v>
+      </c>
+      <c r="C38" t="n">
+        <v>101.7600021362305</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1115.251821254885</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10.95962851653491</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.00944432773575217</v>
+      </c>
+      <c r="C39" t="n">
+        <v>225.3800048828125</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1113.509265316201</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.940585860290382</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>IRM</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.008805701342995565</v>
+      </c>
+      <c r="C40" t="n">
+        <v>83</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1038.213656639051</v>
+      </c>
+      <c r="E40" t="n">
+        <v>12.50859827275965</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NEM</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.007429186558116088</v>
+      </c>
+      <c r="C41" t="n">
+        <v>82</v>
+      </c>
+      <c r="D41" t="n">
+        <v>875.9192075587155</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10.68194155559409</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.006584603723045254</v>
+      </c>
+      <c r="C42" t="n">
+        <v>22.8799991607666</v>
+      </c>
+      <c r="D42" t="n">
+        <v>776.3408322109121</v>
+      </c>
+      <c r="E42" t="n">
+        <v>33.9309816733796</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.005445762986208562</v>
+      </c>
+      <c r="C43" t="n">
+        <v>368.7000122070312</v>
+      </c>
+      <c r="D43" t="n">
+        <v>642.0687328441497</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.741439413035922</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.005331960637537583</v>
+      </c>
+      <c r="C44" t="n">
+        <v>217.1100006103516</v>
+      </c>
+      <c r="D44" t="n">
+        <v>628.6511584857153</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.895542152449987</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.004810801641350628</v>
+      </c>
+      <c r="C45" t="n">
+        <v>35.15999984741211</v>
+      </c>
+      <c r="D45" t="n">
+        <v>567.2052422496406</v>
+      </c>
+      <c r="E45" t="n">
+        <v>16.13211731260541</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.004725340948689078</v>
+      </c>
+      <c r="C46" t="n">
+        <v>68.04000091552734</v>
+      </c>
+      <c r="D46" t="n">
+        <v>557.1292182316753</v>
+      </c>
+      <c r="E46" t="n">
+        <v>8.188260004925034</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ETN</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.004678249951975685</v>
+      </c>
+      <c r="C47" t="n">
+        <v>328.1900024414062</v>
+      </c>
+      <c r="D47" t="n">
+        <v>551.5770749113161</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.680663855718129</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>STE</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.004492413636195536</v>
+      </c>
+      <c r="C48" t="n">
+        <v>256.9800109863281</v>
+      </c>
+      <c r="D48" t="n">
+        <v>529.6665202118987</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.061119532912146</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.004458317214632449</v>
+      </c>
+      <c r="C49" t="n">
+        <v>37.11999893188477</v>
+      </c>
+      <c r="D49" t="n">
+        <v>525.646468982535</v>
+      </c>
+      <c r="E49" t="n">
+        <v>14.16073502445668</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.004365637133974654</v>
+      </c>
+      <c r="C50" t="n">
+        <v>546.1300048828125</v>
+      </c>
+      <c r="D50" t="n">
+        <v>514.7192615189443</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.942484860595403</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.004141128192764759</v>
+      </c>
+      <c r="C51" t="n">
+        <v>155.7449951171875</v>
+      </c>
+      <c r="D51" t="n">
+        <v>488.249109997499</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.134926484347859</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.003813595238842733</v>
+      </c>
+      <c r="C52" t="n">
+        <v>148.5700073242188</v>
+      </c>
+      <c r="D52" t="n">
+        <v>449.6321762047505</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.026399367562358</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.003360008978143821</v>
+      </c>
+      <c r="C53" t="n">
+        <v>689.3499755859375</v>
+      </c>
+      <c r="D53" t="n">
+        <v>396.1532502250453</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.5746765275335228</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.002842039572638104</v>
+      </c>
+      <c r="C54" t="n">
+        <v>65.13999938964844</v>
+      </c>
+      <c r="D54" t="n">
+        <v>335.0833945065106</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5.144049702888998</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.0027168944326937</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1720.550048828125</v>
+      </c>
+      <c r="D55" t="n">
+        <v>320.3284774032141</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.1861779479308907</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.00217125496165387</v>
+      </c>
+      <c r="C56" t="n">
+        <v>222.1799926757812</v>
+      </c>
+      <c r="D56" t="n">
+        <v>255.9962534985877</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.152202097117508</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.001553521462497088</v>
+      </c>
+      <c r="C57" t="n">
+        <v>140.2299957275391</v>
+      </c>
+      <c r="D57" t="n">
+        <v>183.1639679137322</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.306168248550845</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>HIG</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.001498179903439304</v>
+      </c>
+      <c r="C58" t="n">
+        <v>134.7700042724609</v>
+      </c>
+      <c r="D58" t="n">
+        <v>176.6390631780985</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.310670457656082</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.001315699822428652</v>
+      </c>
+      <c r="C59" t="n">
+        <v>58.65000152587891</v>
+      </c>
+      <c r="D59" t="n">
+        <v>155.1242167405051</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.644914112611875</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.001113022222612521</v>
+      </c>
+      <c r="C60" t="n">
+        <v>282.3800048828125</v>
+      </c>
+      <c r="D60" t="n">
+        <v>131.228033594195</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.4647214084745642</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>AES</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.001073701816550781</v>
+      </c>
+      <c r="C61" t="n">
+        <v>13.51000022888184</v>
+      </c>
+      <c r="D61" t="n">
+        <v>126.5920618563658</v>
+      </c>
+      <c r="E61" t="n">
+        <v>9.370248683322433</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.0003453667067058702</v>
+      </c>
+      <c r="C62" t="n">
+        <v>145.0599975585938</v>
+      </c>
+      <c r="D62" t="n">
+        <v>40.71957672465305</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.2807085165447165</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.0001593838050784933</v>
+      </c>
+      <c r="C63" t="n">
+        <v>56.34999847412109</v>
+      </c>
+      <c r="D63" t="n">
+        <v>18.79173919647114</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.3334825147351389</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>6.937814757534223e-05</v>
+      </c>
+      <c r="C64" t="n">
+        <v>83.73300170898438</v>
+      </c>
+      <c r="D64" t="n">
+        <v>8.179852743056637</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.09768971105880908</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Shares</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Exit_Price</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Sale_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Transaction_Cost</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>Gain_Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>133.3504193259562</v>
+      </c>
+      <c r="C2" t="n">
+        <v>75.44000244140625</v>
+      </c>
+      <c r="D2" t="n">
+        <v>76.09999847412109</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10147.96670722867</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>88.01074771599269</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CAH</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>36.97043534489828</v>
+      </c>
+      <c r="C3" t="n">
+        <v>207.8999938964844</v>
+      </c>
+      <c r="D3" t="n">
+        <v>209.4799957275391</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7744.56663809455</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>58.41335553982844</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>16.91627408938898</v>
+      </c>
+      <c r="C4" t="n">
+        <v>362.0700073242188</v>
+      </c>
+      <c r="D4" t="n">
+        <v>365.6799926757812</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6185.942985109269</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>61.06750166571055</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FDS</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18.22207475262554</v>
+      </c>
+      <c r="C5" t="n">
+        <v>273.0499877929688</v>
+      </c>
+      <c r="D5" t="n">
+        <v>277.0199890136719</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5047.878947778635</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>72.34165901166671</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>VTR</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>56.29544097811664</v>
+      </c>
+      <c r="C6" t="n">
+        <v>79.77999877929688</v>
+      </c>
+      <c r="D6" t="n">
+        <v>79.23999786376953</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4460.850622845926</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-30.39958966819904</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11.84200123220157</v>
+      </c>
+      <c r="C7" t="n">
+        <v>333.6900024414062</v>
+      </c>
+      <c r="D7" t="n">
+        <v>337.5400085449219</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3997.149197106295</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>45.59177702181569</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>27.72386934734075</v>
+      </c>
+      <c r="C8" t="n">
+        <v>138.3000030517578</v>
+      </c>
+      <c r="D8" t="n">
+        <v>143.2100067138672</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3970.335515367045</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>136.1243000232853</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.14305118592026</v>
+      </c>
+      <c r="C9" t="n">
+        <v>849.4600219726562</v>
+      </c>
+      <c r="D9" t="n">
+        <v>866.030029296875</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3588.006739920976</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>68.65038849531174</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.283407757632465</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1043.2900390625</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1059.699951171875</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3479.427040440478</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>53.88043272198865</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11.39476208288063</v>
+      </c>
+      <c r="C11" t="n">
+        <v>289.9800109863281</v>
+      </c>
+      <c r="D11" t="n">
+        <v>299.6499938964844</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3414.440388587072</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>110.1871546067523</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>28.16398971896952</v>
+      </c>
+      <c r="C12" t="n">
+        <v>116.4199981689453</v>
+      </c>
+      <c r="D12" t="n">
+        <v>116.8199996948242</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3290.117270375052</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11.26563886242548</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AKAM</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>36.21962929527251</v>
+      </c>
+      <c r="C13" t="n">
+        <v>87.37999725341797</v>
+      </c>
+      <c r="D13" t="n">
+        <v>89.01000213623047</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3223.909280945682</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>59.03817260495271</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10.87489339501491</v>
+      </c>
+      <c r="C14" t="n">
+        <v>289.4500122070312</v>
+      </c>
+      <c r="D14" t="n">
+        <v>299.6600036621094</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3258.770594575217</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>111.0325686379879</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>16.09712299902539</v>
+      </c>
+      <c r="C15" t="n">
+        <v>178.6199951171875</v>
+      </c>
+      <c r="D15" t="n">
+        <v>180.9799957275391</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2913.257251589287</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>37.98922010260412</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>14.07765795374896</v>
+      </c>
+      <c r="C16" t="n">
+        <v>197.5800018310547</v>
+      </c>
+      <c r="D16" t="n">
+        <v>199.9299926757812</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2814.546051585184</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>33.08236730650196</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>41.92271109569867</v>
+      </c>
+      <c r="C17" t="n">
+        <v>63.47999954223633</v>
+      </c>
+      <c r="D17" t="n">
+        <v>64.30999755859375</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2696.049448214013</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>34.79576704975534</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>15.64594329972431</v>
+      </c>
+      <c r="C18" t="n">
+        <v>167.7700042724609</v>
+      </c>
+      <c r="D18" t="n">
+        <v>170.8000030517578</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2672.327163340542</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>47.40718909911266</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6.918331011583904</v>
+      </c>
+      <c r="C19" t="n">
+        <v>378.6199951171875</v>
+      </c>
+      <c r="D19" t="n">
+        <v>393.989990234375</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2725.753167692116</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>106.3347138671311</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19.3148290208457</v>
+      </c>
+      <c r="C20" t="n">
+        <v>124.9899978637695</v>
+      </c>
+      <c r="D20" t="n">
+        <v>126.6399993896484</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2446.029935411063</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>31.86949735648568</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8.486058002647454</v>
+      </c>
+      <c r="C21" t="n">
+        <v>263.1000061035156</v>
+      </c>
+      <c r="D21" t="n">
+        <v>269.4299926757812</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2286.398545499558</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>53.71663320822563</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>26.30494462453792</v>
+      </c>
+      <c r="C22" t="n">
+        <v>84.08999633789062</v>
+      </c>
+      <c r="D22" t="n">
+        <v>85.12999725341797</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2239.339863638225</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>27.35716649241567</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>18.55147090024012</v>
+      </c>
+      <c r="C23" t="n">
+        <v>107.1100006103516</v>
+      </c>
+      <c r="D23" t="n">
+        <v>105.3199996948242</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1953.840909551829</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-33.2071498958087</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>17.09989838710077</v>
+      </c>
+      <c r="C24" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>114.9899978637695</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1966.317279003393</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8.378913680355254</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3.531896843304733</v>
+      </c>
+      <c r="C25" t="n">
+        <v>552.22998046875</v>
+      </c>
+      <c r="D25" t="n">
+        <v>561.6099853515625</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1983.548534431601</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>33.12920963578858</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>9.29922900904196</v>
+      </c>
+      <c r="C26" t="n">
+        <v>203.0700073242188</v>
+      </c>
+      <c r="D26" t="n">
+        <v>203.8999938964844</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1896.112738185666</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7.718235209927798</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4.062392035415092</v>
+      </c>
+      <c r="C27" t="n">
+        <v>463.1900024414062</v>
+      </c>
+      <c r="D27" t="n">
+        <v>472.510009765625</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1919.520900325782</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>37.8615235239165</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3.826492688896957</v>
+      </c>
+      <c r="C28" t="n">
+        <v>476.2799987792969</v>
+      </c>
+      <c r="D28" t="n">
+        <v>491</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1878.807910248406</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>56.32597705157468</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3.009353793580317</v>
+      </c>
+      <c r="C29" t="n">
+        <v>572.739990234375</v>
+      </c>
+      <c r="D29" t="n">
+        <v>587.47998046875</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1767.935107876124</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>44.35784552915311</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9.590210737538957</v>
+      </c>
+      <c r="C30" t="n">
+        <v>168.1799926757812</v>
+      </c>
+      <c r="D30" t="n">
+        <v>175.3000030517578</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1681.16397155758</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>68.28239995907938</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>5.923533577652544</v>
+      </c>
+      <c r="C31" t="n">
+        <v>255.3200073242188</v>
+      </c>
+      <c r="D31" t="n">
+        <v>252.6000061035156</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1496.284617869412</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-16.11201856209095</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.872531702910234</v>
+      </c>
+      <c r="C32" t="n">
+        <v>737</v>
+      </c>
+      <c r="D32" t="n">
+        <v>755.9000244140625</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1415.446759945952</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>35.3908949011095</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>19.06632630399091</v>
+      </c>
+      <c r="C33" t="n">
+        <v>72.22000122070312</v>
+      </c>
+      <c r="D33" t="n">
+        <v>72.04000091552734</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1373.538164395248</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-3.431944553299445</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>14.11851765396344</v>
+      </c>
+      <c r="C34" t="n">
+        <v>94.97000122070312</v>
+      </c>
+      <c r="D34" t="n">
+        <v>97.76000213623047</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1380.226316011874</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>39.39067718044703</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10.58653880923528</v>
+      </c>
+      <c r="C35" t="n">
+        <v>120.9000015258789</v>
+      </c>
+      <c r="D35" t="n">
+        <v>120.8399963378906</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1279.277310938929</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.6352472513935936</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.408905173611151</v>
+      </c>
+      <c r="C36" t="n">
+        <v>819.4000244140625</v>
+      </c>
+      <c r="D36" t="n">
+        <v>839.5700073242188</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1182.874526927843</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>28.41759327376758</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>15.82359552911668</v>
+      </c>
+      <c r="C37" t="n">
+        <v>71.18000030517578</v>
+      </c>
+      <c r="D37" t="n">
+        <v>73.40000152587891</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1161.451935982055</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>35.12840139055152</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>10.95962851653491</v>
+      </c>
+      <c r="C38" t="n">
+        <v>101.7600021362305</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102.0599975585938</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1118.539659640647</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3.287838385762598</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4.940585860290382</v>
+      </c>
+      <c r="C39" t="n">
+        <v>225.3800048828125</v>
+      </c>
+      <c r="D39" t="n">
+        <v>231.9199981689453</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1145.820663672062</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>32.31139835586191</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>IRM</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>12.50859827275965</v>
+      </c>
+      <c r="C40" t="n">
+        <v>83</v>
+      </c>
+      <c r="D40" t="n">
+        <v>85.01999664306641</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1063.480983159492</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>25.26732652044075</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NEM</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>10.68194155559409</v>
+      </c>
+      <c r="C41" t="n">
+        <v>82</v>
+      </c>
+      <c r="D41" t="n">
+        <v>83.48999786376953</v>
+      </c>
+      <c r="E41" t="n">
+        <v>891.8352776574617</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>15.91607009874622</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>33.9309816733796</v>
+      </c>
+      <c r="C42" t="n">
+        <v>22.8799991607666</v>
+      </c>
+      <c r="D42" t="n">
+        <v>23.17000007629395</v>
+      </c>
+      <c r="E42" t="n">
+        <v>786.1808479609338</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>9.840015750021621</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1.741439413035922</v>
+      </c>
+      <c r="C43" t="n">
+        <v>368.7000122070312</v>
+      </c>
+      <c r="D43" t="n">
+        <v>378.7300109863281</v>
+      </c>
+      <c r="E43" t="n">
+        <v>659.5353680311194</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>17.46663518696971</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2.895542152449987</v>
+      </c>
+      <c r="C44" t="n">
+        <v>217.1100006103516</v>
+      </c>
+      <c r="D44" t="n">
+        <v>224.8999938964844</v>
+      </c>
+      <c r="E44" t="n">
+        <v>651.2074124130153</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>22.55625392729996</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>16.13211731260541</v>
+      </c>
+      <c r="C45" t="n">
+        <v>35.15999984741211</v>
+      </c>
+      <c r="D45" t="n">
+        <v>35.65000152587891</v>
+      </c>
+      <c r="E45" t="n">
+        <v>575.1100068100404</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7.904764560399826</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>8.188260004925034</v>
+      </c>
+      <c r="C46" t="n">
+        <v>68.04000091552734</v>
+      </c>
+      <c r="D46" t="n">
+        <v>70.33000183105469</v>
+      </c>
+      <c r="E46" t="n">
+        <v>575.8803411395295</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>18.75112290785421</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ETN</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1.680663855718129</v>
+      </c>
+      <c r="C47" t="n">
+        <v>328.1900024414062</v>
+      </c>
+      <c r="D47" t="n">
+        <v>331.7099914550781</v>
+      </c>
+      <c r="E47" t="n">
+        <v>557.4929932191193</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5.915918307803167</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>STE</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2.061119532912146</v>
+      </c>
+      <c r="C48" t="n">
+        <v>256.9800109863281</v>
+      </c>
+      <c r="D48" t="n">
+        <v>263.2900085449219</v>
+      </c>
+      <c r="E48" t="n">
+        <v>542.6721794325442</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>13.0056592206455</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>14.16073502445668</v>
+      </c>
+      <c r="C49" t="n">
+        <v>37.11999893188477</v>
+      </c>
+      <c r="D49" t="n">
+        <v>38.54000091552734</v>
+      </c>
+      <c r="E49" t="n">
+        <v>545.7547408071003</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>20.10827182456535</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.942484860595403</v>
+      </c>
+      <c r="C50" t="n">
+        <v>546.1300048828125</v>
+      </c>
+      <c r="D50" t="n">
+        <v>550.4299926757812</v>
+      </c>
+      <c r="E50" t="n">
+        <v>518.7719349145624</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4.052673395618058</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>3.134926484347859</v>
+      </c>
+      <c r="C51" t="n">
+        <v>155.7449951171875</v>
+      </c>
+      <c r="D51" t="n">
+        <v>154.8500061035156</v>
+      </c>
+      <c r="E51" t="n">
+        <v>485.4433852353387</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-2.80572476216031</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3.026399367562358</v>
+      </c>
+      <c r="C52" t="n">
+        <v>148.5700073242188</v>
+      </c>
+      <c r="D52" t="n">
+        <v>151.6799926757812</v>
+      </c>
+      <c r="E52" t="n">
+        <v>459.0442339058475</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>9.412057701096955</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5746765275335228</v>
+      </c>
+      <c r="C53" t="n">
+        <v>689.3499755859375</v>
+      </c>
+      <c r="D53" t="n">
+        <v>725.9099731445312</v>
+      </c>
+      <c r="E53" t="n">
+        <v>417.163422668652</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>21.01017244360668</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>5.144049702888998</v>
+      </c>
+      <c r="C54" t="n">
+        <v>65.13999938964844</v>
+      </c>
+      <c r="D54" t="n">
+        <v>65.69000244140625</v>
+      </c>
+      <c r="E54" t="n">
+        <v>337.9126375414934</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.829243034982824</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.1861779479308907</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1720.550048828125</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1788.199951171875</v>
+      </c>
+      <c r="E55" t="n">
+        <v>332.9233973992986</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>12.59491999608451</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1.152202097117508</v>
+      </c>
+      <c r="C56" t="n">
+        <v>222.1799926757812</v>
+      </c>
+      <c r="D56" t="n">
+        <v>227.3899993896484</v>
+      </c>
+      <c r="E56" t="n">
+        <v>261.9992341603019</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>6.002980661714076</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1.306168248550845</v>
+      </c>
+      <c r="C57" t="n">
+        <v>140.2299957275391</v>
+      </c>
+      <c r="D57" t="n">
+        <v>139.1900024414062</v>
+      </c>
+      <c r="E57" t="n">
+        <v>181.8055617046795</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1.358406209052731</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>HIG</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1.310670457656082</v>
+      </c>
+      <c r="C58" t="n">
+        <v>134.7700042724609</v>
+      </c>
+      <c r="D58" t="n">
+        <v>136.4499969482422</v>
+      </c>
+      <c r="E58" t="n">
+        <v>178.8409799473236</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.201916769225079</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2.644914112611875</v>
+      </c>
+      <c r="C59" t="n">
+        <v>58.65000152587891</v>
+      </c>
+      <c r="D59" t="n">
+        <v>59.13999938964844</v>
+      </c>
+      <c r="E59" t="n">
+        <v>156.4202190055389</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.296002265033707</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.4647214084745642</v>
+      </c>
+      <c r="C60" t="n">
+        <v>282.3800048828125</v>
+      </c>
+      <c r="D60" t="n">
+        <v>295.8399963378906</v>
+      </c>
+      <c r="E60" t="n">
+        <v>137.4831797812544</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>6.255146187059495</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>AES</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>9.370248683322433</v>
+      </c>
+      <c r="C61" t="n">
+        <v>13.51000022888184</v>
+      </c>
+      <c r="D61" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="E61" t="n">
+        <v>128.8409193956835</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.248857539317669</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.2807085165447165</v>
+      </c>
+      <c r="C62" t="n">
+        <v>145.0599975585938</v>
+      </c>
+      <c r="D62" t="n">
+        <v>151.25</v>
+      </c>
+      <c r="E62" t="n">
+        <v>42.45716312738836</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.737586402735317</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.3334825147351389</v>
+      </c>
+      <c r="C63" t="n">
+        <v>56.34999847412109</v>
+      </c>
+      <c r="D63" t="n">
+        <v>57.02999877929688</v>
+      </c>
+      <c r="E63" t="n">
+        <v>19.01850740826182</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.2267682117906809</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.09768971105880908</v>
+      </c>
+      <c r="C64" t="n">
+        <v>83.73300170898438</v>
+      </c>
+      <c r="D64" t="n">
+        <v>83.48000335693359</v>
+      </c>
+      <c r="E64" t="n">
+        <v>8.155137407127254</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.02471533591019615</v>
       </c>
     </row>
   </sheetData>

--- a/backtest_portfolio_PL.xlsx
+++ b/backtest_portfolio_PL.xlsx
@@ -52,6 +52,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-20-2025_PnL" sheetId="44" state="visible" r:id="rId44"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-21-2025_Allocations" sheetId="45" state="visible" r:id="rId45"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-21-2025_PnL" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-24-2025_Allocations" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-24-2025_PnL" sheetId="48" state="visible" r:id="rId48"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -82625,6 +82627,3628 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Allocation_Percent</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Target_Value</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Actual_Shares</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04731608229890785</v>
+      </c>
+      <c r="C2" t="n">
+        <v>199.9299926757812</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5664.643519959408</v>
+      </c>
+      <c r="E2" t="n">
+        <v>28.33313523471959</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CAH</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.04729167916041049</v>
+      </c>
+      <c r="C3" t="n">
+        <v>209.4799957275391</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5661.721995741015</v>
+      </c>
+      <c r="E3" t="n">
+        <v>27.02750673675283</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03979123318317224</v>
+      </c>
+      <c r="C4" t="n">
+        <v>365.6799926757812</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4763.774603702835</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.02716773987273</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03351838777113571</v>
+      </c>
+      <c r="C5" t="n">
+        <v>491</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4012.79456925015</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.172697697047148</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>VTR</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.03303860184401431</v>
+      </c>
+      <c r="C6" t="n">
+        <v>79.23999786376953</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3955.354981883918</v>
+      </c>
+      <c r="E6" t="n">
+        <v>49.91614195502652</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02938871475045215</v>
+      </c>
+      <c r="C7" t="n">
+        <v>866.030029296875</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3518.393418952331</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.062669076046815</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02866463922343617</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1059.699951171875</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3431.707676118399</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.238376742702901</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02752964566560955</v>
+      </c>
+      <c r="C9" t="n">
+        <v>143.2100067138672</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3295.827155370243</v>
+      </c>
+      <c r="E9" t="n">
+        <v>23.01394456293329</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0257390047823028</v>
+      </c>
+      <c r="C10" t="n">
+        <v>299.6499938964844</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3081.453061333465</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10.28350783947611</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02423963793102697</v>
+      </c>
+      <c r="C11" t="n">
+        <v>839.5700073242188</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2901.950061392204</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.456471808278343</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02414900601524342</v>
+      </c>
+      <c r="C12" t="n">
+        <v>299.6600036621094</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2891.09968094013</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.647933142923126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.02283039526235367</v>
+      </c>
+      <c r="C13" t="n">
+        <v>227.3899993896484</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2733.236656492771</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12.02003898073451</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EXPE</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.02217094524688231</v>
+      </c>
+      <c r="C14" t="n">
+        <v>247.4900054931641</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2654.287828200553</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10.72482835382161</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.02162627294698436</v>
+      </c>
+      <c r="C15" t="n">
+        <v>76.09999847412109</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2589.080096194611</v>
+      </c>
+      <c r="E15" t="n">
+        <v>34.02207816173695</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0206885515142665</v>
+      </c>
+      <c r="C16" t="n">
+        <v>393.989990234375</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2476.816836446774</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.286496859916102</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FDS</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01945552631794438</v>
+      </c>
+      <c r="C17" t="n">
+        <v>277.0199890136719</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2329.200046363246</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8.408057680806175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.01937844561316976</v>
+      </c>
+      <c r="C18" t="n">
+        <v>38.54000091552734</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2319.972006052193</v>
+      </c>
+      <c r="E18" t="n">
+        <v>60.19646992580901</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01772546896162612</v>
+      </c>
+      <c r="C19" t="n">
+        <v>94.66000366210938</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2122.07896371071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>22.41790493993123</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01733845543203227</v>
+      </c>
+      <c r="C20" t="n">
+        <v>180.9799957275391</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2075.746013558557</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11.4694776359899</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0169225101902057</v>
+      </c>
+      <c r="C21" t="n">
+        <v>337.5400085449219</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2025.949381963274</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.002101471457562</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0167891120458536</v>
+      </c>
+      <c r="C22" t="n">
+        <v>64.30999755859375</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2009.979062839957</v>
+      </c>
+      <c r="E22" t="n">
+        <v>31.25453489573897</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01657552756719168</v>
+      </c>
+      <c r="C23" t="n">
+        <v>561.6099853515625</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1984.408899922134</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.533428805899726</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AKAM</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01636567924163963</v>
+      </c>
+      <c r="C24" t="n">
+        <v>89.01000213623047</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1959.286026265703</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22.01197594925345</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01611633600641805</v>
+      </c>
+      <c r="C25" t="n">
+        <v>85.12999725341797</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1929.434853619564</v>
+      </c>
+      <c r="E25" t="n">
+        <v>22.66457084305964</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01560124172725048</v>
+      </c>
+      <c r="C26" t="n">
+        <v>472.510009765625</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1867.768178593045</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.952864785911092</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.01519964057890589</v>
+      </c>
+      <c r="C27" t="n">
+        <v>378.7300109863281</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1819.688810394149</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.804712480152092</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01498570739107161</v>
+      </c>
+      <c r="C28" t="n">
+        <v>587.47998046875</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1794.07690029318</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.053851977835376</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>STE</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.01466033560053068</v>
+      </c>
+      <c r="C29" t="n">
+        <v>263.2900085449219</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1755.123649827053</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6.666123259013066</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.01464996586101096</v>
+      </c>
+      <c r="C30" t="n">
+        <v>231.9199981689453</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1753.882192907544</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7.562444837680207</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0142633536152135</v>
+      </c>
+      <c r="C31" t="n">
+        <v>73.40000152587891</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1707.597284130468</v>
+      </c>
+      <c r="E31" t="n">
+        <v>23.26426769253423</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01420045357470954</v>
+      </c>
+      <c r="C32" t="n">
+        <v>269.4299926757812</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1700.066941601367</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6.309865225907285</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.01403774102735497</v>
+      </c>
+      <c r="C33" t="n">
+        <v>114.9899978637695</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1680.587125602115</v>
+      </c>
+      <c r="E33" t="n">
+        <v>14.61507223952759</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.01329738277126456</v>
+      </c>
+      <c r="C34" t="n">
+        <v>120.8399963378906</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1591.952027469576</v>
+      </c>
+      <c r="E34" t="n">
+        <v>13.17404895493532</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.01324720734157749</v>
+      </c>
+      <c r="C35" t="n">
+        <v>151.25</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1585.945065167784</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10.48558720772088</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.01311977685581704</v>
+      </c>
+      <c r="C36" t="n">
+        <v>170.8000030517578</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1570.689189356931</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9.196072372908347</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.01291272303694803</v>
+      </c>
+      <c r="C37" t="n">
+        <v>27.73999977111816</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1545.900871804988</v>
+      </c>
+      <c r="E37" t="n">
+        <v>55.72822222639387</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0111048260267714</v>
+      </c>
+      <c r="C38" t="n">
+        <v>97.76000213623047</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1329.460888064251</v>
+      </c>
+      <c r="E38" t="n">
+        <v>13.59923137288419</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0107963556020064</v>
+      </c>
+      <c r="C39" t="n">
+        <v>755.9000244140625</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1292.531055587724</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.709923288585197</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0103352140954699</v>
+      </c>
+      <c r="C40" t="n">
+        <v>298.2900085449219</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1237.32356333838</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.148055677004152</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.01015518391785133</v>
+      </c>
+      <c r="C41" t="n">
+        <v>75.98000335693359</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1215.770494498027</v>
+      </c>
+      <c r="E41" t="n">
+        <v>16.0011903235469</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.009823154164687218</v>
+      </c>
+      <c r="C42" t="n">
+        <v>224.8999938964844</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1176.020158073022</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5.229080435699405</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.009026349763658178</v>
+      </c>
+      <c r="C43" t="n">
+        <v>102.0599975585938</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1080.627372625346</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10.58815793136725</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ABBV</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.009004370745076767</v>
+      </c>
+      <c r="C44" t="n">
+        <v>236.2799987792969</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1077.996062103995</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.562366970007153</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DOV</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.008470386474053003</v>
+      </c>
+      <c r="C45" t="n">
+        <v>183.5800018310547</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1014.067892364446</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5.523847272306242</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.008445602886882626</v>
+      </c>
+      <c r="C46" t="n">
+        <v>175.3000030517578</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1011.100821135278</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5.767831166761293</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.007773313758832149</v>
+      </c>
+      <c r="C47" t="n">
+        <v>70.33000183105469</v>
+      </c>
+      <c r="D47" t="n">
+        <v>930.6149045563778</v>
+      </c>
+      <c r="E47" t="n">
+        <v>13.23211830410416</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.007518002928674072</v>
+      </c>
+      <c r="C48" t="n">
+        <v>116.8199996948242</v>
+      </c>
+      <c r="D48" t="n">
+        <v>900.0492962185169</v>
+      </c>
+      <c r="E48" t="n">
+        <v>7.704582251068043</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>HIG</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.007473247110958664</v>
+      </c>
+      <c r="C49" t="n">
+        <v>136.4499969482422</v>
+      </c>
+      <c r="D49" t="n">
+        <v>894.6911655262825</v>
+      </c>
+      <c r="E49" t="n">
+        <v>6.556915980479311</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.007264236082526511</v>
+      </c>
+      <c r="C50" t="n">
+        <v>126.6399993896484</v>
+      </c>
+      <c r="D50" t="n">
+        <v>869.6685324112078</v>
+      </c>
+      <c r="E50" t="n">
+        <v>6.867249973173125</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.007148830035149751</v>
+      </c>
+      <c r="C51" t="n">
+        <v>151.6799926757812</v>
+      </c>
+      <c r="D51" t="n">
+        <v>855.8522127441</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5.642485852260685</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.006892902535090344</v>
+      </c>
+      <c r="C52" t="n">
+        <v>152.3500061035156</v>
+      </c>
+      <c r="D52" t="n">
+        <v>825.2127771789878</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5.416558871801353</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.006746812992624512</v>
+      </c>
+      <c r="C53" t="n">
+        <v>158.1600036621094</v>
+      </c>
+      <c r="D53" t="n">
+        <v>807.7230540266124</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5.106999464619511</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CTRA</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.006279609014688036</v>
+      </c>
+      <c r="C54" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="D54" t="n">
+        <v>751.7897675512398</v>
+      </c>
+      <c r="E54" t="n">
+        <v>29.19571912820349</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.005463897272660892</v>
+      </c>
+      <c r="C55" t="n">
+        <v>166.4299926757812</v>
+      </c>
+      <c r="D55" t="n">
+        <v>654.1334103651438</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.93038177703611</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.005331649557774933</v>
+      </c>
+      <c r="C56" t="n">
+        <v>550.4299926757812</v>
+      </c>
+      <c r="D56" t="n">
+        <v>638.3008197371687</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.159640332522988</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.004937752898937272</v>
+      </c>
+      <c r="C57" t="n">
+        <v>65.69000244140625</v>
+      </c>
+      <c r="D57" t="n">
+        <v>591.143826858451</v>
+      </c>
+      <c r="E57" t="n">
+        <v>8.998992310675217</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>VTRS</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.004899361431639273</v>
+      </c>
+      <c r="C58" t="n">
+        <v>10.34000015258789</v>
+      </c>
+      <c r="D58" t="n">
+        <v>586.5476311067085</v>
+      </c>
+      <c r="E58" t="n">
+        <v>56.72607567224335</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>RVTY</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.004873960800547762</v>
+      </c>
+      <c r="C59" t="n">
+        <v>98.26999664306641</v>
+      </c>
+      <c r="D59" t="n">
+        <v>583.5066878729376</v>
+      </c>
+      <c r="E59" t="n">
+        <v>5.937790859933929</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.004856661685269422</v>
+      </c>
+      <c r="C60" t="n">
+        <v>295.8399963378906</v>
+      </c>
+      <c r="D60" t="n">
+        <v>581.4356516311069</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.965372021459283</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.004807149128987796</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1452.349975585938</v>
+      </c>
+      <c r="D61" t="n">
+        <v>575.5080480031157</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.3962598944313902</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.004783278036990956</v>
+      </c>
+      <c r="C62" t="n">
+        <v>23.17000007629395</v>
+      </c>
+      <c r="D62" t="n">
+        <v>572.6502199661277</v>
+      </c>
+      <c r="E62" t="n">
+        <v>24.71515831163188</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.004551799621236686</v>
+      </c>
+      <c r="C63" t="n">
+        <v>59.13999938964844</v>
+      </c>
+      <c r="D63" t="n">
+        <v>544.937809214759</v>
+      </c>
+      <c r="E63" t="n">
+        <v>9.214369544111666</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>KVUE</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.004264866655791828</v>
+      </c>
+      <c r="C64" t="n">
+        <v>16.63999938964844</v>
+      </c>
+      <c r="D64" t="n">
+        <v>510.586424138073</v>
+      </c>
+      <c r="E64" t="n">
+        <v>30.68428142225193</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TECH</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.00410561877189093</v>
+      </c>
+      <c r="C65" t="n">
+        <v>61.52999877929688</v>
+      </c>
+      <c r="D65" t="n">
+        <v>491.5213948757646</v>
+      </c>
+      <c r="E65" t="n">
+        <v>7.988321219358578</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.004048119792977012</v>
+      </c>
+      <c r="C66" t="n">
+        <v>72.94999694824219</v>
+      </c>
+      <c r="D66" t="n">
+        <v>484.6376631193735</v>
+      </c>
+      <c r="E66" t="n">
+        <v>6.643422664749699</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.003994170994449389</v>
+      </c>
+      <c r="C67" t="n">
+        <v>725.9099731445312</v>
+      </c>
+      <c r="D67" t="n">
+        <v>478.1789561186853</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.6587303850466292</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.003466313932054735</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1788.199951171875</v>
+      </c>
+      <c r="D68" t="n">
+        <v>414.9843308944473</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.2320681927222358</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.003325227650296157</v>
+      </c>
+      <c r="C69" t="n">
+        <v>203.8999938964844</v>
+      </c>
+      <c r="D69" t="n">
+        <v>398.0935941113356</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.952396302245301</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.002879760558579525</v>
+      </c>
+      <c r="C70" t="n">
+        <v>249.9100036621094</v>
+      </c>
+      <c r="D70" t="n">
+        <v>344.7626302646939</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.379547137820181</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PODD</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.002716426184487038</v>
+      </c>
+      <c r="C71" t="n">
+        <v>331.1700134277344</v>
+      </c>
+      <c r="D71" t="n">
+        <v>325.2083696658406</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.981998238004134</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NEM</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.001860313310324049</v>
+      </c>
+      <c r="C72" t="n">
+        <v>83.48999786376953</v>
+      </c>
+      <c r="D72" t="n">
+        <v>222.7152212613469</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.667567696249686</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.001550473905431937</v>
+      </c>
+      <c r="C73" t="n">
+        <v>57.02999877929688</v>
+      </c>
+      <c r="D73" t="n">
+        <v>185.6214955791871</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3.254804481015906</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.001539220891886243</v>
+      </c>
+      <c r="C74" t="n">
+        <v>214.3200073242188</v>
+      </c>
+      <c r="D74" t="n">
+        <v>184.2742937999076</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.8598091055546733</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.001163169511834816</v>
+      </c>
+      <c r="C75" t="n">
+        <v>168.0899963378906</v>
+      </c>
+      <c r="D75" t="n">
+        <v>139.2537234212547</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.8284474177828531</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>CNC</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0005752091082858414</v>
+      </c>
+      <c r="C76" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D76" t="n">
+        <v>68.86357427669429</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.886673267854638</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>EIX</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0003622503055675387</v>
+      </c>
+      <c r="C77" t="n">
+        <v>58.58000183105469</v>
+      </c>
+      <c r="D77" t="n">
+        <v>43.36831678230127</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.7403263131909066</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0001895625353687091</v>
+      </c>
+      <c r="C78" t="n">
+        <v>72.04000091552734</v>
+      </c>
+      <c r="D78" t="n">
+        <v>22.69427508431356</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.3150232481385502</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BMY</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.000141264436784025</v>
+      </c>
+      <c r="C79" t="n">
+        <v>46.25</v>
+      </c>
+      <c r="D79" t="n">
+        <v>16.91206536023404</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.3656662780591144</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>IFF</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0001318793545292135</v>
+      </c>
+      <c r="C80" t="n">
+        <v>67.44999694824219</v>
+      </c>
+      <c r="D80" t="n">
+        <v>15.78849082075381</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.2340769686449226</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>RL</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>9.685517648074387e-05</v>
+      </c>
+      <c r="C81" t="n">
+        <v>339.8800048828125</v>
+      </c>
+      <c r="D81" t="n">
+        <v>11.59542424413347</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.03411622948555466</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Shares</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Entry_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Exit_Price</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Sale_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Transaction_Cost</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>Gain_Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>28.33313523471959</v>
+      </c>
+      <c r="C2" t="n">
+        <v>199.9299926757812</v>
+      </c>
+      <c r="D2" t="n">
+        <v>202.3000030517578</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5731.79334444964</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>67.14982449023228</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CAH</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>27.02750673675283</v>
+      </c>
+      <c r="C3" t="n">
+        <v>209.4799957275391</v>
+      </c>
+      <c r="D3" t="n">
+        <v>211.1999969482422</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5708.209340320792</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>46.48734457977662</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>13.02716773987273</v>
+      </c>
+      <c r="C4" t="n">
+        <v>365.6799926757812</v>
+      </c>
+      <c r="D4" t="n">
+        <v>372.2200012207031</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4848.972392037733</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>85.19778833489818</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.172697697047148</v>
+      </c>
+      <c r="C5" t="n">
+        <v>491</v>
+      </c>
+      <c r="D5" t="n">
+        <v>501.0400085449219</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4094.848523963567</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>82.05395471341672</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>VTR</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>49.91614195502652</v>
+      </c>
+      <c r="C6" t="n">
+        <v>79.23999786376953</v>
+      </c>
+      <c r="D6" t="n">
+        <v>78.80000305175781</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3933.392138388066</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-21.96284349585221</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.062669076046815</v>
+      </c>
+      <c r="C7" t="n">
+        <v>866.030029296875</v>
+      </c>
+      <c r="D7" t="n">
+        <v>870.2100219726562</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3535.37534593433</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16.98192698199864</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.238376742702901</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1059.699951171875</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1070.160034179688</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3465.581365657641</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>33.8736895392417</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>23.01394456293329</v>
+      </c>
+      <c r="C9" t="n">
+        <v>143.2100067138672</v>
+      </c>
+      <c r="D9" t="n">
+        <v>144.2599945068359</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3319.991516229383</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>24.16436085913983</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10.28350783947611</v>
+      </c>
+      <c r="C10" t="n">
+        <v>299.6499938964844</v>
+      </c>
+      <c r="D10" t="n">
+        <v>318.4700012207031</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3274.988754191067</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>193.5356928576016</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.456471808278343</v>
+      </c>
+      <c r="C11" t="n">
+        <v>839.5700073242188</v>
+      </c>
+      <c r="D11" t="n">
+        <v>840.02001953125</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2903.505515899189</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.555454506984461</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9.647933142923126</v>
+      </c>
+      <c r="C12" t="n">
+        <v>299.6600036621094</v>
+      </c>
+      <c r="D12" t="n">
+        <v>318.5799865722656</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3073.638411122566</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>182.5387301824358</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12.02003898073451</v>
+      </c>
+      <c r="C13" t="n">
+        <v>227.3899993896484</v>
+      </c>
+      <c r="D13" t="n">
+        <v>226.9799957275391</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2728.308396491972</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-4.928260000798673</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EXPE</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10.72482835382161</v>
+      </c>
+      <c r="C14" t="n">
+        <v>247.4900054931641</v>
+      </c>
+      <c r="D14" t="n">
+        <v>249.1399993896484</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2671.983729525201</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>17.69590132464828</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>34.02207816173695</v>
+      </c>
+      <c r="C15" t="n">
+        <v>76.09999847412109</v>
+      </c>
+      <c r="D15" t="n">
+        <v>76.23999786376953</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2593.843166371825</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.763070177214558</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6.286496859916102</v>
+      </c>
+      <c r="C16" t="n">
+        <v>393.989990234375</v>
+      </c>
+      <c r="D16" t="n">
+        <v>399.5400085449219</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2511.707009128504</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>34.89017268172984</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FDS</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8.408057680806175</v>
+      </c>
+      <c r="C17" t="n">
+        <v>277.0199890136719</v>
+      </c>
+      <c r="D17" t="n">
+        <v>271.760009765625</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2284.973837445824</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-44.2262089174219</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>60.19646992580901</v>
+      </c>
+      <c r="C18" t="n">
+        <v>38.54000091552734</v>
+      </c>
+      <c r="D18" t="n">
+        <v>38.47000122070312</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2315.758271527891</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-4.213734524301799</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>22.41790493993123</v>
+      </c>
+      <c r="C19" t="n">
+        <v>94.66000366210938</v>
+      </c>
+      <c r="D19" t="n">
+        <v>93.55999755859375</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2097.419131448753</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-24.65983226195749</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11.4694776359899</v>
+      </c>
+      <c r="C20" t="n">
+        <v>180.9799957275391</v>
+      </c>
+      <c r="D20" t="n">
+        <v>183.2299957275391</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2101.552338239535</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25.80632468097747</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6.002101471457562</v>
+      </c>
+      <c r="C21" t="n">
+        <v>337.5400085449219</v>
+      </c>
+      <c r="D21" t="n">
+        <v>334.2999877929688</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2006.502448640423</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-19.44693332285078</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>31.25453489573897</v>
+      </c>
+      <c r="C22" t="n">
+        <v>64.30999755859375</v>
+      </c>
+      <c r="D22" t="n">
+        <v>65.66999816894531</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2052.485249374416</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>42.50618653445895</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.533428805899726</v>
+      </c>
+      <c r="C23" t="n">
+        <v>561.6099853515625</v>
+      </c>
+      <c r="D23" t="n">
+        <v>568.47998046875</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2008.683538565595</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>24.27463864346078</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AKAM</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>22.01197594925345</v>
+      </c>
+      <c r="C24" t="n">
+        <v>89.01000213623047</v>
+      </c>
+      <c r="D24" t="n">
+        <v>88.33999633789062</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1944.537874746786</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-14.74815151891698</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>22.66457084305964</v>
+      </c>
+      <c r="C25" t="n">
+        <v>85.12999725341797</v>
+      </c>
+      <c r="D25" t="n">
+        <v>84.70999908447266</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1919.915775365547</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-9.519078254016222</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3.952864785911092</v>
+      </c>
+      <c r="C26" t="n">
+        <v>472.510009765625</v>
+      </c>
+      <c r="D26" t="n">
+        <v>485.6199951171875</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1919.590178033047</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>51.82199944000149</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4.804712480152092</v>
+      </c>
+      <c r="C27" t="n">
+        <v>378.7300109863281</v>
+      </c>
+      <c r="D27" t="n">
+        <v>384.3699951171875</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1846.787312535549</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>27.09850214139965</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3.053851977835376</v>
+      </c>
+      <c r="C28" t="n">
+        <v>587.47998046875</v>
+      </c>
+      <c r="D28" t="n">
+        <v>586.0700073242188</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1789.771051017058</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-4.305849276121535</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>STE</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>6.666123259013066</v>
+      </c>
+      <c r="C29" t="n">
+        <v>263.2900085449219</v>
+      </c>
+      <c r="D29" t="n">
+        <v>263.0799865722656</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1753.723617470225</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-1.400032356827523</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>7.562444837680207</v>
+      </c>
+      <c r="C30" t="n">
+        <v>231.9199981689453</v>
+      </c>
+      <c r="D30" t="n">
+        <v>236.9499969482422</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1791.921281209575</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>38.03908830203136</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>23.26426769253423</v>
+      </c>
+      <c r="C31" t="n">
+        <v>73.40000152587891</v>
+      </c>
+      <c r="D31" t="n">
+        <v>74.45999908447266</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1732.257351087026</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>24.66006695655778</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.309865225907285</v>
+      </c>
+      <c r="C32" t="n">
+        <v>269.4299926757812</v>
+      </c>
+      <c r="D32" t="n">
+        <v>266.9800109863281</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1684.607887334977</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-15.45905426638978</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>EXE</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>14.61507223952759</v>
+      </c>
+      <c r="C33" t="n">
+        <v>114.9899978637695</v>
+      </c>
+      <c r="D33" t="n">
+        <v>116.5500030517578</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1703.386714118602</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>22.79958851648644</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>13.17404895493532</v>
+      </c>
+      <c r="C34" t="n">
+        <v>120.8399963378906</v>
+      </c>
+      <c r="D34" t="n">
+        <v>122.0400009155273</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1607.760946521509</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>15.80891905193266</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10.48558720772088</v>
+      </c>
+      <c r="C35" t="n">
+        <v>151.25</v>
+      </c>
+      <c r="D35" t="n">
+        <v>153.6000061035156</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1610.586259104873</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>24.64119393708938</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>9.196072372908347</v>
+      </c>
+      <c r="C36" t="n">
+        <v>170.8000030517578</v>
+      </c>
+      <c r="D36" t="n">
+        <v>170.5800018310547</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1568.666042209217</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-2.023147147714099</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>55.72822222639387</v>
+      </c>
+      <c r="C37" t="n">
+        <v>27.73999977111816</v>
+      </c>
+      <c r="D37" t="n">
+        <v>27.36000061035156</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1524.724194127944</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-21.17667767704438</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>13.59923137288419</v>
+      </c>
+      <c r="C38" t="n">
+        <v>97.76000213623047</v>
+      </c>
+      <c r="D38" t="n">
+        <v>100.4000015258789</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1365.362850588353</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>35.90196252410215</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1.709923288585197</v>
+      </c>
+      <c r="C39" t="n">
+        <v>755.9000244140625</v>
+      </c>
+      <c r="D39" t="n">
+        <v>761.4500122070312</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1302.021108966285</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>9.490053378560788</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4.148055677004152</v>
+      </c>
+      <c r="C40" t="n">
+        <v>298.2900085449219</v>
+      </c>
+      <c r="D40" t="n">
+        <v>295.8099975585938</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1227.036339687509</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-10.28722365087106</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>16.0011903235469</v>
+      </c>
+      <c r="C41" t="n">
+        <v>75.98000335693359</v>
+      </c>
+      <c r="D41" t="n">
+        <v>74.91999816894531</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1198.809149741079</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-16.96134475694771</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5.229080435699405</v>
+      </c>
+      <c r="C42" t="n">
+        <v>224.8999938964844</v>
+      </c>
+      <c r="D42" t="n">
+        <v>228.1799926757812</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1193.171535518961</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>17.15137744593926</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>10.58815793136725</v>
+      </c>
+      <c r="C43" t="n">
+        <v>102.0599975585938</v>
+      </c>
+      <c r="D43" t="n">
+        <v>106.2399978637695</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1124.885876009711</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>44.2585033843643</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ABBV</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4.562366970007153</v>
+      </c>
+      <c r="C44" t="n">
+        <v>236.2799987792969</v>
+      </c>
+      <c r="D44" t="n">
+        <v>229.5099945068359</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1047.108818224511</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-30.88724387948309</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DOV</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>5.523847272306242</v>
+      </c>
+      <c r="C45" t="n">
+        <v>183.5800018310547</v>
+      </c>
+      <c r="D45" t="n">
+        <v>183.0399932861328</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1011.084967636558</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-2.982924727888758</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>5.767831166761293</v>
+      </c>
+      <c r="C46" t="n">
+        <v>175.3000030517578</v>
+      </c>
+      <c r="D46" t="n">
+        <v>176.8200073242188</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1019.867949151589</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>8.767128016310494</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>13.23211830410416</v>
+      </c>
+      <c r="C47" t="n">
+        <v>70.33000183105469</v>
+      </c>
+      <c r="D47" t="n">
+        <v>71</v>
+      </c>
+      <c r="E47" t="n">
+        <v>939.4803995913954</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>8.865495035017602</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>7.704582251068043</v>
+      </c>
+      <c r="C48" t="n">
+        <v>116.8199996948242</v>
+      </c>
+      <c r="D48" t="n">
+        <v>115.879997253418</v>
+      </c>
+      <c r="E48" t="n">
+        <v>892.8069700924976</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-7.242326126019293</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>HIG</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>6.556915980479311</v>
+      </c>
+      <c r="C49" t="n">
+        <v>136.4499969482422</v>
+      </c>
+      <c r="D49" t="n">
+        <v>136.6399993896484</v>
+      </c>
+      <c r="E49" t="n">
+        <v>895.9369955706692</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.245830044386707</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>6.867249973173125</v>
+      </c>
+      <c r="C50" t="n">
+        <v>126.6399993896484</v>
+      </c>
+      <c r="D50" t="n">
+        <v>125.2699966430664</v>
+      </c>
+      <c r="E50" t="n">
+        <v>860.2603810864953</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-9.408151324712549</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5.642485852260685</v>
+      </c>
+      <c r="C51" t="n">
+        <v>151.6799926757812</v>
+      </c>
+      <c r="D51" t="n">
+        <v>154.5700073242188</v>
+      </c>
+      <c r="E51" t="n">
+        <v>872.1590795107347</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>16.3068667666347</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>5.416558871801353</v>
+      </c>
+      <c r="C52" t="n">
+        <v>152.3500061035156</v>
+      </c>
+      <c r="D52" t="n">
+        <v>153.6499938964844</v>
+      </c>
+      <c r="E52" t="n">
+        <v>832.2542375922262</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>7.041460413238383</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>5.106999464619511</v>
+      </c>
+      <c r="C53" t="n">
+        <v>158.1600036621094</v>
+      </c>
+      <c r="D53" t="n">
+        <v>161.1900024414062</v>
+      </c>
+      <c r="E53" t="n">
+        <v>823.1972561702794</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>15.47420214366696</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CTRA</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>29.19571912820349</v>
+      </c>
+      <c r="C54" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="D54" t="n">
+        <v>26.20000076293945</v>
+      </c>
+      <c r="E54" t="n">
+        <v>764.9278634334974</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>13.13809588225752</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3.93038177703611</v>
+      </c>
+      <c r="C55" t="n">
+        <v>166.4299926757812</v>
+      </c>
+      <c r="D55" t="n">
+        <v>166.6499938964844</v>
+      </c>
+      <c r="E55" t="n">
+        <v>654.9980991539211</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.8646887887772436</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1.159640332522988</v>
+      </c>
+      <c r="C56" t="n">
+        <v>550.4299926757812</v>
+      </c>
+      <c r="D56" t="n">
+        <v>559.5999755859375</v>
+      </c>
+      <c r="E56" t="n">
+        <v>648.9347017683324</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>10.63388203116369</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>8.998992310675217</v>
+      </c>
+      <c r="C57" t="n">
+        <v>65.69000244140625</v>
+      </c>
+      <c r="D57" t="n">
+        <v>64.30000305175781</v>
+      </c>
+      <c r="E57" t="n">
+        <v>578.6352330391616</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-12.50859381928944</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>VTRS</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>56.72607567224335</v>
+      </c>
+      <c r="C58" t="n">
+        <v>10.34000015258789</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10.56999969482422</v>
+      </c>
+      <c r="E58" t="n">
+        <v>599.5946025441878</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>13.04697143747921</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>RVTY</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>5.937790859933929</v>
+      </c>
+      <c r="C59" t="n">
+        <v>98.26999664306641</v>
+      </c>
+      <c r="D59" t="n">
+        <v>100.5800018310547</v>
+      </c>
+      <c r="E59" t="n">
+        <v>597.2230155645743</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>13.71632769163671</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1.965372021459283</v>
+      </c>
+      <c r="C60" t="n">
+        <v>295.8399963378906</v>
+      </c>
+      <c r="D60" t="n">
+        <v>296.2300109863281</v>
+      </c>
+      <c r="E60" t="n">
+        <v>582.2021755091052</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.7665238779983383</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.3962598944313902</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1452.349975585938</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1470.140014648438</v>
+      </c>
+      <c r="E61" t="n">
+        <v>582.5575270039523</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7.049479000836527</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>24.71515831163188</v>
+      </c>
+      <c r="C62" t="n">
+        <v>23.17000007629395</v>
+      </c>
+      <c r="D62" t="n">
+        <v>22.86000061035156</v>
+      </c>
+      <c r="E62" t="n">
+        <v>564.9885340888403</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-7.661685877287368</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>9.214369544111666</v>
+      </c>
+      <c r="C63" t="n">
+        <v>59.13999938964844</v>
+      </c>
+      <c r="D63" t="n">
+        <v>57.70999908447266</v>
+      </c>
+      <c r="E63" t="n">
+        <v>531.7612579546769</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-13.17655126008208</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>KVUE</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>30.68428142225193</v>
+      </c>
+      <c r="C64" t="n">
+        <v>16.63999938964844</v>
+      </c>
+      <c r="D64" t="n">
+        <v>16.76000022888184</v>
+      </c>
+      <c r="E64" t="n">
+        <v>514.268563660017</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3.682139521944009</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TECH</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>7.988321219358578</v>
+      </c>
+      <c r="C65" t="n">
+        <v>61.52999877929688</v>
+      </c>
+      <c r="D65" t="n">
+        <v>63.4900016784668</v>
+      </c>
+      <c r="E65" t="n">
+        <v>507.178527625208</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>15.65713274944341</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>6.643422664749699</v>
+      </c>
+      <c r="C66" t="n">
+        <v>72.94999694824219</v>
+      </c>
+      <c r="D66" t="n">
+        <v>72.58999633789062</v>
+      </c>
+      <c r="E66" t="n">
+        <v>482.2460269052402</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-2.391636214133314</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.6587303850466292</v>
+      </c>
+      <c r="C67" t="n">
+        <v>725.9099731445312</v>
+      </c>
+      <c r="D67" t="n">
+        <v>752.1400146484375</v>
+      </c>
+      <c r="E67" t="n">
+        <v>495.4574814583426</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>17.27852533965722</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.2320681927222358</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1788.199951171875</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1748.25</v>
+      </c>
+      <c r="E68" t="n">
+        <v>405.7132179266487</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-9.271112967798558</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1.952396302245301</v>
+      </c>
+      <c r="C69" t="n">
+        <v>203.8999938964844</v>
+      </c>
+      <c r="D69" t="n">
+        <v>206.0500030517578</v>
+      </c>
+      <c r="E69" t="n">
+        <v>402.291264035885</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4.197669924549416</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1.379547137820181</v>
+      </c>
+      <c r="C70" t="n">
+        <v>249.9100036621094</v>
+      </c>
+      <c r="D70" t="n">
+        <v>259.8500061035156</v>
+      </c>
+      <c r="E70" t="n">
+        <v>358.4753321826615</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>13.71270191796759</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PODD</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.981998238004134</v>
+      </c>
+      <c r="C71" t="n">
+        <v>331.1700134277344</v>
+      </c>
+      <c r="D71" t="n">
+        <v>337.5299987792969</v>
+      </c>
+      <c r="E71" t="n">
+        <v>331.453864074807</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>6.245494408966465</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NEM</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2.667567696249686</v>
+      </c>
+      <c r="C72" t="n">
+        <v>83.48999786376953</v>
+      </c>
+      <c r="D72" t="n">
+        <v>86.52999877929688</v>
+      </c>
+      <c r="E72" t="n">
+        <v>230.8246295001771</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>8.109408238830213</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>3.254804481015906</v>
+      </c>
+      <c r="C73" t="n">
+        <v>57.02999877929688</v>
+      </c>
+      <c r="D73" t="n">
+        <v>57.54000091552734</v>
+      </c>
+      <c r="E73" t="n">
+        <v>187.2814528175177</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.659957238330634</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.8598091055546733</v>
+      </c>
+      <c r="C74" t="n">
+        <v>214.3200073242188</v>
+      </c>
+      <c r="D74" t="n">
+        <v>212.3699951171875</v>
+      </c>
+      <c r="E74" t="n">
+        <v>182.5976555483593</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-1.676638251548241</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.8284474177828531</v>
+      </c>
+      <c r="C75" t="n">
+        <v>168.0899963378906</v>
+      </c>
+      <c r="D75" t="n">
+        <v>169.5599975585938</v>
+      </c>
+      <c r="E75" t="n">
+        <v>140.4715421366839</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.217818715429132</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>CNC</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1.886673267854638</v>
+      </c>
+      <c r="C76" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D76" t="n">
+        <v>38.16999816894531</v>
+      </c>
+      <c r="E76" t="n">
+        <v>72.01431517940961</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3.150740902715313</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>EIX</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.7403263131909066</v>
+      </c>
+      <c r="C77" t="n">
+        <v>58.58000183105469</v>
+      </c>
+      <c r="D77" t="n">
+        <v>59.18000030517578</v>
+      </c>
+      <c r="E77" t="n">
+        <v>43.81251144056751</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.444194658266241</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.3150232481385502</v>
+      </c>
+      <c r="C78" t="n">
+        <v>72.04000091552734</v>
+      </c>
+      <c r="D78" t="n">
+        <v>73.23999786376953</v>
+      </c>
+      <c r="E78" t="n">
+        <v>23.07230202070516</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.3780269363916027</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BMY</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.3656662780591144</v>
+      </c>
+      <c r="C79" t="n">
+        <v>46.25</v>
+      </c>
+      <c r="D79" t="n">
+        <v>47.7599983215332</v>
+      </c>
+      <c r="E79" t="n">
+        <v>17.4642208263446</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.5521554661105554</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>IFF</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.2340769686449226</v>
+      </c>
+      <c r="C80" t="n">
+        <v>67.44999694824219</v>
+      </c>
+      <c r="D80" t="n">
+        <v>67.44999694824219</v>
+      </c>
+      <c r="E80" t="n">
+        <v>15.78849082075381</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>RL</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.03411622948555466</v>
+      </c>
+      <c r="C81" t="n">
+        <v>339.8800048828125</v>
+      </c>
+      <c r="D81" t="n">
+        <v>349.9800109863281</v>
+      </c>
+      <c r="E81" t="n">
+        <v>11.93999837016651</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.3445741260330433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
